--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157337C6-083B-48C3-8155-8A265EB5FE76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6CCF84-3625-43B8-AD32-1917332D2845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Month index</t>
   </si>
@@ -220,10 +220,7 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARYS RIVER NEAR PHILOMATH 23762895</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Obs:..\Observations\Marys\obs_usgs14171000.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</t>
   </si>
 </sst>
 </file>
@@ -898,7 +895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> MARYS RIVER NEAR PHILOMATH 23762895</c:v>
+                  <c:v> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -922,328 +919,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>955.823486</c:v>
+                  <c:v>522.61016800000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>601.91247599999997</c:v>
+                  <c:v>458.64724699999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>675.74249299999997</c:v>
+                  <c:v>382.36044299999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>724.22406000000001</c:v>
+                  <c:v>406.62750199999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>252.37588500000001</c:v>
+                  <c:v>390.13378899999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.172653</c:v>
+                  <c:v>421.69918799999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.065052000000001</c:v>
+                  <c:v>307.477936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.732680999999999</c:v>
+                  <c:v>262.75674400000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.814129000000001</c:v>
+                  <c:v>256.93081699999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.998215000000002</c:v>
+                  <c:v>266.20266700000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>253.28012100000001</c:v>
+                  <c:v>391.70986900000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1187.575928</c:v>
+                  <c:v>548.96722399999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>875.88385000000005</c:v>
+                  <c:v>662.111267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>550.79473900000005</c:v>
+                  <c:v>618.62017800000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1228.299561</c:v>
+                  <c:v>586.94580099999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>614.52948000000004</c:v>
+                  <c:v>691.17169200000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309.63998400000003</c:v>
+                  <c:v>637.61676</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136.10560599999999</c:v>
+                  <c:v>517.37292500000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.756832000000003</c:v>
+                  <c:v>375.07519500000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.849434000000002</c:v>
+                  <c:v>303.08050500000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.702903999999997</c:v>
+                  <c:v>263.02398699999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.784184000000003</c:v>
+                  <c:v>265.92004400000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220.51297</c:v>
+                  <c:v>279.08657799999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>312.77194200000002</c:v>
+                  <c:v>328.01333599999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1724.9458010000001</c:v>
+                  <c:v>478.47442599999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>647.446777</c:v>
+                  <c:v>556.89880400000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1427.231567</c:v>
+                  <c:v>562.65966800000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>751.95678699999996</c:v>
+                  <c:v>859.74102800000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>261.01324499999998</c:v>
+                  <c:v>686.46557600000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>157.38691700000001</c:v>
+                  <c:v>505.05938700000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.065810999999997</c:v>
+                  <c:v>381.33160400000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.840054000000002</c:v>
+                  <c:v>303.48501599999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.940219999999997</c:v>
+                  <c:v>263.86615</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81.073616000000001</c:v>
+                  <c:v>310.11679099999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>735.13653599999998</c:v>
+                  <c:v>527.22924799999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1574.973999</c:v>
+                  <c:v>736.90203899999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>428.19769300000002</c:v>
+                  <c:v>485.157623</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>350.40704299999999</c:v>
+                  <c:v>456.41424599999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>403.760223</c:v>
+                  <c:v>516.72863800000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>340.55215500000003</c:v>
+                  <c:v>579.59802200000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>144.61364699999999</c:v>
+                  <c:v>425.31900000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>121.263626</c:v>
+                  <c:v>363.84823599999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55.145847000000003</c:v>
+                  <c:v>295.73376500000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46.797215000000001</c:v>
+                  <c:v>256.02822900000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>71.913071000000002</c:v>
+                  <c:v>252.336456</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>151.996658</c:v>
+                  <c:v>338.40884399999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>236.682602</c:v>
+                  <c:v>321.61099200000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>240.04354900000001</c:v>
+                  <c:v>310.796448</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>353.182953</c:v>
+                  <c:v>319.38742100000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1306.1141359999999</c:v>
+                  <c:v>475.196594</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1100.2342530000001</c:v>
+                  <c:v>937.10784899999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>501.66073599999999</c:v>
+                  <c:v>707.75299099999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>309.24343900000002</c:v>
+                  <c:v>567.31201199999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>85.035781999999998</c:v>
+                  <c:v>412.42486600000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>68.389129999999994</c:v>
+                  <c:v>329.39389</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50.435794999999999</c:v>
+                  <c:v>275.24258400000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>52.134171000000002</c:v>
+                  <c:v>248.75607299999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>102.225601</c:v>
+                  <c:v>281.43014499999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>506.61776700000001</c:v>
+                  <c:v>487.87530500000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1340.419189</c:v>
+                  <c:v>741.13519299999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>623.76916500000004</c:v>
+                  <c:v>671.43841599999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>890.83160399999997</c:v>
+                  <c:v>570.351135</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>434.24011200000001</c:v>
+                  <c:v>431.98306300000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>303.520081</c:v>
+                  <c:v>382.35730000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>116.915199</c:v>
+                  <c:v>309.92392000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>76.479042000000007</c:v>
+                  <c:v>266.651184</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>48.475619999999999</c:v>
+                  <c:v>239.993469</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49.727119000000002</c:v>
+                  <c:v>227.60005200000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>56.577064999999997</c:v>
+                  <c:v>226.52647400000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>59.819332000000003</c:v>
+                  <c:v>221.140961</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>279.12872299999998</c:v>
+                  <c:v>396.98577899999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1958.7250979999999</c:v>
+                  <c:v>690.753784</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1080.8671879999999</c:v>
+                  <c:v>675.01367200000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>632.61267099999998</c:v>
+                  <c:v>849.90185499999995</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1098.4719239999999</c:v>
+                  <c:v>817.418274</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>348.10006700000002</c:v>
+                  <c:v>615.465149</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>187.93815599999999</c:v>
+                  <c:v>450.40310699999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>94.483481999999995</c:v>
+                  <c:v>355.11968999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>74.403525999999999</c:v>
+                  <c:v>295.21850599999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>54.551223999999998</c:v>
+                  <c:v>255.736313</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>58.620170999999999</c:v>
+                  <c:v>240.93592799999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>625.13391100000001</c:v>
+                  <c:v>501.890198</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1119.8626710000001</c:v>
+                  <c:v>561.65826400000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>896.54022199999997</c:v>
+                  <c:v>450.071594</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1006.669373</c:v>
+                  <c:v>368.18246499999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1863.2935789999999</c:v>
+                  <c:v>772.75885000000005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1191.0135499999999</c:v>
+                  <c:v>925.00207499999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>615.91210899999999</c:v>
+                  <c:v>968.93457000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>266.32086199999998</c:v>
+                  <c:v>776.57995600000004</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>108.891518</c:v>
+                  <c:v>530.32818599999996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>58.861030999999997</c:v>
+                  <c:v>393.33126800000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>58.488616999999998</c:v>
+                  <c:v>314.628693</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>67.151031000000003</c:v>
+                  <c:v>296.22668499999997</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>146.840317</c:v>
+                  <c:v>374.50503500000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>788.13421600000004</c:v>
+                  <c:v>542.43609600000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>486.38000499999998</c:v>
+                  <c:v>513.369507</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1017.191467</c:v>
+                  <c:v>511.41516100000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>509.87152099999997</c:v>
+                  <c:v>524.05706799999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>638.07299799999998</c:v>
+                  <c:v>505.62884500000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>768.86077899999998</c:v>
+                  <c:v>553.13836700000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>136.438782</c:v>
+                  <c:v>398.22967499999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>65.476394999999997</c:v>
+                  <c:v>312.84823599999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>59.659236999999997</c:v>
+                  <c:v>268.40554800000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>59.801651</c:v>
+                  <c:v>243.937378</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>65.578995000000006</c:v>
+                  <c:v>230.102463</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>68.620437999999993</c:v>
+                  <c:v>230.11279300000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>108.72427399999999</c:v>
+                  <c:v>290.16000400000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>721.82580600000006</c:v>
+                  <c:v>441.81265300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1261,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\Marys\obs_usgs14171000.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1288,328 +1285,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>973.709656</c:v>
+                  <c:v>633.59283400000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607.964294</c:v>
+                  <c:v>425.65698200000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772.290344</c:v>
+                  <c:v>373.90524299999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>772.06664999999998</c:v>
+                  <c:v>516.30627400000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>291.83871499999998</c:v>
+                  <c:v>510.29437300000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315.20001200000002</c:v>
+                  <c:v>628.17913799999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.474189999999993</c:v>
+                  <c:v>374.57525600000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.454840000000001</c:v>
+                  <c:v>275.82794200000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.91</c:v>
+                  <c:v>241.34721400000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.303234000000003</c:v>
+                  <c:v>229.03131099999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>396.24331699999999</c:v>
+                  <c:v>366.80126999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1347.1936040000001</c:v>
+                  <c:v>656.46301300000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>975.90319799999997</c:v>
+                  <c:v>758.90728799999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>436.17855800000001</c:v>
+                  <c:v>523.816101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1271.2258300000001</c:v>
+                  <c:v>472.20327800000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>747.56664999999998</c:v>
+                  <c:v>686.89923099999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>326.354828</c:v>
+                  <c:v>778.66332999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>143.37001000000001</c:v>
+                  <c:v>826.61328100000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57.880642000000002</c:v>
+                  <c:v>513.37567100000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.422582999999999</c:v>
+                  <c:v>398.268799</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.276668000000001</c:v>
+                  <c:v>310.50412</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.393545</c:v>
+                  <c:v>267.33938599999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>223.71670499999999</c:v>
+                  <c:v>271.36877399999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>372.05484000000001</c:v>
+                  <c:v>332.02279700000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1834.580688</c:v>
+                  <c:v>747.57867399999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>622.62066700000003</c:v>
+                  <c:v>626.625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1729.903198</c:v>
+                  <c:v>563.50689699999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>801.90002400000003</c:v>
+                  <c:v>898.37103300000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>307.96774299999998</c:v>
+                  <c:v>996.23992899999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>113.773331</c:v>
+                  <c:v>681.18328899999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57.141941000000003</c:v>
+                  <c:v>481.72918700000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.764514999999999</c:v>
+                  <c:v>366.778595</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.383330999999998</c:v>
+                  <c:v>294.694458</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.674197999999997</c:v>
+                  <c:v>274.35879499999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>772.94665499999996</c:v>
+                  <c:v>514.78887899999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1691.6129149999999</c:v>
+                  <c:v>824.81103499999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>492.77420000000001</c:v>
+                  <c:v>412.20935100000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>433.142853</c:v>
+                  <c:v>382.81478900000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>395.22579999999999</c:v>
+                  <c:v>437.68179300000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>316.23333700000001</c:v>
+                  <c:v>782.16125499999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>125.925804</c:v>
+                  <c:v>584.118652</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.136664999999994</c:v>
+                  <c:v>451.94134500000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.070965000000001</c:v>
+                  <c:v>334.18719499999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.061288999999999</c:v>
+                  <c:v>244.20327800000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>80.030006</c:v>
+                  <c:v>220.821213</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>126.509674</c:v>
+                  <c:v>315.99529999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>158.259995</c:v>
+                  <c:v>307.77313199999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>231.83871500000001</c:v>
+                  <c:v>356.69754</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>345.22579999999999</c:v>
+                  <c:v>335.19628899999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1439.5</c:v>
+                  <c:v>805.42468299999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1099.3226320000001</c:v>
+                  <c:v>1049.1136469999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>463.5</c:v>
+                  <c:v>720.01660200000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>281.93548600000003</c:v>
+                  <c:v>658.71105999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.176659000000001</c:v>
+                  <c:v>441.70452899999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42.235477000000003</c:v>
+                  <c:v>362.28997800000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.122579999999999</c:v>
+                  <c:v>278.85382099999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.856668000000001</c:v>
+                  <c:v>235.81594799999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53.664524</c:v>
+                  <c:v>223.83869899999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>385.36669899999998</c:v>
+                  <c:v>411.79901100000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1358.8709719999999</c:v>
+                  <c:v>656.54193099999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>656.90319799999997</c:v>
+                  <c:v>514.29370100000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>975.714294</c:v>
+                  <c:v>565.96466099999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>328.41934199999997</c:v>
+                  <c:v>385.28106700000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>244.23333700000001</c:v>
+                  <c:v>396.03781099999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>90.412895000000006</c:v>
+                  <c:v>293.912689</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>40.153331999999999</c:v>
+                  <c:v>220.25415000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.829032999999999</c:v>
+                  <c:v>173.981537</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.3787109999999991</c:v>
+                  <c:v>152.941193</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.217336</c:v>
+                  <c:v>139.972916</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18.838706999999999</c:v>
+                  <c:v>126.537308</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>161.49333200000001</c:v>
+                  <c:v>221.43119799999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2082.5710450000001</c:v>
+                  <c:v>607.42169200000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1218.1936040000001</c:v>
+                  <c:v>434.39514200000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>720.68963599999995</c:v>
+                  <c:v>641.31897000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1171.290283</c:v>
+                  <c:v>707.70825200000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>328.366669</c:v>
+                  <c:v>676.07458499999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>162.49676500000001</c:v>
+                  <c:v>452.76947000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>66.136650000000003</c:v>
+                  <c:v>336.61318999999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33.951613999999999</c:v>
+                  <c:v>252.70665</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.91258</c:v>
+                  <c:v>204.46639999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.234334</c:v>
+                  <c:v>178.68644699999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>486.83871499999998</c:v>
+                  <c:v>331.07891799999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1001.633362</c:v>
+                  <c:v>404.97912600000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>927.41937299999995</c:v>
+                  <c:v>411.908569</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1081.8709719999999</c:v>
+                  <c:v>335.74652099999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2117.0715329999998</c:v>
+                  <c:v>599.73553500000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1235.3226320000001</c:v>
+                  <c:v>821.78002900000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>601.76666299999999</c:v>
+                  <c:v>915.23547399999995</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>309.19354199999998</c:v>
+                  <c:v>970.514771</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>113.256668</c:v>
+                  <c:v>608.74694799999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>45.112904</c:v>
+                  <c:v>433.807343</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>25.009678000000001</c:v>
+                  <c:v>333.24765000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25.230001000000001</c:v>
+                  <c:v>279.36144999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>129.49998500000001</c:v>
+                  <c:v>325.57327299999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>672.20330799999999</c:v>
+                  <c:v>611.67675799999995</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>468.645172</c:v>
+                  <c:v>490.97482300000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>920.54840100000001</c:v>
+                  <c:v>515.40911900000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>566.214294</c:v>
+                  <c:v>531.03466800000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>615.77417000000003</c:v>
+                  <c:v>404.23397799999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>663.63336200000003</c:v>
+                  <c:v>656.39202899999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>164.674194</c:v>
+                  <c:v>521.24169900000004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>64.460007000000004</c:v>
+                  <c:v>358.698395</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>27.525805999999999</c:v>
+                  <c:v>279.09741200000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14.280643</c:v>
+                  <c:v>232.69052099999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>14.81</c:v>
+                  <c:v>199.79652400000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>19.780646999999998</c:v>
+                  <c:v>175.65425099999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>67.923332000000002</c:v>
+                  <c:v>177.17825300000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>487.07098400000001</c:v>
+                  <c:v>328.79098499999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7900,7 +7897,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I111"/>
+      <selection activeCell="H3" sqref="H3:I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7919,7 +7916,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>415.97643158333335</v>
+        <v>384.67696616666672</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7928,7 +7925,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>628445.76654397626</v>
+        <v>1194459.1764138336</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7947,7 +7944,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-2.7977570740741839</v>
+        <v>-8.3133063333330597</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7957,11 +7954,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>438.47498333333328</v>
+        <v>450.85237671296306</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>441.27274040740747</v>
+        <v>459.16568304629612</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7971,12 +7968,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>5818.9422828145953</v>
+        <v>11059.807189016978</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>54.569194777777781</v>
+        <v>77.751676944444455</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -7995,7 +7992,7 @@
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>6.3806538124600368E-3</v>
+        <v>1.843908729935732E-2</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -8013,11 +8010,11 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -8083,11 +8080,11 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.9766451827706828</v>
+        <v>0.7503149616248429</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8102,46 +8099,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>955.823486</v>
+        <v>522.61016800000004</v>
       </c>
       <c r="I4">
-        <v>973.709656</v>
+        <v>633.59283400000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>17.886169999999993</v>
+        <v>110.98266599999999</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>532.43691559259253</v>
+        <v>174.42715095370392</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>517.34850266666672</v>
+        <v>71.75779128703698</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>283489.06908575352</v>
+        <v>30424.830989826212</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>267649.47321144206</v>
+        <v>5149.1806103939607</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>275455.44104628614</v>
+        <v>12516.507092928379</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>319.91507726889972</v>
+        <v>12317.152152467555</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>286476.15482459386</v>
+        <v>33394.074729475382</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>17.886169999999993</v>
+        <v>110.98266599999999</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8182,7 +8179,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.15282042904934845</v>
+        <v>0.49929557945138664</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8201,46 +8198,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>601.91247599999997</v>
+        <v>458.64724699999999</v>
       </c>
       <c r="I5">
-        <v>607.964294</v>
+        <v>425.65698200000003</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>6.0518180000000257</v>
+        <v>-32.990264999999965</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>166.69155359259253</v>
+        <v>-33.508701046296096</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>163.43749266666669</v>
+        <v>7.7948702870369289</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>27786.074039112147</v>
+        <v>1122.8330458100452</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>26711.814009166726</v>
+        <v>60.760002791731175</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>27243.649567884619</v>
+        <v>-261.19597814297668</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>36.62450110512431</v>
+        <v>1088.3575847702227</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>28726.626430261862</v>
+        <v>634.80791474200578</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>6.0518180000000257</v>
+        <v>32.990264999999965</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8281,11 +8278,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.98226812936754015</v>
+        <v>0.75194565051336237</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -8300,46 +8297,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>675.74249299999997</v>
+        <v>382.36044299999998</v>
       </c>
       <c r="I6">
-        <v>772.290344</v>
+        <v>373.90524299999998</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>96.547851000000037</v>
+        <v>-8.4551999999999907</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>331.01760359259254</v>
+        <v>-85.260440046296139</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>237.26750966666668</v>
+        <v>-68.491933712963089</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>109572.65388818273</v>
+        <v>7269.3426368880582</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>56295.871143421769</v>
+        <v>4691.14498374093</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>78539.722460242294</v>
+        <v>5839.6524079889787</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>9321.487532718209</v>
+        <v>71.490407039999837</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>111432.69501701678</v>
+        <v>5920.8613866406195</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>96.547851000000037</v>
+        <v>8.4551999999999907</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8380,7 +8377,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>438.47498333333328</v>
+        <v>450.85237671296306</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8396,46 +8393,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>724.22406000000001</v>
+        <v>406.62750199999999</v>
       </c>
       <c r="I7">
-        <v>772.06664999999998</v>
+        <v>516.30627400000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>47.842589999999973</v>
+        <v>109.67877200000004</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>330.79390959259251</v>
+        <v>57.140590953703907</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>285.74907666666672</v>
+        <v>-44.224874712963071</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>109424.61062355227</v>
+        <v>3265.0471345385085</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>81652.534815852574</v>
+        <v>1955.8395433772805</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>94524.054233040137</v>
+        <v>-2527.0354759522265</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>2288.9134179080975</v>
+        <v>12029.433027427993</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>111283.40006944447</v>
+        <v>4284.2126700619847</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>47.842589999999973</v>
+        <v>109.67877200000004</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8476,7 +8473,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>457.38292332746835</v>
+        <v>180.73685611759367</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8492,46 +8489,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>252.37588500000001</v>
+        <v>390.13378899999998</v>
       </c>
       <c r="I8">
-        <v>291.83871499999998</v>
+        <v>510.29437300000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>39.462829999999968</v>
+        <v>120.16058400000003</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-149.43402540740749</v>
+        <v>51.128689953703883</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-186.09909833333327</v>
+        <v>-60.718587712963085</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>22330.527949461706</v>
+        <v>2614.1429363819802</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>34632.874400479646</v>
+        <v>3686.7468938567918</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>27809.53738863895</v>
+        <v>-3104.4618456028638</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>1557.3149516088974</v>
+        <v>14438.565947221063</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>21502.195190725328</v>
+        <v>3533.3509225881139</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>39.462829999999968</v>
+        <v>120.16058400000003</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8572,7 +8569,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>441.27274040740747</v>
+        <v>459.16568304629612</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8588,46 +8585,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>187.172653</v>
+        <v>421.69918799999999</v>
       </c>
       <c r="I9">
-        <v>315.20001200000002</v>
+        <v>628.17913799999997</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>128.02735900000002</v>
+        <v>206.47994999999997</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>-126.07272840740745</v>
+        <v>169.01345495370384</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>-251.30233033333329</v>
+        <v>-29.153188712963072</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>15894.332848087923</v>
+        <v>28565.547955387679</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>63152.861230963761</v>
+        <v>849.9084121336374</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>31682.370440262919</v>
+        <v>-4927.2811472952117</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>16391.004652514886</v>
+        <v>42633.969752002486</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>15196.718557234139</v>
+        <v>31444.78026854977</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>128.02735900000002</v>
+        <v>206.47994999999997</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8668,7 +8665,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>499.15311797950352</v>
+        <v>210.46385366426577</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8683,46 +8680,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>34.065052000000001</v>
+        <v>307.477936</v>
       </c>
       <c r="I10">
-        <v>67.474189999999993</v>
+        <v>374.57525600000002</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>33.409137999999992</v>
+        <v>67.097320000000025</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-373.79855040740745</v>
+        <v>-84.590427046296099</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-404.4099313333333</v>
+        <v>-143.37444071296306</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>139725.35628667913</v>
+        <v>7155.540347874743</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>163547.39256103136</v>
+        <v>20556.230249754961</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>151167.84610275918</v>
+        <v>12128.105167433407</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>1116.1705019030435</v>
+        <v>4502.0503511824036</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>137641.58865396265</v>
+        <v>5818.1991442599356</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>33.409137999999992</v>
+        <v>67.097320000000025</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8763,7 +8760,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>76.281991864493122</v>
+        <v>105.16561790346205</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8778,46 +8775,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>31.732680999999999</v>
+        <v>262.75674400000003</v>
       </c>
       <c r="I11">
-        <v>29.454840000000001</v>
+        <v>275.82794200000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2778409999999987</v>
+        <v>13.071197999999981</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-411.81790040740748</v>
+        <v>-183.33774104629612</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-406.74230233333327</v>
+        <v>-188.09563271296304</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>169593.98309596538</v>
+        <v>33612.727291958734</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>165439.30050742067</v>
+        <v>35379.967045689889</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>167503.76095378827</v>
+        <v>34485.028402268443</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>5.1885596212809943</v>
+        <v>170.8562171552035</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>167297.47765242052</v>
+        <v>30633.552746592268</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>2.2778409999999987</v>
+        <v>13.071197999999981</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8858,7 +8855,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.99109440991640152</v>
+        <v>0.86714799804494869</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8874,46 +8871,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>37.814129000000001</v>
+        <v>256.93081699999999</v>
       </c>
       <c r="I12">
-        <v>30.91</v>
+        <v>241.34721400000001</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-6.9041290000000011</v>
+        <v>-15.583602999999982</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-410.36274040740744</v>
+        <v>-217.81846904629612</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-400.6608543333333</v>
+        <v>-193.92155971296307</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>168397.57871467728</v>
+        <v>47444.885457672259</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>160529.12019511653</v>
+        <v>37605.571321508301</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>164416.28615819974</v>
+        <v>42239.697251747508</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>47.666997248641017</v>
+        <v>242.84868246160846</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>166109.21563950021</v>
+        <v>43892.413203385127</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>6.9041290000000011</v>
+        <v>15.583602999999982</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8954,7 +8951,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>54.569194777777781</v>
+        <v>77.751676944444455</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8969,46 +8966,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>49.998215000000002</v>
+        <v>266.20266700000002</v>
       </c>
       <c r="I13">
-        <v>63.303234000000003</v>
+        <v>229.03131099999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>13.305019000000001</v>
+        <v>-37.171356000000031</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-377.96950640740749</v>
+        <v>-230.13437204629614</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-388.47676833333327</v>
+        <v>-184.64970971296304</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>142860.94777385925</v>
+        <v>52961.829197143052</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>150914.19953471029</v>
+        <v>34095.515297081518</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>146832.37237769476</v>
+        <v>42494.24499332362</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>177.02353059036105</v>
+        <v>1381.7097068787384</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>140753.84149783349</v>
+        <v>49204.585194034684</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>13.305019000000001</v>
+        <v>37.171356000000031</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9057,46 +9054,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>253.28012100000001</v>
+        <v>391.70986900000003</v>
       </c>
       <c r="I14">
-        <v>396.24331699999999</v>
+        <v>366.80126999999999</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>142.96319599999998</v>
+        <v>-24.908599000000038</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-45.029423407407478</v>
+        <v>-92.364413046296136</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-185.19486233333328</v>
+        <v>-59.142507712963038</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>2027.6489724035764</v>
+        <v>8531.1847973867989</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>34297.137034662264</v>
+        <v>3497.8362185778924</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>8339.2178688842032</v>
+        <v>5462.6630109938733</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>20438.475410534411</v>
+        <v>620.43830414280285</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>1783.5136412899967</v>
+        <v>7064.5885396739068</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>142.96319599999998</v>
+        <v>24.908599000000038</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9134,7 +9131,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.15282042904934845</v>
+        <v>0.49929557945138664</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9149,46 +9146,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>1187.575928</v>
+        <v>548.96722399999999</v>
       </c>
       <c r="I15">
-        <v>1347.1936040000001</v>
+        <v>656.46301300000005</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>159.61767600000007</v>
+        <v>107.49578900000006</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>905.92086359259258</v>
+        <v>197.29732995370392</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>749.10094466666669</v>
+        <v>98.114847287036923</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>820692.6110923487</v>
+        <v>38926.236406860713</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>561152.22530049249</v>
+        <v>9626.5232581585769</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>678626.1747104536</v>
+        <v>19357.797398547795</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>25477.802491641</v>
+        <v>11555.344652732534</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>825769.53154632938</v>
+        <v>42275.733754360212</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>159.61767600000007</v>
+        <v>107.49578900000006</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9237,46 +9234,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>875.88385000000005</v>
+        <v>662.111267</v>
       </c>
       <c r="I16">
-        <v>975.90319799999997</v>
+        <v>758.90728799999999</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>100.01934799999992</v>
+        <v>96.796020999999996</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>534.63045759259251</v>
+        <v>299.74160495370387</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>437.40886666666677</v>
+        <v>211.25889028703693</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>285829.72618566483</v>
+        <v>89845.029740222279</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>191326.51663861788</v>
+        <v>44630.31872531031</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>233852.10254105733</v>
+        <v>63323.078835374894</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>10003.869974345089</v>
+        <v>9369.4696814324398</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>288829.0859198008</v>
+        <v>94897.828368064191</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>100.01934799999992</v>
+        <v>96.796020999999996</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9304,46 +9301,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>550.79473900000005</v>
+        <v>618.62017800000001</v>
       </c>
       <c r="I17">
-        <v>436.17855800000001</v>
+        <v>523.816101</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-114.61618100000004</v>
+        <v>-94.804077000000007</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.0941824074074589</v>
+        <v>64.650417953703879</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>112.31975566666677</v>
+        <v>167.76780128703695</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>25.950694399939653</v>
+        <v>4179.6765415885966</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>12615.727513019721</v>
+        <v>28146.035148686715</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>-572.17732332143805</v>
+        <v>10846.258472380878</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>13136.86894702477</v>
+        <v>8987.8130158219301</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>5.2735693115748425</v>
+        <v>5323.7050618347439</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>114.61618100000004</v>
+        <v>94.804077000000007</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9371,46 +9368,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>1228.299561</v>
+        <v>586.94580099999996</v>
       </c>
       <c r="I18">
-        <v>1271.2258300000001</v>
+        <v>472.20327800000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>42.926269000000048</v>
+        <v>-114.74252299999995</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>829.95308959259262</v>
+        <v>13.037594953703888</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>789.82457766666676</v>
+        <v>136.0934242870369</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>688822.13092429005</v>
+        <v>169.97888217684508</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>623822.86348632851</v>
+        <v>18521.420134171443</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>655517.34847061476</v>
+        <v>1774.3309417169544</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>1842.6645702603651</v>
+        <v>13165.846584405517</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>693473.97262405045</v>
+        <v>455.86098576879596</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>42.926269000000048</v>
+        <v>114.74252299999995</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9438,46 +9435,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>614.52948000000004</v>
+        <v>691.17169200000001</v>
       </c>
       <c r="I19">
-        <v>747.56664999999998</v>
+        <v>686.89923099999999</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>133.03716999999995</v>
+        <v>-4.2724610000000212</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>306.29390959259251</v>
+        <v>227.73354795370386</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>176.05449666666675</v>
+        <v>240.31931528703694</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>93815.959053515238</v>
+        <v>51862.568863581939</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>30995.185796553375</v>
+        <v>57753.373300030267</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>53924.420085389407</v>
+        <v>54728.770312121706</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>17698.888601608887</v>
+        <v>18.25392299652118</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>95537.658402777801</v>
+        <v>55718.117418805639</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>133.03716999999995</v>
+        <v>4.2724610000000212</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9505,46 +9502,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>309.63998400000003</v>
+        <v>637.61676</v>
       </c>
       <c r="I20">
-        <v>326.354828</v>
+        <v>778.66332999999997</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>16.714843999999971</v>
+        <v>141.04656999999997</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-114.91791240740747</v>
+        <v>319.49764695370385</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-128.83499933333326</v>
+        <v>186.76438328703694</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>13206.126592076576</v>
+        <v>102078.74640895359</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>16598.45705321998</v>
+        <v>34880.934864587238</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>14805.449168396392</v>
+        <v>59670.780994967958</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>279.386009944335</v>
+        <v>19894.134908764892</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>12570.929231970784</v>
+        <v>107460.0210949559</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>16.714843999999971</v>
+        <v>141.04656999999997</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9572,46 +9569,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>136.10560599999999</v>
+        <v>517.37292500000001</v>
       </c>
       <c r="I21">
-        <v>143.37001000000001</v>
+        <v>826.61328100000003</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>7.2644040000000132</v>
+        <v>309.24035600000002</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-297.90273040740749</v>
+        <v>367.44759795370391</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-302.36937733333332</v>
+        <v>66.520548287036945</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>88746.036784188502</v>
+        <v>135017.73724194683</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>91427.2403489477</v>
+        <v>4424.9833444080141</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>90076.663099187659</v>
+        <v>24442.815682635097</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>52.771565475216192</v>
+        <v>95629.597779006755</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>87086.945286067363</v>
+        <v>141196.25719061177</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>7.2644040000000132</v>
+        <v>309.24035600000002</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9639,46 +9636,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>56.756832000000003</v>
+        <v>375.07519500000001</v>
       </c>
       <c r="I22">
-        <v>57.880642000000002</v>
+        <v>513.37567100000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1.1238099999999989</v>
+        <v>138.300476</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-383.39209840740745</v>
+        <v>54.209987953703887</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-381.71815133333325</v>
+        <v>-75.777181712963056</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>146989.5011212352</v>
+        <v>2938.7227939407207</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>145708.74705733752</v>
+        <v>5742.1812683594226</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>146347.72303988296</v>
+        <v>-4107.8801078253582</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>1.2629489160999974</v>
+        <v>19127.021661826577</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>144852.05265495379</v>
+        <v>3909.162328503427</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>1.1238099999999989</v>
+        <v>138.300476</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9706,46 +9703,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>40.849434000000002</v>
+        <v>303.08050500000002</v>
       </c>
       <c r="I23">
-        <v>25.422582999999999</v>
+        <v>398.268799</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-15.426851000000003</v>
+        <v>95.188293999999985</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-415.85015740740749</v>
+        <v>-60.896884046296123</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-397.62554933333331</v>
+        <v>-147.77187171296305</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>172931.3534157656</v>
+        <v>3708.4304865480353</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>158106.07748263507</v>
+        <v>21836.526069552408</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>165352.64727947355</v>
+        <v>8998.8465370084559</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>237.98773177620109</v>
+        <v>9060.8113146304331</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>170612.28542112824</v>
+        <v>2765.0326450952257</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>15.426851000000003</v>
+        <v>95.188293999999985</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9773,46 +9770,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>40.702903999999997</v>
+        <v>263.02398699999998</v>
       </c>
       <c r="I24">
-        <v>14.276668000000001</v>
+        <v>310.50412</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-26.426235999999996</v>
+        <v>47.480133000000023</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-426.9960724074075</v>
+        <v>-148.66156304629612</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-397.77207933333329</v>
+        <v>-187.82838971296309</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>182325.64585135199</v>
+        <v>22100.260327367876</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>158222.62709716358</v>
+        <v>35279.503982164737</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>169847.11558866102</v>
+        <v>27922.861999197939</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>698.3459491276958</v>
+        <v>2254.3630296976912</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>179944.21073163807</v>
+        <v>19697.633162367783</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>26.426235999999996</v>
+        <v>47.480133000000023</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9840,46 +9837,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>49.784184000000003</v>
+        <v>265.92004400000002</v>
       </c>
       <c r="I25">
-        <v>27.393545</v>
+        <v>267.33938599999999</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-22.390639000000004</v>
+        <v>1.4193419999999719</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-413.87919540740745</v>
+        <v>-191.82629704629613</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-388.6907993333333</v>
+        <v>-184.93233271296305</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>171295.98839108297</v>
+        <v>36797.328238493843</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>151080.53748638558</v>
+        <v>34199.967682658062</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>160871.03529034206</v>
+        <v>35474.884588461318</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>501.34071482832115</v>
+        <v>2.0145317129639202</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>168987.94894220209</v>
+        <v>33677.017760416071</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>22.390639000000004</v>
+        <v>1.4193419999999719</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9907,46 +9904,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>220.51297</v>
+        <v>279.08657799999997</v>
       </c>
       <c r="I26">
-        <v>223.71670499999999</v>
+        <v>271.36877399999997</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>3.2037349999999947</v>
+        <v>-7.717804000000001</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-217.55603540740748</v>
+        <v>-187.79690904629615</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-217.96201333333329</v>
+        <v>-171.76579871296309</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>47330.628542189137</v>
+        <v>35267.679047342826</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>47507.439256320162</v>
+        <v>29503.489607502153</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>47418.951490216481</v>
+        <v>32257.086078162742</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>10.263917950224966</v>
+        <v>59.564498582416014</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>46121.118112697455</v>
+        <v>32214.36364282477</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>3.2037349999999947</v>
+        <v>7.717804000000001</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9974,46 +9971,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>312.77194200000002</v>
+        <v>328.01333599999998</v>
       </c>
       <c r="I27">
-        <v>372.05484000000001</v>
+        <v>332.02279700000003</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>59.282897999999989</v>
+        <v>4.0094610000000444</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-69.217900407407456</v>
+        <v>-127.1428860462961</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-125.70304133333326</v>
+        <v>-122.83904071296308</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>4791.1177368097769</v>
+        <v>16165.313472181435</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>15801.254600449691</v>
+        <v>15089.429923281003</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>8700.9005959188853</v>
+        <v>15618.110155404593</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>3514.4619952784028</v>
+        <v>16.075777510521355</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>4411.6354404205358</v>
+        <v>14120.469014759437</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>59.282897999999989</v>
+        <v>4.0094610000000444</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10041,46 +10038,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>1724.9458010000001</v>
+        <v>478.47442599999999</v>
       </c>
       <c r="I28">
-        <v>1834.580688</v>
+        <v>747.57867399999998</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>109.63488699999994</v>
+        <v>269.10424799999998</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>1393.3079475925924</v>
+        <v>288.41299095370385</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>1286.4708176666668</v>
+        <v>27.62204928703693</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>1941307.0368246823</v>
+        <v>83182.053350861257</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>1655007.1647079422</v>
+        <v>762.97760681549732</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>1792450.0146009077</v>
+        <v>7966.5578511449439</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>12019.808447502755</v>
+        <v>72417.096291645488</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>1949111.13860281</v>
+        <v>88046.495501675017</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>109.63488699999994</v>
+        <v>269.10424799999998</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10108,46 +10105,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>647.446777</v>
+        <v>556.89880400000004</v>
       </c>
       <c r="I29">
-        <v>622.62066700000003</v>
+        <v>626.625</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-24.826109999999971</v>
+        <v>69.726195999999959</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>181.34792659259256</v>
+        <v>167.45931695370388</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>208.97179366666671</v>
+        <v>106.04642728703698</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>32887.070479432339</v>
+        <v>28042.622834601054</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>43669.210548263924</v>
+        <v>11245.844740344821</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>37896.601497785072</v>
+        <v>17758.462278867835</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>616.33573773209855</v>
+        <v>4861.74240863041</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>33909.632813064098</v>
+        <v>30896.0150972066</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>24.826109999999971</v>
+        <v>69.726195999999959</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10175,46 +10172,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>1427.231567</v>
+        <v>562.65966800000001</v>
       </c>
       <c r="I30">
-        <v>1729.903198</v>
+        <v>563.50689699999998</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>302.67163099999993</v>
+        <v>0.84722899999997026</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>1288.6304575925924</v>
+        <v>104.34121395370386</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>988.75658366666676</v>
+        <v>111.80729128703695</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>1660568.456235294</v>
+        <v>10887.088929332604</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>977639.5817441782</v>
+        <v>12500.870384944328</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>1274141.8488580652</v>
+        <v>11666.108501764811</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>91610.116212200126</v>
+        <v>0.71779697844094958</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>1667786.8336371342</v>
+        <v>12691.040941102412</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>302.67163099999993</v>
+        <v>0.84722899999997026</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10242,46 +10239,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>751.95678699999996</v>
+        <v>859.74102800000003</v>
       </c>
       <c r="I31">
-        <v>801.90002400000003</v>
+        <v>898.37103300000001</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>49.943237000000067</v>
+        <v>38.630004999999983</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>360.62728359259256</v>
+        <v>439.20534995370389</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>313.48180366666668</v>
+        <v>408.88865128703696</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>130052.03767137218</v>
+        <v>192901.33942795551</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>98270.841230106555</v>
+        <v>167189.92915133212</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>113050.09131201643</v>
+        <v>179586.08318062106</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>2494.3269220381758</v>
+        <v>1492.2772863000237</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>132077.76018356837</v>
+        <v>200272.94772495513</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>49.943237000000067</v>
+        <v>38.630004999999983</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10309,46 +10306,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>261.01324499999998</v>
+        <v>686.46557600000006</v>
       </c>
       <c r="I32">
-        <v>307.96774299999998</v>
+        <v>996.23992899999996</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>46.954498000000001</v>
+        <v>309.77435299999991</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-133.30499740740748</v>
+        <v>537.07424595370389</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-177.4617383333333</v>
+        <v>235.61319928703699</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>17770.222333788915</v>
+        <v>288448.74566673965</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>31492.668572288458</v>
+        <v>55513.57967827301</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>23656.53656843902</v>
+        <v>126541.78134382516</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>2204.7248824320041</v>
+        <v>95960.149776568549</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>17032.139779422418</v>
+        <v>297447.58218964539</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>46.954498000000001</v>
+        <v>309.77435299999991</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10376,46 +10373,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>157.38691700000001</v>
+        <v>505.05938700000002</v>
       </c>
       <c r="I33">
-        <v>113.773331</v>
+        <v>681.18328899999995</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-43.613586000000012</v>
+        <v>176.12390199999993</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-327.49940940740748</v>
+        <v>222.01760595370382</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-281.08806633333324</v>
+        <v>54.207010287036951</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>107255.86316220069</v>
+        <v>49291.817353414102</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>79010.501035012348</v>
+        <v>2938.3999642589297</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>92056.175715636811</v>
+        <v>12034.91064983574</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>1902.1448837793971</v>
+        <v>31019.628855705578</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>105431.16302799685</v>
+        <v>53052.329154978681</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>43.613586000000012</v>
+        <v>176.12390199999993</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10443,46 +10440,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>68.065810999999997</v>
+        <v>381.33160400000003</v>
       </c>
       <c r="I34">
-        <v>57.141941000000003</v>
+        <v>481.72918700000002</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-10.923869999999994</v>
+        <v>100.397583</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-384.13079940740749</v>
+        <v>22.563503953703901</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-370.40917233333329</v>
+        <v>-69.520772712963037</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>147556.47105337394</v>
+        <v>509.11171066881155</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>137202.95494866499</v>
+        <v>4833.1378386074657</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>142285.57147623948</v>
+        <v>-1568.6322299734918</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>119.33093577689986</v>
+        <v>10079.674672241888</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>145414.88917519577</v>
+        <v>953.37741350167141</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>10.923869999999994</v>
+        <v>100.397583</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10510,46 +10507,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>40.840054000000002</v>
+        <v>303.48501599999997</v>
       </c>
       <c r="I35">
-        <v>25.764514999999999</v>
+        <v>366.778595</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-15.075539000000003</v>
+        <v>63.293579000000022</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-415.50822540740745</v>
+        <v>-92.387088046296128</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-397.63492933333328</v>
+        <v>-147.36736071296309</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>172647.08538121291</v>
+        <v>8535.3740376740734</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>158113.53702592495</v>
+        <v>21717.139003504577</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>165220.58384729316</v>
+        <v>13614.841329338802</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>227.27187614052107</v>
+        <v>4006.077142629244</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>170329.93067191928</v>
+        <v>7068.4007715189637</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>15.075539000000003</v>
+        <v>63.293579000000022</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10577,46 +10574,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>41.940219999999997</v>
+        <v>263.86615</v>
       </c>
       <c r="I36">
-        <v>16.383330999999998</v>
+        <v>294.694458</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-25.556888999999998</v>
+        <v>30.828307999999993</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-424.88940940740747</v>
+        <v>-164.47122504629613</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-396.53476333333327</v>
+        <v>-186.98622671296306</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>180531.01022657551</v>
+        <v>27050.783868229388</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>157239.81853182262</v>
+        <v>34963.84898035162</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>168483.42140220606</v>
+        <v>30753.853774265495</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>653.15457535832093</v>
+        <v>950.38457414286358</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>178161.36296948351</v>
+        <v>24385.29557676438</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>25.556888999999998</v>
+        <v>30.828307999999993</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10644,46 +10641,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>81.073616000000001</v>
+        <v>310.11679099999998</v>
       </c>
       <c r="I37">
-        <v>62.674197999999997</v>
+        <v>274.35879499999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-18.399418000000004</v>
+        <v>-35.757995999999991</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-378.59854240740748</v>
+        <v>-184.80688804629614</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-357.40136733333327</v>
+        <v>-140.73558571296309</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>143336.85631301353</v>
+        <v>34153.585869356233</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>127735.73737173622</v>
+        <v>19806.505085970781</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>135311.63672681438</v>
+        <v>26008.905632985483</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>338.53858273872413</v>
+        <v>1278.6342779360155</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>141226.23025715005</v>
+        <v>31149.984385870375</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>18.399418000000004</v>
+        <v>35.757995999999991</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10711,46 +10708,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>735.13653599999998</v>
+        <v>527.22924799999998</v>
       </c>
       <c r="I38">
-        <v>772.94665499999996</v>
+        <v>514.78887899999995</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>37.810118999999986</v>
+        <v>-12.440369000000032</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>331.6739145925925</v>
+        <v>55.623195953703828</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>296.66155266666669</v>
+        <v>76.37687128703692</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>110007.58562117434</v>
+        <v>3093.9399281041337</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>88008.076830597463</v>
+        <v>5833.4264675966051</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>98394.898482069882</v>
+        <v>4248.3256779296698</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>1429.6050987941599</v>
+        <v>154.76278085616181</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>111871.29914749447</v>
+        <v>4087.876324700273</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>37.810118999999986</v>
+        <v>12.440369000000032</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10778,46 +10775,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>1574.973999</v>
+        <v>736.90203899999995</v>
       </c>
       <c r="I39">
-        <v>1691.6129149999999</v>
+        <v>824.81103499999995</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>116.63891599999988</v>
+        <v>87.908996000000002</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>1250.3401745925926</v>
+        <v>365.64535195370382</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>1136.4990156666668</v>
+        <v>286.04966228703688</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>1563350.552200235</v>
+        <v>133696.52340534795</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>1291630.0126113025</v>
+        <v>81824.409294527853</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>1421010.3776729698</v>
+        <v>104592.72944318171</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>13604.636725655027</v>
+        <v>7727.9915777280166</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>1570354.6757818114</v>
+        <v>139845.07810784082</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>116.63891599999988</v>
+        <v>87.908996000000002</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10845,46 +10842,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>428.19769300000002</v>
+        <v>485.157623</v>
       </c>
       <c r="I40">
-        <v>492.77420000000001</v>
+        <v>412.20935100000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>64.576506999999992</v>
+        <v>-72.948271999999974</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>51.501459592592539</v>
+        <v>-46.956332046296097</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-10.277290333333269</v>
+        <v>34.305246287036937</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>2652.4003401674422</v>
+        <v>2204.897119242014</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>105.62269659562546</v>
+        <v>1176.8499228142616</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>-529.29545282350523</v>
+        <v>-1610.8485355840728</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>4170.1252563210483</v>
+        <v>5321.4503877859806</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>2948.4049306136171</v>
+        <v>1493.2834362527226</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>64.576506999999992</v>
+        <v>72.948271999999974</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10912,46 +10909,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>350.40704299999999</v>
+        <v>456.41424599999999</v>
       </c>
       <c r="I41">
-        <v>433.142853</v>
+        <v>382.81478900000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>82.735810000000015</v>
+        <v>-73.599456999999973</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-8.1298874074074661</v>
+        <v>-76.350894046296105</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-88.067940333333297</v>
+        <v>5.5618692870369273</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>66.095069257122489</v>
+        <v>5829.4590216687338</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>7755.9621145555539</v>
+        <v>30.934389966084659</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>715.98243911227848</v>
+        <v>-424.65369263390488</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>6845.2142563561029</v>
+        <v>5416.880070694845</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>28.431613891652898</v>
+        <v>4629.1133417991396</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>82.735810000000015</v>
+        <v>73.599456999999973</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10979,46 +10976,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>403.760223</v>
+        <v>516.72863800000005</v>
       </c>
       <c r="I42">
-        <v>395.22579999999999</v>
+        <v>437.68179300000003</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-8.5344230000000039</v>
+        <v>-79.046845000000019</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-46.046940407407476</v>
+        <v>-21.483890046296096</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-34.714760333333288</v>
+        <v>65.876261287036982</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>2120.3207208833355</v>
+        <v>461.55753152134048</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>1205.1145850007704</v>
+        <v>4339.6818011579671</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>1598.5085003264307</v>
+        <v>-1415.2783541517747</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>72.836375942929067</v>
+        <v>6248.4037044540282</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>1870.4918590002742</v>
+        <v>173.46427534016721</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>8.5344230000000039</v>
+        <v>79.046845000000019</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11046,46 +11043,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>340.55215500000003</v>
+        <v>579.59802200000001</v>
       </c>
       <c r="I43">
-        <v>316.23333700000001</v>
+        <v>782.16125499999998</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-24.318818000000022</v>
+        <v>202.56323299999997</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-125.03940340740746</v>
+        <v>322.99557195370386</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-97.922828333333257</v>
+        <v>128.74564528703695</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>15634.852404480382</v>
+        <v>104326.13950170028</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>9588.8803087994547</v>
+        <v>16575.441180375539</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>12244.212034765966</v>
+        <v>41584.273336035178</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>591.404908917125</v>
+        <v>41031.863363412274</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>14943.020098283734</v>
+        <v>109765.57283181464</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>24.318818000000022</v>
+        <v>202.56323299999997</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11113,46 +11110,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>144.61364699999999</v>
+        <v>425.31900000000002</v>
       </c>
       <c r="I44">
-        <v>125.925804</v>
+        <v>584.118652</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>-18.687842999999987</v>
+        <v>158.79965199999998</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-315.3469364074075</v>
+        <v>124.95296895370387</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-293.86133633333327</v>
+        <v>-25.533376712963047</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>99443.690301537514</v>
+        <v>15613.244450345284</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>86354.484991612422</v>
+        <v>651.95332636608362</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>92668.272141303431</v>
+        <v>-3190.4712276980972</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>349.2354759926485</v>
+        <v>25217.329475321098</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>97686.989501940145</v>
+        <v>17759.900128880312</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>18.687842999999987</v>
+        <v>158.79965199999998</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11180,46 +11177,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>121.263626</v>
+        <v>363.84823599999999</v>
       </c>
       <c r="I45">
-        <v>92.136664999999994</v>
+        <v>451.94134500000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-29.126961000000009</v>
+        <v>88.093109000000027</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-349.13607540740747</v>
+        <v>-7.2243380462961113</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-317.2113573333333</v>
+        <v>-87.004140712963078</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>121895.99915088691</v>
+        <v>52.191060207161513</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>100623.04522125567</v>
+        <v>7569.7205012010791</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>110749.92837401673</v>
+        <v>628.54732393795962</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>848.37985709552152</v>
+        <v>7760.395853285886</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>119950.23074596131</v>
+        <v>1.1858519301721855</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>29.126961000000009</v>
+        <v>88.093109000000027</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11247,46 +11244,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>55.145847000000003</v>
+        <v>295.73376500000001</v>
       </c>
       <c r="I46">
-        <v>37.070965000000001</v>
+        <v>334.18719499999997</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-18.074882000000002</v>
+        <v>38.453429999999969</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-404.20177540740747</v>
+        <v>-124.97848804629615</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-383.32913633333328</v>
+        <v>-155.11861171296306</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>163379.07524250026</v>
+        <v>15619.62247433819</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>146941.2267620592</v>
+        <v>24061.783699757001</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>154942.31747132147</v>
+        <v>19386.489559726608</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>326.70135931392406</v>
+        <v>1478.6662787648977</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>161125.18593414695</v>
+        <v>13610.764624118698</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>18.074882000000002</v>
+        <v>38.453429999999969</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11314,46 +11311,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>46.797215000000001</v>
+        <v>256.02822900000001</v>
       </c>
       <c r="I47">
-        <v>21.061288999999999</v>
+        <v>244.20327800000001</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-25.735926000000003</v>
+        <v>-11.824950999999999</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-420.21145140740748</v>
+        <v>-214.96240504629611</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-391.67776833333329</v>
+        <v>-194.82414771296305</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>176577.66389391999</v>
+        <v>46208.835583287873</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>153411.47420658031</v>
+        <v>37956.448532082446</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>164587.48351536429</v>
+        <v>41879.86735347339</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>662.33788707747613</v>
+        <v>139.82946615240095</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>174234.1922170014</v>
+        <v>42703.849998879945</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>25.735926000000003</v>
+        <v>11.824950999999999</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11381,46 +11378,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>71.913071000000002</v>
+        <v>252.336456</v>
       </c>
       <c r="I48">
-        <v>80.030006</v>
+        <v>220.821213</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>8.116934999999998</v>
+        <v>-31.515242999999998</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-361.24273440740745</v>
+        <v>-238.34447004629612</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-366.56191233333328</v>
+        <v>-198.51592071296307</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>130496.31316214072</v>
+        <v>56808.086401649751</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>134367.63557347032</v>
+        <v>39408.570776515437</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>132417.82754090169</v>
+        <v>47315.171918083724</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>65.884633794224968</v>
+        <v>993.21054134904887</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>128482.8017754938</v>
+        <v>52914.336279140014</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>8.116934999999998</v>
+        <v>31.515242999999998</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11448,46 +11445,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>151.996658</v>
+        <v>338.40884399999999</v>
       </c>
       <c r="I49">
-        <v>126.509674</v>
+        <v>315.99529999999999</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-25.486983999999993</v>
+        <v>-22.413544000000002</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-314.76306640740745</v>
+        <v>-143.17038304629614</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-286.47832533333326</v>
+        <v>-112.44353271296308</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>99075.787974193998</v>
+        <v>20497.758581623162</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>82069.830885791132</v>
+        <v>12643.548048971197</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>90172.796141178856</v>
+        <v>16098.583649593655</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>649.58635341625563</v>
+        <v>502.36695463993607</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>97322.354227442309</v>
+        <v>18186.431139566008</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>25.486983999999993</v>
+        <v>22.413544000000002</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11515,46 +11512,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>236.682602</v>
+        <v>321.61099200000001</v>
       </c>
       <c r="I50">
-        <v>158.259995</v>
+        <v>307.77313199999998</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-78.422606999999999</v>
+        <v>-13.837860000000035</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-283.01274540740746</v>
+        <v>-151.39255104629615</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-201.79238133333328</v>
+        <v>-129.24138471296305</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>80096.214063038031</v>
+        <v>22919.704512305387</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>40720.165164177393</v>
+        <v>16703.335522524121</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>57109.815843445132</v>
+        <v>19566.182932451258</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>6150.1052886764492</v>
+        <v>191.48636937960097</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>78520.439686650105</v>
+        <v>20471.670267631976</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>78.422606999999999</v>
+        <v>13.837860000000035</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11582,46 +11579,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>240.04354900000001</v>
+        <v>310.796448</v>
       </c>
       <c r="I51">
-        <v>231.83871500000001</v>
+        <v>356.69754</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-8.2048340000000053</v>
+        <v>45.901092000000006</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-209.43402540740746</v>
+        <v>-102.46814304629612</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-198.43143433333327</v>
+        <v>-140.05592871296307</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>43862.610998350596</v>
+        <v>10499.720339356203</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>39375.034131583954</v>
+        <v>19615.663167650593</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>41558.294059795626</v>
+        <v>14351.270937841751</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>67.319300967556089</v>
+        <v>2106.9102467924645</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>42698.547390725311</v>
+        <v>8865.1332764447361</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>8.2048340000000053</v>
+        <v>45.901092000000006</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11649,46 +11646,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>353.182953</v>
+        <v>319.38742100000002</v>
       </c>
       <c r="I52">
-        <v>345.22579999999999</v>
+        <v>335.19628899999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-7.9571530000000052</v>
+        <v>15.808867999999961</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-96.046940407407476</v>
+        <v>-123.96939404629615</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-85.292030333333287</v>
+        <v>-131.46495571296305</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>9225.0147616240829</v>
+        <v>15368.410660205845</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>7274.7304383822457</v>
+        <v>17283.034580611336</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>8192.0385546524521</v>
+        <v>16297.630898059188</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>63.316283865409083</v>
+        <v>249.92030744142278</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>8695.4101923336038</v>
+        <v>13376.330625068611</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>7.9571530000000052</v>
+        <v>15.808867999999961</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11716,46 +11713,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>1306.1141359999999</v>
+        <v>475.196594</v>
       </c>
       <c r="I53">
-        <v>1439.5</v>
+        <v>805.42468299999996</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>133.38586400000008</v>
+        <v>330.22808899999995</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>998.22725959259253</v>
+        <v>346.25899995370384</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>867.63915266666663</v>
+        <v>24.34421728703694</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>996457.66179373709</v>
+        <v>119895.29504893908</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>752797.6992401313</v>
+        <v>592.64091531846816</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>866101.05368168571</v>
+        <v>8429.4043324650793</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>17791.78871502652</v>
+        <v>109050.59076459189</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>1002051.0839925003</v>
+        <v>125721.52038570831</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>133.38586400000008</v>
+        <v>330.22808899999995</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11783,46 +11780,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>1100.2342530000001</v>
+        <v>937.10784899999999</v>
       </c>
       <c r="I54">
-        <v>1099.3226320000001</v>
+        <v>1049.1136469999999</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-0.91162099999996826</v>
+        <v>112.00579799999991</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>658.04989159259264</v>
+        <v>589.94796395370372</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>661.7592696666668</v>
+        <v>486.25547228703692</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>433029.65982502291</v>
+        <v>348038.6001731205</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>437925.33098976023</v>
+        <v>236444.38432908934</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>435470.61566454335</v>
+        <v>286865.42583708401</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.83105284764094212</v>
+        <v>12545.298785616784</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>436719.61474826233</v>
+        <v>357916.54752545897</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>0.91162099999996826</v>
+        <v>112.00579799999991</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11850,46 +11847,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>501.66073599999999</v>
+        <v>707.75299099999995</v>
       </c>
       <c r="I55">
-        <v>463.5</v>
+        <v>720.01660200000003</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-38.160735999999986</v>
+        <v>12.263611000000083</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>22.227259592592532</v>
+        <v>260.85091895370391</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>63.185752666666701</v>
+        <v>256.90061428703689</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>494.05106899649672</v>
+        <v>68043.201918991806</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>3992.4393400531781</v>
+        <v>65997.9256210569</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1404.4461270753466</v>
+        <v>67012.761316544609</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1456.241772061695</v>
+        <v>150.39615475932303</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>626.25145916694692</v>
+        <v>72449.380174370788</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>38.160735999999986</v>
+        <v>12.263611000000083</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11917,46 +11914,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>309.24343900000002</v>
+        <v>567.31201199999998</v>
       </c>
       <c r="I56">
-        <v>281.93548600000003</v>
+        <v>658.71105999999997</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>-27.307952999999998</v>
+        <v>91.399047999999993</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>-159.33725440740744</v>
+        <v>199.54537695370385</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-129.23154433333326</v>
+        <v>116.45963528703692</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>25388.360642090884</v>
+        <v>39818.357463595763</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>16700.79205077828</v>
+        <v>13562.846651189655</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>20591.399456902476</v>
+        <v>23238.981823242651</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>745.72429705020886</v>
+        <v>8353.7859753063021</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>24504.61422537265</v>
+        <v>43205.232217820718</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>27.307952999999998</v>
+        <v>91.399047999999993</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11984,46 +11981,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>85.035781999999998</v>
+        <v>412.42486600000001</v>
       </c>
       <c r="I57">
-        <v>87.176659000000001</v>
+        <v>441.70452899999998</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>2.1408770000000032</v>
+        <v>29.279662999999971</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-354.0960814074075</v>
+        <v>-17.461154046296144</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-353.4392013333333</v>
+        <v>-38.427510712963056</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>125384.03486808136</v>
+        <v>304.89190062848422</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>124919.26903914451</v>
+        <v>1476.6735795948905</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>125151.43620789707</v>
+        <v>670.9886841747433</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>4.5833543291290137</v>
+        <v>857.29866539356726</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>123410.51267940784</v>
+        <v>83.683117779563943</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>2.1408770000000032</v>
+        <v>29.279662999999971</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12051,46 +12048,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>68.389129999999994</v>
+        <v>329.39389</v>
       </c>
       <c r="I58">
-        <v>42.235477000000003</v>
+        <v>362.28997800000002</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-26.153652999999991</v>
+        <v>32.89608800000002</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-399.03726340740747</v>
+        <v>-96.875705046296105</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-370.08585333333326</v>
+        <v>-121.45848671296307</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>159230.73758767269</v>
+        <v>9384.9022282169608</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>136963.53883746147</v>
+        <v>14752.163994603025</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>147678.04613992848</v>
+        <v>11766.376534174484</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>684.0135652444086</v>
+        <v>1082.1526057037454</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>157005.74637928366</v>
+        <v>7843.2984657938387</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>26.153652999999991</v>
+        <v>32.89608800000002</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12118,46 +12115,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>50.435794999999999</v>
+        <v>275.24258400000002</v>
       </c>
       <c r="I59">
-        <v>19.122579999999999</v>
+        <v>278.85382099999998</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-31.313215</v>
+        <v>3.6112369999999601</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-422.1501604074075</v>
+        <v>-180.31186204629614</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-388.0391883333333</v>
+        <v>-175.60979271296304</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>178210.75793199989</v>
+        <v>32512.367594602532</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>150574.41168239212</v>
+        <v>30838.799296689849</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>163810.80559927685</v>
+        <v>31664.528717638452</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>980.51743363622495</v>
+        <v>13.041032670168711</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>175856.43818144267</v>
+        <v>29583.503167345265</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>31.313215</v>
+        <v>3.6112369999999601</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12185,46 +12182,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>52.134171000000002</v>
+        <v>248.75607299999999</v>
       </c>
       <c r="I60">
-        <v>13.856668000000001</v>
+        <v>235.81594799999999</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-38.277503000000003</v>
+        <v>-12.940124999999995</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-427.41607240740746</v>
+        <v>-223.34973504629613</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-386.3408123333333</v>
+        <v>-202.09630371296308</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>182684.49895217418</v>
+        <v>49885.104145250683</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>149259.22327437985</v>
+        <v>40842.915974442214</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>165128.2726182006</v>
+        <v>45138.155888126093</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>1465.1672359150093</v>
+        <v>167.44683501562486</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>180300.71371651805</v>
+        <v>46240.665673625248</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>38.277503000000003</v>
+        <v>12.940124999999995</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12252,46 +12249,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>102.225601</v>
+        <v>281.43014499999998</v>
       </c>
       <c r="I61">
-        <v>53.664524</v>
+        <v>223.83869899999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-48.561076999999997</v>
+        <v>-57.591445999999991</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-387.60821640740744</v>
+        <v>-235.32698404629613</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-336.2493823333333</v>
+        <v>-169.42223171296308</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>150240.12942653161</v>
+        <v>55378.789420325716</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>113063.64711954816</v>
+        <v>28703.892598600953</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>130333.02335431574</v>
+        <v>39869.622819404351</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>2358.1781993999289</v>
+        <v>3316.7746523709147</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>148079.08961233092</v>
+        <v>51535.209868765065</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>48.561076999999997</v>
+        <v>57.591445999999991</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12319,46 +12316,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>506.61776700000001</v>
+        <v>487.87530500000003</v>
       </c>
       <c r="I62">
-        <v>385.36669899999998</v>
+        <v>411.79901100000001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-121.25106800000003</v>
+        <v>-76.076294000000019</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-55.906041407407486</v>
+        <v>-47.366672046296117</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>68.14278366666673</v>
+        <v>37.022928287036962</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>3125.4854658467602</v>
+        <v>2243.60162074137</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>4643.4389658421424</v>
+        <v>1370.6972189470816</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>-3809.5932852846809</v>
+        <v>-1753.6529023656194</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>14701.821491140632</v>
+        <v>5787.6025087744392</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>2820.4898648301755</v>
+        <v>1525.1653735104385</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>121.25106800000003</v>
+        <v>76.076294000000019</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12386,46 +12383,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>1340.419189</v>
+        <v>741.13519299999996</v>
       </c>
       <c r="I63">
-        <v>1358.8709719999999</v>
+        <v>656.54193099999998</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>18.451782999999978</v>
+        <v>-84.593261999999982</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>917.59823159259247</v>
+        <v>197.37624795370385</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>901.94420566666668</v>
+        <v>290.28281628703689</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>841986.51462185301</v>
+        <v>38957.383256281988</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>813503.35013567435</v>
+        <v>84264.113431533609</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>827622.40811491886</v>
+        <v>57294.933124169656</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>340.46829587908815</v>
+        <v>7156.0199758006411</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>847128.77595369075</v>
+        <v>42308.192742799903</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>18.451782999999978</v>
+        <v>84.593261999999982</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12453,46 +12450,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>623.76916500000004</v>
+        <v>671.43841599999996</v>
       </c>
       <c r="I64">
-        <v>656.90319799999997</v>
+        <v>514.29370100000006</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>33.134032999999931</v>
+        <v>-157.14471499999991</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>215.63045759259251</v>
+        <v>55.128017953703932</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>185.29418166666676</v>
+        <v>220.5860392870369</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>46496.494241590837</v>
+        <v>3039.0983635039029</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>34333.933759519707</v>
+        <v>48658.200728342184</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>39955.069182028317</v>
+        <v>12160.471134152211</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>1097.8641428450844</v>
+        <v>24694.461452431195</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>47710.884962467426</v>
+        <v>4024.8016272929895</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>33.134032999999931</v>
+        <v>157.14471499999991</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12520,46 +12517,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>890.83160399999997</v>
+        <v>570.351135</v>
       </c>
       <c r="I65">
-        <v>975.714294</v>
+        <v>565.96466099999998</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>84.882690000000025</v>
+        <v>-4.3864740000000211</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>534.44155359259253</v>
+        <v>106.79897795370385</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>452.35662066666669</v>
+        <v>119.49875828703694</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>285627.77420646395</v>
+        <v>11406.021691955722</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>204626.51226096659</v>
+        <v>14279.953232143678</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>241758.17512698838</v>
+        <v>12762.345251792243</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>7205.0710616361039</v>
+        <v>19.241154152676184</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>288626.07692559523</v>
+        <v>13250.837993779605</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>84.882690000000025</v>
+        <v>4.3864740000000211</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12587,46 +12584,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>434.24011200000001</v>
+        <v>431.98306300000002</v>
       </c>
       <c r="I66">
-        <v>328.41934199999997</v>
+        <v>385.28106700000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-105.82077000000004</v>
+        <v>-46.701996000000008</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-112.8533984074075</v>
+        <v>-73.884616046296117</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2348713333332739</v>
+        <v>-18.869313712963049</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>12735.889532101044</v>
+        <v>5458.9364883085973</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>17.934135209887941</v>
+        <v>356.05099999821533</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>477.91962178476894</v>
+        <v>1394.1519987393849</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>11198.035363392908</v>
+        <v>2181.0764303840169</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>12112.244189291303</v>
+        <v>4299.5966574733229</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>105.82077000000004</v>
+        <v>46.701996000000008</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12654,46 +12651,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>303.520081</v>
+        <v>382.35730000000001</v>
       </c>
       <c r="I67">
-        <v>244.23333700000001</v>
+        <v>396.03781099999998</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-59.286743999999999</v>
+        <v>13.680510999999967</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-197.03940340740746</v>
+        <v>-63.127872046296147</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-134.95490233333328</v>
+        <v>-68.495076712963055</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>38824.526495147053</v>
+        <v>3985.1282290935387</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>18212.825663799526</v>
+        <v>4691.5755339146936</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>26591.433442664929</v>
+        <v>4323.9484385371707</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>3514.9180141215356</v>
+        <v>187.15638122112011</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>37729.817170283728</v>
+        <v>3004.6366143007485</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>59.286743999999999</v>
+        <v>13.680510999999967</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12721,46 +12718,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>116.915199</v>
+        <v>309.92392000000001</v>
       </c>
       <c r="I68">
-        <v>90.412895000000006</v>
+        <v>293.912689</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-26.502303999999995</v>
+        <v>-16.011231000000009</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-350.85984540740748</v>
+        <v>-165.25299404629612</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-321.55978433333325</v>
+        <v>-140.92845671296305</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>123102.63111930987</v>
+        <v>27308.552041265182</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>103400.69490049979</v>
+        <v>19860.829911497502</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>112822.4162204326</v>
+        <v>23288.849418140984</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>702.3721173084158</v>
+        <v>256.35951813536127</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>121147.21733496111</v>
+        <v>24630.065579442369</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>26.502303999999995</v>
+        <v>16.011231000000009</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12788,46 +12785,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>76.479042000000007</v>
+        <v>266.651184</v>
       </c>
       <c r="I69">
-        <v>40.153331999999999</v>
+        <v>220.25415000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-36.325710000000008</v>
+        <v>-46.397033999999991</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-401.11940840740749</v>
+        <v>-238.91153304629611</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-361.99594133333329</v>
+        <v>-184.20119271296306</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>160896.77980110855</v>
+        <v>57078.720622531437</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>131041.06154180608</v>
+        <v>33930.079396878158</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>145203.59783350924</v>
+        <v>44007.789340010233</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>1319.5572070041005</v>
+        <v>2152.6847639971552</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>158660.13792091355</v>
+        <v>53175.542163163111</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>36.325710000000008</v>
+        <v>46.397033999999991</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12855,46 +12852,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>48.475619999999999</v>
+        <v>239.993469</v>
       </c>
       <c r="I70">
-        <v>16.829032999999999</v>
+        <v>173.981537</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>-31.646587</v>
+        <v>-66.011932000000002</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-424.44370740740749</v>
+        <v>-285.18414604629612</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-389.99936333333329</v>
+        <v>-210.85890771296306</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>180152.46075774494</v>
+        <v>81329.99715615515</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>152099.50340040532</v>
+        <v>44461.478961903871</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>165532.77565972853</v>
+        <v>60133.617532376134</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>1001.506468748569</v>
+        <v>4357.5751663726242</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>177785.30743249977</v>
+        <v>76657.461883361277</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>31.646587</v>
+        <v>66.011932000000002</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12922,46 +12919,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>49.727119000000002</v>
+        <v>227.60005200000001</v>
       </c>
       <c r="I71">
-        <v>9.3787109999999991</v>
+        <v>152.941193</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-40.348408000000006</v>
+        <v>-74.658859000000007</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-431.89402940740746</v>
+        <v>-306.22449004629613</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-388.74786433333327</v>
+        <v>-223.25232471296306</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>186532.45263776655</v>
+        <v>93773.438304114112</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>151124.90202372769</v>
+        <v>49841.600489742297</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>167897.88155044749</v>
+        <v>68365.329286877226</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>1627.9940281344645</v>
+        <v>5573.9452271818818</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>184123.61093036211</v>
+        <v>88751.07338125883</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>40.348408000000006</v>
+        <v>74.658859000000007</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12989,46 +12986,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>56.577064999999997</v>
+        <v>226.52647400000001</v>
       </c>
       <c r="I72">
-        <v>13.217336</v>
+        <v>139.972916</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-43.359729000000002</v>
+        <v>-86.55355800000001</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-428.05540440740748</v>
+        <v>-319.19276704629613</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-381.89791833333328</v>
+        <v>-224.32590271296306</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>183231.42924238916</v>
+        <v>101884.02253467106</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>145846.02002733329</v>
+        <v>50322.110627985763</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>163473.46787452206</v>
+        <v>71603.205607108903</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>1880.066098953441</v>
+        <v>7491.5184024593655</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>180844.06661548169</v>
+        <v>96646.039093182742</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>43.359729000000002</v>
+        <v>86.55355800000001</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13056,46 +13053,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>59.819332000000003</v>
+        <v>221.140961</v>
       </c>
       <c r="I73">
-        <v>18.838706999999999</v>
+        <v>126.537308</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-40.980625000000003</v>
+        <v>-94.603653000000008</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-422.43403340740747</v>
+        <v>-332.62837504629613</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-378.65565133333325</v>
+        <v>-229.71141571296306</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>178450.51258085066</v>
+        <v>110641.63588593944</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>143380.10228667085</v>
+        <v>52767.334508853732</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>159957.03406524894</v>
+        <v>76408.53493818712</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>1679.4116253906252</v>
+        <v>8949.8511609444104</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>176094.60441490565</v>
+        <v>105180.26379429396</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>40.980625000000003</v>
+        <v>94.603653000000008</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13123,46 +13120,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>279.12872299999998</v>
+        <v>396.98577899999998</v>
       </c>
       <c r="I74">
-        <v>161.49333200000001</v>
+        <v>221.43119799999999</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-117.63539099999997</v>
+        <v>-175.55458099999998</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-279.77940840740746</v>
+        <v>-237.73448504629613</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-159.3462603333333</v>
+        <v>-53.866597712963085</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>78276.517368798901</v>
+        <v>56517.685380227595</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>25391.230682218433</v>
+        <v>2901.6103491701997</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>44581.802447992726</v>
+        <v>12805.947868487272</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>13838.085215722875</v>
+        <v>30819.410910085557</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>76718.835175340209</v>
+        <v>52634.077242045336</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>117.63539099999997</v>
+        <v>175.55458099999998</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13190,46 +13187,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>1958.7250979999999</v>
+        <v>690.753784</v>
       </c>
       <c r="I75">
-        <v>2082.5710450000001</v>
+        <v>607.42169200000001</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>123.84594700000025</v>
+        <v>-83.332091999999989</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>1641.2983045925926</v>
+        <v>148.25600895370388</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>1520.2501146666666</v>
+        <v>239.90140728703693</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>2693860.1246585189</v>
+        <v>21979.844190880725</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>2311160.4111440131</v>
+        <v>57552.68521830078</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>2495183.9357590945</v>
+        <v>35566.825186753107</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>15337.818588326871</v>
+        <v>6944.2375570964623</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>2703051.8599878442</v>
+        <v>24513.950489451581</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>123.84594700000025</v>
+        <v>83.332091999999989</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13257,46 +13254,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>1080.8671879999999</v>
+        <v>675.01367200000004</v>
       </c>
       <c r="I76">
-        <v>1218.1936040000001</v>
+        <v>434.39514200000002</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>137.32641600000011</v>
+        <v>-240.61853000000002</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>776.92086359259258</v>
+        <v>-24.770541046296103</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>642.39220466666666</v>
+        <v>224.16129528703698</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>603606.02828545985</v>
+        <v>613.57970372624004</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>412667.74461650057</v>
+        <v>50248.286304762187</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>499087.90641477617</v>
+        <v>-5552.5965658984505</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>18858.544531405085</v>
+        <v>57897.276979360911</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>607961.12741432933</v>
+        <v>270.84057439755577</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>137.32641600000011</v>
+        <v>240.61853000000002</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13324,46 +13321,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>632.61267099999998</v>
+        <v>849.90185499999995</v>
       </c>
       <c r="I77">
-        <v>720.68963599999995</v>
+        <v>641.31897000000004</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>88.076964999999973</v>
+        <v>-208.58288499999992</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>279.41689559259248</v>
+        <v>182.15328695370391</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>194.13768766666669</v>
+        <v>399.04947828703689</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>78073.801542601723</v>
+        <v>33179.819948038399</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>37689.441772560232</v>
+        <v>159240.48612115634</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>54245.350005344335</v>
+        <v>72688.174127144463</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>7757.5517636112199</v>
+        <v>43506.819914923188</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>79645.110179767304</v>
+        <v>36277.523158369557</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>88.076964999999973</v>
+        <v>208.58288499999992</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13391,46 +13388,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>1098.4719239999999</v>
+        <v>817.418274</v>
       </c>
       <c r="I78">
-        <v>1171.290283</v>
+        <v>707.70825200000002</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>72.8183590000001</v>
+        <v>-109.71002199999998</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>730.01754259259258</v>
+        <v>248.54256895370389</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>659.99694066666666</v>
+        <v>366.56589728703693</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>532925.6124929277</v>
+        <v>61773.408582106655</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>435595.96168935951</v>
+        <v>134370.5570538505</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>481809.34474410914</v>
+        <v>91107.229802539718</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>5302.513407452896</v>
+        <v>12036.288927240479</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>537018.26342554658</v>
+        <v>65974.940669469885</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>72.8183590000001</v>
+        <v>109.71002199999998</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13458,46 +13455,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>348.10006700000002</v>
+        <v>615.465149</v>
       </c>
       <c r="I79">
-        <v>328.366669</v>
+        <v>676.07458499999996</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-19.733398000000022</v>
+        <v>60.60943599999996</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-112.90607140740747</v>
+        <v>216.90890195370383</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-90.37491633333326</v>
+        <v>164.61277228703693</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>12747.780960654594</v>
+        <v>47049.471746761505</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>8167.6255022569867</v>
+        <v>27097.364800023875</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>10203.876756969801</v>
+        <v>35705.97568433627</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>389.40699662640486</v>
+        <v>3673.5037322380913</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>12123.840885328127</v>
+        <v>50725.04310568943</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>19.733398000000022</v>
+        <v>60.60943599999996</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13525,46 +13522,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>187.93815599999999</v>
+        <v>450.40310699999998</v>
       </c>
       <c r="I80">
-        <v>162.49676500000001</v>
+        <v>452.76947000000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>-25.441390999999982</v>
+        <v>2.3663630000000353</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-278.77597540740749</v>
+        <v>-6.3962130462961113</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-250.53682733333329</v>
+        <v>-0.44926971296308693</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>77716.044464351464</v>
+        <v>40.911541333608582</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>62768.701850252459</v>
+        <v>0.20184327498593452</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>69843.648415327218</v>
+        <v>2.873624799360206</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>647.2643760148801</v>
+        <v>5.599673847769167</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>76163.976994440993</v>
+        <v>3.6752466712021312</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>25.441390999999982</v>
+        <v>2.3663630000000353</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13592,46 +13589,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>94.483481999999995</v>
+        <v>355.11968999999999</v>
       </c>
       <c r="I81">
-        <v>66.136650000000003</v>
+        <v>336.61318999999997</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>-28.346831999999992</v>
+        <v>-18.506500000000017</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-375.13609040740744</v>
+        <v>-122.55249304629615</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-343.9915013333333</v>
+        <v>-95.732686712963073</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>140727.08632615456</v>
+        <v>15019.113551862467</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>118330.15298956065</v>
+        <v>9164.747305282337</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>129043.62694356113</v>
+        <v>11732.279422693655</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>803.54288443622352</v>
+        <v>342.4905422500006</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>138635.83446944438</v>
+        <v>13050.591780839242</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>28.346831999999992</v>
+        <v>18.506500000000017</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13659,46 +13656,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>74.403525999999999</v>
+        <v>295.21850599999999</v>
       </c>
       <c r="I82">
-        <v>33.951613999999999</v>
+        <v>252.70665</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-40.451912</v>
+        <v>-42.511855999999995</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-407.32112640740746</v>
+        <v>-206.45903304629613</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-364.07145733333329</v>
+        <v>-155.63387071296307</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>165910.5000177992</v>
+        <v>42625.332326411597</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>132548.02604481712</v>
+        <v>24221.901713099305</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>148293.99609379971</v>
+        <v>32132.018456650621</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>1636.3571844557441</v>
+        <v>1807.2579005647356</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>163639.15633679237</v>
+        <v>39261.729014608245</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>40.451912</v>
+        <v>42.511855999999995</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13726,46 +13723,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>54.551223999999998</v>
+        <v>255.736313</v>
       </c>
       <c r="I83">
-        <v>13.91258</v>
+        <v>204.46639999999999</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-40.638643999999999</v>
+        <v>-51.269913000000003</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-427.36016040740748</v>
+        <v>-254.69928304629613</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-383.92375933333329</v>
+        <v>-195.11606371296307</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>182636.70670344506</v>
+        <v>64871.724784297272</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>147397.45298063921</v>
+        <v>38070.278318841061</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>164073.71937290821</v>
+        <v>49695.921538507129</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>1651.4993861587359</v>
+        <v>2628.603979027569</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>180253.23432417598</v>
+        <v>60706.049520800778</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>40.638643999999999</v>
+        <v>51.269913000000003</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13793,46 +13790,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>58.620170999999999</v>
+        <v>240.93592799999999</v>
       </c>
       <c r="I84">
-        <v>11.234334</v>
+        <v>178.68644699999999</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-47.385836999999995</v>
+        <v>-62.249481000000003</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-430.03840640740748</v>
+        <v>-280.47923604629614</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-379.85481233333326</v>
+        <v>-209.91644871296307</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>184933.03098542255</v>
+        <v>78668.601853113913</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>144289.67845279182</v>
+        <v>44064.915440262055</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>163352.15816201147</v>
+        <v>58877.205168563385</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>2245.4175481905686</v>
+        <v>3874.9978847693615</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>182534.57244276826</v>
+        <v>74074.293296521559</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>47.385836999999995</v>
+        <v>62.249481000000003</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13860,46 +13857,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>625.13391100000001</v>
+        <v>501.890198</v>
       </c>
       <c r="I85">
-        <v>486.83871499999998</v>
+        <v>331.07891799999999</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-138.29519600000003</v>
+        <v>-170.81128000000001</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>45.565974592592511</v>
+        <v>-128.08676504629614</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>186.65892766666673</v>
+        <v>51.037821287036934</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>2076.2580405727863</v>
+        <v>16406.219380025068</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>34841.555277669919</v>
+        <v>2604.8592017275205</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>8505.2959555398993</v>
+        <v>-6537.2694236675516</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>19125.561236678426</v>
+        <v>29176.493375238402</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>2339.050540725339</v>
+        <v>14345.681412065871</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>138.29519600000003</v>
+        <v>170.81128000000001</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13927,46 +13924,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>1119.8626710000001</v>
+        <v>561.65826400000003</v>
       </c>
       <c r="I86">
-        <v>1001.633362</v>
+        <v>404.97912600000001</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-118.22930900000006</v>
+        <v>-156.67913800000002</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>560.36062159259257</v>
+        <v>-54.186557046296116</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>681.38768766666681</v>
+        <v>110.80588728703697</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>314004.0262316367</v>
+        <v>2936.1829645315033</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>464289.18090372707</v>
+        <v>12277.94465746754</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>381822.82820643275</v>
+        <v>-6004.1895325444866</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>13978.169506617494</v>
+        <v>24548.35228442305</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>317147.35946246883</v>
+        <v>2104.3551309743657</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>118.22930900000006</v>
+        <v>156.67913800000002</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -13994,46 +13991,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>896.54022199999997</v>
+        <v>450.071594</v>
       </c>
       <c r="I87">
-        <v>927.41937299999995</v>
+        <v>411.908569</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>30.879150999999979</v>
+        <v>-38.163025000000005</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>486.14663259259248</v>
+        <v>-47.257114046296124</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>458.06523866666669</v>
+        <v>-0.78078271296305957</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>236338.54838111711</v>
+        <v>2233.2348279846383</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>209823.7628747503</v>
+        <v>0.60962164486195547</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>222686.87328552219</v>
+        <v>36.897537711871799</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>953.52196648079973</v>
+        <v>1456.4164771506253</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>239066.61618650917</v>
+        <v>1516.6201591842414</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>30.879150999999979</v>
+        <v>38.163025000000005</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14061,46 +14058,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>1006.669373</v>
+        <v>368.18246499999998</v>
       </c>
       <c r="I88">
-        <v>1081.8709719999999</v>
+        <v>335.74652099999997</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>75.201598999999987</v>
+        <v>-32.435944000000006</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>640.59823159259247</v>
+        <v>-123.41916204629615</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>568.19438966666667</v>
+        <v>-82.669911712963085</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>410366.09431955672</v>
+        <v>15232.289560209909</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>322844.86444867583</v>
+        <v>6834.3143026291109</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>363984.32122129906</v>
+        <v>10203.051230055187</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>5655.2804921567995</v>
+        <v>1052.0904631711364</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>413958.39823235746</v>
+        <v>13249.358019413477</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>75.201598999999987</v>
+        <v>32.435944000000006</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14128,46 +14125,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>1863.2935789999999</v>
+        <v>772.75885000000005</v>
       </c>
       <c r="I89">
-        <v>2117.0715329999998</v>
+        <v>599.73553500000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>253.77795399999991</v>
+        <v>-173.02331500000003</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>1675.7987925925922</v>
+        <v>140.5698519537039</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>1424.8185956666666</v>
+        <v>321.90647328703699</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>2808301.5932547902</v>
+        <v>19759.883278286234</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>2030108.0305575321</v>
+        <v>103623.77754409786</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>2387709.2822816726</v>
+        <v>45250.345292897728</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>64403.249936426073</v>
+        <v>29937.067533589234</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>2817686.3765528379</v>
+        <v>22166.194821522902</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>253.77795399999991</v>
+        <v>173.02331500000003</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14195,46 +14192,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>1191.0135499999999</v>
+        <v>925.00207499999999</v>
       </c>
       <c r="I90">
-        <v>1235.3226320000001</v>
+        <v>821.78002900000001</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>44.309082000000217</v>
+        <v>-103.22204599999998</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>794.04989159259264</v>
+        <v>362.61434595370389</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>752.53856666666661</v>
+        <v>474.14969828703693</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>630515.23033820814</v>
+        <v>131489.16389143246</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>566314.29432072106</v>
+        <v>224817.93638568814</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>597553.1672809117</v>
+        <v>171933.48272849992</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>1963.2947476827433</v>
+        <v>10654.790780426112</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>634966.17518559564</v>
+        <v>137587.32323117298</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>44.309082000000217</v>
+        <v>103.22204599999998</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14262,46 +14259,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>615.91210899999999</v>
+        <v>968.93457000000001</v>
       </c>
       <c r="I91">
-        <v>601.76666299999999</v>
+        <v>915.23547399999995</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>-14.145445999999993</v>
+        <v>-53.699096000000054</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>160.49392259259253</v>
+        <v>456.06979095370383</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>177.4371256666667</v>
+        <v>518.08219328703694</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>25758.299189157082</v>
+        <v>207999.65422055512</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>31483.93356484847</v>
+        <v>268409.15900110669</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>28477.58031179812</v>
+        <v>236281.63758925532</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>200.09364253891579</v>
+        <v>2883.5929112172216</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>26664.172648361295</v>
+        <v>215651.66104590156</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>14.145445999999993</v>
+        <v>53.699096000000054</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14329,46 +14326,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>266.32086199999998</v>
+        <v>776.57995600000004</v>
       </c>
       <c r="I92">
-        <v>309.19354199999998</v>
+        <v>970.514771</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>42.872680000000003</v>
+        <v>193.93481499999996</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>-132.07919840740749</v>
+        <v>511.34908795370387</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>-172.15412133333331</v>
+        <v>325.72757928703697</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>17444.914651943312</v>
+        <v>261477.88975108479</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>29637.041492052045</v>
+        <v>106098.45590819296</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>22737.978348238234</v>
+        <v>166560.50058979413</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>1838.0666903824001</v>
+        <v>37610.71246908421</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>16713.691073224101</v>
+        <v>270049.00403613586</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>42.872680000000003</v>
+        <v>193.93481499999996</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14396,46 +14393,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>108.891518</v>
+        <v>530.32818599999996</v>
       </c>
       <c r="I93">
-        <v>113.256668</v>
+        <v>608.74694799999997</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>4.3651499999999999</v>
+        <v>78.418762000000015</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-328.01607240740748</v>
+        <v>149.58126495370385</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-329.58346533333327</v>
+        <v>79.475809287036896</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>107594.54375758159</v>
+        <v>22374.554825150153</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>108625.26062112849</v>
+        <v>6316.4042618294598</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>108108.67382906291</v>
+        <v>11888.092086374303</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>19.054534522499999</v>
+        <v>6149.5022336126467</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>105766.95262825141</v>
+        <v>24930.69564191718</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>4.3651499999999999</v>
+        <v>78.418762000000015</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14463,46 +14460,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>58.861030999999997</v>
+        <v>393.33126800000002</v>
       </c>
       <c r="I94">
-        <v>45.112904</v>
+        <v>433.807343</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>-13.748126999999997</v>
+        <v>40.47607499999998</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-396.15983640740745</v>
+        <v>-25.358340046296121</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-379.61395233333326</v>
+        <v>-57.521108712963041</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>156942.61598234385</v>
+        <v>643.04540990358555</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>144106.7528061342</v>
+        <v>3308.6779475685125</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>150387.80125434269</v>
+        <v>1458.6398345832833</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>189.0109960081289</v>
+        <v>1638.3126474056235</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>154733.72545744356</v>
+        <v>290.5331742760473</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>13.748126999999997</v>
+        <v>40.47607499999998</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14530,46 +14527,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>58.488616999999998</v>
+        <v>314.628693</v>
       </c>
       <c r="I95">
-        <v>25.009678000000001</v>
+        <v>333.24765000000002</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-33.478938999999997</v>
+        <v>18.618957000000023</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-416.26306240740746</v>
+        <v>-125.9180330462961</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-379.98636633333331</v>
+        <v>-136.22368371296307</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>173274.93712479318</v>
+        <v>15855.351046248117</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>144389.63859921019</v>
+        <v>18556.892004329398</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>158174.28852297631</v>
+        <v>17153.01830745707</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>1120.8393565657209</v>
+        <v>346.66555976784986</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>170953.55871438651</v>
+        <v>13830.871745230723</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>33.478938999999997</v>
+        <v>18.618957000000023</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14597,46 +14594,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>67.151031000000003</v>
+        <v>296.22668499999997</v>
       </c>
       <c r="I96">
-        <v>25.230001000000001</v>
+        <v>279.36144999999999</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-41.921030000000002</v>
+        <v>-16.865234999999984</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-416.04273940740745</v>
+        <v>-179.80423304629613</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-371.3239523333333</v>
+        <v>-154.62569171296309</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>173091.56101361994</v>
+        <v>32329.56222136677</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>137881.47757644756</v>
+        <v>23909.104537712301</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>154486.63433634557</v>
+        <v>27802.353907702356</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>1757.3727562609001</v>
+        <v>284.4361516052245</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>170771.41542367692</v>
+        <v>29409.137944870872</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>41.921030000000002</v>
+        <v>16.865234999999984</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14664,46 +14661,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>146.840317</v>
+        <v>374.50503500000002</v>
       </c>
       <c r="I97">
-        <v>129.49998500000001</v>
+        <v>325.57327299999997</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-17.340331999999989</v>
+        <v>-48.931762000000049</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-311.77275540740743</v>
+        <v>-133.59241004629615</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>-291.63466633333326</v>
+        <v>-76.347341712963043</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>97202.251014327092</v>
+        <v>17846.932021977729</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>85050.778607354616</v>
+        <v>5828.9165866359463</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>90923.743495063187</v>
+        <v>10199.425380062848</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>300.68711387022364</v>
+        <v>2394.3173324246486</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>95465.549595083285</v>
+        <v>15694.853827123363</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>17.340331999999989</v>
+        <v>48.931762000000049</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14731,46 +14728,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>788.13421600000004</v>
+        <v>542.43609600000002</v>
       </c>
       <c r="I98">
-        <v>672.20330799999999</v>
+        <v>611.67675799999995</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>-115.93090800000004</v>
+        <v>69.240661999999929</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>230.93056759259252</v>
+        <v>152.51107495370383</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>349.65923266666675</v>
+        <v>91.583719287036956</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>53328.927048636942</v>
+        <v>23259.627983534265</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>122261.57898904219</v>
+        <v>8387.5776384467845</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>80747.00506370372</v>
+        <v>13967.531476724263</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>13439.975429704475</v>
+        <v>4794.2692741982346</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>54628.929751486758</v>
+        <v>25864.481616358222</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>115.93090800000004</v>
+        <v>69.240661999999929</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14798,46 +14795,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>486.38000499999998</v>
+        <v>513.369507</v>
       </c>
       <c r="I99">
-        <v>468.645172</v>
+        <v>490.97482300000001</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-17.734832999999981</v>
+        <v>-22.394683999999984</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>27.372431592592534</v>
+        <v>31.809139953703891</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>47.905021666666698</v>
+        <v>62.517130287036935</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>749.25001129115788</v>
+        <v>1011.8213845943212</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>2294.8911008838058</v>
+        <v>3908.3915793263509</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>1311.2769285124973</v>
+        <v>1988.6161468042981</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>314.52430153788833</v>
+        <v>501.52187145985528</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>910.24028418226487</v>
+        <v>1609.8106960561652</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>17.734832999999981</v>
+        <v>22.394683999999984</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14865,46 +14862,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>1017.191467</v>
+        <v>511.41516100000001</v>
       </c>
       <c r="I100">
-        <v>920.54840100000001</v>
+        <v>515.40911900000003</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-96.643065999999976</v>
+        <v>3.9939580000000205</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>479.27566059259254</v>
+        <v>56.243435953703909</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>578.7164836666667</v>
+        <v>60.562784287036948</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>229705.15883646597</v>
+        <v>3163.3240878783936</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>334912.76846751128</v>
+        <v>3667.8508405981693</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>277364.72500516399</v>
+        <v>3406.259079225948</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>9339.8822058803507</v>
+        <v>15.951700505764164</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>232394.7800208205</v>
+        <v>4167.5729747149071</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>96.643065999999976</v>
+        <v>3.9939580000000205</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14932,46 +14929,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>509.87152099999997</v>
+        <v>524.05706799999996</v>
       </c>
       <c r="I101">
-        <v>566.214294</v>
+        <v>531.03466800000001</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>56.342773000000022</v>
+        <v>6.9776000000000522</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>124.94155359259253</v>
+        <v>71.868984953703887</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>71.396537666666688</v>
+        <v>73.204691287036894</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>15610.391814130671</v>
+        <v>5165.1509982757152</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>5097.465590787755</v>
+        <v>5358.9268264303755</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>8920.3943372053873</v>
+        <v>5261.1468566485928</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>3174.5080693295317</v>
+        <v>48.68690176000073</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>16317.331489595192</v>
+        <v>6429.1998360392408</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>56.342773000000022</v>
+        <v>6.9776000000000522</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -14999,46 +14996,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>638.07299799999998</v>
+        <v>505.62884500000001</v>
       </c>
       <c r="I102">
-        <v>615.77417000000003</v>
+        <v>404.23397799999998</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-22.298827999999958</v>
+        <v>-101.39486700000003</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>174.50142959259256</v>
+        <v>-54.931705046296145</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>199.5980146666667</v>
+        <v>54.776468287036948</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>30450.748929858539</v>
+        <v>3017.4922192932772</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>39839.367458874898</v>
+        <v>3000.4614780007646</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>34830.138903176594</v>
+        <v>-3008.9647994213083</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>497.23773017358212</v>
+        <v>10280.919053947695</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>31435.001592661538</v>
+        <v>2173.2750985607981</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>22.298827999999958</v>
+        <v>101.39486700000003</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15066,46 +15063,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>768.86077899999998</v>
+        <v>553.13836700000002</v>
       </c>
       <c r="I103">
-        <v>663.63336200000003</v>
+        <v>656.39202899999998</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>-105.22741699999995</v>
+        <v>103.25366199999996</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>222.36062159259257</v>
+        <v>197.22634595370386</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>330.3857956666667</v>
+        <v>102.28599028703695</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>49444.24603504414</v>
+        <v>38898.231538250075</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>109154.77397829643</v>
+        <v>10462.423808999818</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>73464.790889803277</v>
+        <v>20173.492106568341</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>11072.809288491877</v>
+        <v>10661.318716410236</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>50696.295483802089</v>
+        <v>42246.548662276036</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>105.22741699999995</v>
+        <v>103.25366199999996</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15133,46 +15130,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>136.438782</v>
+        <v>398.22967499999999</v>
       </c>
       <c r="I104">
-        <v>164.674194</v>
+        <v>521.24169900000004</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>28.235411999999997</v>
+        <v>123.01202400000005</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-276.59854640740747</v>
+        <v>62.076015953703916</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-302.03620133333328</v>
+        <v>-52.622701712963078</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>76506.755874690745</v>
+        <v>3853.4317566845029</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>91225.866915869832</v>
+        <v>2769.1487355714871</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>83542.774251215058</v>
+        <v>-3266.6076710608986</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>797.23849080974378</v>
+        <v>15131.958048576589</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>74966.872239556353</v>
+        <v>4954.6566920283603</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>28.235411999999997</v>
+        <v>123.01202400000005</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15200,46 +15197,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>65.476394999999997</v>
+        <v>312.84823599999999</v>
       </c>
       <c r="I105">
-        <v>64.460007000000004</v>
+        <v>358.698395</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0163879999999921</v>
+        <v>45.850159000000019</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-376.81273340740745</v>
+        <v>-100.46728804629612</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-372.99858833333326</v>
+        <v>-138.00414071296308</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>141987.83605796192</v>
+        <v>10093.675967377436</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>139127.9468986594</v>
+        <v>19045.142853923313</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>140550.61762698763</v>
+        <v>13864.901756590843</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>1.0330445665439838</v>
+        <v>2102.2370803252829</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>139887.20252162384</v>
+        <v>8492.3563455531294</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>1.0163879999999921</v>
+        <v>45.850159000000019</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15267,46 +15264,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>59.659236999999997</v>
+        <v>268.40554800000001</v>
       </c>
       <c r="I106">
-        <v>27.525805999999999</v>
+        <v>279.09741200000002</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>-32.133431000000002</v>
+        <v>10.69186400000001</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-413.74693440740748</v>
+        <v>-180.0682710462961</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-378.81574633333327</v>
+        <v>-182.44682871296305</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>171186.52573152754</v>
+        <v>32424.582237602361</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>143501.36967008028</v>
+        <v>33286.845307417279</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>156733.85375067074</v>
+        <v>32852.88500422299</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>1032.5573878317612</v>
+        <v>114.3159557944962</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>168879.22635094341</v>
+        <v>29499.767903551179</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>32.133431000000002</v>
+        <v>10.69186400000001</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15334,46 +15331,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>59.801651</v>
+        <v>243.937378</v>
       </c>
       <c r="I107">
-        <v>14.280643</v>
+        <v>232.69052099999999</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-45.521008000000002</v>
+        <v>-11.246857000000006</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-426.99209740740747</v>
+        <v>-226.47516204629613</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-378.67333233333329</v>
+        <v>-206.91499871296307</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>182322.25124837694</v>
+        <v>51290.999023896096</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>143393.49262043109</v>
+        <v>42813.81669238551</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>161690.52040526224</v>
+        <v>46861.107863327466</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>2072.1621693360644</v>
+        <v>126.49179237844913</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>179940.8383708318</v>
+        <v>47594.595288123717</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>45.521008000000002</v>
+        <v>11.246857000000006</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15401,46 +15398,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>65.578995000000006</v>
+        <v>230.102463</v>
       </c>
       <c r="I108">
-        <v>14.81</v>
+        <v>199.79652400000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-50.768995000000004</v>
+        <v>-30.305938999999995</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-426.46274040740747</v>
+        <v>-259.36915904629609</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-372.89598833333326</v>
+        <v>-220.74991371296306</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>181870.4689557958</v>
+        <v>67272.360664382839</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>139051.41811509343</v>
+        <v>48730.524404280637</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>159026.24507156195</v>
+        <v>57255.719479273655</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>2577.4908533100256</v>
+        <v>918.4499386717207</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>179492.01810283356</v>
+        <v>63029.041181433</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>50.768995000000004</v>
+        <v>30.305938999999995</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15468,46 +15465,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>68.620437999999993</v>
+        <v>230.11279300000001</v>
       </c>
       <c r="I109">
-        <v>19.780646999999998</v>
+        <v>175.65425099999999</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-48.839790999999991</v>
+        <v>-54.458542000000023</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-421.49209340740748</v>
+        <v>-283.51143204629614</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-369.85454533333331</v>
+        <v>-220.73958371296305</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>177655.58480495872</v>
+        <v>80378.73210094159</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>136792.38470372671</v>
+        <v>48725.963817772223</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>155890.76656879156</v>
+        <v>62582.195487765421</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>2385.3251849236804</v>
+        <v>2965.7327967657666</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>175304.94727761042</v>
+        <v>75734.008395927827</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>48.839790999999991</v>
+        <v>54.458542000000023</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15535,46 +15532,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>108.72427399999999</v>
+        <v>290.16000400000001</v>
       </c>
       <c r="I110">
-        <v>67.923332000000002</v>
+        <v>177.17825300000001</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-40.800941999999992</v>
+        <v>-112.981751</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-373.34940840740745</v>
+        <v>-281.98743004629614</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-329.7507093333333</v>
+        <v>-160.69237271296305</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>139389.78075816113</v>
+        <v>79516.910704114765</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>108735.53030583647</v>
+        <v>25822.03864812183</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>123112.23225152296</v>
+        <v>45313.229209370016</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>1664.7168680873633</v>
+        <v>12764.876059026001</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>137308.5263058602</v>
+        <v>74897.525990058188</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>40.800941999999992</v>
+        <v>112.981751</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15602,46 +15599,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>721.82580600000006</v>
+        <v>441.81265300000001</v>
       </c>
       <c r="I111">
-        <v>487.07098400000001</v>
+        <v>328.79098499999998</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-234.75482200000005</v>
+        <v>-113.02166800000003</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>45.798243592592542</v>
+        <v>-130.37469804629615</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>283.35082266666677</v>
+        <v>-9.0397237129630525</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>2097.4791161664439</v>
+        <v>16997.561890662895</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>80287.688705876833</v>
+        <v>81.716604806706513</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>12976.969998649496</v>
+        <v>1178.551249499501</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>55109.826452251706</v>
+        <v>12773.897437502232</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>2361.5712807946729</v>
+        <v>14898.983346905414</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>234.75482200000005</v>
+        <v>113.02166800000003</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>
@@ -15657,7 +15654,7 @@
     </row>
     <row r="112" spans="4:22" x14ac:dyDescent="0.3">
       <c r="H112">
-        <v>2595.757568</v>
+        <v>563.02069100000006</v>
       </c>
       <c r="I112">
         <v>438.73611499999998</v>
@@ -15669,7 +15666,7 @@
     </row>
     <row r="113" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H113">
-        <v>1224.6083980000001</v>
+        <v>441.26516700000002</v>
       </c>
       <c r="I113">
         <v>371.96408100000002</v>
@@ -15681,7 +15678,7 @@
     </row>
     <row r="114" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H114">
-        <v>2426.423828</v>
+        <v>460.99056999999999</v>
       </c>
       <c r="I114">
         <v>240.55571</v>
@@ -15693,7 +15690,7 @@
     </row>
     <row r="115" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H115">
-        <v>4279.0717770000001</v>
+        <v>863.19226100000003</v>
       </c>
       <c r="I115">
         <v>923.58709699999997</v>
@@ -15705,7 +15702,7 @@
     </row>
     <row r="116" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H116">
-        <v>1454.982788</v>
+        <v>542.05572500000005</v>
       </c>
       <c r="I116">
         <v>512.78112799999997</v>
@@ -15717,7 +15714,7 @@
     </row>
     <row r="117" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H117">
-        <v>1126.770996</v>
+        <v>409.016144</v>
       </c>
       <c r="I117">
         <v>362.353973</v>
@@ -15729,7 +15726,7 @@
     </row>
     <row r="118" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H118">
-        <v>920.16400099999998</v>
+        <v>323.34811400000001</v>
       </c>
       <c r="I118">
         <v>257.08166499999999</v>
@@ -15741,7 +15738,7 @@
     </row>
     <row r="119" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H119">
-        <v>816.32342500000004</v>
+        <v>273.27713</v>
       </c>
       <c r="I119">
         <v>210.764084</v>
@@ -15753,7 +15750,7 @@
     </row>
     <row r="120" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H120">
-        <v>895.70336899999995</v>
+        <v>273.17126500000001</v>
       </c>
       <c r="I120">
         <v>185.76071200000001</v>
@@ -15765,7 +15762,7 @@
     </row>
     <row r="121" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H121">
-        <v>1006.869385</v>
+        <v>283.31991599999998</v>
       </c>
       <c r="I121">
         <v>188.855515</v>
@@ -15777,7 +15774,7 @@
     </row>
     <row r="122" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H122">
-        <v>852.56036400000005</v>
+        <v>254.693817</v>
       </c>
       <c r="I122">
         <v>175.55844099999999</v>
@@ -15789,7 +15786,7 @@
     </row>
     <row r="123" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H123">
-        <v>1050.907471</v>
+        <v>272.96816999999999</v>
       </c>
       <c r="I123">
         <v>203.73919699999999</v>
@@ -15801,7 +15798,7 @@
     </row>
     <row r="124" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H124">
-        <v>2370.750732</v>
+        <v>402.618225</v>
       </c>
       <c r="I124">
         <v>343.474152</v>
@@ -15813,7 +15810,7 @@
     </row>
     <row r="125" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H125">
-        <v>2475.7465820000002</v>
+        <v>599.22985800000004</v>
       </c>
       <c r="I125">
         <v>546.27380400000004</v>
@@ -15825,7 +15822,7 @@
     </row>
     <row r="126" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H126">
-        <v>2133.6499020000001</v>
+        <v>500.22409099999999</v>
       </c>
       <c r="I126">
         <v>303.95086700000002</v>
@@ -15837,7 +15834,7 @@
     </row>
     <row r="127" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H127">
-        <v>1905.3756100000001</v>
+        <v>457.09435999999999</v>
       </c>
       <c r="I127">
         <v>437.96002199999998</v>
@@ -15849,7 +15846,7 @@
     </row>
     <row r="128" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H128">
-        <v>1519.9664310000001</v>
+        <v>391.42327899999998</v>
       </c>
       <c r="I128">
         <v>520.13635299999999</v>
@@ -15861,7 +15858,7 @@
     </row>
     <row r="129" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H129">
-        <v>1372.605957</v>
+        <v>354.33621199999999</v>
       </c>
       <c r="I129">
         <v>388.07919299999998</v>
@@ -15873,7 +15870,7 @@
     </row>
     <row r="130" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H130">
-        <v>947.32299799999998</v>
+        <v>289.211792</v>
       </c>
       <c r="I130">
         <v>278.70727499999998</v>
@@ -15885,7 +15882,7 @@
     </row>
     <row r="131" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H131">
-        <v>812.23944100000006</v>
+        <v>251.38841199999999</v>
       </c>
       <c r="I131">
         <v>191.16635099999999</v>
@@ -15897,10 +15894,10 @@
     </row>
     <row r="132" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H132">
-        <v>775.35900900000001</v>
+        <v>237.66464199999999</v>
       </c>
       <c r="I132">
-        <v>155.770477</v>
+        <v>160.796539</v>
       </c>
       <c r="S132"/>
       <c r="T132"/>
@@ -15909,10 +15906,10 @@
     </row>
     <row r="133" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H133">
-        <v>875.85205099999996</v>
+        <v>259.27020299999998</v>
       </c>
       <c r="I133">
-        <v>144.342896</v>
+        <v>156.71487400000001</v>
       </c>
       <c r="S133"/>
       <c r="T133"/>
@@ -15921,10 +15918,10 @@
     </row>
     <row r="134" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H134">
-        <v>1324.373779</v>
+        <v>318.351654</v>
       </c>
       <c r="I134">
-        <v>144.847443</v>
+        <v>227.47267199999999</v>
       </c>
       <c r="S134"/>
       <c r="T134"/>
@@ -15933,10 +15930,10 @@
     </row>
     <row r="135" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H135">
-        <v>2490.9309079999998</v>
+        <v>491.87271099999998</v>
       </c>
       <c r="I135">
-        <v>144.84745799999999</v>
+        <v>410.76449600000001</v>
       </c>
       <c r="S135"/>
       <c r="T135"/>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6CCF84-3625-43B8-AD32-1917332D2845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A72440-9A6E-4B8C-9797-003952027E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Month index</t>
   </si>
@@ -220,7 +220,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</t>
+    <t xml:space="preserve"> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</t>
   </si>
 </sst>
 </file>
@@ -851,6 +854,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13523430620605165"/>
+          <c:y val="1.4850561836511685E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -895,7 +906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</c:v>
+                  <c:v> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -919,328 +930,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>522.61016800000004</c:v>
+                  <c:v>5564.626953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>458.64724699999999</c:v>
+                  <c:v>2765.735596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>382.36044299999998</c:v>
+                  <c:v>2873.4809570000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406.62750199999999</c:v>
+                  <c:v>4017.2829590000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.13378899999998</c:v>
+                  <c:v>3632.0615229999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>421.69918799999999</c:v>
+                  <c:v>4537.9121089999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>307.477936</c:v>
+                  <c:v>1848.1649170000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>262.75674400000003</c:v>
+                  <c:v>1696.2768550000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.93081699999999</c:v>
+                  <c:v>2774.2465820000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>266.20266700000002</c:v>
+                  <c:v>3485.5747070000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>391.70986900000003</c:v>
+                  <c:v>4927.5546880000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>548.96722399999999</c:v>
+                  <c:v>7523.5380859999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>662.111267</c:v>
+                  <c:v>7352.2617190000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>618.62017800000001</c:v>
+                  <c:v>3050.6896969999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>586.94580099999996</c:v>
+                  <c:v>5465.8647460000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>691.17169200000001</c:v>
+                  <c:v>5798.5307620000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>637.61676</c:v>
+                  <c:v>5566.1757809999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>517.37292500000001</c:v>
+                  <c:v>5305.1870120000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>375.07519500000001</c:v>
+                  <c:v>2499.2170409999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>303.08050500000002</c:v>
+                  <c:v>1765.0023189999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>263.02398699999998</c:v>
+                  <c:v>2748.8002929999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>265.92004400000002</c:v>
+                  <c:v>2986.9169919999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279.08657799999997</c:v>
+                  <c:v>3755.2282709999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>328.01333599999998</c:v>
+                  <c:v>3056.7714839999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>478.47442599999999</c:v>
+                  <c:v>7089.0893550000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>556.89880400000004</c:v>
+                  <c:v>4149.0629879999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>562.65966800000001</c:v>
+                  <c:v>6372.0229490000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>859.74102800000003</c:v>
+                  <c:v>7490.5825199999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>686.46557600000006</c:v>
+                  <c:v>5291.8632809999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>505.05938700000002</c:v>
+                  <c:v>3966.6171880000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>381.33160400000003</c:v>
+                  <c:v>2059.8259280000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>303.48501599999997</c:v>
+                  <c:v>1764.1866460000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>263.86615</c:v>
+                  <c:v>2733.0314939999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>310.11679099999998</c:v>
+                  <c:v>3929.814453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>527.22924799999998</c:v>
+                  <c:v>7063.7104490000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>736.90203899999995</c:v>
+                  <c:v>7594.265625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>485.157623</c:v>
+                  <c:v>4633.2773440000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>456.41424599999999</c:v>
+                  <c:v>3009.9780270000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>516.72863800000005</c:v>
+                  <c:v>3251.5339359999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>579.59802200000001</c:v>
+                  <c:v>4539.2309569999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>425.31900000000002</c:v>
+                  <c:v>3627.889893</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>363.84823599999999</c:v>
+                  <c:v>2291.1206050000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>295.73376500000001</c:v>
+                  <c:v>1805.866577</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>256.02822900000001</c:v>
+                  <c:v>1726.4860839999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>252.336456</c:v>
+                  <c:v>2558.1804200000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>338.40884399999999</c:v>
+                  <c:v>4078.866211</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>321.61099200000001</c:v>
+                  <c:v>4376.9370120000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>310.796448</c:v>
+                  <c:v>2977.17749</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>319.38742100000002</c:v>
+                  <c:v>3786.40625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>475.196594</c:v>
+                  <c:v>7286.5375979999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>937.10784899999999</c:v>
+                  <c:v>9013.2304690000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>707.75299099999995</c:v>
+                  <c:v>5035.4833980000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>567.31201199999998</c:v>
+                  <c:v>4523.2753910000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>412.42486600000001</c:v>
+                  <c:v>2337.3051759999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>329.39389</c:v>
+                  <c:v>1852.8797609999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>275.24258400000002</c:v>
+                  <c:v>1739.214966</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>248.75607299999999</c:v>
+                  <c:v>2620.6538089999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>281.43014499999998</c:v>
+                  <c:v>3591.2822270000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>487.87530500000003</c:v>
+                  <c:v>7721.1186520000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>741.13519299999996</c:v>
+                  <c:v>8808.5097659999992</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>671.43841599999996</c:v>
+                  <c:v>5525.8139650000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>570.351135</c:v>
+                  <c:v>3703.7185060000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>431.98306300000002</c:v>
+                  <c:v>2385.8247070000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>382.35730000000001</c:v>
+                  <c:v>2486.2780760000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>309.92392000000001</c:v>
+                  <c:v>1900.7827150000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>266.651184</c:v>
+                  <c:v>1738.385376</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>239.993469</c:v>
+                  <c:v>1662.424072</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>227.60005200000001</c:v>
+                  <c:v>1640.3079829999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.52647400000001</c:v>
+                  <c:v>2141.2033689999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>221.140961</c:v>
+                  <c:v>2183.0026859999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>396.98577899999998</c:v>
+                  <c:v>4550.3544920000004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>690.753784</c:v>
+                  <c:v>8932.8554690000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>675.01367200000004</c:v>
+                  <c:v>6805.1752930000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>849.90185499999995</c:v>
+                  <c:v>5643.7666019999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>817.418274</c:v>
+                  <c:v>6353.0014650000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>615.465149</c:v>
+                  <c:v>4085.046875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>450.40310699999998</c:v>
+                  <c:v>2517.9189449999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>355.11968999999999</c:v>
+                  <c:v>1986.948486</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>295.21850599999999</c:v>
+                  <c:v>1809.718018</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>255.736313</c:v>
+                  <c:v>1693.80249</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>240.93592799999999</c:v>
+                  <c:v>2565.3654790000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>501.890198</c:v>
+                  <c:v>7239.0942379999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>561.65826400000003</c:v>
+                  <c:v>6029.1806640000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>450.071594</c:v>
+                  <c:v>3525.202393</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>368.18246499999998</c:v>
+                  <c:v>4693.7817379999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>772.75885000000005</c:v>
+                  <c:v>7980.4072269999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>925.00207499999999</c:v>
+                  <c:v>9607.3710940000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>968.93457000000001</c:v>
+                  <c:v>6237.9345700000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>776.57995600000004</c:v>
+                  <c:v>5693.095703</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>530.32818599999996</c:v>
+                  <c:v>2723.3527829999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>393.33126800000002</c:v>
+                  <c:v>1846.3857419999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>314.628693</c:v>
+                  <c:v>1769.50415</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>296.22668499999997</c:v>
+                  <c:v>2848.7585450000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>374.50503500000002</c:v>
+                  <c:v>5374.2094729999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>542.43609600000002</c:v>
+                  <c:v>7717.1079099999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>513.369507</c:v>
+                  <c:v>4102.1357420000004</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>511.41516100000001</c:v>
+                  <c:v>5895.6918949999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>524.05706799999996</c:v>
+                  <c:v>3120.3547359999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>505.62884500000001</c:v>
+                  <c:v>3877.8793949999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>553.13836700000002</c:v>
+                  <c:v>4765.7529299999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>398.22967499999999</c:v>
+                  <c:v>2321.7468260000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>312.84823599999999</c:v>
+                  <c:v>1817.955078</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>268.40554800000001</c:v>
+                  <c:v>1736.432251</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>243.937378</c:v>
+                  <c:v>1706.994629</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>230.102463</c:v>
+                  <c:v>2171.561279</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>230.11279300000001</c:v>
+                  <c:v>2780.4877929999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>290.16000400000001</c:v>
+                  <c:v>3397.6469729999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>441.81265300000001</c:v>
+                  <c:v>5333.9580079999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1285,328 +1296,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>633.59283400000004</c:v>
+                  <c:v>6244.5864259999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425.65698200000003</c:v>
+                  <c:v>3257.5834960000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.90524299999998</c:v>
+                  <c:v>3293.4914549999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516.30627400000003</c:v>
+                  <c:v>4366.53125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510.29437300000001</c:v>
+                  <c:v>4256.8549800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628.17913799999997</c:v>
+                  <c:v>6079.5747069999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.57525600000002</c:v>
+                  <c:v>2735.7294919999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275.82794200000001</c:v>
+                  <c:v>2623.7639159999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241.34721400000001</c:v>
+                  <c:v>1942.190918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229.03131099999999</c:v>
+                  <c:v>3342.4379880000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>366.80126999999999</c:v>
+                  <c:v>4682.6630859999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>656.46301300000005</c:v>
+                  <c:v>8336.8554690000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>758.90728799999999</c:v>
+                  <c:v>8025.0898440000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>523.816101</c:v>
+                  <c:v>3515.8793949999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>472.20327800000001</c:v>
+                  <c:v>4831.7036129999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>686.89923099999999</c:v>
+                  <c:v>6298.3862300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>778.66332999999997</c:v>
+                  <c:v>5863.7412109999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>826.61328100000003</c:v>
+                  <c:v>5519.5639650000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>513.37567100000001</c:v>
+                  <c:v>3505.0139159999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>398.268799</c:v>
+                  <c:v>2787.0905760000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>310.50412</c:v>
+                  <c:v>2632.1047359999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>267.33938599999999</c:v>
+                  <c:v>3061.5668949999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>271.36877399999997</c:v>
+                  <c:v>3975.163086</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>332.02279700000003</c:v>
+                  <c:v>3496.0119629999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>747.57867399999998</c:v>
+                  <c:v>9323.0996090000008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>626.625</c:v>
+                  <c:v>4295.6992190000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>563.50689699999998</c:v>
+                  <c:v>6261.9121089999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>898.37103300000001</c:v>
+                  <c:v>7925.6293949999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>996.23992899999996</c:v>
+                  <c:v>6222.0864259999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>681.18328899999995</c:v>
+                  <c:v>4844.2036129999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>481.72918700000002</c:v>
+                  <c:v>3261.306885</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>366.778595</c:v>
+                  <c:v>2980.991211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>294.694458</c:v>
+                  <c:v>2823.5454100000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>274.35879499999999</c:v>
+                  <c:v>3689.7209469999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>514.78887899999995</c:v>
+                  <c:v>6776.8481449999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>824.81103499999995</c:v>
+                  <c:v>8247.5019530000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>412.20935100000003</c:v>
+                  <c:v>4287.7246089999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>382.81478900000002</c:v>
+                  <c:v>3565.3015140000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>437.68179300000003</c:v>
+                  <c:v>3775.4267580000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>782.16125499999998</c:v>
+                  <c:v>5110.0322269999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>584.118652</c:v>
+                  <c:v>4004.1154790000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>451.94134500000001</c:v>
+                  <c:v>3128.1423340000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>334.18719499999997</c:v>
+                  <c:v>2305.2048340000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>244.20327800000001</c:v>
+                  <c:v>2220.9914549999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>220.821213</c:v>
+                  <c:v>2836.9643550000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>315.99529999999999</c:v>
+                  <c:v>3382.7624510000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>307.77313199999998</c:v>
+                  <c:v>4123.8271480000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>356.69754</c:v>
+                  <c:v>3238.2590329999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>335.19628899999998</c:v>
+                  <c:v>3759.3483890000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>805.42468299999996</c:v>
+                  <c:v>7535.3227539999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1049.1136469999999</c:v>
+                  <c:v>7875.0161129999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>720.01660200000003</c:v>
+                  <c:v>5321.919922</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>658.71105999999997</c:v>
+                  <c:v>4853.1923829999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>441.70452899999998</c:v>
+                  <c:v>3208.139404</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>362.28997800000002</c:v>
+                  <c:v>2391.750732</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>278.85382099999998</c:v>
+                  <c:v>2629.6972660000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>235.81594799999999</c:v>
+                  <c:v>2412.9174800000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>223.83869899999999</c:v>
+                  <c:v>2910.2585450000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>411.79901100000001</c:v>
+                  <c:v>5873.5415039999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>656.54193099999998</c:v>
+                  <c:v>8805.2763670000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>514.29370100000006</c:v>
+                  <c:v>5431.6606449999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>565.96466099999998</c:v>
+                  <c:v>4394.2041019999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>385.28106700000001</c:v>
+                  <c:v>2779.251953</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>396.03781099999998</c:v>
+                  <c:v>2909.0417480000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>293.912689</c:v>
+                  <c:v>2317.9670409999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>220.25415000000001</c:v>
+                  <c:v>2099.8784179999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>173.981537</c:v>
+                  <c:v>1917.755371</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>152.941193</c:v>
+                  <c:v>1826.5020750000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>139.972916</c:v>
+                  <c:v>1752.3474120000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>126.537308</c:v>
+                  <c:v>1729.244263</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>221.43119799999999</c:v>
+                  <c:v>3132.5451659999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>607.42169200000001</c:v>
+                  <c:v>8454.3652340000008</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>434.39514200000002</c:v>
+                  <c:v>5990.5893550000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>641.31897000000004</c:v>
+                  <c:v>5863.1181640000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>707.70825200000002</c:v>
+                  <c:v>6886.216797</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>676.07458499999996</c:v>
+                  <c:v>3833.6987300000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>452.76947000000001</c:v>
+                  <c:v>2902.6779790000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>336.61318999999997</c:v>
+                  <c:v>2419.0139159999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>252.70665</c:v>
+                  <c:v>2062.8562010000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>204.46639999999999</c:v>
+                  <c:v>1955.5241699999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>178.68644699999999</c:v>
+                  <c:v>1880.517578</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>331.07891799999999</c:v>
+                  <c:v>3738.2863769999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>404.97912600000001</c:v>
+                  <c:v>4100.7963870000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>411.908569</c:v>
+                  <c:v>5770.8666990000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>335.74652099999997</c:v>
+                  <c:v>4150.578125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>599.73553500000003</c:v>
+                  <c:v>5957.5327150000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>821.78002900000001</c:v>
+                  <c:v>8375.7197269999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>915.23547399999995</c:v>
+                  <c:v>6519.3857420000004</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>970.514771</c:v>
+                  <c:v>6199.123047</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>608.74694799999997</c:v>
+                  <c:v>3566.188232</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>433.807343</c:v>
+                  <c:v>2445.352539</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>333.24765000000002</c:v>
+                  <c:v>3261.0795899999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>279.36144999999999</c:v>
+                  <c:v>2321.0834960000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>325.57327299999997</c:v>
+                  <c:v>4142.7758789999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>611.67675799999995</c:v>
+                  <c:v>7005.9467770000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>490.97482300000001</c:v>
+                  <c:v>3725.195068</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>515.40911900000003</c:v>
+                  <c:v>5450.3286129999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>531.03466800000001</c:v>
+                  <c:v>3702.6525879999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>404.23397799999998</c:v>
+                  <c:v>3429.6477049999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>656.39202899999998</c:v>
+                  <c:v>4782.6220700000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>521.24169900000004</c:v>
+                  <c:v>4169.2280270000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>358.698395</c:v>
+                  <c:v>3305.9650879999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>279.09741200000002</c:v>
+                  <c:v>2162.830078</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>232.69052099999999</c:v>
+                  <c:v>2034.4354249999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>199.79652400000001</c:v>
+                  <c:v>1857.3195800000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>175.65425099999999</c:v>
+                  <c:v>1627.963745</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>177.17825300000001</c:v>
+                  <c:v>2217.858643</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>328.79098499999998</c:v>
+                  <c:v>4338.9814450000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7402,15 +7413,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1888806</xdr:rowOff>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>120015</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7897,7 +7908,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I135"/>
+      <selection activeCell="H3" sqref="H3:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7916,7 +7927,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>384.67696616666672</v>
+        <v>3803.8713276666663</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7925,7 +7936,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>1194459.1764138336</v>
+        <v>80615121.297298566</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7944,7 +7955,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-8.3133063333330597</v>
+        <v>-124.63593090740324</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7954,11 +7965,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>450.85237671296306</v>
+        <v>4077.0305164629644</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>459.16568304629612</v>
+        <v>4201.6664473703677</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7968,12 +7979,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>11059.807189016978</v>
+        <v>746436.30830832</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>77.751676944444455</v>
+        <v>661.68636416666675</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -7992,7 +8003,7 @@
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>1.843908729935732E-2</v>
+        <v>3.0570271771115261E-2</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -8011,10 +8022,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -8080,7 +8091,7 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.7503149616248429</v>
+        <v>0.7912113753493607</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -8099,46 +8110,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>522.61016800000004</v>
+        <v>5564.626953</v>
       </c>
       <c r="I4">
-        <v>633.59283400000004</v>
+        <v>6244.5864259999998</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>110.98266599999999</v>
+        <v>679.95947299999989</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>174.42715095370392</v>
+        <v>2042.9199786296322</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>71.75779128703698</v>
+        <v>1487.5964365370355</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>30424.830989826212</v>
+        <v>4173522.0390840969</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>5149.1806103939607</v>
+        <v>2212943.1579976864</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>12516.507092928379</v>
+        <v>3039040.4803397576</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>12317.152152467555</v>
+        <v>462344.8849224376</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>33394.074729475382</v>
+        <v>4698298.6209689248</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>110.98266599999999</v>
+        <v>679.95947299999989</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8179,7 +8190,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.49929557945138664</v>
+        <v>0.45594444874653739</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8198,46 +8209,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>458.64724699999999</v>
+        <v>2765.735596</v>
       </c>
       <c r="I5">
-        <v>425.65698200000003</v>
+        <v>3257.5834960000002</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-32.990264999999965</v>
+        <v>491.84790000000021</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-33.508701046296096</v>
+        <v>-944.08295137036748</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>7.7948702870369289</v>
+        <v>-1311.2949204629645</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>1122.8330458100452</v>
+        <v>891292.6190681837</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>60.760002791731175</v>
+        <v>1719494.3684319723</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>-261.19597814297668</v>
+        <v>1237971.1786276468</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>1088.3575847702227</v>
+        <v>241914.35673441022</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>634.80791474200578</v>
+        <v>671493.41934562975</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>32.990264999999965</v>
+        <v>491.84790000000021</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8278,7 +8289,7 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.75194565051336237</v>
+        <v>0.8263214948357005</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -8297,46 +8308,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>382.36044299999998</v>
+        <v>2873.4809570000002</v>
       </c>
       <c r="I6">
-        <v>373.90524299999998</v>
+        <v>3293.4914549999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-8.4551999999999907</v>
+        <v>420.01049799999964</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-85.260440046296139</v>
+        <v>-908.17499237036782</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-68.491933712963089</v>
+        <v>-1203.5495594629642</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>7269.3426368880582</v>
+        <v>824781.81676691759</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>4691.14498374093</v>
+        <v>1448531.5420834953</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>5839.6524079889787</v>
+        <v>1093033.6119826371</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>71.490407039999837</v>
+        <v>176408.8184302077</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>5920.8613866406195</v>
+        <v>613933.46083826339</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>8.4551999999999907</v>
+        <v>420.01049799999964</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8377,7 +8388,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>450.85237671296306</v>
+        <v>4077.0305164629644</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8393,46 +8404,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>406.62750199999999</v>
+        <v>4017.2829590000001</v>
       </c>
       <c r="I7">
-        <v>516.30627400000003</v>
+        <v>4366.53125</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>109.67877200000004</v>
+        <v>349.24829099999988</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>57.140590953703907</v>
+        <v>164.86480262963232</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-44.224874712963071</v>
+        <v>-59.747557462964323</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3265.0471345385085</v>
+        <v>27180.403146107619</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>1955.8395433772805</v>
+        <v>3569.770622790224</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>-2527.0354759522265</v>
+        <v>-9850.2692687342296</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>12029.433027427993</v>
+        <v>121974.36876642059</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>4284.2126700619847</v>
+        <v>83810.674718481663</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>109.67877200000004</v>
+        <v>349.24829099999988</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8473,7 +8484,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>180.73685611759367</v>
+        <v>2050.4124066335535</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8489,46 +8500,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>390.13378899999998</v>
+        <v>3632.0615229999999</v>
       </c>
       <c r="I8">
-        <v>510.29437300000001</v>
+        <v>4256.8549800000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>120.16058400000003</v>
+        <v>624.79345700000022</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>51.128689953703883</v>
+        <v>55.188532629632391</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-60.718587712963085</v>
+        <v>-444.96899346296459</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2614.1429363819802</v>
+        <v>3045.774133811999</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>3686.7468938567918</v>
+        <v>197997.40514344382</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-3104.4618456028638</v>
+        <v>-24557.185814905504</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>14438.565947221063</v>
+        <v>390366.86391001113</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>3533.3509225881139</v>
+        <v>32336.837686382656</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>120.16058400000003</v>
+        <v>624.79345700000022</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8569,7 +8580,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>459.16568304629612</v>
+        <v>4201.6664473703677</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8585,46 +8596,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>421.69918799999999</v>
+        <v>4537.9121089999999</v>
       </c>
       <c r="I9">
-        <v>628.17913799999997</v>
+        <v>6079.5747069999998</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>206.47994999999997</v>
+        <v>1541.6625979999999</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>169.01345495370384</v>
+        <v>1877.9082596296321</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>-29.153188712963072</v>
+        <v>460.88159253703543</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>28565.547955387679</v>
+        <v>3526539.4315851936</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>849.9084121336374</v>
+        <v>212411.84233947395</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>-4927.2811472952117</v>
+        <v>865493.34933655744</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>42633.969752002486</v>
+        <v>2376723.5660721092</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>31444.78026854977</v>
+        <v>4010183.2350536301</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>206.47994999999997</v>
+        <v>1541.6625979999999</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8665,7 +8676,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>210.46385366426577</v>
+        <v>1890.788540052831</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8680,46 +8691,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>307.477936</v>
+        <v>1848.1649170000001</v>
       </c>
       <c r="I10">
-        <v>374.57525600000002</v>
+        <v>2735.7294919999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>67.097320000000025</v>
+        <v>887.56457499999988</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-84.590427046296099</v>
+        <v>-1465.9369553703677</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-143.37444071296306</v>
+        <v>-2228.8655994629644</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>7155.540347874743</v>
+        <v>2148971.1571205435</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>20556.230249754961</v>
+        <v>4967841.8604694</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>12128.105167433407</v>
+        <v>3267376.4508064874</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>4502.0503511824036</v>
+        <v>787770.87479493045</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>5818.1991442599356</v>
+        <v>1799088.4382253981</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>67.097320000000025</v>
+        <v>887.56457499999988</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8760,7 +8771,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>105.16561790346205</v>
+        <v>863.96545550636461</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8775,46 +8786,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>262.75674400000003</v>
+        <v>1696.2768550000001</v>
       </c>
       <c r="I11">
-        <v>275.82794200000001</v>
+        <v>2623.7639159999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>13.071197999999981</v>
+        <v>927.48706099999981</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-183.33774104629612</v>
+        <v>-1577.9025313703678</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-188.09563271296304</v>
+        <v>-2380.7536614629644</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>33612.727291958734</v>
+        <v>2489776.3985050144</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>35379.967045689889</v>
+        <v>5667987.9965693112</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>34485.028402268443</v>
+        <v>3756597.2289916831</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>170.8562171552035</v>
+        <v>860232.24832241738</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>30633.552746592268</v>
+        <v>2111983.8120211819</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>13.071197999999981</v>
+        <v>927.48706099999981</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8855,7 +8866,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.86714799804494869</v>
+        <v>0.9090222741141718</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8871,46 +8882,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>256.93081699999999</v>
+        <v>2774.2465820000002</v>
       </c>
       <c r="I12">
-        <v>241.34721400000001</v>
+        <v>1942.190918</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-15.583602999999982</v>
+        <v>-832.05566400000021</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-217.81846904629612</v>
+        <v>-2259.4755293703674</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-193.92155971296307</v>
+        <v>-1302.7839344629642</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>47444.885457672259</v>
+        <v>5105229.6678235019</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>37605.571321508301</v>
+        <v>1697245.979894801</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>42239.697251747508</v>
+        <v>2943608.4199759164</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>242.84868246160846</v>
+        <v>692316.62799448124</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>43892.413203385127</v>
+        <v>4557540.1111655105</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>15.583602999999982</v>
+        <v>832.05566400000021</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8951,7 +8962,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>77.751676944444455</v>
+        <v>661.68636416666675</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8966,46 +8977,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>266.20266700000002</v>
+        <v>3485.5747070000002</v>
       </c>
       <c r="I13">
-        <v>229.03131099999999</v>
+        <v>3342.4379880000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-37.171356000000031</v>
+        <v>-143.13671900000008</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-230.13437204629614</v>
+        <v>-859.22845937036755</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-184.64970971296304</v>
+        <v>-591.45580946296423</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>52961.829197143052</v>
+        <v>738273.54539197532</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>34095.515297081518</v>
+        <v>349819.97454749024</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>42494.24499332362</v>
+        <v>508195.66395051638</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>1381.7097068787384</v>
+        <v>20488.120326084987</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>49204.585194034684</v>
+        <v>539626.18287361099</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>37.171356000000031</v>
+        <v>143.13671900000008</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9054,46 +9065,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>391.70986900000003</v>
+        <v>4927.5546880000002</v>
       </c>
       <c r="I14">
-        <v>366.80126999999999</v>
+        <v>4682.6630859999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-24.908599000000038</v>
+        <v>-244.8916020000006</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-92.364413046296136</v>
+        <v>480.99663862963189</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-59.142507712963038</v>
+        <v>850.52417153703573</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>8531.1847973867989</v>
+        <v>231357.76637300468</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>3497.8362185778924</v>
+        <v>723391.36636876094</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>5462.6630109938733</v>
+        <v>409099.26758256659</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>620.43830414280285</v>
+        <v>59971.896730126697</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>7064.5885396739068</v>
+        <v>366790.80928403168</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>24.908599000000038</v>
+        <v>244.8916020000006</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9131,7 +9142,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.49929557945138664</v>
+        <v>0.45594444874653739</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9146,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>548.96722399999999</v>
+        <v>7523.5380859999996</v>
       </c>
       <c r="I15">
-        <v>656.46301300000005</v>
+        <v>8336.8554690000001</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>107.49578900000006</v>
+        <v>813.31738300000052</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>197.29732995370392</v>
+        <v>4135.1890216296324</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>98.114847287036923</v>
+        <v>3446.5075695370351</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>38926.236406860713</v>
+        <v>17099788.244606238</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>9626.5232581585769</v>
+        <v>11878414.426876081</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>19357.797398547795</v>
+        <v>14251960.264512975</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>11555.344652732534</v>
+        <v>661485.16548996954</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>42275.733754360212</v>
+        <v>18146108.626257159</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>107.49578900000006</v>
+        <v>813.31738300000052</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9234,46 +9245,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>662.111267</v>
+        <v>7352.2617190000001</v>
       </c>
       <c r="I16">
-        <v>758.90728799999999</v>
+        <v>8025.0898440000001</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>96.796020999999996</v>
+        <v>672.828125</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>299.74160495370387</v>
+        <v>3823.4233966296324</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>211.25889028703693</v>
+        <v>3275.2312025370356</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>89845.029740222279</v>
+        <v>14618566.469894875</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>44630.31872531031</v>
+        <v>10727139.430072196</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>63323.078835374894</v>
+        <v>12522595.609151509</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>9369.4696814324398</v>
+        <v>452697.68579101563</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>94897.828368064191</v>
+        <v>15587172.45375219</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>96.796020999999996</v>
+        <v>672.828125</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9301,46 +9312,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>618.62017800000001</v>
+        <v>3050.6896969999998</v>
       </c>
       <c r="I17">
-        <v>523.816101</v>
+        <v>3515.8793949999999</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-94.804077000000007</v>
+        <v>465.18969800000013</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>64.650417953703879</v>
+        <v>-685.78705237036775</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>167.76780128703695</v>
+        <v>-1026.3408194629646</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>4179.6765415885966</v>
+        <v>470303.88119883754</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>28146.035148686715</v>
+        <v>1053375.4776959098</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>10846.258472380878</v>
+        <v>703851.2453068943</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>8987.8130158219301</v>
+        <v>216401.45512533133</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>5323.7050618347439</v>
+        <v>314890.58111914276</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>94.804077000000007</v>
+        <v>465.18969800000013</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9368,46 +9379,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>586.94580099999996</v>
+        <v>5465.8647460000002</v>
       </c>
       <c r="I18">
-        <v>472.20327800000001</v>
+        <v>4831.7036129999997</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-114.74252299999995</v>
+        <v>-634.16113300000052</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>13.037594953703888</v>
+        <v>630.037165629632</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>136.0934242870369</v>
+        <v>1388.8342295370358</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>169.97888217684508</v>
+        <v>396946.83007462032</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>18521.420134171443</v>
+        <v>1928860.5171337316</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>1774.3309417169544</v>
+        <v>875017.18150692771</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>13165.846584405517</v>
+        <v>402160.34260784433</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>455.86098576879596</v>
+        <v>569531.48263679736</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>114.74252299999995</v>
+        <v>634.16113300000052</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9435,46 +9446,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>691.17169200000001</v>
+        <v>5798.5307620000003</v>
       </c>
       <c r="I19">
-        <v>686.89923099999999</v>
+        <v>6298.3862300000001</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2724610000000212</v>
+        <v>499.85546799999975</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>227.73354795370386</v>
+        <v>2096.7197826296324</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>240.31931528703694</v>
+        <v>1721.5002455370359</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>51862.568863581939</v>
+        <v>4396233.8468704531</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>57753.373300030267</v>
+        <v>2963563.0953840748</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>54728.770312121706</v>
+        <v>3609503.6206192728</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>18.25392299652118</v>
+        <v>249855.48888949878</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>55718.117418805639</v>
+        <v>4934421.2060636329</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>4.2724610000000212</v>
+        <v>499.85546799999975</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9502,46 +9513,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>637.61676</v>
+        <v>5566.1757809999999</v>
       </c>
       <c r="I20">
-        <v>778.66332999999997</v>
+        <v>5863.7412109999996</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>141.04656999999997</v>
+        <v>297.56542999999965</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>319.49764695370385</v>
+        <v>1662.0747636296319</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>186.76438328703694</v>
+        <v>1489.1452645370355</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>102078.74640895359</v>
+        <v>2762492.5198944965</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>34880.934864587238</v>
+        <v>2217553.6188930771</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>59670.780994967958</v>
+        <v>2475070.763565579</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>19894.134908764892</v>
+        <v>88545.185131084698</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>107460.0210949559</v>
+        <v>3192335.1059730146</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>141.04656999999997</v>
+        <v>297.56542999999965</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9569,46 +9580,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>517.37292500000001</v>
+        <v>5305.1870120000003</v>
       </c>
       <c r="I21">
-        <v>826.61328100000003</v>
+        <v>5519.5639650000003</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>309.24035600000002</v>
+        <v>214.37695299999996</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>367.44759795370391</v>
+        <v>1317.8975176296326</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>66.520548287036945</v>
+        <v>1228.1564955370359</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>135017.73724194683</v>
+        <v>1736853.8669743477</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>4424.9833444080141</v>
+        <v>1508368.3775298132</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>24442.815682635097</v>
+        <v>1618584.3967289685</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>95629.597779006755</v>
+        <v>45957.477977564187</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>141196.25719061177</v>
+        <v>2080902.7501481529</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>309.24035600000002</v>
+        <v>214.37695299999996</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9636,46 +9647,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>375.07519500000001</v>
+        <v>2499.2170409999999</v>
       </c>
       <c r="I22">
-        <v>513.37567100000001</v>
+        <v>3505.0139159999999</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>138.300476</v>
+        <v>1005.796875</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>54.209987953703887</v>
+        <v>-696.6525313703678</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-75.777181712963056</v>
+        <v>-1577.8134754629646</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>2938.7227939407207</v>
+        <v>485324.74946474127</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>5742.1812683594226</v>
+        <v>2489495.363352519</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>-4107.8801078253582</v>
+        <v>1099187.751711552</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>19127.021661826577</v>
+        <v>1011627.3537597656</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>3909.162328503427</v>
+        <v>327202.99120520684</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>138.300476</v>
+        <v>1005.796875</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9703,46 +9714,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>303.08050500000002</v>
+        <v>1765.0023189999999</v>
       </c>
       <c r="I23">
-        <v>398.268799</v>
+        <v>2787.0905760000001</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>95.188293999999985</v>
+        <v>1022.0882570000001</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-60.896884046296123</v>
+        <v>-1414.5758713703676</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-147.77187171296305</v>
+        <v>-2312.0281974629643</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>3708.4304865480353</v>
+        <v>2001024.8958632348</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>21836.526069552408</v>
+        <v>5345474.3858638434</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>8998.8465370084559</v>
+        <v>3270539.302059033</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>9060.8113146304331</v>
+        <v>1044664.4050972983</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>2765.0326450952257</v>
+        <v>1663945.0500015961</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>95.188293999999985</v>
+        <v>1022.0882570000001</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9770,46 +9781,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>263.02398699999998</v>
+        <v>2748.8002929999998</v>
       </c>
       <c r="I24">
-        <v>310.50412</v>
+        <v>2632.1047359999998</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>47.480133000000023</v>
+        <v>-116.69555700000001</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-148.66156304629612</v>
+        <v>-1569.5617113703679</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-187.82838971296309</v>
+        <v>-1328.2302234629647</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>22100.260327367876</v>
+        <v>2463523.9657998779</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>35279.503982164737</v>
+        <v>1764195.5265204771</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>27922.861999197939</v>
+        <v>2084739.302632377</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>2254.3630296976912</v>
+        <v>13617.85302354025</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>19697.633162367783</v>
+        <v>2087810.5110465076</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>47.480133000000023</v>
+        <v>116.69555700000001</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9837,46 +9848,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>265.92004400000002</v>
+        <v>2986.9169919999999</v>
       </c>
       <c r="I25">
-        <v>267.33938599999999</v>
+        <v>3061.5668949999999</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>1.4193419999999719</v>
+        <v>74.649902999999995</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-191.82629704629613</v>
+        <v>-1140.0995523703677</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-184.93233271296305</v>
+        <v>-1090.1135244629645</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>36797.328238493843</v>
+        <v>1299826.9893151128</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>34199.967682658062</v>
+        <v>1188347.4962170664</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>35474.884588461318</v>
+        <v>1242837.9412731098</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>2.0145317129639202</v>
+        <v>5572.6080179094079</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>33677.017760416071</v>
+        <v>1031166.3665146789</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>1.4193419999999719</v>
+        <v>74.649902999999995</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9904,46 +9915,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>279.08657799999997</v>
+        <v>3755.2282709999999</v>
       </c>
       <c r="I26">
-        <v>271.36877399999997</v>
+        <v>3975.163086</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-7.717804000000001</v>
+        <v>219.93481500000007</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-187.79690904629615</v>
+        <v>-226.50336137036766</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-171.76579871296309</v>
+        <v>-321.80224546296449</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>35267.679047342826</v>
+        <v>51303.772712075363</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>29503.489607502153</v>
+        <v>103556.68518500605</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>32257.086078162742</v>
+        <v>72889.290293893602</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>59.564498582416014</v>
+        <v>48371.322849084259</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>32214.36364282477</v>
+        <v>10376.973389126892</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>7.717804000000001</v>
+        <v>219.93481500000007</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9971,46 +9982,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>328.01333599999998</v>
+        <v>3056.7714839999999</v>
       </c>
       <c r="I27">
-        <v>332.02279700000003</v>
+        <v>3496.0119629999999</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>4.0094610000000444</v>
+        <v>439.24047900000005</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-127.1428860462961</v>
+        <v>-705.65448437036775</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-122.83904071296308</v>
+        <v>-1020.2590324629646</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>16165.313472181435</v>
+        <v>497948.25131200958</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>15089.429923281003</v>
+        <v>1040928.4933222646</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>15618.110155404593</v>
+        <v>719950.3614768635</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>16.075777510521355</v>
+        <v>192932.1983921495</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>14120.469014759437</v>
+        <v>337582.55946819577</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>4.0094610000000444</v>
+        <v>439.24047900000005</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10038,46 +10049,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>478.47442599999999</v>
+        <v>7089.0893550000001</v>
       </c>
       <c r="I28">
-        <v>747.57867399999998</v>
+        <v>9323.0996090000008</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>269.10424799999998</v>
+        <v>2234.0102540000007</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>288.41299095370385</v>
+        <v>5121.4331616296331</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>27.62204928703693</v>
+        <v>3012.0588385370356</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>83182.053350861257</v>
+        <v>26229077.629039701</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>762.97760681549732</v>
+        <v>9072498.4468090758</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>7966.5578511449439</v>
+        <v>15426058.020463211</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>72417.096291645488</v>
+        <v>4990801.8149771476</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>88046.495501675017</v>
+        <v>27521240.923672363</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>269.10424799999998</v>
+        <v>2234.0102540000007</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10105,46 +10116,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>556.89880400000004</v>
+        <v>4149.0629879999997</v>
       </c>
       <c r="I29">
-        <v>626.625</v>
+        <v>4295.6992190000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>69.726195999999959</v>
+        <v>146.63623100000041</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>167.45931695370388</v>
+        <v>94.032771629632407</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>106.04642728703698</v>
+        <v>72.032471537035235</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>28042.622834601054</v>
+        <v>8842.1621403506015</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>11245.844740344821</v>
+        <v>5188.6769557337911</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>17758.462278867835</v>
+        <v>6773.4129459600308</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>4861.74240863041</v>
+        <v>21502.184241885479</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>30896.0150972066</v>
+        <v>47816.001469230578</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>69.726195999999959</v>
+        <v>146.63623100000041</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10172,46 +10183,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>562.65966800000001</v>
+        <v>6372.0229490000002</v>
       </c>
       <c r="I30">
-        <v>563.50689699999998</v>
+        <v>6261.9121089999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>0.84722899999997026</v>
+        <v>-110.11084000000028</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>104.34121395370386</v>
+        <v>2060.2456616296322</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>111.80729128703695</v>
+        <v>2294.9924325370357</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>10887.088929332604</v>
+        <v>4244612.1862637205</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>12500.870384944328</v>
+        <v>5266990.2654022602</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>11666.108501764811</v>
+        <v>4728248.2026072638</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>0.71779697844094958</v>
+        <v>12124.397085505661</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>12691.040941102412</v>
+        <v>4773707.5734071722</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>0.84722899999997026</v>
+        <v>110.11084000000028</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10239,46 +10250,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>859.74102800000003</v>
+        <v>7490.5825199999999</v>
       </c>
       <c r="I31">
-        <v>898.37103300000001</v>
+        <v>7925.6293949999999</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>38.630004999999983</v>
+        <v>435.046875</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>439.20534995370389</v>
+        <v>3723.9629476296323</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>408.88865128703696</v>
+        <v>3413.5520035370355</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>192901.33942795551</v>
+        <v>13867900.035318378</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>167189.92915133212</v>
+        <v>11652337.280851709</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>179586.08318062106</v>
+        <v>12711941.180978816</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>1492.2772863000237</v>
+        <v>189265.78344726563</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>200272.94772495513</v>
+        <v>14811713.327876527</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>38.630004999999983</v>
+        <v>435.046875</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10306,46 +10317,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>686.46557600000006</v>
+        <v>5291.8632809999999</v>
       </c>
       <c r="I32">
-        <v>996.23992899999996</v>
+        <v>6222.0864259999998</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>309.77435299999991</v>
+        <v>930.22314499999993</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>537.07424595370389</v>
+        <v>2020.4199786296322</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>235.61319928703699</v>
+        <v>1214.8327645370355</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>288448.74566673965</v>
+        <v>4082096.8900457635</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>55513.57967827301</v>
+        <v>1475818.6457926962</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>126541.78134382516</v>
+        <v>2454472.3881644942</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>95960.149776568549</v>
+        <v>865315.09949369088</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>297447.58218964539</v>
+        <v>4601264.8550397586</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>309.77435299999991</v>
+        <v>930.22314499999993</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10373,46 +10384,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>505.05938700000002</v>
+        <v>3966.6171880000002</v>
       </c>
       <c r="I33">
-        <v>681.18328899999995</v>
+        <v>4844.2036129999997</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>176.12390199999993</v>
+        <v>877.58642499999951</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>222.01760595370382</v>
+        <v>642.537165629632</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>54.207010287036951</v>
+        <v>-110.41332846296427</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>49291.817353414102</v>
+        <v>412854.00921536115</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>2938.3999642589297</v>
+        <v>12191.103102270437</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>12034.91064983574</v>
+        <v>-70944.66711832663</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>31019.628855705578</v>
+        <v>770157.93334427977</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>53052.329154978681</v>
+        <v>588554.56005022314</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>176.12390199999993</v>
+        <v>877.58642499999951</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10440,46 +10451,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>381.33160400000003</v>
+        <v>2059.8259280000002</v>
       </c>
       <c r="I34">
-        <v>481.72918700000002</v>
+        <v>3261.306885</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>100.397583</v>
+        <v>1201.4809569999998</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>22.563503953703901</v>
+        <v>-940.35956237036771</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-69.520772712963037</v>
+        <v>-2017.2045884629642</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>509.11171066881155</v>
+        <v>884276.10654138948</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>4833.1378386074657</v>
+        <v>4069114.3517160369</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>-1568.6322299734918</v>
+        <v>1896897.6240185308</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>10079.674672241888</v>
+        <v>1443556.4900336352</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>953.37741350167141</v>
+        <v>665405.04292712628</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>100.397583</v>
+        <v>1201.4809569999998</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10507,46 +10518,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>303.48501599999997</v>
+        <v>1764.1866460000001</v>
       </c>
       <c r="I35">
-        <v>366.778595</v>
+        <v>2980.991211</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>63.293579000000022</v>
+        <v>1216.8045649999999</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-92.387088046296128</v>
+        <v>-1220.6752363703677</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-147.36736071296309</v>
+        <v>-2312.8438704629643</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>8535.3740376740734</v>
+        <v>1490048.0326878529</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>21717.139003504577</v>
+        <v>5349246.7691381052</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>13614.841329338802</v>
+        <v>2823231.2382651349</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>4006.077142629244</v>
+        <v>1480613.3494048391</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>7068.4007715189637</v>
+        <v>1201302.1591197373</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>63.293579000000022</v>
+        <v>1216.8045649999999</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10574,46 +10585,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>263.86615</v>
+        <v>2733.0314939999998</v>
       </c>
       <c r="I36">
-        <v>294.694458</v>
+        <v>2823.5454100000002</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>30.828307999999993</v>
+        <v>90.513916000000336</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-164.47122504629613</v>
+        <v>-1378.1210373703675</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-186.98622671296306</v>
+        <v>-1343.9990224629646</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>27050.783868229388</v>
+        <v>1899217.5936427778</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>34963.84898035162</v>
+        <v>1806333.3723814045</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>30753.853774265495</v>
+        <v>1852193.3270614205</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>950.38457414286358</v>
+        <v>8192.7689896551165</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>24385.29557676438</v>
+        <v>1571224.9121244689</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>30.828307999999993</v>
+        <v>90.513916000000336</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10641,46 +10652,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>310.11679099999998</v>
+        <v>3929.814453</v>
       </c>
       <c r="I37">
-        <v>274.35879499999999</v>
+        <v>3689.7209469999998</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-35.757995999999991</v>
+        <v>-240.09350600000016</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-184.80688804629614</v>
+        <v>-511.94550037036788</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-140.73558571296309</v>
+        <v>-147.21606346296448</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>34153.585869356233</v>
+        <v>262088.19534946635</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>19806.505085970781</v>
+        <v>21672.569341531587</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>26008.905632985483</v>
+        <v>75366.601272103188</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>1278.6342779360155</v>
+        <v>57644.89162337211</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>31149.984385870375</v>
+        <v>150008.70259758705</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>35.757995999999991</v>
+        <v>240.09350600000016</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10708,46 +10719,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>527.22924799999998</v>
+        <v>7063.7104490000002</v>
       </c>
       <c r="I38">
-        <v>514.78887899999995</v>
+        <v>6776.8481449999999</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-12.440369000000032</v>
+        <v>-286.86230400000022</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>55.623195953703828</v>
+        <v>2575.1816976296323</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>76.37687128703692</v>
+        <v>2986.6799325370357</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3093.9399281041337</v>
+        <v>6631560.7758066347</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>5833.4264675966051</v>
+        <v>8920257.0194194317</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>4248.3256779296698</v>
+        <v>7691243.4989470793</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>154.76278085616181</v>
+        <v>82289.981456188543</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>4087.876324700273</v>
+        <v>7289015.2273593424</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>12.440369000000032</v>
+        <v>286.86230400000022</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10775,46 +10786,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>736.90203899999995</v>
+        <v>7594.265625</v>
       </c>
       <c r="I39">
-        <v>824.81103499999995</v>
+        <v>8247.5019530000009</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>87.908996000000002</v>
+        <v>653.23632800000087</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>365.64535195370382</v>
+        <v>4045.8355056296332</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>286.04966228703688</v>
+        <v>3517.2351085370356</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>133696.52340534795</v>
+        <v>16368784.938613391</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>81824.409294527853</v>
+        <v>12370942.808725532</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>104592.72944318171</v>
+        <v>14230154.683766235</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>7727.9915777280166</v>
+        <v>426717.70021892473</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>139845.07810784082</v>
+        <v>17392832.002971292</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>87.908996000000002</v>
+        <v>653.23632800000087</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10842,46 +10853,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>485.157623</v>
+        <v>4633.2773440000001</v>
       </c>
       <c r="I40">
-        <v>412.20935100000003</v>
+        <v>4287.7246089999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-72.948271999999974</v>
+        <v>-345.55273500000021</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-46.956332046296097</v>
+        <v>86.058161629632195</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>34.305246287036937</v>
+        <v>556.24682753703564</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>2204.897119242014</v>
+        <v>7406.0071830718989</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>1176.8499228142616</v>
+        <v>309410.5331450167</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>-1610.8485355840728</v>
+        <v>47869.579390152358</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>5321.4503877859806</v>
+        <v>119406.69266598037</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>1493.2834362527226</v>
+        <v>44392.000630004848</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>72.948271999999974</v>
+        <v>345.55273500000021</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10909,46 +10920,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>456.41424599999999</v>
+        <v>3009.9780270000001</v>
       </c>
       <c r="I41">
-        <v>382.81478900000002</v>
+        <v>3565.3015140000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-73.599456999999973</v>
+        <v>555.32348700000011</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-76.350894046296105</v>
+        <v>-636.36493337036745</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>5.5618692870369273</v>
+        <v>-1067.0524894629643</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>5829.4590216687338</v>
+        <v>404960.32842347218</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>30.934389966084659</v>
+        <v>1138601.0152691095</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>-424.65369263390488</v>
+        <v>679034.78635978396</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>5416.880070694845</v>
+        <v>308384.17521383928</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>4629.1133417991396</v>
+        <v>261866.57196174044</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>73.599456999999973</v>
+        <v>555.32348700000011</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10976,46 +10987,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>516.72863800000005</v>
+        <v>3251.5339359999998</v>
       </c>
       <c r="I42">
-        <v>437.68179300000003</v>
+        <v>3775.4267580000001</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-79.046845000000019</v>
+        <v>523.89282200000025</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-21.483890046296096</v>
+        <v>-426.23968937036761</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>65.876261287036982</v>
+        <v>-825.49658046296463</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>461.55753152134048</v>
+        <v>181680.27279454746</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>4339.6818011579671</v>
+        <v>681444.60435604781</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>-1415.2783541517747</v>
+        <v>351859.40603283473</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>6248.4037044540282</v>
+        <v>274463.68894312397</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>173.46427534016721</v>
+        <v>90964.827118986155</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>79.046845000000019</v>
+        <v>523.89282200000025</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11043,46 +11054,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>579.59802200000001</v>
+        <v>4539.2309569999998</v>
       </c>
       <c r="I43">
-        <v>782.16125499999998</v>
+        <v>5110.0322269999997</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>202.56323299999997</v>
+        <v>570.80126999999993</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>322.99557195370386</v>
+        <v>908.36577962963202</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>128.74564528703695</v>
+        <v>462.20044053703532</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>104326.13950170028</v>
+        <v>825128.38960214914</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>16575.441180375539</v>
+        <v>213629.24723262951</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>41584.273336035178</v>
+        <v>419847.06351358345</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>41031.863363412274</v>
+        <v>325814.08983361284</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>109765.57283181464</v>
+        <v>1067092.5339724408</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>202.56323299999997</v>
+        <v>570.80126999999993</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11110,46 +11121,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>425.31900000000002</v>
+        <v>3627.889893</v>
       </c>
       <c r="I44">
-        <v>584.118652</v>
+        <v>4004.1154790000001</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>158.79965199999998</v>
+        <v>376.22558600000002</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>124.95296895370387</v>
+        <v>-197.55096837036763</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-25.533376712963047</v>
+        <v>-449.14062346296441</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>15613.244450345284</v>
+        <v>39026.385104069988</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>651.95332636608362</v>
+        <v>201727.29964470037</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-3190.4712276980972</v>
+        <v>88728.165099579273</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>25217.329475321098</v>
+        <v>141545.69156104341</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>17759.900128880312</v>
+        <v>5316.602688225501</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>158.79965199999998</v>
+        <v>376.22558600000002</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11177,46 +11188,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>363.84823599999999</v>
+        <v>2291.1206050000001</v>
       </c>
       <c r="I45">
-        <v>451.94134500000001</v>
+        <v>3128.1423340000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>88.093109000000027</v>
+        <v>837.02172900000005</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-7.2243380462961113</v>
+        <v>-1073.5241133703676</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-87.004140712963078</v>
+        <v>-1785.9099114629644</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>52.191060207161513</v>
+        <v>1152454.0219876338</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>7569.7205012010791</v>
+        <v>3189474.2118616533</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>628.54732393795962</v>
+        <v>1917217.3542626305</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>7760.395853285886</v>
+        <v>700605.37481814949</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>1.1858519301721855</v>
+        <v>900388.78281786782</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>88.093109000000027</v>
+        <v>837.02172900000005</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11244,46 +11255,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>295.73376500000001</v>
+        <v>1805.866577</v>
       </c>
       <c r="I46">
-        <v>334.18719499999997</v>
+        <v>2305.2048340000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>38.453429999999969</v>
+        <v>499.33825700000011</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-124.97848804629615</v>
+        <v>-1896.4616133703676</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-155.11861171296306</v>
+        <v>-2271.1639394629647</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>15619.62247433819</v>
+        <v>3596566.6509873373</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>24061.783699757001</v>
+        <v>5158185.6399169331</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>19386.489559726608</v>
+        <v>4307175.2288625333</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>1478.6662787648977</v>
+        <v>249338.69490379817</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>13610.764624118698</v>
+        <v>3139366.2490353491</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>38.453429999999969</v>
+        <v>499.33825700000011</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11311,46 +11322,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>256.02822900000001</v>
+        <v>1726.4860839999999</v>
       </c>
       <c r="I47">
-        <v>244.20327800000001</v>
+        <v>2220.9914549999999</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-11.824950999999999</v>
+        <v>494.50537099999997</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-214.96240504629611</v>
+        <v>-1980.6749923703678</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-194.82414771296305</v>
+        <v>-2350.5444324629643</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>46208.835583287873</v>
+        <v>3923073.4254013565</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>37956.448532082446</v>
+        <v>5525059.1289826389</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>41879.86735347339</v>
+        <v>4655664.5758347921</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>139.82946615240095</v>
+        <v>244535.5619478476</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>42703.849998879945</v>
+        <v>3444880.9976763222</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>11.824950999999999</v>
+        <v>494.50537099999997</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11378,46 +11389,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>252.336456</v>
+        <v>2558.1804200000001</v>
       </c>
       <c r="I48">
-        <v>220.821213</v>
+        <v>2836.9643550000001</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-31.515242999999998</v>
+        <v>278.78393499999993</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-238.34447004629612</v>
+        <v>-1364.7020923703676</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-198.51592071296307</v>
+        <v>-1518.8500964629643</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>56808.086401649751</v>
+        <v>1862411.8009200594</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>39408.570776515437</v>
+        <v>2306905.6155255558</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>47315.171918083724</v>
+        <v>2072777.9046399421</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>993.21054134904887</v>
+        <v>77720.482414084181</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>52914.336279140014</v>
+        <v>1537764.0848054909</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>31.515242999999998</v>
+        <v>278.78393499999993</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11445,46 +11456,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>338.40884399999999</v>
+        <v>4078.866211</v>
       </c>
       <c r="I49">
-        <v>315.99529999999999</v>
+        <v>3382.7624510000001</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-22.413544000000002</v>
+        <v>-696.10375999999997</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-143.17038304629614</v>
+        <v>-818.90399637036762</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-112.44353271296308</v>
+        <v>1.8356945370355788</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>20497.758581623162</v>
+        <v>670603.75527135911</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>12643.548048971197</v>
+        <v>3.3697744333022679</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>16098.583649593655</v>
+        <v>-1503.2575924936873</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>502.36695463993607</v>
+        <v>484560.44468613755</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>18186.431139566008</v>
+        <v>482008.14672168699</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>22.413544000000002</v>
+        <v>696.10375999999997</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11512,46 +11523,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>321.61099200000001</v>
+        <v>4376.9370120000003</v>
       </c>
       <c r="I50">
-        <v>307.77313199999998</v>
+        <v>4123.8271480000003</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-13.837860000000035</v>
+        <v>-253.10986400000002</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-151.39255104629615</v>
+        <v>-77.839299370367371</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-129.24138471296305</v>
+        <v>299.90649553703588</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>22919.704512305387</v>
+        <v>6058.9565264696739</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>16703.335522524121</v>
+        <v>89943.906065306117</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>19566.182932451258</v>
+        <v>-23344.511489225082</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>191.48636937960097</v>
+        <v>64064.603254098503</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>20471.670267631976</v>
+        <v>2189.9247232130997</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>13.837860000000035</v>
+        <v>253.10986400000002</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11579,46 +11590,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>310.796448</v>
+        <v>2977.17749</v>
       </c>
       <c r="I51">
-        <v>356.69754</v>
+        <v>3238.2590329999998</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>45.901092000000006</v>
+        <v>261.08154299999978</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-102.46814304629612</v>
+        <v>-963.40741437036786</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-140.05592871296307</v>
+        <v>-1099.8530264629644</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>10499.720339356203</v>
+        <v>928153.84606379771</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>19615.663167650593</v>
+        <v>1209676.6798197422</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>14351.270937841751</v>
+        <v>1059606.5604121084</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>2106.9102467924645</v>
+        <v>68163.572095260737</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>8865.1332764447361</v>
+        <v>703537.60147066228</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>45.901092000000006</v>
+        <v>261.08154299999978</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11646,46 +11657,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>319.38742100000002</v>
+        <v>3786.40625</v>
       </c>
       <c r="I52">
-        <v>335.19628899999998</v>
+        <v>3759.3483890000002</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>15.808867999999961</v>
+        <v>-27.057860999999775</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-123.96939404629615</v>
+        <v>-442.31805837036745</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-131.46495571296305</v>
+        <v>-290.62426646296444</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>15368.410660205845</v>
+        <v>195645.26476053178</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>17283.034580611336</v>
+        <v>84462.464257136162</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>16297.630898059188</v>
+        <v>128548.36125721072</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>249.92030744142278</v>
+        <v>732.12784189530885</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>13376.330625068611</v>
+        <v>100921.93410939505</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>15.808867999999961</v>
+        <v>27.057860999999775</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11713,46 +11724,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>475.196594</v>
+        <v>7286.5375979999999</v>
       </c>
       <c r="I53">
-        <v>805.42468299999996</v>
+        <v>7535.3227539999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>330.22808899999995</v>
+        <v>248.78515599999992</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>346.25899995370384</v>
+        <v>3333.6563066296321</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>24.34421728703694</v>
+        <v>3209.5070815370354</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>119895.29504893908</v>
+        <v>11113264.37073152</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>592.64091531846816</v>
+        <v>10300935.706436379</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>8429.4043324650793</v>
+        <v>10699393.523538403</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>109050.59076459189</v>
+        <v>61894.053845944291</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>125721.52038570831</v>
+        <v>11959785.200208915</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>330.22808899999995</v>
+        <v>248.78515599999992</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11780,46 +11791,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>937.10784899999999</v>
+        <v>9013.2304690000001</v>
       </c>
       <c r="I54">
-        <v>1049.1136469999999</v>
+        <v>7875.0161129999997</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>112.00579799999991</v>
+        <v>-1138.2143560000004</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>589.94796395370372</v>
+        <v>3673.349665629632</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>486.25547228703692</v>
+        <v>4936.1999525370356</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>348038.6001731205</v>
+        <v>13493497.76598133</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>236444.38432908934</v>
+        <v>24366069.971426632</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>286865.42583708401</v>
+        <v>18132388.445132926</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>12545.298785616784</v>
+        <v>1295531.9202044958</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>357916.54752545897</v>
+        <v>14424694.59150278</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>112.00579799999991</v>
+        <v>1138.2143560000004</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11847,46 +11858,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>707.75299099999995</v>
+        <v>5035.4833980000003</v>
       </c>
       <c r="I55">
-        <v>720.01660200000003</v>
+        <v>5321.919922</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>12.263611000000083</v>
+        <v>286.43652399999974</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>260.85091895370391</v>
+        <v>1120.2534746296324</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>256.90061428703689</v>
+        <v>958.45288153703586</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>68043.201918991806</v>
+        <v>1254967.8474197644</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>65997.9256210569</v>
+        <v>918631.92612664727</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>67012.761316544609</v>
+        <v>1073710.1708106478</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>150.39615475932303</v>
+        <v>82045.88228120243</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>72449.380174370788</v>
+        <v>1549749.6320183538</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>12.263611000000083</v>
+        <v>286.43652399999974</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11914,46 +11925,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>567.31201199999998</v>
+        <v>4523.2753910000001</v>
       </c>
       <c r="I56">
-        <v>658.71105999999997</v>
+        <v>4853.1923829999996</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>91.399047999999993</v>
+        <v>329.91699199999948</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>199.54537695370385</v>
+        <v>651.52593562963193</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>116.45963528703692</v>
+        <v>446.24487453703568</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>39818.357463595763</v>
+        <v>424486.04479806731</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>13562.846651189655</v>
+        <v>199134.48805057473</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>23238.981823242651</v>
+        <v>290740.10940266988</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>8353.7859753063021</v>
+        <v>108845.22161032772</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>43205.232217820718</v>
+        <v>602427.24306625442</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>91.399047999999993</v>
+        <v>329.91699199999948</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11981,46 +11992,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>412.42486600000001</v>
+        <v>2337.3051759999998</v>
       </c>
       <c r="I57">
-        <v>441.70452899999998</v>
+        <v>3208.139404</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>29.279662999999971</v>
+        <v>870.83422800000017</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-17.461154046296144</v>
+        <v>-993.52704337036766</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-38.427510712963056</v>
+        <v>-1739.7253404629646</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>304.89190062848422</v>
+        <v>987095.98590826441</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>1476.6735795948905</v>
+        <v>3026644.2602489782</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>670.9886841747433</v>
+        <v>1728464.1737866756</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>857.29866539356726</v>
+        <v>758352.25265635632</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>83.683117779563943</v>
+        <v>754971.76531712792</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>29.279662999999971</v>
+        <v>870.83422800000017</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12048,46 +12059,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>329.39389</v>
+        <v>1852.8797609999999</v>
       </c>
       <c r="I58">
-        <v>362.28997800000002</v>
+        <v>2391.750732</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>32.89608800000002</v>
+        <v>538.87097100000005</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-96.875705046296105</v>
+        <v>-1809.9157153703677</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-121.45848671296307</v>
+        <v>-2224.1507554629643</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>9384.9022282169608</v>
+        <v>3275794.8967446298</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>14752.163994603025</v>
+        <v>4946846.5830264753</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>11766.376534174484</v>
+        <v>4025525.4056652947</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>1082.1526057037454</v>
+        <v>290381.92338648287</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>7843.2984657938387</v>
+        <v>2840167.9519195361</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>32.89608800000002</v>
+        <v>538.87097100000005</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12115,46 +12126,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>275.24258400000002</v>
+        <v>1739.214966</v>
       </c>
       <c r="I59">
-        <v>278.85382099999998</v>
+        <v>2629.6972660000001</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>3.6112369999999601</v>
+        <v>890.48230000000012</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-180.31186204629614</v>
+        <v>-1571.9691813703676</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-175.60979271296304</v>
+        <v>-2337.8155504629644</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>32512.367594602532</v>
+        <v>2471087.1071782233</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>30838.799296689849</v>
+        <v>5465381.5479864534</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>31664.528717638452</v>
+        <v>3674973.9970561815</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>13.041032670168711</v>
+        <v>792958.72661329026</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>29583.503167345265</v>
+        <v>2094773.5378956897</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>3.6112369999999601</v>
+        <v>890.48230000000012</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12182,46 +12193,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>248.75607299999999</v>
+        <v>2620.6538089999999</v>
       </c>
       <c r="I60">
-        <v>235.81594799999999</v>
+        <v>2412.9174800000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-12.940124999999995</v>
+        <v>-207.73632899999984</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-223.34973504629613</v>
+        <v>-1788.7489673703676</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-202.09630371296308</v>
+        <v>-1456.3767074629645</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>49885.104145250683</v>
+        <v>3199622.8682685564</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>40842.915974442214</v>
+        <v>2121033.1140406653</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>45138.155888126093</v>
+        <v>2605092.3315766337</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>167.44683501562486</v>
+        <v>43154.382386396173</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>46240.665673625248</v>
+        <v>2769272.1981259873</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>12.940124999999995</v>
+        <v>207.73632899999984</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12249,46 +12260,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>281.43014499999998</v>
+        <v>3591.2822270000001</v>
       </c>
       <c r="I61">
-        <v>223.83869899999999</v>
+        <v>2910.2585450000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-57.591445999999991</v>
+        <v>-681.02368200000001</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-235.32698404629613</v>
+        <v>-1291.4079023703675</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-169.42223171296308</v>
+        <v>-485.74828946296429</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>55378.789420325716</v>
+        <v>1667734.3703046327</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>28703.892598600953</v>
+        <v>235951.40071619576</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>39869.622819404351</v>
+        <v>627299.17957536085</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>3316.7746523709147</v>
+        <v>463793.25544483715</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>51535.209868765065</v>
+        <v>1361356.8333915723</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>57.591445999999991</v>
+        <v>681.02368200000001</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12316,46 +12327,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>487.87530500000003</v>
+        <v>7721.1186520000001</v>
       </c>
       <c r="I62">
-        <v>411.79901100000001</v>
+        <v>5873.5415039999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-76.076294000000019</v>
+        <v>-1847.5771480000003</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-47.366672046296117</v>
+        <v>1671.8750566296321</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>37.022928287036962</v>
+        <v>3644.0881355370357</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2243.60162074137</v>
+        <v>2795166.2049803357</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>1370.6972189470816</v>
+        <v>13279378.339561788</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>-1753.6529023656194</v>
+        <v>6092460.057964352</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>5787.6025087744392</v>
+        <v>3413541.3178118151</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1525.1653735104385</v>
+        <v>3227451.728341294</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>76.076294000000019</v>
+        <v>1847.5771480000003</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12383,46 +12394,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>741.13519299999996</v>
+        <v>8808.5097659999992</v>
       </c>
       <c r="I63">
-        <v>656.54193099999998</v>
+        <v>8805.2763670000004</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-84.593261999999982</v>
+        <v>-3.2333989999988262</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>197.37624795370385</v>
+        <v>4603.6099196296327</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>290.28281628703689</v>
+        <v>4731.4792495370348</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>38957.383256281988</v>
+        <v>21193224.292112354</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>84264.113431533609</v>
+        <v>22386895.888799541</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>57294.933124169656</v>
+        <v>21781884.807690464</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>7156.0199758006411</v>
+        <v>10.454869093193409</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>42308.192742799903</v>
+        <v>22356308.823120698</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>84.593261999999982</v>
+        <v>3.2333989999988262</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12450,46 +12461,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>671.43841599999996</v>
+        <v>5525.8139650000003</v>
       </c>
       <c r="I64">
-        <v>514.29370100000006</v>
+        <v>5431.6606449999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-157.14471499999991</v>
+        <v>-94.153320000000349</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>55.128017953703932</v>
+        <v>1229.9941976296323</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>220.5860392870369</v>
+        <v>1448.7834485370358</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>3039.0983635039029</v>
+        <v>1512885.7262025629</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>48658.200728342184</v>
+        <v>2098973.4807548658</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>12160.471134152211</v>
+        <v>1781995.235322403</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>24694.461452431195</v>
+        <v>8864.8476670224663</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>4024.8016272929895</v>
+        <v>1835022.7851402652</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>157.14471499999991</v>
+        <v>94.153320000000349</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12517,46 +12528,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>570.351135</v>
+        <v>3703.7185060000002</v>
       </c>
       <c r="I65">
-        <v>565.96466099999998</v>
+        <v>4394.2041019999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-4.3864740000000211</v>
+        <v>690.48559599999953</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>106.79897795370385</v>
+        <v>192.53765462963202</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>119.49875828703694</v>
+        <v>-373.31201046296428</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>11406.021691955722</v>
+        <v>37070.748450279461</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>14279.953232143678</v>
+        <v>139361.85715590036</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>12762.345251792243</v>
+        <v>-71876.618939611784</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>19.241154152676184</v>
+        <v>476770.35828347458</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>13250.837993779605</v>
+        <v>100599.08336241901</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>4.3864740000000211</v>
+        <v>690.48559599999953</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12584,46 +12595,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>431.98306300000002</v>
+        <v>2385.8247070000002</v>
       </c>
       <c r="I66">
-        <v>385.28106700000001</v>
+        <v>2779.251953</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-46.701996000000008</v>
+        <v>393.42724599999974</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-73.884616046296117</v>
+        <v>-1422.4144943703677</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-18.869313712963049</v>
+        <v>-1691.2058094629642</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>5458.9364883085973</v>
+        <v>2023262.9937949087</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>356.05099999821533</v>
+        <v>2860177.0899612801</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>1394.1519987393849</v>
+        <v>2405595.6563434908</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>2181.0764303840169</v>
+        <v>154784.9978951443</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>4299.5966574733229</v>
+        <v>1684229.1997839957</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>46.701996000000008</v>
+        <v>393.42724599999974</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12651,46 +12662,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>382.35730000000001</v>
+        <v>2486.2780760000001</v>
       </c>
       <c r="I67">
-        <v>396.03781099999998</v>
+        <v>2909.0417480000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>13.680510999999967</v>
+        <v>422.76367200000004</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-63.127872046296147</v>
+        <v>-1292.6246993703676</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-68.495076712963055</v>
+        <v>-1590.7524404629644</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3985.1282290935387</v>
+        <v>1670878.6134223333</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>4691.5755339146936</v>
+        <v>2530493.3268388771</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>4323.9484385371707</v>
+        <v>2056245.8951261179</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>187.15638122112011</v>
+        <v>178729.12236292363</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3004.6366143007485</v>
+        <v>1364197.763255632</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>13.680510999999967</v>
+        <v>422.76367200000004</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12718,46 +12729,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>309.92392000000001</v>
+        <v>1900.7827150000001</v>
       </c>
       <c r="I68">
-        <v>293.912689</v>
+        <v>2317.9670409999999</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-16.011231000000009</v>
+        <v>417.18432599999983</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-165.25299404629612</v>
+        <v>-1883.6994063703678</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-140.92845671296305</v>
+        <v>-2176.2478014629642</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>27308.552041265182</v>
+        <v>3548323.4535600762</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>19860.829911497502</v>
+        <v>4736054.4933723854</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>23288.849418140984</v>
+        <v>4099396.6917306036</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>256.35951813536127</v>
+        <v>174042.76186007413</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>24630.065579442369</v>
+        <v>3094304.3107078439</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>16.011231000000009</v>
+        <v>417.18432599999983</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12785,46 +12796,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>266.651184</v>
+        <v>1738.385376</v>
       </c>
       <c r="I69">
-        <v>220.25415000000001</v>
+        <v>2099.8784179999998</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-46.397033999999991</v>
+        <v>361.49304199999983</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-238.91153304629611</v>
+        <v>-2101.7880293703679</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-184.20119271296306</v>
+        <v>-2338.6451404629643</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>57078.720622531437</v>
+        <v>4417512.9204045748</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>33930.079396878158</v>
+        <v>5469261.0930110374</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>44007.789340010233</v>
+        <v>4915336.3611702407</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>2152.6847639971552</v>
+        <v>130677.21941441364</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>53175.542163163111</v>
+        <v>3909130.4204565049</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>46.397033999999991</v>
+        <v>361.49304199999983</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12852,46 +12863,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>239.993469</v>
+        <v>1662.424072</v>
       </c>
       <c r="I70">
-        <v>173.981537</v>
+        <v>1917.755371</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>-66.011932000000002</v>
+        <v>255.33129899999994</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-285.18414604629612</v>
+        <v>-2283.9110763703675</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-210.85890771296306</v>
+        <v>-2414.6064444629646</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>81329.99715615515</v>
+        <v>5216249.804767251</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>44461.478961903871</v>
+        <v>5830324.2816420803</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>60133.617532376134</v>
+        <v>5514746.4035842353</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>4357.5751663726242</v>
+        <v>65194.072249027369</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>76657.461883361277</v>
+        <v>4662469.1538141053</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>66.011932000000002</v>
+        <v>255.33129899999994</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12919,46 +12930,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>227.60005200000001</v>
+        <v>1640.3079829999999</v>
       </c>
       <c r="I71">
-        <v>152.941193</v>
+        <v>1826.5020750000001</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-74.658859000000007</v>
+        <v>186.19409200000018</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-306.22449004629613</v>
+        <v>-2375.1643723703673</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-223.25232471296306</v>
+        <v>-2436.7225334629647</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>93773.438304114112</v>
+        <v>5641405.7957775211</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>49841.600489742297</v>
+        <v>5937616.7050861698</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>68365.329286877226</v>
+        <v>5787616.5468332944</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>5573.9452271818818</v>
+        <v>34668.23989570453</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>88751.07338125883</v>
+        <v>5064878.2658337187</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>74.658859000000007</v>
+        <v>186.19409200000018</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12986,46 +12997,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>226.52647400000001</v>
+        <v>2141.2033689999998</v>
       </c>
       <c r="I72">
-        <v>139.972916</v>
+        <v>1752.3474120000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-86.55355800000001</v>
+        <v>-388.85595699999976</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-319.19276704629613</v>
+        <v>-2449.3190353703676</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-224.32590271296306</v>
+        <v>-1935.8271474629646</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>101884.02253467106</v>
+        <v>5999163.7370276283</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>50322.110627985763</v>
+        <v>3747426.7448545983</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>71603.205607108903</v>
+        <v>4741458.2814677591</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>7491.5184024593655</v>
+        <v>151208.95529438567</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>96646.039093182742</v>
+        <v>5404151.5361755658</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>86.55355800000001</v>
+        <v>388.85595699999976</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13053,46 +13064,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>221.140961</v>
+        <v>2183.0026859999998</v>
       </c>
       <c r="I73">
-        <v>126.537308</v>
+        <v>1729.244263</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-94.603653000000008</v>
+        <v>-453.75842299999977</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-332.62837504629613</v>
+        <v>-2472.4221843703676</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-229.71141571296306</v>
+        <v>-1894.0278304629646</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>110641.63588593944</v>
+        <v>6112871.4577667406</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>52767.334508853732</v>
+        <v>3587341.4225682449</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>76408.53493818712</v>
+        <v>4682836.4258515118</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>8949.8511609444104</v>
+        <v>205896.70644344672</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>105180.26379429396</v>
+        <v>5512100.2919496633</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>94.603653000000008</v>
+        <v>453.75842299999977</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13120,46 +13131,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>396.98577899999998</v>
+        <v>4550.3544920000004</v>
       </c>
       <c r="I74">
-        <v>221.43119799999999</v>
+        <v>3132.5451659999999</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-175.55458099999998</v>
+        <v>-1417.8093260000005</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-237.73448504629613</v>
+        <v>-1069.1212813703678</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>-53.866597712963085</v>
+        <v>473.32397553703595</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>56517.685380227595</v>
+        <v>1143020.314279017</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>2901.6103491701997</v>
+        <v>224035.5858181846</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>12805.947868487272</v>
+        <v>-506040.73522947251</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>30819.410910085557</v>
+        <v>2010183.2848925758</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>52634.077242045336</v>
+        <v>892052.57723914902</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>175.55458099999998</v>
+        <v>1417.8093260000005</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13187,46 +13198,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>690.753784</v>
+        <v>8932.8554690000001</v>
       </c>
       <c r="I75">
-        <v>607.42169200000001</v>
+        <v>8454.3652340000008</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>-83.332091999999989</v>
+        <v>-478.4902349999993</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>148.25600895370388</v>
+        <v>4252.6987866296331</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>239.90140728703693</v>
+        <v>4855.8249525370356</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>21979.844190880725</v>
+        <v>18085446.969801154</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>57552.68521830078</v>
+        <v>23579035.969681304</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>35566.825186753107</v>
+        <v>20650360.883740146</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>6944.2375570964623</v>
+        <v>228952.90499035455</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>24513.950489451581</v>
+        <v>19161059.229355045</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>83.332091999999989</v>
+        <v>478.4902349999993</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13254,46 +13265,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>675.01367200000004</v>
+        <v>6805.1752930000002</v>
       </c>
       <c r="I76">
-        <v>434.39514200000002</v>
+        <v>5990.5893550000001</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-240.61853000000002</v>
+        <v>-814.58593800000017</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>-24.770541046296103</v>
+        <v>1788.9229076296324</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>224.16129528703698</v>
+        <v>2728.1447765370358</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>613.57970372624004</v>
+        <v>3200245.1694420581</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>50248.286304762187</v>
+        <v>7442773.9217463126</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>-5552.5965658984505</v>
+        <v>4880440.6860772278</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>57897.276979360911</v>
+        <v>663550.25038734009</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>270.84057439755577</v>
+        <v>3661707.4285432086</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>240.61853000000002</v>
+        <v>814.58593800000017</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13321,46 +13332,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>849.90185499999995</v>
+        <v>5643.7666019999997</v>
       </c>
       <c r="I77">
-        <v>641.31897000000004</v>
+        <v>5863.1181640000004</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>-208.58288499999992</v>
+        <v>219.35156200000074</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>182.15328695370391</v>
+        <v>1661.4517166296328</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>399.04947828703689</v>
+        <v>1566.7360855370353</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>33179.819948038399</v>
+        <v>2760421.8066915534</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>159240.48612115634</v>
+        <v>2454661.961723912</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>72688.174127144463</v>
+        <v>2603056.3588210982</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>43506.819914923188</v>
+        <v>48115.107751840165</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>36277.523158369557</v>
+        <v>3190109.0846843831</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>208.58288499999992</v>
+        <v>219.35156200000074</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13388,46 +13399,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>817.418274</v>
+        <v>6353.0014650000003</v>
       </c>
       <c r="I78">
-        <v>707.70825200000002</v>
+        <v>6886.216797</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>-109.71002199999998</v>
+        <v>533.21533199999976</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>248.54256895370389</v>
+        <v>2684.5503496296324</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>366.56589728703693</v>
+        <v>2275.9709485370358</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>61773.408582106655</v>
+        <v>7206810.5796965817</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>134370.5570538505</v>
+        <v>5180043.7585845748</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>91107.229802539718</v>
+        <v>6109958.6056419853</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>12036.288927240479</v>
+        <v>284318.59027986997</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>65974.940669469885</v>
+        <v>7891527.5587575044</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>109.71002199999998</v>
+        <v>533.21533199999976</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13455,46 +13466,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>615.465149</v>
+        <v>4085.046875</v>
       </c>
       <c r="I79">
-        <v>676.07458499999996</v>
+        <v>3833.6987300000001</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>60.60943599999996</v>
+        <v>-251.34814499999993</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>216.90890195370383</v>
+        <v>-367.96771737036761</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>164.61277228703693</v>
+        <v>8.0163585370355577</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>47049.471746761505</v>
+        <v>135400.24102675874</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>27097.364800023875</v>
+        <v>64.262004194302861</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>35705.97568433627</v>
+        <v>-2949.7611524954336</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>3673.5037322380913</v>
+        <v>63175.88999494099</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>50725.04310568943</v>
+        <v>59210.358303257693</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>60.60943599999996</v>
+        <v>251.34814499999993</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13522,46 +13533,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>450.40310699999998</v>
+        <v>2517.9189449999999</v>
       </c>
       <c r="I80">
-        <v>452.76947000000001</v>
+        <v>2902.6779790000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>2.3663630000000353</v>
+        <v>384.75903400000016</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-6.3962130462961113</v>
+        <v>-1298.9884683703676</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-0.44926971296308693</v>
+        <v>-1559.1115714629645</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>40.911541333608582</v>
+        <v>1687371.0409591936</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>0.20184327498593452</v>
+        <v>2430828.8922697147</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2.873624799360206</v>
+        <v>2025267.9522331932</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>5.599673847769167</v>
+        <v>148039.51424461327</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>3.6752466712021312</v>
+        <v>1379103.8822457031</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>2.3663630000000353</v>
+        <v>384.75903400000016</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13589,46 +13600,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>355.11968999999999</v>
+        <v>1986.948486</v>
       </c>
       <c r="I81">
-        <v>336.61318999999997</v>
+        <v>2419.0139159999999</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>-18.506500000000017</v>
+        <v>432.06542999999988</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-122.55249304629615</v>
+        <v>-1782.6525313703678</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-95.732686712963073</v>
+        <v>-2090.0820304629642</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>15019.113551862467</v>
+        <v>3177850.0476011802</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>9164.747305282337</v>
+        <v>4368442.8940641871</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>11732.279422693655</v>
+        <v>3725890.0223765215</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>342.4905422500006</v>
+        <v>186680.5358010848</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>13050.591780839242</v>
+        <v>2749019.0474107657</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>18.506500000000017</v>
+        <v>432.06542999999988</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13656,46 +13667,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>295.21850599999999</v>
+        <v>1809.718018</v>
       </c>
       <c r="I82">
-        <v>252.70665</v>
+        <v>2062.8562010000001</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-42.511855999999995</v>
+        <v>253.13818300000003</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-206.45903304629613</v>
+        <v>-2138.8102463703676</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-155.63387071296307</v>
+        <v>-2267.3124984629644</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>42625.332326411597</v>
+        <v>4574509.2699788725</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>24221.901713099305</v>
+        <v>5140705.9656863697</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>32132.018456650621</v>
+        <v>4849351.2034361865</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>1807.2579005647356</v>
+        <v>64078.939692541506</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>39261.729014608245</v>
+        <v>4056898.1730707013</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>42.511855999999995</v>
+        <v>253.13818300000003</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13723,46 +13734,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>255.736313</v>
+        <v>1693.80249</v>
       </c>
       <c r="I83">
-        <v>204.46639999999999</v>
+        <v>1955.5241699999999</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-51.269913000000003</v>
+        <v>261.72167999999988</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-254.69928304629613</v>
+        <v>-2246.142277370368</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-195.11606371296307</v>
+        <v>-2383.2280264629644</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>64871.724784297272</v>
+        <v>5045155.1301905429</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>38070.278318841061</v>
+        <v>5679775.8261185559</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>49695.921538507129</v>
+        <v>5353069.2268524105</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>2628.603979027569</v>
+        <v>68498.237782022334</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>60706.049520800778</v>
+        <v>4500789.1780826375</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>51.269913000000003</v>
+        <v>261.72167999999988</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13790,46 +13801,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>240.93592799999999</v>
+        <v>2565.3654790000001</v>
       </c>
       <c r="I84">
-        <v>178.68644699999999</v>
+        <v>1880.517578</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-62.249481000000003</v>
+        <v>-684.84790100000009</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-280.47923604629614</v>
+        <v>-2321.1488693703677</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-209.91644871296307</v>
+        <v>-1511.6650374629644</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>78668.601853113913</v>
+        <v>5387732.0737793362</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>44064.915440262055</v>
+        <v>2285131.1854879055</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>58877.205168563385</v>
+        <v>3508799.5925738742</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>3874.9978847693615</v>
+        <v>469016.64750410593</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>74074.293296521559</v>
+        <v>4824669.0888352068</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>62.249481000000003</v>
+        <v>684.84790100000009</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13857,46 +13868,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>501.890198</v>
+        <v>7239.0942379999997</v>
       </c>
       <c r="I85">
-        <v>331.07891799999999</v>
+        <v>3738.2863769999999</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-170.81128000000001</v>
+        <v>-3500.8078609999998</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>-128.08676504629614</v>
+        <v>-463.38007037036778</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>51.037821287036934</v>
+        <v>3162.0637215370352</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>16406.219380025068</v>
+        <v>214721.08961644699</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>2604.8592017275205</v>
+        <v>9998646.9790606443</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>-6537.2694236675516</v>
+        <v>-1465237.3098014183</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>29176.493375238402</v>
+        <v>12255655.679639393</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>14345.681412065871</v>
+        <v>114747.59202050437</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>170.81128000000001</v>
+        <v>3500.8078609999998</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13924,46 +13935,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>561.65826400000003</v>
+        <v>6029.1806640000004</v>
       </c>
       <c r="I86">
-        <v>404.97912600000001</v>
+        <v>4100.7963870000003</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-156.67913800000002</v>
+        <v>-1928.3842770000001</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-54.186557046296116</v>
+        <v>-100.87006037036736</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>110.80588728703697</v>
+        <v>1952.150147537036</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>2936.1829645315033</v>
+        <v>10174.769079121555</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>12277.94465746754</v>
+        <v>3810890.1985288714</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>-6004.1895325444866</v>
+        <v>-196913.50323408237</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>24548.35228442305</v>
+        <v>3718665.9197808132</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>2104.3551309743657</v>
+        <v>564.8166023831501</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>156.67913800000002</v>
+        <v>1928.3842770000001</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -13991,46 +14002,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>450.071594</v>
+        <v>3525.202393</v>
       </c>
       <c r="I87">
-        <v>411.908569</v>
+        <v>5770.8666990000002</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>-38.163025000000005</v>
+        <v>2245.6643060000001</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>-47.257114046296124</v>
+        <v>1569.2002516296325</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-0.78078271296305957</v>
+        <v>-551.82812346296441</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>2233.2348279846383</v>
+        <v>2462389.4297145018</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>0.60962164486195547</v>
+        <v>304514.27784465672</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>36.897537711871799</v>
+        <v>-865928.83019439166</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>1456.4164771506253</v>
+        <v>5043008.1752424622</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>1516.6201591842414</v>
+        <v>2869081.0132716382</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>38.163025000000005</v>
+        <v>2245.6643060000001</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14058,46 +14069,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>368.18246499999998</v>
+        <v>4693.7817379999997</v>
       </c>
       <c r="I88">
-        <v>335.74652099999997</v>
+        <v>4150.578125</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-32.435944000000006</v>
+        <v>-543.20361299999968</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-123.41916204629615</v>
+        <v>-51.088322370367678</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>-82.669911712963085</v>
+        <v>616.75122153703524</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>15232.289560209909</v>
+        <v>2610.0166826186105</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>6834.3143026291109</v>
+        <v>380382.0692674251</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>10203.051230055187</v>
+        <v>-31508.785228202109</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>1052.0904631711364</v>
+        <v>295070.16517625342</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>13249.358019413477</v>
+        <v>5409.2507215170253</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>32.435944000000006</v>
+        <v>543.20361299999968</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14125,46 +14136,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>772.75885000000005</v>
+        <v>7980.4072269999997</v>
       </c>
       <c r="I89">
-        <v>599.73553500000003</v>
+        <v>5957.5327150000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-173.02331500000003</v>
+        <v>-2022.8745119999994</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>140.5698519537039</v>
+        <v>1755.8662676296326</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>321.90647328703699</v>
+        <v>3903.3767105370353</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>19759.883278286234</v>
+        <v>3083066.3497996167</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>103623.77754409786</v>
+        <v>15236349.744362926</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>45250.345292897728</v>
+        <v>6853807.4958830969</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>29937.067533589234</v>
+        <v>4092021.2912992355</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>22166.194821522902</v>
+        <v>3536288.5187026253</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>173.02331500000003</v>
+        <v>2022.8745119999994</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14192,46 +14203,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>925.00207499999999</v>
+        <v>9607.3710940000001</v>
       </c>
       <c r="I90">
-        <v>821.78002900000001</v>
+        <v>8375.7197269999997</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>-103.22204599999998</v>
+        <v>-1231.6513670000004</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>362.61434595370389</v>
+        <v>4174.053279629632</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>474.14969828703693</v>
+        <v>5530.3405775370356</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>131489.16389143246</v>
+        <v>17422720.781186886</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>224817.93638568814</v>
+        <v>30584666.903552674</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>171933.48272849992</v>
+        <v>23083936.225137297</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>10654.790780426112</v>
+        <v>1516965.0898329697</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>137587.32323117298</v>
+        <v>18478728.928787518</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>103.22204599999998</v>
+        <v>1231.6513670000004</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14259,46 +14270,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>968.93457000000001</v>
+        <v>6237.9345700000003</v>
       </c>
       <c r="I91">
-        <v>915.23547399999995</v>
+        <v>6519.3857420000004</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>-53.699096000000054</v>
+        <v>281.45117200000004</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>456.06979095370383</v>
+        <v>2317.7192946296327</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>518.08219328703694</v>
+        <v>2160.9040535370359</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>207999.65422055512</v>
+        <v>5371822.7286984818</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>268409.15900110669</v>
+        <v>4669506.3285927931</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>236281.63758925532</v>
+        <v>5008369.0187261729</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>2883.5929112172216</v>
+        <v>79214.762220173609</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>215651.66104590156</v>
+        <v>5965099.0477080662</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>53.699096000000054</v>
+        <v>281.45117200000004</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14326,46 +14337,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>776.57995600000004</v>
+        <v>5693.095703</v>
       </c>
       <c r="I92">
-        <v>970.514771</v>
+        <v>6199.123047</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>193.93481499999996</v>
+        <v>506.02734400000008</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>511.34908795370387</v>
+        <v>1997.4565996296324</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>325.72757928703697</v>
+        <v>1616.0651865370355</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>261477.88975108479</v>
+        <v>3989832.8674039734</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>106098.45590819296</v>
+        <v>2611666.6871369835</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>166560.50058979413</v>
+        <v>3228020.0722800945</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>37610.71246908421</v>
+        <v>256063.67287569444</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>270049.00403613586</v>
+        <v>4503276.7081610793</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>193.93481499999996</v>
+        <v>506.02734400000008</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14393,46 +14404,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>530.32818599999996</v>
+        <v>2723.3527829999998</v>
       </c>
       <c r="I93">
-        <v>608.74694799999997</v>
+        <v>3566.188232</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>78.418762000000015</v>
+        <v>842.83544900000015</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>149.58126495370385</v>
+        <v>-635.47821537036771</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>79.475809287036896</v>
+        <v>-1353.6777334629646</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>22374.554825150153</v>
+        <v>403832.56221030746</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>6316.4042618294598</v>
+        <v>1832443.4060734292</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>11888.092086374303</v>
+        <v>860232.710247649</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>6149.5022336126467</v>
+        <v>710371.59409103182</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>24930.69564191718</v>
+        <v>260959.83959534031</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>78.418762000000015</v>
+        <v>842.83544900000015</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14460,46 +14471,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>393.33126800000002</v>
+        <v>1846.3857419999999</v>
       </c>
       <c r="I94">
-        <v>433.807343</v>
+        <v>2445.352539</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>40.47607499999998</v>
+        <v>598.96679700000004</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-25.358340046296121</v>
+        <v>-1756.3139083703677</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-57.521108712963041</v>
+        <v>-2230.6447744629645</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>643.04540990358555</v>
+        <v>3084638.5447351965</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>3308.6779475685125</v>
+        <v>4975776.10983893</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>1458.6398345832833</v>
+        <v>3917712.4420229867</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>1638.3126474056235</v>
+        <v>358761.22390843928</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>290.5331742760473</v>
+        <v>2662373.0221376303</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>40.47607499999998</v>
+        <v>598.96679700000004</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14527,46 +14538,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>314.628693</v>
+        <v>1769.50415</v>
       </c>
       <c r="I95">
-        <v>333.24765000000002</v>
+        <v>3261.0795899999998</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>18.618957000000023</v>
+        <v>1491.5754399999998</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-125.9180330462961</v>
+        <v>-940.58685737036785</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-136.22368371296307</v>
+        <v>-2307.5263664629647</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>15855.351046248117</v>
+        <v>884703.63625786477</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>18556.892004329398</v>
+        <v>5324677.9319217727</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>17153.01830745707</v>
+        <v>2170428.9733306635</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>346.66555976784986</v>
+        <v>2224797.2932111933</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>13830.871745230723</v>
+        <v>665775.91439577029</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>18.618957000000023</v>
+        <v>1491.5754399999998</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14594,46 +14605,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>296.22668499999997</v>
+        <v>2848.7585450000001</v>
       </c>
       <c r="I96">
-        <v>279.36144999999999</v>
+        <v>2321.0834960000002</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-16.865234999999984</v>
+        <v>-527.67504899999994</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-179.80423304629613</v>
+        <v>-1880.5829513703675</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-154.62569171296309</v>
+        <v>-1228.2719714629643</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>32329.56222136677</v>
+        <v>3536592.236984882</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>23909.104537712301</v>
+        <v>1508652.035881517</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>27802.353907702356</v>
+        <v>2309867.3291793214</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>284.4361516052245</v>
+        <v>278440.95733715233</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>29409.137944870872</v>
+        <v>3083349.9386727619</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>16.865234999999984</v>
+        <v>527.67504899999994</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14661,46 +14672,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>374.50503500000002</v>
+        <v>5374.2094729999999</v>
       </c>
       <c r="I97">
-        <v>325.57327299999997</v>
+        <v>4142.7758789999998</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-48.931762000000049</v>
+        <v>-1231.4335940000001</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-133.59241004629615</v>
+        <v>-58.890568370367873</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>-76.347341712963043</v>
+        <v>1297.1789565370354</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>17846.932021977729</v>
+        <v>3468.099042984973</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>5828.9165866359463</v>
+        <v>1682673.2452825122</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>10199.425380062848</v>
+        <v>-76391.606028546739</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>2394.3173324246486</v>
+        <v>1516428.696431757</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>15694.853827123363</v>
+        <v>4322.4526951262133</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>48.931762000000049</v>
+        <v>1231.4335940000001</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14728,46 +14739,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>542.43609600000002</v>
+        <v>7717.1079099999997</v>
       </c>
       <c r="I98">
-        <v>611.67675799999995</v>
+        <v>7005.9467770000001</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>69.240661999999929</v>
+        <v>-711.16113299999961</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>152.51107495370383</v>
+        <v>2804.2803296296324</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>91.583719287036956</v>
+        <v>3640.0773935370353</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>23259.627983534265</v>
+        <v>7863988.1671476802</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>8387.5776384467845</v>
+        <v>13250163.430939376</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>13967.531476724263</v>
+        <v>10207797.43302541</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>4794.2692741982346</v>
+        <v>505750.15708984312</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>25864.481616358222</v>
+        <v>8578550.461238252</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>69.240661999999929</v>
+        <v>711.16113299999961</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14795,46 +14806,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>513.369507</v>
+        <v>4102.1357420000004</v>
       </c>
       <c r="I99">
-        <v>490.97482300000001</v>
+        <v>3725.195068</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-22.394683999999984</v>
+        <v>-376.9406740000004</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>31.809139953703891</v>
+        <v>-476.47137937036769</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>62.517130287036935</v>
+        <v>25.105225537035949</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>1011.8213845943212</v>
+        <v>227024.97535910085</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>3908.3915793263509</v>
+        <v>630.2723492654419</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>1988.6161468042981</v>
+        <v>-11961.921441035698</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>501.52187145985528</v>
+        <v>142084.27171557458</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>1609.8106960561652</v>
+        <v>123788.18279513532</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>22.394683999999984</v>
+        <v>376.9406740000004</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14862,46 +14873,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>511.41516100000001</v>
+        <v>5895.6918949999999</v>
       </c>
       <c r="I100">
-        <v>515.40911900000003</v>
+        <v>5450.3286129999997</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>3.9939580000000205</v>
+        <v>-445.36328200000025</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>56.243435953703909</v>
+        <v>1248.662165629632</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>60.562784287036948</v>
+        <v>1818.6613785370355</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>3163.3240878783936</v>
+        <v>1559157.2038748825</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>3667.8508405981693</v>
+        <v>3307529.2097822302</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>3406.259079225948</v>
+        <v>2270893.6554710269</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>15.951700505764164</v>
+        <v>198348.45295381176</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>4167.5729747149071</v>
+        <v>1885947.6619522441</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>3.9939580000000205</v>
+        <v>445.36328200000025</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14929,46 +14940,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>524.05706799999996</v>
+        <v>3120.3547359999998</v>
       </c>
       <c r="I101">
-        <v>531.03466800000001</v>
+        <v>3702.6525879999999</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>6.9776000000000522</v>
+        <v>582.29785200000015</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>71.868984953703887</v>
+        <v>-499.01385937036775</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>73.204691287036894</v>
+        <v>-956.67578046296467</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>5165.1509982757152</v>
+        <v>249014.83184370917</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>5358.9268264303755</v>
+        <v>915228.54892442259</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>5261.1468566485928</v>
+        <v>477394.47337498266</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>48.68690176000073</v>
+        <v>339070.78844381409</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>6429.1998360392408</v>
+        <v>140158.83332022058</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>6.9776000000000522</v>
+        <v>582.29785200000015</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -14996,46 +15007,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>505.62884500000001</v>
+        <v>3877.8793949999999</v>
       </c>
       <c r="I102">
-        <v>404.23397799999998</v>
+        <v>3429.6477049999999</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-101.39486700000003</v>
+        <v>-448.23169000000007</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-54.931705046296145</v>
+        <v>-772.01874237036782</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>54.776468287036948</v>
+        <v>-199.15112146296451</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>3017.4922192932772</v>
+        <v>596012.93857112434</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>3000.4614780007646</v>
+        <v>39661.169179956443</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>-3008.9647994213083</v>
+        <v>153748.39833348623</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>10280.919053947695</v>
+        <v>200911.64792025616</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>2173.2750985607981</v>
+        <v>419104.50457769237</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>101.39486700000003</v>
+        <v>448.23169000000007</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15063,46 +15074,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>553.13836700000002</v>
+        <v>4765.7529299999997</v>
       </c>
       <c r="I103">
-        <v>656.39202899999998</v>
+        <v>4782.6220700000003</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>103.25366199999996</v>
+        <v>16.869140000000698</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>197.22634595370386</v>
+        <v>580.95562262963267</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>102.28599028703695</v>
+        <v>688.72241353703521</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>38898.231538250075</v>
+        <v>337509.43546498416</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>10462.423808999818</v>
+        <v>474338.56290827895</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>20173.492106568341</v>
+        <v>400117.15857539163</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>10661.318716410236</v>
+        <v>284.56788433962356</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>42246.548662276036</v>
+        <v>497859.44042280782</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>103.25366199999996</v>
+        <v>16.869140000000698</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15130,46 +15141,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>398.22967499999999</v>
+        <v>2321.7468260000001</v>
       </c>
       <c r="I104">
-        <v>521.24169900000004</v>
+        <v>4169.2280270000001</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>123.01202400000005</v>
+        <v>1847.4812010000001</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>62.076015953703916</v>
+        <v>-32.438420370367567</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-52.622701712963078</v>
+        <v>-1755.2836904629644</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>3853.4317566845029</v>
+        <v>1052.2511161246775</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>2769.1487355714871</v>
+        <v>3081020.8340052837</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>-3266.6076710608986</v>
+        <v>56938.630220487779</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>15131.958048576589</v>
+        <v>3413186.7880484024</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>4954.6566920283603</v>
+        <v>8500.3809492268028</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>123.01202400000005</v>
+        <v>1847.4812010000001</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15197,46 +15208,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>312.84823599999999</v>
+        <v>1817.955078</v>
       </c>
       <c r="I105">
-        <v>358.698395</v>
+        <v>3305.9650879999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>45.850159000000019</v>
+        <v>1488.01001</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-100.46728804629612</v>
+        <v>-895.70135937036775</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-138.00414071296308</v>
+        <v>-2259.0754384629645</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>10093.675967377436</v>
+        <v>802280.92517792468</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>19045.142853923313</v>
+        <v>5103421.8366666352</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>13864.901756590843</v>
+        <v>2023456.9411514869</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>2102.2370803252829</v>
+        <v>2214173.7898602001</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>8492.3563455531294</v>
+        <v>594541.894970775</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>45.850159000000019</v>
+        <v>1488.01001</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15264,46 +15275,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>268.40554800000001</v>
+        <v>1736.432251</v>
       </c>
       <c r="I106">
-        <v>279.09741200000002</v>
+        <v>2162.830078</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>10.69186400000001</v>
+        <v>426.39782700000001</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-180.0682710462961</v>
+        <v>-2038.8363693703677</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-182.44682871296305</v>
+        <v>-2340.5982654629643</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>32424.582237602361</v>
+        <v>4156853.7410673425</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>33286.845307417279</v>
+        <v>5478400.2402882371</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>32852.88500422299</v>
+        <v>4772096.8697110899</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>114.3159557944962</v>
+        <v>181815.10687032194</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>29499.767903551179</v>
+        <v>3664163.3186118053</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>10.69186400000001</v>
+        <v>426.39782700000001</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15331,46 +15342,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>243.937378</v>
+        <v>1706.994629</v>
       </c>
       <c r="I107">
-        <v>232.69052099999999</v>
+        <v>2034.4354249999999</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-11.246857000000006</v>
+        <v>327.44079599999986</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-226.47516204629613</v>
+        <v>-2167.231022370368</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-206.91499871296307</v>
+        <v>-2370.0358874629646</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>51290.999023896096</v>
+        <v>4696890.3043245105</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>42813.81669238551</v>
+        <v>5617070.1078623626</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>46861.107863327466</v>
+        <v>5136415.2994408235</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>126.49179237844913</v>
+        <v>107217.47488511352</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>47594.595288123717</v>
+        <v>4172194.7076685964</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>11.246857000000006</v>
+        <v>327.44079599999986</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15398,46 +15409,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>230.102463</v>
+        <v>2171.561279</v>
       </c>
       <c r="I108">
-        <v>199.79652400000001</v>
+        <v>1857.3195800000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-30.305938999999995</v>
+        <v>-314.24169899999993</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-259.36915904629609</v>
+        <v>-2344.3468673703674</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-220.74991371296306</v>
+        <v>-1905.4692374629644</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>67272.360664382839</v>
+        <v>5495962.2345492551</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>48730.524404280637</v>
+        <v>3630813.0149176912</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>57255.719479273655</v>
+        <v>4467080.8377169035</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>918.4499386717207</v>
+        <v>98747.845390406554</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>63029.041181433</v>
+        <v>4927116.6414532894</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>30.305938999999995</v>
+        <v>314.24169899999993</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15465,46 +15476,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>230.11279300000001</v>
+        <v>2780.4877929999998</v>
       </c>
       <c r="I109">
-        <v>175.65425099999999</v>
+        <v>1627.963745</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-54.458542000000023</v>
+        <v>-1152.5240479999998</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-283.51143204629614</v>
+        <v>-2573.7027023703677</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-220.73958371296305</v>
+        <v>-1296.5427234629647</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>80378.73210094159</v>
+        <v>6623945.6001885328</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>48725.963817772223</v>
+        <v>1681023.0337647616</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>62582.195487765421</v>
+        <v>3336915.5111152683</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>2965.7327967657666</v>
+        <v>1328311.6812183058</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>75734.008395927827</v>
+        <v>5997928.0510840276</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>54.458542000000023</v>
+        <v>1152.5240479999998</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15532,46 +15543,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>290.16000400000001</v>
+        <v>3397.6469729999999</v>
       </c>
       <c r="I110">
-        <v>177.17825300000001</v>
+        <v>2217.858643</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-112.981751</v>
+        <v>-1179.7883299999999</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-281.98743004629614</v>
+        <v>-1983.8078043703676</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-160.69237271296305</v>
+        <v>-679.38354346296455</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>79516.910704114765</v>
+        <v>3935493.4046807787</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>25822.03864812183</v>
+        <v>461561.99912829383</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>45313.229209370016</v>
+        <v>1347766.3756826241</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>12764.876059026001</v>
+        <v>1391900.5036041886</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>74897.525990058188</v>
+        <v>3456520.0550757889</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>112.981751</v>
+        <v>1179.7883299999999</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15599,46 +15610,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>441.81265300000001</v>
+        <v>5333.9580079999996</v>
       </c>
       <c r="I111">
-        <v>328.79098499999998</v>
+        <v>4338.9814450000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-113.02166800000003</v>
+        <v>-994.97656299999926</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>-130.37469804629615</v>
+        <v>137.31499762963267</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>-9.0397237129630525</v>
+        <v>1256.9274915370352</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>16997.561890662895</v>
+        <v>18855.408574026027</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>81.716604806706513</v>
+        <v>1579866.7189815836</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>1178.551249499501</v>
+        <v>172594.99552102812</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>12773.897437502232</v>
+        <v>989978.3609192915</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>14898.983346905414</v>
+        <v>68618.288961415295</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>113.02166800000003</v>
+        <v>994.97656299999926</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A72440-9A6E-4B8C-9797-003952027E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B46076-47EC-4E13-BF0B-520006E23EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</t>
+    <t xml:space="preserve"> USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481.csv</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</c:v>
+                  <c:v> USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,328 +930,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5564.626953</c:v>
+                  <c:v>5008.3862300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2765.735596</c:v>
+                  <c:v>2194.2153320000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2873.4809570000002</c:v>
+                  <c:v>2399.7631839999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4017.2829590000001</c:v>
+                  <c:v>2972.6782229999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3632.0615229999999</c:v>
+                  <c:v>2534.6623540000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4537.9121089999999</c:v>
+                  <c:v>2429.0747070000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1848.1649170000001</c:v>
+                  <c:v>1436.7573239999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1696.2768550000001</c:v>
+                  <c:v>1342.1024170000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2774.2465820000002</c:v>
+                  <c:v>1874.454956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3485.5747070000002</c:v>
+                  <c:v>2252.8571780000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4927.5546880000002</c:v>
+                  <c:v>5705.640625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7523.5380859999996</c:v>
+                  <c:v>6746.6630859999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7352.2617190000001</c:v>
+                  <c:v>5451.8950199999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3050.6896969999998</c:v>
+                  <c:v>2570.1770019999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5465.8647460000002</c:v>
+                  <c:v>3791.6328119999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5798.5307620000003</c:v>
+                  <c:v>4156.1025390000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5566.1757809999999</c:v>
+                  <c:v>3324.5532229999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5305.1870120000003</c:v>
+                  <c:v>2795.3498540000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2499.2170409999999</c:v>
+                  <c:v>1502.2727050000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1765.0023189999999</c:v>
+                  <c:v>1358.5405270000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2748.8002929999998</c:v>
+                  <c:v>1697.421875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2986.9169919999999</c:v>
+                  <c:v>2894.9807129999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3755.2282709999999</c:v>
+                  <c:v>4396.671875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3056.7714839999999</c:v>
+                  <c:v>2970.7612300000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7089.0893550000001</c:v>
+                  <c:v>5613.2333980000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4149.0629879999997</c:v>
+                  <c:v>4240.1494140000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6372.0229490000002</c:v>
+                  <c:v>4373.6245120000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7490.5825199999999</c:v>
+                  <c:v>6163.8471680000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5291.8632809999999</c:v>
+                  <c:v>3511.1586910000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3966.6171880000002</c:v>
+                  <c:v>2898.5466310000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2059.8259280000002</c:v>
+                  <c:v>1484.201904</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1764.1866460000001</c:v>
+                  <c:v>1364.7344969999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2733.0314939999998</c:v>
+                  <c:v>1723.5905760000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3929.814453</c:v>
+                  <c:v>4482.595703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7063.7104490000002</c:v>
+                  <c:v>7077.9755859999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7594.265625</c:v>
+                  <c:v>6871.8364259999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4633.2773440000001</c:v>
+                  <c:v>3838.4184570000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3009.9780270000001</c:v>
+                  <c:v>2578.9982909999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3251.5339359999998</c:v>
+                  <c:v>2442.553711</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4539.2309569999998</c:v>
+                  <c:v>2622.5424800000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3627.889893</c:v>
+                  <c:v>2306.2775879999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2291.1206050000001</c:v>
+                  <c:v>1680.099487</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1805.866577</c:v>
+                  <c:v>1395.563232</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1726.4860839999999</c:v>
+                  <c:v>1331.8081050000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2558.1804200000001</c:v>
+                  <c:v>2439.7856449999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4078.866211</c:v>
+                  <c:v>3714.905518</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4376.9370120000003</c:v>
+                  <c:v>4454.5263670000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2977.17749</c:v>
+                  <c:v>2767.03125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3786.40625</c:v>
+                  <c:v>2679.4650879999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7286.5375979999999</c:v>
+                  <c:v>4878.1811520000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9013.2304690000001</c:v>
+                  <c:v>6815.6694340000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5035.4833980000003</c:v>
+                  <c:v>3229.7885740000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4523.2753910000001</c:v>
+                  <c:v>3297.389893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2337.3051759999998</c:v>
+                  <c:v>1681.9351810000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1852.8797609999999</c:v>
+                  <c:v>1443.9331050000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1739.214966</c:v>
+                  <c:v>1342.4429929999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2620.6538089999999</c:v>
+                  <c:v>1723.336548</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3591.2822270000001</c:v>
+                  <c:v>3868.5756839999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7721.1186520000001</c:v>
+                  <c:v>6150.8237300000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8808.5097659999992</c:v>
+                  <c:v>7235.0991210000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5525.8139650000003</c:v>
+                  <c:v>4726.173828</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3703.7185060000002</c:v>
+                  <c:v>2542.4770509999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2385.8247070000002</c:v>
+                  <c:v>2104.92749</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2486.2780760000001</c:v>
+                  <c:v>2357.032471</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1900.7827150000001</c:v>
+                  <c:v>1906.5076899999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1738.385376</c:v>
+                  <c:v>1455.980591</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1662.424072</c:v>
+                  <c:v>975.89502000000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1640.3079829999999</c:v>
+                  <c:v>759.93804899999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2141.2033689999998</c:v>
+                  <c:v>929.54351799999995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2183.0026859999998</c:v>
+                  <c:v>941.76611300000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4550.3544920000004</c:v>
+                  <c:v>4485.5122069999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8932.8554690000001</c:v>
+                  <c:v>8208.0449219999991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6805.1752930000002</c:v>
+                  <c:v>5554.1293949999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5643.7666019999997</c:v>
+                  <c:v>3833.2016600000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6353.0014650000003</c:v>
+                  <c:v>4268.4189450000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4085.046875</c:v>
+                  <c:v>2346.5759280000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2517.9189449999999</c:v>
+                  <c:v>2012.51062</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1986.948486</c:v>
+                  <c:v>1603.2926030000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1809.718018</c:v>
+                  <c:v>1425.6701660000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1693.80249</c:v>
+                  <c:v>1321.756836</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2565.3654790000001</c:v>
+                  <c:v>1807.9968260000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7239.0942379999997</c:v>
+                  <c:v>7734.8129879999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6029.1806640000004</c:v>
+                  <c:v>6234.0634769999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3525.202393</c:v>
+                  <c:v>3465.6154790000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4693.7817379999997</c:v>
+                  <c:v>3673.352539</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7980.4072269999997</c:v>
+                  <c:v>7341.8979490000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9607.3710940000001</c:v>
+                  <c:v>7085.6723629999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6237.9345700000003</c:v>
+                  <c:v>4439.4423829999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5693.095703</c:v>
+                  <c:v>3948.8469239999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2723.3527829999998</c:v>
+                  <c:v>1938.3732910000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1846.3857419999999</c:v>
+                  <c:v>1459.669189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1769.50415</c:v>
+                  <c:v>1382.4578859999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2848.7585450000001</c:v>
+                  <c:v>2360.2602539999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5374.2094729999999</c:v>
+                  <c:v>6108.923828</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7717.1079099999997</c:v>
+                  <c:v>7255.939453</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4102.1357420000004</c:v>
+                  <c:v>4019.8405760000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5895.6918949999999</c:v>
+                  <c:v>5334.2202150000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3120.3547359999998</c:v>
+                  <c:v>2578.8488769999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3877.8793949999999</c:v>
+                  <c:v>2947.0534670000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4765.7529299999997</c:v>
+                  <c:v>3150.7312010000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2321.7468260000001</c:v>
+                  <c:v>1935.4331050000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1817.955078</c:v>
+                  <c:v>1481.8670649999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1736.432251</c:v>
+                  <c:v>1385.2835689999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1706.994629</c:v>
+                  <c:v>1325.791626</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2171.561279</c:v>
+                  <c:v>1701.0245359999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2780.4877929999998</c:v>
+                  <c:v>1726.9293210000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3397.6469729999999</c:v>
+                  <c:v>3427.961182</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5333.9580079999996</c:v>
+                  <c:v>5644.2211909999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,328 +1296,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6244.5864259999998</c:v>
+                  <c:v>5944.1323240000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3257.5834960000002</c:v>
+                  <c:v>2418.8654790000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3293.4914549999999</c:v>
+                  <c:v>2703.4724120000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4366.53125</c:v>
+                  <c:v>3367.3159179999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4256.8549800000001</c:v>
+                  <c:v>3889.368164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6079.5747069999998</c:v>
+                  <c:v>5857.1318359999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2735.7294919999999</c:v>
+                  <c:v>1530.2016599999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2623.7639159999999</c:v>
+                  <c:v>1328.988525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1942.190918</c:v>
+                  <c:v>1710.110962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3342.4379880000001</c:v>
+                  <c:v>2855.7326659999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4682.6630859999996</c:v>
+                  <c:v>5932.951172</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8336.8554690000001</c:v>
+                  <c:v>8301.9287110000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8025.0898440000001</c:v>
+                  <c:v>7702.5273440000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3515.8793949999999</c:v>
+                  <c:v>2405.6022950000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4831.7036129999997</c:v>
+                  <c:v>3989.9440920000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6298.3862300000001</c:v>
+                  <c:v>4885.0209960000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5863.7412109999996</c:v>
+                  <c:v>4908.6904299999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5519.5639650000003</c:v>
+                  <c:v>4432.5239259999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3505.0139159999999</c:v>
+                  <c:v>1752.714966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2787.0905760000001</c:v>
+                  <c:v>1227.8695070000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2632.1047359999998</c:v>
+                  <c:v>1899.291504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3061.5668949999999</c:v>
+                  <c:v>3184.8051759999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3975.163086</c:v>
+                  <c:v>3959.8022460000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3496.0119629999999</c:v>
+                  <c:v>3013.7270509999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9323.0996090000008</c:v>
+                  <c:v>8581.5273440000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4295.6992190000001</c:v>
+                  <c:v>5155.7441410000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6261.9121089999999</c:v>
+                  <c:v>5573.9570309999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7925.6293949999999</c:v>
+                  <c:v>7545.2260740000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6222.0864259999998</c:v>
+                  <c:v>5210.4770509999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4844.2036129999997</c:v>
+                  <c:v>3591.319336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3261.306885</c:v>
+                  <c:v>1741.3626710000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2980.991211</c:v>
+                  <c:v>1199.3548579999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2823.5454100000002</c:v>
+                  <c:v>2053.5280760000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3689.7209469999998</c:v>
+                  <c:v>3536.9545899999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6776.8481449999999</c:v>
+                  <c:v>7586.7597660000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8247.5019530000009</c:v>
+                  <c:v>7451.6391599999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4287.7246089999999</c:v>
+                  <c:v>3984.5065920000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3565.3015140000002</c:v>
+                  <c:v>2927.7124020000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3775.4267580000001</c:v>
+                  <c:v>3069.4340820000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5110.0322269999997</c:v>
+                  <c:v>3078.6118160000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4004.1154790000001</c:v>
+                  <c:v>3485.5578609999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3128.1423340000001</c:v>
+                  <c:v>2129.2326659999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2305.2048340000001</c:v>
+                  <c:v>1421.340698</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2220.9914549999999</c:v>
+                  <c:v>1222.1773679999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2836.9643550000001</c:v>
+                  <c:v>2621.5307619999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3382.7624510000001</c:v>
+                  <c:v>4520.8066410000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4123.8271480000003</c:v>
+                  <c:v>4352.5258789999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3238.2590329999998</c:v>
+                  <c:v>3679.9091800000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3759.3483890000002</c:v>
+                  <c:v>2708.5046390000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7535.3227539999998</c:v>
+                  <c:v>7626.9677730000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7875.0161129999997</c:v>
+                  <c:v>8306.2246090000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5321.919922</c:v>
+                  <c:v>4415.0346680000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4853.1923829999996</c:v>
+                  <c:v>4622.4589839999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3208.139404</c:v>
+                  <c:v>1865.493408</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2391.750732</c:v>
+                  <c:v>1437.4764399999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2629.6972660000001</c:v>
+                  <c:v>1133.1687010000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2412.9174800000001</c:v>
+                  <c:v>1522.413452</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2910.2585450000001</c:v>
+                  <c:v>3855.678711</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5873.5415039999998</c:v>
+                  <c:v>6050.8212890000004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8805.2763670000004</c:v>
+                  <c:v>8543.9257809999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5431.6606449999999</c:v>
+                  <c:v>4436.7875979999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4394.2041019999997</c:v>
+                  <c:v>3525.6655270000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2779.251953</c:v>
+                  <c:v>2292.0695799999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2909.0417480000001</c:v>
+                  <c:v>2243.1252439999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2317.9670409999999</c:v>
+                  <c:v>1480.322754</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2099.8784179999998</c:v>
+                  <c:v>1321.229126</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1917.755371</c:v>
+                  <c:v>1195.977783</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1826.5020750000001</c:v>
+                  <c:v>1071.323975</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1752.3474120000001</c:v>
+                  <c:v>1295.8088379999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1729.244263</c:v>
+                  <c:v>1367.61438</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3132.5451659999999</c:v>
+                  <c:v>2830.1823730000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8454.3652340000008</c:v>
+                  <c:v>8990.6689449999994</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5990.5893550000001</c:v>
+                  <c:v>5716.5898440000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5863.1181640000004</c:v>
+                  <c:v>4660.3125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6886.216797</c:v>
+                  <c:v>5370.0341799999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3833.6987300000001</c:v>
+                  <c:v>2892.6667480000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2902.6779790000001</c:v>
+                  <c:v>2139.8793949999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2419.0139159999999</c:v>
+                  <c:v>1690.524048</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2062.8562010000001</c:v>
+                  <c:v>1290.2116699999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1955.5241699999999</c:v>
+                  <c:v>1168.6256100000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1880.517578</c:v>
+                  <c:v>1636.4364009999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3738.2863769999999</c:v>
+                  <c:v>5785.9057620000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4100.7963870000003</c:v>
+                  <c:v>5835.2709960000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5770.8666990000002</c:v>
+                  <c:v>5423.5200199999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4150.578125</c:v>
+                  <c:v>3431.076904</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5957.5327150000003</c:v>
+                  <c:v>6139.3974609999996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8375.7197269999997</c:v>
+                  <c:v>9053.6787110000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6519.3857420000004</c:v>
+                  <c:v>5825.9858400000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6199.123047</c:v>
+                  <c:v>6174.6899409999996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3566.188232</c:v>
+                  <c:v>2759.5747070000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2445.352539</c:v>
+                  <c:v>1388.409058</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3261.0795899999998</c:v>
+                  <c:v>1136.223755</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2321.0834960000002</c:v>
+                  <c:v>1847.5541989999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4142.7758789999998</c:v>
+                  <c:v>5111.8559569999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7005.9467770000001</c:v>
+                  <c:v>7941.2744140000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3725.195068</c:v>
+                  <c:v>5123.0849609999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5450.3286129999997</c:v>
+                  <c:v>5244.8569340000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3702.6525879999999</c:v>
+                  <c:v>3818.216797</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3429.6477049999999</c:v>
+                  <c:v>2707.4956050000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4782.6220700000003</c:v>
+                  <c:v>4014.1247560000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4169.2280270000001</c:v>
+                  <c:v>2712.9604490000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3305.9650879999999</c:v>
+                  <c:v>1595.2501219999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2162.830078</c:v>
+                  <c:v>1266.549072</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2034.4354249999999</c:v>
+                  <c:v>1054.820557</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1857.3195800000001</c:v>
+                  <c:v>1955.9945070000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1627.963745</c:v>
+                  <c:v>2288.4916990000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2217.858643</c:v>
+                  <c:v>2241.2761230000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4338.9814450000003</c:v>
+                  <c:v>5094.9677730000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,7 +7927,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>3803.8713276666663</v>
+        <v>3074.7713013333328</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>80615121.297298566</v>
+        <v>101893972.80687165</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-124.63593090740324</v>
+        <v>-429.74538395370382</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7965,11 +7965,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>4077.0305164629644</v>
+        <v>3298.0383888333336</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>4201.6664473703677</v>
+        <v>3727.7837727870374</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7979,12 +7979,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>746436.30830832</v>
+        <v>943462.71117473755</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>661.68636416666675</v>
+        <v>687.44534189814817</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -8003,11 +8003,11 @@
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>3.0570271771115261E-2</v>
+        <v>0.13030332982440643</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>VG</v>
+        <v>S</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.7912113753493607</v>
+        <v>0.79972270513815069</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -8110,46 +8110,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5564.626953</v>
+        <v>5008.3862300000001</v>
       </c>
       <c r="I4">
-        <v>6244.5864259999998</v>
+        <v>5944.1323240000002</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>679.95947299999989</v>
+        <v>935.74609400000008</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>2042.9199786296322</v>
+        <v>2216.3485512129628</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>1487.5964365370355</v>
+        <v>1710.3478411666665</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>4173522.0390840969</v>
+        <v>4912200.900463799</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>2212943.1579976864</v>
+        <v>2925289.7377834767</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>3039040.4803397576</v>
+        <v>3790726.9598399601</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>462344.8849224376</v>
+        <v>875620.75243625697</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>4698298.6209689248</v>
+        <v>7001813.113725815</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>679.95947299999989</v>
+        <v>935.74609400000008</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.45594444874653739</v>
+        <v>0.43900096175762354</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8209,46 +8209,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>2765.735596</v>
+        <v>2194.2153320000002</v>
       </c>
       <c r="I5">
-        <v>3257.5834960000002</v>
+        <v>2418.8654790000001</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>491.84790000000021</v>
+        <v>224.65014699999983</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-944.08295137036748</v>
+        <v>-1308.9182937870373</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1311.2949204629645</v>
+        <v>-1103.8230568333333</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>891292.6190681837</v>
+        <v>1713267.0998103688</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>1719494.3684319723</v>
+        <v>1218425.3407968841</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>1237971.1786276468</v>
+        <v>1444814.1921930786</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>241914.35673441022</v>
+        <v>50467.688547121536</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>671493.41934562975</v>
+        <v>772945.00538481073</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>491.84790000000021</v>
+        <v>224.65014699999983</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.8263214948357005</v>
+        <v>0.84232115205627178</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -8308,46 +8308,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>2873.4809570000002</v>
+        <v>2399.7631839999999</v>
       </c>
       <c r="I6">
-        <v>3293.4914549999999</v>
+        <v>2703.4724120000001</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>420.01049799999964</v>
+        <v>303.70922800000017</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-908.17499237036782</v>
+        <v>-1024.3113607870373</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-1203.5495594629642</v>
+        <v>-898.27520483333365</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>824781.81676691759</v>
+        <v>1049213.7638373922</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>1448531.5420834953</v>
+        <v>806898.34361836757</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>1093033.6119826371</v>
+        <v>920113.49742408667</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>176408.8184302077</v>
+        <v>92239.295172356084</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>613933.46083826339</v>
+        <v>353508.70080777607</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>420.01049799999964</v>
+        <v>303.70922800000017</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>4077.0305164629644</v>
+        <v>3298.0383888333336</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8404,46 +8404,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>4017.2829590000001</v>
+        <v>2972.6782229999999</v>
       </c>
       <c r="I7">
-        <v>4366.53125</v>
+        <v>3367.3159179999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>349.24829099999988</v>
+        <v>394.63769499999989</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>164.86480262963232</v>
+        <v>-360.4678547870376</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-59.747557462964323</v>
+        <v>-325.36016583333367</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>27180.403146107619</v>
+        <v>129937.07433476883</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>3569.770622790224</v>
+        <v>105859.23751109438</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>-9850.2692687342296</v>
+        <v>117281.88101109659</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>121974.36876642059</v>
+        <v>155738.91031491294</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>83810.674718481663</v>
+        <v>4799.3760474382898</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>349.24829099999988</v>
+        <v>394.63769499999989</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2050.4124066335535</v>
+        <v>1865.5266268507748</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8500,46 +8500,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>3632.0615229999999</v>
+        <v>2534.6623540000001</v>
       </c>
       <c r="I8">
-        <v>4256.8549800000001</v>
+        <v>3889.368164</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>624.79345700000022</v>
+        <v>1354.7058099999999</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>55.188532629632391</v>
+        <v>161.5843912129626</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-444.96899346296459</v>
+        <v>-763.37603483333351</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>3045.774133811999</v>
+        <v>26109.515483663745</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>197997.40514344382</v>
+        <v>582742.97055786278</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-24557.185814905504</v>
+        <v>-123349.65185510952</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>390366.86391001113</v>
+        <v>1835227.8316477558</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>32336.837686382656</v>
+        <v>349670.90299866028</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>624.79345700000022</v>
+        <v>1354.7058099999999</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>4201.6664473703677</v>
+        <v>3727.7837727870374</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8596,46 +8596,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>4537.9121089999999</v>
+        <v>2429.0747070000002</v>
       </c>
       <c r="I9">
-        <v>6079.5747069999998</v>
+        <v>5857.1318359999996</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1541.6625979999999</v>
+        <v>3428.0571289999993</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1877.9082596296321</v>
+        <v>2129.3480632129622</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>460.88159253703543</v>
+        <v>-868.96368183333334</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>3526539.4315851936</v>
+        <v>4534123.1743087936</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>212411.84233947395</v>
+        <v>755097.88034534256</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>865493.34933655744</v>
+        <v>-1850326.132914213</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>2376723.5660721092</v>
+        <v>11751575.679687718</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>4010183.2350536301</v>
+        <v>6548959.2713313699</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>1541.6625979999999</v>
+        <v>3428.0571289999993</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>1890.788540052831</v>
+        <v>2170.4336381028238</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8691,46 +8691,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1848.1649170000001</v>
+        <v>1436.7573239999999</v>
       </c>
       <c r="I10">
-        <v>2735.7294919999999</v>
+        <v>1530.2016599999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>887.56457499999988</v>
+        <v>93.444336000000021</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-1465.9369553703677</v>
+        <v>-2197.5821127870377</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-2228.8655994629644</v>
+        <v>-1861.2810648333336</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>2148971.1571205435</v>
+        <v>4829367.14244154</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>4967841.8604694</v>
+        <v>3464367.2023071083</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>3267376.4508064874</v>
+        <v>4090317.9749469445</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>787770.87479493045</v>
+        <v>8731.8439304808999</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>1799088.4382253981</v>
+        <v>3125246.6998121417</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>887.56457499999988</v>
+        <v>93.444336000000021</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>863.96545550636461</v>
+        <v>971.32008687905636</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8786,46 +8786,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1696.2768550000001</v>
+        <v>1342.1024170000001</v>
       </c>
       <c r="I11">
-        <v>2623.7639159999999</v>
+        <v>1328.988525</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>927.48706099999981</v>
+        <v>-13.113892000000078</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-1577.9025313703678</v>
+        <v>-2398.7952477870376</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2380.7536614629644</v>
+        <v>-1955.9359718333335</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>2489776.3985050144</v>
+        <v>5754218.6408056756</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>5667987.9965693112</v>
+        <v>3825685.5259116068</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>3756597.2289916831</v>
+        <v>4691889.9142095214</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>860232.24832241738</v>
+        <v>171.97416338766604</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>2111983.8120211819</v>
+        <v>3877157.3662620694</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>927.48706099999981</v>
+        <v>13.113892000000078</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.9090222741141718</v>
+        <v>0.91778055768046851</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8882,46 +8882,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>2774.2465820000002</v>
+        <v>1874.454956</v>
       </c>
       <c r="I12">
-        <v>1942.190918</v>
+        <v>1710.110962</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-832.05566400000021</v>
+        <v>-164.34399400000007</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2259.4755293703674</v>
+        <v>-2017.6728107870374</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1302.7839344629642</v>
+        <v>-1423.5834328333335</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>5105229.6678235019</v>
+        <v>4071003.571389264</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>1697245.979894801</v>
+        <v>2026589.7902375383</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>2943608.4199759164</v>
+        <v>2872325.5863146917</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>692316.62799448124</v>
+        <v>27008.948363872059</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>4557540.1111655105</v>
+        <v>2521513.5128895319</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>832.05566400000021</v>
+        <v>164.34399400000007</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>661.68636416666675</v>
+        <v>687.44534189814817</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8977,46 +8977,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>3485.5747070000002</v>
+        <v>2252.8571780000002</v>
       </c>
       <c r="I13">
-        <v>3342.4379880000001</v>
+        <v>2855.7326659999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-143.13671900000008</v>
+        <v>602.87548799999968</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-859.22845937036755</v>
+        <v>-872.0511067870375</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-591.45580946296423</v>
+        <v>-1045.1812108333334</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>738273.54539197532</v>
+        <v>760473.13284849713</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>349819.97454749024</v>
+        <v>1092403.7634790328</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>508195.66395051638</v>
+        <v>911451.43170022429</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>20488.120326084987</v>
+        <v>363458.85403123777</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>539626.18287361099</v>
+        <v>195634.3524511178</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>143.13671900000008</v>
+        <v>602.87548799999968</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9065,46 +9065,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>4927.5546880000002</v>
+        <v>5705.640625</v>
       </c>
       <c r="I14">
-        <v>4682.6630859999996</v>
+        <v>5932.951172</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-244.8916020000006</v>
+        <v>227.31054700000004</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>480.99663862963189</v>
+        <v>2205.1673992129627</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>850.52417153703573</v>
+        <v>2407.6022361666664</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>231357.76637300468</v>
+        <v>4862763.2585516619</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>723391.36636876094</v>
+        <v>5796548.5275947331</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>409099.26758256659</v>
+        <v>5309165.9614669606</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>59971.896730126697</v>
+        <v>51670.084777439231</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>366790.80928403168</v>
+        <v>6942765.3748951089</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>244.8916020000006</v>
+        <v>227.31054700000004</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9142,7 +9142,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.45594444874653739</v>
+        <v>0.43900096175762354</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9157,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>7523.5380859999996</v>
+        <v>6746.6630859999996</v>
       </c>
       <c r="I15">
-        <v>8336.8554690000001</v>
+        <v>8301.9287110000005</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>813.31738300000052</v>
+        <v>1555.2656250000009</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>4135.1890216296324</v>
+        <v>4574.1449382129631</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3446.5075695370351</v>
+        <v>3448.624697166666</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>17099788.244606238</v>
+        <v>20922801.91577927</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>11878414.426876081</v>
+        <v>11893012.301907878</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>14251960.264512975</v>
+        <v>15774509.202341119</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>661485.16548996954</v>
+        <v>2418851.1643066434</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>18146108.626257159</v>
+        <v>25038918.35627323</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>813.31738300000052</v>
+        <v>1555.2656250000009</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9245,46 +9245,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>7352.2617190000001</v>
+        <v>5451.8950199999999</v>
       </c>
       <c r="I16">
-        <v>8025.0898440000001</v>
+        <v>7702.5273440000001</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>672.828125</v>
+        <v>2250.6323240000002</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>3823.4233966296324</v>
+        <v>3974.7435712129627</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>3275.2312025370356</v>
+        <v>2153.8566311666664</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>14618566.469894875</v>
+        <v>15798586.456898777</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>10727139.430072196</v>
+        <v>4639098.3876206214</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>12522595.609151509</v>
+        <v>8561027.7980441172</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>452697.68579101563</v>
+        <v>5065345.8578336416</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>15587172.45375219</v>
+        <v>19399522.956185155</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>672.828125</v>
+        <v>2250.6323240000002</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9312,46 +9312,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>3050.6896969999998</v>
+        <v>2570.1770019999999</v>
       </c>
       <c r="I17">
-        <v>3515.8793949999999</v>
+        <v>2405.6022950000001</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>465.18969800000013</v>
+        <v>-164.57470699999976</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-685.78705237036775</v>
+        <v>-1322.1814777870372</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-1026.3408194629646</v>
+        <v>-727.86138683333365</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>470303.88119883754</v>
+        <v>1748163.8602031136</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>1053375.4776959098</v>
+        <v>529782.19844294374</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>703851.2453068943</v>
+        <v>962364.84406741941</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>216401.45512533133</v>
+        <v>27084.834184135772</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>314890.58111914276</v>
+        <v>796442.18157649832</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>465.18969800000013</v>
+        <v>164.57470699999976</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9379,46 +9379,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5465.8647460000002</v>
+        <v>3791.6328119999998</v>
       </c>
       <c r="I18">
-        <v>4831.7036129999997</v>
+        <v>3989.9440920000002</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-634.16113300000052</v>
+        <v>198.31128000000035</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>630.037165629632</v>
+        <v>262.1603192129628</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>1388.8342295370358</v>
+        <v>493.59442316666627</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>396946.83007462032</v>
+        <v>68728.032969842548</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>1928860.5171337316</v>
+        <v>243635.45458123402</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>875017.18150692771</v>
+        <v>129400.87153911147</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>402160.34260784433</v>
+        <v>39327.36377523854</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>569531.48263679736</v>
+        <v>478733.50207455939</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>634.16113300000052</v>
+        <v>198.31128000000035</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9446,46 +9446,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5798.5307620000003</v>
+        <v>4156.1025390000004</v>
       </c>
       <c r="I19">
-        <v>6298.3862300000001</v>
+        <v>4885.0209960000002</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>499.85546799999975</v>
+        <v>728.91845699999976</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>2096.7197826296324</v>
+        <v>1157.2372232129628</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>1721.5002455370359</v>
+        <v>858.06415016666688</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>4396233.8468704531</v>
+        <v>1339197.9907896488</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>2963563.0953840748</v>
+        <v>736274.08580124425</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>3609503.6206192728</v>
+        <v>992983.77447746438</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>249855.48888949878</v>
+        <v>531322.11695526051</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>4934421.2060636329</v>
+        <v>2518513.7954495107</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>499.85546799999975</v>
+        <v>728.91845699999976</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9513,46 +9513,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>5566.1757809999999</v>
+        <v>3324.5532229999999</v>
       </c>
       <c r="I20">
-        <v>5863.7412109999996</v>
+        <v>4908.6904299999997</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>297.56542999999965</v>
+        <v>1584.1372069999998</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>1662.0747636296319</v>
+        <v>1180.9066572129623</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>1489.1452645370355</v>
+        <v>26.514834166666333</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>2762492.5198944965</v>
+        <v>1394540.5330498929</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2217553.6188930771</v>
+        <v>703.03643088581634</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>2475070.763565579</v>
+        <v>31311.544182313981</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>88545.185131084698</v>
+        <v>2509490.6906017601</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>3192335.1059730146</v>
+        <v>2594199.9977143477</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>297.56542999999965</v>
+        <v>1584.1372069999998</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9580,46 +9580,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>5305.1870120000003</v>
+        <v>2795.3498540000001</v>
       </c>
       <c r="I21">
-        <v>5519.5639650000003</v>
+        <v>4432.5239259999998</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>214.37695299999996</v>
+        <v>1637.1740719999998</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>1317.8975176296326</v>
+        <v>704.74015321296247</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>1228.1564955370359</v>
+        <v>-502.68853483333351</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>1736853.8669743477</v>
+        <v>496658.68355062982</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>1508368.3775298132</v>
+        <v>252695.76305288356</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>1618584.3967289685</v>
+        <v>-354264.79505684308</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>45957.477977564187</v>
+        <v>2680338.9420290603</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>2080902.7501481529</v>
+        <v>1287057.4340403394</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>214.37695299999996</v>
+        <v>1637.1740719999998</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9647,46 +9647,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>2499.2170409999999</v>
+        <v>1502.2727050000001</v>
       </c>
       <c r="I22">
-        <v>3505.0139159999999</v>
+        <v>1752.714966</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1005.796875</v>
+        <v>250.44226099999992</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-696.6525313703678</v>
+        <v>-1975.0688067870374</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1577.8134754629646</v>
+        <v>-1795.7656838333335</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>485324.74946474127</v>
+        <v>3900896.7915431717</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>2489495.363352519</v>
+        <v>3224774.3912334</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>1099187.751711552</v>
+        <v>3546760.7864378099</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>1011627.3537597656</v>
+        <v>62721.326094792079</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>327202.99120520684</v>
+        <v>2388024.4811573299</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>1005.796875</v>
+        <v>250.44226099999992</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9714,46 +9714,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1765.0023189999999</v>
+        <v>1358.5405270000001</v>
       </c>
       <c r="I23">
-        <v>2787.0905760000001</v>
+        <v>1227.8695070000001</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>1022.0882570000001</v>
+        <v>-130.67102</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-1414.5758713703676</v>
+        <v>-2499.914265787037</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2312.0281974629643</v>
+        <v>-1939.4978618333334</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>2001024.8958632348</v>
+        <v>6249571.3362855408</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>5345474.3858638434</v>
+        <v>3761651.9560560724</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>3270539.302059033</v>
+        <v>4848578.3732606061</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>1044664.4050972983</v>
+        <v>17074.915467840401</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>1663945.0500015961</v>
+        <v>4285599.1993110729</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>1022.0882570000001</v>
+        <v>130.67102</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9781,46 +9781,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>2748.8002929999998</v>
+        <v>1697.421875</v>
       </c>
       <c r="I24">
-        <v>2632.1047359999998</v>
+        <v>1899.291504</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-116.69555700000001</v>
+        <v>201.86962900000003</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-1569.5617113703679</v>
+        <v>-1828.4922687870373</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1328.2302234629647</v>
+        <v>-1600.6165138333336</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>2463523.9657998779</v>
+        <v>3343383.977013967</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>1764195.5265204771</v>
+        <v>2561973.2243559742</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>2084739.302632377</v>
+        <v>2926714.9208371104</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>13617.85302354025</v>
+        <v>40751.34711259765</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>2087810.5110465076</v>
+        <v>1956492.8478309547</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>116.69555700000001</v>
+        <v>201.86962900000003</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9848,46 +9848,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>2986.9169919999999</v>
+        <v>2894.9807129999999</v>
       </c>
       <c r="I25">
-        <v>3061.5668949999999</v>
+        <v>3184.8051759999998</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>74.649902999999995</v>
+        <v>289.82446299999992</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-1140.0995523703677</v>
+        <v>-542.97859678703753</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-1090.1135244629645</v>
+        <v>-403.05767583333363</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>1299826.9893151128</v>
+        <v>294825.75656882027</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>1188347.4962170664</v>
+        <v>162455.49004816866</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>1242837.9412731098</v>
+        <v>218851.69124822813</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>5572.6080179094079</v>
+        <v>83998.219353238324</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>1031166.3665146789</v>
+        <v>12821.76048855905</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>74.649902999999995</v>
+        <v>289.82446299999992</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9915,46 +9915,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>3755.2282709999999</v>
+        <v>4396.671875</v>
       </c>
       <c r="I26">
-        <v>3975.163086</v>
+        <v>3959.8022460000002</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>219.93481500000007</v>
+        <v>-436.8696289999998</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-226.50336137036766</v>
+        <v>232.01847321296282</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-321.80224546296449</v>
+        <v>1098.6334861666664</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>51303.772712075363</v>
+        <v>53832.571912074345</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>103556.68518500605</v>
+        <v>1206995.5369267229</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>72889.290293893602</v>
+        <v>254903.26408102465</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>48371.322849084259</v>
+        <v>190855.07274259746</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>10376.973389126892</v>
+        <v>437931.40265210439</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>219.93481500000007</v>
+        <v>436.8696289999998</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9982,46 +9982,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3056.7714839999999</v>
+        <v>2970.7612300000001</v>
       </c>
       <c r="I27">
-        <v>3496.0119629999999</v>
+        <v>3013.7270509999998</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>439.24047900000005</v>
+        <v>42.965820999999778</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-705.65448437036775</v>
+        <v>-714.05672178703753</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-1020.2590324629646</v>
+        <v>-327.27715883333349</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>497948.25131200958</v>
+        <v>509877.00192925072</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>1040928.4933222646</v>
+        <v>107110.338694019</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>719950.3614768635</v>
+        <v>233694.45515230572</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>192932.1983921495</v>
+        <v>1846.061774204022</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>337582.55946819577</v>
+        <v>80832.936820580013</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>439.24047900000005</v>
+        <v>42.965820999999778</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10049,46 +10049,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>7089.0893550000001</v>
+        <v>5613.2333980000003</v>
       </c>
       <c r="I28">
-        <v>9323.0996090000008</v>
+        <v>8581.5273440000001</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>2234.0102540000007</v>
+        <v>2968.2939459999998</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>5121.4331616296331</v>
+        <v>4853.7435712129627</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>3012.0588385370356</v>
+        <v>2315.1950091666668</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>26229077.629039701</v>
+        <v>23558826.655091166</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>9072498.4468090758</v>
+        <v>5360127.9304702422</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>15426058.020463211</v>
+        <v>11237362.891847044</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>4990801.8149771476</v>
+        <v>8810768.9498602487</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>27521240.923672363</v>
+        <v>27915255.539368153</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>2234.0102540000007</v>
+        <v>2968.2939459999998</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10116,46 +10116,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4149.0629879999997</v>
+        <v>4240.1494140000004</v>
       </c>
       <c r="I29">
-        <v>4295.6992190000001</v>
+        <v>5155.7441410000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>146.63623100000041</v>
+        <v>915.59472699999969</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>94.032771629632407</v>
+        <v>1427.9603682129627</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>72.032471537035235</v>
+        <v>942.11102516666688</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>8842.1621403506015</v>
+        <v>2039070.8131869002</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>5188.6769557337911</v>
+        <v>887573.18374058802</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>6773.4129459600308</v>
+        <v>1345297.2063944854</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>21502.184241885479</v>
+        <v>838313.70411020401</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>47816.001469230578</v>
+        <v>3451070.6616331204</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>146.63623100000041</v>
+        <v>915.59472699999969</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10183,46 +10183,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>6372.0229490000002</v>
+        <v>4373.6245120000003</v>
       </c>
       <c r="I30">
-        <v>6261.9121089999999</v>
+        <v>5573.9570309999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-110.11084000000028</v>
+        <v>1200.3325189999996</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>2060.2456616296322</v>
+        <v>1846.1732582129625</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>2294.9924325370357</v>
+        <v>1075.5861231666668</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>4244612.1862637205</v>
+        <v>3408355.6993406662</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>5266990.2654022602</v>
+        <v>1156885.5083487001</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>4728248.2026072638</v>
+        <v>1985718.3374952541</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>12124.397085505661</v>
+        <v>1440798.1561688844</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>4773707.5734071722</v>
+        <v>5179805.6657617623</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>110.11084000000028</v>
+        <v>1200.3325189999996</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10250,46 +10250,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>7490.5825199999999</v>
+        <v>6163.8471680000002</v>
       </c>
       <c r="I31">
-        <v>7925.6293949999999</v>
+        <v>7545.2260740000002</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>435.046875</v>
+        <v>1381.3789059999999</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>3723.9629476296323</v>
+        <v>3817.4423012129628</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>3413.5520035370355</v>
+        <v>2865.8087791666667</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>13867900.035318378</v>
+        <v>14572865.723090122</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>11652337.280851709</v>
+        <v>8212859.9587487401</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>12711941.180978816</v>
+        <v>10940059.660778312</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>189265.78344726563</v>
+        <v>1908207.6819417565</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>14811713.327876527</v>
+        <v>18038603.233031388</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>435.046875</v>
+        <v>1381.3789059999999</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10317,46 +10317,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>5291.8632809999999</v>
+        <v>3511.1586910000001</v>
       </c>
       <c r="I32">
-        <v>6222.0864259999998</v>
+        <v>5210.4770509999998</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>930.22314499999993</v>
+        <v>1699.3183599999998</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>2020.4199786296322</v>
+        <v>1482.6932782129625</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>1214.8327645370355</v>
+        <v>213.12030216666653</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>4082096.8900457635</v>
+        <v>2198379.3572579012</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>1475818.6457926962</v>
+        <v>45420.263195611245</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>2454472.3881644942</v>
+        <v>315992.03947323194</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>865315.09949369088</v>
+        <v>2887682.8886330887</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>4601264.8550397586</v>
+        <v>3657421.6365498286</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>930.22314499999993</v>
+        <v>1699.3183599999998</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10384,46 +10384,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>3966.6171880000002</v>
+        <v>2898.5466310000002</v>
       </c>
       <c r="I33">
-        <v>4844.2036129999997</v>
+        <v>3591.319336</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>877.58642499999951</v>
+        <v>692.77270499999986</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>642.537165629632</v>
+        <v>-136.46443678703736</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-110.41332846296427</v>
+        <v>-399.49175783333339</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>412854.00921536115</v>
+        <v>18622.542507603313</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>12191.103102270437</v>
+        <v>159593.66457676669</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>-70944.66711832663</v>
+        <v>54516.417733789363</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>770157.93334427977</v>
+        <v>479934.02079301683</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>588554.56005022314</v>
+        <v>86013.713970977013</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>877.58642499999951</v>
+        <v>692.77270499999986</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10451,46 +10451,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>2059.8259280000002</v>
+        <v>1484.201904</v>
       </c>
       <c r="I34">
-        <v>3261.306885</v>
+        <v>1741.3626710000001</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1201.4809569999998</v>
+        <v>257.16076700000008</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-940.35956237036771</v>
+        <v>-1986.4211017870373</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-2017.2045884629642</v>
+        <v>-1813.8364848333335</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>884276.10654138948</v>
+        <v>3945868.7936248272</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>4069114.3517160369</v>
+        <v>3290002.7937125438</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>1896897.6240185308</v>
+        <v>3603043.0686641573</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>1443556.4900336352</v>
+        <v>66131.660084028335</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>665405.04292712628</v>
+        <v>2423239.2904919242</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>1201.4809569999998</v>
+        <v>257.16076700000008</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10518,46 +10518,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1764.1866460000001</v>
+        <v>1364.7344969999999</v>
       </c>
       <c r="I35">
-        <v>2980.991211</v>
+        <v>1199.3548579999999</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>1216.8045649999999</v>
+        <v>-165.379639</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-1220.6752363703677</v>
+        <v>-2528.4289147870377</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2312.8438704629643</v>
+        <v>-1933.3038918333336</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>1490048.0326878529</v>
+        <v>6392952.777131157</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>5349246.7691381052</v>
+        <v>3737663.9381779144</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>2823231.2382651349</v>
+        <v>4888221.4611817123</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>1480613.3494048391</v>
+        <v>27350.424995770321</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>1201302.1591197373</v>
+        <v>4404472.5625910694</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>1216.8045649999999</v>
+        <v>165.379639</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10585,46 +10585,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>2733.0314939999998</v>
+        <v>1723.5905760000001</v>
       </c>
       <c r="I36">
-        <v>2823.5454100000002</v>
+        <v>2053.5280760000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>90.513916000000336</v>
+        <v>329.9375</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-1378.1210373703675</v>
+        <v>-1674.2556967870373</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1343.9990224629646</v>
+        <v>-1574.4478128333335</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>1899217.5936427778</v>
+        <v>2803132.1382238478</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>1806333.3723814045</v>
+        <v>2478885.9153356678</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>1852193.3270614205</v>
+        <v>2636028.2199300998</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>8192.7689896551165</v>
+        <v>108858.75390625</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>1571224.9121244689</v>
+        <v>1548805.9187485217</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>90.513916000000336</v>
+        <v>329.9375</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10652,46 +10652,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>3929.814453</v>
+        <v>4482.595703</v>
       </c>
       <c r="I37">
-        <v>3689.7209469999998</v>
+        <v>3536.9545899999998</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-240.09350600000016</v>
+        <v>-945.64111300000013</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-511.94550037036788</v>
+        <v>-190.82918278703755</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-147.21606346296448</v>
+        <v>1184.5573141666664</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>262088.19534946635</v>
+        <v>36415.777003168587</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>21672.569341531587</v>
+        <v>1403176.0305457464</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>75366.601272103188</v>
+        <v>-226048.10422683306</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>57644.89162337211</v>
+        <v>894237.11459587899</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>150008.70259758705</v>
+        <v>57080.951179910946</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>240.09350600000016</v>
+        <v>945.64111300000013</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10719,46 +10719,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7063.7104490000002</v>
+        <v>7077.9755859999996</v>
       </c>
       <c r="I38">
-        <v>6776.8481449999999</v>
+        <v>7586.7597660000001</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-286.86230400000022</v>
+        <v>508.78418000000056</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>2575.1816976296323</v>
+        <v>3858.9759932129627</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>2986.6799325370357</v>
+        <v>3779.937197166666</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>6631560.7758066347</v>
+        <v>14891695.716193972</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>8920257.0194194317</v>
+        <v>14287925.214524191</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>7691243.4989470793</v>
+        <v>14586686.899718858</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>82289.981456188543</v>
+        <v>258861.34181827298</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>7289015.2273593424</v>
+        <v>18393131.050966348</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>286.86230400000022</v>
+        <v>508.78418000000056</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10786,46 +10786,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>7594.265625</v>
+        <v>6871.8364259999998</v>
       </c>
       <c r="I39">
-        <v>8247.5019530000009</v>
+        <v>7451.6391599999997</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>653.23632800000087</v>
+        <v>579.80273399999987</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>4045.8355056296332</v>
+        <v>3723.8553872129623</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>3517.2351085370356</v>
+        <v>3573.7980371666663</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>16368784.938613391</v>
+        <v>13867098.944875002</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>12370942.808725532</v>
+        <v>12772032.410456317</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>14230154.683766235</v>
+        <v>13308307.073514201</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>426717.70021892473</v>
+        <v>336171.2103538746</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>17392832.002971292</v>
+        <v>17252399.366236325</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>653.23632800000087</v>
+        <v>579.80273399999987</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10853,46 +10853,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4633.2773440000001</v>
+        <v>3838.4184570000002</v>
       </c>
       <c r="I40">
-        <v>4287.7246089999999</v>
+        <v>3984.5065920000002</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-345.55273500000021</v>
+        <v>146.08813499999997</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>86.058161629632195</v>
+        <v>256.7228192129628</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>556.24682753703564</v>
+        <v>540.38006816666666</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>7406.0071830718989</v>
+        <v>65906.605904651587</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>309410.5331450167</v>
+        <v>292010.61807181133</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>47869.579390152358</v>
+        <v>138727.8945462397</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>119406.69266598037</v>
+        <v>21341.743187778215</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>44392.000630004848</v>
+        <v>471238.5939588719</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>345.55273500000021</v>
+        <v>146.08813499999997</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10920,46 +10920,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>3009.9780270000001</v>
+        <v>2578.9982909999999</v>
       </c>
       <c r="I41">
-        <v>3565.3015140000002</v>
+        <v>2927.7124020000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>555.32348700000011</v>
+        <v>348.71411100000023</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-636.36493337036745</v>
+        <v>-800.07137078703727</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-1067.0524894629643</v>
+        <v>-719.04009783333368</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>404960.32842347218</v>
+        <v>640114.19835304888</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>1138601.0152691095</v>
+        <v>517018.66229217005</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>679034.78635978396</v>
+        <v>575283.39672436065</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>308384.17521383928</v>
+        <v>121601.53121052048</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>261866.57196174044</v>
+        <v>137141.33652408226</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>555.32348700000011</v>
+        <v>348.71411100000023</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10987,46 +10987,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>3251.5339359999998</v>
+        <v>2442.553711</v>
       </c>
       <c r="I42">
-        <v>3775.4267580000001</v>
+        <v>3069.4340820000002</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>523.89282200000025</v>
+        <v>626.8803710000002</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-426.23968937036761</v>
+        <v>-658.34969078703716</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-825.49658046296463</v>
+        <v>-855.48467783333354</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>181680.27279454746</v>
+        <v>433424.31535938743</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>681444.60435604781</v>
+        <v>731854.03400760249</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>351859.40603283473</v>
+        <v>563208.07312462328</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>274463.68894312397</v>
+        <v>392978.99954509787</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>90964.827118986155</v>
+        <v>52259.929102748814</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>523.89282200000025</v>
+        <v>626.8803710000002</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11054,46 +11054,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>4539.2309569999998</v>
+        <v>2622.5424800000001</v>
       </c>
       <c r="I43">
-        <v>5110.0322269999997</v>
+        <v>3078.6118160000001</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>570.80126999999993</v>
+        <v>456.06933600000002</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>908.36577962963202</v>
+        <v>-649.17195678703729</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>462.20044053703532</v>
+        <v>-675.49590883333349</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>825128.38960214914</v>
+        <v>421424.22947871103</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>213629.24723262951</v>
+        <v>456294.72285057121</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>419847.06351358345</v>
+        <v>438513.00093897327</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>325814.08983361284</v>
+        <v>207999.23923948093</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>1067092.5339724408</v>
+        <v>48148.020865382197</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>570.80126999999993</v>
+        <v>456.06933600000002</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11121,46 +11121,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>3627.889893</v>
+        <v>2306.2775879999999</v>
       </c>
       <c r="I44">
-        <v>4004.1154790000001</v>
+        <v>3485.5578609999998</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>376.22558600000002</v>
+        <v>1179.2802729999999</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-197.55096837036763</v>
+        <v>-242.2259117870376</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-449.14062346296441</v>
+        <v>-991.76080083333363</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>39026.385104069988</v>
+        <v>58673.392341061721</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>201727.29964470037</v>
+        <v>983589.4860695753</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>88728.165099579273</v>
+        <v>240230.16425649685</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>141545.69156104341</v>
+        <v>1390701.9622869543</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>5316.602688225501</v>
+        <v>35163.55244166511</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>376.22558600000002</v>
+        <v>1179.2802729999999</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11188,46 +11188,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>2291.1206050000001</v>
+        <v>1680.099487</v>
       </c>
       <c r="I45">
-        <v>3128.1423340000001</v>
+        <v>2129.2326659999999</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>837.02172900000005</v>
+        <v>449.13317899999993</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1073.5241133703676</v>
+        <v>-1598.5511067870375</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1785.9099114629644</v>
+        <v>-1617.9389018333336</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>1152454.0219876338</v>
+        <v>2555365.6410100628</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>3189474.2118616533</v>
+        <v>2617726.2900656536</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>1917217.3542626305</v>
+        <v>2586358.0222394792</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>700605.37481814949</v>
+        <v>201720.61247864598</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>900388.78281786782</v>
+        <v>1366106.8177279516</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>837.02172900000005</v>
+        <v>449.13317899999993</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11255,46 +11255,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>1805.866577</v>
+        <v>1395.563232</v>
       </c>
       <c r="I46">
-        <v>2305.2048340000001</v>
+        <v>1421.340698</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>499.33825700000011</v>
+        <v>25.777466000000004</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-1896.4616133703676</v>
+        <v>-2306.4430747870374</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2271.1639394629647</v>
+        <v>-1902.4751568333336</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>3596566.6509873373</v>
+        <v>5319679.6572330836</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>5158185.6399169331</v>
+        <v>3619411.7223680173</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>4307175.2288625333</v>
+        <v>4387950.6504326249</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>249338.69490379817</v>
+        <v>664.47775338115616</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>3139366.2490353491</v>
+        <v>3521994.2227791664</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>499.33825700000011</v>
+        <v>25.777466000000004</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11322,46 +11322,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1726.4860839999999</v>
+        <v>1331.8081050000001</v>
       </c>
       <c r="I47">
-        <v>2220.9914549999999</v>
+        <v>1222.1773679999999</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>494.50537099999997</v>
+        <v>-109.63073700000018</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-1980.6749923703678</v>
+        <v>-2505.6064047870377</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2350.5444324629643</v>
+        <v>-1966.2302838333335</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>3923073.4254013565</v>
+        <v>6278063.4557098243</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>5525059.1289826389</v>
+        <v>3866061.5290633109</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>4655664.5758347921</v>
+        <v>4926599.1924590357</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>244535.5619478476</v>
+        <v>12018.898495163208</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>3444880.9976763222</v>
+        <v>4309198.9778152108</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>494.50537099999997</v>
+        <v>109.63073700000018</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11389,46 +11389,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>2558.1804200000001</v>
+        <v>2439.7856449999999</v>
       </c>
       <c r="I48">
-        <v>2836.9643550000001</v>
+        <v>2621.5307619999999</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>278.78393499999993</v>
+        <v>181.74511699999994</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-1364.7020923703676</v>
+        <v>-1106.2530107870375</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-1518.8500964629643</v>
+        <v>-858.25274383333362</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>1862411.8009200594</v>
+        <v>1223795.7238753852</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>2306905.6155255558</v>
+        <v>736597.7722974458</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>2072777.9046399421</v>
+        <v>949444.68188186141</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>77720.482414084181</v>
+        <v>33031.287553343667</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>1537764.0848054909</v>
+        <v>457662.56916366908</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>278.78393499999993</v>
+        <v>181.74511699999994</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11456,46 +11456,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>4078.866211</v>
+        <v>3714.905518</v>
       </c>
       <c r="I49">
-        <v>3382.7624510000001</v>
+        <v>4520.8066410000001</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-696.10375999999997</v>
+        <v>805.9011230000001</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-818.90399637036762</v>
+        <v>793.02286821296275</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>1.8356945370355788</v>
+        <v>416.86712916666647</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>670603.75527135911</v>
+        <v>628885.26950871409</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>3.3697744333022679</v>
+        <v>173778.2033796582</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-1503.2575924936873</v>
+        <v>330585.16643545346</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>484560.44468613755</v>
+        <v>649476.62005266128</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>482008.14672168699</v>
+        <v>1495162.1985067248</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>696.10375999999997</v>
+        <v>805.9011230000001</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11523,46 +11523,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>4376.9370120000003</v>
+        <v>4454.5263670000004</v>
       </c>
       <c r="I50">
-        <v>4123.8271480000003</v>
+        <v>4352.5258789999998</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-253.10986400000002</v>
+        <v>-102.00048800000059</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-77.839299370367371</v>
+        <v>624.74210621296243</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>299.90649553703588</v>
+        <v>1156.4879781666668</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>6058.9565264696739</v>
+        <v>390302.69927540841</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>89943.906065306117</v>
+        <v>1337464.4436440249</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>-23344.511489225082</v>
+        <v>722506.73528981395</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>64064.603254098503</v>
+        <v>10404.099552238264</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>2189.9247232130997</v>
+        <v>1111943.866917995</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>253.10986400000002</v>
+        <v>102.00048800000059</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11590,46 +11590,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>2977.17749</v>
+        <v>2767.03125</v>
       </c>
       <c r="I51">
-        <v>3238.2590329999998</v>
+        <v>3679.9091800000001</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>261.08154299999978</v>
+        <v>912.87793000000011</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-963.40741437036786</v>
+        <v>-47.874592787037273</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-1099.8530264629644</v>
+        <v>-531.00713883333356</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>928153.84606379771</v>
+        <v>2291.9766345246412</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>1209676.6798197422</v>
+        <v>281968.58149196318</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>1059606.5604121084</v>
+        <v>25421.750538655611</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>68163.572095260737</v>
+        <v>833346.11508108512</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>703537.60147066228</v>
+        <v>145825.30114625586</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>261.08154299999978</v>
+        <v>912.87793000000011</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11657,46 +11657,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>3786.40625</v>
+        <v>2679.4650879999999</v>
       </c>
       <c r="I52">
-        <v>3759.3483890000002</v>
+        <v>2708.5046390000002</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-27.057860999999775</v>
+        <v>29.039551000000301</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-442.31805837036745</v>
+        <v>-1019.2791337870372</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-290.62426646296444</v>
+        <v>-618.57330083333363</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>195645.26476053178</v>
+        <v>1038929.9525736527</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>84462.464257136162</v>
+        <v>382632.92850384588</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>128548.36125721072</v>
+        <v>630498.85825718869</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>732.12784189530885</v>
+        <v>843.29552228161856</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>100921.93410939505</v>
+        <v>347550.04219255125</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>27.057860999999775</v>
+        <v>29.039551000000301</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11724,46 +11724,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>7286.5375979999999</v>
+        <v>4878.1811520000001</v>
       </c>
       <c r="I53">
-        <v>7535.3227539999998</v>
+        <v>7626.9677730000003</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>248.78515599999992</v>
+        <v>2748.7866210000002</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>3333.6563066296321</v>
+        <v>3899.1840002129629</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>3209.5070815370354</v>
+        <v>1580.1427631666666</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>11113264.37073152</v>
+        <v>15203635.867516764</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>10300935.706436379</v>
+        <v>2496851.151987988</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>10699393.523538403</v>
+        <v>6161267.3801917676</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>61894.053845944291</v>
+        <v>7555827.8877885984</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>11959785.200208915</v>
+        <v>18739629.613101598</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>248.78515599999992</v>
+        <v>2748.7866210000002</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11791,46 +11791,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>9013.2304690000001</v>
+        <v>6815.6694340000004</v>
       </c>
       <c r="I54">
-        <v>7875.0161129999997</v>
+        <v>8306.2246090000008</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-1138.2143560000004</v>
+        <v>1490.5551750000004</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>3673.349665629632</v>
+        <v>4578.4408362129634</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>4936.1999525370356</v>
+        <v>3517.6310451666668</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>13493497.76598133</v>
+        <v>20962120.490702458</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>24366069.971426632</v>
+        <v>12373728.169920336</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>18132388.445132926</v>
+        <v>16105265.623921555</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>1295531.9202044958</v>
+        <v>2221754.7297192817</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>14424694.59150278</v>
+        <v>25081929.215867288</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1138.2143560000004</v>
+        <v>1490.5551750000004</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11858,46 +11858,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>5035.4833980000003</v>
+        <v>3229.7885740000002</v>
       </c>
       <c r="I55">
-        <v>5321.919922</v>
+        <v>4415.0346680000002</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>286.43652399999974</v>
+        <v>1185.2460940000001</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>1120.2534746296324</v>
+        <v>687.25089521296286</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>958.45288153703586</v>
+        <v>-68.249814833333403</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>1254967.8474197644</v>
+        <v>472313.79297101888</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>918631.92612664727</v>
+        <v>4658.0372247842961</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1073710.1708106478</v>
+        <v>-46904.746342327329</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>82045.88228120243</v>
+        <v>1404808.3033422569</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1549749.6320183538</v>
+        <v>1247680.687672178</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>286.43652399999974</v>
+        <v>1185.2460940000001</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11925,46 +11925,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>4523.2753910000001</v>
+        <v>3297.389893</v>
       </c>
       <c r="I56">
-        <v>4853.1923829999996</v>
+        <v>4622.4589839999999</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>329.91699199999948</v>
+        <v>1325.0690909999998</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>651.52593562963193</v>
+        <v>894.67521121296249</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>446.24487453703568</v>
+        <v>-0.64849583333352712</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>424486.04479806731</v>
+        <v>800443.73355895909</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>199134.48805057473</v>
+        <v>0.42054684585094576</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>290740.10940266988</v>
+        <v>-580.19314665839954</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>108845.22161032772</v>
+        <v>1755808.0959235658</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>602427.24306625442</v>
+        <v>1754089.9129016267</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>329.91699199999948</v>
+        <v>1325.0690909999998</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11992,46 +11992,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>2337.3051759999998</v>
+        <v>1681.9351810000001</v>
       </c>
       <c r="I57">
-        <v>3208.139404</v>
+        <v>1865.493408</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>870.83422800000017</v>
+        <v>183.55822699999999</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-993.52704337036766</v>
+        <v>-1862.2903647870373</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-1739.7253404629646</v>
+        <v>-1616.1032078333335</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>987095.98590826441</v>
+        <v>3468125.4027786367</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>3026644.2602489782</v>
+        <v>2611789.5783691909</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>1728464.1737866756</v>
+        <v>3009653.43244944</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>758352.25265635632</v>
+        <v>33693.622699383523</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>754971.76531712792</v>
+        <v>2052185.1221107759</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>870.83422800000017</v>
+        <v>183.55822699999999</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12059,46 +12059,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>1852.8797609999999</v>
+        <v>1443.9331050000001</v>
       </c>
       <c r="I58">
-        <v>2391.750732</v>
+        <v>1437.4764399999999</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>538.87097100000005</v>
+        <v>-6.4566650000001573</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-1809.9157153703677</v>
+        <v>-2290.3073327870375</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-2224.1507554629643</v>
+        <v>-1854.1052838333335</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>3275794.8967446298</v>
+        <v>5245507.6786180735</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>4946846.5830264753</v>
+        <v>3437706.4035386862</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>4025525.4056652947</v>
+        <v>4246470.9273226755</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>290381.92338648287</v>
+        <v>41.68852292222703</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>2840167.9519195361</v>
+        <v>3461690.7654464925</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>538.87097100000005</v>
+        <v>6.4566650000001573</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12126,46 +12126,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1739.214966</v>
+        <v>1342.4429929999999</v>
       </c>
       <c r="I59">
-        <v>2629.6972660000001</v>
+        <v>1133.1687010000001</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>890.48230000000012</v>
+        <v>-209.27429199999983</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-1571.9691813703676</v>
+        <v>-2594.6150717870373</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2337.8155504629644</v>
+        <v>-1955.5953958333337</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>2471087.1071782233</v>
+        <v>6732027.3707444528</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>5465381.5479864534</v>
+        <v>3824353.3522045328</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>3674973.9970561815</v>
+        <v>5074017.2883465048</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>792958.72661329026</v>
+        <v>43795.72929210119</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>2094773.5378956897</v>
+        <v>4686660.765299595</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>890.48230000000012</v>
+        <v>209.27429199999983</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12193,46 +12193,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>2620.6538089999999</v>
+        <v>1723.336548</v>
       </c>
       <c r="I60">
-        <v>2412.9174800000001</v>
+        <v>1522.413452</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-207.73632899999984</v>
+        <v>-200.92309599999999</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-1788.7489673703676</v>
+        <v>-2205.3703207870376</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-1456.3767074629645</v>
+        <v>-1574.7018408333336</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>3199622.8682685564</v>
+        <v>4863658.2518083211</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>2121033.1140406653</v>
+        <v>2479685.8875238895</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>2605092.3315766337</v>
+        <v>3472800.7038625474</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>43154.382386396173</v>
+        <v>40370.090506225213</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>2769272.1981259873</v>
+        <v>3152843.9163043797</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>207.73632899999984</v>
+        <v>200.92309599999999</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12260,46 +12260,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>3591.2822270000001</v>
+        <v>3868.5756839999999</v>
       </c>
       <c r="I61">
-        <v>2910.2585450000001</v>
+        <v>3855.678711</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-681.02368200000001</v>
+        <v>-12.896972999999889</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-1291.4079023703675</v>
+        <v>127.89493821296264</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-485.74828946296429</v>
+        <v>570.53729516666635</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>1667734.3703046327</v>
+        <v>16357.115220497531</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>235951.40071619576</v>
+        <v>325512.80517609575</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>627299.17957536085</v>
+        <v>72968.832113531622</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>463793.25544483715</v>
+        <v>166.33191256272613</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>1361356.8333915723</v>
+        <v>310962.72890614357</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>681.02368200000001</v>
+        <v>12.896972999999889</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12327,46 +12327,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>7721.1186520000001</v>
+        <v>6150.8237300000001</v>
       </c>
       <c r="I62">
-        <v>5873.5415039999998</v>
+        <v>6050.8212890000004</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-1847.5771480000003</v>
+        <v>-100.00244099999964</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>1671.8750566296321</v>
+        <v>2323.0375162129631</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>3644.0881355370357</v>
+        <v>2852.7853411666665</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2795166.2049803357</v>
+        <v>5396503.3017328922</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>13279378.339561788</v>
+        <v>8138384.2027754141</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>6092460.057964352</v>
+        <v>6627127.373232563</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>3413541.3178118151</v>
+        <v>10000.488205958409</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>3227451.728341294</v>
+        <v>7577813.6954500051</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>1847.5771480000003</v>
+        <v>100.00244099999964</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12394,46 +12394,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>8808.5097659999992</v>
+        <v>7235.0991210000002</v>
       </c>
       <c r="I63">
-        <v>8805.2763670000004</v>
+        <v>8543.9257809999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-3.2333989999988262</v>
+        <v>1308.8266599999997</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>4603.6099196296327</v>
+        <v>4816.1420082129625</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>4731.4792495370348</v>
+        <v>3937.0607321666666</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>21193224.292112354</v>
+        <v>23195223.843273588</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>22386895.888799541</v>
+        <v>15500447.208768729</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>21781884.807690464</v>
+        <v>18961443.581073567</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>10.454869093193409</v>
+        <v>1713027.2259267548</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>22356308.823120698</v>
+        <v>27519334.531293187</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>3.2333989999988262</v>
+        <v>1308.8266599999997</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12461,46 +12461,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>5525.8139650000003</v>
+        <v>4726.173828</v>
       </c>
       <c r="I64">
-        <v>5431.6606449999999</v>
+        <v>4436.7875979999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-94.153320000000349</v>
+        <v>-289.38623000000007</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>1229.9941976296323</v>
+        <v>709.00382521296251</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1448.7834485370358</v>
+        <v>1428.1354391666664</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>1512885.7262025629</v>
+        <v>502686.42416661308</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>2098973.4807548658</v>
+        <v>2039570.832603767</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>1781995.235322403</v>
+        <v>1012553.4892913606</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>8864.8476670224663</v>
+        <v>83744.390113612943</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>1835022.7851402652</v>
+        <v>1296749.7613777081</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>94.153320000000349</v>
+        <v>289.38623000000007</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12528,46 +12528,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>3703.7185060000002</v>
+        <v>2542.4770509999998</v>
       </c>
       <c r="I65">
-        <v>4394.2041019999997</v>
+        <v>3525.6655270000001</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>690.48559599999953</v>
+        <v>983.18847600000026</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>192.53765462963202</v>
+        <v>-202.11824578703727</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-373.31201046296428</v>
+        <v>-755.56133783333371</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>37070.748450279461</v>
+        <v>40851.785280029209</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>139361.85715590036</v>
+        <v>570872.93522849702</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>-71876.618939611784</v>
+        <v>152712.73218738043</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>476770.35828347458</v>
+        <v>966659.57933920308</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>100599.08336241901</v>
+        <v>51814.114029946708</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>690.48559599999953</v>
+        <v>983.18847600000026</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12595,46 +12595,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>2385.8247070000002</v>
+        <v>2104.92749</v>
       </c>
       <c r="I66">
-        <v>2779.251953</v>
+        <v>2292.0695799999999</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>393.42724599999974</v>
+        <v>187.14208999999983</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1422.4144943703677</v>
+        <v>-1435.7141927870375</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1691.2058094629642</v>
+        <v>-1193.1108988333335</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>2023262.9937949087</v>
+        <v>2061275.2433701348</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>2860177.0899612801</v>
+        <v>1423513.6169148851</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>2405595.6563434908</v>
+        <v>1712966.2510239163</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>154784.9978951443</v>
+        <v>35022.161849568038</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>1684229.1997839957</v>
+        <v>1011973.2443455562</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>393.42724599999974</v>
+        <v>187.14208999999983</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12662,46 +12662,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>2486.2780760000001</v>
+        <v>2357.032471</v>
       </c>
       <c r="I67">
-        <v>2909.0417480000001</v>
+        <v>2243.1252439999998</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>422.76367200000004</v>
+        <v>-113.90722700000015</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1292.6246993703676</v>
+        <v>-1484.6585287870375</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-1590.7524404629644</v>
+        <v>-941.00591783333357</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>1670878.6134223333</v>
+        <v>2204210.9471000908</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>2530493.3268388771</v>
+        <v>885492.13739735459</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>2056245.8951261179</v>
+        <v>1397072.4615503328</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>178729.12236292363</v>
+        <v>12974.856362829563</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>1364197.763255632</v>
+        <v>1112841.7431421541</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>422.76367200000004</v>
+        <v>113.90722700000015</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12729,46 +12729,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>1900.7827150000001</v>
+        <v>1906.5076899999999</v>
       </c>
       <c r="I68">
-        <v>2317.9670409999999</v>
+        <v>1480.322754</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>417.18432599999983</v>
+        <v>-426.18493599999988</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-1883.6994063703678</v>
+        <v>-2247.4610187870376</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-2176.2478014629642</v>
+        <v>-1391.5306988333336</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>3548323.4535600762</v>
+        <v>5051081.0309672691</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>4736054.4933723854</v>
+        <v>1936357.6857955859</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>4099396.6917306036</v>
+        <v>3127411.0020734025</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>174042.76186007413</v>
+        <v>181633.599673324</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>3094304.3107078439</v>
+        <v>3304090.1291175489</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>417.18432599999983</v>
+        <v>426.18493599999988</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12796,46 +12796,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>1738.385376</v>
+        <v>1455.980591</v>
       </c>
       <c r="I69">
-        <v>2099.8784179999998</v>
+        <v>1321.229126</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>361.49304199999983</v>
+        <v>-134.75146500000005</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-2101.7880293703679</v>
+        <v>-2406.5546467870372</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-2338.6451404629643</v>
+        <v>-1842.0577978333336</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>4417512.9204045748</v>
+        <v>5791505.2679722812</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>5469261.0930110374</v>
+        <v>3393176.9305585902</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>4915336.3611702407</v>
+        <v>4433012.7530261055</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>130677.21941441364</v>
+        <v>18157.957319646241</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>3909130.4204565049</v>
+        <v>3907774.8616236676</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>361.49304199999983</v>
+        <v>134.75146500000005</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12863,46 +12863,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>1662.424072</v>
+        <v>975.89502000000005</v>
       </c>
       <c r="I70">
-        <v>1917.755371</v>
+        <v>1195.977783</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>255.33129899999994</v>
+        <v>220.082763</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-2283.9110763703675</v>
+        <v>-2531.8059897870371</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-2414.6064444629646</v>
+        <v>-2322.1433688333336</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>5216249.804767251</v>
+        <v>6410041.5699215187</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>5830324.2816420803</v>
+        <v>5392349.8254166236</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>5514746.4035842353</v>
+        <v>5879216.4903564826</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>65194.072249027369</v>
+        <v>48436.422569714166</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>4662469.1538141053</v>
+        <v>4418658.7905964004</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>255.33129899999994</v>
+        <v>220.082763</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12930,46 +12930,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>1640.3079829999999</v>
+        <v>759.93804899999998</v>
       </c>
       <c r="I71">
-        <v>1826.5020750000001</v>
+        <v>1071.323975</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>186.19409200000018</v>
+        <v>311.38592600000004</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-2375.1643723703673</v>
+        <v>-2656.4597977870371</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-2436.7225334629647</v>
+        <v>-2538.1003398333337</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>5641405.7957775211</v>
+        <v>7056778.6572587462</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>5937616.7050861698</v>
+        <v>6441953.3350620838</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>5787616.5468332944</v>
+        <v>6742361.5155168679</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>34668.23989570453</v>
+        <v>96961.194910877501</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>5064878.2658337187</v>
+        <v>4958257.0807731254</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>186.19409200000018</v>
+        <v>311.38592600000004</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12997,46 +12997,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>2141.2033689999998</v>
+        <v>929.54351799999995</v>
       </c>
       <c r="I72">
-        <v>1752.3474120000001</v>
+        <v>1295.8088379999999</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-388.85595699999976</v>
+        <v>366.26531999999997</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-2449.3190353703676</v>
+        <v>-2431.9749347870375</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-1935.8271474629646</v>
+        <v>-2368.4948708333336</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>5999163.7370276283</v>
+        <v>5914502.0834324155</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>3747426.7448545983</v>
+        <v>5609767.9531638101</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>4741458.2814677591</v>
+        <v>5760120.1590383295</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>151208.95529438567</v>
+        <v>134150.28463470237</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>5404151.5361755658</v>
+        <v>4008923.1742302529</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>388.85595699999976</v>
+        <v>366.26531999999997</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13064,46 +13064,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>2183.0026859999998</v>
+        <v>941.76611300000002</v>
       </c>
       <c r="I73">
-        <v>1729.244263</v>
+        <v>1367.61438</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-453.75842299999977</v>
+        <v>425.84826699999996</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-2472.4221843703676</v>
+        <v>-2360.1693927870374</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-1894.0278304629646</v>
+        <v>-2356.2722758333334</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>6112871.4577667406</v>
+        <v>5570399.5626487331</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>3587341.4225682449</v>
+        <v>5552019.0378607968</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>4682836.4258515118</v>
+        <v>5561201.7064944897</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>205896.70644344672</v>
+        <v>181346.74650690326</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>5512100.2919496633</v>
+        <v>3726536.8538801582</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>453.75842299999977</v>
+        <v>425.84826699999996</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13131,46 +13131,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>4550.3544920000004</v>
+        <v>4485.5122069999998</v>
       </c>
       <c r="I74">
-        <v>3132.5451659999999</v>
+        <v>2830.1823730000001</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-1417.8093260000005</v>
+        <v>-1655.3298339999997</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-1069.1212813703678</v>
+        <v>-897.60139978703728</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>473.32397553703595</v>
+        <v>1187.4738181666662</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>1143020.314279017</v>
+        <v>805688.27289964876</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>224035.5858181846</v>
+        <v>1410094.0688313206</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>-506040.73522947251</v>
+        <v>-1065878.1613968574</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>2010183.2848925758</v>
+        <v>2740116.8593304665</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>892052.57723914902</v>
+        <v>218889.25155144036</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>1417.8093260000005</v>
+        <v>1655.3298339999997</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13198,46 +13198,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>8932.8554690000001</v>
+        <v>8208.0449219999991</v>
       </c>
       <c r="I75">
-        <v>8454.3652340000008</v>
+        <v>8990.6689449999994</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>-478.4902349999993</v>
+        <v>782.62402300000031</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>4252.6987866296331</v>
+        <v>5262.8851722129621</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>4855.8249525370356</v>
+        <v>4910.0065331666656</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>18085446.969801154</v>
+        <v>27697960.335899059</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>23579035.969681304</v>
+        <v>24108164.155739337</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>20650360.883740146</v>
+        <v>25840800.578871615</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>228952.90499035455</v>
+        <v>612500.361376705</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>19161059.229355045</v>
+        <v>32406042.649002403</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>478.4902349999993</v>
+        <v>782.62402300000031</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13265,46 +13265,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>6805.1752930000002</v>
+        <v>5554.1293949999999</v>
       </c>
       <c r="I76">
-        <v>5990.5893550000001</v>
+        <v>5716.5898440000001</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-814.58593800000017</v>
+        <v>162.46044900000015</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>1788.9229076296324</v>
+        <v>1988.8060712129627</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>2728.1447765370358</v>
+        <v>2256.0910061666664</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>3200245.1694420581</v>
+        <v>3955349.5888935402</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>7442773.9217463126</v>
+        <v>5089946.628106121</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>4880440.6860772278</v>
+        <v>4486927.4902732279</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>663550.25038734009</v>
+        <v>26393.397489281651</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>3661707.4285432086</v>
+        <v>5849391.1412888002</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>814.58593800000017</v>
+        <v>162.46044900000015</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13332,46 +13332,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>5643.7666019999997</v>
+        <v>3833.2016600000002</v>
       </c>
       <c r="I77">
-        <v>5863.1181640000004</v>
+        <v>4660.3125</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>219.35156200000074</v>
+        <v>827.11083999999983</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>1661.4517166296328</v>
+        <v>932.52872721296262</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>1566.7360855370353</v>
+        <v>535.16327116666662</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>2760421.8066915534</v>
+        <v>869609.82707742811</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>2454661.961723912</v>
+        <v>286399.72680580715</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>2603056.3588210982</v>
+        <v>499055.12411217717</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>48115.107751840165</v>
+        <v>684112.34164550528</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>3190109.0846843831</v>
+        <v>1855790.7539549312</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>219.35156200000074</v>
+        <v>827.11083999999983</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13399,46 +13399,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>6353.0014650000003</v>
+        <v>4268.4189450000003</v>
       </c>
       <c r="I78">
-        <v>6886.216797</v>
+        <v>5370.0341799999997</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>533.21533199999976</v>
+        <v>1101.6152349999993</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>2684.5503496296324</v>
+        <v>1642.2504072129623</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>2275.9709485370358</v>
+        <v>970.38055616666679</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>7206810.5796965817</v>
+        <v>2696986.3999911402</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>5180043.7585845748</v>
+        <v>941638.42378632957</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>6109958.6056419853</v>
+        <v>1593607.8635162495</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>284318.59027986997</v>
+        <v>1213556.1259841037</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>7891527.5587575044</v>
+        <v>4293166.5586123783</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>533.21533199999976</v>
+        <v>1101.6152349999993</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13466,46 +13466,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>4085.046875</v>
+        <v>2346.5759280000002</v>
       </c>
       <c r="I79">
-        <v>3833.6987300000001</v>
+        <v>2892.6667480000001</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-251.34814499999993</v>
+        <v>546.09081999999989</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-367.96771737036761</v>
+        <v>-835.11702478703728</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>8.0163585370355577</v>
+        <v>-951.46246083333335</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>135400.24102675874</v>
+        <v>697420.44508915301</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>64.262004194302861</v>
+        <v>905280.81437502243</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>-2949.7611524954336</v>
+        <v>794582.49948768632</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>63175.88999494099</v>
+        <v>298215.18368827226</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>59210.358303257693</v>
+        <v>164326.1671919091</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>251.34814499999993</v>
+        <v>546.09081999999989</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13533,46 +13533,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2517.9189449999999</v>
+        <v>2012.51062</v>
       </c>
       <c r="I80">
-        <v>2902.6779790000001</v>
+        <v>2139.8793949999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>384.75903400000016</v>
+        <v>127.36877499999991</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-1298.9884683703676</v>
+        <v>-1587.9043777870374</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-1559.1115714629645</v>
+        <v>-1285.5277688333335</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>1687371.0409591936</v>
+        <v>2521440.3129952387</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>2430828.8922697147</v>
+        <v>1652581.6444416086</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2025267.9522331932</v>
+        <v>2041295.171897253</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>148039.51424461327</v>
+        <v>16222.804845000603</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>1379103.8822457031</v>
+        <v>1341332.2549970397</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>384.75903400000016</v>
+        <v>127.36877499999991</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13600,46 +13600,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>1986.948486</v>
+        <v>1603.2926030000001</v>
       </c>
       <c r="I81">
-        <v>2419.0139159999999</v>
+        <v>1690.524048</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>432.06542999999988</v>
+        <v>87.231444999999894</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-1782.6525313703678</v>
+        <v>-2037.2597247870374</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-2090.0820304629642</v>
+        <v>-1694.7457858333335</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>3177850.0476011802</v>
+        <v>4150427.1862393552</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>4368442.8940641871</v>
+        <v>2872163.2785998429</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>3725890.0223765215</v>
+        <v>3452637.3332308084</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>186680.5358010848</v>
+        <v>7609.3249967880065</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>2749019.0474107657</v>
+        <v>2584102.355984827</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>432.06542999999988</v>
+        <v>87.231444999999894</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13667,46 +13667,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>1809.718018</v>
+        <v>1425.6701660000001</v>
       </c>
       <c r="I82">
-        <v>2062.8562010000001</v>
+        <v>1290.2116699999999</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>253.13818300000003</v>
+        <v>-135.4584960000002</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-2138.8102463703676</v>
+        <v>-2437.5721027870377</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-2267.3124984629644</v>
+        <v>-1872.3682228333334</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>4574509.2699788725</v>
+        <v>5941757.7562856209</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>5140705.9656863697</v>
+        <v>3505762.7618760555</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>4849351.2034361865</v>
+        <v>4564032.5461234776</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>64078.939692541506</v>
+        <v>18349.00413858207</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>4056898.1730707013</v>
+        <v>4031368.1328610308</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>253.13818300000003</v>
+        <v>135.4584960000002</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13734,46 +13734,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1693.80249</v>
+        <v>1321.756836</v>
       </c>
       <c r="I83">
-        <v>1955.5241699999999</v>
+        <v>1168.6256100000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>261.72167999999988</v>
+        <v>-153.13122599999997</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-2246.142277370368</v>
+        <v>-2559.1581627870373</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-2383.2280264629644</v>
+        <v>-1976.2815528333335</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>5045155.1301905429</v>
+        <v>6549290.5021595238</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>5679775.8261185559</v>
+        <v>3905688.7760693319</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>5353069.2268524105</v>
+        <v>5057617.0678988667</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>68498.237782022334</v>
+        <v>23449.172376263068</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>4500789.1780826375</v>
+        <v>4534398.782658699</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>261.72167999999988</v>
+        <v>153.13122599999997</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13801,46 +13801,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>2565.3654790000001</v>
+        <v>1807.9968260000001</v>
       </c>
       <c r="I84">
-        <v>1880.517578</v>
+        <v>1636.4364009999999</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-684.84790100000009</v>
+        <v>-171.56042500000012</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-2321.1488693703677</v>
+        <v>-2091.3473717870374</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-1511.6650374629644</v>
+        <v>-1490.0415628333335</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>5387732.0737793362</v>
+        <v>4373733.8294805493</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>2285131.1854879055</v>
+        <v>2220223.8589708027</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>3508799.5925738742</v>
+        <v>3116194.5062849419</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>469016.64750410593</v>
+        <v>29432.979426180667</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>4824669.0888352068</v>
+        <v>2760921.1659716857</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>684.84790100000009</v>
+        <v>171.56042500000012</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13868,46 +13868,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>7239.0942379999997</v>
+        <v>7734.8129879999997</v>
       </c>
       <c r="I85">
-        <v>3738.2863769999999</v>
+        <v>5785.9057620000003</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-3500.8078609999998</v>
+        <v>-1948.9072259999994</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>-463.38007037036778</v>
+        <v>2058.1219892129629</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>3162.0637215370352</v>
+        <v>4436.7745991666661</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>214721.08961644699</v>
+        <v>4235866.1224819236</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>9998646.9790606443</v>
+        <v>19684968.843810532</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>-1465237.3098014183</v>
+        <v>9131423.3637264445</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>12255655.679639393</v>
+        <v>3798239.3755550124</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>114747.59202050437</v>
+        <v>6189484.0664672107</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>3500.8078609999998</v>
+        <v>1948.9072259999994</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13935,46 +13935,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6029.1806640000004</v>
+        <v>6234.0634769999997</v>
       </c>
       <c r="I86">
-        <v>4100.7963870000003</v>
+        <v>5835.2709960000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-1928.3842770000001</v>
+        <v>-398.7924809999995</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>-100.87006037036736</v>
+        <v>2107.4872232129628</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>1952.150147537036</v>
+        <v>2936.0250881666661</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>10174.769079121555</v>
+        <v>4441502.3960058847</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>3810890.1985288714</v>
+        <v>8620243.318344079</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>-196913.50323408237</v>
+        <v>6187635.360343962</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>3718665.9197808132</v>
+        <v>159035.44290213496</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>564.8166023831501</v>
+        <v>6437549.3028697604</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>1928.3842770000001</v>
+        <v>398.7924809999995</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -14002,46 +14002,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>3525.202393</v>
+        <v>3465.6154790000001</v>
       </c>
       <c r="I87">
-        <v>5770.8666990000002</v>
+        <v>5423.5200199999999</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>2245.6643060000001</v>
+        <v>1957.9045409999999</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>1569.2002516296325</v>
+        <v>1695.7362472129626</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>-551.82812346296441</v>
+        <v>167.57709016666649</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>2462389.4297145018</v>
+        <v>2875521.4201119016</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>304514.27784465672</v>
+        <v>28082.081148727073</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>-865928.83019439166</v>
+        <v>284166.54599809129</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>5043008.1752424622</v>
+        <v>3833390.1916684201</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>2869081.0132716382</v>
+        <v>4517672.1644269126</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>2245.6643060000001</v>
+        <v>1957.9045409999999</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14069,46 +14069,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4693.7817379999997</v>
+        <v>3673.352539</v>
       </c>
       <c r="I88">
-        <v>4150.578125</v>
+        <v>3431.076904</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-543.20361299999968</v>
+        <v>-242.27563499999997</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-51.088322370367678</v>
+        <v>-296.70686878703737</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>616.75122153703524</v>
+        <v>375.31415016666642</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>2610.0166826186105</v>
+        <v>88034.965985408213</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>380382.0692674251</v>
+        <v>140860.71131532703</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>-31508.785228202109</v>
+        <v>-111358.28630741953</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>295070.16517625342</v>
+        <v>58697.483314653211</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>5409.2507215170253</v>
+        <v>17699.24651775134</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>543.20361299999968</v>
+        <v>242.27563499999997</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14136,46 +14136,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>7980.4072269999997</v>
+        <v>7341.8979490000002</v>
       </c>
       <c r="I89">
-        <v>5957.5327150000003</v>
+        <v>6139.3974609999996</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-2022.8745119999994</v>
+        <v>-1202.5004880000006</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>1755.8662676296326</v>
+        <v>2411.6136882129622</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>3903.3767105370353</v>
+        <v>4043.8595601666666</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>3083066.3497996167</v>
+        <v>5815880.5811761264</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>15236349.744362926</v>
+        <v>16352800.142351346</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>6853807.4958830969</v>
+        <v>9752227.0685087815</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>4092021.2912992355</v>
+        <v>1446007.4236402395</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>3536288.5187026253</v>
+        <v>8073321.3769838167</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>2022.8745119999994</v>
+        <v>1202.5004880000006</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14203,46 +14203,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>9607.3710940000001</v>
+        <v>7085.6723629999997</v>
       </c>
       <c r="I90">
-        <v>8375.7197269999997</v>
+        <v>9053.6787110000005</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>-1231.6513670000004</v>
+        <v>1968.0063480000008</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>4174.053279629632</v>
+        <v>5325.8949382129631</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>5530.3405775370356</v>
+        <v>3787.6339741666661</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>17422720.781186886</v>
+        <v>28365156.892882463</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>30584666.903552674</v>
+        <v>14346171.122261573</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>23083936.225137297</v>
+        <v>20172540.610817697</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>1516965.0898329697</v>
+        <v>3873048.9857683</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>18478728.928787518</v>
+        <v>33127395.518150814</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1231.6513670000004</v>
+        <v>1968.0063480000008</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14270,46 +14270,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>6237.9345700000003</v>
+        <v>4439.4423829999996</v>
       </c>
       <c r="I91">
-        <v>6519.3857420000004</v>
+        <v>5825.9858400000003</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>281.45117200000004</v>
+        <v>1386.5434570000007</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>2317.7192946296327</v>
+        <v>2098.2020672129629</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>2160.9040535370359</v>
+        <v>1141.4039941666661</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>5371822.7286984818</v>
+        <v>4402451.9148567505</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>4669506.3285927931</v>
+        <v>1302803.0778996185</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>5008369.0187261729</v>
+        <v>2394896.2200856316</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>79214.762220173609</v>
+        <v>1922502.7581495128</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>5965099.0477080662</v>
+        <v>6390518.315860047</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>281.45117200000004</v>
+        <v>1386.5434570000007</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14337,46 +14337,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>5693.095703</v>
+        <v>3948.8469239999999</v>
       </c>
       <c r="I92">
-        <v>6199.123047</v>
+        <v>6174.6899409999996</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>506.02734400000008</v>
+        <v>2225.8430169999997</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>1997.4565996296324</v>
+        <v>2446.9061682129623</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>1616.0651865370355</v>
+        <v>650.80853516666639</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>3989832.8674039734</v>
+        <v>5987349.7960386416</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>2611666.6871369835</v>
+        <v>423551.74944578204</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>3228020.0722800945</v>
+        <v>1592467.4190249585</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>256063.67287569444</v>
+        <v>4954377.1363276606</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>4503276.7081610793</v>
+        <v>8275124.1525828894</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>506.02734400000008</v>
+        <v>2225.8430169999997</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14404,46 +14404,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>2723.3527829999998</v>
+        <v>1938.3732910000001</v>
       </c>
       <c r="I93">
-        <v>3566.188232</v>
+        <v>2759.5747070000002</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>842.83544900000015</v>
+        <v>821.20141600000011</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-635.47821537036771</v>
+        <v>-968.20906578703716</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-1353.6777334629646</v>
+        <v>-1359.6650978333334</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>403832.56221030746</v>
+        <v>937428.79507220723</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>1832443.4060734292</v>
+        <v>1848689.1782661283</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>860232.710247649</v>
+        <v>1316440.0741564522</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>710371.59409103182</v>
+        <v>674371.76564040524</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>260959.83959534031</v>
+        <v>289943.13665350922</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>842.83544900000015</v>
+        <v>821.20141600000011</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14471,46 +14471,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>1846.3857419999999</v>
+        <v>1459.669189</v>
       </c>
       <c r="I94">
-        <v>2445.352539</v>
+        <v>1388.409058</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>598.96679700000004</v>
+        <v>-71.260131000000001</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-1756.3139083703677</v>
+        <v>-2339.3747147870372</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-2230.6447744629645</v>
+        <v>-1838.3691998333336</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>3084638.5447351965</v>
+        <v>5472674.0561849317</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>4975776.10983893</v>
+        <v>3379601.3148958511</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>3917712.4420229867</v>
+        <v>4300634.4225333789</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>358761.22390843928</v>
+        <v>5078.0062701371608</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>2662373.0221376303</v>
+        <v>3646684.1811789656</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>598.96679700000004</v>
+        <v>71.260131000000001</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14538,46 +14538,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1769.50415</v>
+        <v>1382.4578859999999</v>
       </c>
       <c r="I95">
-        <v>3261.0795899999998</v>
+        <v>1136.223755</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>1491.5754399999998</v>
+        <v>-246.23413099999993</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-940.58685737036785</v>
+        <v>-2591.5600177870374</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-2307.5263664629647</v>
+        <v>-1915.5805028333336</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>884703.63625786477</v>
+        <v>6716183.3257923499</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>5324677.9319217727</v>
+        <v>3669448.6628352073</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>2170428.9733306635</v>
+        <v>4964341.841995256</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>2224797.2932111933</v>
+        <v>60631.247269325126</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>665775.91439577029</v>
+        <v>4673442.5110559501</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>1491.5754399999998</v>
+        <v>246.23413099999993</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14605,46 +14605,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>2848.7585450000001</v>
+        <v>2360.2602539999998</v>
       </c>
       <c r="I96">
-        <v>2321.0834960000002</v>
+        <v>1847.5541989999999</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-527.67504899999994</v>
+        <v>-512.70605499999988</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-1880.5829513703675</v>
+        <v>-1880.2295737870375</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-1228.2719714629643</v>
+        <v>-937.77813483333375</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>3536592.236984882</v>
+        <v>3535263.2501433846</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>1508652.035881517</v>
+        <v>879427.83017148625</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>2309867.3291793214</v>
+        <v>1763238.182764482</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>278440.95733715233</v>
+        <v>262867.49883366289</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>3083349.9386727619</v>
+        <v>2103904.3849564623</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>527.67504899999994</v>
+        <v>512.70605499999988</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14672,46 +14672,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>5374.2094729999999</v>
+        <v>6108.923828</v>
       </c>
       <c r="I97">
-        <v>4142.7758789999998</v>
+        <v>5111.8559569999998</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-1231.4335940000001</v>
+        <v>-997.0678710000002</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-58.890568370367873</v>
+        <v>1384.0721842129624</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>1297.1789565370354</v>
+        <v>2810.8854391666664</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>3468.099042984973</v>
+        <v>1915655.8111120404</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>1682673.2452825122</v>
+        <v>7901076.9521191828</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>-76391.606028546739</v>
+        <v>3890468.3493598201</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>1516428.696431757</v>
+        <v>994144.33938047301</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>4322.4526951262133</v>
+        <v>3289934.1705900389</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>1231.4335940000001</v>
+        <v>997.0678710000002</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14739,46 +14739,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7717.1079099999997</v>
+        <v>7255.939453</v>
       </c>
       <c r="I98">
-        <v>7005.9467770000001</v>
+        <v>7941.2744140000004</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>-711.16113299999961</v>
+        <v>685.33496100000048</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>2804.2803296296324</v>
+        <v>4213.4906412129631</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>3640.0773935370353</v>
+        <v>3957.9010641666664</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>7863988.1671476802</v>
+        <v>17753503.383589227</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>13250163.430939376</v>
+        <v>15664980.833731631</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>10207797.43302541</v>
+        <v>16676579.092713077</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>505750.15708984312</v>
+        <v>469684.00876887218</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>8578550.461238252</v>
+        <v>21559640.785405546</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>711.16113299999961</v>
+        <v>685.33496100000048</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14806,46 +14806,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>4102.1357420000004</v>
+        <v>4019.8405760000001</v>
       </c>
       <c r="I99">
-        <v>3725.195068</v>
+        <v>5123.0849609999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-376.9406740000004</v>
+        <v>1103.2443849999995</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-476.47137937036769</v>
+        <v>1395.3011882129622</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>25.105225537035949</v>
+        <v>721.8021871666665</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>227024.97535910085</v>
+        <v>1946865.4058285041</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>630.2723492654419</v>
+        <v>520998.39739858347</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>-11961.921441035698</v>
+        <v>1007131.4494083647</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>142084.27171557458</v>
+        <v>1217148.1730340272</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>123788.18279513532</v>
+        <v>3330794.9905772978</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>376.9406740000004</v>
+        <v>1103.2443849999995</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14873,46 +14873,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5895.6918949999999</v>
+        <v>5334.2202150000003</v>
       </c>
       <c r="I100">
-        <v>5450.3286129999997</v>
+        <v>5244.8569340000004</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-445.36328200000025</v>
+        <v>-89.363280999999915</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>1248.662165629632</v>
+        <v>1517.073161212963</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>1818.6613785370355</v>
+        <v>2036.1818261666667</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>1559157.2038748825</v>
+        <v>2301510.9764726926</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>3307529.2097822302</v>
+        <v>4146036.4292114219</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>2270893.6554710269</v>
+        <v>3089036.799827049</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>198348.45295381176</v>
+        <v>7985.7959910849459</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>1885947.6619522441</v>
+        <v>3790102.447804857</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>445.36328200000025</v>
+        <v>89.363280999999915</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14940,46 +14940,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>3120.3547359999998</v>
+        <v>2578.8488769999999</v>
       </c>
       <c r="I101">
-        <v>3702.6525879999999</v>
+        <v>3818.216797</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>582.29785200000015</v>
+        <v>1239.3679200000001</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-499.01385937036775</v>
+        <v>90.433024212962664</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-956.67578046296467</v>
+        <v>-719.18951183333365</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>249014.83184370917</v>
+        <v>8178.1318683022919</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>915228.54892442259</v>
+        <v>517233.55393106875</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>477394.47337498266</v>
+        <v>-65038.48253733266</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>339070.78844381409</v>
+        <v>1536032.8411251267</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>140158.83332022058</v>
+        <v>270585.57632280706</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>582.29785200000015</v>
+        <v>1239.3679200000001</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -15007,46 +15007,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>3877.8793949999999</v>
+        <v>2947.0534670000002</v>
       </c>
       <c r="I102">
-        <v>3429.6477049999999</v>
+        <v>2707.4956050000001</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-448.23169000000007</v>
+        <v>-239.55786200000011</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-772.01874237036782</v>
+        <v>-1020.2881677870373</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-199.15112146296451</v>
+        <v>-350.98492183333337</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>596012.93857112434</v>
+        <v>1040987.9453262296</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>39661.169179956443</v>
+        <v>123190.41535435113</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>153748.39833348623</v>
+        <v>358105.7628182082</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>200911.64792025616</v>
+        <v>57387.969246011096</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>419104.50457769237</v>
+        <v>348740.77953762322</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>448.23169000000007</v>
+        <v>239.55786200000011</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15074,46 +15074,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>4765.7529299999997</v>
+        <v>3150.7312010000001</v>
       </c>
       <c r="I103">
-        <v>4782.6220700000003</v>
+        <v>4014.1247560000002</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>16.869140000000698</v>
+        <v>863.39355500000011</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>580.95562262963267</v>
+        <v>286.34098321296278</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>688.72241353703521</v>
+        <v>-147.3071878333335</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>337509.43546498416</v>
+        <v>81991.158667366239</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>474338.56290827895</v>
+        <v>21699.407587364996</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>400117.15857539163</v>
+        <v>-42180.084998533304</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>284.56788433962356</v>
+        <v>745448.43081553816</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>497859.44042280782</v>
+        <v>512779.68524195405</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>16.869140000000698</v>
+        <v>863.39355500000011</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15141,46 +15141,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>2321.7468260000001</v>
+        <v>1935.4331050000001</v>
       </c>
       <c r="I104">
-        <v>4169.2280270000001</v>
+        <v>2712.9604490000002</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>1847.4812010000001</v>
+        <v>777.52734400000008</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-32.438420370367567</v>
+        <v>-1014.8233237870372</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-1755.2836904629644</v>
+        <v>-1362.6052838333335</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>1052.2511161246775</v>
+        <v>1029866.3785021697</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>3081020.8340052837</v>
+        <v>1856693.1595305193</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>56938.630220487779</v>
+        <v>1382803.6231495228</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>3413186.7880484024</v>
+        <v>604548.77066769451</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>8500.3809492268028</v>
+        <v>342316.1956796177</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>1847.4812010000001</v>
+        <v>777.52734400000008</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15208,46 +15208,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>1817.955078</v>
+        <v>1481.8670649999999</v>
       </c>
       <c r="I105">
-        <v>3305.9650879999999</v>
+        <v>1595.2501219999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>1488.01001</v>
+        <v>113.38305700000001</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-895.70135937036775</v>
+        <v>-2132.5336507870375</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-2259.0754384629645</v>
+        <v>-1816.1713238333336</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>802280.92517792468</v>
+        <v>4547699.7717390899</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>5103421.8366666352</v>
+        <v>3298478.2775145238</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>2023456.9411514869</v>
+        <v>3873046.4636690258</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>2214173.7898602001</v>
+        <v>12855.717614665251</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>594541.894970775</v>
+        <v>2899487.8816652684</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>1488.01001</v>
+        <v>113.38305700000001</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15275,46 +15275,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1736.432251</v>
+        <v>1385.2835689999999</v>
       </c>
       <c r="I106">
-        <v>2162.830078</v>
+        <v>1266.549072</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>426.39782700000001</v>
+        <v>-118.73449699999992</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-2038.8363693703677</v>
+        <v>-2461.2347007870376</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-2340.5982654629643</v>
+        <v>-1912.7548198333336</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>4156853.7410673425</v>
+        <v>6057676.2523582587</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>5478400.2402882371</v>
+        <v>3658631.0007956484</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>4772096.8697110899</v>
+        <v>4707738.5366714587</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>181815.10687032194</v>
+        <v>14097.880777842989</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>3664163.3186118053</v>
+        <v>4126948.844407964</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>426.39782700000001</v>
+        <v>118.73449699999992</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15342,46 +15342,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1706.994629</v>
+        <v>1325.791626</v>
       </c>
       <c r="I107">
-        <v>2034.4354249999999</v>
+        <v>1054.820557</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>327.44079599999986</v>
+        <v>-270.97106899999994</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-2167.231022370368</v>
+        <v>-2672.9632157870374</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-2370.0358874629646</v>
+        <v>-1972.2467628333336</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>4696890.3043245105</v>
+        <v>7144732.3529505804</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>5617070.1078623626</v>
+        <v>3889757.2935065636</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>5136415.2994408235</v>
+        <v>5271743.0495085614</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>107217.47488511352</v>
+        <v>73425.320235002728</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>4172194.7076685964</v>
+        <v>5032026.2410550416</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>327.44079599999986</v>
+        <v>270.97106899999994</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15409,46 +15409,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>2171.561279</v>
+        <v>1701.0245359999999</v>
       </c>
       <c r="I108">
-        <v>1857.3195800000001</v>
+        <v>1955.9945070000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-314.24169899999993</v>
+        <v>254.96997100000021</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-2344.3468673703674</v>
+        <v>-1771.7892657870373</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-1905.4692374629644</v>
+        <v>-1597.0138528333337</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>5495962.2345492551</v>
+        <v>3139237.2023581685</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>3630813.0149176912</v>
+        <v>2550453.2461415688</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>4467080.8377169035</v>
+        <v>2829572.0017633</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>98747.845390406554</v>
+        <v>65009.68611174095</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>4927116.6414532894</v>
+        <v>1801081.7807662822</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>314.24169899999993</v>
+        <v>254.96997100000021</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15476,46 +15476,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>2780.4877929999998</v>
+        <v>1726.9293210000001</v>
       </c>
       <c r="I109">
-        <v>1627.963745</v>
+        <v>2288.4916990000002</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-1152.5240479999998</v>
+        <v>561.56237800000008</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-2573.7027023703677</v>
+        <v>-1439.2920737870372</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-1296.5427234629647</v>
+        <v>-1571.1090678333335</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>6623945.6001885328</v>
+        <v>2071561.6736661901</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>1681023.0337647616</v>
+        <v>2468383.7030281262</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>3336915.5111152683</v>
+        <v>2261284.8283874574</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>1328311.6812183058</v>
+        <v>315352.30438501498</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>5997928.0510840276</v>
+        <v>1019184.5189534407</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>1152.5240479999998</v>
+        <v>561.56237800000008</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15543,46 +15543,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>3397.6469729999999</v>
+        <v>3427.961182</v>
       </c>
       <c r="I110">
-        <v>2217.858643</v>
+        <v>2241.2761230000001</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-1179.7883299999999</v>
+        <v>-1186.6850589999999</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-1983.8078043703676</v>
+        <v>-1486.5076497870373</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-679.38354346296455</v>
+        <v>129.92279316666645</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>3935493.4046807787</v>
+        <v>2209704.9928753809</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>461561.99912829383</v>
+        <v>16879.93218422839</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>1347766.3756826241</v>
+        <v>-193131.22592394869</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>1391900.5036041886</v>
+        <v>1408221.4292538334</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>3456520.0550757889</v>
+        <v>1116746.486489201</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>1179.7883299999999</v>
+        <v>1186.6850589999999</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15610,46 +15610,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>5333.9580079999996</v>
+        <v>5644.2211909999996</v>
       </c>
       <c r="I111">
-        <v>4338.9814450000003</v>
+        <v>5094.9677730000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-994.97656299999926</v>
+        <v>-549.25341799999933</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>137.31499762963267</v>
+        <v>1367.1840002129629</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>1256.9274915370352</v>
+        <v>2346.1828021666661</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>18855.408574026027</v>
+        <v>1869192.0904383189</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>1579866.7189815836</v>
+        <v>5504573.741182629</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>172594.99552102812</v>
+        <v>3207663.588697081</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>989978.3609192915</v>
+        <v>301679.317184682</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>68618.288961415295</v>
+        <v>3228955.211681596</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>994.97656299999926</v>
+        <v>549.25341799999933</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B46076-47EC-4E13-BF0B-520006E23EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD08A49-0AE5-475B-8D97-3BBC80841763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="SFork48" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -220,10 +221,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481</t>
+    <t xml:space="preserve"> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
   </si>
 </sst>
 </file>
@@ -906,7 +907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481</c:v>
+                  <c:v> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,328 +931,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5008.3862300000001</c:v>
+                  <c:v>5375.140625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2194.2153320000002</c:v>
+                  <c:v>2507.2370609999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2399.7631839999999</c:v>
+                  <c:v>2900.8276369999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2972.6782229999999</c:v>
+                  <c:v>3452.163818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2534.6623540000001</c:v>
+                  <c:v>2965.7944339999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2429.0747070000002</c:v>
+                  <c:v>2849.1682129999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1436.7573239999999</c:v>
+                  <c:v>1555.255737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1342.1024170000001</c:v>
+                  <c:v>1420.4868160000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1874.454956</c:v>
+                  <c:v>2082.3071289999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2252.8571780000002</c:v>
+                  <c:v>2665.358643</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5705.640625</c:v>
+                  <c:v>6184.736328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6746.6630859999996</c:v>
+                  <c:v>7408.294922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5451.8950199999999</c:v>
+                  <c:v>5891.3989259999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2570.1770019999999</c:v>
+                  <c:v>2855.6914059999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3791.6328119999998</c:v>
+                  <c:v>4416.2963870000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4156.1025390000004</c:v>
+                  <c:v>4761.8652339999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3324.5532229999999</c:v>
+                  <c:v>3689.0307619999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2795.3498540000001</c:v>
+                  <c:v>3018.024414</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1502.2727050000001</c:v>
+                  <c:v>1702.409668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1358.5405270000001</c:v>
+                  <c:v>1445.7901609999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1697.421875</c:v>
+                  <c:v>1805.8903809999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2894.9807129999999</c:v>
+                  <c:v>2917.188232</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4396.671875</c:v>
+                  <c:v>4724.9389650000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2970.7612300000001</c:v>
+                  <c:v>3271.858154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5613.2333980000003</c:v>
+                  <c:v>6406.3701170000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4240.1494140000004</c:v>
+                  <c:v>4753.7392579999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4373.6245120000003</c:v>
+                  <c:v>5184.970703</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6163.8471680000002</c:v>
+                  <c:v>6405.2260740000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3511.1586910000001</c:v>
+                  <c:v>3785.1821289999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2898.5466310000002</c:v>
+                  <c:v>3311.0627439999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1484.201904</c:v>
+                  <c:v>1608.686279</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1364.7344969999999</c:v>
+                  <c:v>1446.955688</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1723.5905760000001</c:v>
+                  <c:v>1800.8569339999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4482.595703</c:v>
+                  <c:v>4524.8193359999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7077.9755859999996</c:v>
+                  <c:v>7490.6806640000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6871.8364259999998</c:v>
+                  <c:v>7387.4067379999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3838.4184570000002</c:v>
+                  <c:v>4182.8950199999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2578.9982909999999</c:v>
+                  <c:v>2924.3034670000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2442.553711</c:v>
+                  <c:v>2711.5786130000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2622.5424800000001</c:v>
+                  <c:v>2915.6591800000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2306.2775879999999</c:v>
+                  <c:v>2636.139404</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1680.099487</c:v>
+                  <c:v>1908.3404539999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1395.563232</c:v>
+                  <c:v>1482.8170170000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1331.8081050000001</c:v>
+                  <c:v>1434.6082759999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2439.7856449999999</c:v>
+                  <c:v>2732.2304690000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3714.905518</c:v>
+                  <c:v>3555.435547</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4454.5263670000004</c:v>
+                  <c:v>4744.9829099999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2767.03125</c:v>
+                  <c:v>3036.5668949999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2679.4650879999999</c:v>
+                  <c:v>2935.3073730000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4878.1811520000001</c:v>
+                  <c:v>5520.3715819999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6815.6694340000004</c:v>
+                  <c:v>7219.6870120000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3229.7885740000002</c:v>
+                  <c:v>3571.0258789999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3297.389893</c:v>
+                  <c:v>3581.517578</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1681.9351810000001</c:v>
+                  <c:v>1878.2303469999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1443.9331050000001</c:v>
+                  <c:v>1568.791138</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1342.4429929999999</c:v>
+                  <c:v>1438.099731</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1723.336548</c:v>
+                  <c:v>1866.9051509999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3868.5756839999999</c:v>
+                  <c:v>3843.3283689999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6150.8237300000001</c:v>
+                  <c:v>6448.3969729999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7235.0991210000002</c:v>
+                  <c:v>7631.2880859999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4726.173828</c:v>
+                  <c:v>4952.123047</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2542.4770509999998</c:v>
+                  <c:v>2849.5603030000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2104.92749</c:v>
+                  <c:v>2458.9929200000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2357.032471</c:v>
+                  <c:v>2650.9035640000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1906.5076899999999</c:v>
+                  <c:v>2107.4106449999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1455.980591</c:v>
+                  <c:v>1480.21875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>975.89502000000005</c:v>
+                  <c:v>819.31811500000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>759.93804899999998</c:v>
+                  <c:v>770.69293200000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>929.54351799999995</c:v>
+                  <c:v>1013.7955930000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>941.76611300000002</c:v>
+                  <c:v>1020.536743</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4485.5122069999998</c:v>
+                  <c:v>4720.2470700000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8208.0449219999991</c:v>
+                  <c:v>8771.4462889999995</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5554.1293949999999</c:v>
+                  <c:v>5881.2065430000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3833.2016600000002</c:v>
+                  <c:v>4082.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4268.4189450000003</c:v>
+                  <c:v>4622.4653319999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2346.5759280000002</c:v>
+                  <c:v>2584.5043949999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2012.51062</c:v>
+                  <c:v>2207.4389649999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1603.2926030000001</c:v>
+                  <c:v>1774.9144289999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1425.6701660000001</c:v>
+                  <c:v>1538.377808</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1321.756836</c:v>
+                  <c:v>1400.272461</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1807.9968260000001</c:v>
+                  <c:v>1978.5141599999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7734.8129879999997</c:v>
+                  <c:v>7701.6196289999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6234.0634769999997</c:v>
+                  <c:v>6564.0747069999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3465.6154790000001</c:v>
+                  <c:v>3730.7092290000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3673.352539</c:v>
+                  <c:v>3885.8435060000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7341.8979490000002</c:v>
+                  <c:v>7912.1274409999996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7085.6723629999997</c:v>
+                  <c:v>7566.939453</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4439.4423829999996</c:v>
+                  <c:v>4724.8159180000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3948.8469239999999</c:v>
+                  <c:v>4086.341797</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1938.3732910000001</c:v>
+                  <c:v>2027.818115</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1459.669189</c:v>
+                  <c:v>1546.1163329999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1382.4578859999999</c:v>
+                  <c:v>1473.92749</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2360.2602539999998</c:v>
+                  <c:v>2322.7153320000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6108.923828</c:v>
+                  <c:v>6300.220703</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7255.939453</c:v>
+                  <c:v>7569.8383789999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4019.8405760000001</c:v>
+                  <c:v>4200.9331050000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5334.2202150000003</c:v>
+                  <c:v>5638.4545900000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2578.8488769999999</c:v>
+                  <c:v>2807.9780270000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2947.0534670000002</c:v>
+                  <c:v>3264.6008299999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3150.7312010000001</c:v>
+                  <c:v>3498.9194339999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1935.4331050000001</c:v>
+                  <c:v>2074.4777829999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1481.8670649999999</c:v>
+                  <c:v>1592.952759</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1385.2835689999999</c:v>
+                  <c:v>1456.475586</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1325.791626</c:v>
+                  <c:v>1402.954712</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1701.0245359999999</c:v>
+                  <c:v>1819.122314</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1726.9293210000001</c:v>
+                  <c:v>1855.8881839999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3427.961182</c:v>
+                  <c:v>2919.9172359999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5644.2211909999996</c:v>
+                  <c:v>5851.0014650000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1273,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14183000_flow_NORTH SANTIAM RIVER AT MEHAMA  OR_23780481.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,328 +1297,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5944.1323240000002</c:v>
+                  <c:v>6456.1528319999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2418.8654790000001</c:v>
+                  <c:v>2734.970703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2703.4724120000001</c:v>
+                  <c:v>3057.4772950000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3367.3159179999998</c:v>
+                  <c:v>3770.7221679999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3889.368164</c:v>
+                  <c:v>3910.0839839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5857.1318359999996</c:v>
+                  <c:v>5918.3823240000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1530.2016599999999</c:v>
+                  <c:v>1207.1254879999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1328.988525</c:v>
+                  <c:v>948.21063200000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1710.110962</c:v>
+                  <c:v>1415.190186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2855.7326659999999</c:v>
+                  <c:v>2796.0817870000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5932.951172</c:v>
+                  <c:v>6244.2749020000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8301.9287110000005</c:v>
+                  <c:v>9231.7714840000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7702.5273440000001</c:v>
+                  <c:v>8318.4638670000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2405.6022950000001</c:v>
+                  <c:v>2776.469482</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3989.9440920000002</c:v>
+                  <c:v>4550.9003910000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4885.0209960000002</c:v>
+                  <c:v>5305.9448240000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4908.6904299999997</c:v>
+                  <c:v>5046.5058589999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4432.5239259999998</c:v>
+                  <c:v>4450.8994140000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1752.714966</c:v>
+                  <c:v>1565.618408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1227.8695070000001</c:v>
+                  <c:v>906.57287599999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1899.291504</c:v>
+                  <c:v>1528.8350829999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3184.8051759999998</c:v>
+                  <c:v>3058.838135</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3959.8022460000002</c:v>
+                  <c:v>3991.3884280000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3013.7270509999998</c:v>
+                  <c:v>3078.0751949999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8581.5273440000001</c:v>
+                  <c:v>9415.8935550000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5155.7441410000001</c:v>
+                  <c:v>5623.0063479999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5573.9570309999999</c:v>
+                  <c:v>6355.2851559999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7545.2260740000002</c:v>
+                  <c:v>7887.6733400000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5210.4770509999998</c:v>
+                  <c:v>5001.1191410000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3591.319336</c:v>
+                  <c:v>3360.4860840000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1741.3626710000001</c:v>
+                  <c:v>1439.779419</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1199.3548579999999</c:v>
+                  <c:v>815.06927499999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2053.5280760000001</c:v>
+                  <c:v>1672.6705320000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3536.9545899999998</c:v>
+                  <c:v>3312.0261230000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7586.7597660000001</c:v>
+                  <c:v>7927.4311520000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7451.6391599999997</c:v>
+                  <c:v>8040.9814450000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3984.5065920000002</c:v>
+                  <c:v>4171.548828</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2927.7124020000001</c:v>
+                  <c:v>3069.951904</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3069.4340820000002</c:v>
+                  <c:v>3097.4514159999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3078.6118160000001</c:v>
+                  <c:v>2999.3784179999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3485.5578609999998</c:v>
+                  <c:v>3210.6345209999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2129.2326659999999</c:v>
+                  <c:v>1918.652832</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1421.340698</c:v>
+                  <c:v>1061.767822</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1222.1773679999999</c:v>
+                  <c:v>875.663635</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2621.5307619999999</c:v>
+                  <c:v>2395.8979490000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4520.8066410000001</c:v>
+                  <c:v>4433.5844729999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4352.5258789999998</c:v>
+                  <c:v>4333.9897460000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3679.9091800000001</c:v>
+                  <c:v>3731.8847660000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2708.5046390000002</c:v>
+                  <c:v>2729.5832519999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7626.9677730000003</c:v>
+                  <c:v>8317.1464840000008</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8306.2246090000008</c:v>
+                  <c:v>8893.7246090000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4415.0346680000002</c:v>
+                  <c:v>4440.6704099999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4622.4589839999999</c:v>
+                  <c:v>4493.1948240000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1865.493408</c:v>
+                  <c:v>1497.3298339999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1437.4764399999999</c:v>
+                  <c:v>1009.008362</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1133.1687010000001</c:v>
+                  <c:v>699.10485800000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1522.413452</c:v>
+                  <c:v>1040.3927000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3855.678711</c:v>
+                  <c:v>3328.0407709999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6050.8212890000004</c:v>
+                  <c:v>6070.8334960000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8543.9257809999999</c:v>
+                  <c:v>9150.0664059999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4436.7875979999999</c:v>
+                  <c:v>4149.6567379999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3525.6655270000001</c:v>
+                  <c:v>3329.79126</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2292.0695799999999</c:v>
+                  <c:v>1978.7460940000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2243.1252439999998</c:v>
+                  <c:v>1960.03125</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1480.322754</c:v>
+                  <c:v>1114.496216</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1321.229126</c:v>
+                  <c:v>873.074341</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1195.977783</c:v>
+                  <c:v>744.20929000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1071.323975</c:v>
+                  <c:v>698.13738999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1295.8088379999999</c:v>
+                  <c:v>928.56951900000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1367.61438</c:v>
+                  <c:v>1060.384033</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2830.1823730000001</c:v>
+                  <c:v>2457.8547359999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8990.6689449999994</c:v>
+                  <c:v>9511.0449219999991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5716.5898440000001</c:v>
+                  <c:v>5385.8833009999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4660.3125</c:v>
+                  <c:v>4481.5659180000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5370.0341799999997</c:v>
+                  <c:v>5166.9428710000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2892.6667480000001</c:v>
+                  <c:v>2673.9582519999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2139.8793949999999</c:v>
+                  <c:v>1824.7143550000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1690.524048</c:v>
+                  <c:v>1258.253418</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1290.2116699999999</c:v>
+                  <c:v>802.32867399999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1168.6256100000001</c:v>
+                  <c:v>691.17334000000005</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1636.4364009999999</c:v>
+                  <c:v>1086.6118160000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5785.9057620000003</c:v>
+                  <c:v>5337.0673829999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5835.2709960000002</c:v>
+                  <c:v>5738.3837890000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5423.5200199999999</c:v>
+                  <c:v>5494.9433589999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3431.076904</c:v>
+                  <c:v>3571.7241210000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6139.3974609999996</c:v>
+                  <c:v>6436.5395509999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9053.6787110000005</c:v>
+                  <c:v>9411.5224610000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5825.9858400000003</c:v>
+                  <c:v>5637.3295900000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6174.6899409999996</c:v>
+                  <c:v>5607.1303710000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2759.5747070000002</c:v>
+                  <c:v>2252.694336</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1388.409058</c:v>
+                  <c:v>947.28631600000006</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1136.223755</c:v>
+                  <c:v>702.44189500000005</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1847.5541989999999</c:v>
+                  <c:v>1288.143311</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5111.8559569999998</c:v>
+                  <c:v>4434.1489259999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7941.2744140000004</c:v>
+                  <c:v>7605.4594729999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5123.0849609999996</c:v>
+                  <c:v>4712.3051759999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5244.8569340000004</c:v>
+                  <c:v>5044.9755859999996</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3818.216797</c:v>
+                  <c:v>3612.046143</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2707.4956050000001</c:v>
+                  <c:v>2506.0534670000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4014.1247560000002</c:v>
+                  <c:v>3726.0832519999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2712.9604490000002</c:v>
+                  <c:v>2238.8271479999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1595.2501219999999</c:v>
+                  <c:v>1157.7342530000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1266.549072</c:v>
+                  <c:v>832.49157700000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1054.820557</c:v>
+                  <c:v>658.05114700000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1955.9945070000001</c:v>
+                  <c:v>1479.0920410000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2288.4916990000002</c:v>
+                  <c:v>1868.7163089999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2241.2761230000001</c:v>
+                  <c:v>1918.775024</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5094.9677730000003</c:v>
+                  <c:v>4757.0766599999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7413,15 +7414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>405765</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>27621</xdr:rowOff>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2227896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7927,7 +7928,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>3074.7713013333328</v>
+        <v>3447.2309469166667</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7936,7 +7937,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>101893972.80687165</v>
+        <v>104181711.3241784</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7955,7 +7956,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-429.74538395370382</v>
+        <v>-74.266747888889313</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7965,11 +7966,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>3298.0383888333336</v>
+        <v>3548.3661227777766</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>3727.7837727870374</v>
+        <v>3622.6328706666659</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7979,12 +7980,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>943462.71117473755</v>
+        <v>964645.47522387409</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>687.44534189814817</v>
+        <v>733.06625081481525</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -7997,17 +7998,17 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>0.13030332982440643</v>
+        <v>2.0929843572835963E-2</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>S</v>
+        <v>VG</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -8091,11 +8092,11 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.79972270513815069</v>
+        <v>0.83710201933385364</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8110,46 +8111,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5008.3862300000001</v>
+        <v>5375.140625</v>
       </c>
       <c r="I4">
-        <v>5944.1323240000002</v>
+        <v>6456.1528319999998</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>935.74609400000008</v>
+        <v>1081.0122069999998</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>2216.3485512129628</v>
+        <v>2833.5199613333339</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>1710.3478411666665</v>
+        <v>1826.7745022222234</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>4912200.900463799</v>
+        <v>8028835.3712744582</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>2925289.7377834767</v>
+        <v>3337105.0819692523</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>3790726.9598399601</v>
+        <v>5176202.0169014344</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>875620.75243625697</v>
+        <v>1168587.3916830104</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>7001813.113725815</v>
+        <v>8455223.5463294052</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>935.74609400000008</v>
+        <v>1081.0122069999998</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8190,7 +8191,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.43900096175762354</v>
+        <v>0.40341839134943264</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8209,46 +8210,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>2194.2153320000002</v>
+        <v>2507.2370609999998</v>
       </c>
       <c r="I5">
-        <v>2418.8654790000001</v>
+        <v>2734.970703</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>224.65014699999983</v>
+        <v>227.73364200000015</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-1308.9182937870373</v>
+        <v>-887.66216766666594</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1103.8230568333333</v>
+        <v>-1041.1290617777768</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>1713267.0998103688</v>
+        <v>787944.12390668411</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>1218425.3407968841</v>
+        <v>1083949.7232782738</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>1444814.1921930786</v>
+        <v>924170.8797984235</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>50467.688547121536</v>
+        <v>51862.611698584231</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>772945.00538481073</v>
+        <v>661612.10891546542</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>224.65014699999983</v>
+        <v>227.73364200000015</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8289,11 +8290,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.84232115205627178</v>
+        <v>0.85076876319571082</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -8308,46 +8309,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>2399.7631839999999</v>
+        <v>2900.8276369999999</v>
       </c>
       <c r="I6">
-        <v>2703.4724120000001</v>
+        <v>3057.4772950000001</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>303.70922800000017</v>
+        <v>156.64965800000027</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-1024.3113607870373</v>
+        <v>-565.15557566666575</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-898.27520483333365</v>
+        <v>-647.53848577777671</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>1049213.7638373922</v>
+        <v>319400.82470712037</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>806898.34361836757</v>
+        <v>419306.09056337591</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>920113.49742408667</v>
+        <v>365959.98569606047</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>92239.295172356084</v>
+        <v>24539.115351517048</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>353508.70080777607</v>
+        <v>240971.84123703945</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>303.70922800000017</v>
+        <v>156.64965800000027</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8388,7 +8389,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>3298.0383888333336</v>
+        <v>3548.3661227777766</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8404,46 +8405,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>2972.6782229999999</v>
+        <v>3452.163818</v>
       </c>
       <c r="I7">
-        <v>3367.3159179999998</v>
+        <v>3770.7221679999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>394.63769499999989</v>
+        <v>318.55834999999979</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-360.4678547870376</v>
+        <v>148.08929733333389</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-325.36016583333367</v>
+        <v>-96.20230477777659</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>129937.07433476883</v>
+        <v>21930.439984680572</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>105859.23751109438</v>
+        <v>9254.883444556217</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>117281.88101109659</v>
+        <v>-14246.531716388165</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>155738.91031491294</v>
+        <v>101479.42235472237</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>4799.3760474382898</v>
+        <v>49442.210846867369</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>394.63769499999989</v>
+        <v>318.55834999999979</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8484,7 +8485,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>1865.5266268507748</v>
+        <v>1969.9434408861418</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8500,46 +8501,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>2534.6623540000001</v>
+        <v>2965.7944339999999</v>
       </c>
       <c r="I8">
-        <v>3889.368164</v>
+        <v>3910.0839839999999</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1354.7058099999999</v>
+        <v>944.28954999999996</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>161.5843912129626</v>
+        <v>287.45111333333398</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-763.37603483333351</v>
+        <v>-582.57168877777667</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>26109.515483663745</v>
+        <v>82628.142556573221</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>582742.97055786278</v>
+        <v>339389.77256539068</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-123349.65185510952</v>
+        <v>-167460.88053565245</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>1835227.8316477558</v>
+        <v>891682.75423920248</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>349670.90299866028</v>
+        <v>130839.81112717959</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>1354.7058099999999</v>
+        <v>944.28954999999996</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8580,7 +8581,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>3727.7837727870374</v>
+        <v>3622.6328706666659</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8596,46 +8597,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>2429.0747070000002</v>
+        <v>2849.1682129999999</v>
       </c>
       <c r="I9">
-        <v>5857.1318359999996</v>
+        <v>5918.3823240000002</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>3428.0571289999993</v>
+        <v>3069.2141110000002</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>2129.3480632129622</v>
+        <v>2295.7494533333343</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>-868.96368183333334</v>
+        <v>-699.19790977777666</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>4534123.1743087936</v>
+        <v>5270465.5524803028</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>755097.88034534256</v>
+        <v>488877.71703761193</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>-1850326.132914213</v>
+        <v>-1605183.2191441408</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>11751575.679687718</v>
+        <v>9420075.2591615226</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>6548959.2713313699</v>
+        <v>5616976.7940558195</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>3428.0571289999993</v>
+        <v>3069.2141110000002</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>2170.4336381028238</v>
+        <v>2433.4701054779885</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8691,46 +8692,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1436.7573239999999</v>
+        <v>1555.255737</v>
       </c>
       <c r="I10">
-        <v>1530.2016599999999</v>
+        <v>1207.1254879999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>93.444336000000021</v>
+        <v>-348.13024900000005</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-2197.5821127870377</v>
+        <v>-2415.5073826666658</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-1861.2810648333336</v>
+        <v>-1993.1103857777766</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>4829367.14244154</v>
+        <v>5834675.9157171659</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>3464367.2023071083</v>
+        <v>3972489.0098952376</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>4090317.9749469445</v>
+        <v>4814372.8513158252</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>8731.8439304808999</v>
+        <v>121194.67026880203</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>3125246.6998121417</v>
+        <v>5481407.7099346481</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>93.444336000000021</v>
+        <v>348.13024900000005</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8771,7 +8772,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>971.32008687905636</v>
+        <v>982.16367028305115</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8786,46 +8787,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1342.1024170000001</v>
+        <v>1420.4868160000001</v>
       </c>
       <c r="I11">
-        <v>1328.988525</v>
+        <v>948.21063200000003</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-13.113892000000078</v>
+        <v>-472.27618400000006</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-2398.7952477870376</v>
+        <v>-2674.4222386666661</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-1955.9359718333335</v>
+        <v>-2127.8793067777765</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>5754218.6408056756</v>
+        <v>7152534.310674822</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>3825685.5259116068</v>
+        <v>4527870.3442130703</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>4691889.9142095214</v>
+        <v>5690847.7392450944</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>171.97416338766604</v>
+        <v>223044.79397360192</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>3877157.3662620694</v>
+        <v>6760808.576221819</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>13.113892000000078</v>
+        <v>472.27618400000006</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8866,7 +8867,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.91778055768046851</v>
+        <v>0.92237127188335111</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8882,46 +8883,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>1874.454956</v>
+        <v>2082.3071289999998</v>
       </c>
       <c r="I12">
-        <v>1710.110962</v>
+        <v>1415.190186</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-164.34399400000007</v>
+        <v>-667.11694299999976</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2017.6728107870374</v>
+        <v>-2207.4426846666656</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1423.5834328333335</v>
+        <v>-1466.0589937777768</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>4071003.571389264</v>
+        <v>4872803.2060883762</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>2026589.7902375383</v>
+        <v>2149328.9732367075</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>2872325.5863146917</v>
+        <v>3236241.2011045259</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>27008.948363872059</v>
+        <v>445045.01563766494</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>2521513.5128895319</v>
+        <v>4550439.5772477454</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>164.34399400000007</v>
+        <v>667.11694299999976</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8962,7 +8963,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>687.44534189814817</v>
+        <v>733.06625081481525</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8977,46 +8978,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>2252.8571780000002</v>
+        <v>2665.358643</v>
       </c>
       <c r="I13">
-        <v>2855.7326659999999</v>
+        <v>2796.0817870000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>602.87548799999968</v>
+        <v>130.72314400000005</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-872.0511067870375</v>
+        <v>-826.55108366666582</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-1045.1812108333334</v>
+        <v>-883.00747977777655</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>760473.13284849713</v>
+        <v>683186.69391053962</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>1092403.7634790328</v>
+        <v>779702.20934350044</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>911451.43170022429</v>
+        <v>729850.7892960927</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>363458.85403123777</v>
+        <v>17088.54037724475</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>195634.3524511178</v>
+        <v>565931.72185661038</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>602.87548799999968</v>
+        <v>130.72314400000005</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9065,46 +9066,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>5705.640625</v>
+        <v>6184.736328</v>
       </c>
       <c r="I14">
-        <v>5932.951172</v>
+        <v>6244.2749020000001</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>227.31054700000004</v>
+        <v>59.538574000000153</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>2205.1673992129627</v>
+        <v>2621.6420313333342</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>2407.6022361666664</v>
+        <v>2636.3702052222234</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>4862763.2585516619</v>
+        <v>6873006.9404535713</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>5796548.5275947331</v>
+        <v>6950447.8589834683</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>5309165.9614669606</v>
+        <v>6911618.9401654685</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>51670.084777439231</v>
+        <v>3544.8417939534943</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>6942765.3748951089</v>
+        <v>7267924.1458874596</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>227.31054700000004</v>
+        <v>59.538574000000153</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9142,7 +9143,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.43900096175762354</v>
+        <v>0.40341839134943264</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9157,46 +9158,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>6746.6630859999996</v>
+        <v>7408.294922</v>
       </c>
       <c r="I15">
-        <v>8301.9287110000005</v>
+        <v>9231.7714840000008</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1555.2656250000009</v>
+        <v>1823.4765620000007</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>4574.1449382129631</v>
+        <v>5609.1386133333344</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3448.624697166666</v>
+        <v>3859.9287992222235</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>20922801.91577927</v>
+        <v>31462435.983587001</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>11893012.301907878</v>
+        <v>14899050.335065115</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>15774509.202341119</v>
+        <v>21650875.672434743</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>2418851.1643066434</v>
+        <v>3325066.7721633427</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>25038918.35627323</v>
+        <v>32301096.49996952</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>1555.2656250000009</v>
+        <v>1823.4765620000007</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9245,46 +9246,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5451.8950199999999</v>
+        <v>5891.3989259999998</v>
       </c>
       <c r="I16">
-        <v>7702.5273440000001</v>
+        <v>8318.4638670000004</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2250.6323240000002</v>
+        <v>2427.0649410000005</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>3974.7435712129627</v>
+        <v>4695.830996333334</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>2153.8566311666664</v>
+        <v>2343.0328032222233</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>15798586.456898777</v>
+        <v>22050828.746124912</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>4639098.3876206214</v>
+        <v>5489802.71697539</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>8561027.7980441172</v>
+        <v>11002486.062796697</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>5065345.8578336416</v>
+        <v>5890644.2278313357</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>19399522.956185155</v>
+        <v>22753832.489433948</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>2250.6323240000002</v>
+        <v>2427.0649410000005</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9312,46 +9313,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>2570.1770019999999</v>
+        <v>2855.6914059999999</v>
       </c>
       <c r="I17">
-        <v>2405.6022950000001</v>
+        <v>2776.469482</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-164.57470699999976</v>
+        <v>-79.221923999999944</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-1322.1814777870372</v>
+        <v>-846.16338866666592</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-727.86138683333365</v>
+        <v>-692.67471677777667</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>1748163.8602031136</v>
+        <v>715992.48031985515</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>529782.19844294374</v>
+        <v>479798.26326317311</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>962364.84406741941</v>
+        <v>586115.98559240659</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>27084.834184135772</v>
+        <v>6276.1132422617675</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>796442.18157649832</v>
+        <v>595824.42404401593</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>164.57470699999976</v>
+        <v>79.221923999999944</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9379,46 +9380,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>3791.6328119999998</v>
+        <v>4416.2963870000003</v>
       </c>
       <c r="I18">
-        <v>3989.9440920000002</v>
+        <v>4550.9003910000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>198.31128000000035</v>
+        <v>134.6040039999998</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>262.1603192129628</v>
+        <v>928.26752033333423</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>493.59442316666627</v>
+        <v>867.93026422222374</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>68728.032969842548</v>
+        <v>861680.58930579713</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>243635.45458123402</v>
+        <v>753302.94355285913</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>129400.87153911147</v>
+        <v>805671.4741918192</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>39327.36377523854</v>
+        <v>18118.237892831963</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>478733.50207455939</v>
+        <v>1005074.9589598692</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>198.31128000000035</v>
+        <v>134.6040039999998</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9446,46 +9447,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>4156.1025390000004</v>
+        <v>4761.8652339999999</v>
       </c>
       <c r="I19">
-        <v>4885.0209960000002</v>
+        <v>5305.9448240000002</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>728.91845699999976</v>
+        <v>544.07959000000028</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>1157.2372232129628</v>
+        <v>1683.3119533333343</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>858.06415016666688</v>
+        <v>1213.4991112222233</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>1339197.9907896488</v>
+        <v>2833539.1322348854</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>736274.08580124425</v>
+        <v>1472580.0929371258</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>992983.77447746438</v>
+        <v>2042697.5592797457</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>531322.11695526051</v>
+        <v>296022.60025456839</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>2518513.7954495107</v>
+        <v>3089082.8909899984</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>728.91845699999976</v>
+        <v>544.07959000000028</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9513,46 +9514,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>3324.5532229999999</v>
+        <v>3689.0307619999999</v>
       </c>
       <c r="I20">
-        <v>4908.6904299999997</v>
+        <v>5046.5058589999999</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1584.1372069999998</v>
+        <v>1357.475097</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>1180.9066572129623</v>
+        <v>1423.872988333334</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>26.514834166666333</v>
+        <v>140.66463922222329</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>1394540.5330498929</v>
+        <v>2027414.2869052987</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>703.03643088581634</v>
+        <v>19786.540727518237</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>31311.544182313981</v>
+        <v>200288.58020217737</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>2509490.6906017601</v>
+        <v>1842738.6389751595</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>2594199.9977143477</v>
+        <v>2244422.6692479928</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1584.1372069999998</v>
+        <v>1357.475097</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9580,46 +9581,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>2795.3498540000001</v>
+        <v>3018.024414</v>
       </c>
       <c r="I21">
-        <v>4432.5239259999998</v>
+        <v>4450.8994140000004</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1637.1740719999998</v>
+        <v>1432.8750000000005</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>704.74015321296247</v>
+        <v>828.26654333333454</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-502.68853483333351</v>
+        <v>-530.3417087777766</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>496658.68355062982</v>
+        <v>686025.4668053505</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>252695.76305288356</v>
+        <v>281262.328069332</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-354264.79505684308</v>
+        <v>-439264.29391486297</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>2680338.9420290603</v>
+        <v>2053130.7656250014</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>1287057.4340403394</v>
+        <v>814566.34176441957</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>1637.1740719999998</v>
+        <v>1432.8750000000005</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9647,46 +9648,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>1502.2727050000001</v>
+        <v>1702.409668</v>
       </c>
       <c r="I22">
-        <v>1752.714966</v>
+        <v>1565.618408</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>250.44226099999992</v>
+        <v>-136.79125999999997</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-1975.0688067870374</v>
+        <v>-2057.0144626666661</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1795.7656838333335</v>
+        <v>-1845.9564547777766</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>3900896.7915431717</v>
+        <v>4231308.4996198332</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3224774.3912334</v>
+        <v>3407555.2329357374</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>3546760.7864378099</v>
+        <v>3797159.124930772</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>62721.326094792079</v>
+        <v>18711.84881238759</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>2388024.4811573299</v>
+        <v>3931288.5004564952</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>250.44226099999992</v>
+        <v>136.79125999999997</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9714,46 +9715,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1358.5405270000001</v>
+        <v>1445.7901609999999</v>
       </c>
       <c r="I23">
-        <v>1227.8695070000001</v>
+        <v>906.57287599999995</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-130.67102</v>
+        <v>-539.21728499999995</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-2499.914265787037</v>
+        <v>-2716.0599946666662</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-1939.4978618333334</v>
+        <v>-2102.5759617777767</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>6249571.3362855408</v>
+        <v>7376981.8946286906</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>3761651.9560560724</v>
+        <v>4420825.6750457427</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>4848578.3732606061</v>
+        <v>5710722.4555324083</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>17074.915467840401</v>
+        <v>290755.28044277115</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>4285599.1993110729</v>
+        <v>6979071.5587206651</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>130.67102</v>
+        <v>539.21728499999995</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9781,46 +9782,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>1697.421875</v>
+        <v>1805.8903809999999</v>
       </c>
       <c r="I24">
-        <v>1899.291504</v>
+        <v>1528.8350829999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>201.86962900000003</v>
+        <v>-277.05529799999999</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-1828.4922687870373</v>
+        <v>-2093.797787666666</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1600.6165138333336</v>
+        <v>-1742.4757417777766</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>3343383.977013967</v>
+        <v>4383989.1756378245</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>2561973.2243559742</v>
+        <v>3036221.7106840131</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>2926714.9208371104</v>
+        <v>3648391.8531971416</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>40751.34711259765</v>
+        <v>76759.638149868799</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>1956492.8478309547</v>
+        <v>4078505.6206259076</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>201.86962900000003</v>
+        <v>277.05529799999999</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9848,46 +9849,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>2894.9807129999999</v>
+        <v>2917.188232</v>
       </c>
       <c r="I25">
-        <v>3184.8051759999998</v>
+        <v>3058.838135</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>289.82446299999992</v>
+        <v>141.64990299999999</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-542.97859678703753</v>
+        <v>-563.79473566666593</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-403.05767583333363</v>
+        <v>-631.17789077777661</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>294825.75656882027</v>
+        <v>317864.50396544568</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>162455.49004816866</v>
+        <v>398385.5298066829</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>218851.69124822813</v>
+        <v>355854.77208970033</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>83998.219353238324</v>
+        <v>20064.695019909406</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>12821.76048855905</v>
+        <v>239637.65081775901</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>289.82446299999992</v>
+        <v>141.64990299999999</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9915,46 +9916,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>4396.671875</v>
+        <v>4724.9389650000003</v>
       </c>
       <c r="I26">
-        <v>3959.8022460000002</v>
+        <v>3991.3884280000002</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-436.8696289999998</v>
+        <v>-733.55053700000008</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>232.01847321296282</v>
+        <v>368.75555733333431</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>1098.6334861666664</v>
+        <v>1176.5728422222237</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>53832.571912074345</v>
+        <v>135980.661064218</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1206995.5369267229</v>
+        <v>1384323.6530548816</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>254903.26408102465</v>
+        <v>433867.77417692129</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>190855.07274259746</v>
+        <v>538096.39033298846</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>437931.40265210439</v>
+        <v>196268.76292441308</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>436.8696289999998</v>
+        <v>733.55053700000008</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9982,46 +9983,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>2970.7612300000001</v>
+        <v>3271.858154</v>
       </c>
       <c r="I27">
-        <v>3013.7270509999998</v>
+        <v>3078.0751949999999</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>42.965820999999778</v>
+        <v>-193.78295900000012</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-714.05672178703753</v>
+        <v>-544.557675666666</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-327.27715883333349</v>
+        <v>-276.50796877777657</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>509877.00192925072</v>
+        <v>296543.0621274818</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>107110.338694019</v>
+        <v>76456.656797611868</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>233694.45515230572</v>
+        <v>150574.53678093705</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>1846.061774204022</v>
+        <v>37551.835198795729</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>80832.936820580013</v>
+        <v>221173.55675008197</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>42.965820999999778</v>
+        <v>193.78295900000012</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10049,46 +10050,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>5613.2333980000003</v>
+        <v>6406.3701170000004</v>
       </c>
       <c r="I28">
-        <v>8581.5273440000001</v>
+        <v>9415.8935550000006</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>2968.2939459999998</v>
+        <v>3009.5234380000002</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>4853.7435712129627</v>
+        <v>5793.2606843333342</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>2315.1950091666668</v>
+        <v>2858.0039942222238</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>23558826.655091166</v>
+        <v>33561869.356642328</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>5360127.9304702422</v>
+        <v>8168186.830990185</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>11237362.891847044</v>
+        <v>16557162.175395243</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>8810768.9498602487</v>
+        <v>9057231.3238713406</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>27915255.539368153</v>
+        <v>34427878.167880327</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>2968.2939459999998</v>
+        <v>3009.5234380000002</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10116,46 +10117,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4240.1494140000004</v>
+        <v>4753.7392579999996</v>
       </c>
       <c r="I29">
-        <v>5155.7441410000001</v>
+        <v>5623.0063479999999</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>915.59472699999969</v>
+        <v>869.26709000000028</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>1427.9603682129627</v>
+        <v>2000.373477333334</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>942.11102516666688</v>
+        <v>1205.373135222223</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>2039070.8131869002</v>
+        <v>4001494.0488186544</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>887573.18374058802</v>
+        <v>1452924.3951154517</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>1345297.2063944854</v>
+        <v>2411196.4499886613</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>838313.70411020401</v>
+        <v>755625.27375706856</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>3451070.6616331204</v>
+        <v>4304132.064110117</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>915.59472699999969</v>
+        <v>869.26709000000028</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10183,46 +10184,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>4373.6245120000003</v>
+        <v>5184.970703</v>
       </c>
       <c r="I30">
-        <v>5573.9570309999999</v>
+        <v>6355.2851559999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1200.3325189999996</v>
+        <v>1170.314453</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>1846.1732582129625</v>
+        <v>2732.652285333334</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>1075.5861231666668</v>
+        <v>1636.6045802222234</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>3408355.6993406662</v>
+        <v>7467388.5125374934</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>1156885.5083487001</v>
+        <v>2678474.5520043601</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>1985718.3374952541</v>
+        <v>4472271.2463312605</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1440798.1561688844</v>
+        <v>1369635.9189006891</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>5179805.6657617623</v>
+        <v>7878794.4590651812</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1200.3325189999996</v>
+        <v>1170.314453</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10250,46 +10251,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6163.8471680000002</v>
+        <v>6405.2260740000002</v>
       </c>
       <c r="I31">
-        <v>7545.2260740000002</v>
+        <v>7887.6733400000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>1381.3789059999999</v>
+        <v>1482.4472660000001</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>3817.4423012129628</v>
+        <v>4265.0404693333348</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>2865.8087791666667</v>
+        <v>2856.8599512222236</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>14572865.723090122</v>
+        <v>18190570.205051113</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>8212859.9587487401</v>
+        <v>8161648.780897446</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>10940059.660778312</v>
+        <v>12184623.30718044</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>1908207.6819417565</v>
+        <v>2197649.896470875</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>18038603.233031388</v>
+        <v>18829587.12543688</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>1381.3789059999999</v>
+        <v>1482.4472660000001</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10317,46 +10318,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>3511.1586910000001</v>
+        <v>3785.1821289999998</v>
       </c>
       <c r="I32">
-        <v>5210.4770509999998</v>
+        <v>5001.1191410000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1699.3183599999998</v>
+        <v>1215.9370120000003</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>1482.6932782129625</v>
+        <v>1378.4862703333342</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>213.12030216666653</v>
+        <v>236.81600622222322</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>2198379.3572579012</v>
+        <v>1900224.3974975061</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>45420.263195611245</v>
+        <v>56081.820803044066</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>315992.03947323194</v>
+        <v>326447.61317250814</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>2887682.8886330887</v>
+        <v>1478502.817151489</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>3657421.6365498286</v>
+        <v>2110491.3319537803</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1699.3183599999998</v>
+        <v>1215.9370120000003</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10384,46 +10385,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>2898.5466310000002</v>
+        <v>3311.0627439999998</v>
       </c>
       <c r="I33">
-        <v>3591.319336</v>
+        <v>3360.4860840000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>692.77270499999986</v>
+        <v>49.42334000000028</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-136.46443678703736</v>
+        <v>-262.14678666666578</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-399.49175783333339</v>
+        <v>-237.30337877777674</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>18622.542507603313</v>
+        <v>68720.93775965838</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>159593.66457676669</v>
+        <v>56312.89357934898</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>54516.417733789363</v>
+        <v>62208.31821173682</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>479934.02079301683</v>
+        <v>2442.6665367556279</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>86013.713970977013</v>
+        <v>35298.908971138786</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>692.77270499999986</v>
+        <v>49.42334000000028</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10451,46 +10452,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>1484.201904</v>
+        <v>1608.686279</v>
       </c>
       <c r="I34">
-        <v>1741.3626710000001</v>
+        <v>1439.779419</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>257.16076700000008</v>
+        <v>-168.90686000000005</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-1986.4211017870373</v>
+        <v>-2182.8534516666659</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-1813.8364848333335</v>
+        <v>-1939.6798437777766</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>3945868.7936248272</v>
+        <v>4764849.1914530778</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>3290002.7937125438</v>
+        <v>3762357.8963577799</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>3603043.0686641573</v>
+        <v>4234036.842118579</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>66131.660084028335</v>
+        <v>28529.527355059618</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>2423239.2904919242</v>
+        <v>4446137.8873484293</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>257.16076700000008</v>
+        <v>168.90686000000005</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10518,46 +10519,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1364.7344969999999</v>
+        <v>1446.955688</v>
       </c>
       <c r="I35">
-        <v>1199.3548579999999</v>
+        <v>815.06927499999995</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-165.379639</v>
+        <v>-631.88641300000006</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-2528.4289147870377</v>
+        <v>-2807.5635956666661</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-1933.3038918333336</v>
+        <v>-2101.4104347777766</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>6392952.777131157</v>
+        <v>7882413.3437127387</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>3737663.9381779144</v>
+        <v>4415925.8153929235</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>4888221.4611817123</v>
+        <v>5899843.4362361468</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>27350.424995770321</v>
+        <v>399280.43893400667</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>4404472.5625910694</v>
+        <v>7470911.6580719305</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>165.379639</v>
+        <v>631.88641300000006</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10585,46 +10586,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>1723.5905760000001</v>
+        <v>1800.8569339999999</v>
       </c>
       <c r="I36">
-        <v>2053.5280760000001</v>
+        <v>1672.6705320000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>329.9375</v>
+        <v>-128.18640199999982</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-1674.2556967870373</v>
+        <v>-1949.9623386666658</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1574.4478128333335</v>
+        <v>-1747.5091887777767</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>2803132.1382238478</v>
+        <v>3802353.1222183728</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>2478885.9153356678</v>
+        <v>3053788.3648627633</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>2636028.2199300998</v>
+        <v>3407577.1045906013</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>108858.75390625</v>
+        <v>16431.753657705558</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>1548805.9187485217</v>
+        <v>3518233.9492631918</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>329.9375</v>
+        <v>128.18640199999982</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10652,46 +10653,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>4482.595703</v>
+        <v>4524.8193359999996</v>
       </c>
       <c r="I37">
-        <v>3536.9545899999998</v>
+        <v>3312.0261230000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-945.64111300000013</v>
+        <v>-1212.7932129999995</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-190.82918278703755</v>
+        <v>-310.6067476666658</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>1184.5573141666664</v>
+        <v>976.45321322222298</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>36415.777003168587</v>
+        <v>96476.551696063805</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>1403176.0305457464</v>
+        <v>953460.87761200406</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-226048.10422683306</v>
+        <v>-303292.95680762001</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>894237.11459587899</v>
+        <v>1470867.3774988621</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>57080.951179910946</v>
+        <v>55856.595494959387</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>945.64111300000013</v>
+        <v>1212.7932129999995</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10719,46 +10720,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7077.9755859999996</v>
+        <v>7490.6806640000004</v>
       </c>
       <c r="I38">
-        <v>7586.7597660000001</v>
+        <v>7927.4311520000001</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>508.78418000000056</v>
+        <v>436.75048799999968</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>3858.9759932129627</v>
+        <v>4304.7982813333347</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3779.937197166666</v>
+        <v>3942.3145412222239</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>14891695.716193972</v>
+        <v>18531288.242970433</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>14287925.214524191</v>
+        <v>15541843.941932194</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>14586686.899718858</v>
+        <v>16970868.861528844</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>258861.34181827298</v>
+        <v>190750.98876823788</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>18393131.050966348</v>
+        <v>19176210.530157033</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>508.78418000000056</v>
+        <v>436.75048799999968</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10786,46 +10787,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>6871.8364259999998</v>
+        <v>7387.4067379999997</v>
       </c>
       <c r="I39">
-        <v>7451.6391599999997</v>
+        <v>8040.9814450000003</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>579.80273399999987</v>
+        <v>653.57470700000067</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>3723.8553872129623</v>
+        <v>4418.3485743333349</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>3573.7980371666663</v>
+        <v>3839.0406152222231</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>13867098.944875002</v>
+        <v>19521804.124313414</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>12772032.410456317</v>
+        <v>14738232.845325826</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>13308307.073514201</v>
+        <v>16962219.629074879</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>336171.2103538746</v>
+        <v>427159.89763013675</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>17252399.366236325</v>
+        <v>20183592.433465894</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>579.80273399999987</v>
+        <v>653.57470700000067</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10853,46 +10854,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>3838.4184570000002</v>
+        <v>4182.8950199999999</v>
       </c>
       <c r="I40">
-        <v>3984.5065920000002</v>
+        <v>4171.548828</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>146.08813499999997</v>
+        <v>-11.346191999999974</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>256.7228192129628</v>
+        <v>548.91595733333406</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>540.38006816666666</v>
+        <v>634.52889722222335</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>65906.605904651587</v>
+        <v>301308.72821517062</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>292010.61807181133</v>
+        <v>402626.92141005088</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>138727.8945462397</v>
+        <v>348303.03707440145</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>21341.743187778215</v>
+        <v>128.73607290086341</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>471238.5939588719</v>
+        <v>388356.68408808857</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>146.08813499999997</v>
+        <v>11.346191999999974</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10920,46 +10921,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>2578.9982909999999</v>
+        <v>2924.3034670000002</v>
       </c>
       <c r="I41">
-        <v>2927.7124020000001</v>
+        <v>3069.951904</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>348.71411100000023</v>
+        <v>145.64843699999983</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-800.07137078703727</v>
+        <v>-552.68096666666588</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-719.04009783333368</v>
+        <v>-624.0626557777764</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>640114.19835304888</v>
+        <v>305456.25091560022</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>517018.66229217005</v>
+        <v>389454.19833641144</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>575283.39672436065</v>
+        <v>344907.55185582821</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>121601.53121052048</v>
+        <v>21213.46720054292</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>137141.33652408226</v>
+        <v>228880.16472875027</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>348.71411100000023</v>
+        <v>145.64843699999983</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10987,46 +10988,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>2442.553711</v>
+        <v>2711.5786130000001</v>
       </c>
       <c r="I42">
-        <v>3069.4340820000002</v>
+        <v>3097.4514159999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>626.8803710000002</v>
+        <v>385.87280299999975</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-658.34969078703716</v>
+        <v>-525.18145466666601</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-855.48467783333354</v>
+        <v>-836.78750977777645</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>433424.31535938743</v>
+        <v>275815.56032579538</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>731854.03400760249</v>
+        <v>700213.33652009233</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>563208.07312462328</v>
+        <v>439465.28163198964</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>392978.99954509787</v>
+        <v>148897.8200950766</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>52259.929102748814</v>
+        <v>203324.07278848835</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>626.8803710000002</v>
+        <v>385.87280299999975</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11054,46 +11055,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>2622.5424800000001</v>
+        <v>2915.6591800000001</v>
       </c>
       <c r="I43">
-        <v>3078.6118160000001</v>
+        <v>2999.3784179999998</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>456.06933600000002</v>
+        <v>83.719237999999677</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-649.17195678703729</v>
+        <v>-623.25445266666611</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-675.49590883333349</v>
+        <v>-632.70694277777648</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>421424.22947871103</v>
+        <v>388446.11276882555</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>456294.72285057121</v>
+        <v>400318.0754392005</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>438513.00093897327</v>
+        <v>394337.41931936273</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>207999.23923948093</v>
+        <v>7008.9108113005896</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>48148.020865382197</v>
+        <v>301387.4999971714</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>456.06933600000002</v>
+        <v>83.719237999999677</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11121,46 +11122,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>2306.2775879999999</v>
+        <v>2636.139404</v>
       </c>
       <c r="I44">
-        <v>3485.5578609999998</v>
+        <v>3210.6345209999999</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1179.2802729999999</v>
+        <v>574.49511699999994</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-242.2259117870376</v>
+        <v>-411.99834966666594</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-991.76080083333363</v>
+        <v>-912.22671877777657</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>58673.392341061721</v>
+        <v>169742.64012805634</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>983589.4860695753</v>
+        <v>832157.58645206864</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>240230.16425649685</v>
+        <v>375835.90265828173</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>1390701.9622869543</v>
+        <v>330044.63945684361</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>35163.55244166511</v>
+        <v>114062.63483938269</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>1179.2802729999999</v>
+        <v>574.49511699999994</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11188,46 +11189,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>1680.099487</v>
+        <v>1908.3404539999999</v>
       </c>
       <c r="I45">
-        <v>2129.2326659999999</v>
+        <v>1918.652832</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>449.13317899999993</v>
+        <v>10.312378000000081</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1598.5511067870375</v>
+        <v>-1703.9800386666659</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1617.9389018333336</v>
+        <v>-1640.0256687777767</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>2555365.6410100628</v>
+        <v>2903547.9721744522</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>2617726.2900656536</v>
+        <v>2689684.1942499937</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>2586358.0222394792</v>
+        <v>2794571.0024982807</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>201720.61247864598</v>
+        <v>106.34514001488566</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>1366106.8177279516</v>
+        <v>2655965.4101377297</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>449.13317899999993</v>
+        <v>10.312378000000081</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11255,46 +11256,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>1395.563232</v>
+        <v>1482.8170170000001</v>
       </c>
       <c r="I46">
-        <v>1421.340698</v>
+        <v>1061.767822</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>25.777466000000004</v>
+        <v>-421.04919500000005</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-2306.4430747870374</v>
+        <v>-2560.8650486666656</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-1902.4751568333336</v>
+        <v>-2065.5491057777763</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>5319679.6572330836</v>
+        <v>6558029.7974825241</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>3619411.7223680173</v>
+        <v>4266493.1083793715</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>4387950.6504326249</v>
+        <v>5289592.5112909926</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>664.47775338115616</v>
+        <v>177282.42461014807</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>3521994.2227791664</v>
+        <v>6183171.1094309269</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>25.777466000000004</v>
+        <v>421.04919500000005</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11322,46 +11323,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1331.8081050000001</v>
+        <v>1434.6082759999999</v>
       </c>
       <c r="I47">
-        <v>1222.1773679999999</v>
+        <v>875.663635</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-109.63073700000018</v>
+        <v>-558.94464099999993</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-2505.6064047870377</v>
+        <v>-2746.969235666666</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-1966.2302838333335</v>
+        <v>-2113.7578467777766</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>6278063.4557098243</v>
+        <v>7545839.9816991072</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>3866061.5290633109</v>
+        <v>4467972.2348146224</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>4926599.1924590357</v>
+        <v>5806427.7767475666</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>12018.898495163208</v>
+        <v>312419.11170261883</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>4309198.9778152108</v>
+        <v>7143338.588173517</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>109.63073700000018</v>
+        <v>558.94464099999993</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11389,46 +11390,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>2439.7856449999999</v>
+        <v>2732.2304690000001</v>
       </c>
       <c r="I48">
-        <v>2621.5307619999999</v>
+        <v>2395.8979490000002</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>181.74511699999994</v>
+        <v>-336.33251999999993</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-1106.2530107870375</v>
+        <v>-1226.7349216666657</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-858.25274383333362</v>
+        <v>-816.1356537777765</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>1223795.7238753852</v>
+        <v>1504878.5680365206</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>736597.7722974458</v>
+        <v>666077.40536727861</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>949444.68188186141</v>
+        <v>1001182.1073064536</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>33031.287553343667</v>
+        <v>113119.56400955035</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>457662.56916366908</v>
+        <v>1328182.8915706831</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>181.74511699999994</v>
+        <v>336.33251999999993</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11456,46 +11457,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>3714.905518</v>
+        <v>3555.435547</v>
       </c>
       <c r="I49">
-        <v>4520.8066410000001</v>
+        <v>4433.5844729999999</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>805.9011230000001</v>
+        <v>878.14892599999985</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>793.02286821296275</v>
+        <v>810.95160233333399</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>416.86712916666647</v>
+        <v>7.0694242222234607</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>628885.26950871409</v>
+        <v>657642.50132700184</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>173778.2033796582</v>
+        <v>49.976758833759781</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>330585.16643545346</v>
+        <v>5732.9609005861985</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>649476.62005266128</v>
+        <v>771145.53623495321</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1495162.1985067248</v>
+        <v>783611.52757015475</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>805.9011230000001</v>
+        <v>878.14892599999985</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11523,46 +11524,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>4454.5263670000004</v>
+        <v>4744.9829099999997</v>
       </c>
       <c r="I50">
-        <v>4352.5258789999998</v>
+        <v>4333.9897460000002</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-102.00048800000059</v>
+        <v>-410.99316399999952</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>624.74210621296243</v>
+        <v>711.3568753333343</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>1156.4879781666668</v>
+        <v>1196.6167872222231</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>390302.69927540841</v>
+        <v>506028.60408400494</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>1337464.4436440249</v>
+        <v>1431891.7354620353</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>722506.73528981395</v>
+        <v>851221.57872981403</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>10404.099552238264</v>
+        <v>168915.38085473049</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>1111943.866917995</v>
+        <v>617204.47736481437</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>102.00048800000059</v>
+        <v>410.99316399999952</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11590,46 +11591,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>2767.03125</v>
+        <v>3036.5668949999999</v>
       </c>
       <c r="I51">
-        <v>3679.9091800000001</v>
+        <v>3731.8847660000001</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>912.87793000000011</v>
+        <v>695.3178710000002</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-47.874592787037273</v>
+        <v>109.25189533333423</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-531.00713883333356</v>
+        <v>-511.79922777777665</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>2291.9766345246412</v>
+        <v>11935.976633925819</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>281968.58149196318</v>
+        <v>261938.44955392851</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>25421.750538655611</v>
+        <v>-55915.035664858944</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>833346.11508108512</v>
+        <v>483466.94173197291</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>145825.30114625586</v>
+        <v>33679.092410125777</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>912.87793000000011</v>
+        <v>695.3178710000002</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11657,46 +11658,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>2679.4650879999999</v>
+        <v>2935.3073730000001</v>
       </c>
       <c r="I52">
-        <v>2708.5046390000002</v>
+        <v>2729.5832519999999</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>29.039551000000301</v>
+        <v>-205.7241210000002</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-1019.2791337870372</v>
+        <v>-893.04961866666599</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-618.57330083333363</v>
+        <v>-613.05874977777648</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>1038929.9525736527</v>
+        <v>797537.6214006776</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>382632.92850384588</v>
+        <v>375841.03067909036</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>630498.85825718869</v>
+        <v>547491.88270930632</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>843.29552228161856</v>
+        <v>42322.413961222723</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>347550.04219255125</v>
+        <v>670405.38947909733</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>29.039551000000301</v>
+        <v>205.7241210000002</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11724,46 +11725,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>4878.1811520000001</v>
+        <v>5520.3715819999998</v>
       </c>
       <c r="I53">
-        <v>7626.9677730000003</v>
+        <v>8317.1464840000008</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>2748.7866210000002</v>
+        <v>2796.774902000001</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>3899.1840002129629</v>
+        <v>4694.5136133333344</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>1580.1427631666666</v>
+        <v>1972.0054592222232</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>15203635.867516764</v>
+        <v>22038458.065772001</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>2496851.151987988</v>
+        <v>3888805.5312022516</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>6161267.3801917676</v>
+        <v>9257606.47388638</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>7555827.8877885984</v>
+        <v>7821949.8524571154</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>18739629.613101598</v>
+        <v>22741266.133578766</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>2748.7866210000002</v>
+        <v>2796.774902000001</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11791,46 +11792,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>6815.6694340000004</v>
+        <v>7219.6870120000003</v>
       </c>
       <c r="I54">
-        <v>8306.2246090000008</v>
+        <v>8893.7246090000008</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>1490.5551750000004</v>
+        <v>1674.0375970000005</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>4578.4408362129634</v>
+        <v>5271.0917383333344</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>3517.6310451666668</v>
+        <v>3671.3208892222237</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>20962120.490702458</v>
+        <v>27784408.113925934</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>12373728.169920336</v>
+        <v>13478597.07163946</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>16105265.623921555</v>
+        <v>19351869.207949854</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>2221754.7297192817</v>
+        <v>2802401.8761695358</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>25081929.215867288</v>
+        <v>28572857.346227948</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1490.5551750000004</v>
+        <v>1674.0375970000005</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11858,46 +11859,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>3229.7885740000002</v>
+        <v>3571.0258789999998</v>
       </c>
       <c r="I55">
-        <v>4415.0346680000002</v>
+        <v>4440.6704099999997</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>1185.2460940000001</v>
+        <v>869.64453099999992</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>687.25089521296286</v>
+        <v>818.03753933333383</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-68.249814833333403</v>
+        <v>22.659756222223223</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>472313.79297101888</v>
+        <v>669185.41575853573</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>4658.0372247842961</v>
+        <v>513.46455205058408</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>-46904.746342327329</v>
+        <v>18536.531221920686</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1404808.3033422569</v>
+        <v>756281.61029820982</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1247680.687672178</v>
+        <v>796206.94099515968</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>1185.2460940000001</v>
+        <v>869.64453099999992</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11925,46 +11926,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>3297.389893</v>
+        <v>3581.517578</v>
       </c>
       <c r="I56">
-        <v>4622.4589839999999</v>
+        <v>4493.1948240000002</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>1325.0690909999998</v>
+        <v>911.6772460000002</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>894.67521121296249</v>
+        <v>870.56195333333426</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-0.64849583333352712</v>
+        <v>33.151455222223376</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>800443.73355895909</v>
+        <v>757878.11459155043</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>0.42054684585094576</v>
+        <v>1099.0189833510815</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>-580.19314665839954</v>
+        <v>28860.395614101348</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>1755808.0959235658</v>
+        <v>831155.40087414486</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>1754089.9129016267</v>
+        <v>892701.27465327387</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>1325.0690909999998</v>
+        <v>911.6772460000002</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11992,46 +11993,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>1681.9351810000001</v>
+        <v>1878.2303469999999</v>
       </c>
       <c r="I57">
-        <v>1865.493408</v>
+        <v>1497.3298339999999</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>183.55822699999999</v>
+        <v>-380.90051300000005</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-1862.2903647870373</v>
+        <v>-2125.3030366666662</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-1616.1032078333335</v>
+        <v>-1670.1357757777766</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>3468125.4027786367</v>
+        <v>4516912.9976645531</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>2611789.5783691909</v>
+        <v>2789353.5095328358</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>3009653.43244944</v>
+        <v>3549544.6359061473</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>33693.622699383523</v>
+        <v>145085.2008036632</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>2052185.1221107759</v>
+        <v>4206749.8578833146</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>183.55822699999999</v>
+        <v>380.90051300000005</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12059,46 +12060,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>1443.9331050000001</v>
+        <v>1568.791138</v>
       </c>
       <c r="I58">
-        <v>1437.4764399999999</v>
+        <v>1009.008362</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-6.4566650000001573</v>
+        <v>-559.78277600000001</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-2290.3073327870375</v>
+        <v>-2613.6245086666659</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-1854.1052838333335</v>
+        <v>-1979.5749847777765</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>5245507.6786180735</v>
+        <v>6831033.0723030707</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>3437706.4035386862</v>
+        <v>3918717.1203579344</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>4246470.9273226755</v>
+        <v>5173865.6969586387</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>41.68852292222703</v>
+        <v>313356.75630626618</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>3461690.7654464925</v>
+        <v>6448337.8372223238</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>6.4566650000001573</v>
+        <v>559.78277600000001</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12126,46 +12127,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1342.4429929999999</v>
+        <v>1438.099731</v>
       </c>
       <c r="I59">
-        <v>1133.1687010000001</v>
+        <v>699.10485800000004</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-209.27429199999983</v>
+        <v>-738.99487299999998</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-2594.6150717870373</v>
+        <v>-2923.5280126666657</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-1955.5953958333337</v>
+        <v>-2110.2663917777763</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>6732027.3707444528</v>
+        <v>8547016.0408467036</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>3824353.3522045328</v>
+        <v>4453224.244266795</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>5074017.2883465048</v>
+        <v>6169422.9105513375</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>43795.72929210119</v>
+        <v>546113.42232028616</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>4686660.765299595</v>
+        <v>8118289.7549630543</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>209.27429199999983</v>
+        <v>738.99487299999998</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12193,46 +12194,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>1723.336548</v>
+        <v>1866.9051509999999</v>
       </c>
       <c r="I60">
-        <v>1522.413452</v>
+        <v>1040.3927000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-200.92309599999999</v>
+        <v>-826.51245099999983</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-2205.3703207870376</v>
+        <v>-2582.240170666666</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-1574.7018408333336</v>
+        <v>-1681.4609717777766</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>4863658.2518083211</v>
+        <v>6667964.2990046125</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>2479685.8875238895</v>
+        <v>2827310.9996118648</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>3472800.7038625474</v>
+        <v>4341936.0667327838</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>40370.090506225213</v>
+        <v>683122.83165802713</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>3152843.9163043797</v>
+        <v>6289930.6893596742</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>200.92309599999999</v>
+        <v>826.51245099999983</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12260,46 +12261,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>3868.5756839999999</v>
+        <v>3843.3283689999998</v>
       </c>
       <c r="I61">
-        <v>3855.678711</v>
+        <v>3328.0407709999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-12.896972999999889</v>
+        <v>-515.28759799999989</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>127.89493821296264</v>
+        <v>-294.59209966666594</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>570.53729516666635</v>
+        <v>294.96224622222326</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>16357.115220497531</v>
+        <v>86784.505186014838</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>325512.80517609575</v>
+        <v>87002.72669645946</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>72968.832113531622</v>
+        <v>-86893.54743700086</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>166.33191256272613</v>
+        <v>265521.30865260947</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>310962.72890614357</v>
+        <v>48543.260636001018</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>12.896972999999889</v>
+        <v>515.28759799999989</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12327,46 +12328,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>6150.8237300000001</v>
+        <v>6448.3969729999999</v>
       </c>
       <c r="I62">
-        <v>6050.8212890000004</v>
+        <v>6070.8334960000002</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-100.00244099999964</v>
+        <v>-377.56347699999969</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>2323.0375162129631</v>
+        <v>2448.2006253333343</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>2852.7853411666665</v>
+        <v>2900.0308502222233</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>5396503.3017328922</v>
+        <v>5993686.3018825287</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>8138384.2027754141</v>
+        <v>8410178.9322406314</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>6627127.373232563</v>
+        <v>7099857.3410000084</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>10000.488205958409</v>
+        <v>142554.17916432931</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>7577813.6954500051</v>
+        <v>6362841.6489706244</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>100.00244099999964</v>
+        <v>377.56347699999969</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12394,46 +12395,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>7235.0991210000002</v>
+        <v>7631.2880859999996</v>
       </c>
       <c r="I63">
-        <v>8543.9257809999999</v>
+        <v>9150.0664059999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1308.8266599999997</v>
+        <v>1518.7783200000003</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>4816.1420082129625</v>
+        <v>5527.4335353333336</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>3937.0607321666666</v>
+        <v>4082.921963222223</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>23195223.843273588</v>
+        <v>30552521.487527553</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>15500447.208768729</v>
+        <v>16670251.757762412</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>18961443.581073567</v>
+        <v>22568079.781663526</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>1713027.2259267548</v>
+        <v>2306687.5853020237</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>27519334.531293187</v>
+        <v>31379046.063051935</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>1308.8266599999997</v>
+        <v>1518.7783200000003</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12461,46 +12462,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>4726.173828</v>
+        <v>4952.123047</v>
       </c>
       <c r="I64">
-        <v>4436.7875979999999</v>
+        <v>4149.6567379999997</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-289.38623000000007</v>
+        <v>-802.46630900000036</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>709.00382521296251</v>
+        <v>527.02386733333378</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1428.1354391666664</v>
+        <v>1403.7569242222235</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>502686.42416661308</v>
+        <v>277754.15673898341</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>2039570.832603767</v>
+        <v>1970533.5023018373</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>1012553.4892913606</v>
+        <v>739813.40299954184</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>83744.390113612943</v>
+        <v>643952.1770800841</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>1296749.7613777081</v>
+        <v>361550.40395431954</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>289.38623000000007</v>
+        <v>802.46630900000036</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12528,46 +12529,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>2542.4770509999998</v>
+        <v>2849.5603030000002</v>
       </c>
       <c r="I65">
-        <v>3525.6655270000001</v>
+        <v>3329.79126</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>983.18847600000026</v>
+        <v>480.23095699999976</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-202.11824578703727</v>
+        <v>-292.84161066666593</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-755.56133783333371</v>
+        <v>-698.80581977777638</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>40851.785280029209</v>
+        <v>85756.208937847143</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>570872.93522849702</v>
+        <v>488329.57375529007</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>152712.73218738043</v>
+        <v>204639.42180696392</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>966659.57933920308</v>
+        <v>230621.77206113562</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>51814.114029946708</v>
+        <v>47774.970638323881</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>983.18847600000026</v>
+        <v>480.23095699999976</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12595,46 +12596,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>2104.92749</v>
+        <v>2458.9929200000001</v>
       </c>
       <c r="I66">
-        <v>2292.0695799999999</v>
+        <v>1978.7460940000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>187.14208999999983</v>
+        <v>-480.24682600000006</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1435.7141927870375</v>
+        <v>-1643.8867766666658</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1193.1108988333335</v>
+        <v>-1089.3732027777764</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>2061275.2433701348</v>
+        <v>2702363.7344995206</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1423513.6169148851</v>
+        <v>1186733.9749303104</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>1712966.2510239163</v>
+        <v>1790806.2029014011</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>35022.161849568038</v>
+        <v>230637.01388307434</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>1011973.2443455562</v>
+        <v>2463707.0347403479</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>187.14208999999983</v>
+        <v>480.24682600000006</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12662,46 +12663,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>2357.032471</v>
+        <v>2650.9035640000002</v>
       </c>
       <c r="I67">
-        <v>2243.1252439999998</v>
+        <v>1960.03125</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-113.90722700000015</v>
+        <v>-690.87231400000019</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1484.6585287870375</v>
+        <v>-1662.6016206666659</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-941.00591783333357</v>
+        <v>-897.46255877777639</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>2204210.9471000908</v>
+        <v>2764244.1490434241</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>885492.13739735459</v>
+        <v>805439.04440795374</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>1397072.4615503328</v>
+        <v>1492122.7047115839</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>12974.856362829563</v>
+        <v>477304.55425171484</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>1112841.7431421541</v>
+        <v>2522807.6680819956</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>113.90722700000015</v>
+        <v>690.87231400000019</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12729,46 +12730,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>1906.5076899999999</v>
+        <v>2107.4106449999999</v>
       </c>
       <c r="I68">
-        <v>1480.322754</v>
+        <v>1114.496216</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-426.18493599999988</v>
+        <v>-992.91442899999993</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-2247.4610187870376</v>
+        <v>-2508.1366546666659</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-1391.5306988333336</v>
+        <v>-1440.9554777777767</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>5051081.0309672691</v>
+        <v>6290749.4784824941</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>1936357.6857955859</v>
+        <v>2076352.6889377807</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>3127411.0020734025</v>
+        <v>3614113.2515571602</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>181633.599673324</v>
+        <v>985879.06331639586</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>3304090.1291175489</v>
+        <v>5923722.7231184626</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>426.18493599999988</v>
+        <v>992.91442899999993</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12796,46 +12797,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>1455.980591</v>
+        <v>1480.21875</v>
       </c>
       <c r="I69">
-        <v>1321.229126</v>
+        <v>873.074341</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-134.75146500000005</v>
+        <v>-607.144409</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-2406.5546467870372</v>
+        <v>-2749.5585296666659</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-1842.0577978333336</v>
+        <v>-2068.1473727777766</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>5791505.2679722812</v>
+        <v>7560072.1080627181</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>3393176.9305585902</v>
+        <v>4277233.55552762</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>4433012.7530261055</v>
+        <v>5686492.2494288413</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>18157.957319646241</v>
+        <v>368624.33337995928</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>3907774.8616236676</v>
+        <v>7157186.1176477103</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>134.75146500000005</v>
+        <v>607.144409</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12863,46 +12864,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>975.89502000000005</v>
+        <v>819.31811500000003</v>
       </c>
       <c r="I70">
-        <v>1195.977783</v>
+        <v>744.20929000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>220.082763</v>
+        <v>-75.108825000000024</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-2531.8059897870371</v>
+        <v>-2878.4235806666657</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-2322.1433688333336</v>
+        <v>-2729.0480077777765</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>6410041.5699215187</v>
+        <v>8285322.3097379087</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>5392349.8254166236</v>
+        <v>7447703.0287558511</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>5879216.4903564826</v>
+        <v>7855356.1383589376</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>48436.422569714166</v>
+        <v>5641.3355928806286</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>4418658.7905964004</v>
+        <v>7863295.542814292</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>220.082763</v>
+        <v>75.108825000000024</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12930,46 +12931,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>759.93804899999998</v>
+        <v>770.69293200000004</v>
       </c>
       <c r="I71">
-        <v>1071.323975</v>
+        <v>698.13738999999998</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>311.38592600000004</v>
+        <v>-72.555542000000059</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-2656.4597977870371</v>
+        <v>-2924.495480666666</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-2538.1003398333337</v>
+        <v>-2777.6731907777767</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>7056778.6572587462</v>
+        <v>8552673.8164397534</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>6441953.3350620838</v>
+        <v>7715468.3547655949</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>6742361.5155168679</v>
+        <v>8123292.6931985654</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>96961.194910877501</v>
+        <v>5264.3066749137724</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>4958257.0807731254</v>
+        <v>8123803.8291520113</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>311.38592600000004</v>
+        <v>72.555542000000059</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12997,46 +12998,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>929.54351799999995</v>
+        <v>1013.7955930000001</v>
       </c>
       <c r="I72">
-        <v>1295.8088379999999</v>
+        <v>928.56951900000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>366.26531999999997</v>
+        <v>-85.22607400000004</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-2431.9749347870375</v>
+        <v>-2694.0633516666658</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-2368.4948708333336</v>
+        <v>-2534.5705297777768</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>5914502.0834324155</v>
+        <v>7257977.3427934293</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>5609767.9531638101</v>
+        <v>6424047.7704179995</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>5760120.1590383295</v>
+        <v>6828293.5764886737</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>134150.28463470237</v>
+        <v>7263.4836894534828</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>4008923.1742302529</v>
+        <v>6863334.2451655716</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>366.26531999999997</v>
+        <v>85.22607400000004</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13064,46 +13065,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>941.76611300000002</v>
+        <v>1020.536743</v>
       </c>
       <c r="I73">
-        <v>1367.61438</v>
+        <v>1060.384033</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>425.84826699999996</v>
+        <v>39.847290000000044</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-2360.1693927870374</v>
+        <v>-2562.2488376666661</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-2356.2722758333334</v>
+        <v>-2527.8293797777765</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>5570399.5626487331</v>
+        <v>6565119.1061241813</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>5552019.0378607968</v>
+        <v>6389921.3732676981</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>5561201.7064944897</v>
+        <v>6476927.8901552567</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>181346.74650690326</v>
+        <v>1587.8065203441035</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>3726536.8538801582</v>
+        <v>6190054.8790549906</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>425.84826699999996</v>
+        <v>39.847290000000044</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13131,46 +13132,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>4485.5122069999998</v>
+        <v>4720.2470700000003</v>
       </c>
       <c r="I74">
-        <v>2830.1823730000001</v>
+        <v>2457.8547359999998</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-1655.3298339999997</v>
+        <v>-2262.3923340000006</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-897.60139978703728</v>
+        <v>-1164.7781346666661</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>1187.4738181666662</v>
+        <v>1171.8809472222238</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>805688.27289964876</v>
+        <v>1356708.1029975582</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>1410094.0688313206</v>
+        <v>1373304.9544624565</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>-1065878.1613968574</v>
+        <v>-1364981.3037569076</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>2740116.8593304665</v>
+        <v>5118419.0729419701</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>218889.25155144036</v>
+        <v>1189215.0846919899</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>1655.3298339999997</v>
+        <v>2262.3923340000006</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13198,46 +13199,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>8208.0449219999991</v>
+        <v>8771.4462889999995</v>
       </c>
       <c r="I75">
-        <v>8990.6689449999994</v>
+        <v>9511.0449219999991</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>782.62402300000031</v>
+        <v>739.59863299999961</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>5262.8851722129621</v>
+        <v>5888.4120513333328</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>4910.0065331666656</v>
+        <v>5223.0801662222229</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>27697960.335899059</v>
+        <v>34673396.486287631</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>24108164.155739337</v>
+        <v>27280566.422783963</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>25840800.578871615</v>
+        <v>30755648.195863046</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>612500.361376705</v>
+        <v>547006.13793546811</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>32406042.649002403</v>
+        <v>35553538.462694168</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>782.62402300000031</v>
+        <v>739.59863299999961</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13265,46 +13266,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5554.1293949999999</v>
+        <v>5881.2065430000002</v>
       </c>
       <c r="I76">
-        <v>5716.5898440000001</v>
+        <v>5385.8833009999998</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>162.46044900000015</v>
+        <v>-495.32324200000039</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>1988.8060712129627</v>
+        <v>1763.250430333334</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>2256.0910061666664</v>
+        <v>2332.8404202222237</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>3955349.5888935402</v>
+        <v>3109052.0800706875</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>5089946.628106121</v>
+        <v>5442144.426222601</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>4486927.4902732279</v>
+        <v>4113381.8748558313</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>26393.397489281651</v>
+        <v>245345.11406539095</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>5849391.1412888002</v>
+        <v>3376469.3802617616</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>162.46044900000015</v>
+        <v>495.32324200000039</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13332,46 +13333,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>3833.2016600000002</v>
+        <v>4082.1999510000001</v>
       </c>
       <c r="I77">
-        <v>4660.3125</v>
+        <v>4481.5659180000002</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>827.11083999999983</v>
+        <v>399.36596700000018</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>932.52872721296262</v>
+        <v>858.93304733333434</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>535.16327116666662</v>
+        <v>533.83382822222347</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>869609.82707742811</v>
+        <v>737765.97980132792</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>286399.72680580715</v>
+        <v>284978.55615439441</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>499055.12411217717</v>
+        <v>458527.51684453414</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>684112.34164550528</v>
+        <v>159493.17559784523</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>1855790.7539549312</v>
+        <v>870861.85780280014</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>827.11083999999983</v>
+        <v>399.36596700000018</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13399,46 +13400,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>4268.4189450000003</v>
+        <v>4622.4653319999998</v>
       </c>
       <c r="I78">
-        <v>5370.0341799999997</v>
+        <v>5166.9428710000002</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>1101.6152349999993</v>
+        <v>544.47753900000043</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>1642.2504072129623</v>
+        <v>1544.3100003333343</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>970.38055616666679</v>
+        <v>1074.0992092222232</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>2696986.3999911402</v>
+        <v>2384893.3771295431</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>941638.42378632957</v>
+        <v>1153689.1112518052</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>1593607.8635162495</v>
+        <v>1658742.1501520055</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>1213556.1259841037</v>
+        <v>296455.79047549702</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>4293166.5586123783</v>
+        <v>2619790.6898856275</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>1101.6152349999993</v>
+        <v>544.47753900000043</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13466,46 +13467,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>2346.5759280000002</v>
+        <v>2584.5043949999999</v>
       </c>
       <c r="I79">
-        <v>2892.6667480000001</v>
+        <v>2673.9582519999999</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>546.09081999999989</v>
+        <v>89.453856999999971</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-835.11702478703728</v>
+        <v>-948.67461866666599</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-951.46246083333335</v>
+        <v>-963.86172777777665</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>697420.44508915301</v>
+        <v>899983.53210234409</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>905280.81437502243</v>
+        <v>929029.43027476082</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>794582.49948768632</v>
+        <v>914391.15704697603</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>298215.18368827226</v>
+        <v>8001.992532176444</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>164326.1671919091</v>
+        <v>764589.12447812501</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>546.09081999999989</v>
+        <v>89.453856999999971</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13533,46 +13534,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2012.51062</v>
+        <v>2207.4389649999998</v>
       </c>
       <c r="I80">
-        <v>2139.8793949999999</v>
+        <v>1824.7143550000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>127.36877499999991</v>
+        <v>-382.72460999999976</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-1587.9043777870374</v>
+        <v>-1797.9185156666658</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-1285.5277688333335</v>
+        <v>-1340.9271577777768</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>2521440.3129952387</v>
+        <v>3232510.9889770267</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>1652581.6444416086</v>
+        <v>1798085.6424659865</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2041295.171897253</v>
+        <v>2410877.7651289413</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>16222.804845000603</v>
+        <v>146478.1270996519</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>1341332.2549970397</v>
+        <v>2970975.4165634541</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>127.36877499999991</v>
+        <v>382.72460999999976</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13600,46 +13601,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>1603.2926030000001</v>
+        <v>1774.9144289999999</v>
       </c>
       <c r="I81">
-        <v>1690.524048</v>
+        <v>1258.253418</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>87.231444999999894</v>
+        <v>-516.66101099999992</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-2037.2597247870374</v>
+        <v>-2364.3794526666661</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-1694.7457858333335</v>
+        <v>-1773.4516937777767</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>4150427.1862393552</v>
+        <v>5590290.1961923232</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>2872163.2785998429</v>
+        <v>3145130.9101632647</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>3452637.3332308084</v>
+        <v>4193112.7450650716</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>7609.3249967880065</v>
+        <v>266938.60028754204</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>2584102.355984827</v>
+        <v>5244616.200584583</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>87.231444999999894</v>
+        <v>516.66101099999992</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13667,46 +13668,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>1425.6701660000001</v>
+        <v>1538.377808</v>
       </c>
       <c r="I82">
-        <v>1290.2116699999999</v>
+        <v>802.32867399999998</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-135.4584960000002</v>
+        <v>-736.04913399999998</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-2437.5721027870377</v>
+        <v>-2820.304196666666</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-1872.3682228333334</v>
+        <v>-2009.9883147777766</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>5941757.7562856209</v>
+        <v>7954115.7617356088</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>3505762.7618760555</v>
+        <v>4040053.0255432064</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>4564032.5461234776</v>
+        <v>5668778.4794187229</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>18349.00413858207</v>
+        <v>541768.32766214991</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>4031368.1328610308</v>
+        <v>7540721.670089961</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>135.4584960000002</v>
+        <v>736.04913399999998</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13734,46 +13735,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1321.756836</v>
+        <v>1400.272461</v>
       </c>
       <c r="I83">
-        <v>1168.6256100000001</v>
+        <v>691.17334000000005</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-153.13122599999997</v>
+        <v>-709.09912099999997</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-2559.1581627870373</v>
+        <v>-2931.4595306666661</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-1976.2815528333335</v>
+        <v>-2148.0936617777766</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>6549290.5021595238</v>
+        <v>8593454.9799364302</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>3905688.7760693319</v>
+        <v>4614306.379769857</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>5057617.0678988667</v>
+        <v>6297049.6375831207</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>23449.172376263068</v>
+        <v>502821.56340297259</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>4534398.782658699</v>
+        <v>8163550.5979574136</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>153.13122599999997</v>
+        <v>709.09912099999997</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13801,46 +13802,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>1807.9968260000001</v>
+        <v>1978.5141599999999</v>
       </c>
       <c r="I84">
-        <v>1636.4364009999999</v>
+        <v>1086.6118160000001</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-171.56042500000012</v>
+        <v>-891.90234399999986</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-2091.3473717870374</v>
+        <v>-2536.0210546666658</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-1490.0415628333335</v>
+        <v>-1569.8519627777766</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>4373733.8294805493</v>
+        <v>6431402.7897126283</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>2220223.8589708027</v>
+        <v>2464435.1850372376</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>3116194.5062849419</v>
+        <v>3981177.6303142323</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>29432.979426180667</v>
+        <v>795489.79123269406</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>2760921.1659716857</v>
+        <v>6060234.2669389313</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>171.56042500000012</v>
+        <v>891.90234399999986</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13868,46 +13869,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>7734.8129879999997</v>
+        <v>7701.6196289999998</v>
       </c>
       <c r="I85">
-        <v>5785.9057620000003</v>
+        <v>5337.0673829999996</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-1948.9072259999994</v>
+        <v>-2364.5522460000002</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>2058.1219892129629</v>
+        <v>1714.4345123333337</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>4436.7745991666661</v>
+        <v>4153.2535062222232</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>4235866.1224819236</v>
+        <v>2939285.6970796357</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>19684968.843810532</v>
+        <v>17249514.686947189</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>9131423.3637264445</v>
+        <v>7120481.1495368052</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>3798239.3755550124</v>
+        <v>5591107.3240636457</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>6189484.0664672107</v>
+        <v>3199452.198320569</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>1948.9072259999994</v>
+        <v>2364.5522460000002</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13935,46 +13936,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6234.0634769999997</v>
+        <v>6564.0747069999998</v>
       </c>
       <c r="I86">
-        <v>5835.2709960000002</v>
+        <v>5738.3837890000004</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-398.7924809999995</v>
+        <v>-825.69091799999933</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>2107.4872232129628</v>
+        <v>2115.7509183333345</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>2936.0250881666661</v>
+        <v>3015.7085842222232</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>4441502.3960058847</v>
+        <v>4476401.9484283486</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>8620243.318344079</v>
+        <v>9094498.2649516053</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>6187635.360343962</v>
+        <v>6380488.206493889</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>159035.44290213496</v>
+        <v>681765.49206768163</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>6437549.3028697604</v>
+        <v>4796177.3783654356</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>398.7924809999995</v>
+        <v>825.69091799999933</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -14002,46 +14003,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>3465.6154790000001</v>
+        <v>3730.7092290000001</v>
       </c>
       <c r="I87">
-        <v>5423.5200199999999</v>
+        <v>5494.9433589999999</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1957.9045409999999</v>
+        <v>1764.2341299999998</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>1695.7362472129626</v>
+        <v>1872.310488333334</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>167.57709016666649</v>
+        <v>182.34310622222347</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>2875521.4201119016</v>
+        <v>3505546.5647230074</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>28082.081148727073</v>
+        <v>33249.00838676907</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>284166.54599809129</v>
+        <v>341402.91025514819</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>3833390.1916684201</v>
+        <v>3112522.065456856</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>4517672.1644269126</v>
+        <v>3789162.9365785494</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1957.9045409999999</v>
+        <v>1764.2341299999998</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14069,46 +14070,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>3673.352539</v>
+        <v>3885.8435060000002</v>
       </c>
       <c r="I88">
-        <v>3431.076904</v>
+        <v>3571.7241210000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-242.27563499999997</v>
+        <v>-314.11938499999997</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-296.70686878703737</v>
+        <v>-50.908749666665699</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>375.31415016666642</v>
+        <v>337.47738322222358</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>88034.965985408213</v>
+        <v>2591.700792623235</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>140860.71131532703</v>
+        <v>113890.98418651955</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>-111358.28630741953</v>
+        <v>-17180.551620621587</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>58697.483314653211</v>
+        <v>98670.988032778201</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>17699.24651775134</v>
+        <v>545.59608094940154</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>242.27563499999997</v>
+        <v>314.11938499999997</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14136,46 +14137,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>7341.8979490000002</v>
+        <v>7912.1274409999996</v>
       </c>
       <c r="I89">
-        <v>6139.3974609999996</v>
+        <v>6436.5395509999998</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-1202.5004880000006</v>
+        <v>-1475.5878899999998</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>2411.6136882129622</v>
+        <v>2813.906680333334</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>4043.8595601666666</v>
+        <v>4363.7613182222231</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>5815880.5811761264</v>
+        <v>7918070.8056245632</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>16352800.142351346</v>
+        <v>19042412.842412554</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>9752227.0685087815</v>
+        <v>12279217.124725709</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>1446007.4236402395</v>
+        <v>2177359.6211146517</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>8073321.3769838167</v>
+        <v>8341545.7514889101</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>1202.5004880000006</v>
+        <v>1475.5878899999998</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14203,46 +14204,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>7085.6723629999997</v>
+        <v>7566.939453</v>
       </c>
       <c r="I90">
-        <v>9053.6787110000005</v>
+        <v>9411.5224610000005</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>1968.0063480000008</v>
+        <v>1844.5830080000005</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>5325.8949382129631</v>
+        <v>5788.8895903333341</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>3787.6339741666661</v>
+        <v>4018.5733302222234</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>28365156.892882463</v>
+        <v>33511242.689069636</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>14346171.122261573</v>
+        <v>16148931.610373331</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>20172540.610817697</v>
+        <v>23263077.319314588</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>3873048.9857683</v>
+        <v>3402486.4734023302</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>33127395.518150814</v>
+        <v>34376602.246435434</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1968.0063480000008</v>
+        <v>1844.5830080000005</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14270,46 +14271,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>4439.4423829999996</v>
+        <v>4724.8159180000002</v>
       </c>
       <c r="I91">
-        <v>5825.9858400000003</v>
+        <v>5637.3295900000003</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>1386.5434570000007</v>
+        <v>912.51367200000004</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>2098.2020672129629</v>
+        <v>2014.6967193333344</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>1141.4039941666661</v>
+        <v>1176.4497952222237</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>4402451.9148567505</v>
+        <v>4059002.8708925005</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>1302803.0778996185</v>
+        <v>1384034.120678412</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>2394896.2200856316</v>
+        <v>2370189.5428945869</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>1922502.7581495128</v>
+        <v>832681.20158692368</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>6390518.315860047</v>
+        <v>4363768.3673890941</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>1386.5434570000007</v>
+        <v>912.51367200000004</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14337,46 +14338,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>3948.8469239999999</v>
+        <v>4086.341797</v>
       </c>
       <c r="I92">
-        <v>6174.6899409999996</v>
+        <v>5607.1303710000002</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>2225.8430169999997</v>
+        <v>1520.7885740000002</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>2446.9061682129623</v>
+        <v>1984.4975003333343</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>650.80853516666639</v>
+        <v>537.97567422222346</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>5987349.7960386416</v>
+        <v>3938230.3288292522</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>423551.74944578204</v>
+        <v>289417.82605485589</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>1592467.4190249585</v>
+        <v>1067611.3807341426</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>4954377.1363276606</v>
+        <v>2312797.8868089537</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>8275124.1525828894</v>
+        <v>4238510.2297580177</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>2225.8430169999997</v>
+        <v>1520.7885740000002</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14404,46 +14405,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>1938.3732910000001</v>
+        <v>2027.818115</v>
       </c>
       <c r="I93">
-        <v>2759.5747070000002</v>
+        <v>2252.694336</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>821.20141600000011</v>
+        <v>224.87622099999999</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-968.20906578703716</v>
+        <v>-1369.9385346666659</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-1359.6650978333334</v>
+        <v>-1520.5480077777765</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>937428.79507220723</v>
+        <v>1876731.5887646517</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>1848689.1782661283</v>
+        <v>2312066.2439569654</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>1316440.0741564522</v>
+        <v>2083057.3096654052</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>674371.76564040524</v>
+        <v>50569.314771240832</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>289943.13665350922</v>
+        <v>1678765.3790519161</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>821.20141600000011</v>
+        <v>224.87622099999999</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14471,46 +14472,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>1459.669189</v>
+        <v>1546.1163329999999</v>
       </c>
       <c r="I94">
-        <v>1388.409058</v>
+        <v>947.28631600000006</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>-71.260131000000001</v>
+        <v>-598.83001699999988</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-2339.3747147870372</v>
+        <v>-2675.3465546666657</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-1838.3691998333336</v>
+        <v>-2002.2497897777766</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>5472674.0561849317</v>
+        <v>7157479.1875667982</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>3379601.3148958511</v>
+        <v>4009004.2206651508</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>4300634.4225333789</v>
+        <v>5356712.0766640306</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>5078.0062701371608</v>
+        <v>358597.38926022017</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>3646684.1811789656</v>
+        <v>6765616.1612271145</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>71.260131000000001</v>
+        <v>598.83001699999988</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14538,46 +14539,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1382.4578859999999</v>
+        <v>1473.92749</v>
       </c>
       <c r="I95">
-        <v>1136.223755</v>
+        <v>702.44189500000005</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-246.23413099999993</v>
+        <v>-771.48559499999999</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-2591.5600177870374</v>
+        <v>-2920.190975666666</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-1915.5805028333336</v>
+        <v>-2074.4386327777765</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>6716183.3257923499</v>
+        <v>8527515.3343650345</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>3669448.6628352073</v>
+        <v>4303295.6411609305</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>4964341.841995256</v>
+        <v>6057756.9750119597</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>60631.247269325126</v>
+        <v>595190.02329250402</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>4673442.5110559501</v>
+        <v>8099284.7102525346</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>246.23413099999993</v>
+        <v>771.48559499999999</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14605,46 +14606,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>2360.2602539999998</v>
+        <v>2322.7153320000002</v>
       </c>
       <c r="I96">
-        <v>1847.5541989999999</v>
+        <v>1288.143311</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-512.70605499999988</v>
+        <v>-1034.5720210000002</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-1880.2295737870375</v>
+        <v>-2334.4895596666656</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-937.77813483333375</v>
+        <v>-1225.6507907777764</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>3535263.2501433846</v>
+        <v>5449841.5041926624</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>879427.83017148625</v>
+        <v>1502219.8609341886</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>1763238.182764482</v>
+        <v>2861268.9748679115</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>262867.49883366289</v>
+        <v>1070339.2666360247</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>2103904.3849564623</v>
+        <v>5108607.1588806389</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>512.70605499999988</v>
+        <v>1034.5720210000002</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14672,46 +14673,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>6108.923828</v>
+        <v>6300.220703</v>
       </c>
       <c r="I97">
-        <v>5111.8559569999998</v>
+        <v>4434.1489259999998</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-997.0678710000002</v>
+        <v>-1866.0717770000001</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>1384.0721842129624</v>
+        <v>811.51605533333395</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>2810.8854391666664</v>
+        <v>2751.8545802222234</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>1915655.8111120404</v>
+        <v>658558.30806377472</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>7901076.9521191828</v>
+        <v>7572703.6306900289</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>3890468.3493598201</v>
+        <v>2233174.1737929061</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>994144.33938047301</v>
+        <v>3482223.8769159382</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>3289934.1705900389</v>
+        <v>784611.17448421987</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>997.0678710000002</v>
+        <v>1866.0717770000001</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14739,46 +14740,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7255.939453</v>
+        <v>7569.8383789999998</v>
       </c>
       <c r="I98">
-        <v>7941.2744140000004</v>
+        <v>7605.4594729999999</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>685.33496100000048</v>
+        <v>35.621094000000085</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>4213.4906412129631</v>
+        <v>3982.826602333334</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>3957.9010641666664</v>
+        <v>4021.4722562222232</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>17753503.383589227</v>
+        <v>15862907.74425409</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>15664980.833731631</v>
+        <v>16172239.107565058</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>16676579.092713077</v>
+        <v>16016826.682627324</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>469684.00876887218</v>
+        <v>1268.862337756842</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>21559640.785405546</v>
+        <v>16460006.452417385</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>685.33496100000048</v>
+        <v>35.621094000000085</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14806,46 +14807,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>4019.8405760000001</v>
+        <v>4200.9331050000001</v>
       </c>
       <c r="I99">
-        <v>5123.0849609999996</v>
+        <v>4712.3051759999998</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>1103.2443849999995</v>
+        <v>511.37207099999978</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>1395.3011882129622</v>
+        <v>1089.672305333334</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>721.8021871666665</v>
+        <v>652.56698222222349</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>1946865.4058285041</v>
+        <v>1187385.7330104625</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>520998.39739858347</v>
+        <v>425843.66628661973</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>1007131.4494083647</v>
+        <v>711084.167902507</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>1217148.1730340272</v>
+        <v>261501.39499882882</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>3330794.9905772978</v>
+        <v>1354754.1196158454</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>1103.2443849999995</v>
+        <v>511.37207099999978</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14873,46 +14874,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5334.2202150000003</v>
+        <v>5638.4545900000003</v>
       </c>
       <c r="I100">
-        <v>5244.8569340000004</v>
+        <v>5044.9755859999996</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-89.363280999999915</v>
+        <v>-593.47900400000071</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>1517.073161212963</v>
+        <v>1422.3427153333337</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>2036.1818261666667</v>
+        <v>2090.0884672222237</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>2301510.9764726926</v>
+        <v>2023058.7998618006</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>4146036.4292114219</v>
+        <v>4368469.8008153448</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>3089036.799827049</v>
+        <v>2972822.1057557431</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>7985.7959910849459</v>
+        <v>352217.32818883285</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>3790102.447804857</v>
+        <v>2239839.8854063102</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>89.363280999999915</v>
+        <v>593.47900400000071</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14940,46 +14941,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>2578.8488769999999</v>
+        <v>2807.9780270000001</v>
       </c>
       <c r="I101">
-        <v>3818.216797</v>
+        <v>3612.046143</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>1239.3679200000001</v>
+        <v>804.06811599999992</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>90.433024212962664</v>
+        <v>-10.586727666665865</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-719.18951183333365</v>
+        <v>-740.38809577777647</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>8178.1318683022919</v>
+        <v>112.07880268814849</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>517233.55393106875</v>
+        <v>548174.53236944193</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>-65038.48253733266</v>
+        <v>7838.2871376406429</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>1536032.8411251267</v>
+        <v>646525.53516778932</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>270585.57632280706</v>
+        <v>4055.144975502787</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>1239.3679200000001</v>
+        <v>804.06811599999992</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -15007,46 +15008,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>2947.0534670000002</v>
+        <v>3264.6008299999999</v>
       </c>
       <c r="I102">
-        <v>2707.4956050000001</v>
+        <v>2506.0534670000002</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-239.55786200000011</v>
+        <v>-758.54736299999968</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-1020.2881677870373</v>
+        <v>-1116.5794036666657</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-350.98492183333337</v>
+        <v>-283.76529277777672</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>1040987.9453262296</v>
+        <v>1246749.5646926069</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>123190.41535435113</v>
+        <v>80522.741385257337</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>358105.7628182082</v>
+        <v>316846.48139110673</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>57387.969246011096</v>
+        <v>575394.10191425332</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>348740.77953762322</v>
+        <v>1086415.6723945213</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>239.55786200000011</v>
+        <v>758.54736299999968</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15074,46 +15075,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>3150.7312010000001</v>
+        <v>3498.9194339999999</v>
       </c>
       <c r="I103">
-        <v>4014.1247560000002</v>
+        <v>3726.0832519999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>863.39355500000011</v>
+        <v>227.16381799999999</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>286.34098321296278</v>
+        <v>103.45038133333401</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-147.3071878333335</v>
+        <v>-49.446688777776671</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>81991.158667366239</v>
+        <v>10701.981398012222</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>21699.407587364996</v>
+        <v>2444.9750310863055</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>-42180.084998533304</v>
+        <v>-5115.2788097316843</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>745448.43081553816</v>
+        <v>51603.400208337123</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>512779.68524195405</v>
+        <v>31583.378018988424</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>863.39355500000011</v>
+        <v>227.16381799999999</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15141,46 +15142,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>1935.4331050000001</v>
+        <v>2074.4777829999998</v>
       </c>
       <c r="I104">
-        <v>2712.9604490000002</v>
+        <v>2238.8271479999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>777.52734400000008</v>
+        <v>164.34936500000003</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-1014.8233237870372</v>
+        <v>-1383.805722666666</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-1362.6052838333335</v>
+        <v>-1473.8883397777768</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>1029866.3785021697</v>
+        <v>1914918.2780850139</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>1856693.1595305193</v>
+        <v>2172346.8381328913</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>1382803.6231495228</v>
+        <v>2039575.119156159</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>604548.77066769451</v>
+        <v>27010.713775903238</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>342316.1956796177</v>
+        <v>1714892.3264620306</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>777.52734400000008</v>
+        <v>164.34936500000003</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15208,46 +15209,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>1481.8670649999999</v>
+        <v>1592.952759</v>
       </c>
       <c r="I105">
-        <v>1595.2501219999999</v>
+        <v>1157.7342530000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>113.38305700000001</v>
+        <v>-435.21850599999993</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-2132.5336507870375</v>
+        <v>-2464.8986176666658</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-1816.1713238333336</v>
+        <v>-1955.4133637777766</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>4547699.7717390899</v>
+        <v>6075725.1953750402</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>3298478.2775145238</v>
+        <v>3823641.4232407194</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>3873046.4636690258</v>
+        <v>4819895.6973427664</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>12855.717614665251</v>
+        <v>189415.14796487198</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>2899487.8816652684</v>
+        <v>5715120.7367971875</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>113.38305700000001</v>
+        <v>435.21850599999993</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15275,46 +15276,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1385.2835689999999</v>
+        <v>1456.475586</v>
       </c>
       <c r="I106">
-        <v>1266.549072</v>
+        <v>832.49157700000001</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>-118.73449699999992</v>
+        <v>-623.98400900000001</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-2461.2347007870376</v>
+        <v>-2790.1412936666657</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-1912.7548198333336</v>
+        <v>-2091.8905367777766</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>6057676.2523582587</v>
+        <v>7784888.4386238949</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>3658631.0007956484</v>
+        <v>4376006.0178604145</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>4707738.5366714587</v>
+        <v>5836670.1684942013</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>14097.880777842989</v>
+        <v>389356.0434877121</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>4126948.844407964</v>
+        <v>7375974.5484036459</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>118.73449699999992</v>
+        <v>623.98400900000001</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15342,46 +15343,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1325.791626</v>
+        <v>1402.954712</v>
       </c>
       <c r="I107">
-        <v>1054.820557</v>
+        <v>658.05114700000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-270.97106899999994</v>
+        <v>-744.90356499999996</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-2672.9632157870374</v>
+        <v>-2964.5817236666658</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-1972.2467628333336</v>
+        <v>-2145.4114107777768</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>7144732.3529505804</v>
+        <v>8788744.7962984182</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>3889757.2935065636</v>
+        <v>4602790.1214954909</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>5271743.0495085614</v>
+        <v>6360247.4581377143</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>73425.320235002728</v>
+        <v>554881.32114970917</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>5032026.2410550416</v>
+        <v>8353920.6592052886</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>270.97106899999994</v>
+        <v>744.90356499999996</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15409,46 +15410,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>1701.0245359999999</v>
+        <v>1819.122314</v>
       </c>
       <c r="I108">
-        <v>1955.9945070000001</v>
+        <v>1479.0920410000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>254.96997100000021</v>
+        <v>-340.03027299999985</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-1771.7892657870373</v>
+        <v>-2143.5408296666656</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-1597.0138528333337</v>
+        <v>-1729.2438087777766</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>3139237.2023581685</v>
+        <v>4594767.2884480571</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>2550453.2461415688</v>
+        <v>2990284.1501962715</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>2829572.0017633</v>
+        <v>3706704.70856346</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>65009.68611174095</v>
+        <v>115620.58655645442</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>1801081.7807662822</v>
+        <v>4281895.2255172608</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>254.96997100000021</v>
+        <v>340.03027299999985</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15476,46 +15477,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1726.9293210000001</v>
+        <v>1855.8881839999999</v>
       </c>
       <c r="I109">
-        <v>2288.4916990000002</v>
+        <v>1868.7163089999999</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>561.56237800000008</v>
+        <v>12.828125</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-1439.2920737870372</v>
+        <v>-1753.916561666666</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-1571.1090678333335</v>
+        <v>-1692.4779387777767</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>2071561.6736661901</v>
+        <v>3076223.3052886198</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>2468383.7030281262</v>
+        <v>2864481.5732494714</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>2261284.8283874574</v>
+        <v>2968465.0870778039</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>315352.30438501498</v>
+        <v>164.560791015625</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>1019184.5189534407</v>
+        <v>2821223.49692372</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>561.56237800000008</v>
+        <v>12.828125</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15543,46 +15544,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>3427.961182</v>
+        <v>2919.9172359999998</v>
       </c>
       <c r="I110">
-        <v>2241.2761230000001</v>
+        <v>1918.775024</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-1186.6850589999999</v>
+        <v>-1001.1422119999997</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-1486.5076497870373</v>
+        <v>-1703.8578466666659</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>129.92279316666645</v>
+        <v>-628.44888677777681</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>2209704.9928753809</v>
+        <v>2903131.5616475674</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>16879.93218422839</v>
+        <v>394948.00329222693</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>-193131.22592394869</v>
+        <v>1070787.5669652461</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>1408221.4292538334</v>
+        <v>1002285.7286482524</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>1116746.486489201</v>
+        <v>2655567.1492157611</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>1186.6850589999999</v>
+        <v>1001.1422119999997</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15610,46 +15611,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>5644.2211909999996</v>
+        <v>5851.0014650000003</v>
       </c>
       <c r="I111">
-        <v>5094.9677730000003</v>
+        <v>4757.0766599999997</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-549.25341799999933</v>
+        <v>-1093.9248050000006</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>1367.1840002129629</v>
+        <v>1134.4437893333338</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>2346.1828021666661</v>
+        <v>2302.6353422222237</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>1869192.0904383189</v>
+        <v>1286962.7111569734</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>5504573.741182629</v>
+        <v>5302129.5192508576</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>3207663.588697081</v>
+        <v>2612210.3630834376</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>301679.317184682</v>
+        <v>1196671.4789942892</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>3228955.211681596</v>
+        <v>1460981.1627920354</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>549.25341799999933</v>
+        <v>1093.9248050000006</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD08A49-0AE5-475B-8D97-3BBC80841763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B074D58E-299B-4D32-B0E0-0ABAD75656F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,10 +221,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
+    <t xml:space="preserve"> adjusted Q_DISCHARG (cfs)</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</c:v>
+                  <c:v> adjusted Q_DISCHARG (cfs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -931,328 +931,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5375.140625</c:v>
+                  <c:v>5344.2739259999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2507.2370609999998</c:v>
+                  <c:v>2498.7497560000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2900.8276369999999</c:v>
+                  <c:v>2882.828857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3452.163818</c:v>
+                  <c:v>3433.1811520000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2965.7944339999999</c:v>
+                  <c:v>2947.5266109999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2849.1682129999999</c:v>
+                  <c:v>2830.3190920000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1555.255737</c:v>
+                  <c:v>1545.4291989999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1420.4868160000001</c:v>
+                  <c:v>1411.9506839999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2082.3071289999998</c:v>
+                  <c:v>2063.3442380000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2665.358643</c:v>
+                  <c:v>2514.3791500000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6184.736328</c:v>
+                  <c:v>6110.1420900000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7408.294922</c:v>
+                  <c:v>7341.9204099999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5891.3989259999998</c:v>
+                  <c:v>5847.3041990000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2855.6914059999999</c:v>
+                  <c:v>2824.7448730000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4416.2963870000003</c:v>
+                  <c:v>4339.8076170000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4761.8652339999999</c:v>
+                  <c:v>4723.1235349999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3689.0307619999999</c:v>
+                  <c:v>3588.7854000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3018.024414</c:v>
+                  <c:v>2948.3801269999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1702.409668</c:v>
+                  <c:v>1732.5985109999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1445.7901609999999</c:v>
+                  <c:v>1436.3604740000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1805.8903809999999</c:v>
+                  <c:v>1794.2176509999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2917.188232</c:v>
+                  <c:v>2914.96875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4724.9389650000003</c:v>
+                  <c:v>4681.7846680000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3271.858154</c:v>
+                  <c:v>3230.8879390000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6406.3701170000004</c:v>
+                  <c:v>6317.2241210000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4753.7392579999996</c:v>
+                  <c:v>4712.0424800000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5184.970703</c:v>
+                  <c:v>5112.673828</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6405.2260740000002</c:v>
+                  <c:v>6329.7309569999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3785.1821289999998</c:v>
+                  <c:v>3693.9643550000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3311.0627439999998</c:v>
+                  <c:v>3343.258789</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1608.686279</c:v>
+                  <c:v>1601.7967530000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1446.955688</c:v>
+                  <c:v>1437.911865</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1800.8569339999999</c:v>
+                  <c:v>1791.5225829999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4524.8193359999996</c:v>
+                  <c:v>4485.6948240000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7490.6806640000004</c:v>
+                  <c:v>7431.7124020000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7387.4067379999997</c:v>
+                  <c:v>7327.814453</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4182.8950199999999</c:v>
+                  <c:v>4148.7451170000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2924.3034670000002</c:v>
+                  <c:v>2896.4123540000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2711.5786130000001</c:v>
+                  <c:v>2695.0310060000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2915.6591800000001</c:v>
+                  <c:v>2898.9968260000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2636.139404</c:v>
+                  <c:v>2616.970703</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1908.3404539999999</c:v>
+                  <c:v>1893.960327</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1482.8170170000001</c:v>
+                  <c:v>1473.6057129999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1434.6082759999999</c:v>
+                  <c:v>1424.8917240000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2732.2304690000001</c:v>
+                  <c:v>2707.211914</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3555.435547</c:v>
+                  <c:v>3462.2526859999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4744.9829099999997</c:v>
+                  <c:v>4700.5009769999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3036.5668949999999</c:v>
+                  <c:v>2999.756836</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2935.3073730000001</c:v>
+                  <c:v>2898.0302729999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5520.3715819999998</c:v>
+                  <c:v>5460.3359380000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7219.6870120000003</c:v>
+                  <c:v>7160.0971680000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3571.0258789999998</c:v>
+                  <c:v>3501.1801759999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3581.517578</c:v>
+                  <c:v>3558.2062989999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1878.2303469999999</c:v>
+                  <c:v>1856.2923579999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1568.791138</c:v>
+                  <c:v>1558.5023189999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1438.099731</c:v>
+                  <c:v>1429.0692140000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1866.9051509999999</c:v>
+                  <c:v>1854.6507570000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3843.3283689999998</c:v>
+                  <c:v>3844.8139649999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6448.3969729999999</c:v>
+                  <c:v>6406.7221680000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7631.2880859999996</c:v>
+                  <c:v>7578.0610349999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4952.123047</c:v>
+                  <c:v>4911.5566410000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2849.5603030000002</c:v>
+                  <c:v>2824.3354490000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2458.9929200000001</c:v>
+                  <c:v>2440.6071780000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2650.9035640000002</c:v>
+                  <c:v>2635.2866210000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2107.4106449999999</c:v>
+                  <c:v>2093.8378910000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1480.21875</c:v>
+                  <c:v>1462.582764</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>819.31811500000003</c:v>
+                  <c:v>791.11437999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>770.69293200000004</c:v>
+                  <c:v>756.16619900000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1013.7955930000001</c:v>
+                  <c:v>1016.33374</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1020.536743</c:v>
+                  <c:v>1009.126831</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4720.2470700000003</c:v>
+                  <c:v>4682.419922</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8771.4462889999995</c:v>
+                  <c:v>8711.2900389999995</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5881.2065430000002</c:v>
+                  <c:v>5850.6259769999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4082.1999510000001</c:v>
+                  <c:v>4041.8291020000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4622.4653319999998</c:v>
+                  <c:v>4578.2202150000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2584.5043949999999</c:v>
+                  <c:v>2587.9663089999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2207.4389649999998</c:v>
+                  <c:v>2195.5588379999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1774.9144289999999</c:v>
+                  <c:v>1761.8964840000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1538.377808</c:v>
+                  <c:v>1527.7673339999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1400.272461</c:v>
+                  <c:v>1392.724731</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1978.5141599999999</c:v>
+                  <c:v>1965.5225829999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7701.6196289999998</c:v>
+                  <c:v>7610.9907229999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6564.0747069999998</c:v>
+                  <c:v>6534.8056640000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3730.7092290000001</c:v>
+                  <c:v>3708.7924800000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3885.8435060000002</c:v>
+                  <c:v>3876.7875979999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7912.1274409999996</c:v>
+                  <c:v>7853.7348629999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7566.939453</c:v>
+                  <c:v>7514.7910160000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4724.8159180000002</c:v>
+                  <c:v>4695.4692379999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4086.341797</c:v>
+                  <c:v>4026.1362300000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2027.818115</c:v>
+                  <c:v>2046.2100829999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1546.1163329999999</c:v>
+                  <c:v>1534.3342290000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1473.92749</c:v>
+                  <c:v>1462.4663089999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2322.7153320000002</c:v>
+                  <c:v>2319.8374020000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6300.220703</c:v>
+                  <c:v>6269.0048829999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7569.8383789999998</c:v>
+                  <c:v>7530.6625979999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4200.9331050000001</c:v>
+                  <c:v>4179.5517579999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5638.4545900000003</c:v>
+                  <c:v>5610.2641599999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2807.9780270000001</c:v>
+                  <c:v>2788.5512699999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3264.6008299999999</c:v>
+                  <c:v>3253.915039</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3498.9194339999999</c:v>
+                  <c:v>3485.3520509999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2074.4777829999998</c:v>
+                  <c:v>2064.7333979999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1592.952759</c:v>
+                  <c:v>1581.778687</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1456.475586</c:v>
+                  <c:v>1448.85437</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1402.954712</c:v>
+                  <c:v>1394.802856</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1819.122314</c:v>
+                  <c:v>1808.586182</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1855.8881839999999</c:v>
+                  <c:v>1835.5074460000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2919.9172359999998</c:v>
+                  <c:v>2890.8710940000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5851.0014650000003</c:v>
+                  <c:v>5818.4677730000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,7 +7909,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I111"/>
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7928,7 +7928,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>3447.2309469166667</v>
+        <v>3410.3370970833334</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>104181711.3241784</v>
+        <v>106989517.72228058</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-74.266747888889313</v>
+        <v>-104.31173362962863</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7966,7 +7966,7 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>3548.3661227777766</v>
+        <v>3518.3211370370373</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
@@ -7980,12 +7980,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>964645.47522387409</v>
+        <v>990643.68261370901</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>733.06625081481525</v>
+        <v>742.89820922222259</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>2.0929843572835963E-2</v>
+        <v>2.9648155914918845E-2</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -8023,10 +8023,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.83710201933385364</v>
+        <v>0.83271174788852198</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -8111,14 +8111,14 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5375.140625</v>
+        <v>5344.2739259999998</v>
       </c>
       <c r="I4">
         <v>6456.1528319999998</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>1081.0122069999998</v>
+        <v>1111.8789059999999</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>1826.7745022222234</v>
+        <v>1825.9527889629626</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
@@ -8134,23 +8134,23 @@
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>3337105.0819692523</v>
+        <v>3334103.5875216215</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>5176202.0169014344</v>
+        <v>5173873.6759788273</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>1168587.3916830104</v>
+        <v>1236274.7016077565</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>8455223.5463294052</v>
+        <v>8630855.0679289531</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>1081.0122069999998</v>
+        <v>1111.8789059999999</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.40341839134943264</v>
+        <v>0.40863361700856632</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8210,14 +8210,14 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>2507.2370609999998</v>
+        <v>2498.7497560000002</v>
       </c>
       <c r="I5">
         <v>2734.970703</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>227.73364200000015</v>
+        <v>236.2209469999998</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1041.1290617777768</v>
+        <v>-1019.5713810370371</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
@@ -8233,23 +8233,23 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>1083949.7232782738</v>
+        <v>1039525.8010297711</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>924170.8797984235</v>
+        <v>905034.94218223263</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>51862.611698584231</v>
+        <v>55800.335801576715</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>661612.10891546542</v>
+        <v>613637.90250601468</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>227.73364200000015</v>
+        <v>236.2209469999998</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8290,11 +8290,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.85076876319571082</v>
+        <v>0.84856220576082275</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -8309,14 +8309,14 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>2900.8276369999999</v>
+        <v>2882.828857</v>
       </c>
       <c r="I6">
         <v>3057.4772950000001</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>156.64965800000027</v>
+        <v>174.64843800000017</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-647.53848577777671</v>
+        <v>-635.49228003703729</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
@@ -8332,23 +8332,23 @@
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>419306.09056337591</v>
+        <v>403850.43798667222</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>365959.98569606047</v>
+        <v>359152.00535605376</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>24539.115351517048</v>
+        <v>30502.076895839902</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>240971.84123703945</v>
+        <v>212377.04674345761</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>156.64965800000027</v>
+        <v>174.64843800000017</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>3548.3661227777766</v>
+        <v>3518.3211370370373</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8405,14 +8405,14 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>3452.163818</v>
+        <v>3433.1811520000001</v>
       </c>
       <c r="I7">
         <v>3770.7221679999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>318.55834999999979</v>
+        <v>337.54101599999967</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-96.20230477777659</v>
+        <v>-85.13998503703715</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
@@ -8428,23 +8428,23 @@
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>9254.883444556217</v>
+        <v>7248.8170521069096</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>-14246.531716388165</v>
+        <v>-12608.320559105392</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>101479.42235472237</v>
+        <v>113933.93748231203</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>49442.210846867369</v>
+        <v>63706.280431166364</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>318.55834999999979</v>
+        <v>337.54101599999967</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>1969.9434408861418</v>
+        <v>1953.5844203994729</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8501,14 +8501,14 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>2965.7944339999999</v>
+        <v>2947.5266109999998</v>
       </c>
       <c r="I8">
         <v>3910.0839839999999</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>944.28954999999996</v>
+        <v>962.5573730000001</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-582.57168877777667</v>
+        <v>-570.79452603703749</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
@@ -8524,23 +8524,23 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>339389.77256539068</v>
+        <v>325806.39095384628</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-167460.88053565245</v>
+        <v>-164075.5219939191</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>891682.75423920248</v>
+        <v>926516.69631666131</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>130839.81112717959</v>
+        <v>153478.12826052567</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>944.28954999999996</v>
+        <v>962.5573730000001</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8597,14 +8597,14 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>2849.1682129999999</v>
+        <v>2830.3190920000002</v>
       </c>
       <c r="I9">
         <v>5918.3823240000002</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>3069.2141110000002</v>
+        <v>3088.063232</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>-699.19790977777666</v>
+        <v>-688.00204503703708</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
@@ -8620,23 +8620,23 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>488877.71703761193</v>
+        <v>473346.81397514517</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>-1605183.2191441408</v>
+        <v>-1579480.3187859938</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>9420075.2591615226</v>
+        <v>9536134.5248302855</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>5616976.7940558195</v>
+        <v>5760293.7011660663</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>3069.2141110000002</v>
+        <v>3088.063232</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8692,14 +8692,14 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1555.255737</v>
+        <v>1545.4291989999999</v>
       </c>
       <c r="I10">
         <v>1207.1254879999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-348.13024900000005</v>
+        <v>-338.30371100000002</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-1993.1103857777766</v>
+        <v>-1972.8919380370373</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
@@ -8715,23 +8715,23 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>3972489.0098952376</v>
+        <v>3892302.599171537</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>4814372.8513158252</v>
+        <v>4765535.0415320098</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>121194.67026880203</v>
+        <v>114449.40087637154</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>5481407.7099346481</v>
+        <v>5341625.3281277334</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>348.13024900000005</v>
+        <v>338.30371100000002</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>982.16367028305115</v>
+        <v>995.31084723000436</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8787,14 +8787,14 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1420.4868160000001</v>
+        <v>1411.9506839999999</v>
       </c>
       <c r="I11">
         <v>948.21063200000003</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-472.27618400000006</v>
+        <v>-463.74005199999988</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2127.8793067777765</v>
+        <v>-2106.3704530370374</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
@@ -8810,23 +8810,23 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>4527870.3442130703</v>
+        <v>4436796.4854274541</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>5690847.7392450944</v>
+        <v>5633323.982472633</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>223044.79397360192</v>
+        <v>215054.83582896259</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>6760808.576221819</v>
+        <v>6605468.0081017334</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>472.27618400000006</v>
+        <v>463.74005199999988</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.92237127188335111</v>
+        <v>0.92117436230109162</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8883,14 +8883,14 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>2082.3071289999998</v>
+        <v>2063.3442380000001</v>
       </c>
       <c r="I12">
         <v>1415.190186</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-667.11694299999976</v>
+        <v>-648.15405200000009</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1466.0589937777768</v>
+        <v>-1454.9768990370371</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
@@ -8906,23 +8906,23 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>2149328.9732367075</v>
+        <v>2116957.7767314324</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>3236241.2011045259</v>
+        <v>3211778.1121382974</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>445045.01563766494</v>
+        <v>420103.6751240188</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>4550439.5772477454</v>
+        <v>4423159.7972099539</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>667.11694299999976</v>
+        <v>648.15405200000009</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>733.06625081481525</v>
+        <v>742.89820922222259</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8978,14 +8978,14 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>2665.358643</v>
+        <v>2514.3791500000002</v>
       </c>
       <c r="I13">
         <v>2796.0817870000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>130.72314400000005</v>
+        <v>281.70263699999987</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-883.00747977777655</v>
+        <v>-1003.9419870370371</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
@@ -9001,23 +9001,23 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>779702.20934350044</v>
+        <v>1007899.5133358743</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>729850.7892960927</v>
+        <v>829809.33732392872</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>17088.54037724475</v>
+        <v>79356.375692753689</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>565931.72185661038</v>
+        <v>521629.6787419219</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>130.72314400000005</v>
+        <v>281.70263699999987</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9066,14 +9066,14 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6184.736328</v>
+        <v>6110.1420900000003</v>
       </c>
       <c r="I14">
         <v>6244.2749020000001</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>59.538574000000153</v>
+        <v>134.13281199999983</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>2636.3702052222234</v>
+        <v>2591.820952962963</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
@@ -9089,23 +9089,23 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>6950447.8589834683</v>
+        <v>6717535.8522178419</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>6911618.9401654685</v>
+        <v>6794826.7479781201</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>3544.8417939534943</v>
+        <v>17991.611255027299</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>7267924.1458874596</v>
+        <v>7430823.9287157524</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>59.538574000000153</v>
+        <v>134.13281199999983</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9143,7 +9143,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.40341839134943264</v>
+        <v>0.40863361700856632</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9158,14 +9158,14 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>7408.294922</v>
+        <v>7341.9204099999997</v>
       </c>
       <c r="I15">
         <v>9231.7714840000008</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1823.4765620000007</v>
+        <v>1889.8510740000011</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3859.9287992222235</v>
+        <v>3823.5992729629625</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
@@ -9181,23 +9181,23 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>14899050.335065115</v>
+        <v>14619911.400202895</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>21650875.672434743</v>
+        <v>21447098.323889818</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>3325066.7721633427</v>
+        <v>3571537.0818989575</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>32301096.49996952</v>
+        <v>32643514.867211208</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>1823.4765620000007</v>
+        <v>1889.8510740000011</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9246,14 +9246,14 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5891.3989259999998</v>
+        <v>5847.3041990000002</v>
       </c>
       <c r="I16">
         <v>8318.4638670000004</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2427.0649410000005</v>
+        <v>2471.1596680000002</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>2343.0328032222233</v>
+        <v>2328.9830619629629</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
@@ -9269,23 +9269,23 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>5489802.71697539</v>
+        <v>5424162.102910378</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>11002486.062796697</v>
+        <v>10936510.852301</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>5890644.2278313357</v>
+        <v>6106630.1047498714</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>22753832.489433948</v>
+        <v>23041370.228016287</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>2427.0649410000005</v>
+        <v>2471.1596680000002</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9313,14 +9313,14 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>2855.6914059999999</v>
+        <v>2824.7448730000001</v>
       </c>
       <c r="I17">
         <v>2776.469482</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-79.221923999999944</v>
+        <v>-48.275391000000127</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-692.67471677777667</v>
+        <v>-693.57626403703716</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
@@ -9336,23 +9336,23 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>479798.26326317311</v>
+        <v>481048.03403557389</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>586115.98559240659</v>
+        <v>586878.84187634557</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>6276.1132422617675</v>
+        <v>2330.5133762028931</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>595824.42404401593</v>
+        <v>550343.87808119133</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>79.221923999999944</v>
+        <v>48.275391000000127</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9380,14 +9380,14 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>4416.2963870000003</v>
+        <v>4339.8076170000004</v>
       </c>
       <c r="I18">
         <v>4550.9003910000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>134.6040039999998</v>
+        <v>211.09277399999974</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>867.93026422222374</v>
+        <v>821.48647996296313</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
@@ -9403,23 +9403,23 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>753302.94355285913</v>
+        <v>674840.03676193987</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>805671.4741918192</v>
+        <v>762559.21774257906</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>18118.237892831963</v>
+        <v>44560.159235014966</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>1005074.9589598692</v>
+        <v>1066219.9157147089</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>134.6040039999998</v>
+        <v>211.09277399999974</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9447,14 +9447,14 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>4761.8652339999999</v>
+        <v>4723.1235349999997</v>
       </c>
       <c r="I19">
         <v>5305.9448240000002</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>544.07959000000028</v>
+        <v>582.82128900000043</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>1213.4991112222233</v>
+        <v>1204.8023979629625</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
@@ -9470,23 +9470,23 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>1472580.0929371258</v>
+        <v>1451548.8181373046</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>2042697.5592797457</v>
+        <v>2028058.2778957195</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>296022.60025456839</v>
+        <v>339680.654911622</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>3089082.8909899984</v>
+        <v>3195598.4461910571</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>544.07959000000028</v>
+        <v>582.82128900000043</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9514,14 +9514,14 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>3689.0307619999999</v>
+        <v>3588.7854000000002</v>
       </c>
       <c r="I20">
         <v>5046.5058589999999</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1357.475097</v>
+        <v>1457.7204589999997</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>140.66463922222329</v>
+        <v>70.464262962962948</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
@@ -9537,23 +9537,23 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>19786.540727518237</v>
+        <v>4965.2123549135922</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>200288.58020217737</v>
+        <v>100332.16067577992</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>1842738.6389751595</v>
+        <v>2124948.9365871698</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>2244422.6692479928</v>
+        <v>2335348.5444410173</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1357.475097</v>
+        <v>1457.7204589999997</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9581,14 +9581,14 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>3018.024414</v>
+        <v>2948.3801269999999</v>
       </c>
       <c r="I21">
         <v>4450.8994140000004</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1432.8750000000005</v>
+        <v>1502.5192870000005</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-530.3417087777766</v>
+        <v>-569.94101003703736</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
@@ -9604,23 +9604,23 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>281262.328069332</v>
+        <v>324832.75492203829</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-439264.29391486297</v>
+        <v>-472063.07028728625</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>2053130.7656250014</v>
+        <v>2257564.20780699</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>814566.34176441957</v>
+        <v>869702.24266320921</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>1432.8750000000005</v>
+        <v>1502.5192870000005</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9648,14 +9648,14 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>1702.409668</v>
+        <v>1732.5985109999999</v>
       </c>
       <c r="I22">
         <v>1565.618408</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-136.79125999999997</v>
+        <v>-166.98010299999987</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1845.9564547777766</v>
+        <v>-1785.7226260370373</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
@@ -9671,23 +9671,23 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3407555.2329357374</v>
+        <v>3188805.2971406127</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>3797159.124930772</v>
+        <v>3673257.268069284</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>18711.84881238759</v>
+        <v>27882.354797890566</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>3931288.5004564952</v>
+        <v>3813047.9479886927</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>136.79125999999997</v>
+        <v>166.98010299999987</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9715,14 +9715,14 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1445.7901609999999</v>
+        <v>1436.3604740000001</v>
       </c>
       <c r="I23">
         <v>906.57287599999995</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-539.21728499999995</v>
+        <v>-529.78759800000012</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2102.5759617777767</v>
+        <v>-2081.9606630370372</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
@@ -9738,23 +9738,23 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>4420825.6750457427</v>
+        <v>4334560.2024336196</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>5710722.4555324083</v>
+        <v>5654730.0673445836</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>290755.28044277115</v>
+        <v>280674.89899460971</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>6979071.5587206651</v>
+        <v>6821228.979029987</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>539.21728499999995</v>
+        <v>529.78759800000012</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9782,14 +9782,14 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>1805.8903809999999</v>
+        <v>1794.2176509999999</v>
       </c>
       <c r="I24">
         <v>1528.8350829999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-277.05529799999999</v>
+        <v>-265.38256799999999</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
@@ -9797,7 +9797,7 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1742.4757417777766</v>
+        <v>-1724.1034860370373</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
@@ -9805,23 +9805,23 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>3036221.7106840131</v>
+        <v>2972532.8305650647</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>3648391.8531971416</v>
+        <v>3609924.0647727353</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>76759.638149868799</v>
+        <v>70427.907398274619</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>4078505.6206259076</v>
+        <v>3958054.7592078615</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>277.05529799999999</v>
+        <v>265.38256799999999</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9849,14 +9849,14 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>2917.188232</v>
+        <v>2914.96875</v>
       </c>
       <c r="I25">
         <v>3058.838135</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>141.64990299999999</v>
+        <v>143.86938499999997</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-631.17789077777661</v>
+        <v>-603.35238703703726</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
@@ -9872,23 +9872,23 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>398385.5298066829</v>
+        <v>364034.10294329078</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>355854.77208970033</v>
+        <v>340166.89956339833</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>20064.695019909406</v>
+        <v>20698.399940278214</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>239637.65081775901</v>
+        <v>211124.629160968</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>141.64990299999999</v>
+        <v>143.86938499999997</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9916,14 +9916,14 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>4724.9389650000003</v>
+        <v>4681.7846680000002</v>
       </c>
       <c r="I26">
         <v>3991.3884280000002</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-733.55053700000008</v>
+        <v>-690.39624000000003</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>1176.5728422222237</v>
+        <v>1163.463530962963</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
@@ -9939,23 +9939,23 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1384323.6530548816</v>
+        <v>1353647.3878808054</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>433867.77417692129</v>
+        <v>429033.64279725647</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>538096.39033298846</v>
+        <v>476646.96820613765</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>196268.76292441308</v>
+        <v>223792.66177903663</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>733.55053700000008</v>
+        <v>690.39624000000003</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9983,14 +9983,14 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3271.858154</v>
+        <v>3230.8879390000002</v>
       </c>
       <c r="I27">
         <v>3078.0751949999999</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-193.78295900000012</v>
+        <v>-152.81274400000029</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-276.50796877777657</v>
+        <v>-287.43319803703707</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
@@ -10006,23 +10006,23 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>76456.656797611868</v>
+        <v>82617.843333798577</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>150574.53678093705</v>
+        <v>156523.95423248541</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>37551.835198795729</v>
+        <v>23351.734728809624</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>221173.55675008197</v>
+        <v>193816.48948007845</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>193.78295900000012</v>
+        <v>152.81274400000029</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10050,14 +10050,14 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>6406.3701170000004</v>
+        <v>6317.2241210000002</v>
       </c>
       <c r="I28">
         <v>9415.8935550000006</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>3009.5234380000002</v>
+        <v>3098.6694340000004</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>2858.0039942222238</v>
+        <v>2798.9029839629629</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
@@ -10073,23 +10073,23 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>8168186.830990185</v>
+        <v>7833857.9136367775</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>16557162.175395243</v>
+        <v>16214774.616255885</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>9057231.3238713406</v>
+        <v>9601752.2612058818</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>34427878.167880327</v>
+        <v>34781360.425117515</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>3009.5234380000002</v>
+        <v>3098.6694340000004</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10117,14 +10117,14 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4753.7392579999996</v>
+        <v>4712.0424800000001</v>
       </c>
       <c r="I29">
         <v>5623.0063479999999</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>869.26709000000028</v>
+        <v>910.96386799999982</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>1205.373135222223</v>
+        <v>1193.7213429629628</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
@@ -10140,23 +10140,23 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>1452924.3951154517</v>
+        <v>1424970.6446452995</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>2411196.4499886613</v>
+        <v>2387888.5137898391</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>755625.27375706856</v>
+        <v>829855.16880152107</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>4304132.064110117</v>
+        <v>4429699.8372462103</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>869.26709000000028</v>
+        <v>910.96386799999982</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10184,14 +10184,14 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5184.970703</v>
+        <v>5112.673828</v>
       </c>
       <c r="I30">
         <v>6355.2851559999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1170.314453</v>
+        <v>1242.611328</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>1636.6045802222234</v>
+        <v>1594.3526909629627</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
@@ -10207,23 +10207,23 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>2678474.5520043601</v>
+        <v>2541960.5031808405</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>4472271.2463312605</v>
+        <v>4356811.5245872913</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1369635.9189006891</v>
+        <v>1544082.9124739235</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>7878794.4590651812</v>
+        <v>8048364.8448904855</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1170.314453</v>
+        <v>1242.611328</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10251,14 +10251,14 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6405.2260740000002</v>
+        <v>6329.7309569999998</v>
       </c>
       <c r="I31">
         <v>7887.6733400000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>1482.4472660000001</v>
+        <v>1557.9423830000005</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>2856.8599512222236</v>
+        <v>2811.4098199629625</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
@@ -10274,23 +10274,23 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>8161648.780897446</v>
+        <v>7904025.1757841771</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>12184623.30718044</v>
+        <v>11990776.65802318</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>2197649.896470875</v>
+        <v>2427184.4687477201</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>18829587.12543688</v>
+        <v>19091238.673537299</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>1482.4472660000001</v>
+        <v>1557.9423830000005</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10318,14 +10318,14 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>3785.1821289999998</v>
+        <v>3693.9643550000001</v>
       </c>
       <c r="I32">
         <v>5001.1191410000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1215.9370120000003</v>
+        <v>1307.1547860000001</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>236.81600622222322</v>
+        <v>175.64321796296281</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
@@ -10341,23 +10341,23 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>56081.820803044066</v>
+        <v>30850.540016384861</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>326447.61317250814</v>
+        <v>242121.76443910951</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1478502.817151489</v>
+        <v>1708653.6345627059</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>2110491.3319537803</v>
+        <v>2198689.9205565467</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1215.9370120000003</v>
+        <v>1307.1547860000001</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10385,14 +10385,14 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>3311.0627439999998</v>
+        <v>3343.258789</v>
       </c>
       <c r="I33">
         <v>3360.4860840000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>49.42334000000028</v>
+        <v>17.22729500000014</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-237.30337877777674</v>
+        <v>-175.06234803703728</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
@@ -10408,23 +10408,23 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>56312.89357934898</v>
+        <v>30646.82570024077</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>62208.31821173682</v>
+        <v>45892.032004230809</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>2442.6665367556279</v>
+        <v>296.77969301702984</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>35298.908971138786</v>
+        <v>24911.903967204329</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>49.42334000000028</v>
+        <v>17.22729500000014</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10452,14 +10452,14 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>1608.686279</v>
+        <v>1601.7967530000001</v>
       </c>
       <c r="I34">
         <v>1439.779419</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-168.90686000000005</v>
+        <v>-162.01733400000012</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-1939.6798437777766</v>
+        <v>-1916.5243840370372</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
@@ -10475,23 +10475,23 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>3762357.8963577799</v>
+        <v>3673065.7146085449</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>4234036.842118579</v>
+        <v>4183491.8668985777</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>28529.527355059618</v>
+        <v>26249.616516467595</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>4446137.8873484293</v>
+        <v>4320335.673620359</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>168.90686000000005</v>
+        <v>162.01733400000012</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10519,14 +10519,14 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1446.955688</v>
+        <v>1437.911865</v>
       </c>
       <c r="I35">
         <v>815.06927499999995</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-631.88641300000006</v>
+        <v>-622.84259000000009</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2101.4104347777766</v>
+        <v>-2080.4092720370372</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
@@ -10542,23 +10542,23 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>4415925.8153929235</v>
+        <v>4328102.739177675</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>5899843.4362361468</v>
+        <v>5840881.3362585753</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>399280.43893400667</v>
+        <v>387932.89191790821</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>7470911.6580719305</v>
+        <v>7307570.6296067098</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>631.88641300000006</v>
+        <v>622.84259000000009</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10586,14 +10586,14 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>1800.8569339999999</v>
+        <v>1791.5225829999999</v>
       </c>
       <c r="I36">
         <v>1672.6705320000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-128.18640199999982</v>
+        <v>-118.85205099999985</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1747.5091887777767</v>
+        <v>-1726.7985540370373</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
@@ -10609,23 +10609,23 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>3053788.3648627633</v>
+        <v>2981833.2462244029</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>3407577.1045906013</v>
+        <v>3367192.146836278</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>16431.753657705558</v>
+        <v>14125.810026906565</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>3518233.9492631918</v>
+        <v>3406426.1558735813</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>128.18640199999982</v>
+        <v>118.85205099999985</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10653,14 +10653,14 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>4524.8193359999996</v>
+        <v>4485.6948240000002</v>
       </c>
       <c r="I37">
         <v>3312.0261230000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-1212.7932129999995</v>
+        <v>-1173.6687010000001</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>976.45321322222298</v>
+        <v>967.37368696296289</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
@@ -10676,23 +10676,23 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>953460.87761200406</v>
+        <v>935811.8502283165</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-303292.95680762001</v>
+        <v>-300472.79468587716</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>1470867.3774988621</v>
+        <v>1377498.2197070275</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>55856.595494959387</v>
+        <v>42557.632816541358</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1212.7932129999995</v>
+        <v>1173.6687010000001</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10720,14 +10720,14 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7490.6806640000004</v>
+        <v>7431.7124020000001</v>
       </c>
       <c r="I38">
         <v>7927.4311520000001</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>436.75048799999968</v>
+        <v>495.71875</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3942.3145412222239</v>
+        <v>3913.3912649629629</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
@@ -10743,23 +10743,23 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>15541843.941932194</v>
+        <v>15314631.192688419</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>16970868.861528844</v>
+        <v>16846359.991597448</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>190750.98876823788</v>
+        <v>245737.0791015625</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>19176210.530157033</v>
+        <v>19440251.124046698</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>436.75048799999968</v>
+        <v>495.71875</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10787,14 +10787,14 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>7387.4067379999997</v>
+        <v>7327.814453</v>
       </c>
       <c r="I39">
         <v>8040.9814450000003</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>653.57470700000067</v>
+        <v>713.16699200000039</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>3839.0406152222231</v>
+        <v>3809.4933159629627</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
@@ -10810,23 +10810,23 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>14738232.845325826</v>
+        <v>14512239.324366489</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>16962219.629074879</v>
+        <v>16831669.361517325</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>427159.89763013675</v>
+        <v>508607.15847832861</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>20183592.433465894</v>
+        <v>20454456.261223644</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>653.57470700000067</v>
+        <v>713.16699200000039</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10854,14 +10854,14 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4182.8950199999999</v>
+        <v>4148.7451170000004</v>
       </c>
       <c r="I40">
         <v>4171.548828</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-11.346191999999974</v>
+        <v>22.803710999999566</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>634.52889722222335</v>
+        <v>630.42397996296313</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
@@ -10877,23 +10877,23 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>402626.92141005088</v>
+        <v>397434.39451234252</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>348303.03707440145</v>
+        <v>346049.78248726053</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>128.73607290086341</v>
+        <v>520.00923537150118</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>388356.68408808857</v>
+        <v>426706.4162408039</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>11.346191999999974</v>
+        <v>22.803710999999566</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10921,14 +10921,14 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>2924.3034670000002</v>
+        <v>2896.4123540000001</v>
       </c>
       <c r="I41">
         <v>3069.951904</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>145.64843699999983</v>
+        <v>173.53954999999996</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-624.0626557777764</v>
+        <v>-621.90878303703721</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
@@ -10944,23 +10944,23 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>389454.19833641144</v>
+        <v>386770.53441860864</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>344907.55185582821</v>
+        <v>343717.14738739951</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>21213.46720054292</v>
+        <v>30115.975414202487</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>228880.16472875027</v>
+        <v>201034.969134221</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>145.64843699999983</v>
+        <v>173.53954999999996</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10988,14 +10988,14 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>2711.5786130000001</v>
+        <v>2695.0310060000002</v>
       </c>
       <c r="I42">
         <v>3097.4514159999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>385.87280299999975</v>
+        <v>402.42040999999972</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-836.78750977777645</v>
+        <v>-823.2901310370371</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
@@ -11011,23 +11011,23 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>700213.33652009233</v>
+        <v>677806.63986298174</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>439465.28163198964</v>
+        <v>432376.70863074122</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>148897.8200950766</v>
+        <v>161942.18638456787</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>203324.07278848835</v>
+        <v>177131.32208579365</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>385.87280299999975</v>
+        <v>402.42040999999972</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11055,14 +11055,14 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>2915.6591800000001</v>
+        <v>2898.9968260000001</v>
       </c>
       <c r="I43">
         <v>2999.3784179999998</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>83.719237999999677</v>
+        <v>100.38159199999973</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-632.70694277777648</v>
+        <v>-619.32431103703721</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
@@ -11078,23 +11078,23 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>400318.0754392005</v>
+        <v>383562.6022415008</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>394337.41931936273</v>
+        <v>385996.63449854869</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>7008.9108113005896</v>
+        <v>10076.464012454409</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>301387.4999971714</v>
+        <v>269301.54564155365</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>83.719237999999677</v>
+        <v>100.38159199999973</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11122,14 +11122,14 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>2636.139404</v>
+        <v>2616.970703</v>
       </c>
       <c r="I44">
         <v>3210.6345209999999</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>574.49511699999994</v>
+        <v>593.66381799999999</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-912.22671877777657</v>
+        <v>-901.3504340370373</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
@@ -11145,23 +11145,23 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>832157.58645206864</v>
+        <v>812432.60493875551</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>375835.90265828173</v>
+        <v>371354.89129459241</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>330044.63945684361</v>
+        <v>352436.72880233714</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>114062.63483938269</v>
+        <v>94671.053688323227</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>574.49511699999994</v>
+        <v>593.66381799999999</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11189,14 +11189,14 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>1908.3404539999999</v>
+        <v>1893.960327</v>
       </c>
       <c r="I45">
         <v>1918.652832</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>10.312378000000081</v>
+        <v>24.692504999999983</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1640.0256687777767</v>
+        <v>-1624.3608100370373</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
@@ -11212,23 +11212,23 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>2689684.1942499937</v>
+        <v>2638548.04118418</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>2794571.0024982807</v>
+        <v>2767878.3958955277</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>106.34514001488566</v>
+        <v>609.71980317502414</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>2655965.4101377297</v>
+        <v>2558938.6861400679</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>10.312378000000081</v>
+        <v>24.692504999999983</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11256,14 +11256,14 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>1482.8170170000001</v>
+        <v>1473.6057129999999</v>
       </c>
       <c r="I46">
         <v>1061.767822</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-421.04919500000005</v>
+        <v>-411.8378909999999</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2065.5491057777763</v>
+        <v>-2044.7154240370373</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
@@ -11279,23 +11279,23 @@
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>4266493.1083793715</v>
+        <v>4180861.1652949615</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>5289592.5112909926</v>
+        <v>5236240.2638860894</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>177282.42461014807</v>
+        <v>169610.4484633278</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>6183171.1094309269</v>
+        <v>6034654.1896194583</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>421.04919500000005</v>
+        <v>411.8378909999999</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11323,14 +11323,14 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1434.6082759999999</v>
+        <v>1424.8917240000001</v>
       </c>
       <c r="I47">
         <v>875.663635</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-558.94464099999993</v>
+        <v>-549.22808900000007</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2113.7578467777766</v>
+        <v>-2093.4294130370372</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
@@ -11346,23 +11346,23 @@
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>4467972.2348146224</v>
+        <v>4382446.7073685937</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>5806427.7767475666</v>
+        <v>5750586.194652467</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>312419.11170261883</v>
+        <v>301651.49374659202</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>7143338.588173517</v>
+        <v>6983638.6730726343</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>558.94464099999993</v>
+        <v>549.22808900000007</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11390,14 +11390,14 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>2732.2304690000001</v>
+        <v>2707.211914</v>
       </c>
       <c r="I48">
         <v>2395.8979490000002</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-336.33251999999993</v>
+        <v>-311.31396499999983</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-816.1356537777765</v>
+        <v>-811.10922303703728</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
@@ -11413,23 +11413,23 @@
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>666077.40536727861</v>
+        <v>657898.17169574625</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>1001182.1073064536</v>
+        <v>995016.00918545004</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>113119.56400955035</v>
+        <v>96916.384804021116</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>1328182.8915706831</v>
+        <v>1259833.813043226</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>336.33251999999993</v>
+        <v>311.31396499999983</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11457,14 +11457,14 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>3555.435547</v>
+        <v>3462.2526859999998</v>
       </c>
       <c r="I49">
         <v>4433.5844729999999</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>878.14892599999985</v>
+        <v>971.33178700000008</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>7.0694242222234607</v>
+        <v>-56.068451037037448</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
@@ -11480,23 +11480,23 @@
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>49.976758833759781</v>
+        <v>3143.6712016926658</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>5732.9609005861985</v>
+        <v>-45468.8002088336</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>771145.53623495321</v>
+        <v>943485.44043661351</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>783611.52757015475</v>
+        <v>837706.97415805096</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>878.14892599999985</v>
+        <v>971.33178700000008</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11524,14 +11524,14 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>4744.9829099999997</v>
+        <v>4700.5009769999997</v>
       </c>
       <c r="I50">
         <v>4333.9897460000002</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-410.99316399999952</v>
+        <v>-366.5112309999995</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>1196.6167872222231</v>
+        <v>1182.1798399629624</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
@@ -11547,23 +11547,23 @@
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>1431891.7354620353</v>
+        <v>1397549.1740148554</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>851221.57872981403</v>
+        <v>840951.75703811413</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>168915.38085473049</v>
+        <v>134330.48244913499</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>617204.47736481437</v>
+        <v>665315.27964757499</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>410.99316399999952</v>
+        <v>366.5112309999995</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11591,14 +11591,14 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>3036.5668949999999</v>
+        <v>2999.756836</v>
       </c>
       <c r="I51">
         <v>3731.8847660000001</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>695.3178710000002</v>
+        <v>732.12793000000011</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-511.79922777777665</v>
+        <v>-518.56430103703724</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
@@ -11614,23 +11614,23 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>261938.44955392851</v>
+        <v>268908.93431003101</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>-55915.035664858944</v>
+        <v>-56654.13274050202</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>483466.94173197291</v>
+        <v>536011.30588608503</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>33679.092410125777</v>
+        <v>45609.42361583007</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>695.3178710000002</v>
+        <v>732.12793000000011</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11658,14 +11658,14 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>2935.3073730000001</v>
+        <v>2898.0302729999999</v>
       </c>
       <c r="I52">
         <v>2729.5832519999999</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-205.7241210000002</v>
+        <v>-168.44702099999995</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-613.05874977777648</v>
+        <v>-620.29086403703741</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
@@ -11681,23 +11681,23 @@
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>375841.03067909036</v>
+        <v>384760.75600781443</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>547491.88270930632</v>
+        <v>553950.51959069306</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>42322.413961222723</v>
+        <v>28374.398883774425</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>670405.38947909733</v>
+        <v>622107.45129269874</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>205.7241210000002</v>
+        <v>168.44702099999995</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11725,14 +11725,14 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5520.3715819999998</v>
+        <v>5460.3359380000002</v>
       </c>
       <c r="I53">
         <v>8317.1464840000008</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>2796.774902000001</v>
+        <v>2856.8105460000006</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>1972.0054592222232</v>
+        <v>1942.0148009629629</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
@@ -11748,23 +11748,23 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>3888805.5312022516</v>
+        <v>3771421.4871592163</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>9257606.47388638</v>
+        <v>9116814.9204154555</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>7821949.8524571154</v>
+        <v>8161366.4957368216</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>22741266.133578766</v>
+        <v>23028724.710654207</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>2796.774902000001</v>
+        <v>2856.8105460000006</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11792,14 +11792,14 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>7219.6870120000003</v>
+        <v>7160.0971680000002</v>
       </c>
       <c r="I54">
         <v>8893.7246090000008</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>1674.0375970000005</v>
+        <v>1733.6274410000005</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>3671.3208892222237</v>
+        <v>3641.776030962963</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
@@ -11815,23 +11815,23 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>13478597.07163946</v>
+        <v>13262532.659696352</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>19351869.207949854</v>
+        <v>19196135.549669236</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>2802401.8761695358</v>
+        <v>3005464.1041882103</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>28572857.346227948</v>
+        <v>28894962.486391481</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1674.0375970000005</v>
+        <v>1733.6274410000005</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11859,14 +11859,14 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>3571.0258789999998</v>
+        <v>3501.1801759999998</v>
       </c>
       <c r="I55">
         <v>4440.6704099999997</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>869.64453099999992</v>
+        <v>939.49023399999987</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>22.659756222223223</v>
+        <v>-17.140961037037414</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
@@ -11882,23 +11882,23 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>513.46455205058408</v>
+        <v>293.81254527323472</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>18536.531221920686</v>
+        <v>-14021.949588546637</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>756281.61029820982</v>
+        <v>882641.89978137449</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>796206.94099515968</v>
+        <v>850728.18133530545</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>869.64453099999992</v>
+        <v>939.49023399999987</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11926,14 +11926,14 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>3581.517578</v>
+        <v>3558.2062989999999</v>
       </c>
       <c r="I56">
         <v>4493.1948240000002</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>911.6772460000002</v>
+        <v>934.98852500000021</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>33.151455222223376</v>
+        <v>39.885161962962684</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
@@ -11949,23 +11949,23 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>1099.0189833510815</v>
+        <v>1590.8261448117653</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>28860.395614101348</v>
+        <v>34722.504507493199</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>831155.40087414486</v>
+        <v>874203.54188167606</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>892701.27465327387</v>
+        <v>950378.70553276094</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>911.6772460000002</v>
+        <v>934.98852500000021</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11993,14 +11993,14 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>1878.2303469999999</v>
+        <v>1856.2923579999999</v>
       </c>
       <c r="I57">
         <v>1497.3298339999999</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-380.90051300000005</v>
+        <v>-358.96252400000003</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-1670.1357757777766</v>
+        <v>-1662.0287790370373</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
@@ -12016,23 +12016,23 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>2789353.5095328358</v>
+        <v>2762339.6623473451</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>3549544.6359061473</v>
+        <v>3532314.8111148071</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>145085.2008036632</v>
+        <v>128854.09363645059</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>4206749.8578833146</v>
+        <v>4084405.8469513422</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>380.90051300000005</v>
+        <v>358.96252400000003</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12060,14 +12060,14 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>1568.791138</v>
+        <v>1558.5023189999999</v>
       </c>
       <c r="I58">
         <v>1009.008362</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-559.78277600000001</v>
+        <v>-549.49395699999991</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-1979.5749847777765</v>
+        <v>-1959.8188180370373</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
@@ -12083,23 +12083,23 @@
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>3918717.1203579344</v>
+        <v>3840889.7995320898</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>5173865.6969586387</v>
+        <v>5122230.4953677375</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>313356.75630626618</v>
+        <v>301943.60877951776</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>6448337.8372223238</v>
+        <v>6296650.6029640762</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>559.78277600000001</v>
+        <v>549.49395699999991</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12127,14 +12127,14 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1438.099731</v>
+        <v>1429.0692140000001</v>
       </c>
       <c r="I59">
         <v>699.10485800000004</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-738.99487299999998</v>
+        <v>-729.96435600000007</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2110.2663917777763</v>
+        <v>-2089.2519230370372</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
@@ -12150,23 +12150,23 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>4453224.244266795</v>
+        <v>4364973.5979139581</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>6169422.9105513375</v>
+        <v>6107986.5225164788</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>546113.42232028616</v>
+        <v>532847.96103049489</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>8118289.7549630543</v>
+        <v>7947980.4279874368</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>738.99487299999998</v>
+        <v>729.96435600000007</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12194,14 +12194,14 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>1866.9051509999999</v>
+        <v>1854.6507570000001</v>
       </c>
       <c r="I60">
         <v>1040.3927000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-826.51245099999983</v>
+        <v>-814.25805700000001</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-1681.4609717777766</v>
+        <v>-1663.6703800370371</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
@@ -12217,23 +12217,23 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>2827310.9996118648</v>
+        <v>2767799.1334125795</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>4341936.0667327838</v>
+        <v>4295996.4860799164</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>683122.83165802713</v>
+        <v>663016.18338941527</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>6289930.6893596742</v>
+        <v>6140129.3390768124</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>826.51245099999983</v>
+        <v>814.25805700000001</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12261,14 +12261,14 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>3843.3283689999998</v>
+        <v>3844.8139649999998</v>
       </c>
       <c r="I61">
         <v>3328.0407709999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-515.28759799999989</v>
+        <v>-516.77319399999988</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
@@ -12276,7 +12276,7 @@
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>294.96224622222326</v>
+        <v>326.49282796296256</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
@@ -12284,23 +12284,23 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>87002.72669645946</v>
+        <v>106597.56671125267</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>-86893.54743700086</v>
+        <v>-96182.207715716679</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>265521.30865260947</v>
+        <v>267054.5340369615</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>48543.260636001018</v>
+        <v>36206.617699188901</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>515.28759799999989</v>
+        <v>516.77319399999988</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12328,14 +12328,14 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>6448.3969729999999</v>
+        <v>6406.7221680000002</v>
       </c>
       <c r="I62">
         <v>6070.8334960000002</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-377.56347699999969</v>
+        <v>-335.88867200000004</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>2900.0308502222233</v>
+        <v>2888.401030962963</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
@@ -12351,23 +12351,23 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>8410178.9322406314</v>
+        <v>8342860.515667907</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>7099857.3410000084</v>
+        <v>7071385.2102169739</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>142554.17916432931</v>
+        <v>112821.19997792361</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>6362841.6489706244</v>
+        <v>6515319.3426586697</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>377.56347699999969</v>
+        <v>335.88867200000004</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12395,14 +12395,14 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>7631.2880859999996</v>
+        <v>7578.0610349999997</v>
       </c>
       <c r="I63">
         <v>9150.0664059999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1518.7783200000003</v>
+        <v>1572.0053710000002</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>4082.921963222223</v>
+        <v>4059.7398979629625</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
@@ -12418,23 +12418,23 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>16670251.757762412</v>
+        <v>16481488.039112326</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>22568079.781663526</v>
+        <v>22439942.456731204</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>2306687.5853020237</v>
+        <v>2471200.8864528481</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>31379046.063051935</v>
+        <v>31716554.774486713</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>1518.7783200000003</v>
+        <v>1572.0053710000002</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12462,14 +12462,14 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>4952.123047</v>
+        <v>4911.5566410000001</v>
       </c>
       <c r="I64">
         <v>4149.6567379999997</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-802.46630900000036</v>
+        <v>-761.89990300000045</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1403.7569242222235</v>
+        <v>1393.2355039629629</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
@@ -12485,23 +12485,23 @@
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1970533.5023018373</v>
+        <v>1941105.1695029312</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>739813.40299954184</v>
+        <v>734268.363404667</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>643952.1770800841</v>
+        <v>580491.46219141013</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>361550.40395431954</v>
+        <v>398584.64104326488</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>802.46630900000036</v>
+        <v>761.89990300000045</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12529,14 +12529,14 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>2849.5603030000002</v>
+        <v>2824.3354490000002</v>
       </c>
       <c r="I65">
         <v>3329.79126</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>480.23095699999976</v>
+        <v>505.45581099999981</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-698.80581977777638</v>
+        <v>-693.98568803703711</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
@@ -12552,23 +12552,23 @@
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>488329.57375529007</v>
+        <v>481616.13520023978</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>204639.42180696392</v>
+        <v>203227.88666438029</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>230621.77206113562</v>
+        <v>255485.57687366754</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>47774.970638323881</v>
+        <v>35543.5145356004</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>480.23095699999976</v>
+        <v>505.45581099999981</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12596,14 +12596,14 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>2458.9929200000001</v>
+        <v>2440.6071780000002</v>
       </c>
       <c r="I66">
         <v>1978.7460940000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-480.24682600000006</v>
+        <v>-461.86108400000012</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1089.3732027777764</v>
+        <v>-1077.7139590370371</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
@@ -12619,23 +12619,23 @@
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1186733.9749303104</v>
+        <v>1161467.3775032845</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>1790806.2029014011</v>
+        <v>1771639.726290066</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>230637.01388307434</v>
+        <v>213315.66091365516</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>2463707.0347403479</v>
+        <v>2370291.3131424948</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>480.24682600000006</v>
+        <v>461.86108400000012</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12663,14 +12663,14 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>2650.9035640000002</v>
+        <v>2635.2866210000002</v>
       </c>
       <c r="I67">
         <v>1960.03125</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-690.87231400000019</v>
+        <v>-675.2553710000002</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-897.46255877777639</v>
+        <v>-883.03451603703706</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
@@ -12686,23 +12686,23 @@
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>805439.04440795374</v>
+        <v>779749.95651276421</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>1492122.7047115839</v>
+        <v>1468134.6174677827</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>477304.55425171484</v>
+        <v>455969.81606434792</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>2522807.6680819956</v>
+        <v>2428267.3720419025</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>690.87231400000019</v>
+        <v>675.2553710000002</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12730,14 +12730,14 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>2107.4106449999999</v>
+        <v>2093.8378910000001</v>
       </c>
       <c r="I68">
         <v>1114.496216</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-992.91442899999993</v>
+        <v>-979.34167500000012</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-1440.9554777777767</v>
+        <v>-1424.4832460370371</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
@@ -12753,23 +12753,23 @@
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>2076352.6889377807</v>
+        <v>2029152.5182402141</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>3614113.2515571602</v>
+        <v>3572798.6433440475</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>985879.06331639586</v>
+        <v>959110.11639180582</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>5923722.7231184626</v>
+        <v>5778374.2509987187</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>992.91442899999993</v>
+        <v>979.34167500000012</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12797,14 +12797,14 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>1480.21875</v>
+        <v>1462.582764</v>
       </c>
       <c r="I69">
         <v>873.074341</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-607.144409</v>
+        <v>-589.50842299999999</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-2068.1473727777766</v>
+        <v>-2055.7383730370375</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
@@ -12820,23 +12820,23 @@
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>4277233.55552762</v>
+        <v>4226060.2583769662</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>5686492.2494288413</v>
+        <v>5652372.9783470603</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>368624.33337995928</v>
+        <v>347520.18078794691</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>7157186.1176477103</v>
+        <v>6997330.6119442107</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>607.144409</v>
+        <v>589.50842299999999</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12864,14 +12864,14 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>819.31811500000003</v>
+        <v>791.11437999999998</v>
       </c>
       <c r="I70">
         <v>744.20929000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>-75.108825000000024</v>
+        <v>-46.905089999999973</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-2729.0480077777765</v>
+        <v>-2727.2067570370373</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
@@ -12887,23 +12887,23 @@
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>7447703.0287558511</v>
+        <v>7437656.6956284735</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>7855356.1383589376</v>
+        <v>7850056.238808874</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>5641.3355928806286</v>
+        <v>2200.0874679080976</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>7863295.542814292</v>
+        <v>7695696.5398712438</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>75.108825000000024</v>
+        <v>46.905089999999973</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12931,14 +12931,14 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>770.69293200000004</v>
+        <v>756.16619900000001</v>
       </c>
       <c r="I71">
         <v>698.13738999999998</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-72.555542000000059</v>
+        <v>-58.028809000000024</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-2777.6731907777767</v>
+        <v>-2762.154938037037</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
@@ -12954,23 +12954,23 @@
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>7715468.3547655949</v>
+        <v>7629499.9017223874</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>8123292.6931985654</v>
+        <v>8077909.6331904298</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>5264.3066749137724</v>
+        <v>3367.3426739584838</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>8123803.8291520113</v>
+        <v>7953436.367051865</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>72.555542000000059</v>
+        <v>58.028809000000024</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12998,14 +12998,14 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>1013.7955930000001</v>
+        <v>1016.33374</v>
       </c>
       <c r="I72">
         <v>928.56951900000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-85.22607400000004</v>
+        <v>-87.76422100000002</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-2534.5705297777768</v>
+        <v>-2501.9873970370372</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
@@ -13021,23 +13021,23 @@
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>6424047.7704179995</v>
+        <v>6259940.9349321686</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>6828293.5764886737</v>
+        <v>6740512.5526893577</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>7263.4836894534828</v>
+        <v>7702.5584877368447</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>6863334.2451655716</v>
+        <v>6706813.4431254519</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>85.22607400000004</v>
+        <v>87.76422100000002</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13065,14 +13065,14 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>1020.536743</v>
+        <v>1009.126831</v>
       </c>
       <c r="I73">
         <v>1060.384033</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>39.847290000000044</v>
+        <v>51.257202000000007</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
@@ -13080,7 +13080,7 @@
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-2527.8293797777765</v>
+        <v>-2509.1943060370372</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
@@ -13088,23 +13088,23 @@
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>6389921.3732676981</v>
+        <v>6296056.0654486893</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>6476927.8901552567</v>
+        <v>6429180.194123215</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>1587.8065203441035</v>
+        <v>2627.3007568688045</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>6190054.8790549906</v>
+        <v>6041454.8074019756</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>39.847290000000044</v>
+        <v>51.257202000000007</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13132,14 +13132,14 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>4720.2470700000003</v>
+        <v>4682.419922</v>
       </c>
       <c r="I74">
         <v>2457.8547359999998</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-2262.3923340000006</v>
+        <v>-2224.5651860000003</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>1171.8809472222238</v>
+        <v>1164.0987849629628</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
@@ -13155,23 +13155,23 @@
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>1373304.9544624565</v>
+        <v>1355125.9811522462</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>-1364981.3037569076</v>
+        <v>-1355916.8113168923</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>5118419.0729419701</v>
+        <v>4948690.2667632159</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>1189215.0846919899</v>
+        <v>1124588.9877284467</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>2262.3923340000006</v>
+        <v>2224.5651860000003</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13199,14 +13199,14 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>8771.4462889999995</v>
+        <v>8711.2900389999995</v>
       </c>
       <c r="I75">
         <v>9511.0449219999991</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>739.59863299999961</v>
+        <v>799.75488299999961</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
@@ -13214,7 +13214,7 @@
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>5223.0801662222229</v>
+        <v>5192.9689019629623</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
@@ -13222,23 +13222,23 @@
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>27280566.422783963</v>
+        <v>26966926.016754415</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>30755648.195863046</v>
+        <v>30578340.664517932</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>547006.13793546811</v>
+        <v>639607.87288234301</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>35553538.462694168</v>
+        <v>35912738.362860806</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>739.59863299999961</v>
+        <v>799.75488299999961</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13266,14 +13266,14 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5881.2065430000002</v>
+        <v>5850.6259769999997</v>
       </c>
       <c r="I76">
         <v>5385.8833009999998</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-495.32324200000039</v>
+        <v>-464.74267599999985</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>2332.8404202222237</v>
+        <v>2332.3048399629624</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
@@ -13289,23 +13289,23 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>5442144.426222601</v>
+        <v>5439645.8665146595</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>4113381.8748558313</v>
+        <v>4112437.5127332113</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>245345.11406539095</v>
+        <v>215985.75489564083</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>3376469.3802617616</v>
+        <v>3487788.4362660237</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>495.32324200000039</v>
+        <v>464.74267599999985</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13333,14 +13333,14 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>4082.1999510000001</v>
+        <v>4041.8291020000001</v>
       </c>
       <c r="I77">
         <v>4481.5659180000002</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>399.36596700000018</v>
+        <v>439.73681600000009</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>533.83382822222347</v>
+        <v>523.50796496296289</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
@@ -13356,23 +13356,23 @@
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>284978.55615439441</v>
+        <v>274060.58937966276</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>458527.51684453414</v>
+        <v>449658.29164891015</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>159493.17559784523</v>
+        <v>193368.46734581795</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>870861.85780280014</v>
+        <v>927840.50805238658</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>399.36596700000018</v>
+        <v>439.73681600000009</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13400,14 +13400,14 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>4622.4653319999998</v>
+        <v>4578.2202150000003</v>
       </c>
       <c r="I78">
         <v>5166.9428710000002</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>544.47753900000043</v>
+        <v>588.72265599999992</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
@@ -13415,7 +13415,7 @@
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>1074.0992092222232</v>
+        <v>1059.899077962963</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
@@ -13423,23 +13423,23 @@
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>1153689.1112518052</v>
+        <v>1123386.0554667392</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>1658742.1501520055</v>
+        <v>1636812.745442284</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>296455.79047549702</v>
+        <v>346594.36568769423</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>2619790.6898856275</v>
+        <v>2717953.6216950463</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>544.47753900000043</v>
+        <v>588.72265599999992</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13467,14 +13467,14 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>2584.5043949999999</v>
+        <v>2587.9663089999999</v>
       </c>
       <c r="I79">
         <v>2673.9582519999999</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>89.453856999999971</v>
+        <v>85.991942999999992</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
@@ -13482,7 +13482,7 @@
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-963.86172777777665</v>
+        <v>-930.35482803703735</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
@@ -13490,23 +13490,23 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>929029.43027476082</v>
+        <v>865560.10605182534</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>914391.15704697603</v>
+        <v>882604.01171272807</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>8001.992532176444</v>
+        <v>7394.6142609152475</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>764589.12447812501</v>
+        <v>712948.68162806914</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>89.453856999999971</v>
+        <v>85.991942999999992</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13534,14 +13534,14 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2207.4389649999998</v>
+        <v>2195.5588379999999</v>
       </c>
       <c r="I80">
         <v>1824.7143550000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>-382.72460999999976</v>
+        <v>-370.84448299999985</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-1340.9271577777768</v>
+        <v>-1322.7622990370373</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
@@ -13557,23 +13557,23 @@
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>1798085.6424659865</v>
+        <v>1749700.0997537486</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2410877.7651289413</v>
+        <v>2378218.8292644965</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>146478.1270996519</v>
+        <v>137525.63057153719</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>2970975.4165634541</v>
+        <v>2868303.9321618485</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>382.72460999999976</v>
+        <v>370.84448299999985</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13601,14 +13601,14 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>1774.9144289999999</v>
+        <v>1761.8964840000001</v>
       </c>
       <c r="I81">
         <v>1258.253418</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>-516.66101099999992</v>
+        <v>-503.64306600000009</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-1773.4516937777767</v>
+        <v>-1756.4246530370372</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
@@ -13624,23 +13624,23 @@
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>3145130.9101632647</v>
+        <v>3085027.5617962764</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>4193112.7450650716</v>
+        <v>4152854.359797949</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>266938.60028754204</v>
+        <v>253656.33792988045</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>5244616.200584583</v>
+        <v>5107906.0946332756</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>516.66101099999992</v>
+        <v>503.64306600000009</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13668,14 +13668,14 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>1538.377808</v>
+        <v>1527.7673339999999</v>
       </c>
       <c r="I82">
         <v>802.32867399999998</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-736.04913399999998</v>
+        <v>-725.43865999999991</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-2009.9883147777766</v>
+        <v>-1990.5538030370374</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
@@ -13691,23 +13691,23 @@
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>4040053.0255432064</v>
+        <v>3962304.4427852128</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>5668778.4794187229</v>
+        <v>5613967.2443961482</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>541768.32766214991</v>
+        <v>526261.24942259549</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>7540721.670089961</v>
+        <v>7376615.0592739927</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>736.04913399999998</v>
+        <v>725.43865999999991</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13735,14 +13735,14 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1400.272461</v>
+        <v>1392.724731</v>
       </c>
       <c r="I83">
         <v>691.17334000000005</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-709.09912099999997</v>
+        <v>-701.55139099999997</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
@@ -13750,7 +13750,7 @@
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-2148.0936617777766</v>
+        <v>-2125.596406037037</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
@@ -13758,23 +13758,23 @@
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>4614306.379769857</v>
+        <v>4518160.0813575685</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>6297049.6375831207</v>
+        <v>6231099.8428280847</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>502821.56340297259</v>
+        <v>492174.35421403486</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>8163550.5979574136</v>
+        <v>7992764.666291371</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>709.09912099999997</v>
+        <v>701.55139099999997</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13802,14 +13802,14 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>1978.5141599999999</v>
+        <v>1965.5225829999999</v>
       </c>
       <c r="I84">
         <v>1086.6118160000001</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-891.90234399999986</v>
+        <v>-878.91076699999985</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-1569.8519627777766</v>
+        <v>-1552.7985540370373</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
@@ -13825,23 +13825,23 @@
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>2464435.1850372376</v>
+        <v>2411183.3494195137</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>3981177.6303142323</v>
+        <v>3937929.8266938808</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>795489.79123269406</v>
+        <v>772484.13634852797</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>6060234.2669389313</v>
+        <v>5913210.2220184086</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>891.90234399999986</v>
+        <v>878.91076699999985</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13869,14 +13869,14 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>7701.6196289999998</v>
+        <v>7610.9907229999999</v>
       </c>
       <c r="I85">
         <v>5337.0673829999996</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-2364.5522460000002</v>
+        <v>-2273.9233400000003</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>4153.2535062222232</v>
+        <v>4092.6695859629626</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
@@ -13892,23 +13892,23 @@
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>17249514.686947189</v>
+        <v>16749944.339866247</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>7120481.1495368052</v>
+        <v>7016613.9857518785</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>5591107.3240636457</v>
+        <v>5170727.3561967565</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>3199452.198320569</v>
+        <v>3307837.9072043682</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>2364.5522460000002</v>
+        <v>2273.9233400000003</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13936,14 +13936,14 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6564.0747069999998</v>
+        <v>6534.8056640000004</v>
       </c>
       <c r="I86">
         <v>5738.3837890000004</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-825.69091799999933</v>
+        <v>-796.421875</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>3015.7085842222232</v>
+        <v>3016.4845269629632</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
@@ -13959,23 +13959,23 @@
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>9094498.2649516053</v>
+        <v>9099178.9014069717</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>6380488.206493889</v>
+        <v>6382129.9080601837</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>681765.49206768163</v>
+        <v>634287.80297851563</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>4796177.3783654356</v>
+        <v>4928678.1786408247</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>825.69091799999933</v>
+        <v>796.421875</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -14003,14 +14003,14 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>3730.7092290000001</v>
+        <v>3708.7924800000001</v>
       </c>
       <c r="I87">
         <v>5494.9433589999999</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1764.2341299999998</v>
+        <v>1786.1508789999998</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>182.34310622222347</v>
+        <v>190.47134296296281</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
@@ -14026,23 +14026,23 @@
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>33249.00838676907</v>
+        <v>36279.332490114604</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>341402.91025514819</v>
+        <v>356621.49315649085</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>3112522.065456856</v>
+        <v>3190334.962552472</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>3789162.9365785494</v>
+        <v>3907035.4083577995</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1764.2341299999998</v>
+        <v>1786.1508789999998</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14070,14 +14070,14 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>3885.8435060000002</v>
+        <v>3876.7875979999999</v>
       </c>
       <c r="I88">
         <v>3571.7241210000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-314.11938499999997</v>
+        <v>-305.06347699999969</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
@@ -14085,7 +14085,7 @@
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>337.47738322222358</v>
+        <v>358.46646096296263</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
@@ -14093,23 +14093,23 @@
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>113890.98418651955</v>
+        <v>128498.20363531121</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>-17180.551620621587</v>
+        <v>-18249.079325059058</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>98670.988032778201</v>
+        <v>93063.724999329337</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>545.59608094940154</v>
+        <v>2851.8786961484766</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>314.11938499999997</v>
+        <v>305.06347699999969</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14137,14 +14137,14 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>7912.1274409999996</v>
+        <v>7853.7348629999997</v>
       </c>
       <c r="I89">
         <v>6436.5395509999998</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-1475.5878899999998</v>
+        <v>-1417.1953119999998</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>4363.7613182222231</v>
+        <v>4335.4137259629624</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
@@ -14160,23 +14160,23 @@
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>19042412.842412554</v>
+        <v>18795812.175268058</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>12279217.124725709</v>
+        <v>12199449.645496011</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>2177359.6211146517</v>
+        <v>2008442.5523547768</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>8341545.7514889101</v>
+        <v>8515998.7115925085</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>1475.5878899999998</v>
+        <v>1417.1953119999998</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14204,14 +14204,14 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>7566.939453</v>
+        <v>7514.7910160000001</v>
       </c>
       <c r="I90">
         <v>9411.5224610000005</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>1844.5830080000005</v>
+        <v>1896.7314450000003</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>4018.5733302222234</v>
+        <v>3996.4698789629629</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
@@ -14227,23 +14227,23 @@
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>16148931.610373331</v>
+        <v>15971771.493458239</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>23263077.319314588</v>
+        <v>23135122.880409416</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>3402486.4734023302</v>
+        <v>3597590.1744517894</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>34376602.246435434</v>
+        <v>34729821.844758824</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1844.5830080000005</v>
+        <v>1896.7314450000003</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14271,14 +14271,14 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>4724.8159180000002</v>
+        <v>4695.4692379999997</v>
       </c>
       <c r="I91">
         <v>5637.3295900000003</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>912.51367200000004</v>
+        <v>941.8603520000006</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>1176.4497952222237</v>
+        <v>1177.1481009629624</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
@@ -14294,23 +14294,23 @@
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>1384034.120678412</v>
+        <v>1385677.6516007087</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>2370189.5428945869</v>
+        <v>2371596.4171795449</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>832681.20158692368</v>
+        <v>887100.92266956507</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>4363768.3673890941</v>
+        <v>4490196.8237284897</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>912.51367200000004</v>
+        <v>941.8603520000006</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14338,14 +14338,14 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>4086.341797</v>
+        <v>4026.1362300000001</v>
       </c>
       <c r="I92">
         <v>5607.1303710000002</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>1520.7885740000002</v>
+        <v>1580.9941410000001</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>537.97567422222346</v>
+        <v>507.81509296296281</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
@@ -14361,23 +14361,23 @@
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>289417.82605485589</v>
+        <v>257876.16864098256</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>1067611.3807341426</v>
+        <v>1007757.7826165395</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>2312797.8868089537</v>
+        <v>2499542.4738763282</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>4238510.2297580177</v>
+        <v>4363124.0158889396</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>1520.7885740000002</v>
+        <v>1580.9941410000001</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14405,14 +14405,14 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>2027.818115</v>
+        <v>2046.2100829999999</v>
       </c>
       <c r="I93">
         <v>2252.694336</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>224.87622099999999</v>
+        <v>206.48425300000008</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-1520.5480077777765</v>
+        <v>-1472.1110540370373</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
@@ -14428,23 +14428,23 @@
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>2312066.2439569654</v>
+        <v>2167110.9554180368</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>2083057.3096654052</v>
+        <v>2016701.6602341</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>50569.314771240832</v>
+        <v>42635.746736968045</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>1678765.3790519161</v>
+        <v>1601811.1995032441</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>224.87622099999999</v>
+        <v>206.48425300000008</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14472,14 +14472,14 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>1546.1163329999999</v>
+        <v>1534.3342290000001</v>
       </c>
       <c r="I94">
         <v>947.28631600000006</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>-598.83001699999988</v>
+        <v>-587.04791299999999</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-2002.2497897777766</v>
+        <v>-1983.9869080370372</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
@@ -14495,23 +14495,23 @@
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>4009004.2206651508</v>
+        <v>3936204.0512623633</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>5356712.0766640306</v>
+        <v>5307852.5389206586</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>358597.38926022017</v>
+        <v>344625.25215765554</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>6765616.1612271145</v>
+        <v>6610220.0509849498</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>598.83001699999988</v>
+        <v>587.04791299999999</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14539,14 +14539,14 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1473.92749</v>
+        <v>1462.4663089999999</v>
       </c>
       <c r="I95">
         <v>702.44189500000005</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-771.48559499999999</v>
+        <v>-760.02441399999987</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-2074.4386327777765</v>
+        <v>-2055.8548280370374</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
@@ -14562,23 +14562,23 @@
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>4303295.6411609305</v>
+        <v>4226539.073963196</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>6057756.9750119597</v>
+        <v>6003488.7161145015</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>595190.02329250402</v>
+        <v>577637.10987604316</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>8099284.7102525346</v>
+        <v>7929175.9057350801</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>771.48559499999999</v>
+        <v>760.02441399999987</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14606,14 +14606,14 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>2322.7153320000002</v>
+        <v>2319.8374020000001</v>
       </c>
       <c r="I96">
         <v>1288.143311</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-1034.5720210000002</v>
+        <v>-1031.6940910000001</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-1225.6507907777764</v>
+        <v>-1198.4837350370371</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
@@ -14629,23 +14629,23 @@
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>1502219.8609341886</v>
+        <v>1436363.2631483271</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>2861268.9748679115</v>
+        <v>2797847.7668742738</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>1070339.2666360247</v>
+        <v>1064392.6974043164</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>5108607.1588806389</v>
+        <v>4973693.1357472865</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>1034.5720210000002</v>
+        <v>1031.6940910000001</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14673,14 +14673,14 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>6300.220703</v>
+        <v>6269.0048829999996</v>
       </c>
       <c r="I97">
         <v>4434.1489259999998</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-1866.0717770000001</v>
+        <v>-1834.8559569999998</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>2751.8545802222234</v>
+        <v>2750.6837459629623</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
@@ -14696,23 +14696,23 @@
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>7572703.6306900289</v>
+        <v>7566261.0703048352</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>2233174.1737929061</v>
+        <v>2232224.0229933816</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>3482223.8769159382</v>
+        <v>3366696.382938385</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>784611.17448421987</v>
+        <v>838740.53903678874</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>1866.0717770000001</v>
+        <v>1834.8559569999998</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14740,14 +14740,14 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7569.8383789999998</v>
+        <v>7530.6625979999999</v>
       </c>
       <c r="I98">
         <v>7605.4594729999999</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>35.621094000000085</v>
+        <v>74.796875</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>4021.4722562222232</v>
+        <v>4012.3414609629626</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
@@ -14763,23 +14763,23 @@
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>16172239.107565058</v>
+        <v>16098883.999362402</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>16016826.682627324</v>
+        <v>15980460.308368282</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>1268.862337756842</v>
+        <v>5594.572509765625</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>16460006.452417385</v>
+        <v>16704699.777298095</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>35.621094000000085</v>
+        <v>74.796875</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14807,14 +14807,14 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>4200.9331050000001</v>
+        <v>4179.5517579999996</v>
       </c>
       <c r="I99">
         <v>4712.3051759999998</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>511.37207099999978</v>
+        <v>532.75341800000024</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
@@ -14822,7 +14822,7 @@
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>652.56698222222349</v>
+        <v>661.23062096296235</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
@@ -14830,23 +14830,23 @@
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>425843.66628661973</v>
+        <v>437225.93409906479</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>711084.167902507</v>
+        <v>720524.69510170317</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>261501.39499882882</v>
+        <v>283826.20439068298</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>1354754.1196158454</v>
+        <v>1425597.8852983094</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>511.37207099999978</v>
+        <v>532.75341800000024</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14874,14 +14874,14 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5638.4545900000003</v>
+        <v>5610.2641599999997</v>
       </c>
       <c r="I100">
         <v>5044.9755859999996</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-593.47900400000071</v>
+        <v>-565.28857400000015</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
@@ -14889,7 +14889,7 @@
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>2090.0884672222237</v>
+        <v>2091.9430229629625</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
@@ -14897,23 +14897,23 @@
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>4368469.8008153448</v>
+        <v>4376225.6113234181</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>2972822.1057557431</v>
+        <v>2975459.9196037622</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>352217.32818883285</v>
+        <v>319551.17189495364</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>2239839.8854063102</v>
+        <v>2330673.8065384063</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>593.47900400000071</v>
+        <v>565.28857400000015</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14941,14 +14941,14 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>2807.9780270000001</v>
+        <v>2788.5512699999999</v>
       </c>
       <c r="I101">
         <v>3612.046143</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>804.06811599999992</v>
+        <v>823.4948730000001</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
@@ -14956,7 +14956,7 @@
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-740.38809577777647</v>
+        <v>-729.76986703703733</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
@@ -14964,23 +14964,23 @@
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>548174.53236944193</v>
+        <v>532564.0588352551</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>7838.2871376406429</v>
+        <v>7725.8748416600729</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>646525.53516778932</v>
+        <v>678143.80585728632</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>4055.144975502787</v>
+        <v>8784.3767427574057</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>804.06811599999992</v>
+        <v>823.4948730000001</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -15008,14 +15008,14 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>3264.6008299999999</v>
+        <v>3253.915039</v>
       </c>
       <c r="I102">
         <v>2506.0534670000002</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-758.54736299999968</v>
+        <v>-747.8615719999998</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-283.76529277777672</v>
+        <v>-264.40609803703728</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
@@ -15031,23 +15031,23 @@
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>80522.741385257337</v>
+        <v>69910.58467917137</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>316846.48139110673</v>
+        <v>295230.40327202505</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>575394.10191425332</v>
+        <v>559296.9308743109</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>1086415.6723945213</v>
+        <v>1024685.8358022118</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>758.54736299999968</v>
+        <v>747.8615719999998</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15075,14 +15075,14 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>3498.9194339999999</v>
+        <v>3485.3520509999998</v>
       </c>
       <c r="I103">
         <v>3726.0832519999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>227.16381799999999</v>
+        <v>240.73120100000006</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-49.446688777776671</v>
+        <v>-32.969086037037414</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
@@ -15098,23 +15098,23 @@
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>2444.9750310863055</v>
+        <v>1086.9606341175754</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>-5115.2788097316843</v>
+        <v>-3410.6645227430181</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>51603.400208337123</v>
+        <v>57951.51113490243</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>31583.378018988424</v>
+        <v>43165.096413883308</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>227.16381799999999</v>
+        <v>240.73120100000006</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15142,14 +15142,14 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>2074.4777829999998</v>
+        <v>2064.7333979999999</v>
       </c>
       <c r="I104">
         <v>2238.8271479999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>164.34936500000003</v>
+        <v>174.09375</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
@@ -15157,7 +15157,7 @@
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-1473.8883397777768</v>
+        <v>-1453.5877390370374</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
@@ -15165,23 +15165,23 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>2172346.8381328913</v>
+        <v>2112917.3150788066</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>2039575.119156159</v>
+        <v>2011483.0316775527</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>27010.713775903238</v>
+        <v>30308.6337890625</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>1714892.3264620306</v>
+        <v>1637104.8679819105</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>164.34936500000003</v>
+        <v>174.09375</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15209,14 +15209,14 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>1592.952759</v>
+        <v>1581.778687</v>
       </c>
       <c r="I105">
         <v>1157.7342530000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>-435.21850599999993</v>
+        <v>-424.04443399999991</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-1955.4133637777766</v>
+        <v>-1936.5424500370373</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
@@ -15232,23 +15232,23 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>3823641.4232407194</v>
+        <v>3750196.6607954511</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>4819895.6973427664</v>
+        <v>4773380.8081491115</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>189415.14796487198</v>
+        <v>179813.68200638029</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>5715120.7367971875</v>
+        <v>5572370.4370876886</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>435.21850599999993</v>
+        <v>424.04443399999991</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15276,14 +15276,14 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1456.475586</v>
+        <v>1448.85437</v>
       </c>
       <c r="I106">
         <v>832.49157700000001</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>-623.98400900000001</v>
+        <v>-616.36279300000001</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-2091.8905367777766</v>
+        <v>-2069.4667670370372</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
@@ -15299,23 +15299,23 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>4376006.0178604145</v>
+        <v>4282692.699870727</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>5836670.1684942013</v>
+        <v>5774104.6825808911</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>389356.0434877121</v>
+        <v>379903.09259476088</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>7375974.5484036459</v>
+        <v>7213680.4255687464</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>623.98400900000001</v>
+        <v>616.36279300000001</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15343,14 +15343,14 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1402.954712</v>
+        <v>1394.802856</v>
       </c>
       <c r="I107">
         <v>658.05114700000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-744.90356499999996</v>
+        <v>-736.75170900000001</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
@@ -15358,7 +15358,7 @@
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-2145.4114107777768</v>
+        <v>-2123.518281037037</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
@@ -15366,23 +15366,23 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>4602790.1214954909</v>
+        <v>4509329.889898493</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>6360247.4581377143</v>
+        <v>6295343.4858344542</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>554881.32114970917</v>
+        <v>542803.08071442065</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>8353920.6592052886</v>
+        <v>8181144.4159064721</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>744.90356499999996</v>
+        <v>736.75170900000001</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15410,14 +15410,14 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>1819.122314</v>
+        <v>1808.586182</v>
       </c>
       <c r="I108">
         <v>1479.0920410000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-340.03027299999985</v>
+        <v>-329.4941409999999</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
@@ -15425,7 +15425,7 @@
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-1729.2438087777766</v>
+        <v>-1709.7349550370373</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
@@ -15433,23 +15433,23 @@
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>2990284.1501962715</v>
+        <v>2923193.6164754997</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>3706704.70856346</v>
+        <v>3664886.6840301901</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>115620.58655645442</v>
+        <v>108566.38895332781</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>4281895.2255172608</v>
+        <v>4158455.3061240315</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>340.03027299999985</v>
+        <v>329.4941409999999</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15477,14 +15477,14 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1855.8881839999999</v>
+        <v>1835.5074460000001</v>
       </c>
       <c r="I109">
         <v>1868.7163089999999</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>12.828125</v>
+        <v>33.208862999999837</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
@@ -15492,7 +15492,7 @@
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-1692.4779387777767</v>
+        <v>-1682.8136910370372</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
@@ -15500,23 +15500,23 @@
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>2864481.5732494714</v>
+        <v>2831861.918741697</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>2968465.0870778039</v>
+        <v>2951514.8029092713</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>164.560791015625</v>
+        <v>1102.8285817527583</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>2821223.49692372</v>
+        <v>2721196.0886831037</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>12.828125</v>
+        <v>33.208862999999837</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15544,14 +15544,14 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>2919.9172359999998</v>
+        <v>2890.8710940000001</v>
       </c>
       <c r="I110">
         <v>1918.775024</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-1001.1422119999997</v>
+        <v>-972.09607000000005</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
@@ -15559,7 +15559,7 @@
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-628.44888677777681</v>
+        <v>-627.45004303703718</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
@@ -15567,23 +15567,23 @@
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>394948.00329222693</v>
+        <v>393693.5565071798</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>1070787.5669652461</v>
+        <v>1069085.6792199931</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>1002285.7286482524</v>
+        <v>944970.76930944505</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>2655567.1492157611</v>
+        <v>2558547.7677318943</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>1001.1422119999997</v>
+        <v>972.09607000000005</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15611,14 +15611,14 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>5851.0014650000003</v>
+        <v>5818.4677730000003</v>
       </c>
       <c r="I111">
         <v>4757.0766599999997</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-1093.9248050000006</v>
+        <v>-1061.3911130000006</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>2302.6353422222237</v>
+        <v>2300.146635962963</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
@@ -15634,23 +15634,23 @@
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>5302129.5192508576</v>
+        <v>5290674.5469317352</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>2612210.3630834376</v>
+        <v>2609387.0657241442</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>1196671.4789942892</v>
+        <v>1126551.0947553799</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>1460981.1627920354</v>
+        <v>1534515.2456712427</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>1093.9248050000006</v>
+        <v>1061.3911130000006</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B074D58E-299B-4D32-B0E0-0ABAD75656F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F532F3-6719-44BB-BCFC-9E5CE9120170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="SFork48" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -221,10 +220,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
+    <t xml:space="preserve"> adjusted Q (cfs)</t>
   </si>
   <si>
-    <t xml:space="preserve"> adjusted Q_DISCHARG (cfs)</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14182500_flow_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</t>
   </si>
 </sst>
 </file>
@@ -907,7 +906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> adjusted Q_DISCHARG (cfs)</c:v>
+                  <c:v> adjusted Q (cfs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -931,328 +930,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5344.2739259999998</c:v>
+                  <c:v>1266.6030270000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2498.7497560000002</c:v>
+                  <c:v>519.886841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2882.828857</c:v>
+                  <c:v>624.28594999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3433.1811520000001</c:v>
+                  <c:v>897.72363299999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2947.5266109999998</c:v>
+                  <c:v>644.46771200000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2830.3190920000002</c:v>
+                  <c:v>754.74603300000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1545.4291989999999</c:v>
+                  <c:v>58.439442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1411.9506839999999</c:v>
+                  <c:v>17.355250999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2063.3442380000001</c:v>
+                  <c:v>208.90947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2514.3791500000002</c:v>
+                  <c:v>451.19323700000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6110.1420900000003</c:v>
+                  <c:v>877.64154099999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7341.9204099999997</c:v>
+                  <c:v>1450.9846190000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5847.3041990000002</c:v>
+                  <c:v>1045.635986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2824.7448730000001</c:v>
+                  <c:v>376.61224399999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4339.8076170000004</c:v>
+                  <c:v>1364.717163</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4723.1235349999997</c:v>
+                  <c:v>1080.607788</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3588.7854000000002</c:v>
+                  <c:v>556.76348900000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2948.3801269999999</c:v>
+                  <c:v>261.22833300000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1732.5985109999999</c:v>
+                  <c:v>100.926498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1436.3604740000001</c:v>
+                  <c:v>21.440269000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1794.2176509999999</c:v>
+                  <c:v>33.266609000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2914.96875</c:v>
+                  <c:v>260.63430799999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4681.7846680000002</c:v>
+                  <c:v>610.80920400000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3230.8879390000002</c:v>
+                  <c:v>572.74829099999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6317.2241210000002</c:v>
+                  <c:v>1046.863525</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4712.0424800000001</c:v>
+                  <c:v>1184.8043210000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5112.673828</c:v>
+                  <c:v>1285.8126219999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6329.7309569999998</c:v>
+                  <c:v>1190.6961670000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3693.9643550000001</c:v>
+                  <c:v>476.68322799999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3343.258789</c:v>
+                  <c:v>468.524292</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1601.7967530000001</c:v>
+                  <c:v>76.782570000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1437.911865</c:v>
+                  <c:v>17.020605</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1791.5225829999999</c:v>
+                  <c:v>19.569410000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4485.6948240000002</c:v>
+                  <c:v>657.96881099999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7431.7124020000001</c:v>
+                  <c:v>1197.744263</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7327.814453</c:v>
+                  <c:v>1191.302124</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4148.7451170000004</c:v>
+                  <c:v>706.03741500000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2896.4123540000001</c:v>
+                  <c:v>649.48333700000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2695.0310060000002</c:v>
+                  <c:v>634.64648399999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2898.9968260000001</c:v>
+                  <c:v>584.74780299999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2616.970703</c:v>
+                  <c:v>389.984894</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1893.960327</c:v>
+                  <c:v>241.82307399999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1473.6057129999999</c:v>
+                  <c:v>41.436981000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1424.8917240000001</c:v>
+                  <c:v>36.965443</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2707.211914</c:v>
+                  <c:v>503.38516199999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3462.2526859999998</c:v>
+                  <c:v>537.97015399999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4700.5009769999997</c:v>
+                  <c:v>460.74203499999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2999.756836</c:v>
+                  <c:v>503.411316</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2898.0302729999999</c:v>
+                  <c:v>454.62365699999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5460.3359380000002</c:v>
+                  <c:v>1392.559937</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7160.0971680000002</c:v>
+                  <c:v>1497.6954350000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3501.1801759999998</c:v>
+                  <c:v>688.322632</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3558.2062989999999</c:v>
+                  <c:v>527.11029099999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1856.2923579999999</c:v>
+                  <c:v>184.21945199999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1558.5023189999999</c:v>
+                  <c:v>72.333427</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1429.0692140000001</c:v>
+                  <c:v>30.640398000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1854.6507570000001</c:v>
+                  <c:v>76.408660999999995</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3844.8139649999998</c:v>
+                  <c:v>560.95636000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6406.7221680000002</c:v>
+                  <c:v>1005.731384</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7578.0610349999997</c:v>
+                  <c:v>1212.8139650000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4911.5566410000001</c:v>
+                  <c:v>590.96649200000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2824.3354490000002</c:v>
+                  <c:v>502.86956800000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2440.6071780000002</c:v>
+                  <c:v>412.53048699999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2635.2866210000002</c:v>
+                  <c:v>435.17514</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2093.8378910000001</c:v>
+                  <c:v>152.598297</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1462.582764</c:v>
+                  <c:v>53.391396</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>791.11437999999998</c:v>
+                  <c:v>20.433401</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>756.16619900000001</c:v>
+                  <c:v>32.748145999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1016.33374</c:v>
+                  <c:v>98.625320000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1009.126831</c:v>
+                  <c:v>135.06358299999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4682.419922</c:v>
+                  <c:v>978.51068099999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8711.2900389999995</c:v>
+                  <c:v>1796.9171140000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5850.6259769999997</c:v>
+                  <c:v>999.76776099999995</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4041.8291020000001</c:v>
+                  <c:v>830.40765399999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4578.2202150000003</c:v>
+                  <c:v>987.60992399999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2587.9663089999999</c:v>
+                  <c:v>382.79586799999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2195.5588379999999</c:v>
+                  <c:v>186.66973899999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1761.8964840000001</c:v>
+                  <c:v>149.75590500000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1527.7673339999999</c:v>
+                  <c:v>70.211067</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1392.724731</c:v>
+                  <c:v>22.534731000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1965.5225829999999</c:v>
+                  <c:v>156.44309999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7610.9907229999999</c:v>
+                  <c:v>1640.5620120000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6534.8056640000004</c:v>
+                  <c:v>959.59722899999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3708.7924800000001</c:v>
+                  <c:v>677.44348100000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3876.7875979999999</c:v>
+                  <c:v>679.88403300000004</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7853.7348629999997</c:v>
+                  <c:v>1640.7174070000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7514.7910160000001</c:v>
+                  <c:v>1800.8266599999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4695.4692379999997</c:v>
+                  <c:v>1040.6577150000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4026.1362300000001</c:v>
+                  <c:v>543.31121800000005</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2046.2100829999999</c:v>
+                  <c:v>38.127785000000003</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1534.3342290000001</c:v>
+                  <c:v>15.777597</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1462.4663089999999</c:v>
+                  <c:v>19.343817000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2319.8374020000001</c:v>
+                  <c:v>261.11535600000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6269.0048829999996</c:v>
+                  <c:v>917.45178199999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7530.6625979999999</c:v>
+                  <c:v>1303.265625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4179.5517579999996</c:v>
+                  <c:v>550.72180200000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5610.2641599999997</c:v>
+                  <c:v>979.19140600000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2788.5512699999999</c:v>
+                  <c:v>426.88223299999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3253.915039</c:v>
+                  <c:v>887.95105000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3485.3520509999998</c:v>
+                  <c:v>900.714111</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2064.7333979999999</c:v>
+                  <c:v>128.92939799999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1581.778687</c:v>
+                  <c:v>21.904997000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1448.85437</c:v>
+                  <c:v>15.559666999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1394.802856</c:v>
+                  <c:v>21.552268999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1808.586182</c:v>
+                  <c:v>53.573376000000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1835.5074460000001</c:v>
+                  <c:v>165.26779199999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2890.8710940000001</c:v>
+                  <c:v>574.97015399999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5818.4677730000003</c:v>
+                  <c:v>1108.6058350000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,7 +1272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14182500_flow_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1297,328 +1296,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6456.1528319999998</c:v>
+                  <c:v>1342.384644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2734.970703</c:v>
+                  <c:v>627.96984899999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3057.4772950000001</c:v>
+                  <c:v>864.41570999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3770.7221679999998</c:v>
+                  <c:v>1074.364624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3910.0839839999999</c:v>
+                  <c:v>854.92816200000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5918.3823240000002</c:v>
+                  <c:v>1131.1062010000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1207.1254879999999</c:v>
+                  <c:v>114.97434199999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>948.21063200000003</c:v>
+                  <c:v>44.979168000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1415.190186</c:v>
+                  <c:v>83.805549999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2796.0817870000001</c:v>
+                  <c:v>292.33776899999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6244.2749020000001</c:v>
+                  <c:v>1176.866577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9231.7714840000008</c:v>
+                  <c:v>2110.3557129999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8318.4638670000004</c:v>
+                  <c:v>1759.5478519999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2776.469482</c:v>
+                  <c:v>468.22210699999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4550.9003910000001</c:v>
+                  <c:v>1301.367798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5305.9448240000002</c:v>
+                  <c:v>1511.114746</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5046.5058589999999</c:v>
+                  <c:v>984.95910600000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4450.8994140000004</c:v>
+                  <c:v>674.331909</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1565.618408</c:v>
+                  <c:v>164.11691300000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>906.57287599999995</c:v>
+                  <c:v>55.702587000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1528.8350829999999</c:v>
+                  <c:v>32.596527000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3058.838135</c:v>
+                  <c:v>144.50630200000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3991.3884280000002</c:v>
+                  <c:v>837.14758300000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3078.0751949999999</c:v>
+                  <c:v>968.58630400000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9415.8935550000006</c:v>
+                  <c:v>2226.1145019999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5623.0063479999999</c:v>
+                  <c:v>1144.6274410000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6355.2851559999999</c:v>
+                  <c:v>1660.1641850000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7887.6733400000003</c:v>
+                  <c:v>1482.9467770000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5001.1191410000001</c:v>
+                  <c:v>982.75799600000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3360.4860840000001</c:v>
+                  <c:v>634.70874000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1439.779419</c:v>
+                  <c:v>173.407318</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>815.06927499999995</c:v>
+                  <c:v>58.453625000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1672.6705320000001</c:v>
+                  <c:v>39.579945000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3312.0261230000001</c:v>
+                  <c:v>589.66687000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7927.4311520000001</c:v>
+                  <c:v>1360.6866460000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8040.9814450000003</c:v>
+                  <c:v>1518.8148189999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4171.548828</c:v>
+                  <c:v>973.04644800000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3069.951904</c:v>
+                  <c:v>797.98053000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3097.4514159999999</c:v>
+                  <c:v>982.05096400000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2999.3784179999998</c:v>
+                  <c:v>1009.720154</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3210.6345209999999</c:v>
+                  <c:v>704.52618399999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1918.652832</c:v>
+                  <c:v>363.70660400000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1061.767822</c:v>
+                  <c:v>106.160591</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>875.663635</c:v>
+                  <c:v>47.913445000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2395.8979490000002</c:v>
+                  <c:v>387.85830700000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4433.5844729999999</c:v>
+                  <c:v>461.88507099999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4333.9897460000002</c:v>
+                  <c:v>685.27191200000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3731.8847660000001</c:v>
+                  <c:v>759.15930200000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2729.5832519999999</c:v>
+                  <c:v>816.93914800000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8317.1464840000008</c:v>
+                  <c:v>2116.4047850000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8893.7246090000008</c:v>
+                  <c:v>1808.8873289999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4440.6704099999997</c:v>
+                  <c:v>1015.598877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4493.1948240000002</c:v>
+                  <c:v>763.369507</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1497.3298339999999</c:v>
+                  <c:v>255.19963100000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1009.008362</c:v>
+                  <c:v>125.83065000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>699.10485800000004</c:v>
+                  <c:v>44.710284999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1040.3927000000001</c:v>
+                  <c:v>33.385421999999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3328.0407709999999</c:v>
+                  <c:v>351.82427999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6070.8334960000002</c:v>
+                  <c:v>1377.880981</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9150.0664059999999</c:v>
+                  <c:v>1685.5017089999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4149.6567379999997</c:v>
+                  <c:v>752.04418899999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3329.79126</c:v>
+                  <c:v>662.61444100000006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1978.7460940000001</c:v>
+                  <c:v>587.58245799999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1960.03125</c:v>
+                  <c:v>553.24182099999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1114.496216</c:v>
+                  <c:v>178.59049999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>873.074341</c:v>
+                  <c:v>79.458038000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>744.20929000000001</c:v>
+                  <c:v>34.181193999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>698.13738999999998</c:v>
+                  <c:v>24.113814999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>928.56951900000001</c:v>
+                  <c:v>36.915759999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1060.384033</c:v>
+                  <c:v>149.830399</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2457.8547359999998</c:v>
+                  <c:v>1151.1414789999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9511.0449219999991</c:v>
+                  <c:v>2297.5532229999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5385.8833009999998</c:v>
+                  <c:v>1222.165405</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4481.5659180000002</c:v>
+                  <c:v>1263.7174070000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5166.9428710000002</c:v>
+                  <c:v>1320.882568</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2673.9582519999999</c:v>
+                  <c:v>607.23577899999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1824.7143550000001</c:v>
+                  <c:v>270.91561899999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1258.253418</c:v>
+                  <c:v>211.91166699999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>802.32867399999998</c:v>
+                  <c:v>104.008453</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>691.17334000000005</c:v>
+                  <c:v>39.007201999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1086.6118160000001</c:v>
+                  <c:v>44.902824000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5337.0673829999996</c:v>
+                  <c:v>1404.009033</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5738.3837890000004</c:v>
+                  <c:v>1021.493591</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5494.9433589999999</c:v>
+                  <c:v>1175.6577150000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3571.7241210000002</c:v>
+                  <c:v>709.046021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6436.5395509999998</c:v>
+                  <c:v>1648.881836</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9411.5224610000005</c:v>
+                  <c:v>2382.0834960000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5637.3295900000003</c:v>
+                  <c:v>1320.1610109999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5607.1303710000002</c:v>
+                  <c:v>1071.5164789999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2252.694336</c:v>
+                  <c:v>359.89279199999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>947.28631600000006</c:v>
+                  <c:v>77.952575999999993</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>702.44189500000005</c:v>
+                  <c:v>33.585678000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1288.143311</c:v>
+                  <c:v>136.73461900000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4434.1489259999998</c:v>
+                  <c:v>872.19836399999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7605.4594729999999</c:v>
+                  <c:v>1455.4692379999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4712.3051759999998</c:v>
+                  <c:v>840.29711899999995</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5044.9755859999996</c:v>
+                  <c:v>1322.490112</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3612.046143</c:v>
+                  <c:v>810.73584000000005</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2506.0534670000002</c:v>
+                  <c:v>842.74981700000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3726.0832519999999</c:v>
+                  <c:v>1319.1453859999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2238.8271479999999</c:v>
+                  <c:v>346.08395400000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1157.7342530000001</c:v>
+                  <c:v>112.98595400000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>832.49157700000001</c:v>
+                  <c:v>45.040531000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>658.05114700000001</c:v>
+                  <c:v>28.234048999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1479.0920410000001</c:v>
+                  <c:v>28.309725</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1868.7163089999999</c:v>
+                  <c:v>80.904944999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1918.775024</c:v>
+                  <c:v>498.89050300000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4757.0766599999997</c:v>
+                  <c:v>1230.877563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,7 +7908,7 @@
   <dimension ref="A1:AD3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+      <selection activeCell="H3" sqref="H3:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7928,7 +7927,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>3410.3370970833334</v>
+        <v>647.68639633333339</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7937,7 +7936,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>106989517.72228058</v>
+        <v>8747965.3294566423</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7956,7 +7955,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-104.31173362962863</v>
+        <v>-173.14343941666698</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7966,11 +7965,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>3518.3211370370373</v>
+        <v>576.25351624074074</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>3622.6328706666659</v>
+        <v>749.39695565740772</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7980,12 +7979,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>990643.68261370901</v>
+        <v>80999.678976450392</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>742.89820922222259</v>
+        <v>207.13106167592579</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -7998,17 +7997,17 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>2.9648155914918845E-2</v>
+        <v>0.30046400505490894</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>VG</v>
+        <v>NS</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -8022,11 +8021,11 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
         <v>62</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -8092,11 +8091,11 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.83271174788852198</v>
+        <v>0.78069000271699451</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8111,46 +8110,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5344.2739259999998</v>
+        <v>1266.6030270000001</v>
       </c>
       <c r="I4">
-        <v>6456.1528319999998</v>
+        <v>1342.384644</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>1111.8789059999999</v>
+        <v>75.781616999999869</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>2833.5199613333339</v>
+        <v>592.98768834259226</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>1825.9527889629626</v>
+        <v>690.34951075925937</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>8028835.3712744582</v>
+        <v>351634.39852589136</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>3334103.5875216215</v>
+        <v>476582.44700554875</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>5173873.6759788273</v>
+        <v>409368.76053357276</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>1236274.7016077565</v>
+        <v>5742.8534751346688</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>8630855.0679289531</v>
+        <v>586956.9049216744</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>1111.8789059999999</v>
+        <v>75.781616999999869</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8191,7 +8190,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.40863361700856632</v>
+        <v>0.45038356508138627</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8210,46 +8209,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>2498.7497560000002</v>
+        <v>519.886841</v>
       </c>
       <c r="I5">
-        <v>2734.970703</v>
+        <v>627.96984899999995</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>236.2209469999998</v>
+        <v>108.08300799999995</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-887.66216766666594</v>
+        <v>-121.42710665740776</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1019.5713810370371</v>
+        <v>-56.366675240740733</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>787944.12390668411</v>
+        <v>14744.54223118948</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>1039525.8010297711</v>
+        <v>3177.2020776951344</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>905034.94218223263</v>
+        <v>6844.4422863808904</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>55800.335801576715</v>
+        <v>11681.936618328053</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>613637.90250601468</v>
+        <v>2674.5790740664279</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>236.2209469999998</v>
+        <v>108.08300799999995</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8290,11 +8289,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.84856220576082275</v>
+        <v>0.88910615811015559</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -8309,46 +8308,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>2882.828857</v>
+        <v>624.28594999999996</v>
       </c>
       <c r="I6">
-        <v>3057.4772950000001</v>
+        <v>864.41570999999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>174.64843800000017</v>
+        <v>240.12976000000003</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-565.15557566666575</v>
+        <v>115.01875434259227</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-635.49228003703729</v>
+        <v>48.03243375925922</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>319400.82470712037</v>
+        <v>13229.313850521588</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>403850.43798667222</v>
+        <v>2307.1146928376247</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>359152.00535605376</v>
+        <v>5524.6306990330722</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>30502.076895839902</v>
+        <v>57662.301637657612</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>212377.04674345761</v>
+        <v>83037.449912148877</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>174.64843800000017</v>
+        <v>240.12976000000003</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8389,7 +8388,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>3518.3211370370373</v>
+        <v>576.25351624074074</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8405,46 +8404,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>3433.1811520000001</v>
+        <v>897.72363299999995</v>
       </c>
       <c r="I7">
-        <v>3770.7221679999998</v>
+        <v>1074.364624</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>337.54101599999967</v>
+        <v>176.6409910000001</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>148.08929733333389</v>
+        <v>324.96766834259233</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-85.13998503703715</v>
+        <v>321.47011675925921</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>21930.439984680572</v>
+        <v>105603.98546802108</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>7248.8170521069096</v>
+        <v>103343.03596921175</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>-12608.320559105392</v>
+        <v>104467.39428507737</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>113933.93748231203</v>
+        <v>31202.039701462116</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>63706.280431166364</v>
+        <v>248114.67567315645</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>337.54101599999967</v>
+        <v>176.6409910000001</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8485,7 +8484,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>1953.5844203994729</v>
+        <v>472.72800468641822</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8501,46 +8500,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>2947.5266109999998</v>
+        <v>644.46771200000001</v>
       </c>
       <c r="I8">
-        <v>3910.0839839999999</v>
+        <v>854.92816200000004</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>962.5573730000001</v>
+        <v>210.46045000000004</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>287.45111333333398</v>
+        <v>105.53120634259233</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-570.79452603703749</v>
+        <v>68.214195759259269</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>82628.142556573221</v>
+        <v>11136.8355121228</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>325806.39095384628</v>
+        <v>4653.1765030825454</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-164075.5219939191</v>
+        <v>7198.7263681643763</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>926516.69631666131</v>
+        <v>44293.601014202519</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>153478.12826052567</v>
+        <v>77659.558189048665</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>962.5573730000001</v>
+        <v>210.46045000000004</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8581,7 +8580,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>3622.6328706666659</v>
+        <v>749.39695565740772</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8597,46 +8596,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>2830.3190920000002</v>
+        <v>754.74603300000001</v>
       </c>
       <c r="I9">
-        <v>5918.3823240000002</v>
+        <v>1131.1062010000001</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>3088.063232</v>
+        <v>376.36016800000004</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>2295.7494533333343</v>
+        <v>381.70924534259234</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>-688.00204503703708</v>
+        <v>178.49251675925927</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>5270465.5524803028</v>
+        <v>145701.94798001135</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>473346.81397514517</v>
+        <v>31859.578539054452</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>-1579480.3187859938</v>
+        <v>68132.24387147688</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>9536134.5248302855</v>
+        <v>141646.97605698826</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>5760293.7011660663</v>
+        <v>307861.501784558</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>3088.063232</v>
+        <v>376.36016800000004</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8677,7 +8676,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>2433.4701054779885</v>
+        <v>607.73246099895573</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8692,46 +8691,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1545.4291989999999</v>
+        <v>58.439442</v>
       </c>
       <c r="I10">
-        <v>1207.1254879999999</v>
+        <v>114.97434199999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-338.30371100000002</v>
+        <v>56.534899999999993</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-2415.5073826666658</v>
+        <v>-634.42261365740774</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-1972.8919380370373</v>
+        <v>-517.81407424074075</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>5834675.9157171659</v>
+        <v>402492.05271989643</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>3892302.599171537</v>
+        <v>268131.41548179538</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>4765535.0415320098</v>
+        <v>328512.95836840174</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>114449.40087637154</v>
+        <v>3196.1949180099991</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>5341625.3281277334</v>
+        <v>212778.47658821967</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>338.30371100000002</v>
+        <v>56.534899999999993</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8772,7 +8771,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>995.31084723000436</v>
+        <v>284.60442543370681</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8787,46 +8786,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1411.9506839999999</v>
+        <v>17.355250999999999</v>
       </c>
       <c r="I11">
-        <v>948.21063200000003</v>
+        <v>44.979168000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-463.74005199999988</v>
+        <v>27.623917000000002</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-2674.4222386666661</v>
+        <v>-704.41778765740776</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2106.3704530370374</v>
+        <v>-558.89826524074078</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>7152534.310674822</v>
+        <v>496204.41956815682</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>4436796.4854274541</v>
+        <v>312367.27088910947</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>5633323.982472633</v>
+        <v>393697.8795264457</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>215054.83582896259</v>
+        <v>763.08079042288909</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>6605468.0081017334</v>
+        <v>282252.43309862388</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>463.74005199999988</v>
+        <v>27.623917000000002</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8867,7 +8866,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.92117436230109162</v>
+        <v>0.9429242589466853</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8883,46 +8882,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>2063.3442380000001</v>
+        <v>208.90947</v>
       </c>
       <c r="I12">
-        <v>1415.190186</v>
+        <v>83.805549999999997</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-648.15405200000009</v>
+        <v>-125.10392</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2207.4426846666656</v>
+        <v>-665.59140565740768</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1454.9768990370371</v>
+        <v>-367.34404624074074</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>4872803.2060883762</v>
+        <v>443011.91928500385</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>2116957.7767314324</v>
+        <v>134941.64830851948</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>3211778.1121382974</v>
+        <v>244501.04009725439</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>420103.6751240188</v>
+        <v>15650.9907993664</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>4423159.7972099539</v>
+        <v>242504.99945464174</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>648.15405200000009</v>
+        <v>125.10392</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8963,7 +8962,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>742.89820922222259</v>
+        <v>207.13106167592579</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8978,46 +8977,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>2514.3791500000002</v>
+        <v>451.19323700000001</v>
       </c>
       <c r="I13">
-        <v>2796.0817870000001</v>
+        <v>292.33776899999998</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>281.70263699999987</v>
+        <v>-158.85546800000003</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-826.55108366666582</v>
+        <v>-457.05918665740774</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-1003.9419870370371</v>
+        <v>-125.06027924074073</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>683186.69391053962</v>
+        <v>208903.1001079311</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>1007899.5133358743</v>
+        <v>15640.073443772046</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>829809.33732392872</v>
+        <v>57159.949512921252</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>79356.375692753689</v>
+        <v>25235.059713499035</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>521629.6787419219</v>
+        <v>80608.151531268188</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>281.70263699999987</v>
+        <v>158.85546800000003</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9066,46 +9065,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6110.1420900000003</v>
+        <v>877.64154099999996</v>
       </c>
       <c r="I14">
-        <v>6244.2749020000001</v>
+        <v>1176.866577</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>134.13281199999983</v>
+        <v>299.22503600000005</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>2621.6420313333342</v>
+        <v>427.46962134259229</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>2591.820952962963</v>
+        <v>301.38802475925922</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>6873006.9404535713</v>
+        <v>182730.27717077924</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>6717535.8522178419</v>
+        <v>90834.741468287844</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>6794826.7479781201</v>
+        <v>128834.22482103237</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>17991.611255027299</v>
+        <v>89535.622169201321</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>7430823.9287157524</v>
+        <v>360736.04875460564</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>134.13281199999983</v>
+        <v>299.22503600000005</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9143,7 +9142,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.40863361700856632</v>
+        <v>0.45038356508138627</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9158,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>7341.9204099999997</v>
+        <v>1450.9846190000001</v>
       </c>
       <c r="I15">
-        <v>9231.7714840000008</v>
+        <v>2110.3557129999999</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1889.8510740000011</v>
+        <v>659.37109399999986</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>5609.1386133333344</v>
+        <v>1360.9587573425922</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3823.5992729629625</v>
+        <v>874.73110275925933</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>31462435.983587001</v>
+        <v>1852208.7391874928</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>14619911.400202895</v>
+        <v>765154.50213442987</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>21447098.323889818</v>
+        <v>1190472.9546201569</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>3571537.0818989575</v>
+        <v>434770.23960275663</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>32643514.867211208</v>
+        <v>2353469.5501015848</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>1889.8510740000011</v>
+        <v>659.37109399999986</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9246,46 +9245,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>5847.3041990000002</v>
+        <v>1045.635986</v>
       </c>
       <c r="I16">
-        <v>8318.4638670000004</v>
+        <v>1759.5478519999999</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2471.1596680000002</v>
+        <v>713.91186599999992</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>4695.830996333334</v>
+        <v>1010.1508963425922</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>2328.9830619629629</v>
+        <v>469.38246975925927</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>22050828.746124912</v>
+        <v>1020404.8333817425</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>5424162.102910378</v>
+        <v>220319.90291730195</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>10936510.852301</v>
+        <v>474147.12255481543</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>6106630.1047498714</v>
+        <v>509670.15241560183</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>23041370.228016287</v>
+        <v>1400185.4850399464</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>2471.1596680000002</v>
+        <v>713.91186599999992</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9313,46 +9312,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>2824.7448730000001</v>
+        <v>376.61224399999998</v>
       </c>
       <c r="I17">
-        <v>2776.469482</v>
+        <v>468.22210699999999</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-48.275391000000127</v>
+        <v>91.609863000000018</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-846.16338866666592</v>
+        <v>-281.17484865740772</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-693.57626403703716</v>
+        <v>-199.64127224074076</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>715992.48031985515</v>
+        <v>79059.295517516133</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>481048.03403557389</v>
+        <v>39856.637581901567</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>586878.84187634557</v>
+        <v>56134.104508062614</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>2330.5133762028931</v>
+        <v>8392.3669988787715</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>550343.87808119133</v>
+        <v>11670.785382540404</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>48.275391000000127</v>
+        <v>91.609863000000018</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9380,46 +9379,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>4339.8076170000004</v>
+        <v>1364.717163</v>
       </c>
       <c r="I18">
-        <v>4550.9003910000001</v>
+        <v>1301.367798</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>211.09277399999974</v>
+        <v>-63.349365000000034</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>928.26752033333423</v>
+        <v>551.97084234259228</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>821.48647996296313</v>
+        <v>788.46364675925929</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>861680.58930579713</v>
+        <v>304671.81079639087</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>674840.03676193987</v>
+        <v>621674.92226091004</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>762559.21774257906</v>
+        <v>435208.9432582205</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>44560.159235014966</v>
+        <v>4013.1420459032292</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>1066219.9157147089</v>
+        <v>525790.72161124647</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>211.09277399999974</v>
+        <v>63.349365000000034</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9447,46 +9446,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>4723.1235349999997</v>
+        <v>1080.607788</v>
       </c>
       <c r="I19">
-        <v>5305.9448240000002</v>
+        <v>1511.114746</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>582.82128900000043</v>
+        <v>430.50695799999994</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>1683.3119533333343</v>
+        <v>761.71779034259225</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>1204.8023979629625</v>
+        <v>504.35427175925929</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>2833539.1322348854</v>
+        <v>580213.99212440138</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>1451548.8181373046</v>
+        <v>254373.23144181276</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>2028058.2778957195</v>
+        <v>384175.62143431028</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>339680.654911622</v>
+        <v>185336.24088641373</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>3195598.4461910571</v>
+        <v>873965.51890699449</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>582.82128900000043</v>
+        <v>430.50695799999994</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9514,46 +9513,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>3588.7854000000002</v>
+        <v>556.76348900000005</v>
       </c>
       <c r="I20">
-        <v>5046.5058589999999</v>
+        <v>984.95910600000002</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1457.7204589999997</v>
+        <v>428.19561699999997</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>1423.872988333334</v>
+        <v>235.5621503425923</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>70.464262962962948</v>
+        <v>-19.490027240740687</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>2027414.2869052987</v>
+        <v>55489.526674026056</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>4965.2123549135922</v>
+        <v>379.86116184481403</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>100332.16067577992</v>
+        <v>-4591.1127270645775</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>2124948.9365871698</v>
+        <v>183351.48641801067</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>2335348.5444410173</v>
+        <v>167040.25910046394</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>1457.7204589999997</v>
+        <v>428.19561699999997</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9581,46 +9580,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>2948.3801269999999</v>
+        <v>261.22833300000002</v>
       </c>
       <c r="I21">
-        <v>4450.8994140000004</v>
+        <v>674.331909</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1502.5192870000005</v>
+        <v>413.10357599999998</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>828.26654333333454</v>
+        <v>-75.06504665740772</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-569.94101003703736</v>
+        <v>-315.02518324074072</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>686025.4668053505</v>
+        <v>5634.7612296787975</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>324832.75492203829</v>
+        <v>99240.866075862272</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-472063.07028728625</v>
+        <v>23647.380078224618</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>2257564.20780699</v>
+        <v>170654.56450398776</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>869702.24266320921</v>
+        <v>9619.3711262395191</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>1502.5192870000005</v>
+        <v>413.10357599999998</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9648,46 +9647,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>1732.5985109999999</v>
+        <v>100.926498</v>
       </c>
       <c r="I22">
-        <v>1565.618408</v>
+        <v>164.11691300000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-166.98010299999987</v>
+        <v>63.190415000000016</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-2057.0144626666661</v>
+        <v>-585.28004265740765</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1785.7226260370373</v>
+        <v>-475.32701824074076</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>4231308.4996198332</v>
+        <v>342552.7283330569</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3188805.2971406127</v>
+        <v>225935.77426963349</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>3673257.268069284</v>
+        <v>278199.41751215915</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>27882.354797890566</v>
+        <v>3993.0285478722271</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>3813047.9479886927</v>
+        <v>169856.57973081575</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>166.98010299999987</v>
+        <v>63.190415000000016</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9715,46 +9714,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1436.3604740000001</v>
+        <v>21.440269000000001</v>
       </c>
       <c r="I23">
-        <v>906.57287599999995</v>
+        <v>55.702587000000001</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-529.78759800000012</v>
+        <v>34.262318</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-2716.0599946666662</v>
+        <v>-693.69436865740772</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2081.9606630370372</v>
+        <v>-554.81324724074079</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>7376981.8946286906</v>
+        <v>481211.87710699951</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>4334560.2024336196</v>
+        <v>307817.73931381537</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>5654730.0673445836</v>
+        <v>384870.82526743197</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>280674.89899460971</v>
+        <v>1173.9064347331241</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>6821228.979029987</v>
+        <v>270973.2699333987</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>529.78759800000012</v>
+        <v>34.262318</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9782,46 +9781,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>1794.2176509999999</v>
+        <v>33.266609000000003</v>
       </c>
       <c r="I24">
-        <v>1528.8350829999999</v>
+        <v>32.596527000000002</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-265.38256799999999</v>
+        <v>-0.67008200000000073</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-2093.797787666666</v>
+        <v>-716.80042865740768</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1724.1034860370373</v>
+        <v>-542.98690724074072</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>4383989.1756378245</v>
+        <v>513802.85452344338</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>2972532.8305650647</v>
+        <v>294834.7814348648</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>3609924.0647727353</v>
+        <v>389213.24786552304</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>70427.907398274619</v>
+        <v>0.44900988672400099</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>3958054.7592078615</v>
+        <v>295562.92195030686</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>265.38256799999999</v>
+        <v>0.67008200000000073</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9849,46 +9848,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>2914.96875</v>
+        <v>260.63430799999998</v>
       </c>
       <c r="I25">
-        <v>3058.838135</v>
+        <v>144.50630200000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>143.86938499999997</v>
+        <v>-116.12800599999997</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-563.79473566666593</v>
+        <v>-604.89065365740771</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-603.35238703703726</v>
+        <v>-315.61920824074076</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>317864.50396544568</v>
+        <v>365892.70288208599</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>364034.10294329078</v>
+        <v>99615.484610512081</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>340166.89956339833</v>
+        <v>190915.10917957517</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>20698.399940278214</v>
+        <v>13485.71377753603</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>211124.629160968</v>
+        <v>186405.65700464009</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>143.86938499999997</v>
+        <v>116.12800599999997</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9916,46 +9915,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>4681.7846680000002</v>
+        <v>610.80920400000002</v>
       </c>
       <c r="I26">
-        <v>3991.3884280000002</v>
+        <v>837.14758300000005</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-690.39624000000003</v>
+        <v>226.33837900000003</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>368.75555733333431</v>
+        <v>87.750627342592338</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>1163.463530962963</v>
+        <v>34.555687759259285</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>135980.661064218</v>
+        <v>7700.1725990185141</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1353647.3878808054</v>
+        <v>1194.095556515422</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>429033.64279725647</v>
+        <v>3032.283279129741</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>476646.96820613765</v>
+        <v>51229.061808347658</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>223792.66177903663</v>
+        <v>68065.714070184855</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>690.39624000000003</v>
+        <v>226.33837900000003</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9983,46 +9982,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3230.8879390000002</v>
+        <v>572.74829099999999</v>
       </c>
       <c r="I27">
-        <v>3078.0751949999999</v>
+        <v>968.58630400000004</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-152.81274400000029</v>
+        <v>395.83801300000005</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-544.557675666666</v>
+        <v>219.18934834259233</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-287.43319803703707</v>
+        <v>-3.5052252407407423</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>296543.0621274818</v>
+        <v>48043.970426850283</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>82617.843333798577</v>
+        <v>12.286603988325995</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>156523.95423248541</v>
+        <v>-768.30803631196954</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>23351.734728809624</v>
+        <v>156687.73253578821</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>193816.48948007845</v>
+        <v>153925.01635095201</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>152.81274400000029</v>
+        <v>395.83801300000005</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10050,46 +10049,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>6317.2241210000002</v>
+        <v>1046.863525</v>
       </c>
       <c r="I28">
-        <v>9415.8935550000006</v>
+        <v>2226.1145019999999</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>3098.6694340000004</v>
+        <v>1179.2509769999999</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>5793.2606843333342</v>
+        <v>1476.7175463425922</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>2798.9029839629629</v>
+        <v>470.61000875925924</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>33561869.356642328</v>
+        <v>2180694.7116760858</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>7833857.9136367775</v>
+        <v>221473.78034439005</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>16214774.616255885</v>
+        <v>694958.05741923908</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>9601752.2612058818</v>
+        <v>1390632.8667554543</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>34781360.425117515</v>
+        <v>2722041.2723305142</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>3098.6694340000004</v>
+        <v>1179.2509769999999</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10117,46 +10116,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4712.0424800000001</v>
+        <v>1184.8043210000001</v>
       </c>
       <c r="I29">
-        <v>5623.0063479999999</v>
+        <v>1144.6274410000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>910.96386799999982</v>
+        <v>-40.176879999999983</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>2000.373477333334</v>
+        <v>395.23048534259237</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>1193.7213429629628</v>
+        <v>608.55080475925934</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>4001494.0488186544</v>
+        <v>156207.13654414113</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>1424970.6446452995</v>
+        <v>370334.08197314217</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>2387888.5137898391</v>
+        <v>240517.82992062723</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>829855.16880152107</v>
+        <v>1614.1816865343985</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>4429699.8372462103</v>
+        <v>323048.9183462442</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>910.96386799999982</v>
+        <v>40.176879999999983</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10184,46 +10183,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5112.673828</v>
+        <v>1285.8126219999999</v>
       </c>
       <c r="I30">
-        <v>6355.2851559999999</v>
+        <v>1660.1641850000001</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1242.611328</v>
+        <v>374.35156300000017</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>2732.652285333334</v>
+        <v>910.76722934259237</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>1594.3526909629627</v>
+        <v>709.55910575925918</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>7467388.5125374934</v>
+        <v>829496.94604438229</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>2541960.5031808405</v>
+        <v>503474.12456587958</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>4356811.5245872913</v>
+        <v>646243.18080716801</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1544082.9124739235</v>
+        <v>140139.09272054309</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>8048364.8448904855</v>
+        <v>1174862.3378501448</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>1242.611328</v>
+        <v>374.35156300000017</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10251,46 +10250,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6329.7309569999998</v>
+        <v>1190.6961670000001</v>
       </c>
       <c r="I31">
-        <v>7887.6733400000003</v>
+        <v>1482.9467770000001</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>1557.9423830000005</v>
+        <v>292.25061000000005</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>4265.0404693333348</v>
+        <v>733.5498213425924</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>2811.4098199629625</v>
+        <v>614.44265075925932</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>18190570.205051113</v>
+        <v>538095.34039174917</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>7904025.1757841771</v>
+        <v>377539.77107206511</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>11990776.65802318</v>
+        <v>450724.29668972356</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>2427184.4687477201</v>
+        <v>85410.419045372124</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>19091238.673537299</v>
+        <v>822092.66910625831</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>1557.9423830000005</v>
+        <v>292.25061000000005</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10318,46 +10317,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>3693.9643550000001</v>
+        <v>476.68322799999999</v>
       </c>
       <c r="I32">
-        <v>5001.1191410000001</v>
+        <v>982.75799600000005</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1307.1547860000001</v>
+        <v>506.07476800000006</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>1378.4862703333342</v>
+        <v>233.36104034259233</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>175.64321796296281</v>
+        <v>-99.570288240740751</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1900224.3974975061</v>
+        <v>54457.375149777006</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>30850.540016384861</v>
+        <v>9914.2423003441963</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>242121.76443910951</v>
+        <v>-23235.82605107105</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1708653.6345627059</v>
+        <v>256111.67080625388</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>2198689.9205565467</v>
+        <v>165245.89206434606</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>1307.1547860000001</v>
+        <v>506.07476800000006</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10385,46 +10384,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>3343.258789</v>
+        <v>468.524292</v>
       </c>
       <c r="I33">
-        <v>3360.4860840000001</v>
+        <v>634.70874000000003</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>17.22729500000014</v>
+        <v>166.18444800000003</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-262.14678666666578</v>
+        <v>-114.68821565740768</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-175.06234803703728</v>
+        <v>-107.72922424074073</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>68720.93775965838</v>
+        <v>13153.386810680053</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>30646.82570024077</v>
+        <v>11605.585755511802</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>45892.032004230809</v>
+        <v>12355.272502327305</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>296.77969301702984</v>
+        <v>27617.270757064714</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>24911.903967204329</v>
+        <v>3417.0131847450725</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>17.22729500000014</v>
+        <v>166.18444800000003</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10452,46 +10451,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>1601.7967530000001</v>
+        <v>76.782570000000007</v>
       </c>
       <c r="I34">
-        <v>1439.779419</v>
+        <v>173.407318</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-162.01733400000012</v>
+        <v>96.624747999999997</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-2182.8534516666659</v>
+        <v>-575.98963765740768</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-1916.5243840370372</v>
+        <v>-499.47094624074072</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>4764849.1914530778</v>
+        <v>331764.0626887118</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>3673065.7146085449</v>
+        <v>249471.2261386209</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>4183491.8668985777</v>
+        <v>287690.0893456068</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>26249.616516467595</v>
+        <v>9336.3419260635037</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>4320335.673620359</v>
+        <v>162285.05943701815</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>162.01733400000012</v>
+        <v>96.624747999999997</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10519,46 +10518,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1437.911865</v>
+        <v>17.020605</v>
       </c>
       <c r="I35">
-        <v>815.06927499999995</v>
+        <v>58.453625000000002</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-622.84259000000009</v>
+        <v>41.433019999999999</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-2807.5635956666661</v>
+        <v>-690.94333065740773</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2080.4092720370372</v>
+        <v>-559.23291124074069</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>7882413.3437127387</v>
+        <v>477402.68617995188</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>4328102.739177675</v>
+        <v>312741.44901479414</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>5840881.3362585753</v>
+        <v>386398.25030591583</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>387932.89191790821</v>
+        <v>1716.6951463204</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>7307570.6296067098</v>
+        <v>268116.72736892296</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>622.84259000000009</v>
+        <v>41.433019999999999</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10586,46 +10585,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>1791.5225829999999</v>
+        <v>19.569410000000001</v>
       </c>
       <c r="I36">
-        <v>1672.6705320000001</v>
+        <v>39.579945000000002</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-118.85205099999985</v>
+        <v>20.010535000000001</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-1949.9623386666658</v>
+        <v>-709.81701065740776</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1726.7985540370373</v>
+        <v>-556.68410624074079</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>3802353.1222183728</v>
+        <v>503840.18861861853</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>2981833.2462244029</v>
+        <v>309897.19414105237</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>3367192.146836278</v>
+        <v>395143.84817229339</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>14125.810026906565</v>
+        <v>400.42151098622503</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>3406426.1558735813</v>
+        <v>288018.52206829045</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>118.85205099999985</v>
+        <v>20.010535000000001</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10653,46 +10652,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>4485.6948240000002</v>
+        <v>657.96881099999996</v>
       </c>
       <c r="I37">
-        <v>3312.0261230000001</v>
+        <v>589.66687000000002</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-1173.6687010000001</v>
+        <v>-68.301940999999943</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-310.6067476666658</v>
+        <v>-159.7300856574077</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>967.37368696296289</v>
+        <v>81.715294759259223</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>96476.551696063805</v>
+        <v>25513.700264122799</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>935811.8502283165</v>
+        <v>6677.3893975926176</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-300472.79468587716</v>
+        <v>-13052.391031416793</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>1377498.2197070275</v>
+        <v>4665.1551443674734</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>42557.632816541358</v>
+        <v>179.91805907103506</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>1173.6687010000001</v>
+        <v>68.301940999999943</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10720,46 +10719,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7431.7124020000001</v>
+        <v>1197.744263</v>
       </c>
       <c r="I38">
-        <v>7927.4311520000001</v>
+        <v>1360.6866460000001</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>495.71875</v>
+        <v>162.94238300000006</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>4304.7982813333347</v>
+        <v>611.28969034259239</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3913.3912649629629</v>
+        <v>621.49074675925931</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>18531288.242970433</v>
+        <v>373675.08551914251</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>15314631.192688419</v>
+        <v>386250.74830738176</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>16846359.991597448</v>
+        <v>379910.88613725413</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>245737.0791015625</v>
+        <v>26550.220177718711</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>19440251.124046698</v>
+        <v>615335.33506390708</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>495.71875</v>
+        <v>162.94238300000006</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10787,46 +10786,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>7327.814453</v>
+        <v>1191.302124</v>
       </c>
       <c r="I39">
-        <v>8040.9814450000003</v>
+        <v>1518.8148189999999</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>713.16699200000039</v>
+        <v>327.51269499999989</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>4418.3485743333349</v>
+        <v>769.41786334259223</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>3809.4933159629627</v>
+        <v>615.04860775925931</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>19521804.124313414</v>
+        <v>592003.84843067988</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>14512239.324366489</v>
+        <v>378284.78990660323</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>16831669.361517325</v>
+        <v>473229.38563396537</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>508607.15847832861</v>
+        <v>107264.56538616295</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>20454456.261223644</v>
+        <v>888421.80945923191</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>713.16699200000039</v>
+        <v>327.51269499999989</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10854,46 +10853,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4148.7451170000004</v>
+        <v>706.03741500000001</v>
       </c>
       <c r="I40">
-        <v>4171.548828</v>
+        <v>973.04644800000005</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>22.803710999999566</v>
+        <v>267.00903300000004</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>548.91595733333406</v>
+        <v>223.64949234259234</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>630.42397996296313</v>
+        <v>129.78389875925927</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>301308.72821517062</v>
+        <v>50019.095425099273</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>397434.39451234252</v>
+        <v>16843.860377153662</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>346049.78248726053</v>
+        <v>29026.103071750735</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>520.00923537150118</v>
+        <v>71293.823703595117</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>426706.4162408039</v>
+        <v>157444.63069410823</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>22.803710999999566</v>
+        <v>267.00903300000004</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10921,46 +10920,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>2896.4123540000001</v>
+        <v>649.48333700000001</v>
       </c>
       <c r="I41">
-        <v>3069.951904</v>
+        <v>797.98053000000004</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>173.53954999999996</v>
+        <v>148.49719300000004</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-552.68096666666588</v>
+        <v>48.583574342592328</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-621.90878303703721</v>
+        <v>73.229820759259269</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>305456.25091560022</v>
+        <v>2360.3636959021956</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>386770.53441860864</v>
+        <v>5362.6066484332396</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>343717.14738739951</v>
+        <v>3557.7664409521835</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>30115.975414202487</v>
+        <v>22051.416328879259</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>201034.969134221</v>
+        <v>49162.868630598765</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>173.53954999999996</v>
+        <v>148.49719300000004</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10988,46 +10987,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>2695.0310060000002</v>
+        <v>634.64648399999999</v>
       </c>
       <c r="I42">
-        <v>3097.4514159999999</v>
+        <v>982.05096400000002</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>402.42040999999972</v>
+        <v>347.40448000000004</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-525.18145466666601</v>
+        <v>232.65400834259231</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-823.2901310370371</v>
+        <v>58.39296775925925</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>275815.56032579538</v>
+        <v>54127.887597875007</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>677806.63986298174</v>
+        <v>3409.7386837338904</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>432376.70863074122</v>
+        <v>13585.358008211426</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>161942.18638456787</v>
+        <v>120689.87272407042</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>177131.32208579365</v>
+        <v>164671.56860792876</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>402.42040999999972</v>
+        <v>347.40448000000004</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11055,46 +11054,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>2898.9968260000001</v>
+        <v>584.74780299999998</v>
       </c>
       <c r="I43">
-        <v>2999.3784179999998</v>
+        <v>1009.720154</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>100.38159199999973</v>
+        <v>424.972351</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-623.25445266666611</v>
+        <v>260.32319834259226</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-619.32431103703721</v>
+        <v>8.4942867592592393</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>388446.11276882555</v>
+        <v>67768.167595316627</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>383562.6022415008</v>
+        <v>72.152907548526827</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>385996.63449854869</v>
+        <v>2211.2598968094981</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>10076.464012454409</v>
+        <v>180601.49911446721</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>269301.54564155365</v>
+        <v>187893.32605031686</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>100.38159199999973</v>
+        <v>424.972351</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11122,46 +11121,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>2616.970703</v>
+        <v>389.984894</v>
       </c>
       <c r="I44">
-        <v>3210.6345209999999</v>
+        <v>704.52618399999994</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>593.66381799999999</v>
+        <v>314.54128999999995</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-411.99834966666594</v>
+        <v>-44.870771657407772</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-901.3504340370373</v>
+        <v>-186.26862224074074</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>169742.64012805634</v>
+        <v>2013.3861491312286</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>812432.60493875551</v>
+        <v>34695.999631463776</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>371354.89129459241</v>
+        <v>8358.0168155042247</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>352436.72880233714</v>
+        <v>98936.223114864071</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>94671.053688323227</v>
+        <v>16453.877294077298</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>593.66381799999999</v>
+        <v>314.54128999999995</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11189,46 +11188,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>1893.960327</v>
+        <v>241.82307399999999</v>
       </c>
       <c r="I45">
-        <v>1918.652832</v>
+        <v>363.70660400000003</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>24.692504999999983</v>
+        <v>121.88353000000004</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1703.9800386666659</v>
+        <v>-385.69035165740769</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1624.3608100370373</v>
+        <v>-334.43044224074072</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>2903547.9721744522</v>
+        <v>148757.04736161479</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>2638548.04118418</v>
+        <v>111843.72069733741</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>2767878.3958955277</v>
+        <v>128986.59487277365</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>609.71980317502414</v>
+        <v>14855.594885260909</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>2558938.6861400679</v>
+        <v>45176.189903073137</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>24.692504999999983</v>
+        <v>121.88353000000004</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11256,46 +11255,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>1473.6057129999999</v>
+        <v>41.436981000000003</v>
       </c>
       <c r="I46">
-        <v>1061.767822</v>
+        <v>106.160591</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-411.8378909999999</v>
+        <v>64.723609999999994</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-2560.8650486666656</v>
+        <v>-643.23636465740776</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2044.7154240370373</v>
+        <v>-534.81653524074068</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>6558029.7974825241</v>
+        <v>413753.02081767767</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>4180861.1652949615</v>
+        <v>286028.72636691044</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>5236240.2638860894</v>
+        <v>344013.44388692442</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>169610.4484633278</v>
+        <v>4189.1456914320988</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>6034654.1896194583</v>
+        <v>220987.35836139665</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>411.8378909999999</v>
+        <v>64.723609999999994</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11323,46 +11322,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1424.8917240000001</v>
+        <v>36.965443</v>
       </c>
       <c r="I47">
-        <v>875.663635</v>
+        <v>47.913445000000003</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-549.22808900000007</v>
+        <v>10.948002000000002</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-2746.969235666666</v>
+        <v>-701.48351065740769</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2093.4294130370372</v>
+        <v>-539.28807324074069</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>7545839.9816991072</v>
+        <v>492079.11572424142</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>4382446.7073685937</v>
+        <v>290831.62593971047</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>5750586.194652467</v>
+        <v>378301.690872584</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>301651.49374659202</v>
+        <v>119.85874779200405</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>6983638.6730726343</v>
+        <v>279143.23087867099</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>549.22808900000007</v>
+        <v>10.948002000000002</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11390,46 +11389,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>2707.211914</v>
+        <v>503.38516199999998</v>
       </c>
       <c r="I48">
-        <v>2395.8979490000002</v>
+        <v>387.85830700000002</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-311.31396499999983</v>
+        <v>-115.52685499999995</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-1226.7349216666657</v>
+        <v>-361.53864865740769</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-811.10922303703728</v>
+        <v>-72.868354240740757</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>1504878.5680365206</v>
+        <v>130710.19447302449</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>657898.17169574625</v>
+        <v>5309.7970497540819</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>995016.00918545004</v>
+        <v>26344.726322086695</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>96916.384804021116</v>
+        <v>13346.454226191014</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>1259833.813043226</v>
+        <v>35492.754864862472</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>311.31396499999983</v>
+        <v>115.52685499999995</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11457,46 +11456,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>3462.2526859999998</v>
+        <v>537.97015399999998</v>
       </c>
       <c r="I49">
-        <v>4433.5844729999999</v>
+        <v>461.88507099999998</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>971.33178700000008</v>
+        <v>-76.085082999999997</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>810.95160233333399</v>
+        <v>-287.51188465740773</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-56.068451037037448</v>
+        <v>-38.283362240740757</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>657642.50132700184</v>
+        <v>82663.083819254534</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>3143.6712016926658</v>
+        <v>1465.6158244557753</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-45468.8002088336</v>
+        <v>11006.921628857615</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>943485.44043661351</v>
+        <v>5788.9398551168888</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>837706.97415805096</v>
+        <v>13080.141266784316</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>971.33178700000008</v>
+        <v>76.085082999999997</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11524,46 +11523,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>4700.5009769999997</v>
+        <v>460.74203499999999</v>
       </c>
       <c r="I50">
-        <v>4333.9897460000002</v>
+        <v>685.27191200000004</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-366.5112309999995</v>
+        <v>224.52987700000006</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>711.3568753333343</v>
+        <v>-64.125043657407673</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>1182.1798399629624</v>
+        <v>-115.51148124074075</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>506028.60408400494</v>
+        <v>4112.0212240644396</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>1397549.1740148554</v>
+        <v>13342.902298430003</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>840951.75703811413</v>
+        <v>7407.1787774943277</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>134330.48244913499</v>
+        <v>50413.665665635155</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>665315.27964757499</v>
+        <v>11885.010613922488</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>366.5112309999995</v>
+        <v>224.52987700000006</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11591,46 +11590,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>2999.756836</v>
+        <v>503.411316</v>
       </c>
       <c r="I51">
-        <v>3731.8847660000001</v>
+        <v>759.15930200000003</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>732.12793000000011</v>
+        <v>255.74798600000003</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>109.25189533333423</v>
+        <v>9.7623463425923092</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-518.56430103703724</v>
+        <v>-72.842200240740738</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>11935.976633925819</v>
+        <v>95.30340611272544</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>268908.93431003101</v>
+        <v>5305.9861359121696</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>-56654.13274050202</v>
+        <v>-711.11078710657193</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>536011.30588608503</v>
+        <v>65407.032343056206</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>45609.42361583007</v>
+        <v>33454.52646421206</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>732.12793000000011</v>
+        <v>255.74798600000003</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11658,46 +11657,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>2898.0302729999999</v>
+        <v>454.62365699999998</v>
       </c>
       <c r="I52">
-        <v>2729.5832519999999</v>
+        <v>816.93914800000005</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-168.44702099999995</v>
+        <v>362.31549100000007</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-893.04961866666599</v>
+        <v>67.54219234259233</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-620.29086403703741</v>
+        <v>-121.62985924074076</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>797537.6214006776</v>
+        <v>4561.9477464437377</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>384760.75600781443</v>
+        <v>14793.82265892241</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>553950.51959069306</v>
+        <v>-8215.1473474405429</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>28374.398883774425</v>
+        <v>131272.51501857114</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>622107.45129269874</v>
+        <v>57929.573335353773</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>168.44702099999995</v>
+        <v>362.31549100000007</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11725,46 +11724,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5460.3359380000002</v>
+        <v>1392.559937</v>
       </c>
       <c r="I53">
-        <v>8317.1464840000008</v>
+        <v>2116.4047850000002</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>2856.8105460000006</v>
+        <v>723.84484800000018</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>4694.5136133333344</v>
+        <v>1367.0078293425925</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>1942.0148009629629</v>
+        <v>816.30642075925925</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>22038458.065772001</v>
+        <v>1868710.4054839464</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>3771421.4871592163</v>
+        <v>666356.17257279286</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>9116814.9204154555</v>
+        <v>1115897.268320536</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>8161366.4957368216</v>
+        <v>523951.36397614336</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>23028724.710654207</v>
+        <v>2372065.9306607568</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>2856.8105460000006</v>
+        <v>723.84484800000018</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11792,46 +11791,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>7160.0971680000002</v>
+        <v>1497.6954350000001</v>
       </c>
       <c r="I54">
-        <v>8893.7246090000008</v>
+        <v>1808.8873289999999</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>1733.6274410000005</v>
+        <v>311.19189399999982</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>5271.0917383333344</v>
+        <v>1059.4903733425922</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>3641.776030962963</v>
+        <v>921.44191875925935</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>27784408.113925934</v>
+        <v>1122519.8512056253</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>13262532.659696352</v>
+        <v>849055.20964674547</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>19196135.549669236</v>
+        <v>976258.84251976223</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>3005464.1041882103</v>
+        <v>96840.394891307122</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>28894962.486391481</v>
+        <v>1519386.1163574285</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1733.6274410000005</v>
+        <v>311.19189399999982</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11859,46 +11858,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>3501.1801759999998</v>
+        <v>688.322632</v>
       </c>
       <c r="I55">
-        <v>4440.6704099999997</v>
+        <v>1015.598877</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>939.49023399999987</v>
+        <v>327.27624500000002</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>818.03753933333383</v>
+        <v>266.2019213425923</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-17.140961037037414</v>
+        <v>112.06911575925926</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>669185.41575853573</v>
+        <v>70863.4629264877</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>293.81254527323472</v>
+        <v>12559.486707062253</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>-14021.949588546637</v>
+        <v>29833.013938280204</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>882641.89978137449</v>
+        <v>107109.74054130004</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>850728.18133530545</v>
+        <v>193024.34602068368</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>939.49023399999987</v>
+        <v>327.27624500000002</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11926,46 +11925,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>3558.2062989999999</v>
+        <v>527.11029099999996</v>
       </c>
       <c r="I56">
-        <v>4493.1948240000002</v>
+        <v>763.369507</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>934.98852500000021</v>
+        <v>236.25921600000004</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>870.56195333333426</v>
+        <v>13.972551342592283</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>39.885161962962684</v>
+        <v>-49.143225240740776</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>757878.11459155043</v>
+        <v>195.23219102137739</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>1590.8261448117653</v>
+        <v>2415.0565870621813</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>34722.504507493199</v>
+        <v>-686.65623781682746</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>874203.54188167606</v>
+        <v>55818.417144934676</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>950378.70553276094</v>
+        <v>35012.393997819199</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>934.98852500000021</v>
+        <v>236.25921600000004</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11993,46 +11992,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>1856.2923579999999</v>
+        <v>184.21945199999999</v>
       </c>
       <c r="I57">
-        <v>1497.3298339999999</v>
+        <v>255.19963100000001</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-358.96252400000003</v>
+        <v>70.980179000000021</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-2125.3030366666662</v>
+        <v>-494.19732465740771</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-1662.0287790370373</v>
+        <v>-392.03406424074075</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>4516912.9976645531</v>
+        <v>244230.99569853922</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>2762339.6623473451</v>
+        <v>153690.70752511325</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>3532314.8111148071</v>
+        <v>193742.18572234438</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>128854.09363645059</v>
+        <v>5038.1858108720444</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>4084405.8469513422</v>
+        <v>103075.59722817471</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>358.96252400000003</v>
+        <v>70.980179000000021</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12060,46 +12059,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>1558.5023189999999</v>
+        <v>72.333427</v>
       </c>
       <c r="I58">
-        <v>1009.008362</v>
+        <v>125.83065000000001</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-549.49395699999991</v>
+        <v>53.497223000000005</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-2613.6245086666659</v>
+        <v>-623.56630565740772</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-1959.8188180370373</v>
+        <v>-503.92008924074071</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>6831033.0723030707</v>
+        <v>388834.93755122763</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>3840889.7995320898</v>
+        <v>253935.45634039608</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>5122230.4953677375</v>
+        <v>314227.58839439991</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>301943.60877951776</v>
+        <v>2861.9528687117295</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>6296650.6029640762</v>
+        <v>202880.75843252422</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>549.49395699999991</v>
+        <v>53.497223000000005</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12127,46 +12126,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1429.0692140000001</v>
+        <v>30.640398000000001</v>
       </c>
       <c r="I59">
-        <v>699.10485800000004</v>
+        <v>44.710284999999999</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-729.96435600000007</v>
+        <v>14.069886999999998</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-2923.5280126666657</v>
+        <v>-704.68667065740772</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2089.2519230370372</v>
+        <v>-545.61311824074073</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>8547016.0408467036</v>
+        <v>496583.30380222184</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>4364973.5979139581</v>
+        <v>297693.67479638453</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>6107986.5225164788</v>
+        <v>384486.29176007409</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>532847.96103049489</v>
+        <v>197.96172019276895</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>7947980.4279874368</v>
+        <v>282538.2066778476</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>729.96435600000007</v>
+        <v>14.069886999999998</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12194,46 +12193,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>1854.6507570000001</v>
+        <v>76.408660999999995</v>
       </c>
       <c r="I60">
-        <v>1040.3927000000001</v>
+        <v>33.385421999999998</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-814.25805700000001</v>
+        <v>-43.023238999999997</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-2582.240170666666</v>
+        <v>-716.01153365740777</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-1663.6703800370371</v>
+        <v>-499.84485524074074</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>6667964.2990046125</v>
+        <v>512672.51633043319</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>2767799.1334125795</v>
+        <v>249844.87931063707</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>4295996.4860799164</v>
+        <v>357894.68139168777</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>663016.18338941527</v>
+        <v>1850.9990940511207</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>6140129.3390768124</v>
+        <v>294705.76774457382</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>814.25805700000001</v>
+        <v>43.023238999999997</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12261,46 +12260,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>3844.8139649999998</v>
+        <v>560.95636000000002</v>
       </c>
       <c r="I61">
-        <v>3328.0407709999999</v>
+        <v>351.82427999999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-516.77319399999988</v>
+        <v>-209.13208000000003</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-294.59209966666594</v>
+        <v>-397.57267565740773</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>326.49282796296256</v>
+        <v>-15.297156240740719</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>86784.505186014838</v>
+        <v>158064.03242939032</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>106597.56671125267</v>
+        <v>234.00298905363272</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>-96182.207715716679</v>
+        <v>6081.7313365807004</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>267054.5340369615</v>
+        <v>43736.226885126416</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>36206.617699188901</v>
+        <v>50368.482079602218</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>516.77319399999988</v>
+        <v>209.13208000000003</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12328,46 +12327,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>6406.7221680000002</v>
+        <v>1005.731384</v>
       </c>
       <c r="I62">
-        <v>6070.8334960000002</v>
+        <v>1377.880981</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-335.88867200000004</v>
+        <v>372.14959699999997</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>2448.2006253333343</v>
+        <v>628.4840253425923</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>2888.401030962963</v>
+        <v>429.47786775925931</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>5993686.3018825287</v>
+        <v>394992.17011082818</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>8342860.515667907</v>
+        <v>184451.23889503983</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>7071385.2102169739</v>
+        <v>269919.97912489285</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>112821.19997792361</v>
+        <v>138495.32254726239</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>6515319.3426586697</v>
+        <v>642606.59225635743</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>335.88867200000004</v>
+        <v>372.14959699999997</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12395,46 +12394,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>7578.0610349999997</v>
+        <v>1212.8139650000001</v>
       </c>
       <c r="I63">
-        <v>9150.0664059999999</v>
+        <v>1685.5017089999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1572.0053710000002</v>
+        <v>472.68774399999984</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>5527.4335353333336</v>
+        <v>936.10475334259218</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>4059.7398979629625</v>
+        <v>636.56044875925932</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>30552521.487527553</v>
+        <v>876292.10923059529</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>16481488.039112326</v>
+        <v>405209.20492458961</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>22439942.456731204</v>
+        <v>595887.26187343628</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>2471200.8864528481</v>
+        <v>223433.70332780937</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>31716554.774486713</v>
+        <v>1230431.5531396826</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>1572.0053710000002</v>
+        <v>472.68774399999984</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12462,46 +12461,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>4911.5566410000001</v>
+        <v>590.96649200000002</v>
       </c>
       <c r="I64">
-        <v>4149.6567379999997</v>
+        <v>752.04418899999996</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-761.89990300000045</v>
+        <v>161.07769699999994</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>527.02386733333378</v>
+        <v>2.6472333425922443</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1393.2355039629629</v>
+        <v>14.71297575925928</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>277754.15673898341</v>
+        <v>7.0078443701321067</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1941105.1695029312</v>
+        <v>216.47165569255117</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>734268.363404667</v>
+        <v>38.948679998662605</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>580491.46219141013</v>
+        <v>25946.024470823791</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>398584.64104326488</v>
+        <v>30902.360629152961</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>761.89990300000045</v>
+        <v>161.07769699999994</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12529,46 +12528,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>2824.3354490000002</v>
+        <v>502.86956800000002</v>
       </c>
       <c r="I65">
-        <v>3329.79126</v>
+        <v>662.61444100000006</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>505.45581099999981</v>
+        <v>159.74487300000004</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-292.84161066666593</v>
+        <v>-86.78251465740766</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-693.98568803703711</v>
+        <v>-73.383948240740722</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>85756.208937847143</v>
+        <v>7531.2048502631751</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>481616.13520023978</v>
+        <v>5385.2038593997131</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>203227.88666438029</v>
+        <v>6368.4435638205268</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>255485.57687366754</v>
+        <v>25518.424449786144</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>35543.5145356004</v>
+        <v>7458.2093252744489</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>505.45581099999981</v>
+        <v>159.74487300000004</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12596,46 +12595,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>2440.6071780000002</v>
+        <v>412.53048699999999</v>
       </c>
       <c r="I66">
-        <v>1978.7460940000001</v>
+        <v>587.58245799999997</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-461.86108400000012</v>
+        <v>175.05197099999998</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1643.8867766666658</v>
+        <v>-161.81449765740774</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1077.7139590370371</v>
+        <v>-163.72302924074074</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>2702363.7344995206</v>
+        <v>26183.931652119216</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1161467.3775032845</v>
+        <v>26805.230303764449</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>1771639.726290066</v>
+        <v>26492.759731539543</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>213315.66091365516</v>
+        <v>30643.192550984833</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>2370291.3131424948</v>
+        <v>128.34492138468778</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>461.86108400000012</v>
+        <v>175.05197099999998</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12663,46 +12662,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>2635.2866210000002</v>
+        <v>435.17514</v>
       </c>
       <c r="I67">
-        <v>1960.03125</v>
+        <v>553.24182099999996</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-675.2553710000002</v>
+        <v>118.06668099999996</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1662.6016206666659</v>
+        <v>-196.15513465740776</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-883.03451603703706</v>
+        <v>-141.07837624074074</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>2764244.1490434241</v>
+        <v>38476.836852465771</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>779749.95651276421</v>
+        <v>19903.108242724</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>1468134.6174677827</v>
+        <v>27673.247888750935</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>455969.81606434792</v>
+        <v>13939.741162355751</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>2428267.3720419025</v>
+        <v>529.53811785273172</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>675.2553710000002</v>
+        <v>118.06668099999996</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12730,46 +12729,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>2093.8378910000001</v>
+        <v>152.598297</v>
       </c>
       <c r="I68">
-        <v>1114.496216</v>
+        <v>178.59049999999999</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-979.34167500000012</v>
+        <v>25.992202999999989</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-2508.1366546666659</v>
+        <v>-570.8064556574077</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-1424.4832460370371</v>
+        <v>-423.65521924074073</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>6290749.4784824941</v>
+        <v>325820.00982017216</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>2029152.5182402141</v>
+        <v>179483.74478992011</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>3572798.6433440475</v>
+        <v>241825.13411556921</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>959110.11639180582</v>
+        <v>675.59461679320839</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>5778374.2509987187</v>
+        <v>158135.87448568363</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>979.34167500000012</v>
+        <v>25.992202999999989</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12797,46 +12796,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>1462.582764</v>
+        <v>53.391396</v>
       </c>
       <c r="I69">
-        <v>873.074341</v>
+        <v>79.458038000000002</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-589.50842299999999</v>
+        <v>26.066642000000002</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-2749.5585296666659</v>
+        <v>-669.93891765740773</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-2055.7383730370375</v>
+        <v>-522.86212024074075</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>7560072.1080627181</v>
+        <v>448818.15339197894</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>4226060.2583769662</v>
+        <v>273384.79678264284</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>5652372.9783470603</v>
+        <v>350285.68291813921</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>347520.18078794691</v>
+        <v>679.46982515616412</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>6997330.6119442107</v>
+        <v>246805.74720044632</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>589.50842299999999</v>
+        <v>26.066642000000002</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12864,46 +12863,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>791.11437999999998</v>
+        <v>20.433401</v>
       </c>
       <c r="I70">
-        <v>744.20929000000001</v>
+        <v>34.181193999999998</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>-46.905089999999973</v>
+        <v>13.747792999999998</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-2878.4235806666657</v>
+        <v>-715.21576165740771</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-2727.2067570370373</v>
+        <v>-555.82011524074073</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>8285322.3097379087</v>
+        <v>511533.58572318585</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>7437656.6956284735</v>
+        <v>308936.00050623028</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>7850056.238808874</v>
+        <v>397531.30706641451</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>2200.0874679080976</v>
+        <v>189.00181237084894</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>7695696.5398712438</v>
+        <v>293842.40253946948</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>46.905089999999973</v>
+        <v>13.747792999999998</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12931,46 +12930,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>756.16619900000001</v>
+        <v>32.748145999999998</v>
       </c>
       <c r="I71">
-        <v>698.13738999999998</v>
+        <v>24.113814999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-58.028809000000024</v>
+        <v>-8.6343309999999995</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-2924.495480666666</v>
+        <v>-725.28314065740767</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-2762.154938037037</v>
+        <v>-543.50537024074072</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>8552673.8164397534</v>
+        <v>526035.63412187295</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>7629499.9017223874</v>
+        <v>295398.08748052467</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>8077909.6331904298</v>
+        <v>394195.2818923716</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>3367.3426739584838</v>
+        <v>74.551671817560987</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>7953436.367051865</v>
+        <v>304858.24968621437</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>58.028809000000024</v>
+        <v>8.6343309999999995</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12998,46 +12997,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>1016.33374</v>
+        <v>98.625320000000002</v>
       </c>
       <c r="I72">
-        <v>928.56951900000001</v>
+        <v>36.915759999999999</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-87.76422100000002</v>
+        <v>-61.709560000000003</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-2694.0633516666658</v>
+        <v>-712.48119565740774</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-2501.9873970370372</v>
+        <v>-477.62819624074075</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>7257977.3427934293</v>
+        <v>507629.45416540932</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>6259940.9349321686</v>
+        <v>228128.69384418355</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>6740512.5526893577</v>
+        <v>340301.10833729396</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>7702.5584877368447</v>
+        <v>3808.0697953936005</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>6706813.4431254519</v>
+        <v>290885.21530679672</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>87.76422100000002</v>
+        <v>61.709560000000003</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13065,46 +13064,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>1009.126831</v>
+        <v>135.06358299999999</v>
       </c>
       <c r="I73">
-        <v>1060.384033</v>
+        <v>149.830399</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>51.257202000000007</v>
+        <v>14.766816000000006</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-2562.2488376666661</v>
+        <v>-599.56655665740777</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-2509.1943060370372</v>
+        <v>-441.18993324074074</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>6565119.1061241813</v>
+        <v>359480.05586202058</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>6296056.0654486893</v>
+        <v>194648.55719296928</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>6429180.194123215</v>
+        <v>264522.72910506255</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>2627.3007568688045</v>
+        <v>218.05885477785617</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>6041454.8074019756</v>
+        <v>181836.67491731053</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>51.257202000000007</v>
+        <v>14.766816000000006</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13132,46 +13131,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>4682.419922</v>
+        <v>978.51068099999998</v>
       </c>
       <c r="I74">
-        <v>2457.8547359999998</v>
+        <v>1151.1414789999999</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-2224.5651860000003</v>
+        <v>172.63079799999991</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-1164.7781346666661</v>
+        <v>401.74452334259217</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>1164.0987849629628</v>
+        <v>402.25716475925924</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>1356708.1029975582</v>
+        <v>161398.66203576658</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>1355125.9811522462</v>
+        <v>161810.82660015783</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>-1355916.8113168923</v>
+        <v>161604.61291735116</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>4948690.2667632159</v>
+        <v>29801.392418116775</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>1124588.9877284467</v>
+        <v>330496.16972549132</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>2224.5651860000003</v>
+        <v>172.63079799999991</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13199,46 +13198,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>8711.2900389999995</v>
+        <v>1796.9171140000001</v>
       </c>
       <c r="I75">
-        <v>9511.0449219999991</v>
+        <v>2297.5532229999999</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>799.75488299999961</v>
+        <v>500.63610899999981</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>5888.4120513333328</v>
+        <v>1548.1562673425922</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>5192.9689019629623</v>
+        <v>1220.6635977592593</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>34673396.486287631</v>
+        <v>2396787.8281121477</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>26966926.016754415</v>
+        <v>1490019.6188945789</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>30578340.664517932</v>
+        <v>1889777.9991879542</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>639607.87288234301</v>
+        <v>250636.5136346597</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>35912738.362860806</v>
+        <v>2962872.6804895117</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>799.75488299999961</v>
+        <v>500.63610899999981</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13266,46 +13265,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>5850.6259769999997</v>
+        <v>999.76776099999995</v>
       </c>
       <c r="I76">
-        <v>5385.8833009999998</v>
+        <v>1222.165405</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-464.74267599999985</v>
+        <v>222.39764400000001</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>1763.250430333334</v>
+        <v>472.76844934259225</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>2332.3048399629624</v>
+        <v>423.51424475925921</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>3109052.0800706875</v>
+        <v>223510.00669379922</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>5439645.8665146595</v>
+        <v>179364.31551400572</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>4112437.5127332113</v>
+        <v>200224.17276933405</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>215985.75489564083</v>
+        <v>49460.712056750745</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>3487788.4362660237</v>
+        <v>417202.16804055369</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>464.74267599999985</v>
+        <v>222.39764400000001</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13333,46 +13332,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>4041.8291020000001</v>
+        <v>830.40765399999998</v>
       </c>
       <c r="I77">
-        <v>4481.5659180000002</v>
+        <v>1263.7174070000001</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>439.73681600000009</v>
+        <v>433.30975300000011</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>858.93304733333434</v>
+        <v>514.32045134259238</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>523.50796496296289</v>
+        <v>254.15413775925924</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>737765.97980132792</v>
+        <v>264525.52666924795</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>274060.58937966276</v>
+        <v>64594.325740152526</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>449658.29164891015</v>
+        <v>130716.67084292961</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>193368.46734581795</v>
+        <v>187757.3420449211</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>927840.50805238658</v>
+        <v>472606.60109785886</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>439.73681600000009</v>
+        <v>433.30975300000011</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13400,46 +13399,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>4578.2202150000003</v>
+        <v>987.60992399999998</v>
       </c>
       <c r="I78">
-        <v>5166.9428710000002</v>
+        <v>1320.882568</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>588.72265599999992</v>
+        <v>333.27264400000001</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>1544.3100003333343</v>
+        <v>571.48561234259228</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>1059.899077962963</v>
+        <v>411.35640775925924</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>2384893.3771295431</v>
+        <v>326595.80511458765</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>1123386.0554667392</v>
+        <v>169214.09420460195</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>1636812.745442284</v>
+        <v>235084.26857934936</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>346594.36568769423</v>
+        <v>111070.65523875074</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>2717953.6216950463</v>
+        <v>554472.42472389364</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>588.72265599999992</v>
+        <v>333.27264400000001</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13467,46 +13466,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>2587.9663089999999</v>
+        <v>382.79586799999998</v>
       </c>
       <c r="I79">
-        <v>2673.9582519999999</v>
+        <v>607.23577899999998</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>85.991942999999992</v>
+        <v>224.439911</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-948.67461866666599</v>
+        <v>-142.16117665740774</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-930.35482803703735</v>
+        <v>-193.45764824074075</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>899983.53210234409</v>
+        <v>20209.800148618691</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>865560.10605182534</v>
+        <v>37425.861662838186</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>882604.01171272807</v>
+        <v>27502.166907278592</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>7394.6142609152475</v>
+        <v>50373.273649687915</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>712948.68162806914</v>
+        <v>959.90060568378215</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>85.991942999999992</v>
+        <v>224.439911</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13534,46 +13533,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2195.5588379999999</v>
+        <v>186.66973899999999</v>
       </c>
       <c r="I80">
-        <v>1824.7143550000001</v>
+        <v>270.91561899999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>-370.84448299999985</v>
+        <v>84.24588</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-1797.9185156666658</v>
+        <v>-478.48133665740772</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-1322.7622990370373</v>
+        <v>-389.58377724074074</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>3232510.9889770267</v>
+        <v>228944.38952945956</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>1749700.0997537486</v>
+        <v>151775.5194891631</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2378218.8292644965</v>
+        <v>186408.56647419141</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>137525.63057153719</v>
+        <v>7097.3682969743995</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>2868303.9321618485</v>
+        <v>93231.23149139715</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>370.84448299999985</v>
+        <v>84.24588</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13601,46 +13600,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>1761.8964840000001</v>
+        <v>149.75590500000001</v>
       </c>
       <c r="I81">
-        <v>1258.253418</v>
+        <v>211.91166699999999</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>-503.64306600000009</v>
+        <v>62.155761999999982</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-2364.3794526666661</v>
+        <v>-537.48528865740775</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-1756.4246530370372</v>
+        <v>-426.49761124074075</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>5590290.1961923232</v>
+        <v>288890.43552313693</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>3085027.5617962764</v>
+        <v>181900.21239405803</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>4152854.359797949</v>
+        <v>229236.19168942442</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>253656.33792988045</v>
+        <v>3863.3387498006418</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>5107906.0946332756</v>
+        <v>132744.98310816268</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>503.64306600000009</v>
+        <v>62.155761999999982</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13668,46 +13667,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>1527.7673339999999</v>
+        <v>70.211067</v>
       </c>
       <c r="I82">
-        <v>802.32867399999998</v>
+        <v>104.008453</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-725.43865999999991</v>
+        <v>33.797386000000003</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-2820.304196666666</v>
+        <v>-645.38850265740768</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-1990.5538030370374</v>
+        <v>-506.04244924074072</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>7954115.7617356088</v>
+        <v>416526.3193623707</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>3962304.4427852128</v>
+        <v>256078.96043356764</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>5613967.2443961482</v>
+        <v>326593.97859656886</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>526261.24942259549</v>
+        <v>1142.2633004329962</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>7376615.0592739927</v>
+        <v>223015.39975525119</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>725.43865999999991</v>
+        <v>33.797386000000003</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13735,46 +13734,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1392.724731</v>
+        <v>22.534731000000001</v>
       </c>
       <c r="I83">
-        <v>691.17334000000005</v>
+        <v>39.007201999999999</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-701.55139099999997</v>
+        <v>16.472470999999999</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-2931.4595306666661</v>
+        <v>-710.38975365740771</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-2125.596406037037</v>
+        <v>-553.71878524074077</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>8593454.9799364302</v>
+        <v>504653.60210143239</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>4518160.0813575685</v>
+        <v>306604.49312848161</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>6231099.8428280847</v>
+        <v>393356.1514426489</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>492174.35421403486</v>
+        <v>271.34230084584095</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>7992764.666291371</v>
+        <v>288633.60216526076</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>701.55139099999997</v>
+        <v>16.472470999999999</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13802,46 +13801,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>1965.5225829999999</v>
+        <v>156.44309999999999</v>
       </c>
       <c r="I84">
-        <v>1086.6118160000001</v>
+        <v>44.902824000000003</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-878.91076699999985</v>
+        <v>-111.54027599999998</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-2536.0210546666658</v>
+        <v>-704.49413165740771</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-1552.7985540370373</v>
+        <v>-419.81041624074078</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>6431402.7897126283</v>
+        <v>496311.98153972492</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>2411183.3494195137</v>
+        <v>176240.78558422404</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>3937929.8266938808</v>
+        <v>295753.97465025558</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>772484.13634852797</v>
+        <v>12441.233170156171</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>5913210.2220184086</v>
+        <v>282333.55814471439</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>878.91076699999985</v>
+        <v>111.54027599999998</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13869,46 +13868,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>7610.9907229999999</v>
+        <v>1640.5620120000001</v>
       </c>
       <c r="I85">
-        <v>5337.0673829999996</v>
+        <v>1404.009033</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-2273.9233400000003</v>
+        <v>-236.55297900000005</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>1714.4345123333337</v>
+        <v>654.61207734259233</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>4092.6695859629626</v>
+        <v>1064.3084957592594</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>2939285.6970796357</v>
+        <v>428516.97180278407</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>16749944.339866247</v>
+        <v>1132752.5741453373</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>7016613.9857518785</v>
+        <v>696709.19534233841</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>5170727.3561967565</v>
+        <v>55957.311873774466</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>3307837.9072043682</v>
+        <v>685179.19552538847</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>2273.9233400000003</v>
+        <v>236.55297900000005</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13936,46 +13935,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6534.8056640000004</v>
+        <v>959.59722899999997</v>
       </c>
       <c r="I86">
-        <v>5738.3837890000004</v>
+        <v>1021.493591</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-796.421875</v>
+        <v>61.896362000000067</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>2115.7509183333345</v>
+        <v>272.09663534259232</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>3016.4845269629632</v>
+        <v>383.34371275925923</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>4476401.9484283486</v>
+        <v>74036.578964759654</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>9099178.9014069717</v>
+        <v>146952.40211205345</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>6382129.9080601837</v>
+        <v>104306.53442153161</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>634287.80297851563</v>
+        <v>3831.1596288350524</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>4928678.1786408247</v>
+        <v>198238.72417163081</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>796.421875</v>
+        <v>61.896362000000067</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -14003,46 +14002,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>3708.7924800000001</v>
+        <v>677.44348100000002</v>
       </c>
       <c r="I87">
-        <v>5494.9433589999999</v>
+        <v>1175.6577150000001</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1786.1508789999998</v>
+        <v>498.21423400000003</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>1872.310488333334</v>
+        <v>426.26075934259234</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>190.47134296296281</v>
+        <v>101.18996475925928</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>3505546.5647230074</v>
+        <v>181698.23495532342</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>36279.332490114604</v>
+        <v>10239.408967980136</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>356621.49315649085</v>
+        <v>43133.311216132024</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>3190334.962552472</v>
+        <v>248217.42296020678</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>3907035.4083577995</v>
+        <v>359285.39349022968</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1786.1508789999998</v>
+        <v>498.21423400000003</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14070,46 +14069,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>3876.7875979999999</v>
+        <v>679.88403300000004</v>
       </c>
       <c r="I88">
-        <v>3571.7241210000002</v>
+        <v>709.046021</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-305.06347699999969</v>
+        <v>29.161987999999951</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-50.908749666665699</v>
+        <v>-40.35093465740772</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>358.46646096296263</v>
+        <v>103.63051675925931</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>2591.700792623235</v>
+        <v>1628.1979277263874</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>128498.20363531121</v>
+        <v>10739.284003791125</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>-18249.079325059058</v>
+        <v>-4181.5882102662681</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>93063.724999329337</v>
+        <v>850.42154411214119</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>2851.8786961484766</v>
+        <v>17633.849320237892</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>305.06347699999969</v>
+        <v>29.161987999999951</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14137,46 +14136,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>7853.7348629999997</v>
+        <v>1640.7174070000001</v>
       </c>
       <c r="I89">
-        <v>6436.5395509999998</v>
+        <v>1648.881836</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-1417.1953119999998</v>
+        <v>8.1644289999999273</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>2813.906680333334</v>
+        <v>899.48488034259231</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>4335.4137259629624</v>
+        <v>1064.4638907592594</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>7918070.8056245632</v>
+        <v>809073.0499649276</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>18795812.175268058</v>
+        <v>1133083.3747303404</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>12199449.645496011</v>
+        <v>957469.17540860269</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>2008442.5523547768</v>
+        <v>66.65790089603982</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>8515998.7115925085</v>
+        <v>1150531.5123495718</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>1417.1953119999998</v>
+        <v>8.1644289999999273</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14204,46 +14203,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>7514.7910160000001</v>
+        <v>1800.8266599999999</v>
       </c>
       <c r="I90">
-        <v>9411.5224610000005</v>
+        <v>2382.0834960000002</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>1896.7314450000003</v>
+        <v>581.25683600000025</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>5788.8895903333341</v>
+        <v>1632.6865403425925</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>3996.4698789629629</v>
+        <v>1224.5731437592592</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>33511242.689069636</v>
+        <v>2665665.3390158638</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>15971771.493458239</v>
+        <v>1499579.3844164354</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>23135122.880409416</v>
+        <v>1999344.089480757</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>3597590.1744517894</v>
+        <v>337859.50939673121</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>34729821.844758824</v>
+        <v>3261021.9157973276</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1896.7314450000003</v>
+        <v>581.25683600000025</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14271,46 +14270,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>4695.4692379999997</v>
+        <v>1040.6577150000001</v>
       </c>
       <c r="I91">
-        <v>5637.3295900000003</v>
+        <v>1320.1610109999999</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>941.8603520000006</v>
+        <v>279.50329599999986</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>2014.6967193333344</v>
+        <v>570.7640553425922</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>1177.1481009629624</v>
+        <v>464.40419875925932</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>4059002.8708925005</v>
+        <v>325771.60687112168</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>1385677.6516007087</v>
+        <v>215671.25982522964</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>2371596.4171795449</v>
+        <v>265065.2238019621</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>887100.92266956507</v>
+        <v>78122.092474863544</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>4490196.8237284897</v>
+        <v>553398.36075899727</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>941.8603520000006</v>
+        <v>279.50329599999986</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14338,46 +14337,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>4026.1362300000001</v>
+        <v>543.31121800000005</v>
       </c>
       <c r="I92">
-        <v>5607.1303710000002</v>
+        <v>1071.5164789999999</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>1580.9941410000001</v>
+        <v>528.20526099999984</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>1984.4975003333343</v>
+        <v>322.11952334259217</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>507.81509296296281</v>
+        <v>-32.942298240740683</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>3938230.3288292522</v>
+        <v>103760.98731845878</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>257876.16864098256</v>
+        <v>1085.1950133819066</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>1007757.7826165395</v>
+        <v>-10611.357407116902</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>2499542.4738763282</v>
+        <v>279000.79774807795</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>4363124.0158889396</v>
+        <v>245285.40228107932</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>1580.9941410000001</v>
+        <v>528.20526099999984</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14405,46 +14404,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>2046.2100829999999</v>
+        <v>38.127785000000003</v>
       </c>
       <c r="I93">
-        <v>2252.694336</v>
+        <v>359.89279199999999</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>206.48425300000008</v>
+        <v>321.76500699999997</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-1369.9385346666659</v>
+        <v>-389.50416365740773</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-1472.1110540370373</v>
+        <v>-538.12573124074072</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>1876731.5887646517</v>
+        <v>151713.49350645667</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>2167110.9554180368</v>
+        <v>289579.3026233819</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>2016701.6602341</v>
+        <v>209602.2128894557</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>42635.746736968045</v>
+        <v>103532.71972971004</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>1601811.1995032441</v>
+        <v>46811.962993977861</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>206.48425300000008</v>
+        <v>321.76500699999997</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14472,46 +14471,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>1534.3342290000001</v>
+        <v>15.777597</v>
       </c>
       <c r="I94">
-        <v>947.28631600000006</v>
+        <v>77.952575999999993</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>-587.04791299999999</v>
+        <v>62.174978999999993</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-2675.3465546666657</v>
+        <v>-671.44437965740769</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-1983.9869080370372</v>
+        <v>-560.47591924074072</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>7157479.1875667982</v>
+        <v>450837.55497352104</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>3936204.0512623633</v>
+        <v>314133.25604875333</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>5307852.5389206586</v>
+        <v>376328.40590751451</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>344625.25215765554</v>
+        <v>3865.7280136504401</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>6610220.0509849498</v>
+        <v>248303.82704480624</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>587.04791299999999</v>
+        <v>62.174978999999993</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14539,46 +14538,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1462.4663089999999</v>
+        <v>19.343817000000001</v>
       </c>
       <c r="I95">
-        <v>702.44189500000005</v>
+        <v>33.585678000000001</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-760.02441399999987</v>
+        <v>14.241861</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-2920.190975666666</v>
+        <v>-715.81127765740769</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-2055.8548280370374</v>
+        <v>-556.90969924074079</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>8527515.3343650345</v>
+        <v>512385.78522153042</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>4226539.073963196</v>
+        <v>310148.41310841235</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>6003488.7161145015</v>
+        <v>398642.24335331732</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>577637.10987604316</v>
+        <v>202.830604743321</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>7929175.9057350801</v>
+        <v>294488.38266087871</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>760.02441399999987</v>
+        <v>14.241861</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14606,46 +14605,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>2319.8374020000001</v>
+        <v>261.11535600000002</v>
       </c>
       <c r="I96">
-        <v>1288.143311</v>
+        <v>136.73461900000001</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-1031.6940910000001</v>
+        <v>-124.38073700000001</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-2334.4895596666656</v>
+        <v>-612.66233665740765</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-1198.4837350370371</v>
+        <v>-315.13816024074072</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>5449841.5041926624</v>
+        <v>375355.13875851472</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>1436363.2631483271</v>
+        <v>99312.060039918768</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>2797847.7668742738</v>
+        <v>193073.28162300878</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>1064392.6974043164</v>
+        <v>15470.567736663172</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>4973693.1357472865</v>
+        <v>193176.86103171681</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>1031.6940910000001</v>
+        <v>124.38073700000001</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14673,46 +14672,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>6269.0048829999996</v>
+        <v>917.45178199999998</v>
       </c>
       <c r="I97">
-        <v>4434.1489259999998</v>
+        <v>872.19836399999997</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-1834.8559569999998</v>
+        <v>-45.253418000000011</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>811.51605533333395</v>
+        <v>122.80140834259225</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>2750.6837459629623</v>
+        <v>341.19826575925924</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>658558.30806377472</v>
+        <v>15080.185890924085</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>7566261.0703048352</v>
+        <v>116416.25655712609</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>2232224.0229933816</v>
+        <v>41899.62755928711</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>3366696.382938385</v>
+        <v>2047.871840682725</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>838740.53903678874</v>
+        <v>87583.352915251118</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>1834.8559569999998</v>
+        <v>45.253418000000011</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14740,46 +14739,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7530.6625979999999</v>
+        <v>1303.265625</v>
       </c>
       <c r="I98">
-        <v>7605.4594729999999</v>
+        <v>1455.4692379999999</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>74.796875</v>
+        <v>152.2036129999999</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>3982.826602333334</v>
+        <v>706.07228234259219</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>4012.3414609629626</v>
+        <v>727.01210875925926</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>15862907.74425409</v>
+        <v>498538.06789247721</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>16098883.999362402</v>
+        <v>528546.60628258507</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>15980460.308368282</v>
+        <v>513323.09892235103</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>5594.572509765625</v>
+        <v>23165.939810253742</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>16704699.777298095</v>
+        <v>773020.28538865503</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>74.796875</v>
+        <v>152.2036129999999</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14807,46 +14806,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>4179.5517579999996</v>
+        <v>550.72180200000003</v>
       </c>
       <c r="I99">
-        <v>4712.3051759999998</v>
+        <v>840.29711899999995</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>532.75341800000024</v>
+        <v>289.57531699999993</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>1089.672305333334</v>
+        <v>90.900163342592236</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>661.23062096296235</v>
+        <v>-25.531714240740712</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>1187385.7330104625</v>
+        <v>8262.8396957099485</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>437225.93409906479</v>
+        <v>651.86843207084212</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>720524.69510170317</v>
+        <v>-2320.8369948997192</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>283826.20439068298</v>
+        <v>83853.86421565045</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>1425597.8852983094</v>
+        <v>69719.02415808948</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>532.75341800000024</v>
+        <v>289.57531699999993</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14874,46 +14873,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5610.2641599999997</v>
+        <v>979.19140600000003</v>
       </c>
       <c r="I100">
-        <v>5044.9755859999996</v>
+        <v>1322.490112</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-565.28857400000015</v>
+        <v>343.29870599999992</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>1422.3427153333337</v>
+        <v>573.09315634259224</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>2091.9430229629625</v>
+        <v>402.93788975925929</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>2023058.7998618006</v>
+        <v>328435.76584671484</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>4376225.6113234181</v>
+        <v>162358.94300364499</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>2975459.9196037622</v>
+        <v>230920.94705215737</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>319551.17189495364</v>
+        <v>117854.00154127438</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>2330673.8065384063</v>
+        <v>556869.05685036804</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>565.28857400000015</v>
+        <v>343.29870599999992</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14941,46 +14940,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>2788.5512699999999</v>
+        <v>426.88223299999999</v>
       </c>
       <c r="I101">
-        <v>3612.046143</v>
+        <v>810.73584000000005</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>823.4948730000001</v>
+        <v>383.85360700000007</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-10.586727666665865</v>
+        <v>61.338884342592337</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-729.76986703703733</v>
+        <v>-149.37128324074075</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>112.07880268814849</v>
+        <v>3762.4587323939195</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>532564.0588352551</v>
+        <v>22311.780256985599</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>7725.8748416600729</v>
+        <v>-9162.2678668083972</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>678143.80585728632</v>
+        <v>147343.59160691052</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>8784.3767427574057</v>
+        <v>54981.960155542103</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>823.4948730000001</v>
+        <v>383.85360700000007</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -15008,46 +15007,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>3253.915039</v>
+        <v>887.95105000000001</v>
       </c>
       <c r="I102">
-        <v>2506.0534670000002</v>
+        <v>842.74981700000001</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-747.8615719999998</v>
+        <v>-45.201233000000002</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-1116.5794036666657</v>
+        <v>93.352861342592291</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-264.40609803703728</v>
+        <v>311.69753375925927</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>1246749.5646926069</v>
+        <v>8714.7567208492619</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>69910.58467917137</v>
+        <v>97155.352551604577</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>295230.40327202505</v>
+        <v>29097.856649856112</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>559296.9308743109</v>
+        <v>2043.1514647202891</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>1024685.8358022118</v>
+        <v>71020.278318369572</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>747.8615719999998</v>
+        <v>45.201233000000002</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15075,46 +15074,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>3485.3520509999998</v>
+        <v>900.714111</v>
       </c>
       <c r="I103">
-        <v>3726.0832519999999</v>
+        <v>1319.1453859999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>240.73120100000006</v>
+        <v>418.43127499999991</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>103.45038133333401</v>
+        <v>569.7484303425922</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>-32.969086037037414</v>
+        <v>324.46059475925927</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>10701.981398012222</v>
+        <v>324613.27387784765</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>1086.9606341175754</v>
+        <v>105274.67755153227</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>-3410.6645227430181</v>
+        <v>184860.91457211185</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>57951.51113490243</v>
+        <v>175084.73189812555</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>43165.096413883308</v>
+        <v>551888.33015440812</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>240.73120100000006</v>
+        <v>418.43127499999991</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15142,46 +15141,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>2064.7333979999999</v>
+        <v>128.92939799999999</v>
       </c>
       <c r="I104">
-        <v>2238.8271479999999</v>
+        <v>346.08395400000001</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>174.09375</v>
+        <v>217.15455600000001</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-1383.805722666666</v>
+        <v>-403.31300165740771</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-1453.5877390370374</v>
+        <v>-447.32411824074075</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>1914918.2780850139</v>
+        <v>162661.37730590816</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>2112917.3150788066</v>
+        <v>200098.8667598562</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>2011483.0316775527</v>
+        <v>180411.63284142633</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>30308.6337890625</v>
+        <v>47156.101191557143</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>1637104.8679819105</v>
+        <v>52978.027382094224</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>174.09375</v>
+        <v>217.15455600000001</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15209,46 +15208,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>1581.778687</v>
+        <v>21.904997000000002</v>
       </c>
       <c r="I105">
-        <v>1157.7342530000001</v>
+        <v>112.98595400000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>-424.04443399999991</v>
+        <v>91.080957000000012</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-2464.8986176666658</v>
+        <v>-636.41100165740772</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-1936.5424500370373</v>
+        <v>-554.34851924074076</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>6075725.1953750402</v>
+        <v>405018.96303058503</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>3750196.6607954511</v>
+        <v>307302.28078440193</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>4773380.8081491115</v>
+        <v>352793.49639730057</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>179813.68200638029</v>
+        <v>8295.7407280358511</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>5572370.4370876886</v>
+        <v>214616.8342244786</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>424.04443399999991</v>
+        <v>91.080957000000012</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15276,46 +15275,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1448.85437</v>
+        <v>15.559666999999999</v>
       </c>
       <c r="I106">
-        <v>832.49157700000001</v>
+        <v>45.040531000000001</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>-616.36279300000001</v>
+        <v>29.480864000000004</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-2790.1412936666657</v>
+        <v>-704.35642465740773</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-2069.4667670370372</v>
+        <v>-560.69384924074075</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>7784888.4386238949</v>
+        <v>496117.97295616649</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>4282692.699870727</v>
+        <v>314377.59257639851</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>5774104.6825808911</v>
+        <v>394928.31497860776</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>379903.09259476088</v>
+        <v>869.12134218649624</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>7213680.4255687464</v>
+        <v>282187.23568837944</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>616.36279300000001</v>
+        <v>29.480864000000004</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15343,46 +15342,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1394.802856</v>
+        <v>21.552268999999999</v>
       </c>
       <c r="I107">
-        <v>658.05114700000001</v>
+        <v>28.234048999999999</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-736.75170900000001</v>
+        <v>6.6817799999999998</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-2964.5817236666658</v>
+        <v>-721.16290665740769</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-2123.518281037037</v>
+        <v>-554.70124724074071</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>8788744.7962984182</v>
+        <v>520075.93793856091</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>4509329.889898493</v>
+        <v>307693.47369043337</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>6295343.4858344542</v>
+        <v>400029.96378662193</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>542803.08071442065</v>
+        <v>44.646183968399995</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>8181144.4159064721</v>
+        <v>300325.33647482528</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>736.75170900000001</v>
+        <v>6.6817799999999998</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15410,46 +15409,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>1808.586182</v>
+        <v>53.573376000000003</v>
       </c>
       <c r="I108">
-        <v>1479.0920410000001</v>
+        <v>28.309725</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-329.4941409999999</v>
+        <v>-25.263651000000003</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-2143.5408296666656</v>
+        <v>-721.08723065740776</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-1709.7349550370373</v>
+        <v>-522.68014024074068</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>4594767.2884480571</v>
+        <v>519966.79421716958</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>2923193.6164754997</v>
+        <v>273194.52900208032</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>3664886.6840301901</v>
+        <v>376897.97484582121</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>108566.38895332781</v>
+        <v>638.25206184980118</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>4158455.3061240315</v>
+        <v>300242.39835927653</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>329.4941409999999</v>
+        <v>25.263651000000003</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15477,46 +15476,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1835.5074460000001</v>
+        <v>165.26779199999999</v>
       </c>
       <c r="I109">
-        <v>1868.7163089999999</v>
+        <v>80.904944999999998</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>33.208862999999837</v>
+        <v>-84.362846999999988</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-1753.916561666666</v>
+        <v>-668.49201065740772</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-1682.8136910370372</v>
+        <v>-410.98572424074075</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>3076223.3052886198</v>
+        <v>446881.56831278373</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>2831861.918741697</v>
+        <v>168909.26552968621</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>2951514.8029092713</v>
+        <v>274740.67314918368</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>1102.8285817527583</v>
+        <v>7117.0899539454067</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>2721196.0886831037</v>
+        <v>245370.20703024321</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>33.208862999999837</v>
+        <v>84.362846999999988</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15544,46 +15543,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>2890.8710940000001</v>
+        <v>574.97015399999998</v>
       </c>
       <c r="I110">
-        <v>1918.775024</v>
+        <v>498.89050300000002</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-972.09607000000005</v>
+        <v>-76.079650999999956</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-1703.8578466666659</v>
+        <v>-250.50645265740769</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-627.45004303703718</v>
+        <v>-1.2833622407407574</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>2903131.5616475674</v>
+        <v>62753.482822998041</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>393693.5565071798</v>
+        <v>1.6470186409591379</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>1069085.6792199931</v>
+        <v>321.49052240242924</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>944970.76930944505</v>
+        <v>5788.1132962817946</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>2558547.7677318943</v>
+        <v>5985.0358176870232</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>972.09607000000005</v>
+        <v>76.079650999999956</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15611,46 +15610,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>5818.4677730000003</v>
+        <v>1108.6058350000001</v>
       </c>
       <c r="I111">
-        <v>4757.0766599999997</v>
+        <v>1230.877563</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-1061.3911130000006</v>
+        <v>122.27172799999994</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>1134.4437893333338</v>
+        <v>481.48060734259229</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>2300.146635962963</v>
+        <v>532.35231875925933</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>1286962.7111569734</v>
+        <v>231823.57524699153</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>5290674.5469317352</v>
+        <v>283398.99128836003</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>2609387.0657241442</v>
+        <v>256317.31775644547</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>1126551.0947553799</v>
+        <v>14950.375468105969</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>1534515.2456712427</v>
+        <v>428532.64259546885</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>1061.3911130000006</v>
+        <v>122.27172799999994</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F532F3-6719-44BB-BCFC-9E5CE9120170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62678C29-B5FB-40C6-97C7-9A29B41DDB85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
     <t xml:space="preserve"> adjusted Q (cfs)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14182500_flow_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\Willamette Gages\Flow\USGS 14180300_flow_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</t>
   </si>
 </sst>
 </file>
@@ -930,328 +930,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>1266.6030270000001</c:v>
+                  <c:v>202.86312899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>519.886841</c:v>
+                  <c:v>126.770393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>624.28594999999996</c:v>
+                  <c:v>107.93568399999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>897.72363299999995</c:v>
+                  <c:v>143.61415099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>644.46771200000001</c:v>
+                  <c:v>104.46069300000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>754.74603300000001</c:v>
+                  <c:v>128.24955700000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.439442</c:v>
+                  <c:v>29.057919999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.355250999999999</c:v>
+                  <c:v>15.027706999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208.90947</c:v>
+                  <c:v>17.364471000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>451.19323700000001</c:v>
+                  <c:v>36.697108999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>877.64154099999996</c:v>
+                  <c:v>115.811493</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1450.9846190000001</c:v>
+                  <c:v>300.059326</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1045.635986</c:v>
+                  <c:v>273.28118899999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>376.61224399999998</c:v>
+                  <c:v>106.131371</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1364.717163</c:v>
+                  <c:v>277.74600199999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1080.607788</c:v>
+                  <c:v>214.54011499999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>556.76348900000005</c:v>
+                  <c:v>127.01152</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>261.22833300000002</c:v>
+                  <c:v>69.484015999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.926498</c:v>
+                  <c:v>24.998365</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.440269000000001</c:v>
+                  <c:v>13.883341</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.266609000000003</c:v>
+                  <c:v>12.280378000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>260.63430799999998</c:v>
+                  <c:v>20.280556000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>610.80920400000002</c:v>
+                  <c:v>74.790572999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>572.74829099999999</c:v>
+                  <c:v>104.627014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1046.863525</c:v>
+                  <c:v>212.342896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1184.8043210000001</c:v>
+                  <c:v>297.04519699999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1285.8126219999999</c:v>
+                  <c:v>311.29135100000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1190.6961670000001</c:v>
+                  <c:v>234.372772</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>476.68322799999999</c:v>
+                  <c:v>119.630692</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>468.524292</c:v>
+                  <c:v>82.095146</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76.782570000000007</c:v>
+                  <c:v>29.716372</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.020605</c:v>
+                  <c:v>14.51477</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.569410000000001</c:v>
+                  <c:v>12.390279</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>657.96881099999996</c:v>
+                  <c:v>55.218547999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1197.744263</c:v>
+                  <c:v>205.255325</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1191.302124</c:v>
+                  <c:v>258.68618800000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>706.03741500000001</c:v>
+                  <c:v>186.03064000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>649.48333700000001</c:v>
+                  <c:v>152.95126300000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>634.64648399999999</c:v>
+                  <c:v>129.69383199999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>584.74780299999998</c:v>
+                  <c:v>129.975784</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>389.984894</c:v>
+                  <c:v>61.535507000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>241.82307399999999</c:v>
+                  <c:v>42.217650999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41.436981000000003</c:v>
+                  <c:v>18.889966999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36.965443</c:v>
+                  <c:v>13.454446000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>503.38516199999998</c:v>
+                  <c:v>28.657612</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>537.97015399999998</c:v>
+                  <c:v>77.551094000000006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>460.74203499999999</c:v>
+                  <c:v>91.731941000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>503.411316</c:v>
+                  <c:v>91.086594000000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>454.62365699999998</c:v>
+                  <c:v>103.49651299999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1392.559937</c:v>
+                  <c:v>322.599335</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1497.6954350000001</c:v>
+                  <c:v>350.94921900000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>688.322632</c:v>
+                  <c:v>178.25116</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>527.11029099999996</c:v>
+                  <c:v>132.90683000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>184.21945199999999</c:v>
+                  <c:v>47.563118000000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>72.333427</c:v>
+                  <c:v>20.815221999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30.640398000000001</c:v>
+                  <c:v>13.438940000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>76.408660999999995</c:v>
+                  <c:v>12.713671</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>560.95636000000002</c:v>
+                  <c:v>45.872138999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1005.731384</c:v>
+                  <c:v>199.27072100000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1212.8139650000001</c:v>
+                  <c:v>276.90661599999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>590.96649200000002</c:v>
+                  <c:v>182.753647</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>502.86956800000002</c:v>
+                  <c:v>143.15768399999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>412.53048699999999</c:v>
+                  <c:v>78.035927000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>435.17514</c:v>
+                  <c:v>74.307830999999993</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>152.598297</c:v>
+                  <c:v>33.662567000000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>53.391396</c:v>
+                  <c:v>16.537315</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20.433401</c:v>
+                  <c:v>12.677106999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>32.748145999999998</c:v>
+                  <c:v>12.181848</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.625320000000002</c:v>
+                  <c:v>13.340185999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>135.06358299999999</c:v>
+                  <c:v>14.290248999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>978.51068099999998</c:v>
+                  <c:v>129.130325</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1796.9171140000001</c:v>
+                  <c:v>347.829498</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>999.76776099999995</c:v>
+                  <c:v>278.585938</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>830.40765399999998</c:v>
+                  <c:v>213.24527</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>987.60992399999998</c:v>
+                  <c:v>228.51306199999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>382.79586799999998</c:v>
+                  <c:v>107.19152800000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>186.66973899999999</c:v>
+                  <c:v>47.511814000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>149.75590500000001</c:v>
+                  <c:v>23.676275</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>70.211067</c:v>
+                  <c:v>15.17597</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.534731000000001</c:v>
+                  <c:v>12.272978999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>156.44309999999999</c:v>
+                  <c:v>13.853006000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1640.5620120000001</c:v>
+                  <c:v>201.41578699999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>959.59722899999997</c:v>
+                  <c:v>191.89961199999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>677.44348100000002</c:v>
+                  <c:v>121.149422</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>679.88403300000004</c:v>
+                  <c:v>188.69996599999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1640.7174070000001</c:v>
+                  <c:v>378.12106299999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1800.8266599999999</c:v>
+                  <c:v>378.63150000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1040.6577150000001</c:v>
+                  <c:v>216.92254600000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>543.31121800000005</c:v>
+                  <c:v>129.268326</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>38.127785000000003</c:v>
+                  <c:v>35.726039999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.777597</c:v>
+                  <c:v>16.702062999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19.343817000000001</c:v>
+                  <c:v>12.915660000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>261.11535600000002</c:v>
+                  <c:v>20.598504999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>917.45178199999998</c:v>
+                  <c:v>110.34833500000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1303.265625</c:v>
+                  <c:v>245.034164</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>550.72180200000003</c:v>
+                  <c:v>145.25711100000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>979.19140600000003</c:v>
+                  <c:v>206.96637000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>426.88223299999999</c:v>
+                  <c:v>115.32410400000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>887.95105000000001</c:v>
+                  <c:v>185.117279</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>900.714111</c:v>
+                  <c:v>164.96159399999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>128.92939799999999</c:v>
+                  <c:v>52.889575999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>21.904997000000002</c:v>
+                  <c:v>18.399108999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>15.559666999999999</c:v>
+                  <c:v>13.226535</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>21.552268999999999</c:v>
+                  <c:v>12.169079999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>53.573376000000003</c:v>
+                  <c:v>12.228267000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>165.26779199999999</c:v>
+                  <c:v>15.441051</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>574.97015399999998</c:v>
+                  <c:v>58.736153000000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1108.6058350000001</c:v>
+                  <c:v>201.57986500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14182500_flow_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</c:v>
+                  <c:v> Obs:..\Observations\Willamette Gages\Flow\USGS 14180300_flow_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,328 +1296,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>1342.384644</c:v>
+                  <c:v>249.77203399999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>627.96984899999995</c:v>
+                  <c:v>109.10833700000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>864.41570999999999</c:v>
+                  <c:v>138.04624899999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1074.364624</c:v>
+                  <c:v>188.78125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>854.92816200000004</c:v>
+                  <c:v>134.35282900000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1131.1062010000001</c:v>
+                  <c:v>190.75318899999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114.97434199999999</c:v>
+                  <c:v>22.260876</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.979168000000001</c:v>
+                  <c:v>8.8015600000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.805549999999997</c:v>
+                  <c:v>9.5562050000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>292.33776899999998</c:v>
+                  <c:v>29.549513000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1176.866577</c:v>
+                  <c:v>127.235214</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2110.3557129999999</c:v>
+                  <c:v>336.03756700000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1759.5478519999999</c:v>
+                  <c:v>295.46331800000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>468.22210699999999</c:v>
+                  <c:v>75.613579000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1301.367798</c:v>
+                  <c:v>211.20107999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1511.114746</c:v>
+                  <c:v>238.923599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>984.95910600000002</c:v>
+                  <c:v>177.80647300000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>674.331909</c:v>
+                  <c:v>127.779747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>164.11691300000001</c:v>
+                  <c:v>25.975235000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.702587000000001</c:v>
+                  <c:v>9.9300370000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.596527000000002</c:v>
+                  <c:v>6.5179229999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>144.50630200000001</c:v>
+                  <c:v>9.6300539999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>837.14758300000005</c:v>
+                  <c:v>66.333754999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>968.58630400000004</c:v>
+                  <c:v>127.57994100000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2226.1145019999999</c:v>
+                  <c:v>372.88806199999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1144.6274410000001</c:v>
+                  <c:v>161.482574</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1660.1641850000001</c:v>
+                  <c:v>320.39675899999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1482.9467770000001</c:v>
+                  <c:v>327.53506499999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>982.75799600000005</c:v>
+                  <c:v>180.64688100000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>634.70874000000003</c:v>
+                  <c:v>88.967865000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>173.407318</c:v>
+                  <c:v>27.205881000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.453625000000002</c:v>
+                  <c:v>11.078825999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39.579945000000002</c:v>
+                  <c:v>8.0844889999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>589.66687000000002</c:v>
+                  <c:v>32.372326000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1360.6866460000001</c:v>
+                  <c:v>192.98799099999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1518.8148189999999</c:v>
+                  <c:v>274.437164</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>973.04644800000005</c:v>
+                  <c:v>100.99157</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>797.98053000000004</c:v>
+                  <c:v>95.979179000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>982.05096400000002</c:v>
+                  <c:v>170.59501599999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1009.720154</c:v>
+                  <c:v>220.997559</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>704.52618399999994</c:v>
+                  <c:v>73.796059</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>363.70660400000003</c:v>
+                  <c:v>38.065036999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>106.160591</c:v>
+                  <c:v>13.608387</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47.913445000000003</c:v>
+                  <c:v>7.101146</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>387.85830700000002</c:v>
+                  <c:v>46.116787000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>461.88507099999998</c:v>
+                  <c:v>68.480339000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>685.27191200000004</c:v>
+                  <c:v>84.726082000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>759.15930200000003</c:v>
+                  <c:v>82.970955000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>816.93914800000005</c:v>
+                  <c:v>122.012901</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2116.4047850000002</c:v>
+                  <c:v>403.76873799999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1808.8873289999999</c:v>
+                  <c:v>405.058044</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1015.598877</c:v>
+                  <c:v>167.45107999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>763.369507</c:v>
+                  <c:v>137.737854</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>255.19963100000001</c:v>
+                  <c:v>28.206982</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>125.83065000000001</c:v>
+                  <c:v>13.758081000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44.710284999999999</c:v>
+                  <c:v>6.674811</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>33.385421999999998</c:v>
+                  <c:v>6.2350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>351.82427999999999</c:v>
+                  <c:v>23.010781999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1377.880981</c:v>
+                  <c:v>153.07617200000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1685.5017089999999</c:v>
+                  <c:v>270.18582199999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>752.04418899999996</c:v>
+                  <c:v>159.294388</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>662.61444100000006</c:v>
+                  <c:v>154.38949600000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>587.58245799999997</c:v>
+                  <c:v>61.073261000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>553.24182099999996</c:v>
+                  <c:v>58.868125999999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>178.59049999999999</c:v>
+                  <c:v>28.079367000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>79.458038000000002</c:v>
+                  <c:v>13.745196999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>34.181193999999998</c:v>
+                  <c:v>6.5417730000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24.113814999999999</c:v>
+                  <c:v>3.8519079999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>36.915759999999999</c:v>
+                  <c:v>4.6216739999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>149.830399</c:v>
+                  <c:v>6.6787669999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1151.1414789999999</c:v>
+                  <c:v>68.743026999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2297.5532229999999</c:v>
+                  <c:v>355.70748900000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1222.165405</c:v>
+                  <c:v>205.32270800000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1263.7174070000001</c:v>
+                  <c:v>194.82148699999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1320.882568</c:v>
+                  <c:v>224.747131</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>607.23577899999998</c:v>
+                  <c:v>91.320808</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>270.91561899999999</c:v>
+                  <c:v>33.845565999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>211.91166699999999</c:v>
+                  <c:v>16.140276</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>104.008453</c:v>
+                  <c:v>7.4376509999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>39.007201999999999</c:v>
+                  <c:v>4.0017649999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>44.902824000000003</c:v>
+                  <c:v>4.1166780000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1404.009033</c:v>
+                  <c:v>138.07136499999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1021.493591</c:v>
+                  <c:v>142.52198799999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1175.6577150000001</c:v>
+                  <c:v>144.42495700000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>709.046021</c:v>
+                  <c:v>128.415314</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1648.881836</c:v>
+                  <c:v>375.33444200000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2382.0834960000002</c:v>
+                  <c:v>425.14373799999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1320.1610109999999</c:v>
+                  <c:v>238.397232</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1071.5164789999999</c:v>
+                  <c:v>172.00645399999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>359.89279199999999</c:v>
+                  <c:v>50.540484999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>77.952575999999993</c:v>
+                  <c:v>13.544587</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>33.585678000000001</c:v>
+                  <c:v>5.6462589999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>136.73461900000001</c:v>
+                  <c:v>9.5386799999999994</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>872.19836399999997</c:v>
+                  <c:v>91.769264000000007</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1455.4692379999999</c:v>
+                  <c:v>245.854004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>840.29711899999995</c:v>
+                  <c:v>94.497482000000005</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1322.490112</c:v>
+                  <c:v>235.22666899999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>810.73584000000005</c:v>
+                  <c:v>107.56841300000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>842.74981700000001</c:v>
+                  <c:v>131.51713599999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1319.1453859999999</c:v>
+                  <c:v>210.227768</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>346.08395400000001</c:v>
+                  <c:v>63.998553999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>112.98595400000001</c:v>
+                  <c:v>18.489356999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>45.040531000000001</c:v>
+                  <c:v>7.6130319999999996</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>28.234048999999999</c:v>
+                  <c:v>3.872052</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>28.309725</c:v>
+                  <c:v>3.1110989999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>80.904944999999998</c:v>
+                  <c:v>4.6879520000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>498.89050300000002</c:v>
+                  <c:v>22.031079999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1230.877563</c:v>
+                  <c:v>165.08390800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,7 +7927,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>647.68639633333339</v>
+        <v>110.65930274999998</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>8747965.3294566423</v>
+        <v>156021.20417806515</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-173.14343941666698</v>
+        <v>0.44041563888882251</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7965,11 +7965,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>576.25351624074074</v>
+        <v>117.18281974999998</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>749.39695565740772</v>
+        <v>116.74240411111116</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7979,12 +7979,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>80999.678976450392</v>
+        <v>1444.6407794265292</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>207.13106167592579</v>
+        <v>25.658227564814823</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -8003,11 +8003,11 @@
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>0.30046400505490894</v>
+        <v>-3.758363553876016E-3</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>NS</v>
+        <v>VG</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -8091,11 +8091,11 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.78069000271699451</v>
+        <v>0.88037461450857302</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8110,46 +8110,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>1266.6030270000001</v>
+        <v>202.86312899999999</v>
       </c>
       <c r="I4">
-        <v>1342.384644</v>
+        <v>249.77203399999999</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>75.781616999999869</v>
+        <v>46.908905000000004</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>592.98768834259226</v>
+        <v>133.02962988888885</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>690.34951075925937</v>
+        <v>85.680309250000008</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>351634.39852589136</v>
+        <v>17696.882428374749</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>476582.44700554875</v>
+        <v>7341.1153931756371</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>409368.76053357276</v>
+        <v>11398.019828293041</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>5742.8534751346688</v>
+        <v>2200.4453682990252</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>586956.9049216744</v>
+        <v>17579.899735432402</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>75.781616999999869</v>
+        <v>46.908905000000004</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.45038356508138627</v>
+        <v>0.34586625181792796</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8209,46 +8209,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>519.886841</v>
+        <v>126.770393</v>
       </c>
       <c r="I5">
-        <v>627.96984899999995</v>
+        <v>109.10833700000001</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>108.08300799999995</v>
+        <v>-17.662055999999993</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-121.42710665740776</v>
+        <v>-7.6340671111111504</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-56.366675240740733</v>
+        <v>9.5875732500000197</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>14744.54223118948</v>
+        <v>58.278980656948946</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>3177.2020776951344</v>
+        <v>91.921560824115943</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>6844.4422863808904</v>
+        <v>-73.192177623194198</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>11681.936618328053</v>
+        <v>311.94822214713577</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>2674.5790740664279</v>
+        <v>65.197271680047123</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>108.08300799999995</v>
+        <v>17.662055999999993</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.88910615811015559</v>
+        <v>0.88142849740065843</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -8308,46 +8308,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>624.28594999999996</v>
+        <v>107.93568399999999</v>
       </c>
       <c r="I6">
-        <v>864.41570999999999</v>
+        <v>138.04624899999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>240.12976000000003</v>
+        <v>30.110564999999994</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>115.01875434259227</v>
+        <v>21.303844888888833</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>48.03243375925922</v>
+        <v>-9.247135749999984</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>13229.313850521588</v>
+        <v>453.85380704983481</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>2307.1146928376247</v>
+        <v>85.509519578927765</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>5524.6306990330722</v>
+        <v>-196.99954568449837</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>57662.301637657612</v>
+        <v>906.64612461922468</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>83037.449912148877</v>
+        <v>435.282680069756</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>240.12976000000003</v>
+        <v>30.110564999999994</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>576.25351624074074</v>
+        <v>117.18281974999998</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8404,46 +8404,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>897.72363299999995</v>
+        <v>143.61415099999999</v>
       </c>
       <c r="I7">
-        <v>1074.364624</v>
+        <v>188.78125</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>176.6409910000001</v>
+        <v>45.167099000000007</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>324.96766834259233</v>
+        <v>72.038845888888844</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>321.47011675925921</v>
+        <v>26.431331250000014</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>105603.98546802108</v>
+        <v>5189.5953170030771</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>103343.03596921175</v>
+        <v>698.61527164722725</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>104467.39428507737</v>
+        <v>1904.0825985569227</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>31202.039701462116</v>
+        <v>2040.0668320758016</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>248114.67567315645</v>
+        <v>5126.3352142641179</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>176.6409910000001</v>
+        <v>45.167099000000007</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>472.72800468641822</v>
+        <v>99.631774849195722</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8500,46 +8500,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>644.46771200000001</v>
+        <v>104.46069300000001</v>
       </c>
       <c r="I8">
-        <v>854.92816200000004</v>
+        <v>134.35282900000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>210.46045000000004</v>
+        <v>29.892136000000008</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>105.53120634259233</v>
+        <v>17.610424888888858</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>68.214195759259269</v>
+        <v>-12.722126749999973</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>11136.8355121228</v>
+        <v>310.12706476719615</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>4653.1765030825454</v>
+        <v>161.85250904306486</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>7198.7263681643763</v>
+        <v>-224.04205755779824</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>44293.601014202519</v>
+        <v>893.53979464249642</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>77659.558189048665</v>
+        <v>294.80921764508679</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>210.46045000000004</v>
+        <v>29.892136000000008</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>749.39695565740772</v>
+        <v>116.74240411111116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8596,46 +8596,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>754.74603300000001</v>
+        <v>128.24955700000001</v>
       </c>
       <c r="I9">
-        <v>1131.1062010000001</v>
+        <v>190.75318899999999</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>376.36016800000004</v>
+        <v>62.503631999999982</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>381.70924534259234</v>
+        <v>74.010784888888836</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>178.49251675925927</v>
+        <v>11.066737250000031</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>145701.94798001135</v>
+        <v>5477.5962798693763</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>31859.578539054452</v>
+        <v>122.47267336053825</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>68132.24387147688</v>
+        <v>819.0579100316055</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>141646.97605698826</v>
+        <v>3906.7040131914218</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>307861.501784558</v>
+        <v>5412.5992315813473</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>376.36016800000004</v>
+        <v>62.503631999999982</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>607.73246099895573</v>
+        <v>109.89255221865885</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8691,46 +8691,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>58.439442</v>
+        <v>29.057919999999999</v>
       </c>
       <c r="I10">
-        <v>114.97434199999999</v>
+        <v>22.260876</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>56.534899999999993</v>
+        <v>-6.7970439999999996</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-634.42261365740774</v>
+        <v>-94.48152811111116</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-517.81407424074075</v>
+        <v>-88.124899749999983</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>402492.05271989643</v>
+        <v>8926.7591542106893</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>268131.41548179538</v>
+        <v>7765.9979559475469</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>328512.95836840174</v>
+        <v>8326.1751930184764</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>3196.1949180099991</v>
+        <v>46.199807137935998</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>212778.47658821967</v>
+        <v>9010.1754052781616</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>56.534899999999993</v>
+        <v>6.7970439999999996</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>284.60442543370681</v>
+        <v>38.008430373096559</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8786,46 +8786,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>17.355250999999999</v>
+        <v>15.027706999999999</v>
       </c>
       <c r="I11">
-        <v>44.979168000000001</v>
+        <v>8.8015600000000003</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>27.623917000000002</v>
+        <v>-6.2261469999999992</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-704.41778765740776</v>
+        <v>-107.94084411111116</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-558.89826524074078</v>
+        <v>-102.15511274999997</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>496204.41956815682</v>
+        <v>11651.225827419201</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>312367.27088910947</v>
+        <v>10435.667060965206</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>393697.8795264457</v>
+        <v>11026.709100500731</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>763.08079042288909</v>
+        <v>38.764906465608988</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>282252.43309862388</v>
+        <v>11746.497464996966</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>27.623917000000002</v>
+        <v>6.2261469999999992</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.9429242589466853</v>
+        <v>0.93884423489770574</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8882,46 +8882,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>208.90947</v>
+        <v>17.364471000000002</v>
       </c>
       <c r="I12">
-        <v>83.805549999999997</v>
+        <v>9.5562050000000003</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-125.10392</v>
+        <v>-7.8082660000000015</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-665.59140565740768</v>
+        <v>-107.18619911111115</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-367.34404624074074</v>
+        <v>-99.818348749999984</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>443011.91928500385</v>
+        <v>11488.881279886766</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>134941.64830851948</v>
+        <v>9963.7027471766232</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>244501.04009725439</v>
+        <v>10699.149404059832</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>15650.9907993664</v>
+        <v>60.969017926756024</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>242504.99945464174</v>
+        <v>11583.488202544911</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>125.10392</v>
+        <v>7.8082660000000015</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>207.13106167592579</v>
+        <v>25.658227564814823</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8977,46 +8977,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>451.19323700000001</v>
+        <v>36.697108999999998</v>
       </c>
       <c r="I13">
-        <v>292.33776899999998</v>
+        <v>29.549513000000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-158.85546800000003</v>
+        <v>-7.1475959999999965</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-457.05918665740774</v>
+        <v>-87.192891111111152</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-125.06027924074073</v>
+        <v>-80.485710749999981</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>208903.1001079311</v>
+        <v>7602.600260314086</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>15640.073443772046</v>
+        <v>6477.9496349326628</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>57159.949512921252</v>
+        <v>7017.7818134251365</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>25235.059713499035</v>
+        <v>51.088128579215947</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>80608.151531268188</v>
+        <v>7679.5964519395911</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>158.85546800000003</v>
+        <v>7.1475959999999965</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9065,46 +9065,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>877.64154099999996</v>
+        <v>115.811493</v>
       </c>
       <c r="I14">
-        <v>1176.866577</v>
+        <v>127.235214</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>299.22503600000005</v>
+        <v>11.423721</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>427.46962134259229</v>
+        <v>10.492809888888843</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>301.38802475925922</v>
+        <v>-1.3713267499999802</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>182730.27717077924</v>
+        <v>110.09905936436348</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>90834.741468287844</v>
+        <v>1.8805370552655081</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>128834.22482103237</v>
+        <v>-14.38907088329759</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>89535.622169201321</v>
+        <v>130.501401485841</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>360736.04875460564</v>
+        <v>101.05063015743347</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>299.22503600000005</v>
+        <v>11.423721</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9142,7 +9142,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.45038356508138627</v>
+        <v>0.34586625181792796</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9157,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>1450.9846190000001</v>
+        <v>300.059326</v>
       </c>
       <c r="I15">
-        <v>2110.3557129999999</v>
+        <v>336.03756700000002</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>659.37109399999986</v>
+        <v>35.978241000000025</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>1360.9587573425922</v>
+        <v>219.29516288888885</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>874.73110275925933</v>
+        <v>182.87650625000003</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>1852208.7391874928</v>
+        <v>48090.368466464293</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>765154.50213442987</v>
+        <v>33443.816538206302</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>1190472.9546201569</v>
+        <v>40103.933226644658</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>434770.23960275663</v>
+        <v>1294.4338254540828</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>2353469.5501015848</v>
+        <v>47897.400393861411</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>659.37109399999986</v>
+        <v>35.978241000000025</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9245,46 +9245,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>1045.635986</v>
+        <v>273.28118899999998</v>
       </c>
       <c r="I16">
-        <v>1759.5478519999999</v>
+        <v>295.46331800000002</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>713.91186599999992</v>
+        <v>22.182129000000032</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>1010.1508963425922</v>
+        <v>178.72091388888884</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>469.38246975925927</v>
+        <v>156.09836925000002</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>1020404.8333817425</v>
+        <v>31941.165061279622</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>220319.90291730195</v>
+        <v>24366.700882509351</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>474147.12255481543</v>
+        <v>27898.043208925228</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>509670.15241560183</v>
+        <v>492.04684697264241</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>1400185.4850399464</v>
+        <v>31783.93605626827</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>713.91186599999992</v>
+        <v>22.182129000000032</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9312,46 +9312,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>376.61224399999998</v>
+        <v>106.131371</v>
       </c>
       <c r="I17">
-        <v>468.22210699999999</v>
+        <v>75.613579000000001</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>91.609863000000018</v>
+        <v>-30.517792</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-281.17484865740772</v>
+        <v>-41.128825111111155</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-199.64127224074076</v>
+        <v>-11.051448749999977</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>79059.295517516133</v>
+        <v>1691.5802550203675</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>39856.637581901567</v>
+        <v>122.13451947387607</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>56134.104508062614</v>
+        <v>454.53310286315707</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>8392.3669988787715</v>
+        <v>931.33562855526395</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>11670.785382540404</v>
+        <v>1728.0017765314587</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>91.609863000000018</v>
+        <v>30.517792</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9379,46 +9379,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>1364.717163</v>
+        <v>277.74600199999998</v>
       </c>
       <c r="I18">
-        <v>1301.367798</v>
+        <v>211.20107999999999</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-63.349365000000034</v>
+        <v>-66.544921999999985</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>551.97084234259228</v>
+        <v>94.458675888888834</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>788.46364675925929</v>
+        <v>160.56318225000001</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>304671.81079639087</v>
+        <v>8922.4414506821486</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>621674.92226091004</v>
+        <v>25780.53549424672</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>435208.9432582205</v>
+        <v>15166.58559184134</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>4013.1420459032292</v>
+        <v>4428.2266439860823</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>525790.72161124647</v>
+        <v>8839.4332604367319</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>63.349365000000034</v>
+        <v>66.544921999999985</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9446,46 +9446,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>1080.607788</v>
+        <v>214.54011499999999</v>
       </c>
       <c r="I19">
-        <v>1511.114746</v>
+        <v>238.923599</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>430.50695799999994</v>
+        <v>24.38348400000001</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>761.71779034259225</v>
+        <v>122.18119488888884</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>504.35427175925929</v>
+        <v>97.357295250000007</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>580213.99212440138</v>
+        <v>14928.244384476637</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>254373.23144181276</v>
+        <v>9478.442938395674</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>384175.62143431028</v>
+        <v>11895.230664795343</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>185336.24088641373</v>
+        <v>594.55429197825651</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>873965.51890699449</v>
+        <v>14820.817332397235</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>430.50695799999994</v>
+        <v>24.38348400000001</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9513,46 +9513,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>556.76348900000005</v>
+        <v>127.01152</v>
       </c>
       <c r="I20">
-        <v>984.95910600000002</v>
+        <v>177.80647300000001</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>428.19561699999997</v>
+        <v>50.794953000000007</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>235.5621503425923</v>
+        <v>61.064068888888855</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-19.490027240740687</v>
+        <v>9.8287002500000256</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>55489.526674026056</v>
+        <v>3728.8205092669637</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>379.86116184481403</v>
+        <v>96.603348604350572</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>-4591.1127270645775</v>
+        <v>600.18042915424064</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>183351.48641801067</v>
+        <v>2580.1272502722095</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>167040.25910046394</v>
+        <v>3675.2273333762396</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>428.19561699999997</v>
+        <v>50.794953000000007</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9580,46 +9580,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>261.22833300000002</v>
+        <v>69.484015999999997</v>
       </c>
       <c r="I21">
-        <v>674.331909</v>
+        <v>127.779747</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>413.10357599999998</v>
+        <v>58.295731000000004</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-75.06504665740772</v>
+        <v>11.037342888888844</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-315.02518324074072</v>
+        <v>-47.698803749999982</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>5634.7612296787975</v>
+        <v>121.82293804690514</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>99240.866075862272</v>
+        <v>2275.1758791810125</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>23647.380078224618</v>
+        <v>-526.46805237856688</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>170654.56450398776</v>
+        <v>3398.3922528243615</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>9619.3711262395191</v>
+        <v>112.29486714179302</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>413.10357599999998</v>
+        <v>58.295731000000004</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9647,46 +9647,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>100.926498</v>
+        <v>24.998365</v>
       </c>
       <c r="I22">
-        <v>164.11691300000001</v>
+        <v>25.975235000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>63.190415000000016</v>
+        <v>0.97687000000000168</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-585.28004265740765</v>
+        <v>-90.767169111111158</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-475.32701824074076</v>
+        <v>-92.184454749999986</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>342552.7283330569</v>
+        <v>8238.6789884450518</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>225935.77426963349</v>
+        <v>8497.9736975547949</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>278199.41751215915</v>
+        <v>8367.3219937088234</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>3993.0285478722271</v>
+        <v>0.95427499690000328</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>169856.57973081575</v>
+        <v>8318.8235159284286</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>63.190415000000016</v>
+        <v>0.97687000000000168</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9714,46 +9714,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>21.440269000000001</v>
+        <v>13.883341</v>
       </c>
       <c r="I23">
-        <v>55.702587000000001</v>
+        <v>9.9300370000000004</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>34.262318</v>
+        <v>-3.9533039999999993</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-693.69436865740772</v>
+        <v>-106.81236711111116</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-554.81324724074079</v>
+        <v>-103.29947874999998</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>481211.87710699951</v>
+        <v>11408.88176787878</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>307817.73931381537</v>
+        <v>10670.782310021697</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>384870.82526743197</v>
+        <v>11033.661846631423</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>1173.9064347331241</v>
+        <v>15.628612516415995</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>270973.2699333987</v>
+        <v>11503.159407618694</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>34.262318</v>
+        <v>3.9533039999999993</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9781,46 +9781,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>33.266609000000003</v>
+        <v>12.280378000000001</v>
       </c>
       <c r="I24">
-        <v>32.596527000000002</v>
+        <v>6.5179229999999997</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-0.67008200000000073</v>
+        <v>-5.762455000000001</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-716.80042865740768</v>
+        <v>-110.22448111111116</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-542.98690724074072</v>
+        <v>-104.90244174999998</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>513802.85452344338</v>
+        <v>12149.436236213702</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>294834.7814348648</v>
+        <v>11004.522285112138</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>389213.24786552304</v>
+        <v>11562.817209182311</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>0.44900988672400099</v>
+        <v>33.205887627025014</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>295562.92195030686</v>
+        <v>12246.719372688156</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>0.67008200000000073</v>
+        <v>5.762455000000001</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9848,46 +9848,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>260.63430799999998</v>
+        <v>20.280556000000001</v>
       </c>
       <c r="I25">
-        <v>144.50630200000001</v>
+        <v>9.6300539999999994</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-116.12800599999997</v>
+        <v>-10.650502000000001</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-604.89065365740771</v>
+        <v>-107.11235011111116</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-315.61920824074076</v>
+        <v>-96.902263749999975</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>365892.70288208599</v>
+        <v>11473.055546325253</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>99615.484610512081</v>
+        <v>9390.0487198745595</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>190915.10917957517</v>
+        <v>10379.429201349232</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>13485.71377753603</v>
+        <v>113.43319285200403</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>186405.65700464009</v>
+        <v>11567.597420474369</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>116.12800599999997</v>
+        <v>10.650502000000001</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9915,46 +9915,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>610.80920400000002</v>
+        <v>74.790572999999995</v>
       </c>
       <c r="I26">
-        <v>837.14758300000005</v>
+        <v>66.333754999999996</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>226.33837900000003</v>
+        <v>-8.4568179999999984</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>87.750627342592338</v>
+        <v>-50.40864911111116</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>34.555687759259285</v>
+        <v>-42.392246749999984</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>7700.1725990185141</v>
+        <v>2541.0319052071281</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1194.095556515422</v>
+        <v>1797.1025845128843</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>3032.283279129741</v>
+        <v>2136.9358914523918</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>51229.061808347658</v>
+        <v>71.517770685123978</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>68065.714070184855</v>
+        <v>2585.627385949691</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>226.33837900000003</v>
+        <v>8.4568179999999984</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9982,46 +9982,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>572.74829099999999</v>
+        <v>104.627014</v>
       </c>
       <c r="I27">
-        <v>968.58630400000004</v>
+        <v>127.57994100000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>395.83801300000005</v>
+        <v>22.952927000000003</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>219.18934834259233</v>
+        <v>10.837536888888849</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5052252407407423</v>
+        <v>-12.555805749999976</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>48043.970426850283</v>
+        <v>117.45220581802658</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>12.286603988325995</v>
+        <v>157.64825803173247</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>-768.30803631196954</v>
+        <v>-136.07400798534746</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>156687.73253578821</v>
+        <v>526.83685786732917</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>153925.01635095201</v>
+        <v>108.10013028720211</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>395.83801300000005</v>
+        <v>22.952927000000003</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10049,46 +10049,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>1046.863525</v>
+        <v>212.342896</v>
       </c>
       <c r="I28">
-        <v>2226.1145019999999</v>
+        <v>372.88806199999999</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>1179.2509769999999</v>
+        <v>160.54516599999999</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>1476.7175463425922</v>
+        <v>256.14565788888882</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>470.61000875925924</v>
+        <v>95.160076250000017</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>2180694.7116760858</v>
+        <v>65610.598055331677</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>221473.78034439005</v>
+        <v>9055.4401119058166</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>694958.05741923908</v>
+        <v>24374.840335813078</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>1390632.8667554543</v>
+        <v>25774.750325967554</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>2722041.2723305142</v>
+        <v>65385.170914131195</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>1179.2509769999999</v>
+        <v>160.54516599999999</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10116,46 +10116,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>1184.8043210000001</v>
+        <v>297.04519699999997</v>
       </c>
       <c r="I29">
-        <v>1144.6274410000001</v>
+        <v>161.482574</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-40.176879999999983</v>
+        <v>-135.56262299999997</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>395.23048534259237</v>
+        <v>44.740169888888843</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>608.55080475925934</v>
+        <v>179.86237725000001</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>156207.13654414113</v>
+        <v>2001.6828016866359</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>370334.08197314217</v>
+        <v>32350.47475002132</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>240517.82992062723</v>
+        <v>8047.0733147844157</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>1614.1816865343985</v>
+        <v>18377.224754640123</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>323048.9183462442</v>
+        <v>1962.4682266103948</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>40.176879999999983</v>
+        <v>135.56262299999997</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10183,46 +10183,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>1285.8126219999999</v>
+        <v>311.29135100000002</v>
       </c>
       <c r="I30">
-        <v>1660.1641850000001</v>
+        <v>320.39675899999997</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>374.35156300000017</v>
+        <v>9.1054079999999544</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>910.76722934259237</v>
+        <v>203.6543548888888</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>709.55910575925918</v>
+        <v>194.10853125000006</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>829496.94604438229</v>
+        <v>41475.096265209468</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>503474.12456587958</v>
+        <v>37678.121904032247</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>646243.18080716801</v>
+        <v>39531.047710148472</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>140139.09272054309</v>
+        <v>82.908454846463172</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>1174862.3378501448</v>
+        <v>41295.905105502694</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>374.35156300000017</v>
+        <v>9.1054079999999544</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10250,46 +10250,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>1190.6961670000001</v>
+        <v>234.372772</v>
       </c>
       <c r="I31">
-        <v>1482.9467770000001</v>
+        <v>327.53506499999997</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>292.25061000000005</v>
+        <v>93.162292999999977</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>733.5498213425924</v>
+        <v>210.7926608888888</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>614.44265075925932</v>
+        <v>117.18995225000002</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>538095.34039174917</v>
+        <v>44433.54588461807</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>377539.77107206511</v>
+        <v>13733.484908357284</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>450724.29668972356</v>
+        <v>24702.781864219327</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>85410.419045372124</v>
+        <v>8679.2128370178452</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>822092.66910625831</v>
+        <v>44248.067081716152</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>292.25061000000005</v>
+        <v>93.162292999999977</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10317,46 +10317,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>476.68322799999999</v>
+        <v>119.630692</v>
       </c>
       <c r="I32">
-        <v>982.75799600000005</v>
+        <v>180.64688100000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>506.07476800000006</v>
+        <v>61.016189000000011</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>233.36104034259233</v>
+        <v>63.904476888888851</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-99.570288240740751</v>
+        <v>2.4478722500000174</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>54457.375149777006</v>
+        <v>4083.7821664425292</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>9914.2423003441963</v>
+        <v>5.9920785523201481</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>-23235.82605107105</v>
+        <v>156.42999562707845</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>256111.67080625388</v>
+        <v>3722.9753200837222</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>165245.89206434606</v>
+        <v>4027.6870703437553</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>506.07476800000006</v>
+        <v>61.016189000000011</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10384,46 +10384,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>468.524292</v>
+        <v>82.095146</v>
       </c>
       <c r="I33">
-        <v>634.70874000000003</v>
+        <v>88.967865000000003</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>166.18444800000003</v>
+        <v>6.8727190000000036</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-114.68821565740768</v>
+        <v>-27.774539111111153</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-107.72922424074073</v>
+        <v>-35.087673749999979</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>13153.386810680053</v>
+        <v>771.42502283464307</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>11605.585755511802</v>
+        <v>1231.1448491864376</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>12355.272502327305</v>
+        <v>974.54396688728252</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>27617.270757064714</v>
+        <v>47.234266452961052</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>3417.0131847450725</v>
+        <v>796.08367154454618</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>166.18444800000003</v>
+        <v>6.8727190000000036</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10451,46 +10451,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>76.782570000000007</v>
+        <v>29.716372</v>
       </c>
       <c r="I34">
-        <v>173.407318</v>
+        <v>27.205881000000002</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>96.624747999999997</v>
+        <v>-2.5104909999999983</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-575.98963765740768</v>
+        <v>-89.536523111111151</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-499.47094624074072</v>
+        <v>-87.466447749999986</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>331764.0626887118</v>
+        <v>8016.7889708265411</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>249471.2261386209</v>
+        <v>7650.3794820034773</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>287690.0893456068</v>
+        <v>7831.4416204146701</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>9336.3419260635037</v>
+        <v>6.3025650610809913</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>162285.05943701815</v>
+        <v>8095.8495068212469</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>96.624747999999997</v>
+        <v>2.5104909999999983</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10518,46 +10518,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>17.020605</v>
+        <v>14.51477</v>
       </c>
       <c r="I35">
-        <v>58.453625000000002</v>
+        <v>11.078825999999999</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>41.433019999999999</v>
+        <v>-3.435944000000001</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-690.94333065740773</v>
+        <v>-105.66357811111115</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-559.23291124074069</v>
+        <v>-102.66804974999998</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>477402.68617995188</v>
+        <v>11164.791739242888</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>312741.44901479414</v>
+        <v>10540.72843946847</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>386398.25030591583</v>
+        <v>10848.273494274568</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>1716.6951463204</v>
+        <v>11.805711171136007</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>268116.72736892296</v>
+        <v>11258.057489700033</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>41.433019999999999</v>
+        <v>3.435944000000001</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10585,46 +10585,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>19.569410000000001</v>
+        <v>12.390279</v>
       </c>
       <c r="I36">
-        <v>39.579945000000002</v>
+        <v>8.0844889999999996</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>20.010535000000001</v>
+        <v>-4.30579</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-709.81701065740776</v>
+        <v>-108.65791511111115</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-556.68410624074079</v>
+        <v>-104.79254074999997</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>503840.18861861853</v>
+        <v>11806.542516293437</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>309897.19414105237</v>
+        <v>10981.476596840404</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>395143.84817229339</v>
+        <v>11386.538997091153</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>400.42151098622503</v>
+        <v>18.539827524100001</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>288018.52206829045</v>
+        <v>11902.445772436389</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>20.010535000000001</v>
+        <v>4.30579</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10652,46 +10652,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>657.96881099999996</v>
+        <v>55.218547999999998</v>
       </c>
       <c r="I37">
-        <v>589.66687000000002</v>
+        <v>32.372326000000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-68.301940999999943</v>
+        <v>-22.846221999999997</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-159.7300856574077</v>
+        <v>-84.370078111111155</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>81.715294759259223</v>
+        <v>-61.96427174999998</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>25513.700264122799</v>
+        <v>7118.3100804749974</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>6677.3893975926176</v>
+        <v>3839.5709735078458</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-13052.391031416793</v>
+        <v>5227.9304476456164</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>4665.1551443674734</v>
+        <v>521.94985967328387</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>179.91805907103506</v>
+        <v>7192.8198501187853</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>68.301940999999943</v>
+        <v>22.846221999999997</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10719,46 +10719,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>1197.744263</v>
+        <v>205.255325</v>
       </c>
       <c r="I38">
-        <v>1360.6866460000001</v>
+        <v>192.98799099999999</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>162.94238300000006</v>
+        <v>-12.267334000000005</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>611.28969034259239</v>
+        <v>76.245586888888838</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>621.49074675925931</v>
+        <v>88.07250525000002</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>373675.08551914251</v>
+        <v>5813.3895200310972</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>386250.74830738176</v>
+        <v>7756.7661810112813</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>379910.88613725413</v>
+        <v>6715.1398515609944</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>26550.220177718711</v>
+        <v>150.48748346755613</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>615335.33506390708</v>
+        <v>5746.4239882418287</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>162.94238300000006</v>
+        <v>12.267334000000005</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10786,46 +10786,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>1191.302124</v>
+        <v>258.68618800000002</v>
       </c>
       <c r="I39">
-        <v>1518.8148189999999</v>
+        <v>274.437164</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>327.51269499999989</v>
+        <v>15.75097599999998</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>769.41786334259223</v>
+        <v>157.69475988888883</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>615.04860775925931</v>
+        <v>141.50336825000005</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>592003.84843067988</v>
+        <v>24867.637296414301</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>378284.78990660323</v>
+        <v>20023.203226095124</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>473229.38563396537</v>
+        <v>22314.339679652774</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>107264.56538616295</v>
+        <v>248.09324495257536</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>888421.80945923191</v>
+        <v>24728.928785497519</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>327.51269499999989</v>
+        <v>15.75097599999998</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10853,46 +10853,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>706.03741500000001</v>
+        <v>186.03064000000001</v>
       </c>
       <c r="I40">
-        <v>973.04644800000005</v>
+        <v>100.99157</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>267.00903300000004</v>
+        <v>-85.039070000000009</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>223.64949234259234</v>
+        <v>-15.75083411111116</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>129.78389875925927</v>
+        <v>68.847820250000026</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>50019.095425099273</v>
+        <v>248.0887751957429</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>16843.860377153662</v>
+        <v>4740.022353176314</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>29026.103071750735</v>
+        <v>-1084.4105956693502</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>71293.823703595117</v>
+        <v>7231.6434264649015</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>157444.63069410823</v>
+        <v>262.15656846687449</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>267.00903300000004</v>
+        <v>85.039070000000009</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10920,46 +10920,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>649.48333700000001</v>
+        <v>152.95126300000001</v>
       </c>
       <c r="I41">
-        <v>797.98053000000004</v>
+        <v>95.979179000000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>148.49719300000004</v>
+        <v>-56.972084000000009</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>48.583574342592328</v>
+        <v>-20.763225111111154</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>73.229820759259269</v>
+        <v>35.768443250000033</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>2360.3636959021956</v>
+        <v>431.11151701467679</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>5362.6066484332396</v>
+        <v>1279.3815325284729</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>3557.7664409521835</v>
+        <v>-742.66823907375499</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>22051.416328879259</v>
+        <v>3245.8183553030572</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>49162.868630598765</v>
+        <v>449.59438105505956</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>148.49719300000004</v>
+        <v>56.972084000000009</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10987,46 +10987,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>634.64648399999999</v>
+        <v>129.69383199999999</v>
       </c>
       <c r="I42">
-        <v>982.05096400000002</v>
+        <v>170.59501599999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>347.40448000000004</v>
+        <v>40.901184000000001</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>232.65400834259231</v>
+        <v>53.852611888888831</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>58.39296775925925</v>
+        <v>12.511012250000007</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>54127.887597875007</v>
+        <v>2900.1038072552906</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>3409.7386837338904</v>
+        <v>156.52542751965024</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>13585.358008211426</v>
+        <v>673.75068703638419</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>120689.87272407042</v>
+        <v>1672.9068526018561</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>164671.56860792876</v>
+        <v>2852.862708248515</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>347.40448000000004</v>
+        <v>40.901184000000001</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11054,46 +11054,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>584.74780299999998</v>
+        <v>129.975784</v>
       </c>
       <c r="I43">
-        <v>1009.720154</v>
+        <v>220.997559</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>424.972351</v>
+        <v>91.021774999999991</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>260.32319834259226</v>
+        <v>104.25515488888884</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>8.4942867592592393</v>
+        <v>12.792964250000026</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>67768.167595316627</v>
+        <v>10869.137320906202</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>72.152907548526827</v>
+        <v>163.65993430177872</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>2211.2598968094981</v>
+        <v>1333.7324693717703</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>180601.49911446721</v>
+        <v>8284.9635241506239</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>187893.32605031686</v>
+        <v>10777.500085545495</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>424.972351</v>
+        <v>91.021774999999991</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11121,46 +11121,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>389.984894</v>
+        <v>61.535507000000003</v>
       </c>
       <c r="I44">
-        <v>704.52618399999994</v>
+        <v>73.796059</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>314.54128999999995</v>
+        <v>12.260551999999997</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-44.870771657407772</v>
+        <v>-42.946345111111157</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-186.26862224074074</v>
+        <v>-55.647312749999976</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>2013.3861491312286</v>
+        <v>1844.3885584026611</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>34695.999631463776</v>
+        <v>3096.6234162963101</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>8358.0168155042247</v>
+        <v>2389.848697867435</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>98936.223114864071</v>
+        <v>150.32113534470392</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>16453.877294077298</v>
+        <v>1882.4110083777387</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>314.54128999999995</v>
+        <v>12.260551999999997</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11188,46 +11188,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>241.82307399999999</v>
+        <v>42.217650999999996</v>
       </c>
       <c r="I45">
-        <v>363.70660400000003</v>
+        <v>38.065036999999997</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>121.88353000000004</v>
+        <v>-4.1526139999999998</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-385.69035165740769</v>
+        <v>-78.677367111111153</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-334.43044224074072</v>
+        <v>-74.965168749999975</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>148757.04736161479</v>
+        <v>6190.1280955365546</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>111843.72069733741</v>
+        <v>5619.7765257159726</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>128986.59487277365</v>
+        <v>5898.062102290146</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>14855.594885260909</v>
+        <v>17.244203032995998</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>45176.189903073137</v>
+        <v>6259.6235472761937</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>121.88353000000004</v>
+        <v>4.1526139999999998</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11255,46 +11255,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>41.436981000000003</v>
+        <v>18.889966999999999</v>
       </c>
       <c r="I46">
-        <v>106.160591</v>
+        <v>13.608387</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>64.723609999999994</v>
+        <v>-5.2815799999999982</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-643.23636465740776</v>
+        <v>-103.13401711111115</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-534.81653524074068</v>
+        <v>-98.29285274999998</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>413753.02081767767</v>
+        <v>10636.625485474968</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>286028.72636691044</v>
+        <v>9661.484901733178</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>344013.44388692442</v>
+        <v>10137.336757418427</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>4189.1456914320988</v>
+        <v>27.895087296399982</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>220987.35836139665</v>
+        <v>10727.663119484267</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>64.723609999999994</v>
+        <v>5.2815799999999982</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11322,46 +11322,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>36.965443</v>
+        <v>13.454446000000001</v>
       </c>
       <c r="I47">
-        <v>47.913445000000003</v>
+        <v>7.101146</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>10.948002000000002</v>
+        <v>-6.3533000000000008</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-701.48351065740769</v>
+        <v>-109.64125811111116</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-539.28807324074069</v>
+        <v>-103.72837374999997</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>492079.11572424142</v>
+        <v>12021.205480187298</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>290831.62593971047</v>
+        <v>10759.575520819684</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>378301.690872584</v>
+        <v>11372.909399769555</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>119.85874779200405</v>
+        <v>40.364420890000012</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>279143.23087867099</v>
+        <v>12117.974895601434</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>10.948002000000002</v>
+        <v>6.3533000000000008</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11389,46 +11389,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>503.38516199999998</v>
+        <v>28.657612</v>
       </c>
       <c r="I48">
-        <v>387.85830700000002</v>
+        <v>46.116787000000002</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-115.52685499999995</v>
+        <v>17.459175000000002</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-361.53864865740769</v>
+        <v>-70.625617111111154</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-72.868354240740757</v>
+        <v>-88.525207749999979</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>130710.19447302449</v>
+        <v>4987.9777923252768</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>5309.7970497540819</v>
+        <v>7836.7124071806566</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>26344.726322086695</v>
+        <v>6252.1474272330679</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>13346.454226191014</v>
+        <v>304.82279168062507</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>35492.754864862472</v>
+        <v>5050.3810108240696</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>115.52685499999995</v>
+        <v>17.459175000000002</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11456,46 +11456,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>537.97015399999998</v>
+        <v>77.551094000000006</v>
       </c>
       <c r="I49">
-        <v>461.88507099999998</v>
+        <v>68.480339000000001</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-76.085082999999997</v>
+        <v>-9.0707550000000055</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-287.51188465740773</v>
+        <v>-48.262065111111156</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-38.283362240740757</v>
+        <v>-39.631725749999973</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>82663.083819254534</v>
+        <v>2329.2269287891327</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>1465.6158244557753</v>
+        <v>1570.673685923211</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>11006.921628857615</v>
+        <v>1912.7089286121993</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>5788.9398551168888</v>
+        <v>82.278596270025105</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>13080.141266784316</v>
+        <v>2371.9316312041183</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>76.085082999999997</v>
+        <v>9.0707550000000055</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11523,46 +11523,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>460.74203499999999</v>
+        <v>91.731941000000006</v>
       </c>
       <c r="I50">
-        <v>685.27191200000004</v>
+        <v>84.726082000000005</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>224.52987700000006</v>
+        <v>-7.0058590000000009</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-64.125043657407673</v>
+        <v>-32.016322111111151</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-115.51148124074075</v>
+        <v>-25.450878749999973</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>4112.0212240644396</v>
+        <v>1025.0448815224247</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>13342.902298430003</v>
+        <v>647.74722914720019</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>7407.1787774943277</v>
+        <v>814.84353207083302</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>50413.665665635155</v>
+        <v>49.082060327881017</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>11885.010613922488</v>
+        <v>1053.4398253722734</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>224.52987700000006</v>
+        <v>7.0058590000000009</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11590,46 +11590,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>503.411316</v>
+        <v>91.086594000000005</v>
       </c>
       <c r="I51">
-        <v>759.15930200000003</v>
+        <v>82.970955000000004</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>255.74798600000003</v>
+        <v>-8.1156390000000016</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>9.7623463425923092</v>
+        <v>-33.771449111111153</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-72.842200240740738</v>
+        <v>-26.096225749999974</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>95.30340611272544</v>
+        <v>1140.5107750643704</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>5305.9861359121696</v>
+        <v>681.01299839496164</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>-711.11078710657193</v>
+        <v>881.30735990819255</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>65407.032343056206</v>
+        <v>65.86359637832102</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>33454.52646421206</v>
+        <v>1170.451689672291</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>255.74798600000003</v>
+        <v>8.1156390000000016</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11657,46 +11657,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>454.62365699999998</v>
+        <v>103.49651299999999</v>
       </c>
       <c r="I52">
-        <v>816.93914800000005</v>
+        <v>122.012901</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>362.31549100000007</v>
+        <v>18.516388000000006</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>67.54219234259233</v>
+        <v>5.270496888888843</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-121.62985924074076</v>
+        <v>-13.686306749999986</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>4561.9477464437377</v>
+        <v>27.778137455786972</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>14793.82265892241</v>
+        <v>187.31499245509517</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>-8215.1473474405429</v>
+        <v>-72.133637146253292</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>131272.51501857114</v>
+        <v>342.85662456654421</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>57929.573335353773</v>
+        <v>23.329684881601761</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>362.31549100000007</v>
+        <v>18.516388000000006</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11724,46 +11724,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>1392.559937</v>
+        <v>322.599335</v>
       </c>
       <c r="I53">
-        <v>2116.4047850000002</v>
+        <v>403.76873799999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>723.84484800000018</v>
+        <v>81.169402999999988</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>1367.0078293425925</v>
+        <v>287.02633388888881</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>816.30642075925925</v>
+        <v>205.41651525000003</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>1868710.4054839464</v>
+        <v>82384.116345695889</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>666356.17257279286</v>
+        <v>42195.944737453494</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>1115897.268320536</v>
+        <v>58959.949292438527</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>523951.36397614336</v>
+        <v>6588.4719833764075</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>2372065.9306607568</v>
+        <v>82131.488539195692</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>723.84484800000018</v>
+        <v>81.169402999999988</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11791,46 +11791,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>1497.6954350000001</v>
+        <v>350.94921900000003</v>
       </c>
       <c r="I54">
-        <v>1808.8873289999999</v>
+        <v>405.058044</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>311.19189399999982</v>
+        <v>54.108824999999968</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>1059.4903733425922</v>
+        <v>288.31563988888882</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>921.44191875925935</v>
+        <v>233.76639925000006</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>1122519.8512056253</v>
+        <v>83125.908204539417</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>849055.20964674547</v>
+        <v>54646.729418310431</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>976258.84251976223</v>
+        <v>67398.508984285232</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>96840.394891307122</v>
+        <v>2927.7649428806217</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>1519386.1163574285</v>
+        <v>82872.144736987801</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>311.19189399999982</v>
+        <v>54.108824999999968</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11858,46 +11858,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>688.322632</v>
+        <v>178.25116</v>
       </c>
       <c r="I55">
-        <v>1015.598877</v>
+        <v>167.45107999999999</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>327.27624500000002</v>
+        <v>-10.800080000000008</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>266.2019213425923</v>
+        <v>50.708675888888834</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>112.06911575925926</v>
+        <v>61.06834025000002</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>70863.4629264877</v>
+        <v>2571.3698104043756</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>12559.486707062253</v>
+        <v>3729.3421808897724</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>29833.013938280204</v>
+        <v>3096.6946728096354</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>107109.74054130004</v>
+        <v>116.64172800640019</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>193024.34602068368</v>
+        <v>2526.8979885617314</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>327.27624500000002</v>
+        <v>10.800080000000008</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11925,46 +11925,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>527.11029099999996</v>
+        <v>132.90683000000001</v>
       </c>
       <c r="I56">
-        <v>763.369507</v>
+        <v>137.737854</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>236.25921600000004</v>
+        <v>4.8310239999999851</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>13.972551342592283</v>
+        <v>20.995449888888842</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-49.143225240740776</v>
+        <v>15.724010250000035</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>195.23219102137739</v>
+        <v>440.8089160368425</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>2415.0565870621813</v>
+        <v>247.24449834210614</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>-686.65623781682746</v>
+        <v>330.13266925625027</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>55818.417144934676</v>
+        <v>23.338792888575856</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>35012.393997819199</v>
+        <v>422.50943301867386</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>236.25921600000004</v>
+        <v>4.8310239999999851</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11992,46 +11992,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>184.21945199999999</v>
+        <v>47.563118000000003</v>
       </c>
       <c r="I57">
-        <v>255.19963100000001</v>
+        <v>28.206982</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>70.980179000000021</v>
+        <v>-19.356136000000003</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-494.19732465740771</v>
+        <v>-88.53542211111116</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-392.03406424074075</v>
+        <v>-69.619701749999976</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>244230.99569853922</v>
+        <v>7838.5209683926305</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>153690.70752511325</v>
+        <v>4846.9028717589499</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>193742.18572234438</v>
+        <v>6163.8096816859124</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>5038.1858108720444</v>
+        <v>374.66000085049609</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>103075.59722817471</v>
+        <v>7916.6997033143216</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>70.980179000000021</v>
+        <v>19.356136000000003</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12059,46 +12059,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>72.333427</v>
+        <v>20.815221999999999</v>
       </c>
       <c r="I58">
-        <v>125.83065000000001</v>
+        <v>13.758081000000001</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>53.497223000000005</v>
+        <v>-7.0571409999999979</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-623.56630565740772</v>
+        <v>-102.98432311111115</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-503.92008924074071</v>
+        <v>-96.367597749999987</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>388834.93755122763</v>
+        <v>10605.770806653743</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>253935.45634039608</v>
+        <v>9286.7138961058026</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>314227.58839439991</v>
+        <v>9924.351824127587</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>2861.9528687117295</v>
+        <v>49.803239093880968</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>202880.75843252422</v>
+        <v>10696.676585505746</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>53.497223000000005</v>
+        <v>7.0571409999999979</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12126,46 +12126,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>30.640398000000001</v>
+        <v>13.438940000000001</v>
       </c>
       <c r="I59">
-        <v>44.710284999999999</v>
+        <v>6.674811</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>14.069886999999998</v>
+        <v>-6.7641290000000005</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-704.68667065740772</v>
+        <v>-110.06759311111115</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-545.61311824074073</v>
+        <v>-103.74387974999998</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>496583.30380222184</v>
+        <v>12114.875053273123</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>297693.67479638453</v>
+        <v>10762.792585582456</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>384486.29176007409</v>
+        <v>11418.839144091042</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>197.96172019276895</v>
+        <v>45.753441128641008</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>282538.2066778476</v>
+        <v>12212.019997890071</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>14.069886999999998</v>
+        <v>6.7641290000000005</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12193,46 +12193,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>76.408660999999995</v>
+        <v>12.713671</v>
       </c>
       <c r="I60">
-        <v>33.385421999999998</v>
+        <v>6.2350000000000003</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-43.023238999999997</v>
+        <v>-6.4786709999999994</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-716.01153365740777</v>
+        <v>-110.50740411111116</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-499.84485524074074</v>
+        <v>-104.46914874999997</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>512672.51633043319</v>
+        <v>12211.886363376427</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>249844.87931063707</v>
+        <v>10913.803040549621</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>357894.68139168777</v>
+        <v>11544.614438060031</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>1850.9990940511207</v>
+        <v>41.973177926240993</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>294705.76774457382</v>
+        <v>12309.418707278486</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>43.023238999999997</v>
+        <v>6.4786709999999994</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12260,46 +12260,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>560.95636000000002</v>
+        <v>45.872138999999997</v>
       </c>
       <c r="I61">
-        <v>351.82427999999999</v>
+        <v>23.010781999999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-209.13208000000003</v>
+        <v>-22.861356999999998</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-397.57267565740773</v>
+        <v>-93.731622111111164</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-15.297156240740719</v>
+        <v>-71.310680749999989</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>158064.03242939032</v>
+        <v>8785.6169835801429</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>234.00298905363272</v>
+        <v>5085.213189028419</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>6081.7313365807004</v>
+        <v>6684.0657805450883</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>43736.226885126416</v>
+        <v>522.64164388144889</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>50368.482079602218</v>
+        <v>8868.3726939874232</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>209.13208000000003</v>
+        <v>22.861356999999998</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12327,46 +12327,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>1005.731384</v>
+        <v>199.27072100000001</v>
       </c>
       <c r="I62">
-        <v>1377.880981</v>
+        <v>153.07617200000001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>372.14959699999997</v>
+        <v>-46.194548999999995</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>628.4840253425923</v>
+        <v>36.333767888888858</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>429.47786775925931</v>
+        <v>82.08790125000003</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>394992.17011082818</v>
+        <v>1320.142689003651</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>184451.23889503983</v>
+        <v>6738.4235316297563</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>269919.97912489285</v>
+        <v>2982.5627505035304</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>138495.32254726239</v>
+        <v>2133.9363573134005</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>642606.59225635743</v>
+        <v>1288.3327357425826</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>372.14959699999997</v>
+        <v>46.194548999999995</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12394,46 +12394,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>1212.8139650000001</v>
+        <v>276.90661599999999</v>
       </c>
       <c r="I63">
-        <v>1685.5017089999999</v>
+        <v>270.18582199999997</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>472.68774399999984</v>
+        <v>-6.7207940000000121</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>936.10475334259218</v>
+        <v>153.4434178888888</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>636.56044875925932</v>
+        <v>159.72379625000002</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>876292.10923059529</v>
+        <v>23544.88249342416</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>405209.20492458961</v>
+        <v>25511.691088511521</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>595887.26187343628</v>
+        <v>24508.565214788483</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>223433.70332780937</v>
+        <v>45.169071990436166</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>1230431.5531396826</v>
+        <v>23409.918697513509</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>472.68774399999984</v>
+        <v>6.7207940000000121</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12461,46 +12461,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>590.96649200000002</v>
+        <v>182.753647</v>
       </c>
       <c r="I64">
-        <v>752.04418899999996</v>
+        <v>159.294388</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>161.07769699999994</v>
+        <v>-23.459259000000003</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>2.6472333425922443</v>
+        <v>42.551983888888842</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>14.71297575925928</v>
+        <v>65.570827250000022</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>7.0078443701321067</v>
+        <v>1810.6713328802555</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>216.47165569255117</v>
+        <v>4299.5333862493453</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>38.948679998662605</v>
+        <v>2790.1687847231142</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>25946.024470823791</v>
+        <v>550.33683282908112</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>30902.360629152961</v>
+        <v>1773.3841804744097</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>161.07769699999994</v>
+        <v>23.459259000000003</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12528,46 +12528,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>502.86956800000002</v>
+        <v>143.15768399999999</v>
       </c>
       <c r="I65">
-        <v>662.61444100000006</v>
+        <v>154.38949600000001</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>159.74487300000004</v>
+        <v>11.231812000000019</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-86.78251465740766</v>
+        <v>37.647091888888852</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-73.383948240740722</v>
+        <v>25.97486425000001</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>7531.2048502631751</v>
+        <v>1417.3035276904409</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>5385.2038593997131</v>
+        <v>674.69357280592862</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>6368.4435638205268</v>
+        <v>977.87810122116434</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>25518.424449786144</v>
+        <v>126.15360080334443</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>7458.2093252744489</v>
+        <v>1384.3367575723162</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>159.74487300000004</v>
+        <v>11.231812000000019</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12595,46 +12595,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>412.53048699999999</v>
+        <v>78.035927000000001</v>
       </c>
       <c r="I66">
-        <v>587.58245799999997</v>
+        <v>61.073261000000002</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>175.05197099999998</v>
+        <v>-16.962665999999999</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-161.81449765740774</v>
+        <v>-55.669143111111154</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-163.72302924074074</v>
+        <v>-39.146892749999978</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>26183.931652119216</v>
+        <v>3099.0534947253745</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>26805.230303764449</v>
+        <v>1532.4792119800009</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>26492.759731539543</v>
+        <v>2179.2739748550684</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>30643.192550984833</v>
+        <v>287.73203782755593</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>128.34492138468778</v>
+        <v>3148.2825831196988</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>175.05197099999998</v>
+        <v>16.962665999999999</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12662,46 +12662,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>435.17514</v>
+        <v>74.307830999999993</v>
       </c>
       <c r="I67">
-        <v>553.24182099999996</v>
+        <v>58.868125999999997</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>118.06668099999996</v>
+        <v>-15.439704999999996</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-196.15513465740776</v>
+        <v>-57.87427811111116</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-141.07837624074074</v>
+        <v>-42.874988749999986</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>38476.836852465771</v>
+        <v>3349.4320668822402</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>19903.108242724</v>
+        <v>1838.2646603126254</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>27673.247888750935</v>
+        <v>2481.3590229282613</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>13939.741162355751</v>
+        <v>238.38449048702489</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>529.53811785273172</v>
+        <v>3400.6035071562869</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>118.06668099999996</v>
+        <v>15.439704999999996</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12729,46 +12729,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>152.598297</v>
+        <v>33.662567000000003</v>
       </c>
       <c r="I68">
-        <v>178.59049999999999</v>
+        <v>28.079367000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>25.992202999999989</v>
+        <v>-5.5832000000000015</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-570.8064556574077</v>
+        <v>-88.663037111111151</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-423.65521924074073</v>
+        <v>-83.520252749999969</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>325820.00982017216</v>
+        <v>7861.1341497662734</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>179483.74478992011</v>
+        <v>6975.6326194238773</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>241825.13411556921</v>
+        <v>7405.1592691026308</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>675.59461679320839</v>
+        <v>31.172122240000018</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>158135.87448568363</v>
+        <v>7939.4252919714781</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>25.992202999999989</v>
+        <v>5.5832000000000015</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12796,46 +12796,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>53.391396</v>
+        <v>16.537315</v>
       </c>
       <c r="I69">
-        <v>79.458038000000002</v>
+        <v>13.745196999999999</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>26.066642000000002</v>
+        <v>-2.7921180000000003</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-669.93891765740773</v>
+        <v>-102.99720711111115</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-522.86212024074075</v>
+        <v>-100.64550474999999</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>448818.15339197894</v>
+        <v>10608.424672689125</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>273384.79678264284</v>
+        <v>10129.51762638227</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>350285.68291813921</v>
+        <v>10366.20589753807</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>679.46982515616412</v>
+        <v>7.7959229259240015</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>246805.74720044632</v>
+        <v>10699.341800171313</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>26.066642000000002</v>
+        <v>2.7921180000000003</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12863,46 +12863,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>20.433401</v>
+        <v>12.677106999999999</v>
       </c>
       <c r="I70">
-        <v>34.181193999999998</v>
+        <v>6.5417730000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>13.747792999999998</v>
+        <v>-6.1353339999999994</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-715.21576165740771</v>
+        <v>-110.20063111111115</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-555.82011524074073</v>
+        <v>-104.50571274999999</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>511533.58572318585</v>
+        <v>12144.179097287199</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>308936.00050623028</v>
+        <v>10921.44399738551</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>397531.30706641451</v>
+        <v>11516.595499766494</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>189.00181237084894</v>
+        <v>37.642323291555989</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>293842.40253946948</v>
+        <v>12241.44122593568</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>13.747792999999998</v>
+        <v>6.1353339999999994</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12930,46 +12930,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>32.748145999999998</v>
+        <v>12.181848</v>
       </c>
       <c r="I71">
-        <v>24.113814999999999</v>
+        <v>3.8519079999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-8.6343309999999995</v>
+        <v>-8.3299400000000006</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-725.28314065740767</v>
+        <v>-112.89049611111116</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-543.50537024074072</v>
+        <v>-105.00097174999998</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>526035.63412187295</v>
+        <v>12744.264112212804</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>295398.08748052467</v>
+        <v>11025.204068444293</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>394195.2818923716</v>
+        <v>11853.611793006265</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>74.551671817560987</v>
+        <v>69.387900403600014</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>304858.24968621437</v>
+        <v>12843.895558086284</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>8.6343309999999995</v>
+        <v>8.3299400000000006</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12997,46 +12997,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>98.625320000000002</v>
+        <v>13.340185999999999</v>
       </c>
       <c r="I72">
-        <v>36.915759999999999</v>
+        <v>4.6216739999999996</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-61.709560000000003</v>
+        <v>-8.7185120000000005</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-712.48119565740774</v>
+        <v>-112.12073011111116</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-477.62819624074075</v>
+        <v>-103.84263374999998</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>507629.45416540932</v>
+        <v>12571.058120648628</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>228128.69384418355</v>
+        <v>10783.292584136634</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>340301.10833729396</v>
+        <v>11642.91191271071</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>3808.0697953936005</v>
+        <v>76.012451494144003</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>290885.21530679672</v>
+        <v>12670.011532552739</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>61.709560000000003</v>
+        <v>8.7185120000000005</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13064,46 +13064,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>135.06358299999999</v>
+        <v>14.290248999999999</v>
       </c>
       <c r="I73">
-        <v>149.830399</v>
+        <v>6.6787669999999997</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>14.766816000000006</v>
+        <v>-7.6114819999999996</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-599.56655665740777</v>
+        <v>-110.06363711111116</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-441.18993324074074</v>
+        <v>-102.89257074999998</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>359480.05586202058</v>
+        <v>12114.004214126366</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>194648.55719296928</v>
+        <v>10586.881115543751</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>264522.72910506255</v>
+        <v>11324.730568457328</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>218.05885477785617</v>
+        <v>57.934658236323997</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>181836.67491731053</v>
+        <v>12211.145674174779</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>14.766816000000006</v>
+        <v>7.6114819999999996</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13131,46 +13131,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>978.51068099999998</v>
+        <v>129.130325</v>
       </c>
       <c r="I74">
-        <v>1151.1414789999999</v>
+        <v>68.743026999999998</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>172.63079799999991</v>
+        <v>-60.387298000000001</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>401.74452334259217</v>
+        <v>-47.999377111111158</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>402.25716475925924</v>
+        <v>11.94750525000002</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>161398.66203576658</v>
+        <v>2303.9402030546617</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>161810.82660015783</v>
+        <v>142.74288169877804</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>161604.61291735116</v>
+        <v>-573.47281003173134</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>29801.392418116775</v>
+        <v>3646.6257597408044</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>330496.16972549132</v>
+        <v>2346.4135216629506</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>172.63079799999991</v>
+        <v>60.387298000000001</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13198,46 +13198,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>1796.9171140000001</v>
+        <v>347.829498</v>
       </c>
       <c r="I75">
-        <v>2297.5532229999999</v>
+        <v>355.70748900000001</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>500.63610899999981</v>
+        <v>7.8779910000000086</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>1548.1562673425922</v>
+        <v>238.96508488888884</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>1220.6635977592593</v>
+        <v>230.64667825000004</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>2396787.8281121477</v>
+        <v>57104.31179595385</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>1490019.6188945789</v>
+        <v>53197.89018775904</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>1889777.9991879542</v>
+        <v>55116.503047351493</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>250636.5136346597</v>
+        <v>62.062742196081139</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>2962872.6804895117</v>
+        <v>56894.017840821914</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>500.63610899999981</v>
+        <v>7.8779910000000086</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13265,46 +13265,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>999.76776099999995</v>
+        <v>278.585938</v>
       </c>
       <c r="I76">
-        <v>1222.165405</v>
+        <v>205.32270800000001</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>222.39764400000001</v>
+        <v>-73.263229999999993</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>472.76844934259225</v>
+        <v>88.580303888888849</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>423.51424475925921</v>
+        <v>161.40311825000003</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>223510.00669379922</v>
+        <v>7846.4702370478972</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>179364.31551400572</v>
+        <v>26050.966580823493</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>200224.17276933405</v>
+        <v>14297.137263199265</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>49460.712056750745</v>
+        <v>5367.500870032899</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>417202.16804055369</v>
+        <v>7768.6399007224927</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>222.39764400000001</v>
+        <v>73.263229999999993</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13332,46 +13332,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>830.40765399999998</v>
+        <v>213.24527</v>
       </c>
       <c r="I77">
-        <v>1263.7174070000001</v>
+        <v>194.82148699999999</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>433.30975300000011</v>
+        <v>-18.423783000000014</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>514.32045134259238</v>
+        <v>78.079082888888834</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>254.15413775925924</v>
+        <v>96.062450250000026</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>264525.52666924795</v>
+        <v>6096.343184769973</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>64594.325740152526</v>
+        <v>9227.9943480337297</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>130716.67084292961</v>
+        <v>7500.4680155795122</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>187757.3420449211</v>
+        <v>339.43578003108951</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>472606.60109785886</v>
+        <v>6027.762652356224</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>433.30975300000011</v>
+        <v>18.423783000000014</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13399,46 +13399,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>987.60992399999998</v>
+        <v>228.51306199999999</v>
       </c>
       <c r="I78">
-        <v>1320.882568</v>
+        <v>224.747131</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>333.27264400000001</v>
+        <v>-3.7659309999999948</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>571.48561234259228</v>
+        <v>108.00472688888884</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>411.35640775925924</v>
+        <v>111.33024225000001</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>326595.80511458765</v>
+        <v>11665.021030343469</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>169214.09420460195</v>
+        <v>12394.422839443687</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>235084.26857934936</v>
+        <v>12024.192408685085</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>111070.65523875074</v>
+        <v>14.18223629676096</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>554472.42472389364</v>
+        <v>11570.08105468688</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>333.27264400000001</v>
+        <v>3.7659309999999948</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13466,46 +13466,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>382.79586799999998</v>
+        <v>107.19152800000001</v>
       </c>
       <c r="I79">
-        <v>607.23577899999998</v>
+        <v>91.320808</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>224.439911</v>
+        <v>-15.870720000000006</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-142.16117665740774</v>
+        <v>-25.421596111111157</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-193.45764824074075</v>
+        <v>-9.9912917499999736</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>20209.800148618691</v>
+        <v>646.25754883646186</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>37425.861662838186</v>
+        <v>99.825910833617542</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>27502.166907278592</v>
+        <v>253.9945834967763</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>50373.273649687915</v>
+        <v>251.87975331840019</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>959.90060568378215</v>
+        <v>668.84365175713697</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>224.439911</v>
+        <v>15.870720000000006</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13533,46 +13533,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>186.66973899999999</v>
+        <v>47.511814000000001</v>
       </c>
       <c r="I80">
-        <v>270.91561899999999</v>
+        <v>33.845565999999998</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>84.24588</v>
+        <v>-13.666248000000003</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-478.48133665740772</v>
+        <v>-82.896838111111151</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-389.58377724074074</v>
+        <v>-69.671005749999978</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>228944.38952945956</v>
+        <v>6871.8857688197704</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>151775.5194891631</v>
+        <v>4854.0490422165303</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>186408.56647419141</v>
+        <v>5775.5060846960423</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>7097.3682969743995</v>
+        <v>186.7663343975041</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>93231.23149139715</v>
+        <v>6945.0978625918851</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>84.24588</v>
+        <v>13.666248000000003</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13600,46 +13600,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>149.75590500000001</v>
+        <v>23.676275</v>
       </c>
       <c r="I81">
-        <v>211.91166699999999</v>
+        <v>16.140276</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>62.155761999999982</v>
+        <v>-7.5359990000000003</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-537.48528865740775</v>
+        <v>-100.60212811111116</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-426.49761124074075</v>
+        <v>-93.506544749999975</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>288890.43552313693</v>
+        <v>10120.788180484422</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>181900.21239405803</v>
+        <v>8743.4739110837472</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>229236.19168942442</v>
+        <v>9406.9573941668459</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>3863.3387498006418</v>
+        <v>56.791280928001008</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>132744.98310816268</v>
+        <v>10209.59564747066</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>62.155761999999982</v>
+        <v>7.5359990000000003</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13667,46 +13667,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>70.211067</v>
+        <v>15.17597</v>
       </c>
       <c r="I82">
-        <v>104.008453</v>
+        <v>7.4376509999999998</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>33.797386000000003</v>
+        <v>-7.7383189999999997</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-645.38850265740768</v>
+        <v>-109.30475311111115</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-506.04244924074072</v>
+        <v>-102.00684974999999</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>416526.3193623707</v>
+        <v>11947.529052680964</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>256078.96043356764</v>
+        <v>10405.397395919072</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>326593.97859656886</v>
+        <v>11149.833527565959</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>1142.2633004329962</v>
+        <v>59.881580945760994</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>223015.39975525119</v>
+        <v>12044.002063965971</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>33.797386000000003</v>
+        <v>7.7383189999999997</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13734,46 +13734,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>22.534731000000001</v>
+        <v>12.272978999999999</v>
       </c>
       <c r="I83">
-        <v>39.007201999999999</v>
+        <v>4.0017649999999998</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>16.472470999999999</v>
+        <v>-8.2712140000000005</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-710.38975365740771</v>
+        <v>-112.74063911111115</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-553.71878524074077</v>
+        <v>-104.90984074999997</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>504653.60210143239</v>
+        <v>12710.451707181805</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>306604.49312848161</v>
+        <v>11006.074686190355</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>393356.1514426489</v>
+        <v>11827.60249519989</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>271.34230084584095</v>
+        <v>68.412981033796015</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>288633.60216526076</v>
+        <v>12809.951154322491</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>16.472470999999999</v>
+        <v>8.2712140000000005</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13801,46 +13801,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>156.44309999999999</v>
+        <v>13.853006000000001</v>
       </c>
       <c r="I84">
-        <v>44.902824000000003</v>
+        <v>4.1166780000000003</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-111.54027599999998</v>
+        <v>-9.7363280000000003</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-704.49413165740771</v>
+        <v>-112.62572611111116</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-419.81041624074078</v>
+        <v>-103.32981374999997</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>496311.98153972492</v>
+        <v>12684.554182055026</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>176240.78558422404</v>
+        <v>10677.050409609683</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>295753.97465025558</v>
+        <v>11637.595302519625</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>12441.233170156171</v>
+        <v>94.796082923584009</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>282333.55814471439</v>
+        <v>12783.95241023109</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>111.54027599999998</v>
+        <v>9.7363280000000003</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13868,46 +13868,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>1640.5620120000001</v>
+        <v>201.41578699999999</v>
       </c>
       <c r="I85">
-        <v>1404.009033</v>
+        <v>138.07136499999999</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-236.55297900000005</v>
+        <v>-63.344422000000009</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>654.61207734259233</v>
+        <v>21.32896088888883</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>1064.3084957592594</v>
+        <v>84.232967250000016</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>428516.97180278407</v>
+        <v>454.92457259974935</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>1132752.5741453373</v>
+        <v>7095.1927717395756</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>696709.19534233841</v>
+        <v>1796.6016640303039</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>55957.311873774466</v>
+        <v>4012.515798514085</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>685179.19552538847</v>
+        <v>436.33132266129786</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>236.55297900000005</v>
+        <v>63.344422000000009</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13935,46 +13935,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>959.59722899999997</v>
+        <v>191.89961199999999</v>
       </c>
       <c r="I86">
-        <v>1021.493591</v>
+        <v>142.52198799999999</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>61.896362000000067</v>
+        <v>-49.377623999999997</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>272.09663534259232</v>
+        <v>25.779583888888837</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>383.34371275925923</v>
+        <v>74.716792250000012</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>74036.578964759654</v>
+        <v>664.58694548425694</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>146952.40211205345</v>
+        <v>5582.5990441296617</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>104306.53442153161</v>
+        <v>1926.1678137175545</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>3831.1596288350524</v>
+        <v>2438.1497518853757</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>198238.72417163081</v>
+        <v>642.07344760180877</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>61.896362000000067</v>
+        <v>49.377623999999997</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -14002,46 +14002,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>677.44348100000002</v>
+        <v>121.149422</v>
       </c>
       <c r="I87">
-        <v>1175.6577150000001</v>
+        <v>144.42495700000001</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>498.21423400000003</v>
+        <v>23.275535000000005</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>426.26075934259234</v>
+        <v>27.68255288888885</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>101.18996475925928</v>
+        <v>3.9666022500000224</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>181698.23495532342</v>
+        <v>766.32373444612836</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>10239.408967980136</v>
+        <v>15.733933409705241</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>43133.311216132024</v>
+        <v>109.80567657481113</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>248217.42296020678</v>
+        <v>541.75052953622526</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>359285.39349022968</v>
+        <v>742.13404194783902</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>498.21423400000003</v>
+        <v>23.275535000000005</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14069,46 +14069,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>679.88403300000004</v>
+        <v>188.69996599999999</v>
       </c>
       <c r="I88">
-        <v>709.046021</v>
+        <v>128.415314</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>29.161987999999951</v>
+        <v>-60.284651999999994</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-40.35093465740772</v>
+        <v>11.672909888888839</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>103.63051675925931</v>
+        <v>71.51714625000001</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>1628.1979277263874</v>
+        <v>136.25682527411885</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>10739.284003791125</v>
+        <v>5114.7022077438905</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>-4181.5882102662681</v>
+        <v>834.81320368673448</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>850.42154411214119</v>
+        <v>3634.2392667611034</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>17633.849320237892</v>
+        <v>126.16892707628342</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>29.161987999999951</v>
+        <v>60.284651999999994</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14136,46 +14136,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>1640.7174070000001</v>
+        <v>378.12106299999999</v>
       </c>
       <c r="I89">
-        <v>1648.881836</v>
+        <v>375.33444200000002</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>8.1644289999999273</v>
+        <v>-2.7866209999999683</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>899.48488034259231</v>
+        <v>258.59203788888885</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>1064.4638907592594</v>
+        <v>260.93824325000003</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>809073.0499649276</v>
+        <v>66869.842059528528</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>1133083.3747303404</v>
+        <v>68088.766790396185</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>957469.17540860269</v>
+        <v>67476.552085164105</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>66.65790089603982</v>
+        <v>7.765256597640823</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>1150531.5123495718</v>
+        <v>66642.260070306729</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>8.1644289999999273</v>
+        <v>2.7866209999999683</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14203,46 +14203,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>1800.8266599999999</v>
+        <v>378.63150000000002</v>
       </c>
       <c r="I90">
-        <v>2382.0834960000002</v>
+        <v>425.14373799999998</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>581.25683600000025</v>
+        <v>46.512237999999968</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>1632.6865403425925</v>
+        <v>308.40133388888881</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>1224.5731437592592</v>
+        <v>261.44868025000005</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>2665665.3390158638</v>
+        <v>95111.382744445873</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>1499579.3844164354</v>
+        <v>68355.41240446677</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>1999344.089480757</v>
+        <v>80631.1217325896</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>337859.50939673121</v>
+        <v>2163.388283768641</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>3261021.9157973276</v>
+        <v>94839.927169383198</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>581.25683600000025</v>
+        <v>46.512237999999968</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14270,46 +14270,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>1040.6577150000001</v>
+        <v>216.92254600000001</v>
       </c>
       <c r="I91">
-        <v>1320.1610109999999</v>
+        <v>238.397232</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>279.50329599999986</v>
+        <v>21.474685999999991</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>570.7640553425922</v>
+        <v>121.65482788888885</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>464.40419875925932</v>
+        <v>99.739726250000032</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>325771.60687112168</v>
+        <v>14799.897148675167</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>215671.25982522964</v>
+        <v>9948.012992424945</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>265065.2238019621</v>
+        <v>12133.819230628644</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>78122.092474863544</v>
+        <v>461.16213879859561</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>553398.36075899727</v>
+        <v>14692.933737112955</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>279.50329599999986</v>
+        <v>21.474685999999991</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14337,46 +14337,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>543.31121800000005</v>
+        <v>129.268326</v>
       </c>
       <c r="I92">
-        <v>1071.5164789999999</v>
+        <v>172.00645399999999</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>528.20526099999984</v>
+        <v>42.738127999999989</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>322.11952334259217</v>
+        <v>55.264049888888835</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>-32.942298240740683</v>
+        <v>12.085506250000023</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>103760.98731845878</v>
+        <v>3054.1152101215939</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>1085.1950133819066</v>
+        <v>146.05946131878963</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>-10611.357407116902</v>
+        <v>667.89402033247904</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>279000.79774807795</v>
+        <v>1826.5475849443831</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>245285.40228107932</v>
+        <v>3005.6308723777743</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>528.20526099999984</v>
+        <v>42.738127999999989</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14404,46 +14404,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>38.127785000000003</v>
+        <v>35.726039999999998</v>
       </c>
       <c r="I93">
-        <v>359.89279199999999</v>
+        <v>50.540484999999997</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>321.76500699999997</v>
+        <v>14.814444999999999</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-389.50416365740773</v>
+        <v>-66.201919111111152</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-538.12573124074072</v>
+        <v>-81.456779749999981</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>151713.49350645667</v>
+        <v>4382.6940939941042</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>289579.3026233819</v>
+        <v>6635.2069672400066</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>209602.2128894557</v>
+        <v>5392.5951440610961</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>103532.71972971004</v>
+        <v>219.46778065802496</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>46811.962993977861</v>
+        <v>4441.2007809310544</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>321.76500699999997</v>
+        <v>14.814444999999999</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14471,46 +14471,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>15.777597</v>
+        <v>16.702062999999999</v>
       </c>
       <c r="I94">
-        <v>77.952575999999993</v>
+        <v>13.544587</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>62.174978999999993</v>
+        <v>-3.1574759999999991</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-671.44437965740769</v>
+        <v>-103.19781711111116</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-560.47591924074072</v>
+        <v>-100.48075674999998</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>450837.55497352104</v>
+        <v>10649.789456498349</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>314133.25604875333</v>
+        <v>10096.382477052668</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>376328.40590751451</v>
+        <v>10369.394758272547</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>3865.7280136504401</v>
+        <v>9.9696546905759948</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>248303.82704480624</v>
+        <v>10740.883287543169</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>62.174978999999993</v>
+        <v>3.1574759999999991</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14538,46 +14538,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>19.343817000000001</v>
+        <v>12.915660000000001</v>
       </c>
       <c r="I95">
-        <v>33.585678000000001</v>
+        <v>5.6462589999999997</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>14.241861</v>
+        <v>-7.2694010000000011</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-715.81127765740769</v>
+        <v>-111.09614511111116</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-556.90969924074079</v>
+        <v>-104.26715974999998</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>512385.78522153042</v>
+        <v>12342.353458549067</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>310148.41310841235</v>
+        <v>10871.640602332016</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>398642.24335331732</v>
+        <v>11583.679509909405</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>202.830604743321</v>
+        <v>52.844190898801017</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>294488.38266087871</v>
+        <v>12440.404383938436</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>14.241861</v>
+        <v>7.2694010000000011</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14605,46 +14605,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>261.11535600000002</v>
+        <v>20.598504999999999</v>
       </c>
       <c r="I96">
-        <v>136.73461900000001</v>
+        <v>9.5386799999999994</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-124.38073700000001</v>
+        <v>-11.059825</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-612.66233665740765</v>
+        <v>-107.20372411111116</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-315.13816024074072</v>
+        <v>-96.584314749999976</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>375355.13875851472</v>
+        <v>11492.638463291236</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>99312.060039918768</v>
+        <v>9328.5298557270635</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>193073.28162300878</v>
+        <v>10354.198231919721</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>15470.567736663172</v>
+        <v>122.319729030625</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>193176.86103171681</v>
+        <v>11587.260822517526</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>124.38073700000001</v>
+        <v>11.059825</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14672,46 +14672,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>917.45178199999998</v>
+        <v>110.34833500000001</v>
       </c>
       <c r="I97">
-        <v>872.19836399999997</v>
+        <v>91.769264000000007</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-45.253418000000011</v>
+        <v>-18.579070999999999</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>122.80140834259225</v>
+        <v>-24.97314011111115</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>341.19826575925924</v>
+        <v>-6.834484749999973</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>15080.185890924085</v>
+        <v>623.65772700918865</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>116416.25655712609</v>
+        <v>46.710181797982194</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>41899.62755928711</v>
+        <v>170.67854524900179</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>2047.871840682725</v>
+        <v>345.18187922304094</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>87583.352915251118</v>
+        <v>645.8488158583566</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>45.253418000000011</v>
+        <v>18.579070999999999</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14739,46 +14739,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>1303.265625</v>
+        <v>245.034164</v>
       </c>
       <c r="I98">
-        <v>1455.4692379999999</v>
+        <v>245.854004</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>152.2036129999999</v>
+        <v>0.81983999999999924</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>706.07228234259219</v>
+        <v>129.11159988888886</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>727.01210875925926</v>
+        <v>127.85134425000003</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>498538.06789247721</v>
+        <v>16669.805225868527</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>528546.60628258507</v>
+        <v>16345.966226532015</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>513323.09892235103</v>
+        <v>16507.091604062596</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>23165.939810253742</v>
+        <v>0.67213762559999879</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>773020.28538865503</v>
+        <v>16556.27365629745</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>152.2036129999999</v>
+        <v>0.81983999999999924</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14806,46 +14806,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>550.72180200000003</v>
+        <v>145.25711100000001</v>
       </c>
       <c r="I99">
-        <v>840.29711899999995</v>
+        <v>94.497482000000005</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>289.57531699999993</v>
+        <v>-50.759629000000004</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>90.900163342592236</v>
+        <v>-22.244922111111151</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>-25.531714240740712</v>
+        <v>28.07429125000003</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>8262.8396957099485</v>
+        <v>494.83655972940181</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>651.86843207084212</v>
+        <v>788.16582918982829</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>-2320.8369948997192</v>
+        <v>-624.51042218090004</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>83853.86421565045</v>
+        <v>2576.5399362176413</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>69719.02415808948</v>
+        <v>514.62454883157386</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>289.57531699999993</v>
+        <v>50.759629000000004</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14873,46 +14873,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>979.19140600000003</v>
+        <v>206.96637000000001</v>
       </c>
       <c r="I100">
-        <v>1322.490112</v>
+        <v>235.22666899999999</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>343.29870599999992</v>
+        <v>28.260298999999975</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>573.09315634259224</v>
+        <v>118.48426488888883</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>402.93788975925929</v>
+        <v>89.783550250000033</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>328435.76584671484</v>
+        <v>14038.521026260374</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>162358.94300364499</v>
+        <v>8061.0858954942814</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>230920.94705215737</v>
+        <v>10637.937950485864</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>117854.00154127438</v>
+        <v>798.64449956939961</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>556869.05685036804</v>
+        <v>13934.350345756728</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>343.29870599999992</v>
+        <v>28.260298999999975</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14940,46 +14940,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>426.88223299999999</v>
+        <v>115.32410400000001</v>
       </c>
       <c r="I101">
-        <v>810.73584000000005</v>
+        <v>107.56841300000001</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>383.85360700000007</v>
+        <v>-7.7556909999999988</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>61.338884342592337</v>
+        <v>-9.1739911111111496</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-149.37128324074075</v>
+        <v>-1.8587157499999734</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>3762.4587323939195</v>
+        <v>84.162112906746387</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>22311.780256985599</v>
+        <v>3.4548242392979636</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>-9162.2678668083972</v>
+        <v>17.051841768582051</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>147343.59160691052</v>
+        <v>60.15074288748098</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>54981.960155542103</v>
+        <v>92.436817154445023</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>383.85360700000007</v>
+        <v>7.7556909999999988</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -15007,46 +15007,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>887.95105000000001</v>
+        <v>185.117279</v>
       </c>
       <c r="I102">
-        <v>842.74981700000001</v>
+        <v>131.51713599999999</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-45.201233000000002</v>
+        <v>-53.600143000000003</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>93.352861342592291</v>
+        <v>14.774731888888837</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>311.69753375925927</v>
+        <v>67.934459250000018</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>8714.7567208492619</v>
+        <v>218.29270238854872</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>97155.352551604577</v>
+        <v>4615.0907535899132</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>29097.856649856112</v>
+        <v>1003.7134214353945</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>2043.1514647202891</v>
+        <v>2872.9753296204494</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>71020.278318369572</v>
+        <v>205.47262235501449</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>45.201233000000002</v>
+        <v>53.600143000000003</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15074,46 +15074,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>900.714111</v>
+        <v>164.96159399999999</v>
       </c>
       <c r="I103">
-        <v>1319.1453859999999</v>
+        <v>210.227768</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>418.43127499999991</v>
+        <v>45.266174000000007</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>569.7484303425922</v>
+        <v>93.485363888888841</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>324.46059475925927</v>
+        <v>47.778774250000012</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>324613.27387784765</v>
+        <v>8739.5132614379618</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>105274.67755153227</v>
+        <v>2282.8112688324641</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>184860.91457211185</v>
+        <v>4466.6160969263228</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>175084.73189812555</v>
+        <v>2049.0265085982765</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>551888.33015440812</v>
+        <v>8657.3623948451823</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>418.43127499999991</v>
+        <v>45.266174000000007</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15141,46 +15141,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>128.92939799999999</v>
+        <v>52.889575999999998</v>
       </c>
       <c r="I104">
-        <v>346.08395400000001</v>
+        <v>63.998553999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>217.15455600000001</v>
+        <v>11.108978</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-403.31300165740771</v>
+        <v>-52.743850111111158</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-447.32411824074075</v>
+        <v>-64.293243749999988</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>162661.37730590816</v>
+        <v>2781.9137245433603</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>200098.8667598562</v>
+        <v>4133.6211918969129</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>180411.63284142633</v>
+        <v>3391.0732115071337</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>47156.101191557143</v>
+        <v>123.40939220448401</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>52978.027382094224</v>
+        <v>2828.566123366621</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>217.15455600000001</v>
+        <v>11.108978</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15208,46 +15208,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>21.904997000000002</v>
+        <v>18.399108999999999</v>
       </c>
       <c r="I105">
-        <v>112.98595400000001</v>
+        <v>18.489356999999998</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>91.080957000000012</v>
+        <v>9.0247999999998996E-2</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-636.41100165740772</v>
+        <v>-98.253047111111158</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-554.34851924074076</v>
+        <v>-98.783710749999983</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>405018.96303058503</v>
+        <v>9653.6612666182282</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>307302.28078440193</v>
+        <v>9758.2215095396623</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>352793.49639730057</v>
+        <v>9705.8005861301262</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>8295.7407280358511</v>
+        <v>8.1447015039998183E-3</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>214616.8342244786</v>
+        <v>9740.3995895856333</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>91.080957000000012</v>
+        <v>9.0247999999998996E-2</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15275,46 +15275,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>15.559666999999999</v>
+        <v>13.226535</v>
       </c>
       <c r="I106">
-        <v>45.040531000000001</v>
+        <v>7.6130319999999996</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>29.480864000000004</v>
+        <v>-5.6135030000000006</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-704.35642465740773</v>
+        <v>-109.12937211111115</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-560.69384924074075</v>
+        <v>-103.95628474999998</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>496117.97295616649</v>
+        <v>11909.219857365364</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>314377.59257639851</v>
+        <v>10806.909139023079</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>394928.31497860776</v>
+        <v>11344.684081771378</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>869.12134218649624</v>
+        <v>31.511415931009008</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>282187.23568837944</v>
+        <v>12005.538387580045</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>29.480864000000004</v>
+        <v>5.6135030000000006</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15342,46 +15342,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>21.552268999999999</v>
+        <v>12.169079999999999</v>
       </c>
       <c r="I107">
-        <v>28.234048999999999</v>
+        <v>3.872052</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>6.6817799999999998</v>
+        <v>-8.2970279999999992</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-721.16290665740769</v>
+        <v>-112.87035211111116</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-554.70124724074071</v>
+        <v>-105.01373974999998</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>520075.93793856091</v>
+        <v>12739.716385686215</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>307693.47369043337</v>
+        <v>11027.885536280726</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>400029.96378662193</v>
+        <v>11852.937782087089</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>44.646183968399995</v>
+        <v>68.840673632783989</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>300325.33647482528</v>
+        <v>12839.330088094435</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>6.6817799999999998</v>
+        <v>8.2970279999999992</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15409,46 +15409,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>53.573376000000003</v>
+        <v>12.228267000000001</v>
       </c>
       <c r="I108">
-        <v>28.309725</v>
+        <v>3.1110989999999998</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-25.263651000000003</v>
+        <v>-9.1171680000000013</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-721.08723065740776</v>
+        <v>-113.63130511111116</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-522.68014024074068</v>
+        <v>-104.95455274999998</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>519966.79421716958</v>
+        <v>12912.073501254437</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>273194.52900208032</v>
+        <v>11015.458142952528</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>376897.97484582121</v>
+        <v>11926.122806335457</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>638.25206184980118</v>
+        <v>83.122752340224025</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>300242.39835927653</v>
+        <v>13012.357474865978</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>25.263651000000003</v>
+        <v>9.1171680000000013</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15476,46 +15476,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>165.26779199999999</v>
+        <v>15.441051</v>
       </c>
       <c r="I109">
-        <v>80.904944999999998</v>
+        <v>4.6879520000000001</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-84.362846999999988</v>
+        <v>-10.753098999999999</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-668.49201065740772</v>
+        <v>-112.05445211111116</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-410.98572424074075</v>
+        <v>-101.74176874999998</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>446881.56831278373</v>
+        <v>12556.200237921305</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>168909.26552968621</v>
+        <v>10351.387508378471</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>274740.67314918368</v>
+        <v>11400.618154096619</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>7117.0899539454067</v>
+        <v>115.62913810380097</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>245370.20703024321</v>
+        <v>12655.095270089987</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>84.362846999999988</v>
+        <v>10.753098999999999</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15543,46 +15543,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>574.97015399999998</v>
+        <v>58.736153000000002</v>
       </c>
       <c r="I110">
-        <v>498.89050300000002</v>
+        <v>22.031079999999999</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-76.079650999999956</v>
+        <v>-36.705072999999999</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-250.50645265740769</v>
+        <v>-94.711324111111153</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-1.2833622407407574</v>
+        <v>-58.446666749999977</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>62753.482822998041</v>
+        <v>8970.2349148799458</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>1.6470186409591379</v>
+        <v>3416.0128541855529</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>321.49052240242924</v>
+        <v>5535.5611977733515</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>5788.1132962817946</v>
+        <v>1347.2623839353289</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>5985.0358176870232</v>
+        <v>9053.8535774517259</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>76.079650999999956</v>
+        <v>36.705072999999999</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15610,46 +15610,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>1108.6058350000001</v>
+        <v>201.57986500000001</v>
       </c>
       <c r="I111">
-        <v>1230.877563</v>
+        <v>165.08390800000001</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>122.27172799999994</v>
+        <v>-36.495957000000004</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>481.48060734259229</v>
+        <v>48.341503888888852</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>532.35231875925933</v>
+        <v>84.397045250000033</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>231823.57524699153</v>
+        <v>2336.9009982394559</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>283398.99128836003</v>
+        <v>7122.8612469305535</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>256317.31775644547</v>
+        <v>4079.8800911636049</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>14950.375468105969</v>
+        <v>1331.9548773458494</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>428532.64259546885</v>
+        <v>2294.5142555342909</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>122.27172799999994</v>
+        <v>36.495957000000004</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62678C29-B5FB-40C6-97C7-9A29B41DDB85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA7496D-B89C-4BB9-9A35-770680817AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> adjusted Q (cfs)</t>
+    <t xml:space="preserve"> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\Willamette Gages\Flow\USGS 14180300_flow_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> adjusted Q (cfs)</c:v>
+                  <c:v> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,328 +930,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>202.86312899999999</c:v>
+                  <c:v>5852.6108400000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.770393</c:v>
+                  <c:v>2970.4782709999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.93568399999999</c:v>
+                  <c:v>3225.4018550000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143.61415099999999</c:v>
+                  <c:v>4125.9516599999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.46069300000001</c:v>
+                  <c:v>3393.8339839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.24955700000001</c:v>
+                  <c:v>3302.274414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.057919999999999</c:v>
+                  <c:v>1682.1019289999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.027706999999999</c:v>
+                  <c:v>1530.719482</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.364471000000002</c:v>
+                  <c:v>2193.5073240000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.697108999999998</c:v>
+                  <c:v>2858.9011230000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115.811493</c:v>
+                  <c:v>6238.6474609999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.059326</c:v>
+                  <c:v>7614.1318359999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.28118899999998</c:v>
+                  <c:v>6275.6533200000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>106.131371</c:v>
+                  <c:v>3229.119385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>277.74600199999998</c:v>
+                  <c:v>5118.783203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>214.54011499999999</c:v>
+                  <c:v>5235.3081050000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>127.01152</c:v>
+                  <c:v>4208.482422</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.484015999999997</c:v>
+                  <c:v>3389.2397460000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.998365</c:v>
+                  <c:v>1869.802246</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.883341</c:v>
+                  <c:v>1306.974731</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.280378000000001</c:v>
+                  <c:v>2496.8239749999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.280556000000001</c:v>
+                  <c:v>3022.1296390000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74.790572999999995</c:v>
+                  <c:v>4604.0639650000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>104.627014</c:v>
+                  <c:v>3041.6247560000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212.342896</c:v>
+                  <c:v>6492.8740230000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>297.04519699999997</c:v>
+                  <c:v>4915.1479490000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>311.29135100000002</c:v>
+                  <c:v>5724.9047849999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>234.372772</c:v>
+                  <c:v>6759.6235349999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>119.630692</c:v>
+                  <c:v>4398.830078</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82.095146</c:v>
+                  <c:v>3684.6064449999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29.716372</c:v>
+                  <c:v>1730.838745</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.51477</c:v>
+                  <c:v>1242.9013669999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.390279</c:v>
+                  <c:v>2564.3747560000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>55.218547999999998</c:v>
+                  <c:v>4025.9177249999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>205.255325</c:v>
+                  <c:v>7325.1508789999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>258.68618800000002</c:v>
+                  <c:v>8039.7099609999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>186.03064000000001</c:v>
+                  <c:v>4432.484375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>152.95126300000001</c:v>
+                  <c:v>3069.2543949999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>129.69383199999999</c:v>
+                  <c:v>2882.1215820000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>129.975784</c:v>
+                  <c:v>3101.3554690000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61.535507000000003</c:v>
+                  <c:v>2657.6430660000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.217650999999996</c:v>
+                  <c:v>2049.8684079999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.889966999999999</c:v>
+                  <c:v>1523.7102050000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.454446000000001</c:v>
+                  <c:v>1435.6561280000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.657612</c:v>
+                  <c:v>2629.8933109999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>77.551094000000006</c:v>
+                  <c:v>4200.7080079999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>91.731941000000006</c:v>
+                  <c:v>4591.2133789999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>91.086594000000005</c:v>
+                  <c:v>3089.8698730000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>103.49651299999999</c:v>
+                  <c:v>3016.7214359999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>322.599335</c:v>
+                  <c:v>5309.6645509999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>350.94921900000003</c:v>
+                  <c:v>7491.9648440000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>178.25116</c:v>
+                  <c:v>4196.1850590000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>132.90683000000001</c:v>
+                  <c:v>4158.6645509999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47.563118000000003</c:v>
+                  <c:v>2058.9868160000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.815221999999999</c:v>
+                  <c:v>1552.7576899999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>13.438940000000001</c:v>
+                  <c:v>1435.0462649999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.713671</c:v>
+                  <c:v>2049.1633299999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45.872138999999997</c:v>
+                  <c:v>3789.1030270000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199.27072100000001</c:v>
+                  <c:v>6346.1401370000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>276.90661599999999</c:v>
+                  <c:v>7702.2353519999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>182.753647</c:v>
+                  <c:v>5420.0966799999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>143.15768399999999</c:v>
+                  <c:v>2861.2670899999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>78.035927000000001</c:v>
+                  <c:v>2595.8459469999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.307830999999993</c:v>
+                  <c:v>2854.1357419999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>33.662567000000003</c:v>
+                  <c:v>2127.3066410000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.537315</c:v>
+                  <c:v>1595.251221</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.677106999999999</c:v>
+                  <c:v>1427.945923</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.181848</c:v>
+                  <c:v>1292.3402100000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.340185999999999</c:v>
+                  <c:v>1009.65918</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.290248999999999</c:v>
+                  <c:v>1061.9163820000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>129.130325</c:v>
+                  <c:v>4289.5698240000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>347.829498</c:v>
+                  <c:v>8750.03125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>278.585938</c:v>
+                  <c:v>6425.984375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.24527</c:v>
+                  <c:v>4303.1035160000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>228.51306199999999</c:v>
+                  <c:v>5369.9428710000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>107.19152800000001</c:v>
+                  <c:v>2822.16626</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>47.511814000000001</c:v>
+                  <c:v>2198.2114259999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.676275</c:v>
+                  <c:v>1762.9726559999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.17597</c:v>
+                  <c:v>1542.951904</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.272978999999999</c:v>
+                  <c:v>1405.4724120000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.853006000000001</c:v>
+                  <c:v>1983.9708250000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>201.41578699999999</c:v>
+                  <c:v>7773.7163090000004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>191.89961199999999</c:v>
+                  <c:v>7034.4941410000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>121.149422</c:v>
+                  <c:v>4465.8266599999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>188.69996599999999</c:v>
+                  <c:v>4143.2309569999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>378.12106299999999</c:v>
+                  <c:v>7877.7016599999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>378.63150000000002</c:v>
+                  <c:v>8073.236328</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>216.92254600000001</c:v>
+                  <c:v>5383.9477539999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>129.268326</c:v>
+                  <c:v>4678.4243159999996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35.726039999999998</c:v>
+                  <c:v>2413.5383299999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>16.702062999999999</c:v>
+                  <c:v>1414.50415</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.915660000000001</c:v>
+                  <c:v>1203.9017329999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>20.598504999999999</c:v>
+                  <c:v>3014.4030760000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>110.34833500000001</c:v>
+                  <c:v>5661.8881840000004</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>245.034164</c:v>
+                  <c:v>7470.9213870000003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>145.25711100000001</c:v>
+                  <c:v>4722.7724609999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>206.96637000000001</c:v>
+                  <c:v>5833.1416019999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>115.32410400000001</c:v>
+                  <c:v>3009.046875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>185.117279</c:v>
+                  <c:v>3521.0051269999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>164.96159399999999</c:v>
+                  <c:v>3864.8774410000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>52.889575999999998</c:v>
+                  <c:v>2077.1223140000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>18.399108999999999</c:v>
+                  <c:v>1526.7982179999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>13.226535</c:v>
+                  <c:v>1426.6881100000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>12.169079999999999</c:v>
+                  <c:v>1389.721313</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.228267000000001</c:v>
+                  <c:v>1810.553345</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>15.441051</c:v>
+                  <c:v>1895.904053</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>58.736153000000002</c:v>
+                  <c:v>3928.6525879999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>201.57986500000001</c:v>
+                  <c:v>5555.185547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\Willamette Gages\Flow\USGS 14180300_flow_BLOWOUT CREEK NEAR DETROIT  OR_23780557.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,328 +1296,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>249.77203399999999</c:v>
+                  <c:v>6456.1528319999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.10833700000001</c:v>
+                  <c:v>2734.970703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138.04624899999999</c:v>
+                  <c:v>3057.4772950000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188.78125</c:v>
+                  <c:v>3770.7221679999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.35282900000001</c:v>
+                  <c:v>3910.0839839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.75318899999999</c:v>
+                  <c:v>5918.3823240000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.260876</c:v>
+                  <c:v>1207.1254879999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8015600000000003</c:v>
+                  <c:v>948.21063200000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5562050000000003</c:v>
+                  <c:v>1415.190186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.549513000000001</c:v>
+                  <c:v>2796.0817870000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>127.235214</c:v>
+                  <c:v>6244.2749020000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>336.03756700000002</c:v>
+                  <c:v>9231.7714840000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>295.46331800000002</c:v>
+                  <c:v>8318.4638670000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.613579000000001</c:v>
+                  <c:v>2776.469482</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>211.20107999999999</c:v>
+                  <c:v>4550.9003910000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>238.923599</c:v>
+                  <c:v>5305.9448240000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>177.80647300000001</c:v>
+                  <c:v>5046.5058589999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127.779747</c:v>
+                  <c:v>4450.8994140000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.975235000000001</c:v>
+                  <c:v>1565.618408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9300370000000004</c:v>
+                  <c:v>906.57287599999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.5179229999999997</c:v>
+                  <c:v>1528.8350829999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.6300539999999994</c:v>
+                  <c:v>3058.838135</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66.333754999999996</c:v>
+                  <c:v>3991.3884280000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>127.57994100000001</c:v>
+                  <c:v>3078.0751949999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>372.88806199999999</c:v>
+                  <c:v>9415.8935550000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>161.482574</c:v>
+                  <c:v>5623.0063479999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>320.39675899999997</c:v>
+                  <c:v>6355.2851559999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>327.53506499999997</c:v>
+                  <c:v>7887.6733400000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>180.64688100000001</c:v>
+                  <c:v>5001.1191410000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>88.967865000000003</c:v>
+                  <c:v>3360.4860840000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.205881000000002</c:v>
+                  <c:v>1439.779419</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.078825999999999</c:v>
+                  <c:v>815.06927499999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0844889999999996</c:v>
+                  <c:v>1672.6705320000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32.372326000000001</c:v>
+                  <c:v>3312.0261230000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>192.98799099999999</c:v>
+                  <c:v>7927.4311520000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>274.437164</c:v>
+                  <c:v>8040.9814450000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.99157</c:v>
+                  <c:v>4171.548828</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.979179000000002</c:v>
+                  <c:v>3069.951904</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>170.59501599999999</c:v>
+                  <c:v>3097.4514159999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>220.997559</c:v>
+                  <c:v>2999.3784179999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>73.796059</c:v>
+                  <c:v>3210.6345209999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38.065036999999997</c:v>
+                  <c:v>1918.652832</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.608387</c:v>
+                  <c:v>1061.767822</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.101146</c:v>
+                  <c:v>875.663635</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46.116787000000002</c:v>
+                  <c:v>2395.8979490000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>68.480339000000001</c:v>
+                  <c:v>4433.5844729999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>84.726082000000005</c:v>
+                  <c:v>4333.9897460000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>82.970955000000004</c:v>
+                  <c:v>3731.8847660000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122.012901</c:v>
+                  <c:v>2729.5832519999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>403.76873799999998</c:v>
+                  <c:v>8317.1464840000008</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>405.058044</c:v>
+                  <c:v>8893.7246090000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>167.45107999999999</c:v>
+                  <c:v>4440.6704099999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>137.737854</c:v>
+                  <c:v>4493.1948240000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>28.206982</c:v>
+                  <c:v>1497.3298339999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.758081000000001</c:v>
+                  <c:v>1009.008362</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.674811</c:v>
+                  <c:v>699.10485800000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.2350000000000003</c:v>
+                  <c:v>1040.3927000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>23.010781999999999</c:v>
+                  <c:v>3328.0407709999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>153.07617200000001</c:v>
+                  <c:v>6070.8334960000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>270.18582199999997</c:v>
+                  <c:v>9150.0664059999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>159.294388</c:v>
+                  <c:v>4149.6567379999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>154.38949600000001</c:v>
+                  <c:v>3329.79126</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>61.073261000000002</c:v>
+                  <c:v>1978.7460940000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58.868125999999997</c:v>
+                  <c:v>1960.03125</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.079367000000001</c:v>
+                  <c:v>1114.496216</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.745196999999999</c:v>
+                  <c:v>873.074341</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.5417730000000001</c:v>
+                  <c:v>744.20929000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.8519079999999999</c:v>
+                  <c:v>698.13738999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.6216739999999996</c:v>
+                  <c:v>928.56951900000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.6787669999999997</c:v>
+                  <c:v>1060.384033</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>68.743026999999998</c:v>
+                  <c:v>2457.8547359999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>355.70748900000001</c:v>
+                  <c:v>9511.0449219999991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>205.32270800000001</c:v>
+                  <c:v>5385.8833009999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>194.82148699999999</c:v>
+                  <c:v>4481.5659180000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>224.747131</c:v>
+                  <c:v>5166.9428710000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>91.320808</c:v>
+                  <c:v>2673.9582519999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>33.845565999999998</c:v>
+                  <c:v>1824.7143550000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>16.140276</c:v>
+                  <c:v>1258.253418</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.4376509999999998</c:v>
+                  <c:v>802.32867399999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.0017649999999998</c:v>
+                  <c:v>691.17334000000005</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.1166780000000003</c:v>
+                  <c:v>1086.6118160000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>138.07136499999999</c:v>
+                  <c:v>5337.0673829999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>142.52198799999999</c:v>
+                  <c:v>5738.3837890000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>144.42495700000001</c:v>
+                  <c:v>5494.9433589999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>128.415314</c:v>
+                  <c:v>3571.7241210000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>375.33444200000002</c:v>
+                  <c:v>6436.5395509999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>425.14373799999998</c:v>
+                  <c:v>9411.5224610000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>238.397232</c:v>
+                  <c:v>5637.3295900000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>172.00645399999999</c:v>
+                  <c:v>5607.1303710000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>50.540484999999997</c:v>
+                  <c:v>2252.694336</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.544587</c:v>
+                  <c:v>947.28631600000006</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.6462589999999997</c:v>
+                  <c:v>702.44189500000005</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.5386799999999994</c:v>
+                  <c:v>1288.143311</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>91.769264000000007</c:v>
+                  <c:v>4434.1489259999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>245.854004</c:v>
+                  <c:v>7605.4594729999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>94.497482000000005</c:v>
+                  <c:v>4712.3051759999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>235.22666899999999</c:v>
+                  <c:v>5044.9755859999996</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>107.56841300000001</c:v>
+                  <c:v>3612.046143</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>131.51713599999999</c:v>
+                  <c:v>2506.0534670000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>210.227768</c:v>
+                  <c:v>3726.0832519999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>63.998553999999999</c:v>
+                  <c:v>2238.8271479999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>18.489356999999998</c:v>
+                  <c:v>1157.7342530000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.6130319999999996</c:v>
+                  <c:v>832.49157700000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.872052</c:v>
+                  <c:v>658.05114700000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.1110989999999998</c:v>
+                  <c:v>1479.0920410000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.6879520000000001</c:v>
+                  <c:v>1868.7163089999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>22.031079999999999</c:v>
+                  <c:v>1918.775024</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>165.08390800000001</c:v>
+                  <c:v>4757.0766599999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,7 +7927,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>110.65930274999998</v>
+        <v>3749.0466815833333</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>156021.20417806515</v>
+        <v>89506500.522270426</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>0.44041563888882251</v>
+        <v>124.89679128703756</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7965,11 +7965,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>117.18281974999998</v>
+        <v>3747.5296619537035</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>116.74240411111116</v>
+        <v>3622.6328706666659</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7979,12 +7979,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>1444.6407794265292</v>
+        <v>828763.89372472616</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>25.658227564814823</v>
+        <v>680.03266000925896</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -7997,13 +7997,13 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>-3.758363553876016E-3</v>
+        <v>-3.332776590270535E-2</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -8021,10 +8021,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.88037461450857302</v>
+        <v>0.86004810243323959</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -8110,46 +8110,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>202.86312899999999</v>
+        <v>5852.6108400000003</v>
       </c>
       <c r="I4">
-        <v>249.77203399999999</v>
+        <v>6456.1528319999998</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>46.908905000000004</v>
+        <v>603.54199199999948</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>133.02962988888885</v>
+        <v>2833.5199613333339</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>85.680309250000008</v>
+        <v>2105.0811780462968</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>17696.882428374749</v>
+        <v>8028835.3712744582</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>7341.1153931756371</v>
+        <v>4431366.7661647853</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>11398.019828293041</v>
+        <v>5964789.5382212717</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>2200.4453682990252</v>
+        <v>364262.93610732746</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>17579.899735432402</v>
+        <v>7336639.4773116475</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>46.908905000000004</v>
+        <v>603.54199199999948</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.34586625181792796</v>
+        <v>0.37360969386012671</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8209,46 +8209,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>126.770393</v>
+        <v>2970.4782709999999</v>
       </c>
       <c r="I5">
-        <v>109.10833700000001</v>
+        <v>2734.970703</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-17.662055999999993</v>
+        <v>-235.50756799999999</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-7.6340671111111504</v>
+        <v>-887.66216766666594</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>9.5875732500000197</v>
+        <v>-777.0513909537035</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>58.278980656948946</v>
+        <v>787944.12390668411</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>91.921560824115943</v>
+        <v>603808.86418308539</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>-73.192177623194198</v>
+        <v>689759.1220823623</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>311.94822214713577</v>
+        <v>55463.814585274624</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>65.197271680047123</v>
+        <v>1025275.6453574077</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>17.662055999999993</v>
+        <v>235.50756799999999</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.88142849740065843</v>
+        <v>0.87558821945097021</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
@@ -8308,46 +8308,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>107.93568399999999</v>
+        <v>3225.4018550000001</v>
       </c>
       <c r="I6">
-        <v>138.04624899999999</v>
+        <v>3057.4772950000001</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>30.110564999999994</v>
+        <v>-167.92455999999993</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>21.303844888888833</v>
+        <v>-565.15557566666575</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-9.247135749999984</v>
+        <v>-522.12780695370338</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>453.85380704983481</v>
+        <v>319400.82470712037</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>85.509519578927765</v>
+        <v>272617.44679428375</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>-196.99954568449837</v>
+        <v>295083.44131049397</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>906.64612461922468</v>
+        <v>28198.657851193577</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>435.282680069756</v>
+        <v>476172.26913840842</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>30.110564999999994</v>
+        <v>167.92455999999993</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>117.18281974999998</v>
+        <v>3747.5296619537035</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8404,46 +8404,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>143.61415099999999</v>
+        <v>4125.9516599999997</v>
       </c>
       <c r="I7">
-        <v>188.78125</v>
+        <v>3770.7221679999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>45.167099000000007</v>
+        <v>-355.22949199999994</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>72.038845888888844</v>
+        <v>148.08929733333389</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>26.431331250000014</v>
+        <v>378.42199804629627</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>5189.5953170030771</v>
+        <v>21930.439984680572</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>698.61527164722725</v>
+        <v>143203.20860535104</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>1904.0825985569227</v>
+        <v>56040.247786152264</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>2040.0668320758016</v>
+        <v>126187.99198657802</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>5126.3352142641179</v>
+        <v>537.89233670749184</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>45.167099000000007</v>
+        <v>355.22949199999994</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>99.631774849195722</v>
+        <v>2000.6155054765891</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8500,46 +8500,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>104.46069300000001</v>
+        <v>3393.8339839999999</v>
       </c>
       <c r="I8">
-        <v>134.35282900000001</v>
+        <v>3910.0839839999999</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>29.892136000000008</v>
+        <v>516.25</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>17.610424888888858</v>
+        <v>287.45111333333398</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-12.722126749999973</v>
+        <v>-353.69567795370358</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>310.12706476719615</v>
+        <v>82628.142556573221</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>161.85250904306486</v>
+        <v>125100.63260313</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-224.04205755779824</v>
+        <v>-101670.21640898044</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>893.53979464249642</v>
+        <v>266514.0625</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>294.80921764508679</v>
+        <v>26423.90761593105</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>29.892136000000008</v>
+        <v>516.25</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>116.74240411111116</v>
+        <v>3622.6328706666659</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8596,46 +8596,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>128.24955700000001</v>
+        <v>3302.274414</v>
       </c>
       <c r="I9">
-        <v>190.75318899999999</v>
+        <v>5918.3823240000002</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>62.503631999999982</v>
+        <v>2616.1079100000002</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>74.010784888888836</v>
+        <v>2295.7494533333343</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>11.066737250000031</v>
+        <v>-445.25524795370347</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>5477.5962798693763</v>
+        <v>5270465.5524803028</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>122.47267336053825</v>
+        <v>198252.23583031396</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>819.0579100316055</v>
+        <v>-1022194.4920835129</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>3906.7040131914218</v>
+        <v>6844020.5967645692</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>5412.5992315813473</v>
+        <v>4712601.2803134928</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>62.503631999999982</v>
+        <v>2616.1079100000002</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>109.89255221865885</v>
+        <v>2433.4701054779885</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8691,46 +8691,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>29.057919999999999</v>
+        <v>1682.1019289999999</v>
       </c>
       <c r="I10">
-        <v>22.260876</v>
+        <v>1207.1254879999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-6.7970439999999996</v>
+        <v>-474.97644100000002</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-94.48152811111116</v>
+        <v>-2415.5073826666658</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-88.124899749999983</v>
+        <v>-2065.4277329537035</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>8926.7591542106893</v>
+        <v>5834675.9157171659</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>7765.9979559475469</v>
+        <v>4265991.7200542754</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>8326.1751930184764</v>
+        <v>4989055.9373141453</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>46.199807137935998</v>
+        <v>225602.61950502649</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>9010.1754052781616</v>
+        <v>6453653.3670413978</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>6.7970439999999996</v>
+        <v>474.97644100000002</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>38.008430373096559</v>
+        <v>910.36470369007941</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8786,46 +8786,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>15.027706999999999</v>
+        <v>1530.719482</v>
       </c>
       <c r="I11">
-        <v>8.8015600000000003</v>
+        <v>948.21063200000003</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-6.2261469999999992</v>
+        <v>-582.50884999999994</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-107.94084411111116</v>
+        <v>-2674.4222386666661</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-102.15511274999997</v>
+        <v>-2216.8101799537035</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>11651.225827419201</v>
+        <v>7152534.310674822</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>10435.667060965206</v>
+        <v>4914247.3739463715</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>11026.709100500731</v>
+        <v>5928686.4441708382</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>38.764906465608988</v>
+        <v>339316.5603283224</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>11746.497464996966</v>
+        <v>7836187.0314609446</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>6.2261469999999992</v>
+        <v>582.50884999999994</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.93884423489770574</v>
+        <v>0.93572871039151628</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8882,46 +8882,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>17.364471000000002</v>
+        <v>2193.5073240000002</v>
       </c>
       <c r="I12">
-        <v>9.5562050000000003</v>
+        <v>1415.190186</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-7.8082660000000015</v>
+        <v>-778.31713800000011</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-107.18619911111115</v>
+        <v>-2207.4426846666656</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-99.818348749999984</v>
+        <v>-1554.0223379537033</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>11488.881279886766</v>
+        <v>4872803.2060883762</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>9963.7027471766232</v>
+        <v>2414985.4268590938</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>10699.149404059832</v>
+        <v>3430415.2417244911</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>60.969017926756024</v>
+        <v>605777.56730451121</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>11583.488202544911</v>
+        <v>5439807.431091995</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>7.8082660000000015</v>
+        <v>778.31713800000011</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>25.658227564814823</v>
+        <v>680.03266000925896</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8977,46 +8977,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>36.697108999999998</v>
+        <v>2858.9011230000001</v>
       </c>
       <c r="I13">
-        <v>29.549513000000001</v>
+        <v>2796.0817870000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-7.1475959999999965</v>
+        <v>-62.819336000000021</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-87.192891111111152</v>
+        <v>-826.55108366666582</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-80.485710749999981</v>
+        <v>-888.62853895370336</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>7602.600260314086</v>
+        <v>683186.69391053962</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>6477.9496349326628</v>
+        <v>789660.68024299352</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>7017.7818134251365</v>
+        <v>734496.88184930943</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>51.088128579215947</v>
+        <v>3946.2689754808985</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>7679.5964519395911</v>
+        <v>905253.05875391793</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>7.1475959999999965</v>
+        <v>62.819336000000021</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9065,46 +9065,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>115.811493</v>
+        <v>6238.6474609999996</v>
       </c>
       <c r="I14">
-        <v>127.235214</v>
+        <v>6244.2749020000001</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>11.423721</v>
+        <v>5.6274410000005446</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>10.492809888888843</v>
+        <v>2621.6420313333342</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3713267499999802</v>
+        <v>2491.1177990462961</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>110.09905936436348</v>
+        <v>6873006.9404535713</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1.8805370552655081</v>
+        <v>6205667.8887252621</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>-14.38907088329759</v>
+        <v>6530819.1269823564</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>130.501401485841</v>
+        <v>31.668092208487128</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>101.05063015743347</v>
+        <v>6233736.7936938396</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>11.423721</v>
+        <v>5.6274410000005446</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9142,7 +9142,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.34586625181792796</v>
+        <v>0.37360969386012671</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9157,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>300.059326</v>
+        <v>7614.1318359999996</v>
       </c>
       <c r="I15">
-        <v>336.03756700000002</v>
+        <v>9231.7714840000008</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>35.978241000000025</v>
+        <v>1617.6396480000012</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>219.29516288888885</v>
+        <v>5609.1386133333344</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>182.87650625000003</v>
+        <v>3866.6021740462961</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>48090.368466464293</v>
+        <v>31462435.983587001</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>33443.816538206302</v>
+        <v>14950612.372339543</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>40103.933226644658</v>
+        <v>21688307.556841698</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>1294.4338254540828</v>
+        <v>2616758.030781568</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>47897.400393861411</v>
+        <v>30076908.362681687</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>35.978241000000025</v>
+        <v>1617.6396480000012</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9245,46 +9245,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>273.28118899999998</v>
+        <v>6275.6533200000003</v>
       </c>
       <c r="I16">
-        <v>295.46331800000002</v>
+        <v>8318.4638670000004</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>22.182129000000032</v>
+        <v>2042.810547</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>178.72091388888884</v>
+        <v>4695.830996333334</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>156.09836925000002</v>
+        <v>2528.1236580462969</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>31941.165061279622</v>
+        <v>22050828.746124912</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>24366.700882509351</v>
+        <v>6391409.2303733891</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>27898.043208925228</v>
+        <v>11871641.436017415</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>492.04684697264241</v>
+        <v>4173074.9309344394</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>31783.93605626827</v>
+        <v>20893439.506862219</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>22.182129000000032</v>
+        <v>2042.810547</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9312,46 +9312,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>106.131371</v>
+        <v>3229.119385</v>
       </c>
       <c r="I17">
-        <v>75.613579000000001</v>
+        <v>2776.469482</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-30.517792</v>
+        <v>-452.64990299999999</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-41.128825111111155</v>
+        <v>-846.16338866666592</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-11.051448749999977</v>
+        <v>-518.41027695370349</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>1691.5802550203675</v>
+        <v>715992.48031985515</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>122.13451947387607</v>
+        <v>268749.21525121556</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>454.53310286315707</v>
+        <v>438659.79666677053</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>931.33562855526395</v>
+        <v>204891.93468590939</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>1728.0017765314587</v>
+        <v>942957.873091719</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>30.517792</v>
+        <v>452.64990299999999</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9379,46 +9379,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>277.74600199999998</v>
+        <v>5118.783203</v>
       </c>
       <c r="I18">
-        <v>211.20107999999999</v>
+        <v>4550.9003910000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-66.544921999999985</v>
+        <v>-567.88281199999983</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>94.458675888888834</v>
+        <v>928.26752033333423</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>160.56318225000001</v>
+        <v>1371.2535410462965</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>8922.4414506821486</v>
+        <v>861680.58930579713</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>25780.53549424672</v>
+        <v>1880336.2738320071</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>15166.58559184134</v>
+        <v>1272890.1242953497</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>4428.2266439860823</v>
+        <v>322490.88816502714</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>8839.4332604367319</v>
+        <v>645404.52828837826</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>66.544921999999985</v>
+        <v>567.88281199999983</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9446,46 +9446,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>214.54011499999999</v>
+        <v>5235.3081050000001</v>
       </c>
       <c r="I19">
-        <v>238.923599</v>
+        <v>5305.9448240000002</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>24.38348400000001</v>
+        <v>70.636719000000085</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>122.18119488888884</v>
+        <v>1683.3119533333343</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>97.357295250000007</v>
+        <v>1487.7784430462966</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>14928.244384476637</v>
+        <v>2833539.1322348854</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>9478.442938395674</v>
+        <v>2213484.6955932626</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>11895.230664795343</v>
+        <v>2504395.2370914882</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>594.55429197825651</v>
+        <v>4989.5460710849729</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>14820.817332397235</v>
+        <v>2428657.8172957851</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>24.38348400000001</v>
+        <v>70.636719000000085</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9513,46 +9513,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>127.01152</v>
+        <v>4208.482422</v>
       </c>
       <c r="I20">
-        <v>177.80647300000001</v>
+        <v>5046.5058589999999</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>50.794953000000007</v>
+        <v>838.02343699999983</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>61.064068888888855</v>
+        <v>1423.872988333334</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>9.8287002500000256</v>
+        <v>460.95276004629659</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>3728.8205092669637</v>
+        <v>2027414.2869052987</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>96.603348604350572</v>
+        <v>212477.44699429869</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>600.18042915424064</v>
+        <v>656338.18392761855</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>2580.1272502722095</v>
+        <v>702283.28096129268</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>3675.2273333762396</v>
+        <v>1687339.1604928586</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>50.794953000000007</v>
+        <v>838.02343699999983</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9580,46 +9580,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>69.484015999999997</v>
+        <v>3389.2397460000002</v>
       </c>
       <c r="I21">
-        <v>127.779747</v>
+        <v>4450.8994140000004</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>58.295731000000004</v>
+        <v>1061.6596680000002</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>11.037342888888844</v>
+        <v>828.26654333333454</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-47.698803749999982</v>
+        <v>-358.28991595370326</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>121.82293804690514</v>
+        <v>686025.4668053505</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>2275.1758791810125</v>
+        <v>128371.66387411175</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-526.46805237856688</v>
+        <v>-296759.55019816477</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>3398.3922528243615</v>
+        <v>1127121.2506578707</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>112.29486714179302</v>
+        <v>494729.00809366931</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>58.295731000000004</v>
+        <v>1061.6596680000002</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9647,46 +9647,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>24.998365</v>
+        <v>1869.802246</v>
       </c>
       <c r="I22">
-        <v>25.975235000000001</v>
+        <v>1565.618408</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>0.97687000000000168</v>
+        <v>-304.18383799999992</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-90.767169111111158</v>
+        <v>-2057.0144626666661</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-92.184454749999986</v>
+        <v>-1877.7274159537035</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>8238.6789884450518</v>
+        <v>4231308.4996198332</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>8497.9736975547949</v>
+        <v>3525860.2486241725</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>8367.3219937088234</v>
+        <v>3862512.4515624749</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>0.95427499690000328</v>
+        <v>92527.807300410204</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>8318.8235159284286</v>
+        <v>4760736.7201298233</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>0.97687000000000168</v>
+        <v>304.18383799999992</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9714,46 +9714,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>13.883341</v>
+        <v>1306.974731</v>
       </c>
       <c r="I23">
-        <v>9.9300370000000004</v>
+        <v>906.57287599999995</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-3.9533039999999993</v>
+        <v>-400.40185500000007</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-106.81236711111116</v>
+        <v>-2716.0599946666662</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-103.29947874999998</v>
+        <v>-2440.5549309537037</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>11408.88176787878</v>
+        <v>7376981.8946286906</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>10670.782310021697</v>
+        <v>5956308.3710024375</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>11033.661846631423</v>
+        <v>6628693.6127498224</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>15.628612516415995</v>
+        <v>160321.64548744107</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>11503.159407618694</v>
+        <v>8071035.4596563987</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>3.9533039999999993</v>
+        <v>400.40185500000007</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9781,46 +9781,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>12.280378000000001</v>
+        <v>2496.8239749999998</v>
       </c>
       <c r="I24">
-        <v>6.5179229999999997</v>
+        <v>1528.8350829999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-5.762455000000001</v>
+        <v>-967.98889199999985</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-110.22448111111116</v>
+        <v>-2093.797787666666</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-104.90244174999998</v>
+        <v>-1250.7056869537037</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>12149.436236213702</v>
+        <v>4383989.1756378245</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>11004.522285112138</v>
+        <v>1564264.7153783357</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>11562.817209182311</v>
+        <v>2618724.8003657823</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>33.205887627025014</v>
+        <v>937002.49503538734</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>12246.719372688156</v>
+        <v>4922605.6346785519</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>5.762455000000001</v>
+        <v>967.98889199999985</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9848,46 +9848,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>20.280556000000001</v>
+        <v>3022.1296390000002</v>
       </c>
       <c r="I25">
-        <v>9.6300539999999994</v>
+        <v>3058.838135</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-10.650502000000001</v>
+        <v>36.708495999999741</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-107.11235011111116</v>
+        <v>-563.79473566666593</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-96.902263749999975</v>
+        <v>-725.40002295370323</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>11473.055546325253</v>
+        <v>317864.50396544568</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>9390.0487198745595</v>
+        <v>526205.19330123311</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>10379.429201349232</v>
+        <v>408976.71419377648</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>113.43319285200403</v>
+        <v>1347.5136785819971</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>11567.597420474369</v>
+        <v>474296.01929782372</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>10.650502000000001</v>
+        <v>36.708495999999741</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9915,46 +9915,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>74.790572999999995</v>
+        <v>4604.0639650000003</v>
       </c>
       <c r="I26">
-        <v>66.333754999999996</v>
+        <v>3991.3884280000002</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-8.4568179999999984</v>
+        <v>-612.67553700000008</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-50.40864911111116</v>
+        <v>368.75555733333431</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-42.392246749999984</v>
+        <v>856.53430304629683</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>2541.0319052071281</v>
+        <v>135980.661064218</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1797.1025845128843</v>
+        <v>733651.01229500549</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>2136.9358914523918</v>
+        <v>315851.78429495625</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>71.517770685123978</v>
+        <v>375371.31363823847</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>2585.627385949691</v>
+        <v>59467.09777762249</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>8.4568179999999984</v>
+        <v>612.67553700000008</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9982,46 +9982,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>104.627014</v>
+        <v>3041.6247560000002</v>
       </c>
       <c r="I27">
-        <v>127.57994100000001</v>
+        <v>3078.0751949999999</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>22.952927000000003</v>
+        <v>36.450438999999733</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>10.837536888888849</v>
+        <v>-544.557675666666</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-12.555805749999976</v>
+        <v>-705.90490595370329</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>117.45220581802658</v>
+        <v>296543.0621274818</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>157.64825803173247</v>
+        <v>498301.73624950671</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>-136.07400798534746</v>
+        <v>384405.93482784514</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>526.83685786732917</v>
+        <v>1328.6345032927015</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>108.10013028720211</v>
+        <v>448169.28332426737</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>22.952927000000003</v>
+        <v>36.450438999999733</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10049,46 +10049,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>212.342896</v>
+        <v>6492.8740230000003</v>
       </c>
       <c r="I28">
-        <v>372.88806199999999</v>
+        <v>9415.8935550000006</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>160.54516599999999</v>
+        <v>2923.0195320000003</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>256.14565788888882</v>
+        <v>5793.2606843333342</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>95.160076250000017</v>
+        <v>2745.3443610462969</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>65610.598055331677</v>
+        <v>33561869.356642328</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>9055.4401119058166</v>
+        <v>7536915.6607286995</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>24374.840335813078</v>
+        <v>15904495.551805729</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>25774.750325967554</v>
+        <v>8544043.1844535004</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>65385.170914131195</v>
+        <v>32130349.223990969</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>160.54516599999999</v>
+        <v>2923.0195320000003</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10116,46 +10116,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>297.04519699999997</v>
+        <v>4915.1479490000002</v>
       </c>
       <c r="I29">
-        <v>161.482574</v>
+        <v>5623.0063479999999</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-135.56262299999997</v>
+        <v>707.85839899999974</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>44.740169888888843</v>
+        <v>2000.373477333334</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>179.86237725000001</v>
+        <v>1167.6182870462967</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>2001.6828016866359</v>
+        <v>4001494.0488186544</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>32350.47475002132</v>
+        <v>1363332.4642449282</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>8047.0733147844157</v>
+        <v>2335672.6530567915</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>18377.224754640123</v>
+        <v>501063.51303484285</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>1962.4682266103948</v>
+        <v>3517412.7999031981</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>135.56262299999997</v>
+        <v>707.85839899999974</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10183,46 +10183,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>311.29135100000002</v>
+        <v>5724.9047849999997</v>
       </c>
       <c r="I30">
-        <v>320.39675899999997</v>
+        <v>6355.2851559999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>9.1054079999999544</v>
+        <v>630.3803710000002</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>203.6543548888888</v>
+        <v>2732.652285333334</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>194.10853125000006</v>
+        <v>1977.3751230462963</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>41475.096265209468</v>
+        <v>7467388.5125374934</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>37678.121904032247</v>
+        <v>3910012.3772423551</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>39531.047710148472</v>
+        <v>5403478.6489537442</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>82.908454846463172</v>
+        <v>397379.41214209789</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>41295.905105502694</v>
+        <v>6800388.7167286435</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>9.1054079999999544</v>
+        <v>630.3803710000002</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10250,46 +10250,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>234.372772</v>
+        <v>6759.6235349999997</v>
       </c>
       <c r="I31">
-        <v>327.53506499999997</v>
+        <v>7887.6733400000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>93.162292999999977</v>
+        <v>1128.0498050000006</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>210.7926608888888</v>
+        <v>4265.0404693333348</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>117.18995225000002</v>
+        <v>3012.0938730462963</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>44433.54588461807</v>
+        <v>18190570.205051113</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>13733.484908357284</v>
+        <v>9072709.5000430383</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>24702.781864219327</v>
+        <v>12846702.265973438</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>8679.2128370178452</v>
+        <v>1272496.3625605393</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>44248.067081716152</v>
+        <v>17140789.674866721</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>93.162292999999977</v>
+        <v>1128.0498050000006</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10317,46 +10317,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>119.630692</v>
+        <v>4398.830078</v>
       </c>
       <c r="I32">
-        <v>180.64688100000001</v>
+        <v>5001.1191410000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>61.016189000000011</v>
+        <v>602.28906300000017</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>63.904476888888851</v>
+        <v>1378.4862703333342</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>2.4478722500000174</v>
+        <v>651.3004160462965</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>4083.7821664425292</v>
+        <v>1900224.3974975061</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>5.9920785523201481</v>
+        <v>424192.23194207891</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>156.42999562707845</v>
+        <v>897808.68138220813</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>3722.9753200837222</v>
+        <v>362752.11540941818</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>4027.6870703437553</v>
+        <v>1571486.5819755655</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>61.016189000000011</v>
+        <v>602.28906300000017</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10384,46 +10384,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>82.095146</v>
+        <v>3684.6064449999999</v>
       </c>
       <c r="I33">
-        <v>88.967865000000003</v>
+        <v>3360.4860840000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>6.8727190000000036</v>
+        <v>-324.12036099999978</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-27.774539111111153</v>
+        <v>-262.14678666666578</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-35.087673749999979</v>
+        <v>-62.923216953703559</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>771.42502283464307</v>
+        <v>68720.93775965838</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>1231.1448491864376</v>
+        <v>3959.331231802847</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>974.54396688728252</v>
+        <v>16495.119131142856</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>47.234266452961052</v>
+        <v>105054.00841477017</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>796.08367154454618</v>
+        <v>149802.73123520444</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>6.8727190000000036</v>
+        <v>324.12036099999978</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10451,46 +10451,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>29.716372</v>
+        <v>1730.838745</v>
       </c>
       <c r="I34">
-        <v>27.205881000000002</v>
+        <v>1439.779419</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-2.5104909999999983</v>
+        <v>-291.05932600000006</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-89.536523111111151</v>
+        <v>-2182.8534516666659</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-87.466447749999986</v>
+        <v>-2016.6909169537034</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>8016.7889708265411</v>
+        <v>4764849.1914530778</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>7650.3794820034773</v>
+        <v>4067042.2545235693</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>7831.4416204146701</v>
+        <v>4402140.7290172055</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>6.3025650610809913</v>
+        <v>84715.531251574314</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>8095.8495068212469</v>
+        <v>5325711.1838528775</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>2.5104909999999983</v>
+        <v>291.05932600000006</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10518,46 +10518,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>14.51477</v>
+        <v>1242.9013669999999</v>
       </c>
       <c r="I35">
-        <v>11.078825999999999</v>
+        <v>815.06927499999995</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-3.435944000000001</v>
+        <v>-427.83209199999999</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-105.66357811111115</v>
+        <v>-2807.5635956666661</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-102.66804974999998</v>
+        <v>-2504.6282949537035</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>11164.791739242888</v>
+        <v>7882413.3437127387</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>10540.72843946847</v>
+        <v>6273162.8958826959</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>10848.273494274568</v>
+        <v>7031903.2215886908</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>11.805711171136007</v>
+        <v>183040.29894509647</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>11258.057489700033</v>
+        <v>8599323.9210526645</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>3.435944000000001</v>
+        <v>427.83209199999999</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10585,46 +10585,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>12.390279</v>
+        <v>2564.3747560000002</v>
       </c>
       <c r="I36">
-        <v>8.0844889999999996</v>
+        <v>1672.6705320000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-4.30579</v>
+        <v>-891.70422400000007</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-108.65791511111115</v>
+        <v>-1949.9623386666658</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-104.79254074999997</v>
+        <v>-1183.1549059537033</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>11806.542516293437</v>
+        <v>3802353.1222183728</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>10981.476596840404</v>
+        <v>1399855.5314823166</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>11386.538997091153</v>
+        <v>2307107.5074184225</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>18.539827524100001</v>
+        <v>795136.42309944227</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>11902.445772436389</v>
+        <v>4305040.4091522386</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>4.30579</v>
+        <v>891.70422400000007</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10652,46 +10652,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>55.218547999999998</v>
+        <v>4025.9177249999998</v>
       </c>
       <c r="I37">
-        <v>32.372326000000001</v>
+        <v>3312.0261230000001</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-22.846221999999997</v>
+        <v>-713.89160199999969</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-84.370078111111155</v>
+        <v>-310.6067476666658</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-61.96427174999998</v>
+        <v>278.38806304629634</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>7118.3100804749974</v>
+        <v>96476.551696063805</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>3839.5709735078458</v>
+        <v>77499.913646668661</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>5227.9304476456164</v>
+        <v>-86469.210852032818</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>521.94985967328387</v>
+        <v>509641.21940612595</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>7192.8198501187853</v>
+        <v>189663.3324411998</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>22.846221999999997</v>
+        <v>713.89160199999969</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10719,46 +10719,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>205.255325</v>
+        <v>7325.1508789999998</v>
       </c>
       <c r="I38">
-        <v>192.98799099999999</v>
+        <v>7927.4311520000001</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-12.267334000000005</v>
+        <v>602.28027300000031</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>76.245586888888838</v>
+        <v>4304.7982813333347</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>88.07250525000002</v>
+        <v>3577.6212170462964</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>5813.3895200310972</v>
+        <v>18531288.242970433</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>7756.7661810112813</v>
+        <v>12799373.572659822</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>6715.1398515609944</v>
+        <v>15400937.666402569</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>150.48748346755613</v>
+        <v>362741.52724495489</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>5746.4239882418287</v>
+        <v>17471576.466491256</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>12.267334000000005</v>
+        <v>602.28027300000031</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10786,46 +10786,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>258.68618800000002</v>
+        <v>8039.7099609999996</v>
       </c>
       <c r="I39">
-        <v>274.437164</v>
+        <v>8040.9814450000003</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>15.75097599999998</v>
+        <v>1.2714840000007825</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>157.69475988888883</v>
+        <v>4418.3485743333349</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>141.50336825000005</v>
+        <v>4292.1802990462966</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>24867.637296414301</v>
+        <v>19521804.124313414</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>20023.203226095124</v>
+        <v>18422811.719521157</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>22314.339679652774</v>
+        <v>18964348.705072831</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>248.09324495257536</v>
+        <v>1.6166715622579899</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>24728.928785497519</v>
+        <v>18433728.21334343</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>15.75097599999998</v>
+        <v>1.2714840000007825</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10853,46 +10853,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>186.03064000000001</v>
+        <v>4432.484375</v>
       </c>
       <c r="I40">
-        <v>100.99157</v>
+        <v>4171.548828</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-85.039070000000009</v>
+        <v>-260.93554700000004</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-15.75083411111116</v>
+        <v>548.91595733333406</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>68.847820250000026</v>
+        <v>684.95471304629655</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>248.0887751957429</v>
+        <v>301308.72821517062</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>4740.022353176314</v>
+        <v>469162.95892433444</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>-1084.4105956693502</v>
+        <v>375982.57204178697</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>7231.6434264649015</v>
+        <v>68087.35968818923</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>262.15656846687449</v>
+        <v>179792.25317459676</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>85.039070000000009</v>
+        <v>260.93554700000004</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10920,46 +10920,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>152.95126300000001</v>
+        <v>3069.2543949999999</v>
       </c>
       <c r="I41">
-        <v>95.979179000000002</v>
+        <v>3069.951904</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-56.972084000000009</v>
+        <v>0.69750900000008187</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-20.763225111111154</v>
+        <v>-552.68096666666588</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>35.768443250000033</v>
+        <v>-678.27526695370352</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>431.11151701467679</v>
+        <v>305456.25091560022</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>1279.3815325284729</v>
+        <v>460057.33776111779</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>-742.66823907375499</v>
+        <v>374869.83020606369</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>3245.8183553030572</v>
+        <v>0.48651880508111423</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>449.59438105505956</v>
+        <v>459111.61807356752</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>56.972084000000009</v>
+        <v>0.69750900000008187</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10987,46 +10987,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>129.69383199999999</v>
+        <v>2882.1215820000002</v>
       </c>
       <c r="I42">
-        <v>170.59501599999999</v>
+        <v>3097.4514159999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>40.901184000000001</v>
+        <v>215.32983399999966</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>53.852611888888831</v>
+        <v>-525.18145466666601</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>12.511012250000007</v>
+        <v>-865.40807995370324</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>2900.1038072552906</v>
+        <v>275815.56032579538</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>156.52542751965024</v>
+        <v>748931.14484915521</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>673.75068703638419</v>
+        <v>454496.27431037225</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>1672.9068526018561</v>
+        <v>46366.937410467413</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>2852.862708248515</v>
+        <v>422601.72586224391</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>40.901184000000001</v>
+        <v>215.32983399999966</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11054,46 +11054,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>129.975784</v>
+        <v>3101.3554690000001</v>
       </c>
       <c r="I43">
-        <v>220.997559</v>
+        <v>2999.3784179999998</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>91.021774999999991</v>
+        <v>-101.9770510000003</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>104.25515488888884</v>
+        <v>-623.25445266666611</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>12.792964250000026</v>
+        <v>-646.17419295370337</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>10869.137320906202</v>
+        <v>388446.11276882555</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>163.65993430177872</v>
+        <v>417541.08763936989</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>1333.7324693717703</v>
+        <v>402730.94295668509</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>8284.9635241506239</v>
+        <v>10399.318930656662</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>10777.500085545495</v>
+        <v>559730.28382947424</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>91.021774999999991</v>
+        <v>101.9770510000003</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11121,46 +11121,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>61.535507000000003</v>
+        <v>2657.6430660000001</v>
       </c>
       <c r="I44">
-        <v>73.796059</v>
+        <v>3210.6345209999999</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>12.260551999999997</v>
+        <v>552.99145499999986</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-42.946345111111157</v>
+        <v>-411.99834966666594</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-55.647312749999976</v>
+        <v>-1089.8865959537034</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>1844.3885584026611</v>
+        <v>169742.64012805634</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>3096.6234162963101</v>
+        <v>1187852.7920395511</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>2389.848697867435</v>
+        <v>449031.47885674617</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>150.32113534470392</v>
+        <v>305799.54930301686</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>1882.4110083777387</v>
+        <v>288256.39237969718</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>12.260551999999997</v>
+        <v>552.99145499999986</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11188,46 +11188,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>42.217650999999996</v>
+        <v>2049.8684079999998</v>
       </c>
       <c r="I45">
-        <v>38.065036999999997</v>
+        <v>1918.652832</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-4.1526139999999998</v>
+        <v>-131.21557599999983</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-78.677367111111153</v>
+        <v>-1703.9800386666659</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-74.965168749999975</v>
+        <v>-1697.6612539537036</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>6190.1280955365546</v>
+        <v>2903547.9721744522</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>5619.7765257159726</v>
+        <v>2882053.7331756614</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>5898.062102290146</v>
+        <v>2892780.8891549325</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>17.244203032995998</v>
+        <v>17217.52738501173</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>6259.6235472761937</v>
+        <v>3344790.4591415077</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>4.1526139999999998</v>
+        <v>131.21557599999983</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11255,46 +11255,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>18.889966999999999</v>
+        <v>1523.7102050000001</v>
       </c>
       <c r="I46">
-        <v>13.608387</v>
+        <v>1061.767822</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-5.2815799999999982</v>
+        <v>-461.94238300000006</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-103.13401711111115</v>
+        <v>-2560.8650486666656</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-98.29285274999998</v>
+        <v>-2223.8194569537036</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>10636.625485474968</v>
+        <v>6558029.7974825241</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>9661.484901733178</v>
+        <v>4945372.9771258654</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>10137.336757418427</v>
+        <v>5694901.5218576239</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>27.895087296399982</v>
+        <v>213390.76521171874</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>10727.663119484267</v>
+        <v>7213316.6609515017</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>5.2815799999999982</v>
+        <v>461.94238300000006</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11322,46 +11322,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>13.454446000000001</v>
+        <v>1435.6561280000001</v>
       </c>
       <c r="I47">
-        <v>7.101146</v>
+        <v>875.663635</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-6.3533000000000008</v>
+        <v>-559.99249300000008</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-109.64125811111116</v>
+        <v>-2746.969235666666</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-103.72837374999997</v>
+        <v>-2311.8735339537034</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>12021.205480187298</v>
+        <v>7545839.9816991072</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>10759.575520819684</v>
+        <v>5344759.2369955853</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>11372.909399769555</v>
+        <v>6350645.4745227983</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>40.364420890000012</v>
+        <v>313591.59221635514</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>12117.974895601434</v>
+        <v>8247614.4767708508</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>6.3533000000000008</v>
+        <v>559.99249300000008</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11389,46 +11389,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>28.657612</v>
+        <v>2629.8933109999998</v>
       </c>
       <c r="I48">
-        <v>46.116787000000002</v>
+        <v>2395.8979490000002</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>17.459175000000002</v>
+        <v>-233.99536199999966</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-70.625617111111154</v>
+        <v>-1226.7349216666657</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-88.525207749999979</v>
+        <v>-1117.6363509537036</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>4987.9777923252768</v>
+        <v>1504878.5680365206</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>7836.7124071806566</v>
+        <v>1249111.0129731102</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>6252.1474272330679</v>
+        <v>1371043.5414390098</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>304.82279168062507</v>
+        <v>54753.829437510882</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>5050.3810108240696</v>
+        <v>1826908.2874621621</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>17.459175000000002</v>
+        <v>233.99536199999966</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11456,46 +11456,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>77.551094000000006</v>
+        <v>4200.7080079999996</v>
       </c>
       <c r="I49">
-        <v>68.480339000000001</v>
+        <v>4433.5844729999999</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-9.0707550000000055</v>
+        <v>232.87646500000028</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-48.262065111111156</v>
+        <v>810.95160233333399</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-39.631725749999973</v>
+        <v>453.17834604629616</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>2329.2269287891327</v>
+        <v>657642.50132700184</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>1570.673685923211</v>
+        <v>205370.61332525653</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>1912.7089286121993</v>
+        <v>367505.70586901397</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>82.278596270025105</v>
+        <v>54231.447950896356</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>2371.9316312041183</v>
+        <v>470671.2037597695</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>9.0707550000000055</v>
+        <v>232.87646500000028</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11523,46 +11523,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>91.731941000000006</v>
+        <v>4591.2133789999998</v>
       </c>
       <c r="I50">
-        <v>84.726082000000005</v>
+        <v>4333.9897460000002</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-7.0058590000000009</v>
+        <v>-257.22363299999961</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-32.016322111111151</v>
+        <v>711.3568753333343</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-25.450878749999973</v>
+        <v>843.68371704629635</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>1025.0448815224247</v>
+        <v>506028.60408400494</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>647.74722914720019</v>
+        <v>711802.21440905507</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>814.84353207083302</v>
+        <v>600160.21272766637</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>49.082060327881017</v>
+        <v>66163.997373718492</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>1053.4398253722734</v>
+        <v>343935.43017958943</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>7.0058590000000009</v>
+        <v>257.22363299999961</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11590,46 +11590,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>91.086594000000005</v>
+        <v>3089.8698730000001</v>
       </c>
       <c r="I51">
-        <v>82.970955000000004</v>
+        <v>3731.8847660000001</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-8.1156390000000016</v>
+        <v>642.01489300000003</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-33.771449111111153</v>
+        <v>109.25189533333423</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-26.096225749999974</v>
+        <v>-657.65978895370336</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>1140.5107750643704</v>
+        <v>11935.976633925819</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>681.01299839496164</v>
+        <v>432516.39800662966</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>881.30735990819255</v>
+        <v>-71850.57842771268</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>65.86359637832102</v>
+        <v>412183.12283380149</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>1170.451689672291</v>
+        <v>244.76276940220271</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>8.1156390000000016</v>
+        <v>642.01489300000003</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11657,46 +11657,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>103.49651299999999</v>
+        <v>3016.7214359999998</v>
       </c>
       <c r="I52">
-        <v>122.012901</v>
+        <v>2729.5832519999999</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>18.516388000000006</v>
+        <v>-287.13818399999991</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>5.270496888888843</v>
+        <v>-893.04961866666599</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-13.686306749999986</v>
+        <v>-730.80822595370364</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>27.778137455786972</v>
+        <v>797537.6214006776</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>187.31499245509517</v>
+        <v>534080.66312159959</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>-72.133637146253292</v>
+        <v>652648.00750641769</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>342.85662456654421</v>
+        <v>82448.336710817806</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>23.329684881601761</v>
+        <v>1036214.8935376335</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>18.516388000000006</v>
+        <v>287.13818399999991</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11724,46 +11724,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>322.599335</v>
+        <v>5309.6645509999998</v>
       </c>
       <c r="I53">
-        <v>403.76873799999998</v>
+        <v>8317.1464840000008</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>81.169402999999988</v>
+        <v>3007.4819330000009</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>287.02633388888881</v>
+        <v>4694.5136133333344</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>205.41651525000003</v>
+        <v>1562.1348890462964</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>82384.116345695889</v>
+        <v>22038458.065772001</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>42195.944737453494</v>
+        <v>2440265.4115756848</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>58959.949292438527</v>
+        <v>7333463.5024907961</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>6588.4719833764075</v>
+        <v>9044947.5773214214</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>82131.488539195692</v>
+        <v>20881397.900328498</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>81.169402999999988</v>
+        <v>3007.4819330000009</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11791,46 +11791,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>350.94921900000003</v>
+        <v>7491.9648440000001</v>
       </c>
       <c r="I54">
-        <v>405.058044</v>
+        <v>8893.7246090000008</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>54.108824999999968</v>
+        <v>1401.7597650000007</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>288.31563988888882</v>
+        <v>5271.0917383333344</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>233.76639925000006</v>
+        <v>3744.4351820462966</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>83125.908204539417</v>
+        <v>27784408.113925934</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>54646.729418310431</v>
+        <v>14020794.832546083</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>67398.508984285232</v>
+        <v>19737261.352808908</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>2927.7649428806217</v>
+        <v>1964930.4387728572</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>82872.144736987801</v>
+        <v>26483322.433004837</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>54.108824999999968</v>
+        <v>1401.7597650000007</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11858,46 +11858,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>178.25116</v>
+        <v>4196.1850590000004</v>
       </c>
       <c r="I55">
-        <v>167.45107999999999</v>
+        <v>4440.6704099999997</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-10.800080000000008</v>
+        <v>244.48535099999935</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>50.708675888888834</v>
+        <v>818.03753933333383</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>61.06834025000002</v>
+        <v>448.65539704629691</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>2571.3698104043756</v>
+        <v>669185.41575853573</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>3729.3421808897724</v>
+        <v>201291.66529877033</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>3096.6946728096354</v>
+        <v>367016.95700837264</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>116.64172800640019</v>
+        <v>59773.086853592882</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>2526.8979885617314</v>
+        <v>480444.09660217917</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>10.800080000000008</v>
+        <v>244.48535099999935</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11925,46 +11925,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>132.90683000000001</v>
+        <v>4158.6645509999998</v>
       </c>
       <c r="I56">
-        <v>137.737854</v>
+        <v>4493.1948240000002</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>4.8310239999999851</v>
+        <v>334.53027300000031</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>20.995449888888842</v>
+        <v>870.56195333333426</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>15.724010250000035</v>
+        <v>411.13488904629639</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>440.8089160368425</v>
+        <v>757878.11459155043</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>247.24449834210614</v>
+        <v>169031.89699111044</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>330.13266925625027</v>
+        <v>357918.39209162747</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>23.338792888575856</v>
+        <v>111910.50355345474</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>422.50943301867386</v>
+        <v>556016.53388952988</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>4.8310239999999851</v>
+        <v>334.53027300000031</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11992,46 +11992,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>47.563118000000003</v>
+        <v>2058.9868160000001</v>
       </c>
       <c r="I57">
-        <v>28.206982</v>
+        <v>1497.3298339999999</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-19.356136000000003</v>
+        <v>-561.6569820000002</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-88.53542211111116</v>
+        <v>-2125.3030366666662</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-69.619701749999976</v>
+        <v>-1688.5428459537034</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>7838.5209683926305</v>
+        <v>4516912.9976645531</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>4846.9028717589499</v>
+        <v>2851176.9426214318</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>6163.8096816859124</v>
+        <v>3588665.2380471807</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>374.66000085049609</v>
+        <v>315458.56542934856</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>7916.6997033143216</v>
+        <v>5063399.2657228783</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>19.356136000000003</v>
+        <v>561.6569820000002</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12059,46 +12059,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>20.815221999999999</v>
+        <v>1552.7576899999999</v>
       </c>
       <c r="I58">
-        <v>13.758081000000001</v>
+        <v>1009.008362</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-7.0571409999999979</v>
+        <v>-543.74932799999988</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-102.98432311111115</v>
+        <v>-2613.6245086666659</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-96.367597749999987</v>
+        <v>-2194.7719719537035</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>10605.770806653743</v>
+        <v>6831033.0723030707</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>9286.7138961058026</v>
+        <v>4817024.0088735484</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>9924.351824127587</v>
+        <v>5736309.8168328675</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>49.803239093880968</v>
+        <v>295663.33170045144</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>10696.676585505746</v>
+        <v>7499498.9103001216</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>7.0571409999999979</v>
+        <v>543.74932799999988</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12126,46 +12126,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>13.438940000000001</v>
+        <v>1435.0462649999999</v>
       </c>
       <c r="I59">
-        <v>6.674811</v>
+        <v>699.10485800000004</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-6.7641290000000005</v>
+        <v>-735.94140699999991</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-110.06759311111115</v>
+        <v>-2923.5280126666657</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-103.74387974999998</v>
+        <v>-2312.4833969537035</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>12114.875053273123</v>
+        <v>8547016.0408467036</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>10762.792585582456</v>
+        <v>5347579.4611865403</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>11418.839144091042</v>
+        <v>6760609.9898207216</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>45.753441128641008</v>
+        <v>541609.75453713955</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>12212.019997890071</v>
+        <v>9292893.7853601743</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>6.7641290000000005</v>
+        <v>735.94140699999991</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12193,46 +12193,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>12.713671</v>
+        <v>2049.1633299999999</v>
       </c>
       <c r="I60">
-        <v>6.2350000000000003</v>
+        <v>1040.3927000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-6.4786709999999994</v>
+        <v>-1008.7706299999998</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-110.50740411111116</v>
+        <v>-2582.240170666666</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-104.46914874999997</v>
+        <v>-1698.3663319537036</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>12211.886363376427</v>
+        <v>6667964.2990046125</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>10913.803040549621</v>
+        <v>2884448.1975138779</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>11544.614438060031</v>
+        <v>4385589.7668786515</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>41.973177926240993</v>
+        <v>1017618.1839505964</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>12309.418707278486</v>
+        <v>7328590.5307759279</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>6.4786709999999994</v>
+        <v>1008.7706299999998</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12260,46 +12260,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>45.872138999999997</v>
+        <v>3789.1030270000001</v>
       </c>
       <c r="I61">
-        <v>23.010781999999999</v>
+        <v>3328.0407709999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-22.861356999999998</v>
+        <v>-461.06225600000016</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-93.731622111111164</v>
+        <v>-294.59209966666594</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-71.310680749999989</v>
+        <v>41.573365046296658</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>8785.6169835801429</v>
+        <v>86784.505186014838</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>5085.213189028419</v>
+        <v>1728.3446812726406</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>6684.0657805450883</v>
+        <v>-12247.184899197311</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>522.64164388144889</v>
+        <v>212578.4039078097</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>8868.3726939874232</v>
+        <v>175970.92963356816</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>22.861356999999998</v>
+        <v>461.06225600000016</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12327,46 +12327,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>199.27072100000001</v>
+        <v>6346.1401370000003</v>
       </c>
       <c r="I62">
-        <v>153.07617200000001</v>
+        <v>6070.8334960000002</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-46.194548999999995</v>
+        <v>-275.30664100000013</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>36.333767888888858</v>
+        <v>2448.2006253333343</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>82.08790125000003</v>
+        <v>2598.6104750462969</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>1320.142689003651</v>
+        <v>5993686.3018825287</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>6738.4235316297563</v>
+        <v>6752776.4010203406</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>2982.5627505035304</v>
+        <v>6361919.7900060965</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>2133.9363573134005</v>
+        <v>75793.746578702951</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1288.3327357425826</v>
+        <v>5397740.7052942226</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>46.194548999999995</v>
+        <v>275.30664100000013</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12394,46 +12394,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>276.90661599999999</v>
+        <v>7702.2353519999997</v>
       </c>
       <c r="I63">
-        <v>270.18582199999997</v>
+        <v>9150.0664059999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-6.7207940000000121</v>
+        <v>1447.8310540000002</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>153.4434178888888</v>
+        <v>5527.4335353333336</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>159.72379625000002</v>
+        <v>3954.7056900462962</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>23544.88249342416</v>
+        <v>30552521.487527553</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>25511.691088511521</v>
+        <v>15639697.094884552</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>24508.565214788483</v>
+        <v>21859372.853535451</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>45.169071990436166</v>
+        <v>2096214.7609267517</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>23409.918697513509</v>
+        <v>29187403.270770352</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>6.7207940000000121</v>
+        <v>1447.8310540000002</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12461,46 +12461,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>182.753647</v>
+        <v>5420.0966799999997</v>
       </c>
       <c r="I64">
-        <v>159.294388</v>
+        <v>4149.6567379999997</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-23.459259000000003</v>
+        <v>-1270.439942</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>42.551983888888842</v>
+        <v>527.02386733333378</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>65.570827250000022</v>
+        <v>1672.5670180462962</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>1810.6713328802555</v>
+        <v>277754.15673898341</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>4299.5333862493453</v>
+        <v>2797480.4298562794</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>2790.1687847231142</v>
+        <v>881482.73822494096</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>550.33683282908112</v>
+        <v>1614017.6462289633</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>1773.3841804744097</v>
+        <v>161706.1852895437</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>23.459259000000003</v>
+        <v>1270.439942</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12528,46 +12528,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>143.15768399999999</v>
+        <v>2861.2670899999998</v>
       </c>
       <c r="I65">
-        <v>154.38949600000001</v>
+        <v>3329.79126</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>11.231812000000019</v>
+        <v>468.52417000000014</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>37.647091888888852</v>
+        <v>-292.84161066666593</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>25.97486425000001</v>
+        <v>-886.26257195370363</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>1417.3035276904409</v>
+        <v>85756.208937847143</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>674.69357280592862</v>
+        <v>785461.34644599375</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>977.87810122116434</v>
+        <v>259534.55904450448</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>126.15360080334443</v>
+        <v>219514.89787418902</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>1384.3367575723162</v>
+        <v>174505.37246683394</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>11.231812000000019</v>
+        <v>468.52417000000014</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12595,46 +12595,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>78.035927000000001</v>
+        <v>2595.8459469999998</v>
       </c>
       <c r="I66">
-        <v>61.073261000000002</v>
+        <v>1978.7460940000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-16.962665999999999</v>
+        <v>-617.09985299999971</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-55.669143111111154</v>
+        <v>-1643.8867766666658</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-39.146892749999978</v>
+        <v>-1151.6837149537037</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>3099.0534947253745</v>
+        <v>2702363.7344995206</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1532.4792119800009</v>
+        <v>1326375.3792895637</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>2179.2739748550684</v>
+        <v>1893237.629914735</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>287.73203782755593</v>
+        <v>380812.22857262124</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>3148.2825831196988</v>
+        <v>3128595.310263033</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>16.962665999999999</v>
+        <v>617.09985299999971</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12662,46 +12662,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>74.307830999999993</v>
+        <v>2854.1357419999999</v>
       </c>
       <c r="I67">
-        <v>58.868125999999997</v>
+        <v>1960.03125</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-15.439704999999996</v>
+        <v>-894.10449199999994</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-57.87427811111116</v>
+        <v>-1662.6016206666659</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-42.874988749999986</v>
+        <v>-893.39391995370352</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3349.4320668822402</v>
+        <v>2764244.1490434241</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>1838.2646603126254</v>
+        <v>798152.69621024444</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>2481.3590229282613</v>
+        <v>1485358.179208773</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>238.38449048702489</v>
+        <v>799422.84261457797</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3400.6035071562869</v>
+        <v>3195150.5727370116</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>15.439704999999996</v>
+        <v>894.10449199999994</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12729,46 +12729,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>33.662567000000003</v>
+        <v>2127.3066410000001</v>
       </c>
       <c r="I68">
-        <v>28.079367000000001</v>
+        <v>1114.496216</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-5.5832000000000015</v>
+        <v>-1012.8104250000001</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-88.663037111111151</v>
+        <v>-2508.1366546666659</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-83.520252749999969</v>
+        <v>-1620.2230209537033</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>7861.1341497662734</v>
+        <v>6290749.4784824941</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>6975.6326194238773</v>
+        <v>2625122.6376283444</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>7405.1592691026308</v>
+        <v>4063740.7475887407</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>31.172122240000018</v>
+        <v>1025784.9569886809</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>7939.4252919714781</v>
+        <v>6932865.1275108345</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>5.5832000000000015</v>
+        <v>1012.8104250000001</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12796,46 +12796,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>16.537315</v>
+        <v>1595.251221</v>
       </c>
       <c r="I69">
-        <v>13.745196999999999</v>
+        <v>873.074341</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-2.7921180000000003</v>
+        <v>-722.17687999999998</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-102.99720711111115</v>
+        <v>-2749.5585296666659</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-100.64550474999999</v>
+        <v>-2152.2784409537035</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>10608.424672689125</v>
+        <v>7560072.1080627181</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>10129.51762638227</v>
+        <v>4632302.4873941047</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>10366.20589753807</v>
+        <v>5917815.5455419291</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>7.7959229259240015</v>
+        <v>521539.44600653439</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>10699.341800171313</v>
+        <v>8262493.3921590587</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>2.7921180000000003</v>
+        <v>722.17687999999998</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12863,46 +12863,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>12.677106999999999</v>
+        <v>1427.945923</v>
       </c>
       <c r="I70">
-        <v>6.5417730000000001</v>
+        <v>744.20929000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>-6.1353339999999994</v>
+        <v>-683.73663299999998</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-110.20063111111115</v>
+        <v>-2878.4235806666657</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-104.50571274999999</v>
+        <v>-2319.5837389537037</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>12144.179097287199</v>
+        <v>8285322.3097379087</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>10921.44399738551</v>
+        <v>5380468.722018444</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>11516.595499766494</v>
+        <v>6676744.531535292</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>37.642323291555989</v>
+        <v>467495.78330617666</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>12241.44122593568</v>
+        <v>9019933.2565921303</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>6.1353339999999994</v>
+        <v>683.73663299999998</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12930,46 +12930,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>12.181848</v>
+        <v>1292.3402100000001</v>
       </c>
       <c r="I71">
-        <v>3.8519079999999999</v>
+        <v>698.13738999999998</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-8.3299400000000006</v>
+        <v>-594.20282000000009</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-112.89049611111116</v>
+        <v>-2924.495480666666</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-105.00097174999998</v>
+        <v>-2455.1894519537036</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>12744.264112212804</v>
+        <v>8552673.8164397534</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>11025.204068444293</v>
+        <v>6027955.2449847274</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>11853.611793006265</v>
+        <v>7180190.4564190749</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>69.387900403600014</v>
+        <v>353076.99129595252</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>12843.895558086284</v>
+        <v>9298793.2282509692</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>8.3299400000000006</v>
+        <v>594.20282000000009</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12997,46 +12997,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>13.340185999999999</v>
+        <v>1009.65918</v>
       </c>
       <c r="I72">
-        <v>4.6216739999999996</v>
+        <v>928.56951900000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-8.7185120000000005</v>
+        <v>-81.089660999999978</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-112.12073011111116</v>
+        <v>-2694.0633516666658</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-103.84263374999998</v>
+        <v>-2737.8704819537033</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>12571.058120648628</v>
+        <v>7257977.3427934293</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>10783.292584136634</v>
+        <v>7495934.7759534037</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>11642.91191271071</v>
+        <v>7375996.5270414231</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>76.012451494144003</v>
+        <v>6575.5331210949171</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>12670.011532552739</v>
+        <v>7946536.2875615638</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>8.7185120000000005</v>
+        <v>81.089660999999978</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13064,46 +13064,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>14.290248999999999</v>
+        <v>1061.9163820000001</v>
       </c>
       <c r="I73">
-        <v>6.6787669999999997</v>
+        <v>1060.384033</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-7.6114819999999996</v>
+        <v>-1.5323490000000675</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-110.06363711111116</v>
+        <v>-2562.2488376666661</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-102.89257074999998</v>
+        <v>-2685.6132799537036</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>12114.004214126366</v>
+        <v>6565119.1061241813</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>10586.881115543751</v>
+        <v>7212518.6894636899</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>11324.730568457328</v>
+        <v>6881209.5049835397</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>57.934658236323997</v>
+        <v>2.3480934578012067</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>12211.145674174779</v>
+        <v>7220751.6312049953</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>7.6114819999999996</v>
+        <v>1.5323490000000675</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13131,46 +13131,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>129.130325</v>
+        <v>4289.5698240000002</v>
       </c>
       <c r="I74">
-        <v>68.743026999999998</v>
+        <v>2457.8547359999998</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-60.387298000000001</v>
+        <v>-1831.7150880000004</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-47.999377111111158</v>
+        <v>-1164.7781346666661</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>11.94750525000002</v>
+        <v>542.0401620462967</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>2303.9402030546617</v>
+        <v>1356708.1029975582</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>142.74288169877804</v>
+        <v>293807.53727117559</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>-573.47281003173134</v>
+        <v>-631356.52886270289</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>3646.6257597408044</v>
+        <v>3355180.163606849</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>2346.4135216629506</v>
+        <v>1663261.4146336911</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>60.387298000000001</v>
+        <v>1831.7150880000004</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13198,46 +13198,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>347.829498</v>
+        <v>8750.03125</v>
       </c>
       <c r="I75">
-        <v>355.70748900000001</v>
+        <v>9511.0449219999991</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>7.8779910000000086</v>
+        <v>761.01367199999913</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>238.96508488888884</v>
+        <v>5888.4120513333328</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>230.64667825000004</v>
+        <v>5002.5015880462961</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>57104.31179595385</v>
+        <v>34673396.486287631</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>53197.89018775904</v>
+        <v>25025022.138405714</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>55116.503047351493</v>
+        <v>29456790.637865946</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>62.062742196081139</v>
+        <v>579141.80897092225</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>56894.017840821914</v>
+        <v>33218108.152786516</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>7.8779910000000086</v>
+        <v>761.01367199999913</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13265,46 +13265,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>278.585938</v>
+        <v>6425.984375</v>
       </c>
       <c r="I76">
-        <v>205.32270800000001</v>
+        <v>5385.8833009999998</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-73.263229999999993</v>
+        <v>-1040.1010740000002</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>88.580303888888849</v>
+        <v>1763.250430333334</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>161.40311825000003</v>
+        <v>2678.4547130462965</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>7846.4702370478972</v>
+        <v>3109052.0800706875</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>26050.966580823493</v>
+        <v>7174119.6498399191</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>14297.137263199265</v>
+        <v>4722786.425407229</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>5367.500870032899</v>
+        <v>1081810.2441359537</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>7768.6399007224927</v>
+        <v>2684202.6465762421</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>73.263229999999993</v>
+        <v>1040.1010740000002</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13332,46 +13332,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>213.24527</v>
+        <v>4303.1035160000001</v>
       </c>
       <c r="I77">
-        <v>194.82148699999999</v>
+        <v>4481.5659180000002</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>-18.423783000000014</v>
+        <v>178.46240200000011</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>78.079082888888834</v>
+        <v>858.93304733333434</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>96.062450250000026</v>
+        <v>555.57385404629667</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>6096.343184769973</v>
+        <v>737765.97980132792</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>9227.9943480337297</v>
+        <v>308662.30729985575</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>7500.4680155795122</v>
+        <v>477200.74347471073</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>339.43578003108951</v>
+        <v>31848.828927609644</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>6027.762652356224</v>
+        <v>538809.22519046452</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>18.423783000000014</v>
+        <v>178.46240200000011</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13399,46 +13399,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>228.51306199999999</v>
+        <v>5369.9428710000002</v>
       </c>
       <c r="I78">
-        <v>224.747131</v>
+        <v>5166.9428710000002</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>-3.7659309999999948</v>
+        <v>-203</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>108.00472688888884</v>
+        <v>1544.3100003333343</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>111.33024225000001</v>
+        <v>1622.4132090462967</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>11665.021030343469</v>
+        <v>2384893.3771295431</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>12394.422839443687</v>
+        <v>2632224.6208879026</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>12024.192408685085</v>
+        <v>2505508.9434030927</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>14.18223629676096</v>
+        <v>41209</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>11570.08105468688</v>
+        <v>2014733.8580151061</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>3.7659309999999948</v>
+        <v>203</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13466,46 +13466,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>107.19152800000001</v>
+        <v>2822.16626</v>
       </c>
       <c r="I79">
-        <v>91.320808</v>
+        <v>2673.9582519999999</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-15.870720000000006</v>
+        <v>-148.20800800000006</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-25.421596111111157</v>
+        <v>-948.67461866666599</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-9.9912917499999736</v>
+        <v>-925.36340195370349</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>646.25754883646186</v>
+        <v>899983.53210234409</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>99.825910833617542</v>
+        <v>856297.42567533138</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>253.9945834967763</v>
+        <v>877868.77247651841</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>251.87975331840019</v>
+        <v>21965.613635328082</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>668.84365175713697</v>
+        <v>1152555.5722699831</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>15.870720000000006</v>
+        <v>148.20800800000006</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13533,46 +13533,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>47.511814000000001</v>
+        <v>2198.2114259999998</v>
       </c>
       <c r="I80">
-        <v>33.845565999999998</v>
+        <v>1824.7143550000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>-13.666248000000003</v>
+        <v>-373.49707099999978</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-82.896838111111151</v>
+        <v>-1797.9185156666658</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-69.671005749999978</v>
+        <v>-1549.3182359537036</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>6871.8857688197704</v>
+        <v>3232510.9889770267</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>4854.0490422165303</v>
+        <v>2400386.9962586961</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>5775.5060846960423</v>
+        <v>2785547.9430811801</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>186.7663343975041</v>
+        <v>139500.06204557887</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>6945.0978625918851</v>
+        <v>3697218.7046554647</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>13.666248000000003</v>
+        <v>373.49707099999978</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13600,46 +13600,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>23.676275</v>
+        <v>1762.9726559999999</v>
       </c>
       <c r="I81">
-        <v>16.140276</v>
+        <v>1258.253418</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>-7.5359990000000003</v>
+        <v>-504.7192379999999</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-100.60212811111116</v>
+        <v>-2364.3794526666661</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-93.506544749999975</v>
+        <v>-1984.5570059537035</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>10120.788180484422</v>
+        <v>5590290.1961923232</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>8743.4739110837472</v>
+        <v>3938466.5098799281</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>9406.9573941668459</v>
+        <v>4692245.8075226154</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>56.791280928001008</v>
+        <v>254741.50920730055</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>10209.59564747066</v>
+        <v>6196496.2187122591</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>7.5359990000000003</v>
+        <v>504.7192379999999</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13667,46 +13667,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>15.17597</v>
+        <v>1542.951904</v>
       </c>
       <c r="I82">
-        <v>7.4376509999999998</v>
+        <v>802.32867399999998</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-7.7383189999999997</v>
+        <v>-740.62323000000004</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-109.30475311111115</v>
+        <v>-2820.304196666666</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-102.00684974999999</v>
+        <v>-2204.5777579537034</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>11947.529052680964</v>
+        <v>7954115.7617356088</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>10405.397395919072</v>
+        <v>4860163.0908641778</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>11149.833527565959</v>
+        <v>6217579.902634819</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>59.881580945760994</v>
+        <v>548522.76881563291</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>12044.002063965971</v>
+        <v>8674208.8594434708</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>7.7383189999999997</v>
+        <v>740.62323000000004</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13734,46 +13734,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>12.272978999999999</v>
+        <v>1405.4724120000001</v>
       </c>
       <c r="I83">
-        <v>4.0017649999999998</v>
+        <v>691.17334000000005</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-8.2712140000000005</v>
+        <v>-714.29907200000002</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-112.74063911111115</v>
+        <v>-2931.4595306666661</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-104.90984074999997</v>
+        <v>-2342.0572499537034</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>12710.451707181805</v>
+        <v>8593454.9799364302</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>11006.074686190355</v>
+        <v>5485232.1620607041</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>11827.60249519989</v>
+        <v>6865646.0467437459</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>68.412981033796015</v>
+        <v>510223.16426006122</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>12809.951154322491</v>
+        <v>9341313.9667463712</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>8.2712140000000005</v>
+        <v>714.29907200000002</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13801,46 +13801,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>13.853006000000001</v>
+        <v>1983.9708250000001</v>
       </c>
       <c r="I84">
-        <v>4.1166780000000003</v>
+        <v>1086.6118160000001</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-9.7363280000000003</v>
+        <v>-897.35900900000001</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-112.62572611111116</v>
+        <v>-2536.0210546666658</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-103.32981374999997</v>
+        <v>-1763.5588369537033</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>12684.554182055026</v>
+        <v>6431402.7897126283</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>10677.050409609683</v>
+        <v>3110139.7713974989</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>11637.595302519625</v>
+        <v>4472422.3416580493</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>94.796082923584009</v>
+        <v>805253.19103346206</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>12783.95241023109</v>
+        <v>7080483.7829148965</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>9.7363280000000003</v>
+        <v>897.35900900000001</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13868,46 +13868,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>201.41578699999999</v>
+        <v>7773.7163090000004</v>
       </c>
       <c r="I85">
-        <v>138.07136499999999</v>
+        <v>5337.0673829999996</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-63.344422000000009</v>
+        <v>-2436.6489260000008</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>21.32896088888883</v>
+        <v>1714.4345123333337</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>84.232967250000016</v>
+        <v>4026.1866470462969</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>454.92457259974935</v>
+        <v>2939285.6970796357</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>7095.1927717395756</v>
+        <v>16210178.916853903</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>1796.6016640303039</v>
+        <v>6902633.3407917982</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>4012.515798514085</v>
+        <v>5937257.988576957</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>436.33132266129786</v>
+        <v>2526630.1666290527</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>63.344422000000009</v>
+        <v>2436.6489260000008</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13935,46 +13935,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>191.89961199999999</v>
+        <v>7034.4941410000001</v>
       </c>
       <c r="I86">
-        <v>142.52198799999999</v>
+        <v>5738.3837890000004</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-49.377623999999997</v>
+        <v>-1296.1103519999997</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>25.779583888888837</v>
+        <v>2115.7509183333345</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>74.716792250000012</v>
+        <v>3286.9644790462967</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>664.58694548425694</v>
+        <v>4476401.9484283486</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>5582.5990441296617</v>
+        <v>10804135.486512093</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>1926.1678137175545</v>
+        <v>6954398.1150712529</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>2438.1497518853757</v>
+        <v>1679902.0445615631</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>642.07344760180877</v>
+        <v>3963500.1551772733</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>49.377623999999997</v>
+        <v>1296.1103519999997</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -14002,46 +14002,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>121.149422</v>
+        <v>4465.8266599999997</v>
       </c>
       <c r="I87">
-        <v>144.42495700000001</v>
+        <v>5494.9433589999999</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>23.275535000000005</v>
+        <v>1029.1166990000002</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>27.68255288888885</v>
+        <v>1872.310488333334</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>3.9666022500000224</v>
+        <v>718.29699804629627</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>766.32373444612836</v>
+        <v>3505546.5647230074</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>15.733933409705241</v>
+        <v>515950.57740232092</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>109.80567657481113</v>
+        <v>1344875.0031804289</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>541.75052953622526</v>
+        <v>1059081.1801606568</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>742.13404194783902</v>
+        <v>3053454.6286250059</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>23.275535000000005</v>
+        <v>1029.1166990000002</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14069,46 +14069,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>188.69996599999999</v>
+        <v>4143.2309569999998</v>
       </c>
       <c r="I88">
-        <v>128.415314</v>
+        <v>3571.7241210000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-60.284651999999994</v>
+        <v>-571.50683599999957</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>11.672909888888839</v>
+        <v>-50.908749666665699</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>71.51714625000001</v>
+        <v>395.70129504629631</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>136.25682527411885</v>
+        <v>2591.700792623235</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>5114.7022077438905</v>
+        <v>156579.51490131606</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>834.81320368673448</v>
+        <v>-20144.658172287323</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>3634.2392667611034</v>
+        <v>326620.0635947304</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>126.16892707628342</v>
+        <v>30907.588230024234</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>60.284651999999994</v>
+        <v>571.50683599999957</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14136,46 +14136,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>378.12106299999999</v>
+        <v>7877.7016599999997</v>
       </c>
       <c r="I89">
-        <v>375.33444200000002</v>
+        <v>6436.5395509999998</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-2.7866209999999683</v>
+        <v>-1441.1621089999999</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>258.59203788888885</v>
+        <v>2813.906680333334</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>260.93824325000003</v>
+        <v>4130.1719980462967</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>66869.842059528528</v>
+        <v>7918070.8056245632</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>68088.766790396185</v>
+        <v>17058320.733445738</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>67476.552085164105</v>
+        <v>11621918.576228147</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>7.765256597640823</v>
+        <v>2076948.2244173274</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>66642.260070306729</v>
+        <v>7230774.1833887752</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>2.7866209999999683</v>
+        <v>1441.1621089999999</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14203,46 +14203,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>378.63150000000002</v>
+        <v>8073.236328</v>
       </c>
       <c r="I90">
-        <v>425.14373799999998</v>
+        <v>9411.5224610000005</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>46.512237999999968</v>
+        <v>1338.2861330000005</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>308.40133388888881</v>
+        <v>5788.8895903333341</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>261.44868025000005</v>
+        <v>4325.706666046297</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>95111.382744445873</v>
+        <v>33511242.689069636</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>68355.41240446677</v>
+        <v>18711738.16067737</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>80631.1217325896</v>
+        <v>25041038.28991092</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>2163.388283768641</v>
+        <v>1791009.7737800952</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>94839.927169383198</v>
+        <v>32080814.427648302</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>46.512237999999968</v>
+        <v>1338.2861330000005</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14270,46 +14270,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>216.92254600000001</v>
+        <v>5383.9477539999998</v>
       </c>
       <c r="I91">
-        <v>238.397232</v>
+        <v>5637.3295900000003</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>21.474685999999991</v>
+        <v>253.38183600000048</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>121.65482788888885</v>
+        <v>2014.6967193333344</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>99.739726250000032</v>
+        <v>1636.4180920462964</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>14799.897148675167</v>
+        <v>4059002.8708925005</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>9948.012992424945</v>
+        <v>2677864.1719764411</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>12133.819230628644</v>
+        <v>3296886.1615033876</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>461.16213879859561</v>
+        <v>64202.354814731138</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>14692.933737112955</v>
+        <v>3571343.7680437886</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>21.474685999999991</v>
+        <v>253.38183600000048</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14337,46 +14337,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>129.268326</v>
+        <v>4678.4243159999996</v>
       </c>
       <c r="I92">
-        <v>172.00645399999999</v>
+        <v>5607.1303710000002</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>42.738127999999989</v>
+        <v>928.70605500000056</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>55.264049888888835</v>
+        <v>1984.4975003333343</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>12.085506250000023</v>
+        <v>930.89465404629618</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>3054.1152101215939</v>
+        <v>3938230.3288292522</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>146.05946131878963</v>
+        <v>866564.85693197348</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>667.89402033247904</v>
+        <v>1847358.1140285388</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>1826.5475849443831</v>
+        <v>862494.93659366411</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>3005.6308723777743</v>
+        <v>3458114.7970854896</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>42.738127999999989</v>
+        <v>928.70605500000056</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14404,46 +14404,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>35.726039999999998</v>
+        <v>2413.5383299999999</v>
       </c>
       <c r="I93">
-        <v>50.540484999999997</v>
+        <v>2252.694336</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>14.814444999999999</v>
+        <v>-160.84399399999984</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-66.201919111111152</v>
+        <v>-1369.9385346666659</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-81.456779749999981</v>
+        <v>-1333.9913319537036</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>4382.6940939941042</v>
+        <v>1876731.5887646517</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>6635.2069672400066</v>
+        <v>1779532.8737276162</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>5392.5951440610961</v>
+        <v>1827486.1305546905</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>219.46778065802496</v>
+        <v>25870.790405871983</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>4441.2007809310544</v>
+        <v>2234532.6517191147</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>14.814444999999999</v>
+        <v>160.84399399999984</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14471,46 +14471,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>16.702062999999999</v>
+        <v>1414.50415</v>
       </c>
       <c r="I94">
-        <v>13.544587</v>
+        <v>947.28631600000006</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>-3.1574759999999991</v>
+        <v>-467.21783399999993</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-103.19781711111116</v>
+        <v>-2675.3465546666657</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-100.48075674999998</v>
+        <v>-2333.0255119537032</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>10649.789456498349</v>
+        <v>7157479.1875667982</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>10096.382477052668</v>
+        <v>5443008.039426839</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>10369.394758272547</v>
+        <v>6241651.765354774</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>9.9696546905759948</v>
+        <v>218292.50440765149</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>10740.883287543169</v>
+        <v>7841362.7965579918</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>3.1574759999999991</v>
+        <v>467.21783399999993</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14538,46 +14538,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>12.915660000000001</v>
+        <v>1203.9017329999999</v>
       </c>
       <c r="I95">
-        <v>5.6462589999999997</v>
+        <v>702.44189500000005</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-7.2694010000000011</v>
+        <v>-501.45983799999988</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-111.09614511111116</v>
+        <v>-2920.190975666666</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-104.26715974999998</v>
+        <v>-2543.6279289537033</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>12342.353458549067</v>
+        <v>8527515.3343650345</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>10871.640602332016</v>
+        <v>6470043.0409533055</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>11583.679509909405</v>
+        <v>7427879.3235842958</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>52.844190898801017</v>
+        <v>251461.96912698611</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>12440.404383938436</v>
+        <v>9272559.508451093</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>7.2694010000000011</v>
+        <v>501.45983799999988</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14605,46 +14605,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>20.598504999999999</v>
+        <v>3014.4030760000001</v>
       </c>
       <c r="I96">
-        <v>9.5386799999999994</v>
+        <v>1288.143311</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-11.059825</v>
+        <v>-1726.259765</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-107.20372411111116</v>
+        <v>-2334.4895596666656</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-96.584314749999976</v>
+        <v>-733.1265859537034</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>11492.638463291236</v>
+        <v>5449841.5041926624</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>9328.5298557270635</v>
+        <v>537474.59103213286</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>10354.198231919721</v>
+        <v>1711476.360822987</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>122.319729030625</v>
+        <v>2979972.7762578554</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>11587.260822517526</v>
+        <v>6048581.2232573722</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>11.059825</v>
+        <v>1726.259765</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14672,46 +14672,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>110.34833500000001</v>
+        <v>5661.8881840000004</v>
       </c>
       <c r="I97">
-        <v>91.769264000000007</v>
+        <v>4434.1489259999998</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-18.579070999999999</v>
+        <v>-1227.7392580000005</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>-24.97314011111115</v>
+        <v>811.51605533333395</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>-6.834484749999973</v>
+        <v>1914.3585220462969</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>623.65772700918865</v>
+        <v>658558.30806377472</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>46.710181797982194</v>
+        <v>3664768.5509312823</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>170.67854524900179</v>
+        <v>1553532.676304762</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>345.18187922304094</v>
+        <v>1507343.6856343918</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>645.8488158583566</v>
+        <v>471446.0137594777</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>18.579070999999999</v>
+        <v>1227.7392580000005</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14739,46 +14739,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>245.034164</v>
+        <v>7470.9213870000003</v>
       </c>
       <c r="I98">
-        <v>245.854004</v>
+        <v>7605.4594729999999</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>0.81983999999999924</v>
+        <v>134.53808599999957</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>129.11159988888886</v>
+        <v>3982.826602333334</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>127.85134425000003</v>
+        <v>3723.3917250462969</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>16669.805225868527</v>
+        <v>15862907.74425409</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>16345.966226532015</v>
+        <v>13863645.938143238</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>16507.091604062596</v>
+        <v>14829623.613422194</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>0.67213762559999879</v>
+        <v>18100.496584543278</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>16556.27365629745</v>
+        <v>14883622.426959712</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>0.81983999999999924</v>
+        <v>134.53808599999957</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14806,46 +14806,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>145.25711100000001</v>
+        <v>4722.7724609999996</v>
       </c>
       <c r="I99">
-        <v>94.497482000000005</v>
+        <v>4712.3051759999998</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-50.759629000000004</v>
+        <v>-10.46728499999972</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>-22.244922111111151</v>
+        <v>1089.672305333334</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>28.07429125000003</v>
+        <v>975.24279904629611</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>494.83655972940181</v>
+        <v>1187385.7330104625</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>788.16582918982829</v>
+        <v>951098.51709165436</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>-624.51042218090004</v>
+        <v>1062695.0690965108</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>2576.5399362176413</v>
+        <v>109.56405527121913</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>514.62454883157386</v>
+        <v>930791.79250329547</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>50.759629000000004</v>
+        <v>10.46728499999972</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14873,46 +14873,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>206.96637000000001</v>
+        <v>5833.1416019999997</v>
       </c>
       <c r="I100">
-        <v>235.22666899999999</v>
+        <v>5044.9755859999996</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>28.260298999999975</v>
+        <v>-788.16601600000013</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>118.48426488888883</v>
+        <v>1422.3427153333337</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>89.783550250000033</v>
+        <v>2085.6119400462962</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>14038.521026260374</v>
+        <v>2023058.7998618006</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>8061.0858954942814</v>
+        <v>4349777.1644636756</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>10637.937950485864</v>
+        <v>2966454.9499370707</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>798.64449956939961</v>
+        <v>621205.6687773125</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>13934.350345756728</v>
+        <v>1683365.9258243472</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>28.260298999999975</v>
+        <v>788.16601600000013</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14940,46 +14940,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>115.32410400000001</v>
+        <v>3009.046875</v>
       </c>
       <c r="I101">
-        <v>107.56841300000001</v>
+        <v>3612.046143</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>-7.7556909999999988</v>
+        <v>602.99926800000003</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-9.1739911111111496</v>
+        <v>-10.586727666665865</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-1.8587157499999734</v>
+        <v>-738.48278695370345</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>84.162112906746387</v>
+        <v>112.07880268814849</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>3.4548242392979636</v>
+        <v>545356.82662690897</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>17.051841768582051</v>
+        <v>7818.1161519992866</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>60.15074288748098</v>
+        <v>363608.11720853584</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>92.436817154445023</v>
+        <v>18355.783908078516</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>7.7556909999999988</v>
+        <v>602.99926800000003</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -15007,46 +15007,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>185.117279</v>
+        <v>3521.0051269999999</v>
       </c>
       <c r="I102">
-        <v>131.51713599999999</v>
+        <v>2506.0534670000002</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-53.600143000000003</v>
+        <v>-1014.9516599999997</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>14.774731888888837</v>
+        <v>-1116.5794036666657</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>67.934459250000018</v>
+        <v>-226.52453495370355</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>218.29270238854872</v>
+        <v>1246749.5646926069</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>4615.0907535899132</v>
+        <v>51313.36493599166</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>1003.7134214353945</v>
+        <v>252932.63015447507</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>2872.9753296204494</v>
+        <v>1030126.872136755</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>205.47262235501449</v>
+        <v>1541263.1426367254</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>53.600143000000003</v>
+        <v>1014.9516599999997</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15074,46 +15074,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>164.96159399999999</v>
+        <v>3864.8774410000001</v>
       </c>
       <c r="I103">
-        <v>210.227768</v>
+        <v>3726.0832519999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>45.266174000000007</v>
+        <v>-138.79418900000019</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>93.485363888888841</v>
+        <v>103.45038133333401</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>47.778774250000012</v>
+        <v>117.34777904629664</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>8739.5132614379618</v>
+        <v>10701.981398012222</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>2282.8112688324641</v>
+        <v>13770.501247098457</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>4466.6160969263228</v>
+        <v>12139.672490959209</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>2049.0265085982765</v>
+        <v>19263.826900167773</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>8657.3623948451823</v>
+        <v>459.94849990231472</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>45.266174000000007</v>
+        <v>138.79418900000019</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15141,46 +15141,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>52.889575999999998</v>
+        <v>2077.1223140000002</v>
       </c>
       <c r="I104">
-        <v>63.998553999999999</v>
+        <v>2238.8271479999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>11.108978</v>
+        <v>161.70483399999966</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-52.743850111111158</v>
+        <v>-1383.805722666666</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-64.293243749999988</v>
+        <v>-1670.4073479537033</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>2781.9137245433603</v>
+        <v>1914918.2780850139</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>4133.6211918969129</v>
+        <v>2790260.7080977242</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>3391.0732115071337</v>
+        <v>2311519.2472827835</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>123.40939220448401</v>
+        <v>26148.453338967447</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>2828.566123366621</v>
+        <v>2276183.2756102253</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>11.108978</v>
+        <v>161.70483399999966</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15208,46 +15208,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>18.399108999999999</v>
+        <v>1526.7982179999999</v>
       </c>
       <c r="I105">
-        <v>18.489356999999998</v>
+        <v>1157.7342530000001</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>9.0247999999998996E-2</v>
+        <v>-369.06396499999983</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-98.253047111111158</v>
+        <v>-2464.8986176666658</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-98.783710749999983</v>
+        <v>-2220.7314439537035</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>9653.6612666182282</v>
+        <v>6075725.1953750402</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>9758.2215095396623</v>
+        <v>4931648.1461647013</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>9705.8005861301262</v>
+        <v>5473877.866410383</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>8.1447015039998183E-3</v>
+        <v>136208.2102615211</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>9740.3995895856333</v>
+        <v>6707040.2602376798</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>9.0247999999998996E-2</v>
+        <v>369.06396499999983</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15275,46 +15275,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>13.226535</v>
+        <v>1426.6881100000001</v>
       </c>
       <c r="I106">
-        <v>7.6130319999999996</v>
+        <v>832.49157700000001</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>-5.6135030000000006</v>
+        <v>-594.19653300000004</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-109.12937211111115</v>
+        <v>-2790.1412936666657</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-103.95628474999998</v>
+        <v>-2320.8415519537034</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>11909.219857365364</v>
+        <v>7784888.4386238949</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>10806.909139023079</v>
+        <v>5386305.5092748748</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>11344.684081771378</v>
+        <v>6475475.8501634579</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>31.511415931009008</v>
+        <v>353069.51982922014</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>12005.538387580045</v>
+        <v>8497447.036730554</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>5.6135030000000006</v>
+        <v>594.19653300000004</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15342,46 +15342,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>12.169079999999999</v>
+        <v>1389.721313</v>
       </c>
       <c r="I107">
-        <v>3.872052</v>
+        <v>658.05114700000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-8.2970279999999992</v>
+        <v>-731.67016599999999</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-112.87035211111116</v>
+        <v>-2964.5817236666658</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-105.01373974999998</v>
+        <v>-2357.8083489537034</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>12739.716385686215</v>
+        <v>8788744.7962984182</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>11027.885536280726</v>
+        <v>5559260.2103957888</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>11852.937782087089</v>
+        <v>6989915.5392168257</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>68.840673632783989</v>
+        <v>535341.23181446758</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>12839.330088094435</v>
+        <v>9544877.4943605401</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>8.2970279999999992</v>
+        <v>731.67016599999999</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15409,46 +15409,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>12.228267000000001</v>
+        <v>1810.553345</v>
       </c>
       <c r="I108">
-        <v>3.1110989999999998</v>
+        <v>1479.0920410000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-9.1171680000000013</v>
+        <v>-331.46130399999993</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-113.63130511111116</v>
+        <v>-2143.5408296666656</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-104.95455274999998</v>
+        <v>-1936.9763169537034</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>12912.073501254437</v>
+        <v>4594767.2884480571</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>11015.458142952528</v>
+        <v>3751877.2524395338</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>11926.122806335457</v>
+        <v>4151987.8214876237</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>83.122752340224025</v>
+        <v>109866.59604938037</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>13012.357474865978</v>
+        <v>5145809.2401580969</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>9.1171680000000013</v>
+        <v>331.46130399999993</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15476,46 +15476,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>15.441051</v>
+        <v>1895.904053</v>
       </c>
       <c r="I109">
-        <v>4.6879520000000001</v>
+        <v>1868.7163089999999</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-10.753098999999999</v>
+        <v>-27.187744000000066</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-112.05445211111116</v>
+        <v>-1753.916561666666</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-101.74176874999998</v>
+        <v>-1851.6256089537035</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>12556.200237921305</v>
+        <v>3076223.3052886198</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>10351.387508378471</v>
+        <v>3428517.395733173</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>11400.618154096619</v>
+        <v>3247596.8215500261</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>115.62913810380097</v>
+        <v>739.1734238095396</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>12655.095270089987</v>
+        <v>3529939.6152371378</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>10.753098999999999</v>
+        <v>27.187744000000066</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15543,46 +15543,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>58.736153000000002</v>
+        <v>3928.6525879999999</v>
       </c>
       <c r="I110">
-        <v>22.031079999999999</v>
+        <v>1918.775024</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-36.705072999999999</v>
+        <v>-2009.8775639999999</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-94.711324111111153</v>
+        <v>-1703.8578466666659</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>-58.446666749999977</v>
+        <v>181.12292604629647</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>8970.2349148799458</v>
+        <v>2903131.5616475674</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>3416.0128541855529</v>
+        <v>32805.514339572183</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>5535.5611977733515</v>
+        <v>-308607.71875520848</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>1347.2623839353289</v>
+        <v>4039607.8222705736</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>9053.8535774517259</v>
+        <v>3344343.5258371807</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>36.705072999999999</v>
+        <v>2009.8775639999999</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15610,46 +15610,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>201.57986500000001</v>
+        <v>5555.185547</v>
       </c>
       <c r="I111">
-        <v>165.08390800000001</v>
+        <v>4757.0766599999997</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-36.495957000000004</v>
+        <v>-798.10888700000032</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>48.341503888888852</v>
+        <v>1134.4437893333338</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>84.397045250000033</v>
+        <v>1807.6558850462966</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>2336.9009982394559</v>
+        <v>1286962.7111569734</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>7122.8612469305535</v>
+        <v>3267619.7987425099</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>4079.8800911636049</v>
+        <v>2050683.9920426221</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>1331.9548773458494</v>
+        <v>636977.79550837923</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>2294.5142555342909</v>
+        <v>1019185.1412642886</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>36.495957000000004</v>
+        <v>798.10888700000032</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA7496D-B89C-4BB9-9A35-770680817AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6264F1D1-14BC-4DA3-9AD2-AFAAF481CA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -220,10 +220,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</t>
+    <t xml:space="preserve"> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883</c:v>
+                  <c:v> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,328 +930,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5852.6108400000003</c:v>
+                  <c:v>6695.9804690000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2970.4782709999999</c:v>
+                  <c:v>3491.404297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3225.4018550000001</c:v>
+                  <c:v>3766.2177729999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4125.9516599999997</c:v>
+                  <c:v>5044.9438479999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3393.8339839999999</c:v>
+                  <c:v>4316.5932620000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3302.274414</c:v>
+                  <c:v>5475.1298829999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1682.1019289999999</c:v>
+                  <c:v>2056.030029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1530.719482</c:v>
+                  <c:v>1871.3280030000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2193.5073240000002</c:v>
+                  <c:v>2976.8432619999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2858.9011230000001</c:v>
+                  <c:v>3974.7485350000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6238.6474609999996</c:v>
+                  <c:v>6079.2973629999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7614.1318359999996</c:v>
+                  <c:v>9358.4306639999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6275.6533200000003</c:v>
+                  <c:v>8467.2050780000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3229.119385</c:v>
+                  <c:v>3790.8862300000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5118.783203</c:v>
+                  <c:v>7023.2099609999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5235.3081050000001</c:v>
+                  <c:v>7105.3559569999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4208.482422</c:v>
+                  <c:v>6173.8432620000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3389.2397460000002</c:v>
+                  <c:v>5655.1137699999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1869.802246</c:v>
+                  <c:v>2947.13501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1306.974731</c:v>
+                  <c:v>1974.820557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2496.8239749999998</c:v>
+                  <c:v>2941.7133789999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3022.1296390000002</c:v>
+                  <c:v>3256.9560550000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4604.0639650000003</c:v>
+                  <c:v>4440.9091799999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3041.6247560000002</c:v>
+                  <c:v>3769.0053710000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6492.8740230000003</c:v>
+                  <c:v>8896.6689449999994</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4915.1479490000002</c:v>
+                  <c:v>5129.560547</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5724.9047849999997</c:v>
+                  <c:v>8062.9653319999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6759.6235349999997</c:v>
+                  <c:v>8703.2783199999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4398.830078</c:v>
+                  <c:v>5850.8442379999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3684.6064449999999</c:v>
+                  <c:v>4791.904297</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1730.838745</c:v>
+                  <c:v>2364.2373050000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1242.9013669999999</c:v>
+                  <c:v>1974.215698</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2564.3747560000002</c:v>
+                  <c:v>2933.6137699999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4025.9177249999998</c:v>
+                  <c:v>4480.2446289999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7325.1508789999998</c:v>
+                  <c:v>8438.8447269999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8039.7099609999996</c:v>
+                  <c:v>9417.7324219999991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4432.484375</c:v>
+                  <c:v>5523.9492190000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3069.2543949999999</c:v>
+                  <c:v>3783.711182</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2882.1215820000002</c:v>
+                  <c:v>3907.5830080000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3101.3554690000001</c:v>
+                  <c:v>5193.3540039999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2657.6430660000001</c:v>
+                  <c:v>4210.6259769999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2049.8684079999998</c:v>
+                  <c:v>2717.7788089999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1523.7102050000001</c:v>
+                  <c:v>2032.0460210000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1435.6561280000001</c:v>
+                  <c:v>1930.1788329999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2629.8933109999998</c:v>
+                  <c:v>2948.5009770000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4200.7080079999996</c:v>
+                  <c:v>4616.6762699999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4591.2133789999998</c:v>
+                  <c:v>5139.3652339999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3089.8698730000001</c:v>
+                  <c:v>3537.2265619999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3016.7214359999998</c:v>
+                  <c:v>4509.8168949999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5309.6645509999998</c:v>
+                  <c:v>9142.7275389999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7491.9648440000001</c:v>
+                  <c:v>10526.754883</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4196.1850590000004</c:v>
+                  <c:v>5839.5068359999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4158.6645509999998</c:v>
+                  <c:v>5263.234375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2058.9868160000001</c:v>
+                  <c:v>2698.1745609999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1552.7576899999999</c:v>
+                  <c:v>2087.186279</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1435.0462649999999</c:v>
+                  <c:v>1945.6451420000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2049.1633299999999</c:v>
+                  <c:v>2825.1130370000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3789.1030270000001</c:v>
+                  <c:v>4115.2524409999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6346.1401370000003</c:v>
+                  <c:v>8862.8935550000006</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7702.2353519999997</c:v>
+                  <c:v>10294.089844</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5420.0966799999997</c:v>
+                  <c:v>6174.8183589999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2861.2670899999998</c:v>
+                  <c:v>4511.7373049999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2595.8459469999998</c:v>
+                  <c:v>2950.4116210000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2854.1357419999999</c:v>
+                  <c:v>3118.616943</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2127.3066410000001</c:v>
+                  <c:v>2253.068115</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1595.251221</c:v>
+                  <c:v>1986.7514650000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1427.945923</c:v>
+                  <c:v>1848.0439449999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1292.3402100000001</c:v>
+                  <c:v>1820.4916989999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1009.65918</c:v>
+                  <c:v>2330.5310060000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1061.9163820000001</c:v>
+                  <c:v>2369.6308589999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4289.5698240000002</c:v>
+                  <c:v>5236.8696289999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8750.03125</c:v>
+                  <c:v>10963.188477</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6425.984375</c:v>
+                  <c:v>7942.5981449999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4303.1035160000001</c:v>
+                  <c:v>6613.5727539999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5369.9428710000002</c:v>
+                  <c:v>7687.1376950000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2822.16626</c:v>
+                  <c:v>4657.7338870000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2198.2114259999998</c:v>
+                  <c:v>2892.2397460000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1762.9726559999999</c:v>
+                  <c:v>2281.3283689999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1542.951904</c:v>
+                  <c:v>2047.549072</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1405.4724120000001</c:v>
+                  <c:v>1881.2265620000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1983.9708250000001</c:v>
+                  <c:v>2755.061768</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7773.7163090000004</c:v>
+                  <c:v>8310.7724610000005</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7034.4941410000001</c:v>
+                  <c:v>6983.9541019999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4465.8266599999997</c:v>
+                  <c:v>4804.3959960000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4143.2309569999998</c:v>
+                  <c:v>5513.390625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7877.7016599999997</c:v>
+                  <c:v>9320.6953119999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8073.236328</c:v>
+                  <c:v>11449.222656</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5383.9477539999998</c:v>
+                  <c:v>7312.798828</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4678.4243159999996</c:v>
+                  <c:v>6311.4604490000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2413.5383299999999</c:v>
+                  <c:v>3056.2561040000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1414.50415</c:v>
+                  <c:v>2054.6359859999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1203.9017329999999</c:v>
+                  <c:v>1971.0048830000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3014.4030760000001</c:v>
+                  <c:v>3062.2509770000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5661.8881840000004</c:v>
+                  <c:v>6024.2065430000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7470.9213870000003</c:v>
+                  <c:v>9046.1875</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4722.7724609999996</c:v>
+                  <c:v>4679.2075199999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5833.1416019999997</c:v>
+                  <c:v>7020.2944340000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3009.046875</c:v>
+                  <c:v>3866.2360840000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3521.0051269999999</c:v>
+                  <c:v>4718.6152339999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3864.8774410000001</c:v>
+                  <c:v>5725.4326170000004</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2077.1223140000002</c:v>
+                  <c:v>2659.8376459999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1526.7982179999999</c:v>
+                  <c:v>2026.983154</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1426.6881100000001</c:v>
+                  <c:v>1929.0795900000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1389.721313</c:v>
+                  <c:v>1895.5198969999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1810.553345</c:v>
+                  <c:v>2363.0297850000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1895.904053</c:v>
+                  <c:v>2975.2160640000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3928.6525879999999</c:v>
+                  <c:v>3812.0229490000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5555.185547</c:v>
+                  <c:v>6479.826172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\NSantiam\USGS_14184100_flow_NORTH SANTIAM R AT GREENS BRIDGE  NR JEFFERSON  OR_23780883.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,328 +1296,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6456.1528319999998</c:v>
+                  <c:v>7731.4653319999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2734.970703</c:v>
+                  <c:v>3764.2907709999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3057.4772950000001</c:v>
+                  <c:v>4031.554443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3770.7221679999998</c:v>
+                  <c:v>5563.5078119999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3910.0839839999999</c:v>
+                  <c:v>4884.7182620000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5918.3823240000002</c:v>
+                  <c:v>7665.8681640000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1207.1254879999999</c:v>
+                  <c:v>2627.0671390000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>948.21063200000003</c:v>
+                  <c:v>1990.168091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1415.190186</c:v>
+                  <c:v>2384.7985840000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2796.0817870000001</c:v>
+                  <c:v>3398.7834469999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6244.2749020000001</c:v>
+                  <c:v>5645.6079099999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9231.7714840000008</c:v>
+                  <c:v>11827.931640999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8318.4638670000004</c:v>
+                  <c:v>10789.300781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2776.469482</c:v>
+                  <c:v>3880.3869629999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4550.9003910000001</c:v>
+                  <c:v>6301.9423829999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5305.9448240000002</c:v>
+                  <c:v>8257.7431639999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5046.5058589999999</c:v>
+                  <c:v>6898.2861329999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4450.8994140000004</c:v>
+                  <c:v>6224.9716799999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1565.618408</c:v>
+                  <c:v>3586.1628420000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>906.57287599999995</c:v>
+                  <c:v>2766.5927729999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1528.8350829999999</c:v>
+                  <c:v>2568.4582519999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3058.838135</c:v>
+                  <c:v>2841.3374020000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3991.3884280000002</c:v>
+                  <c:v>3978.67749</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3078.0751949999999</c:v>
+                  <c:v>4171.935547</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9415.8935550000006</c:v>
+                  <c:v>12011.785156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5623.0063479999999</c:v>
+                  <c:v>6274.9853519999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6355.2851559999999</c:v>
+                  <c:v>8751.96875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7887.6733400000003</c:v>
+                  <c:v>9398.6601559999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5001.1191410000001</c:v>
+                  <c:v>6719.7983400000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3360.4860840000001</c:v>
+                  <c:v>5210.1948240000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1439.779419</c:v>
+                  <c:v>3293.6625979999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>815.06927499999995</c:v>
+                  <c:v>2860.4638669999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1672.6705320000001</c:v>
+                  <c:v>2684.0275879999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3312.0261230000001</c:v>
+                  <c:v>3626.814453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7927.4311520000001</c:v>
+                  <c:v>5968.6997069999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8040.9814450000003</c:v>
+                  <c:v>9865.5234380000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4171.548828</c:v>
+                  <c:v>5165.4565430000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3069.951904</c:v>
+                  <c:v>4384.8510740000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3097.4514159999999</c:v>
+                  <c:v>4295.7241210000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2999.3784179999998</c:v>
+                  <c:v>5470.6733400000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3210.6345209999999</c:v>
+                  <c:v>4222.9233400000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1918.652832</c:v>
+                  <c:v>3116.2150879999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1061.767822</c:v>
+                  <c:v>2251.0541990000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>875.663635</c:v>
+                  <c:v>2185.2485350000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2395.8979490000002</c:v>
+                  <c:v>2879.4721679999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4433.5844729999999</c:v>
+                  <c:v>3710.0266109999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4333.9897460000002</c:v>
+                  <c:v>4405.0717770000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3731.8847660000001</c:v>
+                  <c:v>2784.196289</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2729.5832519999999</c:v>
+                  <c:v>3600.7658689999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8317.1464840000008</c:v>
+                  <c:v>11908.654296999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8893.7246090000008</c:v>
+                  <c:v>9075.5693360000005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4440.6704099999997</c:v>
+                  <c:v>6030.7529299999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4493.1948240000002</c:v>
+                  <c:v>5272.5742190000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1497.3298339999999</c:v>
+                  <c:v>3332.3615719999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1009.008362</c:v>
+                  <c:v>2467.9572750000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>699.10485800000004</c:v>
+                  <c:v>2476.669922</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1040.3927000000001</c:v>
+                  <c:v>2288.59375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3328.0407709999999</c:v>
+                  <c:v>2809.5463869999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6070.8334960000002</c:v>
+                  <c:v>6130.9331050000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9150.0664059999999</c:v>
+                  <c:v>10606.087890999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4149.6567379999997</c:v>
+                  <c:v>5744.9121089999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3329.79126</c:v>
+                  <c:v>5008.0356449999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1978.7460940000001</c:v>
+                  <c:v>3114.3237300000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1960.03125</c:v>
+                  <c:v>3157.3017580000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1114.496216</c:v>
+                  <c:v>2357.8728030000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>873.074341</c:v>
+                  <c:v>1993.559082</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>744.20929000000001</c:v>
+                  <c:v>1708.6188959999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>698.13738999999998</c:v>
+                  <c:v>1607.1839600000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>928.56951900000001</c:v>
+                  <c:v>1578.5704350000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1060.384033</c:v>
+                  <c:v>1602.200928</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2457.8547359999998</c:v>
+                  <c:v>3245.6198730000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9511.0449219999991</c:v>
+                  <c:v>10816.071289</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5385.8833009999998</c:v>
+                  <c:v>7089.7407229999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4481.5659180000002</c:v>
+                  <c:v>7053.9790039999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5166.9428710000002</c:v>
+                  <c:v>8079.7070309999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2673.9582519999999</c:v>
+                  <c:v>4306.8090819999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1824.7143550000001</c:v>
+                  <c:v>3055.006836</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1258.253418</c:v>
+                  <c:v>2420.9304200000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>802.32867399999998</c:v>
+                  <c:v>1992.960327</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>691.17334000000005</c:v>
+                  <c:v>1834.895874</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1086.6118160000001</c:v>
+                  <c:v>1755.045288</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5337.0673829999996</c:v>
+                  <c:v>4155.1914059999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5738.3837890000004</c:v>
+                  <c:v>4667.6010740000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5494.9433589999999</c:v>
+                  <c:v>7449.6606449999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3571.7241210000002</c:v>
+                  <c:v>5269.7221680000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6436.5395509999998</c:v>
+                  <c:v>7626.1015619999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9411.5224610000005</c:v>
+                  <c:v>10718.837890999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5637.3295900000003</c:v>
+                  <c:v>7868.5170900000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5607.1303710000002</c:v>
+                  <c:v>7053.4711909999996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2252.694336</c:v>
+                  <c:v>3840.7082519999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>947.28631600000006</c:v>
+                  <c:v>2523.6594239999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>702.44189500000005</c:v>
+                  <c:v>3196.7001949999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1288.143311</c:v>
+                  <c:v>2396.444336</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4434.1489259999998</c:v>
+                  <c:v>4457.8056640000004</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7605.4594729999999</c:v>
+                  <c:v>8033.3442379999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4712.3051759999998</c:v>
+                  <c:v>4622.6630859999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5044.9755859999996</c:v>
+                  <c:v>6787.6606449999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3612.046143</c:v>
+                  <c:v>4740.3745120000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2506.0534670000002</c:v>
+                  <c:v>4707.0249020000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3726.0832519999999</c:v>
+                  <c:v>6125.1625979999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2238.8271479999999</c:v>
+                  <c:v>4413.2910160000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1157.7342530000001</c:v>
+                  <c:v>3377.5207519999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>832.49157700000001</c:v>
+                  <c:v>2121.132568</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>658.05114700000001</c:v>
+                  <c:v>1941.7574460000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1479.0920410000001</c:v>
+                  <c:v>1797.482544</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1868.7163089999999</c:v>
+                  <c:v>1652.9334719999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1918.775024</c:v>
+                  <c:v>2287.5051269999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4757.0766599999997</c:v>
+                  <c:v>4750.248047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,7 +7927,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>3749.0466815833333</v>
+        <v>4592.2456156666658</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>89506500.522270426</v>
+        <v>130754399.99732108</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>124.89679128703756</v>
+        <v>-22.052258490742133</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7965,11 +7965,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>3747.5296619537035</v>
+        <v>4787.4420731481468</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>3622.6328706666659</v>
+        <v>4809.494331638889</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7979,12 +7979,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>828763.89372472616</v>
+        <v>1210688.8888640841</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>680.03266000925896</v>
+        <v>790.1372895833332</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -7997,13 +7997,13 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>-3.332776590270535E-2</v>
+        <v>4.6062716068000203E-3</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.86004810243323959</v>
+        <v>0.82506467748994006</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -8110,46 +8110,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5852.6108400000003</v>
+        <v>6695.9804690000001</v>
       </c>
       <c r="I4">
-        <v>6456.1528319999998</v>
+        <v>7731.4653319999998</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>603.54199199999948</v>
+        <v>1035.4848629999997</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>2833.5199613333339</v>
+        <v>2921.9710003611108</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>2105.0811780462968</v>
+        <v>1908.5383958518532</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>8028835.3712744582</v>
+        <v>8537914.5269513112</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>4431366.7661647853</v>
+        <v>3642518.8084407654</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>5964789.5382212717</v>
+        <v>5576693.8457548292</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>364262.93610732746</v>
+        <v>1072228.901502128</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>7336639.4773116475</v>
+        <v>8667272.9486606847</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>603.54199199999948</v>
+        <v>1035.4848629999997</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.37360969386012671</v>
+        <v>0.41823800784026122</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8209,46 +8209,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>2970.4782709999999</v>
+        <v>3491.404297</v>
       </c>
       <c r="I5">
-        <v>2734.970703</v>
+        <v>3764.2907709999999</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-235.50756799999999</v>
+        <v>272.88647399999991</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-887.66216766666594</v>
+        <v>-1045.203560638889</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-777.0513909537035</v>
+        <v>-1296.0377761481468</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>787944.12390668411</v>
+        <v>1092450.4831722118</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>603808.86418308539</v>
+        <v>1679713.9172030338</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>689759.1220823623</v>
+        <v>1354623.2983525505</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>55463.814585274624</v>
+        <v>74467.027692152624</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1025275.6453574077</v>
+        <v>1046838.5870874486</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>235.50756799999999</v>
+        <v>272.88647399999991</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.87558821945097021</v>
+        <v>0.82637722055568497</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>VG</v>
+        <v>G</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -8308,46 +8308,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>3225.4018550000001</v>
+        <v>3766.2177729999999</v>
       </c>
       <c r="I6">
-        <v>3057.4772950000001</v>
+        <v>4031.554443</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-167.92455999999993</v>
+        <v>265.33667000000014</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-565.15557566666575</v>
+        <v>-777.93988863888899</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-522.12780695370338</v>
+        <v>-1021.224300148147</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>319400.82470712037</v>
+        <v>605190.47033548704</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>272617.44679428375</v>
+        <v>1042899.0712130726</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>295083.44131049397</v>
+        <v>794451.11833257682</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>28198.657851193577</v>
+        <v>70403.548446688976</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>476172.26913840842</v>
+        <v>571366.10941098165</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>167.92455999999993</v>
+        <v>265.33667000000014</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>3747.5296619537035</v>
+        <v>4787.4420731481468</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8404,46 +8404,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>4125.9516599999997</v>
+        <v>5044.9438479999999</v>
       </c>
       <c r="I7">
-        <v>3770.7221679999998</v>
+        <v>5563.5078119999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-355.22949199999994</v>
+        <v>518.56396399999994</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>148.08929733333389</v>
+        <v>754.01348036111085</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>378.42199804629627</v>
+        <v>257.50177485185304</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>21930.439984680572</v>
+        <v>568536.3285662753</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>143203.20860535104</v>
+        <v>66307.164051854415</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>56040.247786152264</v>
+        <v>194159.80945520889</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>126187.99198657802</v>
+        <v>268908.58475939324</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>537.89233670749184</v>
+        <v>602278.03101967252</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>355.22949199999994</v>
+        <v>518.56396399999994</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2000.6155054765891</v>
+        <v>2484.2024738733285</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8500,46 +8500,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>3393.8339839999999</v>
+        <v>4316.5932620000003</v>
       </c>
       <c r="I8">
-        <v>3910.0839839999999</v>
+        <v>4884.7182620000003</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>516.25</v>
+        <v>568.125</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>287.45111333333398</v>
+        <v>75.223930361111343</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-353.69567795370358</v>
+        <v>-470.84881114814652</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>82628.142556573221</v>
+        <v>5658.6396989733284</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>125100.63260313</v>
+        <v>221698.60295962295</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-101670.21640898044</v>
+        <v>-35419.098180420238</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>266514.0625</v>
+        <v>322766.015625</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>26423.90761593105</v>
+        <v>9462.6569175414625</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>516.25</v>
+        <v>568.125</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>3622.6328706666659</v>
+        <v>4809.494331638889</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8596,46 +8596,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>3302.274414</v>
+        <v>5475.1298829999996</v>
       </c>
       <c r="I9">
-        <v>5918.3823240000002</v>
+        <v>7665.8681640000004</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>2616.1079100000002</v>
+        <v>2190.7382810000008</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>2295.7494533333343</v>
+        <v>2856.3738323611115</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>-445.25524795370347</v>
+        <v>687.68780985185276</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>5270465.5524803028</v>
+        <v>8158871.4701973032</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>198252.23583031396</v>
+        <v>472914.523818838</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>-1022194.4920835129</v>
+        <v>1964293.464894556</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>6844020.5967645692</v>
+        <v>4799334.2158388384</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>4712601.2803134928</v>
+        <v>8285336.7604966834</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>2616.1079100000002</v>
+        <v>2190.7382810000008</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>2433.4701054779885</v>
+        <v>2630.7375473654329</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8691,46 +8691,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1682.1019289999999</v>
+        <v>2056.030029</v>
       </c>
       <c r="I10">
-        <v>1207.1254879999999</v>
+        <v>2627.0671390000002</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-474.97644100000002</v>
+        <v>571.03711000000021</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-2415.5073826666658</v>
+        <v>-2182.4271926388888</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-2065.4277329537035</v>
+        <v>-2731.4120441481468</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>5834675.9157171659</v>
+        <v>4762988.4511696612</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>4265991.7200542754</v>
+        <v>7460611.7549175583</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>4989055.9373141453</v>
+        <v>5961107.9194502886</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>225602.61950502649</v>
+        <v>326083.38099715236</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>6453653.3670413978</v>
+        <v>4667219.8560956093</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>474.97644100000002</v>
+        <v>571.03711000000021</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>910.36470369007941</v>
+        <v>1100.3130867458062</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8786,46 +8786,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1530.719482</v>
+        <v>1871.3280030000001</v>
       </c>
       <c r="I11">
-        <v>948.21063200000003</v>
+        <v>1990.168091</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-582.50884999999994</v>
+        <v>118.84008799999992</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-2674.4222386666661</v>
+        <v>-2819.326240638889</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2216.8101799537035</v>
+        <v>-2916.1140701481468</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>7152534.310674822</v>
+        <v>7948600.4511550106</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>4914247.3739463715</v>
+        <v>8503721.2701159902</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>5928686.4441708382</v>
+        <v>8221476.9186649444</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>339316.5603283224</v>
+        <v>14122.966515847726</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>7836187.0314609446</v>
+        <v>7824741.7312029507</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>582.50884999999994</v>
+        <v>118.84008799999992</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.93572871039151628</v>
+        <v>0.90905292505754853</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8882,46 +8882,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>2193.5073240000002</v>
+        <v>2976.8432619999999</v>
       </c>
       <c r="I12">
-        <v>1415.190186</v>
+        <v>2384.7985840000001</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-778.31713800000011</v>
+        <v>-592.04467799999975</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2207.4426846666656</v>
+        <v>-2424.6957476388889</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1554.0223379537033</v>
+        <v>-1810.598811148147</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>4872803.2060883762</v>
+        <v>5879149.4686181098</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>2414985.4268590938</v>
+        <v>3278268.0549310832</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>3430415.2417244911</v>
+        <v>4390151.2380709397</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>605777.56730451121</v>
+        <v>350516.90074812341</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>5439807.431091995</v>
+        <v>5772695.735945981</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>778.31713800000011</v>
+        <v>592.04467799999975</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>680.03266000925896</v>
+        <v>790.1372895833332</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8977,46 +8977,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>2858.9011230000001</v>
+        <v>3974.7485350000002</v>
       </c>
       <c r="I13">
-        <v>2796.0817870000001</v>
+        <v>3398.7834469999998</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-62.819336000000021</v>
+        <v>-575.96508800000038</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-826.55108366666582</v>
+        <v>-1410.7108846388892</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-888.62853895370336</v>
+        <v>-812.69353814814667</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>683186.69391053962</v>
+        <v>1990105.2000386373</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>789660.68024299352</v>
+        <v>660470.78694775316</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>734496.88184930943</v>
+        <v>1146475.6201412808</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>3946.2689754808985</v>
+        <v>331735.78259484819</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>905253.05875391793</v>
+        <v>1928372.7799756592</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>62.819336000000021</v>
+        <v>575.96508800000038</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9065,46 +9065,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6238.6474609999996</v>
+        <v>6079.2973629999997</v>
       </c>
       <c r="I14">
-        <v>6244.2749020000001</v>
+        <v>5645.6079099999997</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>5.6274410000005446</v>
+        <v>-433.68945299999996</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>2621.6420313333342</v>
+        <v>836.11357836111074</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>2491.1177990462961</v>
+        <v>1291.8552898518528</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>6873006.9404535713</v>
+        <v>699085.91591982124</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>6205667.8887252621</v>
+        <v>1668890.0899182146</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>6530819.1269823564</v>
+        <v>1080137.7491227626</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>31.668092208487128</v>
+        <v>188086.54164343918</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>6233736.7936938396</v>
+        <v>736448.60353964102</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>5.6274410000005446</v>
+        <v>433.68945299999996</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9142,7 +9142,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.37360969386012671</v>
+        <v>0.41823800784026122</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9157,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>7614.1318359999996</v>
+        <v>9358.4306639999995</v>
       </c>
       <c r="I15">
-        <v>9231.7714840000008</v>
+        <v>11827.931640999999</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1617.6396480000012</v>
+        <v>2469.5009769999997</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>5609.1386133333344</v>
+        <v>7018.4373093611102</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3866.6021740462961</v>
+        <v>4570.9885908518527</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>31462435.983587001</v>
+        <v>49258462.265432023</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>14950612.372339543</v>
+        <v>20893936.697697807</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>21688307.556841698</v>
+        <v>32081196.866698612</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>2616758.030781568</v>
+        <v>6098435.075403953</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>30076908.362681687</v>
+        <v>49568493.35503076</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>1617.6396480000012</v>
+        <v>2469.5009769999997</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9245,46 +9245,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>6275.6533200000003</v>
+        <v>8467.2050780000009</v>
       </c>
       <c r="I16">
-        <v>8318.4638670000004</v>
+        <v>10789.300781</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2042.810547</v>
+        <v>2322.095702999999</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>4695.830996333334</v>
+        <v>5979.8064493611109</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>2528.1236580462969</v>
+        <v>3679.763004851854</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>22050828.746124912</v>
+        <v>35758085.171820737</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>6391409.2303733891</v>
+        <v>13540655.771876346</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>11871641.436017415</v>
+        <v>22004270.548533536</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>4173074.9309344394</v>
+        <v>5392128.4538910594</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>20893439.506862219</v>
+        <v>36022307.949017115</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>2042.810547</v>
+        <v>2322.095702999999</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9312,46 +9312,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>3229.119385</v>
+        <v>3790.8862300000001</v>
       </c>
       <c r="I17">
-        <v>2776.469482</v>
+        <v>3880.3869629999999</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-452.64990299999999</v>
+        <v>89.500732999999855</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-846.16338866666592</v>
+        <v>-929.10736863888906</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-518.41027695370349</v>
+        <v>-996.55584314814678</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>715992.48031985515</v>
+        <v>863240.50245908054</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>268749.21525121556</v>
+        <v>993123.54851271375</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>438659.79666677053</v>
+        <v>925907.37712908408</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>204891.93468590939</v>
+        <v>8010.3812075372634</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>942957.873091719</v>
+        <v>822748.97284586693</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>452.64990299999999</v>
+        <v>89.500732999999855</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9379,46 +9379,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5118.783203</v>
+        <v>7023.2099609999996</v>
       </c>
       <c r="I18">
-        <v>4550.9003910000001</v>
+        <v>6301.9423829999996</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-567.88281199999983</v>
+        <v>-721.26757799999996</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>928.26752033333423</v>
+        <v>1492.4480513611106</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>1371.2535410462965</v>
+        <v>2235.7678878518527</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>861680.58930579713</v>
+        <v>2227401.1860115761</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>1880336.2738320071</v>
+        <v>4998658.0483495351</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>1272890.1242953497</v>
+        <v>3336767.4275202439</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>322490.88816502714</v>
+        <v>520226.91907398601</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>645404.52828837826</v>
+        <v>2293711.1885413579</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>567.88281199999983</v>
+        <v>721.26757799999996</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9446,46 +9446,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5235.3081050000001</v>
+        <v>7105.3559569999998</v>
       </c>
       <c r="I19">
-        <v>5305.9448240000002</v>
+        <v>8257.7431639999995</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>70.636719000000085</v>
+        <v>1152.3872069999998</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>1683.3119533333343</v>
+        <v>3448.2488323611105</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>1487.7784430462966</v>
+        <v>2317.9138838518529</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>2833539.1322348854</v>
+        <v>11890420.009879762</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>2213484.6955932626</v>
+        <v>5372724.7729531815</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>2504395.2370914882</v>
+        <v>7992743.8435057588</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>4989.5460710849729</v>
+        <v>1327996.2748572603</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>2428657.8172957851</v>
+        <v>12042989.661167558</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>70.636719000000085</v>
+        <v>1152.3872069999998</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9513,46 +9513,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>4208.482422</v>
+        <v>6173.8432620000003</v>
       </c>
       <c r="I20">
-        <v>5046.5058589999999</v>
+        <v>6898.2861329999996</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>838.02343699999983</v>
+        <v>724.44287099999929</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>1423.872988333334</v>
+        <v>2088.7918013611106</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>460.95276004629659</v>
+        <v>1386.4011888518535</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>2027414.2869052987</v>
+        <v>4363051.1894333931</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>212477.44699429869</v>
+        <v>1922108.2564498326</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>656338.18392761855</v>
+        <v>2895903.4366710484</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>702283.28096129268</v>
+        <v>524817.47334272158</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>1687339.1604928586</v>
+        <v>4455662.6450118525</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>838.02343699999983</v>
+        <v>724.44287099999929</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9580,46 +9580,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>3389.2397460000002</v>
+        <v>5655.1137699999999</v>
       </c>
       <c r="I21">
-        <v>4450.8994140000004</v>
+        <v>6224.9716799999997</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1061.6596680000002</v>
+        <v>569.85790999999972</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>828.26654333333454</v>
+        <v>1415.4773483611107</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-358.28991595370326</v>
+        <v>867.67169685185308</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>686025.4668053505</v>
+        <v>2003576.123723401</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>128371.66387411175</v>
+        <v>752854.17351777409</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-296759.55019816477</v>
+        <v>1228169.6327078464</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>1127121.2506578707</v>
+        <v>324738.03758956777</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>494729.00809366931</v>
+        <v>2066491.3705756424</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>1061.6596680000002</v>
+        <v>569.85790999999972</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9647,46 +9647,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>1869.802246</v>
+        <v>2947.13501</v>
       </c>
       <c r="I22">
-        <v>1565.618408</v>
+        <v>3586.1628420000002</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-304.18383799999992</v>
+        <v>639.02783200000022</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-2057.0144626666661</v>
+        <v>-1223.3314896388888</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1877.7274159537035</v>
+        <v>-1840.3070631481469</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>4231308.4996198332</v>
+        <v>1496539.9335421026</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3525860.2486241725</v>
+        <v>3386730.0866729575</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>3862512.4515624749</v>
+        <v>2251305.580953991</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>92527.807300410204</v>
+        <v>408356.57007062051</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>4760736.7201298233</v>
+        <v>1443071.7911878824</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>304.18383799999992</v>
+        <v>639.02783200000022</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9714,46 +9714,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1306.974731</v>
+        <v>1974.820557</v>
       </c>
       <c r="I23">
-        <v>906.57287599999995</v>
+        <v>2766.5927729999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-400.40185500000007</v>
+        <v>791.77221599999984</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-2716.0599946666662</v>
+        <v>-2042.9015586388891</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2440.5549309537037</v>
+        <v>-2812.6215161481468</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>7376981.8946286906</v>
+        <v>4173446.7782892026</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>5956308.3710024375</v>
+        <v>7910839.7930995002</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>6628693.6127498224</v>
+        <v>5745908.8792003244</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>160321.64548744107</v>
+        <v>626903.24202955037</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>8071035.4596563987</v>
+        <v>4083831.8939092555</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>400.40185500000007</v>
+        <v>791.77221599999984</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9781,46 +9781,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>2496.8239749999998</v>
+        <v>2941.7133789999998</v>
       </c>
       <c r="I24">
-        <v>1528.8350829999999</v>
+        <v>2568.4582519999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-967.98889199999985</v>
+        <v>-373.2551269999999</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-2093.797787666666</v>
+        <v>-2241.0360796388891</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1250.7056869537037</v>
+        <v>-1845.728694148147</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>4383989.1756378245</v>
+        <v>5022242.7102432409</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>1564264.7153783357</v>
+        <v>3406714.4124018243</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>2618724.8003657823</v>
+        <v>4136344.5968107698</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>937002.49503538734</v>
+        <v>139319.38983178604</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>4922605.6346785519</v>
+        <v>4923889.1985172313</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>967.98889199999985</v>
+        <v>373.2551269999999</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9848,46 +9848,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>3022.1296390000002</v>
+        <v>3256.9560550000001</v>
       </c>
       <c r="I25">
-        <v>3058.838135</v>
+        <v>2841.3374020000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>36.708495999999741</v>
+        <v>-415.61865299999999</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-563.79473566666593</v>
+        <v>-1968.1569296388889</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-725.40002295370323</v>
+        <v>-1530.4860181481467</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>317864.50396544568</v>
+        <v>3873641.6996855782</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>526205.19330123311</v>
+        <v>2342387.4517469695</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>408976.71419377648</v>
+        <v>3012236.6623337055</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>1347.5136785819971</v>
+        <v>172738.8647215344</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>474296.01929782372</v>
+        <v>3787323.3910646364</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>36.708495999999741</v>
+        <v>415.61865299999999</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9915,46 +9915,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>4604.0639650000003</v>
+        <v>4440.9091799999997</v>
       </c>
       <c r="I26">
-        <v>3991.3884280000002</v>
+        <v>3978.67749</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-612.67553700000008</v>
+        <v>-462.23168999999962</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>368.75555733333431</v>
+        <v>-830.81684163888895</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>856.53430304629683</v>
+        <v>-346.5328931481472</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>135980.661064218</v>
+        <v>690256.62435081869</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>733651.01229500549</v>
+        <v>120085.0460336252</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>315851.78429495625</v>
+        <v>287905.36380933021</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>375371.31363823847</v>
+        <v>213658.13524025574</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>59467.09777762249</v>
+        <v>654100.15095479565</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>612.67553700000008</v>
+        <v>462.23168999999962</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9982,46 +9982,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3041.6247560000002</v>
+        <v>3769.0053710000002</v>
       </c>
       <c r="I27">
-        <v>3078.0751949999999</v>
+        <v>4171.935547</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>36.450438999999733</v>
+        <v>402.93017599999985</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-544.557675666666</v>
+        <v>-637.55878463888894</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-705.90490595370329</v>
+        <v>-1018.4367021481467</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>296543.0621274818</v>
+        <v>406481.20387021714</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>498301.73624950671</v>
+        <v>1037213.3162823928</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>384405.93482784514</v>
+        <v>649313.26605321048</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>1328.6345032927015</v>
+        <v>162352.72673139087</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>448169.28332426737</v>
+        <v>378848.28373095935</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>36.450438999999733</v>
+        <v>402.93017599999985</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10049,46 +10049,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>6492.8740230000003</v>
+        <v>8896.6689449999994</v>
       </c>
       <c r="I28">
-        <v>9415.8935550000006</v>
+        <v>12011.785156</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>2923.0195320000003</v>
+        <v>3115.1162110000005</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>5793.2606843333342</v>
+        <v>7202.2908243611109</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>2745.3443610462969</v>
+        <v>4109.2268718518526</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>33561869.356642328</v>
+        <v>51872993.118676253</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>7536915.6607286995</v>
+        <v>16885745.484349363</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>15904495.551805729</v>
+        <v>29595846.994356707</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>8544043.1844535004</v>
+        <v>9703949.0080350004</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>32130349.223990969</v>
+        <v>52191132.978749417</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>2923.0195320000003</v>
+        <v>3115.1162110000005</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10116,46 +10116,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4915.1479490000002</v>
+        <v>5129.560547</v>
       </c>
       <c r="I29">
-        <v>5623.0063479999999</v>
+        <v>6274.9853519999997</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>707.85839899999974</v>
+        <v>1145.4248049999997</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>2000.373477333334</v>
+        <v>1465.4910203611107</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>1167.6182870462967</v>
+        <v>342.1184738518532</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>4001494.0488186544</v>
+        <v>2147663.9307590495</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>1363332.4642449282</v>
+        <v>117045.05015072116</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>2335672.6530567915</v>
+        <v>501371.55132953834</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>501063.51303484285</v>
+        <v>1311997.9839092873</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>3517412.7999031981</v>
+        <v>2212785.0064573213</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>707.85839899999974</v>
+        <v>1145.4248049999997</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10183,46 +10183,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5724.9047849999997</v>
+        <v>8062.9653319999998</v>
       </c>
       <c r="I30">
-        <v>6355.2851559999999</v>
+        <v>8751.96875</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>630.3803710000002</v>
+        <v>689.00341800000024</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>2732.652285333334</v>
+        <v>3942.474418361111</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>1977.3751230462963</v>
+        <v>3275.5232588518529</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>7467388.5125374934</v>
+        <v>15543104.539431781</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>3910012.3772423551</v>
+        <v>10729052.619279463</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>5403478.6489537442</v>
+        <v>12913666.65477025</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>397379.41214209789</v>
+        <v>474725.71001568303</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>6800388.7167286435</v>
+        <v>15717471.771469997</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>630.3803710000002</v>
+        <v>689.00341800000024</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10250,46 +10250,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>6759.6235349999997</v>
+        <v>8703.2783199999994</v>
       </c>
       <c r="I31">
-        <v>7887.6733400000003</v>
+        <v>9398.6601559999999</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>1128.0498050000006</v>
+        <v>695.38183600000048</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>4265.0404693333348</v>
+        <v>4589.1658243611109</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>3012.0938730462963</v>
+        <v>3915.8362468518526</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>18190570.205051113</v>
+        <v>21060442.963483997</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>9072709.5000430383</v>
+        <v>15333773.512158804</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>12846702.265973438</v>
+        <v>17970421.877847001</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>1272496.3625605393</v>
+        <v>483555.89783873153</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>17140789.674866721</v>
+        <v>21263332.20761992</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>1128.0498050000006</v>
+        <v>695.38183600000048</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10317,46 +10317,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>4398.830078</v>
+        <v>5850.8442379999997</v>
       </c>
       <c r="I32">
-        <v>5001.1191410000001</v>
+        <v>6719.7983400000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>602.28906300000017</v>
+        <v>868.9541020000006</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>1378.4862703333342</v>
+        <v>1910.3040083611113</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>651.3004160462965</v>
+        <v>1063.4021648518528</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1900224.3974975061</v>
+        <v>3649261.4043605286</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>424192.23194207891</v>
+        <v>1130824.1642116071</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>897808.68138220813</v>
+        <v>2031421.4180163778</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>362752.11540941818</v>
+        <v>755081.23138262751</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>1571486.5819755655</v>
+        <v>3734000.7420416316</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>602.28906300000017</v>
+        <v>868.9541020000006</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10384,46 +10384,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>3684.6064449999999</v>
+        <v>4791.904297</v>
       </c>
       <c r="I33">
-        <v>3360.4860840000001</v>
+        <v>5210.1948240000002</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-324.12036099999978</v>
+        <v>418.29052700000011</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-262.14678666666578</v>
+        <v>400.70049236111117</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-62.923216953703559</v>
+        <v>4.4622238518531958</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>68720.93775965838</v>
+        <v>160560.8845784369</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>3959.331231802847</v>
+        <v>19.911441704047572</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>16495.119131142856</v>
+        <v>1788.0152944630695</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>105054.00841477017</v>
+        <v>174966.96497793781</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>149802.73123520444</v>
+        <v>178719.88835280915</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>324.12036099999978</v>
+        <v>418.29052700000011</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10451,46 +10451,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>1730.838745</v>
+        <v>2364.2373050000001</v>
       </c>
       <c r="I34">
-        <v>1439.779419</v>
+        <v>3293.6625979999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-291.05932600000006</v>
+        <v>929.42529299999978</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-2182.8534516666659</v>
+        <v>-1515.8317336388891</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-2016.6909169537034</v>
+        <v>-2423.2047681481467</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>4764849.1914530778</v>
+        <v>2297745.8447066802</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>4067042.2545235693</v>
+        <v>5871921.3483759137</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>4402140.7290172055</v>
+        <v>3673170.6846640278</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>84715.531251574314</v>
+        <v>863831.37526813545</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>5325711.1838528775</v>
+        <v>2231377.1203738735</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>291.05932600000006</v>
+        <v>929.42529299999978</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10518,46 +10518,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1242.9013669999999</v>
+        <v>1974.215698</v>
       </c>
       <c r="I35">
-        <v>815.06927499999995</v>
+        <v>2860.4638669999999</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-427.83209199999999</v>
+        <v>886.24816899999996</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-2807.5635956666661</v>
+        <v>-1949.030464638889</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2504.6282949537035</v>
+        <v>-2813.2263751481469</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>7882413.3437127387</v>
+        <v>3798719.7520904839</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>6273162.8958826959</v>
+        <v>7914242.6378291817</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>7031903.2215886908</v>
+        <v>5483063.9090893706</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>183040.29894509647</v>
+        <v>785435.8170558525</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>8599323.9210526645</v>
+        <v>3713245.0069699301</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>427.83209199999999</v>
+        <v>886.24816899999996</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10585,46 +10585,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>2564.3747560000002</v>
+        <v>2933.6137699999999</v>
       </c>
       <c r="I36">
-        <v>1672.6705320000001</v>
+        <v>2684.0275879999999</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-891.70422400000007</v>
+        <v>-249.58618200000001</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-1949.9623386666658</v>
+        <v>-2125.4667436388891</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1183.1549059537033</v>
+        <v>-1853.8283031481469</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>3802353.1222183728</v>
+        <v>4517608.878314903</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>1399855.5314823166</v>
+        <v>3436679.3775531375</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>2307107.5074184225</v>
+        <v>3940250.4067578991</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>795136.42309944227</v>
+        <v>62293.26224533713</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>4305040.4091522386</v>
+        <v>4424352.4963310435</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>891.70422400000007</v>
+        <v>249.58618200000001</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10652,46 +10652,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>4025.9177249999998</v>
+        <v>4480.2446289999998</v>
       </c>
       <c r="I37">
-        <v>3312.0261230000001</v>
+        <v>3626.814453</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-713.89160199999969</v>
+        <v>-853.43017599999985</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-310.6067476666658</v>
+        <v>-1182.679878638889</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>278.38806304629634</v>
+        <v>-307.19744414814704</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>96476.551696063805</v>
+        <v>1398731.6953372972</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>77499.913646668661</v>
+        <v>94370.269691153924</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>-86469.210852032818</v>
+        <v>363316.23596330744</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>509641.21940612595</v>
+        <v>728343.06530739076</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>189663.3324411998</v>
+        <v>1347056.4726507512</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>713.89160199999969</v>
+        <v>853.43017599999985</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10719,46 +10719,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7325.1508789999998</v>
+        <v>8438.8447269999997</v>
       </c>
       <c r="I38">
-        <v>7927.4311520000001</v>
+        <v>5968.6997069999998</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>602.28027300000031</v>
+        <v>-2470.1450199999999</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>4304.7982813333347</v>
+        <v>1159.2053753611108</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3577.6212170462964</v>
+        <v>3651.4026538518528</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>18531288.242970433</v>
+        <v>1343757.1022660937</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>12799373.572659822</v>
+        <v>13332741.340556353</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>15400937.666402569</v>
+        <v>4232725.5839528935</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>362741.52724495489</v>
+        <v>6101616.4198308</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>17471576.466491256</v>
+        <v>1395369.5975332782</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>602.28027300000031</v>
+        <v>2470.1450199999999</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10786,46 +10786,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>8039.7099609999996</v>
+        <v>9417.7324219999991</v>
       </c>
       <c r="I39">
-        <v>8040.9814450000003</v>
+        <v>9865.5234380000002</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.2714840000007825</v>
+        <v>447.79101600000104</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>4418.3485743333349</v>
+        <v>5056.0291063611112</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>4292.1802990462966</v>
+        <v>4630.2903488518523</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>19521804.124313414</v>
+        <v>25563430.324370738</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>18422811.719521157</v>
+        <v>21439588.71467061</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>18964348.705072831</v>
+        <v>23410882.774697907</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>1.6166715622579899</v>
+        <v>200516.7940103132</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>18433728.21334343</v>
+        <v>25786910.348055661</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>1.2714840000007825</v>
+        <v>447.79101600000104</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10853,46 +10853,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4432.484375</v>
+        <v>5523.9492190000001</v>
       </c>
       <c r="I40">
-        <v>4171.548828</v>
+        <v>5165.4565430000002</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-260.93554700000004</v>
+        <v>-358.49267599999985</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>548.91595733333406</v>
+        <v>355.96221136111126</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>684.95471304629655</v>
+        <v>736.50714585185324</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>301308.72821517062</v>
+        <v>126709.09591709245</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>469162.95892433444</v>
+        <v>542442.77589084301</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>375982.57204178697</v>
+        <v>262168.7123206862</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>68087.35968818923</v>
+        <v>128516.99874564087</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>179792.25317459676</v>
+        <v>142894.93941737778</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>260.93554700000004</v>
+        <v>358.49267599999985</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10920,46 +10920,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>3069.2543949999999</v>
+        <v>3783.711182</v>
       </c>
       <c r="I41">
-        <v>3069.951904</v>
+        <v>4384.8510740000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>0.69750900000008187</v>
+        <v>601.13989200000015</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-552.68096666666588</v>
+        <v>-424.64325763888883</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-678.27526695370352</v>
+        <v>-1003.7308911481468</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>305456.25091560022</v>
+        <v>180321.89625816772</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>460057.33776111779</v>
+        <v>1007475.701845053</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>374869.83020606369</v>
+        <v>426227.55540993402</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>0.48651880508111423</v>
+        <v>361369.16975377186</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>459111.61807356752</v>
+        <v>162079.51259510306</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>0.69750900000008187</v>
+        <v>601.13989200000015</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10987,46 +10987,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>2882.1215820000002</v>
+        <v>3907.5830080000001</v>
       </c>
       <c r="I42">
-        <v>3097.4514159999999</v>
+        <v>4295.7241210000002</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>215.32983399999966</v>
+        <v>388.14111300000013</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-525.18145466666601</v>
+        <v>-513.77021063888878</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-865.40807995370324</v>
+        <v>-879.85906514814678</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>275815.56032579538</v>
+        <v>263959.82933992817</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>748931.14484915521</v>
+        <v>774151.97452337085</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>454496.27431037225</v>
+        <v>452045.37723369914</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>46366.937410467413</v>
+        <v>150653.52360087886</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>422601.72586224391</v>
+        <v>241786.54446476704</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>215.32983399999966</v>
+        <v>388.14111300000013</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11054,46 +11054,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>3101.3554690000001</v>
+        <v>5193.3540039999998</v>
       </c>
       <c r="I43">
-        <v>2999.3784179999998</v>
+        <v>5470.6733400000003</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-101.9770510000003</v>
+        <v>277.31933600000048</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-623.25445266666611</v>
+        <v>661.1790083611113</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-646.17419295370337</v>
+        <v>405.91193085185296</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>388446.11276882555</v>
+        <v>437157.6810973825</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>417541.08763936989</v>
+        <v>164764.49560787945</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>402730.94295668509</v>
+        <v>268380.44792257214</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>10399.318930656662</v>
+        <v>76906.014119481159</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>559730.28382947424</v>
+        <v>466804.96400398854</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>101.9770510000003</v>
+        <v>277.31933600000048</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11121,46 +11121,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>2657.6430660000001</v>
+        <v>4210.6259769999997</v>
       </c>
       <c r="I44">
-        <v>3210.6345209999999</v>
+        <v>4222.9233400000003</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>552.99145499999986</v>
+        <v>12.297363000000587</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-411.99834966666594</v>
+        <v>-586.5709916388887</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-1089.8865959537034</v>
+        <v>-576.81609614814715</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>169742.64012805634</v>
+        <v>344065.52823222923</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>1187852.7920395511</v>
+        <v>332716.80877558852</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>449031.47885674617</v>
+        <v>338343.58951089124</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>305799.54930301686</v>
+        <v>151.22513675378343</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>288256.39237969718</v>
+        <v>318681.40007518831</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>552.99145499999986</v>
+        <v>12.297363000000587</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11188,46 +11188,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>2049.8684079999998</v>
+        <v>2717.7788089999999</v>
       </c>
       <c r="I45">
-        <v>1918.652832</v>
+        <v>3116.2150879999999</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-131.21557599999983</v>
+        <v>398.43627900000001</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1703.9800386666659</v>
+        <v>-1693.2792436388891</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1697.6612539537036</v>
+        <v>-2069.6632641481469</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>2903547.9721744522</v>
+        <v>2867194.5969382883</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>2882053.7331756614</v>
+        <v>4283506.0269643618</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>2892780.8891549325</v>
+        <v>3504517.8465039684</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>17217.52738501173</v>
+        <v>158751.46842336585</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>3344790.4591415077</v>
+        <v>2792999.6358873644</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>131.21557599999983</v>
+        <v>398.43627900000001</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11255,46 +11255,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>1523.7102050000001</v>
+        <v>2032.0460210000001</v>
       </c>
       <c r="I46">
-        <v>1061.767822</v>
+        <v>2251.0541990000002</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-461.94238300000006</v>
+        <v>219.00817800000004</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-2560.8650486666656</v>
+        <v>-2558.4401326388888</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2223.8194569537036</v>
+        <v>-2755.3960521481467</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>6558029.7974825241</v>
+        <v>6545615.9122972954</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>4945372.9771258654</v>
+        <v>7592207.4041935923</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>5694901.5218576239</v>
+        <v>7049515.8411305752</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>213390.76521171874</v>
+        <v>47964.582030879705</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>7213316.6609515017</v>
+        <v>6433263.4481257545</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>461.94238300000006</v>
+        <v>219.00817800000004</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11322,46 +11322,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1435.6561280000001</v>
+        <v>1930.1788329999999</v>
       </c>
       <c r="I47">
-        <v>875.663635</v>
+        <v>2185.2485350000002</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-559.99249300000008</v>
+        <v>255.06970200000023</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-2746.969235666666</v>
+        <v>-2624.2457966388888</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2311.8735339537034</v>
+        <v>-2857.2632401481469</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>7545839.9816991072</v>
+        <v>6886666.001176876</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>5344759.2369955853</v>
+        <v>8163953.2235018872</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>6350645.4745227983</v>
+        <v>7498161.0478495862</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>313591.59221635514</v>
+        <v>65060.552878368922</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>8247614.4767708508</v>
+        <v>6771411.20997997</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>559.99249300000008</v>
+        <v>255.06970200000023</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11389,46 +11389,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>2629.8933109999998</v>
+        <v>2948.5009770000001</v>
       </c>
       <c r="I48">
-        <v>2395.8979490000002</v>
+        <v>2879.4721679999998</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-233.99536199999966</v>
+        <v>-69.028809000000365</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-1226.7349216666657</v>
+        <v>-1930.0221636388892</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-1117.6363509537036</v>
+        <v>-1838.9410961481467</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>1504878.5680365206</v>
+        <v>3724985.552137339</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>1249111.0129731102</v>
+        <v>3381704.3551025474</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>1371043.5414390098</v>
+        <v>3549197.0731923166</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>54753.829437510882</v>
+        <v>4764.976471958531</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>1826908.2874621621</v>
+        <v>3640349.1589510292</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>233.99536199999966</v>
+        <v>69.028809000000365</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11456,46 +11456,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>4200.7080079999996</v>
+        <v>4616.6762699999999</v>
       </c>
       <c r="I49">
-        <v>4433.5844729999999</v>
+        <v>3710.0266109999998</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>232.87646500000028</v>
+        <v>-906.64965900000016</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>810.95160233333399</v>
+        <v>-1099.4677206388892</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>453.17834604629616</v>
+        <v>-170.76580314814692</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>657642.50132700184</v>
+        <v>1208829.2687268746</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>205370.61332525653</v>
+        <v>29160.959524831662</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>367505.70586901397</v>
+        <v>187751.48835036234</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>54231.447950896356</v>
+        <v>822013.60416481656</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>470671.2037597695</v>
+        <v>1160824.0780759053</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>232.87646500000028</v>
+        <v>906.64965900000016</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11523,46 +11523,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>4591.2133789999998</v>
+        <v>5139.3652339999999</v>
       </c>
       <c r="I50">
-        <v>4333.9897460000002</v>
+        <v>4405.0717770000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-257.22363299999961</v>
+        <v>-734.29345699999976</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>711.3568753333343</v>
+        <v>-404.42255463888887</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>843.68371704629635</v>
+        <v>351.92316085185303</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>506028.60408400494</v>
+        <v>163557.60270064505</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>711802.21440905507</v>
+        <v>123849.91114395922</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>600160.21272766637</v>
+        <v>-142325.663748299</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>66163.997373718492</v>
+        <v>539186.88099301048</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>343935.43017958943</v>
+        <v>146207.04337642144</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>257.22363299999961</v>
+        <v>734.29345699999976</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11590,46 +11590,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>3089.8698730000001</v>
+        <v>3537.2265619999998</v>
       </c>
       <c r="I51">
-        <v>3731.8847660000001</v>
+        <v>2784.196289</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>642.01489300000003</v>
+        <v>-753.03027299999985</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>109.25189533333423</v>
+        <v>-2025.298042638889</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-657.65978895370336</v>
+        <v>-1250.215511148147</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>11935.976633925819</v>
+        <v>4101832.1615169151</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>432516.39800662966</v>
+        <v>1563038.8243154224</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>-71850.57842771268</v>
+        <v>2532059.0276051201</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>412183.12283380149</v>
+        <v>567054.59205445426</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>244.76276940220271</v>
+        <v>4012993.6717073238</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>642.01489300000003</v>
+        <v>753.03027299999985</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11657,46 +11657,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>3016.7214359999998</v>
+        <v>4509.8168949999999</v>
       </c>
       <c r="I52">
-        <v>2729.5832519999999</v>
+        <v>3600.7658689999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-287.13818399999991</v>
+        <v>-909.05102600000009</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-893.04961866666599</v>
+        <v>-1208.7284626388891</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-730.80822595370364</v>
+        <v>-277.62517814814692</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>797537.6214006776</v>
+        <v>1461024.4963933725</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>534080.66312159959</v>
+        <v>77075.739541790317</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>652648.00750641769</v>
+        <v>335573.45477285737</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>82448.336710817806</v>
+        <v>826373.76787165285</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>1036214.8935376335</v>
+        <v>1408200.4134914547</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>287.13818399999991</v>
+        <v>909.05102600000009</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11724,46 +11724,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5309.6645509999998</v>
+        <v>9142.7275389999995</v>
       </c>
       <c r="I53">
-        <v>8317.1464840000008</v>
+        <v>11908.654296999999</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>3007.4819330000009</v>
+        <v>2765.9267579999996</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>4694.5136133333344</v>
+        <v>7099.1599653611102</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>1562.1348890462964</v>
+        <v>4355.2854658518527</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>22038458.065772001</v>
+        <v>50398072.213785961</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>2440265.4115756848</v>
+        <v>18968511.489060391</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>7333463.5024907961</v>
+        <v>30918868.216894586</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>9044947.5773214214</v>
+        <v>7650350.8306203885</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>20881397.900328498</v>
+        <v>50711663.537137046</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>3007.4819330000009</v>
+        <v>2765.9267579999996</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11791,46 +11791,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>7491.9648440000001</v>
+        <v>10526.754883</v>
       </c>
       <c r="I54">
-        <v>8893.7246090000008</v>
+        <v>9075.5693360000005</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>1401.7597650000007</v>
+        <v>-1451.1855469999991</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>5271.0917383333344</v>
+        <v>4266.0750043611115</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>3744.4351820462966</v>
+        <v>5739.3128098518528</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>27784408.113925934</v>
+        <v>18199395.942834657</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>14020794.832546083</v>
+        <v>32939711.529329568</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>19737261.352808908</v>
+        <v>24484338.920318525</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>1964930.4387728572</v>
+        <v>2105939.4918216867</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>26483322.433004837</v>
+        <v>18388035.422413331</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1401.7597650000007</v>
+        <v>1451.1855469999991</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11858,46 +11858,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>4196.1850590000004</v>
+        <v>5839.5068359999996</v>
       </c>
       <c r="I55">
-        <v>4440.6704099999997</v>
+        <v>6030.7529299999997</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>244.48535099999935</v>
+        <v>191.24609400000008</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>818.03753933333383</v>
+        <v>1221.2585983611107</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>448.65539704629691</v>
+        <v>1052.0647628518527</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>669185.41575853573</v>
+        <v>1491472.5640709447</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>201291.66529877033</v>
+        <v>1106840.2652345251</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>367016.95700837264</v>
+        <v>1284843.1376655679</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>59773.086853592882</v>
+        <v>36575.068470256869</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>480444.09660217917</v>
+        <v>1545821.8867656884</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>244.48535099999935</v>
+        <v>191.24609400000008</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11925,46 +11925,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>4158.6645509999998</v>
+        <v>5263.234375</v>
       </c>
       <c r="I56">
-        <v>4493.1948240000002</v>
+        <v>5272.5742190000001</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>334.53027300000031</v>
+        <v>9.3398440000000846</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>870.56195333333426</v>
+        <v>463.0798873611111</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>411.13488904629639</v>
+        <v>475.79230185185315</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>757878.11459155043</v>
+        <v>214442.98207837934</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>169031.89699111044</v>
+        <v>226378.31450148494</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>357918.39209162747</v>
+        <v>220329.84554883992</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>111910.50355345474</v>
+        <v>87.232685944337575</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>556016.53388952988</v>
+        <v>235353.1989388238</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>334.53027300000031</v>
+        <v>9.3398440000000846</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11992,46 +11992,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>2058.9868160000001</v>
+        <v>2698.1745609999998</v>
       </c>
       <c r="I57">
-        <v>1497.3298339999999</v>
+        <v>3332.3615719999998</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-561.6569820000002</v>
+        <v>634.18701099999998</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-2125.3030366666662</v>
+        <v>-1477.1327596388892</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-1688.5428459537034</v>
+        <v>-2089.267512148147</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>4516912.9976645531</v>
+        <v>2181921.1895984001</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>2851176.9426214318</v>
+        <v>4365038.7373177074</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>3588665.2380471807</v>
+        <v>3086125.4858432687</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>315458.56542934856</v>
+        <v>402193.1649211141</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>5063399.2657228783</v>
+        <v>2117259.2648215429</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>561.6569820000002</v>
+        <v>634.18701099999998</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12059,46 +12059,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>1552.7576899999999</v>
+        <v>2087.186279</v>
       </c>
       <c r="I58">
-        <v>1009.008362</v>
+        <v>2467.9572750000002</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-543.74932799999988</v>
+        <v>380.7709960000002</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-2613.6245086666659</v>
+        <v>-2341.5370566388888</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-2194.7719719537035</v>
+        <v>-2700.2557941481468</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>6831033.0723030707</v>
+        <v>5482795.7876131106</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>4817024.0088735484</v>
+        <v>7291381.3538306393</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>5736309.8168328675</v>
+        <v>6322749.0044017565</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>295663.33170045144</v>
+        <v>144986.55139483217</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>7499498.9103001216</v>
+        <v>5380009.7288403483</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>543.74932799999988</v>
+        <v>380.7709960000002</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12126,46 +12126,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1435.0462649999999</v>
+        <v>1945.6451420000001</v>
       </c>
       <c r="I59">
-        <v>699.10485800000004</v>
+        <v>2476.669922</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-735.94140699999991</v>
+        <v>531.02477999999996</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-2923.5280126666657</v>
+        <v>-2332.8244096388889</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2312.4833969537035</v>
+        <v>-2841.7969311481465</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>8547016.0408467036</v>
+        <v>5442069.7262070309</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>5347579.4611865403</v>
+        <v>8075809.7978830235</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>6760609.9898207216</v>
+        <v>6629413.2482192814</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>541609.75453713955</v>
+        <v>281987.31697404839</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>9292893.7853601743</v>
+        <v>5339667.9345218334</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>735.94140699999991</v>
+        <v>531.02477999999996</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12193,46 +12193,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>2049.1633299999999</v>
+        <v>2825.1130370000001</v>
       </c>
       <c r="I60">
-        <v>1040.3927000000001</v>
+        <v>2288.59375</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-1008.7706299999998</v>
+        <v>-536.51928700000008</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-2582.240170666666</v>
+        <v>-2520.900581638889</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-1698.3663319537036</v>
+        <v>-1962.3290361481468</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>6667964.2990046125</v>
+        <v>6354939.7425072892</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>2884448.1975138779</v>
+        <v>3850735.2461101147</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>4385589.7668786515</v>
+        <v>4946836.4085927438</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>1017618.1839505964</v>
+        <v>287852.94532298844</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>7328590.5307759279</v>
+        <v>6244242.9421003051</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>1008.7706299999998</v>
+        <v>536.51928700000008</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12260,46 +12260,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>3789.1030270000001</v>
+        <v>4115.2524409999996</v>
       </c>
       <c r="I61">
-        <v>3328.0407709999999</v>
+        <v>2809.5463869999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-461.06225600000016</v>
+        <v>-1305.7060539999998</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-294.59209966666594</v>
+        <v>-1999.9479446388891</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>41.573365046296658</v>
+        <v>-672.18963214814721</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>86784.505186014838</v>
+        <v>3999791.781265317</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>1728.3446812726406</v>
+        <v>451838.90156746143</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>-12247.184899197311</v>
+        <v>1344344.2732222578</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>212578.4039078097</v>
+        <v>1704868.2994522504</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>175970.92963356816</v>
+        <v>3912071.3452834492</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>461.06225600000016</v>
+        <v>1305.7060539999998</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12327,46 +12327,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>6346.1401370000003</v>
+        <v>8862.8935550000006</v>
       </c>
       <c r="I62">
-        <v>6070.8334960000002</v>
+        <v>6130.9331050000001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-275.30664100000013</v>
+        <v>-2731.9604500000005</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>2448.2006253333343</v>
+        <v>1321.4387733611111</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>2598.6104750462969</v>
+        <v>4075.4514818518537</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>5993686.3018825287</v>
+        <v>1746200.431742118</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>6752776.4010203406</v>
+        <v>16609304.78092847</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>6361919.7900060965</v>
+        <v>5385459.6070710365</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>75793.746578702951</v>
+        <v>7463607.9003642052</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>5397740.7052942226</v>
+        <v>1804968.1526663573</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>275.30664100000013</v>
+        <v>2731.9604500000005</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12394,46 +12394,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>7702.2353519999997</v>
+        <v>10294.089844</v>
       </c>
       <c r="I63">
-        <v>9150.0664059999999</v>
+        <v>10606.087890999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1447.8310540000002</v>
+        <v>311.99804699999913</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>5527.4335353333336</v>
+        <v>5796.5935593611102</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>3954.7056900462962</v>
+        <v>5506.6477708518532</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>30552521.487527553</v>
+        <v>33600496.892426707</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>15639697.094884552</v>
+        <v>30323169.672227684</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>21859372.853535451</v>
+        <v>31919799.002190068</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>2096214.7609267517</v>
+        <v>97342.781331813661</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>29187403.270770352</v>
+        <v>33856639.15360485</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>1447.8310540000002</v>
+        <v>311.99804699999913</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12461,46 +12461,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>5420.0966799999997</v>
+        <v>6174.8183589999999</v>
       </c>
       <c r="I64">
-        <v>4149.6567379999997</v>
+        <v>5744.9121089999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-1270.439942</v>
+        <v>-429.90625</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>527.02386733333378</v>
+        <v>935.41777736111089</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1672.5670180462962</v>
+        <v>1387.376285851853</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>277754.15673898341</v>
+        <v>875006.4182032008</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>2797480.4298562794</v>
+        <v>1924812.9585440827</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>881482.73822494096</v>
+        <v>1297776.4416750537</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>1614017.6462289633</v>
+        <v>184819.3837890625</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>161706.1852895437</v>
+        <v>916748.86955414875</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>1270.439942</v>
+        <v>429.90625</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12528,46 +12528,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>2861.2670899999998</v>
+        <v>4511.7373049999997</v>
       </c>
       <c r="I65">
-        <v>3329.79126</v>
+        <v>5008.0356449999999</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>468.52417000000014</v>
+        <v>496.29834000000028</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-292.84161066666593</v>
+        <v>198.54131336111095</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-886.26257195370363</v>
+        <v>-275.7047681481472</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>85756.208937847143</v>
+        <v>39418.653111154854</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>785461.34644599375</v>
+        <v>76013.119179623594</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>259534.55904450448</v>
+        <v>-54738.786768053731</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>219514.89787418902</v>
+        <v>246312.04228675587</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>174505.37246683394</v>
+        <v>48661.523942358668</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="8"/>
-        <v>468.52417000000014</v>
+        <v>496.29834000000028</v>
       </c>
       <c r="S65">
         <v>5.8286879999999996</v>
@@ -12595,46 +12595,46 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>2595.8459469999998</v>
+        <v>2950.4116210000002</v>
       </c>
       <c r="I66">
-        <v>1978.7460940000001</v>
+        <v>3114.3237300000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-617.09985299999971</v>
+        <v>163.91210899999987</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1643.8867766666658</v>
+        <v>-1695.1706016388889</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1151.6837149537037</v>
+        <v>-1837.0304521481467</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>2702363.7344995206</v>
+        <v>2873603.3686607527</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1326375.3792895637</v>
+        <v>3374680.8821196239</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>1893237.629914735</v>
+        <v>3114080.016796934</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>380812.22857262124</v>
+        <v>26867.179476827838</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>3128595.310263033</v>
+        <v>2799324.9901787997</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="8"/>
-        <v>617.09985299999971</v>
+        <v>163.91210899999987</v>
       </c>
       <c r="S66">
         <v>6.8856330000000003</v>
@@ -12662,46 +12662,46 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>2854.1357419999999</v>
+        <v>3118.616943</v>
       </c>
       <c r="I67">
-        <v>1960.03125</v>
+        <v>3157.3017580000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-894.10449199999994</v>
+        <v>38.684815000000071</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1662.6016206666659</v>
+        <v>-1652.1925736388889</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-893.39391995370352</v>
+        <v>-1668.8251301481469</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>2764244.1490434241</v>
+        <v>2729740.3003874952</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>798152.69621024444</v>
+        <v>2784977.3150139791</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>1485358.179208773</v>
+        <v>2757220.4867327204</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>799422.84261457797</v>
+        <v>1496.5149115842305</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3195150.5727370116</v>
+        <v>2657357.4470712994</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="8"/>
-        <v>894.10449199999994</v>
+        <v>38.684815000000071</v>
       </c>
       <c r="S67">
         <v>7.8171679999999997</v>
@@ -12729,46 +12729,46 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>2127.3066410000001</v>
+        <v>2253.068115</v>
       </c>
       <c r="I68">
-        <v>1114.496216</v>
+        <v>2357.8728030000002</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-1012.8104250000001</v>
+        <v>104.80468800000017</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-2508.1366546666659</v>
+        <v>-2451.6215286388888</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-1620.2230209537033</v>
+        <v>-2534.3739581481468</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>6290749.4784824941</v>
+        <v>6010448.1196856815</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>2625122.6376283444</v>
+        <v>6423051.3597395048</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>4063740.7475887407</v>
+        <v>6213325.7574177505</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>1025784.9569886809</v>
+        <v>10984.02262677738</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>6932865.1275108345</v>
+        <v>5902806.8384481976</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="8"/>
-        <v>1012.8104250000001</v>
+        <v>104.80468800000017</v>
       </c>
       <c r="S68">
         <v>9.7518049999999992</v>
@@ -12796,46 +12796,46 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>1595.251221</v>
+        <v>1986.7514650000001</v>
       </c>
       <c r="I69">
-        <v>873.074341</v>
+        <v>1993.559082</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="10">I69-H69</f>
-        <v>-722.17687999999998</v>
+        <v>6.8076169999999365</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="11">I69-I$2</f>
-        <v>-2749.5585296666659</v>
+        <v>-2815.9352496388892</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="12">H69-H$2</f>
-        <v>-2152.2784409537035</v>
+        <v>-2800.6906081481466</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="13">K69*K69</f>
-        <v>7560072.1080627181</v>
+        <v>7929491.3301588334</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="14">L69*L69</f>
-        <v>4632302.4873941047</v>
+        <v>7843867.8825692348</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="15">K69*L69</f>
-        <v>5917815.5455419291</v>
+        <v>7886563.4068169435</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="16">J69*J69</f>
-        <v>521539.44600653439</v>
+        <v>46.343649218688135</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="17">(I69-H$2)*(I69-H$2)</f>
-        <v>8262493.3921590587</v>
+        <v>7805782.1682269173</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" ref="R69:R111" si="18">ABS(J69)</f>
-        <v>722.17687999999998</v>
+        <v>6.8076169999999365</v>
       </c>
       <c r="S69">
         <v>12.475429999999999</v>
@@ -12863,46 +12863,46 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>1427.945923</v>
+        <v>1848.0439449999999</v>
       </c>
       <c r="I70">
-        <v>744.20929000000001</v>
+        <v>1708.6188959999999</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="10"/>
-        <v>-683.73663299999998</v>
+        <v>-139.42504899999994</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="11"/>
-        <v>-2878.4235806666657</v>
+        <v>-3100.875435638889</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="12"/>
-        <v>-2319.5837389537037</v>
+        <v>-2939.398128148147</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="13"/>
-        <v>8285322.3097379087</v>
+        <v>9615428.4673486706</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>5380468.722018444</v>
+        <v>8640061.3557608295</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>6676744.531535292</v>
+        <v>9114707.4511375204</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>467495.78330617666</v>
+        <v>19439.344288652384</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>9019933.2565921303</v>
+        <v>9479152.1561446097</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="18"/>
-        <v>683.73663299999998</v>
+        <v>139.42504899999994</v>
       </c>
       <c r="S70">
         <v>14.963448</v>
@@ -12930,46 +12930,46 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>1292.3402100000001</v>
+        <v>1820.4916989999999</v>
       </c>
       <c r="I71">
-        <v>698.13738999999998</v>
+        <v>1607.1839600000001</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="10"/>
-        <v>-594.20282000000009</v>
+        <v>-213.30773899999986</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="11"/>
-        <v>-2924.495480666666</v>
+        <v>-3202.3103716388887</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="12"/>
-        <v>-2455.1894519537036</v>
+        <v>-2966.9503741481467</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="13"/>
-        <v>8552673.8164397534</v>
+        <v>10254791.716305997</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="14"/>
-        <v>6027955.2449847274</v>
+        <v>8802794.5226578284</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="15"/>
-        <v>7180190.4564190749</v>
+        <v>9501095.955272492</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="16"/>
-        <v>353076.99129595252</v>
+        <v>45500.191517292056</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="17"/>
-        <v>9298793.2282509692</v>
+        <v>10114041.666244609</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="18"/>
-        <v>594.20282000000009</v>
+        <v>213.30773899999986</v>
       </c>
       <c r="S71">
         <v>16.450882</v>
@@ -12997,46 +12997,46 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>1009.65918</v>
+        <v>2330.5310060000002</v>
       </c>
       <c r="I72">
-        <v>928.56951900000001</v>
+        <v>1578.5704350000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="10"/>
-        <v>-81.089660999999978</v>
+        <v>-751.96057100000007</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="11"/>
-        <v>-2694.0633516666658</v>
+        <v>-3230.9238966388889</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="12"/>
-        <v>-2737.8704819537033</v>
+        <v>-2456.9110671481467</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="13"/>
-        <v>7257977.3427934293</v>
+        <v>10438869.225872222</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="14"/>
-        <v>7495934.7759534037</v>
+        <v>6036411.991875045</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="15"/>
-        <v>7375996.5270414231</v>
+        <v>7938092.6787655009</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="16"/>
-        <v>6575.5331210949171</v>
+        <v>565444.70033864619</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="17"/>
-        <v>7946536.2875615638</v>
+        <v>10296857.19011157</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="18"/>
-        <v>81.089660999999978</v>
+        <v>751.96057100000007</v>
       </c>
       <c r="S72">
         <v>15.549884</v>
@@ -13064,46 +13064,46 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>1061.9163820000001</v>
+        <v>2369.6308589999999</v>
       </c>
       <c r="I73">
-        <v>1060.384033</v>
+        <v>1602.200928</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="10"/>
-        <v>-1.5323490000000675</v>
+        <v>-767.4299309999999</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="11"/>
-        <v>-2562.2488376666661</v>
+        <v>-3207.2934036388888</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="12"/>
-        <v>-2685.6132799537036</v>
+        <v>-2417.811214148147</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="13"/>
-        <v>6565119.1061241813</v>
+        <v>10286730.977025528</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>7212518.6894636899</v>
+        <v>5845811.0672605364</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="15"/>
-        <v>6881209.5049835397</v>
+        <v>7754629.9583814843</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="16"/>
-        <v>2.3480934578012067</v>
+        <v>588948.69899466459</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="17"/>
-        <v>7220751.6312049953</v>
+        <v>10145761.152744677</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="18"/>
-        <v>1.5323490000000675</v>
+        <v>767.4299309999999</v>
       </c>
       <c r="S73">
         <v>14.527419</v>
@@ -13131,46 +13131,46 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>4289.5698240000002</v>
+        <v>5236.8696289999998</v>
       </c>
       <c r="I74">
-        <v>2457.8547359999998</v>
+        <v>3245.6198730000001</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="10"/>
-        <v>-1831.7150880000004</v>
+        <v>-1991.2497559999997</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="11"/>
-        <v>-1164.7781346666661</v>
+        <v>-1563.8744586388889</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="12"/>
-        <v>542.0401620462967</v>
+        <v>449.42755585185296</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="13"/>
-        <v>1356708.1029975582</v>
+        <v>2445703.3223830778</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="14"/>
-        <v>293807.53727117559</v>
+        <v>201985.12795897041</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="15"/>
-        <v>-631356.52886270289</v>
+        <v>-702848.27560521557</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="16"/>
-        <v>3355180.163606849</v>
+        <v>3965075.5907700583</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="17"/>
-        <v>1663261.4146336911</v>
+        <v>2377215.6968696718</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="18"/>
-        <v>1831.7150880000004</v>
+        <v>1991.2497559999997</v>
       </c>
       <c r="S74">
         <v>7.187532</v>
@@ -13198,46 +13198,46 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>8750.03125</v>
+        <v>10963.188477</v>
       </c>
       <c r="I75">
-        <v>9511.0449219999991</v>
+        <v>10816.071289</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="10"/>
-        <v>761.01367199999913</v>
+        <v>-147.11718800000017</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="11"/>
-        <v>5888.4120513333328</v>
+        <v>6006.5769573611105</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="12"/>
-        <v>5002.5015880462961</v>
+        <v>6175.7464038518528</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="13"/>
-        <v>34673396.486287631</v>
+        <v>36078966.74470146</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="14"/>
-        <v>25025022.138405714</v>
+        <v>38139843.644689091</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="15"/>
-        <v>29456790.637865946</v>
+        <v>37095096.043882281</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>579141.80897092225</v>
+        <v>21643.467005027393</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>33218108.152786516</v>
+        <v>36344370.222222522</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="18"/>
-        <v>761.01367199999913</v>
+        <v>147.11718800000017</v>
       </c>
       <c r="S75">
         <v>4.2619350000000003</v>
@@ -13265,46 +13265,46 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>6425.984375</v>
+        <v>7942.5981449999999</v>
       </c>
       <c r="I76">
-        <v>5385.8833009999998</v>
+        <v>7089.7407229999999</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="10"/>
-        <v>-1040.1010740000002</v>
+        <v>-852.85742200000004</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="11"/>
-        <v>1763.250430333334</v>
+        <v>2280.2463913611109</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="12"/>
-        <v>2678.4547130462965</v>
+        <v>3155.1560718518531</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="13"/>
-        <v>3109052.0800706875</v>
+        <v>5199523.6053153686</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="14"/>
-        <v>7174119.6498399191</v>
+        <v>9955009.8377436157</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="15"/>
-        <v>4722786.425407229</v>
+        <v>7194533.2470212858</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="16"/>
-        <v>1081810.2441359537</v>
+        <v>727365.78226048616</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="17"/>
-        <v>2684202.6465762421</v>
+        <v>5300579.073109665</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="18"/>
-        <v>1040.1010740000002</v>
+        <v>852.85742200000004</v>
       </c>
       <c r="S76">
         <v>4.3465230000000004</v>
@@ -13332,46 +13332,46 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>4303.1035160000001</v>
+        <v>6613.5727539999998</v>
       </c>
       <c r="I77">
-        <v>4481.5659180000002</v>
+        <v>7053.9790039999998</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="10"/>
-        <v>178.46240200000011</v>
+        <v>440.40625</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="11"/>
-        <v>858.93304733333434</v>
+        <v>2244.4846723611108</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="12"/>
-        <v>555.57385404629667</v>
+        <v>1826.130680851853</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="13"/>
-        <v>737765.97980132792</v>
+        <v>5037711.4444639627</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="14"/>
-        <v>308662.30729985575</v>
+        <v>3334753.2635484519</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="15"/>
-        <v>477200.74347471073</v>
+        <v>4098722.3229003432</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="16"/>
-        <v>31848.828927609644</v>
+        <v>193957.6650390625</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="17"/>
-        <v>538809.22519046452</v>
+        <v>5137189.6589153372</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="18"/>
-        <v>178.46240200000011</v>
+        <v>440.40625</v>
       </c>
       <c r="S77">
         <v>5.355829</v>
@@ -13399,46 +13399,46 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>5369.9428710000002</v>
+        <v>7687.1376950000003</v>
       </c>
       <c r="I78">
-        <v>5166.9428710000002</v>
+        <v>8079.7070309999999</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="10"/>
-        <v>-203</v>
+        <v>392.56933599999957</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="11"/>
-        <v>1544.3100003333343</v>
+        <v>3270.2126993611109</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="12"/>
-        <v>1622.4132090462967</v>
+        <v>2899.6956218518535</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="13"/>
-        <v>2384893.3771295431</v>
+        <v>10694291.099062683</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>2632224.6208879026</v>
+        <v>8408234.6993868072</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="15"/>
-        <v>2505508.9434030927</v>
+        <v>9482621.4468617458</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>41209</v>
+        <v>154110.68356748056</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>2014733.8580151061</v>
+        <v>10839008.552699264</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="18"/>
-        <v>203</v>
+        <v>392.56933599999957</v>
       </c>
       <c r="S78">
         <v>5.5344850000000001</v>
@@ -13466,46 +13466,46 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>2822.16626</v>
+        <v>4657.7338870000003</v>
       </c>
       <c r="I79">
-        <v>2673.9582519999999</v>
+        <v>4306.8090819999998</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>-148.20800800000006</v>
+        <v>-350.92480500000056</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="11"/>
-        <v>-948.67461866666599</v>
+        <v>-502.68524963888922</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="12"/>
-        <v>-925.36340195370349</v>
+        <v>-129.70818614814652</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="13"/>
-        <v>899983.53210234409</v>
+        <v>252692.46020451238</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="14"/>
-        <v>856297.42567533138</v>
+        <v>16824.21355384223</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="15"/>
-        <v>877868.77247651841</v>
+        <v>65202.391934088548</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="16"/>
-        <v>21965.613635328082</v>
+        <v>123148.21876428842</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="17"/>
-        <v>1152555.5722699831</v>
+        <v>231008.07218001483</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="18"/>
-        <v>148.20800800000006</v>
+        <v>350.92480500000056</v>
       </c>
       <c r="S79">
         <v>7.4366459999999996</v>
@@ -13533,46 +13533,46 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2198.2114259999998</v>
+        <v>2892.2397460000002</v>
       </c>
       <c r="I80">
-        <v>1824.7143550000001</v>
+        <v>3055.006836</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="10"/>
-        <v>-373.49707099999978</v>
+        <v>162.76708999999983</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>-1797.9185156666658</v>
+        <v>-1754.487495638889</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="12"/>
-        <v>-1549.3182359537036</v>
+        <v>-1895.2023271481467</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="13"/>
-        <v>3232510.9889770267</v>
+        <v>3078226.3723532204</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>2400386.9962586961</v>
+        <v>3591791.8608277505</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>2785547.9430811801</v>
+        <v>3325108.7846871461</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>139500.06204557887</v>
+        <v>26493.125587068043</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>3697218.7046554647</v>
+        <v>3001331.8509125556</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="18"/>
-        <v>373.49707099999978</v>
+        <v>162.76708999999983</v>
       </c>
       <c r="S80">
         <v>9.1137759999999997</v>
@@ -13600,46 +13600,46 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>1762.9726559999999</v>
+        <v>2281.3283689999998</v>
       </c>
       <c r="I81">
-        <v>1258.253418</v>
+        <v>2420.9304200000001</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="10"/>
-        <v>-504.7192379999999</v>
+        <v>139.6020510000003</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="11"/>
-        <v>-2364.3794526666661</v>
+        <v>-2388.5639116388888</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>-1984.5570059537035</v>
+        <v>-2506.113704148147</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="13"/>
-        <v>5590290.1961923232</v>
+        <v>5705237.5599836698</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="14"/>
-        <v>3938466.5098799281</v>
+        <v>6280605.898119146</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="15"/>
-        <v>4692245.8075226154</v>
+        <v>5986012.7521919226</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="16"/>
-        <v>254741.50920730055</v>
+        <v>19488.732643406685</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="17"/>
-        <v>6196496.2187122591</v>
+        <v>5600377.4044859745</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="18"/>
-        <v>504.7192379999999</v>
+        <v>139.6020510000003</v>
       </c>
       <c r="S81">
         <v>10.387589</v>
@@ -13667,46 +13667,46 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>1542.951904</v>
+        <v>2047.549072</v>
       </c>
       <c r="I82">
-        <v>802.32867399999998</v>
+        <v>1992.960327</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>-740.62323000000004</v>
+        <v>-54.588745000000017</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="11"/>
-        <v>-2820.304196666666</v>
+        <v>-2816.5340046388892</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>-2204.5777579537034</v>
+        <v>-2739.8930011481471</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="13"/>
-        <v>7954115.7617356088</v>
+        <v>7932863.7992871786</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="14"/>
-        <v>4860163.0908641778</v>
+        <v>7507013.6577406004</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="15"/>
-        <v>6217579.902634819</v>
+        <v>7717001.8068058556</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="16"/>
-        <v>548522.76881563291</v>
+        <v>2979.9310806750268</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="17"/>
-        <v>8674208.8594434708</v>
+        <v>7809128.2295551971</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="18"/>
-        <v>740.62323000000004</v>
+        <v>54.588745000000017</v>
       </c>
       <c r="S82">
         <v>12.385052</v>
@@ -13734,46 +13734,46 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1405.4724120000001</v>
+        <v>1881.2265620000001</v>
       </c>
       <c r="I83">
-        <v>691.17334000000005</v>
+        <v>1834.895874</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="10"/>
-        <v>-714.29907200000002</v>
+        <v>-46.330688000000009</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="11"/>
-        <v>-2931.4595306666661</v>
+        <v>-2974.5984576388892</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>-2342.0572499537034</v>
+        <v>-2906.215511148147</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="13"/>
-        <v>8593454.9799364302</v>
+        <v>8848235.9841876589</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="14"/>
-        <v>5485232.1620607041</v>
+        <v>8446088.5972380862</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="15"/>
-        <v>6865646.0467437459</v>
+        <v>8644824.1770274937</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="16"/>
-        <v>510223.16426006122</v>
+        <v>2146.5326505533449</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>9341313.9667463712</v>
+        <v>8717529.0581041686</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="18"/>
-        <v>714.29907200000002</v>
+        <v>46.330688000000009</v>
       </c>
       <c r="S83">
         <v>14.474914999999999</v>
@@ -13801,46 +13801,46 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>1983.9708250000001</v>
+        <v>2755.061768</v>
       </c>
       <c r="I84">
-        <v>1086.6118160000001</v>
+        <v>1755.045288</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="10"/>
-        <v>-897.35900900000001</v>
+        <v>-1000.01648</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="11"/>
-        <v>-2536.0210546666658</v>
+        <v>-3054.4490436388887</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="12"/>
-        <v>-1763.5588369537033</v>
+        <v>-2032.3803051481468</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="13"/>
-        <v>6431402.7897126283</v>
+        <v>9329658.9601865225</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>3110139.7713974989</v>
+        <v>4130569.7047540746</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>4472422.3416580493</v>
+        <v>6207802.0793702696</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>805253.19103346206</v>
+        <v>1000032.9602715904</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>7080483.7829148965</v>
+        <v>9195430.2625768147</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="18"/>
-        <v>897.35900900000001</v>
+        <v>1000.01648</v>
       </c>
       <c r="S84">
         <v>14.355328</v>
@@ -13868,46 +13868,46 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>7773.7163090000004</v>
+        <v>8310.7724610000005</v>
       </c>
       <c r="I85">
-        <v>5337.0673829999996</v>
+        <v>4155.1914059999999</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="10"/>
-        <v>-2436.6489260000008</v>
+        <v>-4155.5810550000006</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="11"/>
-        <v>1714.4345123333337</v>
+        <v>-654.30292563888906</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="12"/>
-        <v>4026.1866470462969</v>
+        <v>3523.3303878518536</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="13"/>
-        <v>2939285.6970796357</v>
+        <v>428112.3184996096</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="14"/>
-        <v>16210178.916853903</v>
+        <v>12413857.021960294</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="15"/>
-        <v>6902633.3407917982</v>
+        <v>-2305325.3807638697</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="16"/>
-        <v>5937257.988576957</v>
+        <v>17268853.904674917</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="17"/>
-        <v>2526630.1666290527</v>
+        <v>399740.90610927687</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="18"/>
-        <v>2436.6489260000008</v>
+        <v>4155.5810550000006</v>
       </c>
       <c r="S85">
         <v>10.698161000000001</v>
@@ -13935,46 +13935,46 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>7034.4941410000001</v>
+        <v>6983.9541019999997</v>
       </c>
       <c r="I86">
-        <v>5738.3837890000004</v>
+        <v>4667.6010740000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="10"/>
-        <v>-1296.1103519999997</v>
+        <v>-2316.3530279999995</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="11"/>
-        <v>2115.7509183333345</v>
+        <v>-141.89325763888883</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="12"/>
-        <v>3286.9644790462967</v>
+        <v>2196.5120288518528</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="13"/>
-        <v>4476401.9484283486</v>
+        <v>20133.696563376081</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="14"/>
-        <v>10804135.486512093</v>
+        <v>4824665.0928908829</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="15"/>
-        <v>6954398.1150712529</v>
+        <v>-311670.24721679435</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="16"/>
-        <v>1679902.0445615631</v>
+        <v>5365491.3503247667</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="17"/>
-        <v>3963500.1551772733</v>
+        <v>14361.865076826096</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="18"/>
-        <v>1296.1103519999997</v>
+        <v>2316.3530279999995</v>
       </c>
       <c r="S86">
         <v>5.870679</v>
@@ -14002,46 +14002,46 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4465.8266599999997</v>
+        <v>4804.3959960000002</v>
       </c>
       <c r="I87">
-        <v>5494.9433589999999</v>
+        <v>7449.6606449999999</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="10"/>
-        <v>1029.1166990000002</v>
+        <v>2645.2646489999997</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="11"/>
-        <v>1872.310488333334</v>
+        <v>2640.166313361111</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="12"/>
-        <v>718.29699804629627</v>
+        <v>16.953922851853349</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="13"/>
-        <v>3505546.5647230074</v>
+        <v>6970478.1622067997</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="14"/>
-        <v>515950.57740232092</v>
+        <v>287.43550006659518</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="15"/>
-        <v>1344875.0031804289</v>
+        <v>44761.175992786346</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="16"/>
-        <v>1059081.1801606568</v>
+        <v>6997425.0632490916</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="17"/>
-        <v>3053454.6286250059</v>
+        <v>7087407.7243129201</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="18"/>
-        <v>1029.1166990000002</v>
+        <v>2645.2646489999997</v>
       </c>
       <c r="S87">
         <v>3.4921540000000002</v>
@@ -14069,46 +14069,46 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4143.2309569999998</v>
+        <v>5513.390625</v>
       </c>
       <c r="I88">
-        <v>3571.7241210000002</v>
+        <v>5269.7221680000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="10"/>
-        <v>-571.50683599999957</v>
+        <v>-243.66845699999976</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="11"/>
-        <v>-50.908749666665699</v>
+        <v>460.22783636111126</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="12"/>
-        <v>395.70129504629631</v>
+        <v>725.94855185185315</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="13"/>
-        <v>2591.700792623235</v>
+        <v>211809.66136162981</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="14"/>
-        <v>156579.51490131606</v>
+        <v>527001.2999358027</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="15"/>
-        <v>-20144.658172287323</v>
+        <v>334101.73132826039</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="16"/>
-        <v>326620.0635947304</v>
+        <v>59374.316936760733</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="17"/>
-        <v>30907.588230024234</v>
+        <v>232594.08989031269</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="18"/>
-        <v>571.50683599999957</v>
+        <v>243.66845699999976</v>
       </c>
       <c r="S88">
         <v>1.1970860000000001</v>
@@ -14136,46 +14136,46 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>7877.7016599999997</v>
+        <v>9320.6953119999998</v>
       </c>
       <c r="I89">
-        <v>6436.5395509999998</v>
+        <v>7626.1015619999998</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="10"/>
-        <v>-1441.1621089999999</v>
+        <v>-1694.59375</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="11"/>
-        <v>2813.906680333334</v>
+        <v>2816.6072303611109</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="12"/>
-        <v>4130.1719980462967</v>
+        <v>4533.253238851853</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="13"/>
-        <v>7918070.8056245632</v>
+        <v>7933276.2901224876</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="14"/>
-        <v>17058320.733445738</v>
+        <v>20550384.927560814</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="15"/>
-        <v>11621918.576228147</v>
+        <v>12768393.849608053</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="16"/>
-        <v>2076948.2244173274</v>
+        <v>2871647.9775390625</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="17"/>
-        <v>7230774.1833887752</v>
+        <v>8057987.6936486633</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="18"/>
-        <v>1441.1621089999999</v>
+        <v>1694.59375</v>
       </c>
       <c r="S89">
         <v>2.6418699999999999</v>
@@ -14203,46 +14203,46 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>8073.236328</v>
+        <v>11449.222656</v>
       </c>
       <c r="I90">
-        <v>9411.5224610000005</v>
+        <v>10718.837890999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="10"/>
-        <v>1338.2861330000005</v>
+        <v>-730.3847650000007</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="11"/>
-        <v>5788.8895903333341</v>
+        <v>5909.3435593611102</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="12"/>
-        <v>4325.706666046297</v>
+        <v>6661.7805828518531</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="13"/>
-        <v>33511242.689069636</v>
+        <v>34920341.302562639</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="14"/>
-        <v>18711738.16067737</v>
+        <v>44379320.534061976</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="15"/>
-        <v>25041038.28991092</v>
+        <v>39366750.1811525</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="16"/>
-        <v>1791009.7737800952</v>
+        <v>533461.90494410624</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="17"/>
-        <v>32080814.427648302</v>
+        <v>35181456.348030448</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="18"/>
-        <v>1338.2861330000005</v>
+        <v>730.3847650000007</v>
       </c>
       <c r="S90">
         <v>4.3188110000000002</v>
@@ -14270,46 +14270,46 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>5383.9477539999998</v>
+        <v>7312.798828</v>
       </c>
       <c r="I91">
-        <v>5637.3295900000003</v>
+        <v>7868.5170900000003</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="10"/>
-        <v>253.38183600000048</v>
+        <v>555.71826200000032</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="11"/>
-        <v>2014.6967193333344</v>
+        <v>3059.0227583611113</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="12"/>
-        <v>1636.4180920462964</v>
+        <v>2525.3567548518531</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="13"/>
-        <v>4059002.8708925005</v>
+        <v>9357620.2361712214</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="14"/>
-        <v>2677864.1719764411</v>
+        <v>6377426.739275883</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="15"/>
-        <v>3296886.1615033876</v>
+        <v>7725123.7860727804</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="16"/>
-        <v>64202.354814731138</v>
+        <v>308822.78672030102</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="17"/>
-        <v>3571343.7680437886</v>
+        <v>9493023.2594686486</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="18"/>
-        <v>253.38183600000048</v>
+        <v>555.71826200000032</v>
       </c>
       <c r="S91">
         <v>5.710909</v>
@@ -14337,46 +14337,46 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>4678.4243159999996</v>
+        <v>6311.4604490000002</v>
       </c>
       <c r="I92">
-        <v>5607.1303710000002</v>
+        <v>7053.4711909999996</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="10"/>
-        <v>928.70605500000056</v>
+        <v>742.01074199999948</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="11"/>
-        <v>1984.4975003333343</v>
+        <v>2243.9768593611107</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="12"/>
-        <v>930.89465404629618</v>
+        <v>1524.0183758518533</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="13"/>
-        <v>3938230.3288292522</v>
+        <v>5035432.145348154</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="14"/>
-        <v>866564.85693197348</v>
+        <v>2322632.0099341208</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="15"/>
-        <v>1847358.1140285388</v>
+        <v>3419861.9686526624</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="16"/>
-        <v>862494.93659366411</v>
+        <v>550579.94124338974</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="17"/>
-        <v>3458114.7970854896</v>
+        <v>5134887.9629524462</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="18"/>
-        <v>928.70605500000056</v>
+        <v>742.01074199999948</v>
       </c>
       <c r="S92">
         <v>7.193924</v>
@@ -14404,46 +14404,46 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>2413.5383299999999</v>
+        <v>3056.2561040000001</v>
       </c>
       <c r="I93">
-        <v>2252.694336</v>
+        <v>3840.7082519999999</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="10"/>
-        <v>-160.84399399999984</v>
+        <v>784.45214799999985</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="11"/>
-        <v>-1369.9385346666659</v>
+        <v>-968.78607963888908</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="12"/>
-        <v>-1333.9913319537036</v>
+        <v>-1731.1859691481468</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="13"/>
-        <v>1876731.5887646517</v>
+        <v>938546.46810208797</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="14"/>
-        <v>1779532.8737276162</v>
+        <v>2997004.8597754082</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="15"/>
-        <v>1827486.1305546905</v>
+        <v>1677148.868176884</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="16"/>
-        <v>25870.790405871983</v>
+        <v>615365.17250181362</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="17"/>
-        <v>2234532.6517191147</v>
+        <v>896304.92810577154</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="18"/>
-        <v>160.84399399999984</v>
+        <v>784.45214799999985</v>
       </c>
       <c r="S93">
         <v>8.9577299999999997</v>
@@ -14471,46 +14471,46 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>1414.50415</v>
+        <v>2054.6359859999998</v>
       </c>
       <c r="I94">
-        <v>947.28631600000006</v>
+        <v>2523.6594239999999</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="10"/>
-        <v>-467.21783399999993</v>
+        <v>469.02343800000017</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="11"/>
-        <v>-2675.3465546666657</v>
+        <v>-2285.834907638889</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="12"/>
-        <v>-2333.0255119537032</v>
+        <v>-2732.8060871481471</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="13"/>
-        <v>7157479.1875667982</v>
+        <v>5225041.2249804884</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="14"/>
-        <v>5443008.039426839</v>
+        <v>7468229.109953966</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="15"/>
-        <v>6241651.765354774</v>
+        <v>6246743.5498112785</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="16"/>
-        <v>218292.50440765149</v>
+        <v>219982.98539334</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="17"/>
-        <v>7841362.7965579918</v>
+        <v>5124711.8825842021</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="18"/>
-        <v>467.21783399999993</v>
+        <v>469.02343800000017</v>
       </c>
       <c r="S94">
         <v>11.752560000000001</v>
@@ -14538,46 +14538,46 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1203.9017329999999</v>
+        <v>1971.0048830000001</v>
       </c>
       <c r="I95">
-        <v>702.44189500000005</v>
+        <v>3196.7001949999999</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="10"/>
-        <v>-501.45983799999988</v>
+        <v>1225.6953119999998</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="11"/>
-        <v>-2920.190975666666</v>
+        <v>-1612.7941366388891</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="12"/>
-        <v>-2543.6279289537033</v>
+        <v>-2816.4371901481468</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="13"/>
-        <v>8527515.3343650345</v>
+        <v>2601104.9271767796</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="14"/>
-        <v>6470043.0409533055</v>
+        <v>7932318.4460495887</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="15"/>
-        <v>7427879.3235842958</v>
+        <v>4542333.3864826392</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="16"/>
-        <v>251461.96912698611</v>
+        <v>1502328.9978587769</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="17"/>
-        <v>9272559.508451093</v>
+        <v>2530459.7228942942</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="18"/>
-        <v>501.45983799999988</v>
+        <v>1225.6953119999998</v>
       </c>
       <c r="S95">
         <v>13.397656</v>
@@ -14605,46 +14605,46 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>3014.4030760000001</v>
+        <v>3062.2509770000001</v>
       </c>
       <c r="I96">
-        <v>1288.143311</v>
+        <v>2396.444336</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="10"/>
-        <v>-1726.259765</v>
+        <v>-665.80664100000013</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="11"/>
-        <v>-2334.4895596666656</v>
+        <v>-2413.049995638889</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="12"/>
-        <v>-733.1265859537034</v>
+        <v>-1725.1910961481467</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="13"/>
-        <v>5449841.5041926624</v>
+        <v>5822810.2814528421</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="14"/>
-        <v>537474.59103213286</v>
+        <v>2976284.3182288441</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="15"/>
-        <v>1711476.360822987</v>
+        <v>4162972.3670365354</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="16"/>
-        <v>2979972.7762578554</v>
+        <v>443298.48319970304</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="17"/>
-        <v>6048581.2232573722</v>
+        <v>5716870.1790475585</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="18"/>
-        <v>1726.259765</v>
+        <v>665.80664100000013</v>
       </c>
       <c r="S96">
         <v>13.115736999999999</v>
@@ -14672,46 +14672,46 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>5661.8881840000004</v>
+        <v>6024.2065430000002</v>
       </c>
       <c r="I97">
-        <v>4434.1489259999998</v>
+        <v>4457.8056640000004</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="10"/>
-        <v>-1227.7392580000005</v>
+        <v>-1566.4008789999998</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="11"/>
-        <v>811.51605533333395</v>
+        <v>-351.68866763888855</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="12"/>
-        <v>1914.3585220462969</v>
+        <v>1236.7644698518534</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="13"/>
-        <v>658558.30806377472</v>
+        <v>123684.91894561661</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="14"/>
-        <v>3664768.5509312823</v>
+        <v>1529586.3538879359</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="15"/>
-        <v>1553532.676304762</v>
+        <v>-434956.04858531465</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="16"/>
-        <v>1507343.6856343918</v>
+        <v>2453611.713731972</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="17"/>
-        <v>471446.0137594777</v>
+        <v>108660.16223608419</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="18"/>
-        <v>1227.7392580000005</v>
+        <v>1566.4008789999998</v>
       </c>
       <c r="S97">
         <v>9.924175</v>
@@ -14739,46 +14739,46 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7470.9213870000003</v>
+        <v>9046.1875</v>
       </c>
       <c r="I98">
-        <v>7605.4594729999999</v>
+        <v>8033.3442379999997</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="10"/>
-        <v>134.53808599999957</v>
+        <v>-1012.8432620000003</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="11"/>
-        <v>3982.826602333334</v>
+        <v>3223.8499063611107</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="12"/>
-        <v>3723.3917250462969</v>
+        <v>4258.7454268518532</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="13"/>
-        <v>15862907.74425409</v>
+        <v>10393208.218744542</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="14"/>
-        <v>13863645.938143238</v>
+        <v>18136912.610731572</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="15"/>
-        <v>14829623.613422194</v>
+        <v>13729556.045572156</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="16"/>
-        <v>18100.496584543278</v>
+        <v>1025851.4733788013</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="17"/>
-        <v>14883622.426959712</v>
+        <v>10535880.863789944</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="18"/>
-        <v>134.53808599999957</v>
+        <v>1012.8432620000003</v>
       </c>
       <c r="S98">
         <v>4.5283889999999998</v>
@@ -14806,46 +14806,46 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>4722.7724609999996</v>
+        <v>4679.2075199999999</v>
       </c>
       <c r="I99">
-        <v>4712.3051759999998</v>
+        <v>4622.6630859999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="10"/>
-        <v>-10.46728499999972</v>
+        <v>-56.544434000000365</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="11"/>
-        <v>1089.672305333334</v>
+        <v>-186.83124563888941</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="12"/>
-        <v>975.24279904629611</v>
+        <v>-108.23455314814692</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="13"/>
-        <v>1187385.7330104625</v>
+        <v>34905.914346979036</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="14"/>
-        <v>951098.51709165436</v>
+        <v>11714.718495179039</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="15"/>
-        <v>1062695.0690965108</v>
+        <v>20221.596385836867</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="16"/>
-        <v>109.56405527121913</v>
+        <v>3197.2730163803972</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="17"/>
-        <v>930791.79250329547</v>
+        <v>27152.114605569288</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="18"/>
-        <v>10.46728499999972</v>
+        <v>56.544434000000365</v>
       </c>
       <c r="S99">
         <v>2.3634759999999999</v>
@@ -14873,46 +14873,46 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5833.1416019999997</v>
+        <v>7020.2944340000004</v>
       </c>
       <c r="I100">
-        <v>5044.9755859999996</v>
+        <v>6787.6606449999999</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="10"/>
-        <v>-788.16601600000013</v>
+        <v>-232.63378900000043</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="11"/>
-        <v>1422.3427153333337</v>
+        <v>1978.166313361111</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="12"/>
-        <v>2085.6119400462962</v>
+        <v>2232.8523608518535</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="13"/>
-        <v>2023058.7998618006</v>
+        <v>3913141.9633166888</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="14"/>
-        <v>4349777.1644636756</v>
+        <v>4985629.6653616959</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="15"/>
-        <v>2966454.9499370707</v>
+        <v>4416953.3229459636</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="16"/>
-        <v>621205.6687773125</v>
+        <v>54118.479784496725</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="17"/>
-        <v>1683365.9258243472</v>
+        <v>4000874.3351810668</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="18"/>
-        <v>788.16601600000013</v>
+        <v>232.63378900000043</v>
       </c>
       <c r="S100">
         <v>4.4663490000000001</v>
@@ -14940,46 +14940,46 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>3009.046875</v>
+        <v>3866.2360840000001</v>
       </c>
       <c r="I101">
-        <v>3612.046143</v>
+        <v>4740.3745120000003</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="10"/>
-        <v>602.99926800000003</v>
+        <v>874.1384280000002</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="11"/>
-        <v>-10.586727666665865</v>
+        <v>-69.119819638888657</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="12"/>
-        <v>-738.48278695370345</v>
+        <v>-921.20598914814673</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="13"/>
-        <v>112.07880268814849</v>
+        <v>4777.5494669124982</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="14"/>
-        <v>545356.82662690897</v>
+        <v>848620.47444241541</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="15"/>
-        <v>7818.1161519992866</v>
+        <v>63673.591820183923</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="16"/>
-        <v>363608.11720853584</v>
+        <v>764117.99130631157</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="17"/>
-        <v>18355.783908078516</v>
+        <v>2215.3553124345121</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="18"/>
-        <v>602.99926800000003</v>
+        <v>874.1384280000002</v>
       </c>
       <c r="S101">
         <v>4.6956059999999997</v>
@@ -15007,46 +15007,46 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>3521.0051269999999</v>
+        <v>4718.6152339999999</v>
       </c>
       <c r="I102">
-        <v>2506.0534670000002</v>
+        <v>4707.0249020000001</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="10"/>
-        <v>-1014.9516599999997</v>
+        <v>-11.590331999999762</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="11"/>
-        <v>-1116.5794036666657</v>
+        <v>-102.46942963888887</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="12"/>
-        <v>-226.52453495370355</v>
+        <v>-68.826839148146973</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="13"/>
-        <v>1246749.5646926069</v>
+        <v>10499.984010519196</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="14"/>
-        <v>51313.36493599166</v>
+        <v>4737.133787124897</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="15"/>
-        <v>252932.63015447507</v>
+        <v>7052.6469513581678</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="16"/>
-        <v>1030126.872136755</v>
+        <v>134.33579587021848</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="17"/>
-        <v>1541263.1426367254</v>
+        <v>6466.9214154703241</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="18"/>
-        <v>1014.9516599999997</v>
+        <v>11.590331999999762</v>
       </c>
       <c r="S102">
         <v>5.3733880000000003</v>
@@ -15074,46 +15074,46 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>3864.8774410000001</v>
+        <v>5725.4326170000004</v>
       </c>
       <c r="I103">
-        <v>3726.0832519999999</v>
+        <v>6125.1625979999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="10"/>
-        <v>-138.79418900000019</v>
+        <v>399.7299809999995</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="11"/>
-        <v>103.45038133333401</v>
+        <v>1315.6682663611109</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="12"/>
-        <v>117.34777904629664</v>
+        <v>937.99054385185354</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="13"/>
-        <v>10701.981398012222</v>
+        <v>1730982.9871096511</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="14"/>
-        <v>13770.501247098457</v>
+        <v>879826.26035549596</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="15"/>
-        <v>12139.672490959209</v>
+        <v>1234084.3926926837</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="16"/>
-        <v>19263.826900167773</v>
+        <v>159784.05771025995</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="17"/>
-        <v>459.94849990231472</v>
+        <v>1789496.2026099171</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="18"/>
-        <v>138.79418900000019</v>
+        <v>399.7299809999995</v>
       </c>
       <c r="S103">
         <v>6.4953919999999998</v>
@@ -15141,46 +15141,46 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>2077.1223140000002</v>
+        <v>2659.8376459999999</v>
       </c>
       <c r="I104">
-        <v>2238.8271479999999</v>
+        <v>4413.2910160000001</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="10"/>
-        <v>161.70483399999966</v>
+        <v>1753.4533700000002</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="11"/>
-        <v>-1383.805722666666</v>
+        <v>-396.20331563888885</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="12"/>
-        <v>-1670.4073479537033</v>
+        <v>-2127.6044271481469</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="13"/>
-        <v>1914918.2780850139</v>
+        <v>156977.06732324898</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="14"/>
-        <v>2790260.7080977242</v>
+        <v>4526700.5984203946</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="15"/>
-        <v>2311519.2472827835</v>
+        <v>842963.92840407451</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="16"/>
-        <v>26148.453338967447</v>
+        <v>3074598.7207643576</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="17"/>
-        <v>2276183.2756102253</v>
+        <v>139989.01356507576</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="18"/>
-        <v>161.70483399999966</v>
+        <v>1753.4533700000002</v>
       </c>
       <c r="S104">
         <v>9.6104040000000008</v>
@@ -15208,46 +15208,46 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>1526.7982179999999</v>
+        <v>2026.983154</v>
       </c>
       <c r="I105">
-        <v>1157.7342530000001</v>
+        <v>3377.5207519999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="10"/>
-        <v>-369.06396499999983</v>
+        <v>1350.5375979999999</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="11"/>
-        <v>-2464.8986176666658</v>
+        <v>-1431.9735796388891</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>-2220.7314439537035</v>
+        <v>-2760.4589191481468</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="13"/>
-        <v>6075725.1953750402</v>
+        <v>2050548.3327838138</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="14"/>
-        <v>4931648.1461647013</v>
+        <v>7620133.4443045547</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="15"/>
-        <v>5473877.866410383</v>
+        <v>3952904.2398986705</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="16"/>
-        <v>136208.2102615211</v>
+        <v>1823951.8036116094</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="17"/>
-        <v>6707040.2602376798</v>
+        <v>1987878.131828136</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="18"/>
-        <v>369.06396499999983</v>
+        <v>1350.5375979999999</v>
       </c>
       <c r="S105">
         <v>10.771552</v>
@@ -15275,46 +15275,46 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1426.6881100000001</v>
+        <v>1929.0795900000001</v>
       </c>
       <c r="I106">
-        <v>832.49157700000001</v>
+        <v>2121.132568</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="10"/>
-        <v>-594.19653300000004</v>
+        <v>192.05297799999994</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="11"/>
-        <v>-2790.1412936666657</v>
+        <v>-2688.361763638889</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="12"/>
-        <v>-2320.8415519537034</v>
+        <v>-2858.3624831481466</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="13"/>
-        <v>7784888.4386238949</v>
+        <v>7227288.9721955974</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="14"/>
-        <v>5386305.5092748748</v>
+        <v>8170236.0850688387</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="15"/>
-        <v>6475475.8501634579</v>
+        <v>7684312.4063153854</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="16"/>
-        <v>353069.51982922014</v>
+        <v>36884.346358668459</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="17"/>
-        <v>8497447.036730554</v>
+        <v>7109206.3772433558</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="18"/>
-        <v>594.19653300000004</v>
+        <v>192.05297799999994</v>
       </c>
       <c r="S106">
         <v>13.215975</v>
@@ -15342,46 +15342,46 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1389.721313</v>
+        <v>1895.5198969999999</v>
       </c>
       <c r="I107">
-        <v>658.05114700000001</v>
+        <v>1941.7574460000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="10"/>
-        <v>-731.67016599999999</v>
+        <v>46.237549000000172</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="11"/>
-        <v>-2964.5817236666658</v>
+        <v>-2867.7368856388889</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="12"/>
-        <v>-2357.8083489537034</v>
+        <v>-2891.9221761481467</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="13"/>
-        <v>8788744.7962984182</v>
+        <v>8223914.8452538336</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="14"/>
-        <v>5559260.2103957888</v>
+        <v>8363213.8728974322</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="15"/>
-        <v>6989915.5392168257</v>
+        <v>8293271.8949371241</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="16"/>
-        <v>535341.23181446758</v>
+        <v>2137.910937527417</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="17"/>
-        <v>9544877.4943605401</v>
+        <v>8097920.9971872875</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="18"/>
-        <v>731.67016599999999</v>
+        <v>46.237549000000172</v>
       </c>
       <c r="S107">
         <v>15.243527</v>
@@ -15409,46 +15409,46 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>1810.553345</v>
+        <v>2363.0297850000002</v>
       </c>
       <c r="I108">
-        <v>1479.0920410000001</v>
+        <v>1797.482544</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="10"/>
-        <v>-331.46130399999993</v>
+        <v>-565.54724100000021</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="11"/>
-        <v>-2143.5408296666656</v>
+        <v>-3012.011787638889</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="12"/>
-        <v>-1936.9763169537034</v>
+        <v>-2424.4122881481467</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="13"/>
-        <v>4594767.2884480571</v>
+        <v>9072215.0088756159</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="14"/>
-        <v>3751877.2524395338</v>
+        <v>5877774.9429237321</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="15"/>
-        <v>4151987.8214876237</v>
+        <v>7302358.3899987889</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="16"/>
-        <v>109866.59604938037</v>
+        <v>319843.68180271232</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="17"/>
-        <v>5145809.2401580969</v>
+        <v>8939857.9859438092</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="18"/>
-        <v>331.46130399999993</v>
+        <v>565.54724100000021</v>
       </c>
       <c r="S108">
         <v>14.913529</v>
@@ -15476,46 +15476,46 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1895.904053</v>
+        <v>2975.2160640000002</v>
       </c>
       <c r="I109">
-        <v>1868.7163089999999</v>
+        <v>1652.9334719999999</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="10"/>
-        <v>-27.187744000000066</v>
+        <v>-1322.2825920000002</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="11"/>
-        <v>-1753.916561666666</v>
+        <v>-3156.5608596388893</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="12"/>
-        <v>-1851.6256089537035</v>
+        <v>-1812.2260091481467</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="13"/>
-        <v>3076223.3052886198</v>
+        <v>9963876.4606042039</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="14"/>
-        <v>3428517.395733173</v>
+        <v>3284163.1082330183</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="15"/>
-        <v>3247596.8215500261</v>
+        <v>5720401.6892966274</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="16"/>
-        <v>739.1734238095396</v>
+        <v>1748431.253106239</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="17"/>
-        <v>3529939.6152371378</v>
+        <v>9825144.1706717145</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="18"/>
-        <v>27.187744000000066</v>
+        <v>1322.2825920000002</v>
       </c>
       <c r="S109">
         <v>13.524543</v>
@@ -15543,46 +15543,46 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>3928.6525879999999</v>
+        <v>3812.0229490000002</v>
       </c>
       <c r="I110">
-        <v>1918.775024</v>
+        <v>2287.5051269999999</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="10"/>
-        <v>-2009.8775639999999</v>
+        <v>-1524.5178220000003</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="11"/>
-        <v>-1703.8578466666659</v>
+        <v>-2521.9892046388891</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="12"/>
-        <v>181.12292604629647</v>
+        <v>-975.41912414814669</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="13"/>
-        <v>2903131.5616475674</v>
+        <v>6360429.5483150966</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="14"/>
-        <v>32805.514339572183</v>
+        <v>951442.46775393758</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="15"/>
-        <v>-308607.71875520848</v>
+        <v>2459996.5010999464</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="16"/>
-        <v>4039607.8222705736</v>
+        <v>2324154.5895956242</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="17"/>
-        <v>3344343.5258371807</v>
+        <v>6249684.7347165225</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="18"/>
-        <v>2009.8775639999999</v>
+        <v>1524.5178220000003</v>
       </c>
       <c r="S110">
         <v>7.9147090000000002</v>
@@ -15610,46 +15610,46 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>5555.185547</v>
+        <v>6479.826172</v>
       </c>
       <c r="I111">
-        <v>4757.0766599999997</v>
+        <v>4750.248047</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="10"/>
-        <v>-798.10888700000032</v>
+        <v>-1729.578125</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="11"/>
-        <v>1134.4437893333338</v>
+        <v>-59.246284638888937</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="12"/>
-        <v>1807.6558850462966</v>
+        <v>1692.3840988518532</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="13"/>
-        <v>1286962.7111569734</v>
+        <v>3510.1222435122472</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="14"/>
-        <v>3267619.7987425099</v>
+        <v>2864163.9380465993</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="15"/>
-        <v>2050683.9920426221</v>
+        <v>-100267.47003890645</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="16"/>
-        <v>636977.79550837923</v>
+        <v>2991440.4904785156</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="17"/>
-        <v>1019185.1412642886</v>
+        <v>1383.3955811090282</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="18"/>
-        <v>798.10888700000032</v>
+        <v>1729.578125</v>
       </c>
       <c r="S111">
         <v>4.2786520000000001</v>

--- a/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
+++ b/DataCW3M/SkillAssessment/Flow108monthsStatisticsCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6264F1D1-14BC-4DA3-9AD2-AFAAF481CA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1604118-2715-40E7-BE18-54CF1CA71385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,10 @@
     <t>Phi =</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</t>
+    <t xml:space="preserve"> USGS 14166000_flow_WILLAMETTE RIVER AT HARRISBURG  OR_23763337</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\Willamette\USGS 14166000_flow_WILLAMETTE RIVER AT HARRISBURG  OR_23763337.csv</t>
   </si>
 </sst>
 </file>
@@ -849,7 +849,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Monthly simulated v. gaged flow for 2010-18, Marys River near Philomath, 3/13/21 calibration</a:t>
+              <a:t>Monthly simulated v. gaged flow for 2010-18, Quartzville53 using C584</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -906,7 +906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</c:v>
+                  <c:v> USGS 14166000_flow_WILLAMETTE RIVER AT HARRISBURG  OR_23763337</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,328 +930,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6695.9804690000001</c:v>
+                  <c:v>14534.289062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3491.404297</c:v>
+                  <c:v>7237.3076170000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3766.2177729999999</c:v>
+                  <c:v>7913.8222660000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5044.9438479999999</c:v>
+                  <c:v>11413.815430000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4316.5932620000003</c:v>
+                  <c:v>9014.1992190000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5475.1298829999996</c:v>
+                  <c:v>11089.831055000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2056.030029</c:v>
+                  <c:v>3182.2875979999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1871.3280030000001</c:v>
+                  <c:v>2989.3032229999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2976.8432619999999</c:v>
+                  <c:v>5372.4599609999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3974.7485350000002</c:v>
+                  <c:v>7741.4204099999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6079.2973629999997</c:v>
+                  <c:v>14097.260742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9358.4306639999995</c:v>
+                  <c:v>22510.429688</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8467.2050780000009</c:v>
+                  <c:v>18604.607422000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3790.8862300000001</c:v>
+                  <c:v>7926.5585940000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7023.2099609999996</c:v>
+                  <c:v>16064.09375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7105.3559569999998</c:v>
+                  <c:v>16358.903319999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6173.8432620000003</c:v>
+                  <c:v>13012.577148</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5655.1137699999999</c:v>
+                  <c:v>11212.644531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2947.13501</c:v>
+                  <c:v>4735.0278319999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1974.820557</c:v>
+                  <c:v>2989.4409179999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2941.7133789999998</c:v>
+                  <c:v>5826.9423829999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3256.9560550000001</c:v>
+                  <c:v>7251.9438479999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4440.9091799999997</c:v>
+                  <c:v>9061.3613280000009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3769.0053710000002</c:v>
+                  <c:v>6307.0097660000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8896.6689449999994</c:v>
+                  <c:v>19933.958984000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5129.560547</c:v>
+                  <c:v>11171.180664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8062.9653319999998</c:v>
+                  <c:v>18249.935547000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8703.2783199999994</c:v>
+                  <c:v>21256.699218999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5850.8442379999997</c:v>
+                  <c:v>11464.631836</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4791.904297</c:v>
+                  <c:v>9225.1992190000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2364.2373050000001</c:v>
+                  <c:v>3700.945068</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1974.215698</c:v>
+                  <c:v>2944.1401369999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2933.6137699999999</c:v>
+                  <c:v>5781.8999020000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4480.2446289999998</c:v>
+                  <c:v>9966.4521480000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8438.8447269999997</c:v>
+                  <c:v>18360.591797000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9417.7324219999991</c:v>
+                  <c:v>23683.931640999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5523.9492190000001</c:v>
+                  <c:v>13777.961914</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3783.711182</c:v>
+                  <c:v>7784.2148440000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3907.5830080000001</c:v>
+                  <c:v>7680.7924800000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5193.3540039999998</c:v>
+                  <c:v>10256.133789</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4210.6259769999997</c:v>
+                  <c:v>7300.2338870000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2717.7788089999999</c:v>
+                  <c:v>4508.8100590000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2032.0460210000001</c:v>
+                  <c:v>3169.179443</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1930.1788329999999</c:v>
+                  <c:v>3072.6984859999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2948.5009770000001</c:v>
+                  <c:v>4615.3627930000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4616.6762699999999</c:v>
+                  <c:v>9205.4873050000006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5139.3652339999999</c:v>
+                  <c:v>10098.644531</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3537.2265619999998</c:v>
+                  <c:v>6232.4047849999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4509.8168949999999</c:v>
+                  <c:v>7563.2465819999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9142.7275389999995</c:v>
+                  <c:v>18535.134765999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10526.754883</c:v>
+                  <c:v>22273.548827999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5839.5068359999996</c:v>
+                  <c:v>11739.069336</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5263.234375</c:v>
+                  <c:v>9263.2998050000006</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2698.1745609999998</c:v>
+                  <c:v>4279.2416990000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2087.186279</c:v>
+                  <c:v>3094.9501949999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1945.6451420000001</c:v>
+                  <c:v>2840.217529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2825.1130370000001</c:v>
+                  <c:v>5477.3515619999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4115.2524409999996</c:v>
+                  <c:v>9255.5712889999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8862.8935550000006</c:v>
+                  <c:v>18252.566406000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10294.089844</c:v>
+                  <c:v>24082.056640999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6174.8183589999999</c:v>
+                  <c:v>13069.323242</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4511.7373049999997</c:v>
+                  <c:v>9395.2587889999995</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2950.4116210000002</c:v>
+                  <c:v>5665.185547</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3118.616943</c:v>
+                  <c:v>6317.6694340000004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2253.068115</c:v>
+                  <c:v>5210.3037109999996</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1986.7514650000001</c:v>
+                  <c:v>3437.275635</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1848.0439449999999</c:v>
+                  <c:v>2981.6047359999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1820.4916989999999</c:v>
+                  <c:v>2879.6125489999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2330.5310060000002</c:v>
+                  <c:v>2852.991943</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2369.6308589999999</c:v>
+                  <c:v>3046.2770999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5236.8696289999998</c:v>
+                  <c:v>9765.2080079999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10963.188477</c:v>
+                  <c:v>24958.072265999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7942.5981449999999</c:v>
+                  <c:v>18952.132812</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6613.5727539999998</c:v>
+                  <c:v>13763.725586</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7687.1376950000003</c:v>
+                  <c:v>16811.113281000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4657.7338870000003</c:v>
+                  <c:v>9468.8017579999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2892.2397460000002</c:v>
+                  <c:v>5413.9599609999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2281.3283689999998</c:v>
+                  <c:v>3776.9013669999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2047.549072</c:v>
+                  <c:v>3259.95874</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1881.2265620000001</c:v>
+                  <c:v>3032.0275879999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2755.061768</c:v>
+                  <c:v>3968.6103520000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8310.7724610000005</c:v>
+                  <c:v>17683.035156000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6983.9541019999997</c:v>
+                  <c:v>14200.368164</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4804.3959960000002</c:v>
+                  <c:v>13270.244140999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5513.390625</c:v>
+                  <c:v>13118.873046999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9320.6953119999998</c:v>
+                  <c:v>18940.064452999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>11449.222656</c:v>
+                  <c:v>24330.332031000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7312.798828</c:v>
+                  <c:v>15678.014648</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6311.4604490000002</c:v>
+                  <c:v>12010.78125</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3056.2561040000001</c:v>
+                  <c:v>5222.7221680000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2054.6359859999998</c:v>
+                  <c:v>3080.2229000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1971.0048830000001</c:v>
+                  <c:v>2924.4235840000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3062.2509770000001</c:v>
+                  <c:v>6285.4243159999996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6024.2065430000002</c:v>
+                  <c:v>12495.377930000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9046.1875</c:v>
+                  <c:v>18258.457031000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4679.2075199999999</c:v>
+                  <c:v>9107.9902340000008</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7020.2944340000004</c:v>
+                  <c:v>13198.891602</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3866.2360840000001</c:v>
+                  <c:v>7166.4086909999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4718.6152339999999</c:v>
+                  <c:v>9511.4892579999996</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5725.4326170000004</c:v>
+                  <c:v>11271.021484000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2659.8376459999999</c:v>
+                  <c:v>5287.6362300000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2026.983154</c:v>
+                  <c:v>3355.5065920000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1929.0795900000001</c:v>
+                  <c:v>3032.678711</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1895.5198969999999</c:v>
+                  <c:v>2992.1733399999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2363.0297850000002</c:v>
+                  <c:v>3303.2846679999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2975.2160640000002</c:v>
+                  <c:v>4386.2250979999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3812.0229490000002</c:v>
+                  <c:v>6774.5239259999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6479.826172</c:v>
+                  <c:v>12987.736328000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
+                  <c:v> Obs:..\Observations\Willamette\USGS 14166000_flow_WILLAMETTE RIVER AT HARRISBURG  OR_23763337.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,328 +1296,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>7731.4653319999998</c:v>
+                  <c:v>18537.882812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3764.2907709999999</c:v>
+                  <c:v>7472.3950199999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4031.554443</c:v>
+                  <c:v>8289.7695309999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5563.5078119999998</c:v>
+                  <c:v>12568.894531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4884.7182620000003</c:v>
+                  <c:v>11520.842773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7665.8681640000004</c:v>
+                  <c:v>20681.923827999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2627.0671390000002</c:v>
+                  <c:v>6980.1650390000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1990.168091</c:v>
+                  <c:v>5391.6801759999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2384.7985840000001</c:v>
+                  <c:v>5283.1840819999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3398.7834469999998</c:v>
+                  <c:v>6593.9653319999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5645.6079099999997</c:v>
+                  <c:v>11885.127930000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11827.931640999999</c:v>
+                  <c:v>28036.267577999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10789.300781</c:v>
+                  <c:v>23915.578125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3880.3869629999999</c:v>
+                  <c:v>8936.6259769999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6301.9423829999996</c:v>
+                  <c:v>15460.403319999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8257.7431639999995</c:v>
+                  <c:v>20488.927734000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6898.2861329999996</c:v>
+                  <c:v>15174.427734000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6224.9716799999997</c:v>
+                  <c:v>12554.506836</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3586.1628420000002</c:v>
+                  <c:v>6677.375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2766.5927729999999</c:v>
+                  <c:v>5637.0278319999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2568.4582519999999</c:v>
+                  <c:v>6699.6005859999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2841.3374020000001</c:v>
+                  <c:v>7375.2978519999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3978.67749</c:v>
+                  <c:v>9179.4072269999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4171.935547</c:v>
+                  <c:v>7222.126953</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12011.785156</c:v>
+                  <c:v>28355.005859000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6274.9853519999997</c:v>
+                  <c:v>8313.0048829999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8751.96875</c:v>
+                  <c:v>24845.994140999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9398.6601559999999</c:v>
+                  <c:v>23566.699218999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6719.7983400000003</c:v>
+                  <c:v>13823.322265999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5210.1948240000002</c:v>
+                  <c:v>10956.134765999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3293.6625979999999</c:v>
+                  <c:v>5490.0141599999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2860.4638669999999</c:v>
+                  <c:v>5157.1601559999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2684.0275879999999</c:v>
+                  <c:v>6160.9165039999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3626.814453</c:v>
+                  <c:v>8340.3486329999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5968.6997069999998</c:v>
+                  <c:v>19979.042968999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9865.5234380000002</c:v>
+                  <c:v>29189.210938</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5165.4565430000002</c:v>
+                  <c:v>11927.501953000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4384.8510740000002</c:v>
+                  <c:v>9892.9375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4295.7241210000002</c:v>
+                  <c:v>7538.5639650000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5470.6733400000003</c:v>
+                  <c:v>10159.708008</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4222.9233400000003</c:v>
+                  <c:v>8576.7197269999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3116.2150879999999</c:v>
+                  <c:v>5985.6347660000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2251.0541990000002</c:v>
+                  <c:v>3733.2360840000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2185.2485350000002</c:v>
+                  <c:v>5197.4873049999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2879.4721679999998</c:v>
+                  <c:v>6804.9184569999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3710.0266109999998</c:v>
+                  <c:v>8746.9746090000008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4405.0717770000001</c:v>
+                  <c:v>11857.452148</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2784.196289</c:v>
+                  <c:v>8356.5292969999991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3600.7658689999998</c:v>
+                  <c:v>8623.2783199999994</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11908.654296999999</c:v>
+                  <c:v>30475.421875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9075.5693360000005</c:v>
+                  <c:v>24808.746093999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6030.7529299999997</c:v>
+                  <c:v>13918.852539</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5272.5742190000001</c:v>
+                  <c:v>11709.092773</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3332.3615719999998</c:v>
+                  <c:v>7300.4370120000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2467.9572750000002</c:v>
+                  <c:v>4796.4003910000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2476.669922</c:v>
+                  <c:v>5362.8188479999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2288.59375</c:v>
+                  <c:v>5252.294922</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2809.5463869999999</c:v>
+                  <c:v>6773.5688479999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6130.9331050000001</c:v>
+                  <c:v>16040.079102</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10606.087890999999</c:v>
+                  <c:v>28317.193359000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5744.9121089999999</c:v>
+                  <c:v>16603.951172000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5008.0356449999999</c:v>
+                  <c:v>11703.522461</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3114.3237300000001</c:v>
+                  <c:v>5920.466797</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3157.3017580000001</c:v>
+                  <c:v>5853.0180659999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2357.8728030000002</c:v>
+                  <c:v>4518.8276370000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1993.559082</c:v>
+                  <c:v>3936.9189449999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1708.6188959999999</c:v>
+                  <c:v>3468.578857</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1607.1839600000001</c:v>
+                  <c:v>3488.83374</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1578.5704350000001</c:v>
+                  <c:v>3556.7189939999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1602.200928</c:v>
+                  <c:v>4068.266357</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3245.6198730000001</c:v>
+                  <c:v>6437.9462890000004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10816.071289</c:v>
+                  <c:v>30228.142577999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7089.7407229999999</c:v>
+                  <c:v>20782.845702999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7053.9790039999998</c:v>
+                  <c:v>14387.502930000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8079.7070309999999</c:v>
+                  <c:v>17205.535156000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4306.8090819999998</c:v>
+                  <c:v>9389.4199219999991</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3055.006836</c:v>
+                  <c:v>8795.8759769999997</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2420.9304200000001</c:v>
+                  <c:v>5981.3095700000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1992.960327</c:v>
+                  <c:v>4402.5595700000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1834.895874</c:v>
+                  <c:v>3919.5578609999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1755.045288</c:v>
+                  <c:v>3716.9077149999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4155.1914059999999</c:v>
+                  <c:v>8961.8115230000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4667.6010740000002</c:v>
+                  <c:v>11102.369140999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7449.6606449999999</c:v>
+                  <c:v>22239.306640999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5269.7221680000002</c:v>
+                  <c:v>14643.255859000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7626.1015619999998</c:v>
+                  <c:v>18744.607422000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10718.837890999999</c:v>
+                  <c:v>25069.798827999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7868.5170900000003</c:v>
+                  <c:v>17095.380859000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7053.4711909999996</c:v>
+                  <c:v>15261.492188</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3840.7082519999999</c:v>
+                  <c:v>9308.1455079999996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2523.6594239999999</c:v>
+                  <c:v>5192.3291019999997</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3196.7001949999999</c:v>
+                  <c:v>7116.2138670000004</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2396.444336</c:v>
+                  <c:v>5672.2529299999997</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4457.8056640000004</c:v>
+                  <c:v>9229.2089840000008</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8033.3442379999997</c:v>
+                  <c:v>17728.75</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4622.6630859999996</c:v>
+                  <c:v>9996.9111329999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6787.6606449999999</c:v>
+                  <c:v>14465.935546999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4740.3745120000003</c:v>
+                  <c:v>9308.0097659999992</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4707.0249020000001</c:v>
+                  <c:v>9490.9189449999994</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6125.1625979999999</c:v>
+                  <c:v>11445.162109000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4413.2910160000001</c:v>
+                  <c:v>8774.59375</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3377.5207519999999</c:v>
+                  <c:v>6512.830078</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2121.132568</c:v>
+                  <c:v>4667.2441410000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1941.7574460000001</c:v>
+                  <c:v>4749.7709960000002</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1797.482544</c:v>
+                  <c:v>4153.8032229999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1652.9334719999999</c:v>
+                  <c:v>3885.466797</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2287.5051269999999</c:v>
+                  <c:v>4665.6787109999996</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4750.248047</c:v>
+                  <c:v>9774.5966800000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,7 +7927,7 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H1">
         <f>AVERAGE(H4:H15)</f>
-        <v>4592.2456156666658</v>
+        <v>9758.0355225833355</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="P1" s="11">
         <f>SUM(P4:P111)</f>
-        <v>130754399.99732108</v>
+        <v>1020528516.2658402</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B2" s="14">
         <f>H2-I2</f>
-        <v>-22.052258490742133</v>
+        <v>-1408.0875334814773</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -7965,11 +7965,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>4787.4420731481468</v>
+        <v>9763.3815149351867</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>4809.494331638889</v>
+        <v>11171.469048416664</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7979,12 +7979,12 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4">
         <f>AVERAGE(P4:P111)</f>
-        <v>1210688.8888640841</v>
+        <v>9449338.1135725938</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>AVERAGE(R4:R111)</f>
-        <v>790.1372895833332</v>
+        <v>2205.9675518888889</v>
       </c>
       <c r="S2">
         <f>AVERAGE(S4:S111)</f>
@@ -8003,11 +8003,11 @@
       </c>
       <c r="B3" s="9">
         <f>(I2-H2)/H2</f>
-        <v>4.6062716068000203E-3</v>
+        <v>0.14422129580079457</v>
       </c>
       <c r="C3" s="16" t="str">
         <f>IF(ABS(B3)&lt;5%,"VG",IF(ABS(B3)&lt;10%,"G",IF(ABS(B3)&lt;15%,"S","NS")))</f>
-        <v>VG</v>
+        <v>S</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B4" s="13">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.82506467748994006</v>
+        <v>0.80721169377980317</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF(B4&gt;0.8,"VG",IF(B4&gt;0.7,"G",IF(B4&gt;0.45,"S","NS")))</f>
@@ -8110,46 +8110,46 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>6695.9804690000001</v>
+        <v>14534.289062</v>
       </c>
       <c r="I4">
-        <v>7731.4653319999998</v>
+        <v>18537.882812</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>1035.4848629999997</v>
+        <v>4003.59375</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>2921.9710003611108</v>
+        <v>7366.4137635833358</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>1908.5383958518532</v>
+        <v>4770.9075470648131</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>8537914.5269513112</v>
+        <v>54264051.736310005</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>3642518.8084407654</v>
+        <v>22761558.822639991</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>5576693.8457548292</v>
+        <v>35144479.019481853</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>1072228.901502128</v>
+        <v>16028762.915039063</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>8667272.9486606847</v>
+        <v>76991873.012192085</v>
       </c>
       <c r="R4" s="2">
         <f>ABS(J4)</f>
-        <v>1035.4848629999997</v>
+        <v>4003.59375</v>
       </c>
       <c r="S4">
         <v>5.1376660000000003</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B5" s="13">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.41823800784026122</v>
+        <v>0.43045657545462696</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>IF(B5&lt;=0.5,"VG",IF(B5&lt;=0.6,"G",IF(B5&lt;=0.7,"S","NS")))</f>
@@ -8209,46 +8209,46 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>3491.404297</v>
+        <v>7237.3076170000004</v>
       </c>
       <c r="I5">
-        <v>3764.2907709999999</v>
+        <v>7472.3950199999999</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>272.88647399999991</v>
+        <v>235.08740299999954</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-1045.203560638889</v>
+        <v>-3699.0740284166641</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1296.0377761481468</v>
+        <v>-2526.0738979351863</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>1092450.4831722118</v>
+        <v>13683148.667706687</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>1679713.9172030338</v>
+        <v>6381049.337829466</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>1354623.2983525505</v>
+        <v>9344134.3497132957</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>74467.027692152624</v>
+        <v>55266.087049284193</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1046838.5870874486</v>
+        <v>5248619.1199754123</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5:R68" si="8">ABS(J5)</f>
-        <v>272.88647399999991</v>
+        <v>235.08740299999954</v>
       </c>
       <c r="S5">
         <v>5.2818040000000002</v>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="B6" s="10">
         <f>B12*B12</f>
-        <v>0.82637722055568497</v>
+        <v>0.85193241057311675</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>IF(B6&gt;0.85,"VG",IF(B6&gt;0.75,"G",IF(B6&gt;0.6,"S","NS")))</f>
-        <v>G</v>
+        <v>VG</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -8308,46 +8308,46 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>3766.2177729999999</v>
+        <v>7913.8222660000001</v>
       </c>
       <c r="I6">
-        <v>4031.554443</v>
+        <v>8289.7695309999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>265.33667000000014</v>
+        <v>375.94726499999979</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-777.93988863888899</v>
+        <v>-2881.6995174166641</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-1021.224300148147</v>
+        <v>-1849.5592489351866</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>605190.47033548704</v>
+        <v>8304192.1086794343</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>1042899.0712130726</v>
+        <v>3420869.4153216914</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>794451.11833257682</v>
+        <v>5329873.9950900553</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>70403.548446688976</v>
+        <v>141336.34606098005</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>571366.10941098165</v>
+        <v>2171532.2791973972</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
-        <v>265.33667000000014</v>
+        <v>375.94726499999979</v>
       </c>
       <c r="S6">
         <v>5.855613</v>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B7" s="1">
         <f>H2</f>
-        <v>4787.4420731481468</v>
+        <v>9763.3815149351867</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -8404,46 +8404,46 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>5044.9438479999999</v>
+        <v>11413.815430000001</v>
       </c>
       <c r="I7">
-        <v>5563.5078119999998</v>
+        <v>12568.894531</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>518.56396399999994</v>
+        <v>1155.0791009999994</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>754.01348036111085</v>
+        <v>1397.4254825833359</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>257.50177485185304</v>
+        <v>1650.4339150648138</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>568536.3285662753</v>
+        <v>1952797.9793732692</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>66307.164051854415</v>
+        <v>2723932.107996169</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>194159.80945520889</v>
+        <v>2306358.4102313519</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>268908.58475939324</v>
+        <v>1334207.7295669666</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>602278.03101967252</v>
+        <v>7870903.2833090844</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>518.56396399999994</v>
+        <v>1155.0791009999994</v>
       </c>
       <c r="S7">
         <v>6.2127059999999998</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B8" s="1">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2484.2024738733285</v>
+        <v>6004.5194992973293</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -8500,46 +8500,46 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>4316.5932620000003</v>
+        <v>9014.1992190000001</v>
       </c>
       <c r="I8">
-        <v>4884.7182620000003</v>
+        <v>11520.842773</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>568.125</v>
+        <v>2506.6435540000002</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>75.223930361111343</v>
+        <v>349.3737245833363</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-470.84881114814652</v>
+        <v>-749.18229593518663</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>5658.6396989733284</v>
+        <v>122061.99942923292</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>221698.60295962295</v>
+        <v>561274.1125427176</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-35419.098180420238</v>
+        <v>-261744.60912277145</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>322766.015625</v>
+        <v>6283261.9068097519</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>9462.6569175414625</v>
+        <v>3088670.0735987574</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>568.125</v>
+        <v>2506.6435540000002</v>
       </c>
       <c r="S8">
         <v>6.9663380000000004</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B9" s="1">
         <f>I2</f>
-        <v>4809.494331638889</v>
+        <v>11171.469048416664</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -8596,46 +8596,46 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>5475.1298829999996</v>
+        <v>11089.831055000001</v>
       </c>
       <c r="I9">
-        <v>7665.8681640000004</v>
+        <v>20681.923827999999</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>2190.7382810000008</v>
+        <v>9592.0927729999985</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>2856.3738323611115</v>
+        <v>9510.454779583335</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>687.68780985185276</v>
+        <v>1326.4495400648138</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>8158871.4701973032</v>
+        <v>90448750.114499494</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>472914.523818838</v>
+        <v>1759468.3823381562</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1964293.464894556</v>
+        <v>12615138.368185526</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>4799334.2158388384</v>
+        <v>92008243.765838802</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>8285336.7604966834</v>
+        <v>119214566.2421867</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>2190.7382810000008</v>
+        <v>9592.0927729999985</v>
       </c>
       <c r="S9">
         <v>8.0567130000000002</v>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B10" s="1">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>2630.7375473654329</v>
+        <v>7001.0044008326404</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8691,46 +8691,46 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>2056.030029</v>
+        <v>3182.2875979999999</v>
       </c>
       <c r="I10">
-        <v>2627.0671390000002</v>
+        <v>6980.1650390000004</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>571.03711000000021</v>
+        <v>3797.8774410000005</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-2182.4271926388888</v>
+        <v>-4191.3040094166636</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-2731.4120441481468</v>
+        <v>-6581.0939169351868</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>4762988.4511696612</v>
+        <v>17567029.299352199</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>7460611.7549175583</v>
+        <v>43310797.143521316</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>5961107.9194502886</v>
+        <v>27583365.320398062</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>326083.38099715236</v>
+        <v>14423873.056856712</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>4667219.8560956093</v>
+        <v>7746293.9519170774</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
-        <v>571.03711000000021</v>
+        <v>3797.8774410000005</v>
       </c>
       <c r="S10">
         <v>10.862743</v>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B11" s="1">
         <f>SQRT(P$2)</f>
-        <v>1100.3130867458062</v>
+        <v>3073.977572067271</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -8786,46 +8786,46 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1871.3280030000001</v>
+        <v>2989.3032229999999</v>
       </c>
       <c r="I11">
-        <v>1990.168091</v>
+        <v>5391.6801759999998</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>118.84008799999992</v>
+        <v>2402.376953</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-2819.326240638889</v>
+        <v>-5779.7888724166642</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2916.1140701481468</v>
+        <v>-6774.0782919351868</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>7948600.4511550106</v>
+        <v>33405959.409711495</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>8503721.2701159902</v>
+        <v>45888136.705267541</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>8221476.9186649444</v>
+        <v>39152742.332606278</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>14122.966515847726</v>
+        <v>5771415.0243055644</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>7824741.7312029507</v>
+        <v>19111772.596847706</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
-        <v>118.84008799999992</v>
+        <v>2402.376953</v>
       </c>
       <c r="S11">
         <v>13.279059</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.90905292505754853</v>
+        <v>0.92300184754588477</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
@@ -8882,46 +8882,46 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>2976.8432619999999</v>
+        <v>5372.4599609999996</v>
       </c>
       <c r="I12">
-        <v>2384.7985840000001</v>
+        <v>5283.1840819999998</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-592.04467799999975</v>
+        <v>-89.275878999999804</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2424.6957476388889</v>
+        <v>-5888.2849664166642</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1810.598811148147</v>
+        <v>-4390.9215539351871</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>5879149.4686181098</v>
+        <v>34671899.845728494</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>3278268.0549310832</v>
+        <v>19280192.092812598</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>4390151.2380709397</v>
+        <v>25854997.37475146</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>350516.90074812341</v>
+        <v>7970.1825712226064</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>5772695.735945981</v>
+        <v>20072169.038079038</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
-        <v>592.04467799999975</v>
+        <v>89.275878999999804</v>
       </c>
       <c r="S12">
         <v>13.139711999999999</v>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B13" s="2">
         <f>R2</f>
-        <v>790.1372895833332</v>
+        <v>2205.9675518888889</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -8977,46 +8977,46 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>3974.7485350000002</v>
+        <v>7741.4204099999997</v>
       </c>
       <c r="I13">
-        <v>3398.7834469999998</v>
+        <v>6593.9653319999998</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-575.96508800000038</v>
+        <v>-1147.455078</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-1410.7108846388892</v>
+        <v>-4577.5037164166642</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-812.69353814814667</v>
+        <v>-2021.961104935187</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>1990105.2000386373</v>
+        <v>20953540.273808371</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>660470.78694775316</v>
+        <v>4088326.7098707221</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>1146475.6201412808</v>
+        <v>9255534.4722907636</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>331735.78259484819</v>
+        <v>1316653.156027986</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>1928372.7799756592</v>
+        <v>10045198.94065145</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
-        <v>575.96508800000038</v>
+        <v>1147.455078</v>
       </c>
       <c r="S13">
         <v>12.061854</v>
@@ -9065,46 +9065,46 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6079.2973629999997</v>
+        <v>14097.260742</v>
       </c>
       <c r="I14">
-        <v>5645.6079099999997</v>
+        <v>11885.127930000001</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-433.68945299999996</v>
+        <v>-2212.1328119999998</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>836.11357836111074</v>
+        <v>713.65888158333655</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>1291.8552898518528</v>
+        <v>4333.8792270648137</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>699085.91591982124</v>
+        <v>509308.99926277879</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1668890.0899182146</v>
+        <v>18782509.154783908</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>1080137.7491227626</v>
+        <v>3092911.4021043298</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>188086.54164343918</v>
+        <v>4893531.5779270269</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>736448.60353964102</v>
+        <v>4501807.8498403896</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
-        <v>433.68945299999996</v>
+        <v>2212.1328119999998</v>
       </c>
       <c r="S14">
         <v>5.7312029999999998</v>
@@ -9142,7 +9142,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B5</f>
-        <v>0.41823800784026122</v>
+        <v>0.43045657545462696</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -9157,46 +9157,46 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>9358.4306639999995</v>
+        <v>22510.429688</v>
       </c>
       <c r="I15">
-        <v>11827.931640999999</v>
+        <v>28036.267577999999</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>2469.5009769999997</v>
+        <v>5525.8378899999989</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>7018.4373093611102</v>
+        <v>16864.798529583335</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>4570.9885908518527</v>
+        <v>12747.048173064813</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>49258462.265432023</v>
+        <v>284421429.44343621</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>20893936.697697807</v>
+        <v>162487237.12643501</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>32081196.866698612</v>
+        <v>214976399.28563139</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>6098435.075403953</v>
+        <v>30534884.386559639</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>49568493.35503076</v>
+        <v>333898365.07374823</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
-        <v>2469.5009769999997</v>
+        <v>5525.8378899999989</v>
       </c>
       <c r="S15">
         <v>4.0966670000000001</v>
@@ -9245,46 +9245,46 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>8467.2050780000009</v>
+        <v>18604.607422000001</v>
       </c>
       <c r="I16">
-        <v>10789.300781</v>
+        <v>23915.578125</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2322.095702999999</v>
+        <v>5310.970702999999</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>5979.8064493611109</v>
+        <v>12744.109076583336</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>3679.763004851854</v>
+        <v>8841.2259070648142</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>35758085.171820737</v>
+        <v>162412316.15585378</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>13540655.771876346</v>
+        <v>78167275.539754048</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>22004270.548533536</v>
+        <v>112673547.33034843</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>5392128.4538910594</v>
+        <v>28206409.808124304</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>36022307.949017115</v>
+        <v>200284668.88992998</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>2322.095702999999</v>
+        <v>5310.970702999999</v>
       </c>
       <c r="S16">
         <v>4.0692149999999998</v>
@@ -9312,46 +9312,46 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>3790.8862300000001</v>
+        <v>7926.5585940000001</v>
       </c>
       <c r="I17">
-        <v>3880.3869629999999</v>
+        <v>8936.6259769999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>89.500732999999855</v>
+        <v>1010.0673829999996</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-929.10736863888906</v>
+        <v>-2234.8430714166643</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-996.55584314814678</v>
+        <v>-1836.8229209351866</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>863240.50245908054</v>
+        <v>4994523.5538590699</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>993123.54851271375</v>
+        <v>3373918.4428728707</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>925907.37712908408</v>
+        <v>4105010.9782713214</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>8010.3812075372634</v>
+        <v>1020236.1182004679</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>822748.97284586693</v>
+        <v>683524.71950650052</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>89.500732999999855</v>
+        <v>1010.0673829999996</v>
       </c>
       <c r="S17">
         <v>4.3104899999999997</v>
@@ -9379,46 +9379,46 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>7023.2099609999996</v>
+        <v>16064.09375</v>
       </c>
       <c r="I18">
-        <v>6301.9423829999996</v>
+        <v>15460.403319999999</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-721.26757799999996</v>
+        <v>-603.69043000000056</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>1492.4480513611106</v>
+        <v>4288.9342715833354</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>2235.7678878518527</v>
+        <v>6300.7122350648133</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>2227401.1860115761</v>
+        <v>18394957.185962077</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>4998658.0483495351</v>
+        <v>39698974.669095434</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>3336767.4275202439</v>
+        <v>27023340.640353914</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>520226.91907398601</v>
+        <v>364442.13527358556</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>2293711.1885413579</v>
+        <v>32456057.447383936</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
-        <v>721.26757799999996</v>
+        <v>603.69043000000056</v>
       </c>
       <c r="S18">
         <v>4.6696390000000001</v>
@@ -9446,46 +9446,46 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>7105.3559569999998</v>
+        <v>16358.903319999999</v>
       </c>
       <c r="I19">
-        <v>8257.7431639999995</v>
+        <v>20488.927734000001</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>1152.3872069999998</v>
+        <v>4130.0244140000013</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>3448.2488323611105</v>
+        <v>9317.4586855833368</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>2317.9138838518529</v>
+        <v>6595.5218050648127</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>11890420.009879762</v>
+        <v>86815036.357552364</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>5372724.7729531815</v>
+        <v>43500907.881085403</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>7992743.8435057588</v>
+        <v>61453501.928555429</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>1327996.2748572603</v>
+        <v>17057101.660236053</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>12042989.661167558</v>
+        <v>115037341.69729553</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>1152.3872069999998</v>
+        <v>4130.0244140000013</v>
       </c>
       <c r="S19">
         <v>5.725752</v>
@@ -9513,46 +9513,46 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>6173.8432620000003</v>
+        <v>13012.577148</v>
       </c>
       <c r="I20">
-        <v>6898.2861329999996</v>
+        <v>15174.427734000001</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>724.44287099999929</v>
+        <v>2161.8505860000005</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>2088.7918013611106</v>
+        <v>4002.9586855833368</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>1386.4011888518535</v>
+        <v>3249.1956330648136</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>4363051.1894333931</v>
+        <v>16023678.238487076</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>1922108.2564498326</v>
+        <v>10557272.261927456</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>2895903.4366710484</v>
+        <v>13006395.880536243</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>524817.47334272158</v>
+        <v>4673597.9561885456</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>4455662.6450118525</v>
+        <v>29279421.184855621</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
-        <v>724.44287099999929</v>
+        <v>2161.8505860000005</v>
       </c>
       <c r="S20">
         <v>6.651535</v>
@@ -9580,46 +9580,46 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>5655.1137699999999</v>
+        <v>11212.644531</v>
       </c>
       <c r="I21">
-        <v>6224.9716799999997</v>
+        <v>12554.506836</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>569.85790999999972</v>
+        <v>1341.8623050000006</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>1415.4773483611107</v>
+        <v>1383.0377875833365</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>867.67169685185308</v>
+        <v>1449.2630160648132</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>2003576.123723401</v>
+        <v>1912793.5218834102</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>752854.17351777409</v>
+        <v>2100363.289733279</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>1228169.6327078464</v>
+        <v>2004385.5153646327</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>324738.03758956777</v>
+        <v>1800594.4455799146</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>2066491.3705756424</v>
+        <v>7790380.5578891598</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
-        <v>569.85790999999972</v>
+        <v>1341.8623050000006</v>
       </c>
       <c r="S21">
         <v>8.1925410000000003</v>
@@ -9647,46 +9647,46 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>2947.13501</v>
+        <v>4735.0278319999998</v>
       </c>
       <c r="I22">
-        <v>3586.1628420000002</v>
+        <v>6677.375</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>639.02783200000022</v>
+        <v>1942.3471680000002</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-1223.3314896388888</v>
+        <v>-4494.094048416664</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1840.3070631481469</v>
+        <v>-5028.353682935187</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>1496539.9335421026</v>
+        <v>20196881.316014081</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3386730.0866729575</v>
+        <v>25284340.760687858</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>2251305.580953991</v>
+        <v>22597894.359813038</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>408356.57007062051</v>
+        <v>3772712.521037621</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>1443071.7911878824</v>
+        <v>9523436.2102224175</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
-        <v>639.02783200000022</v>
+        <v>1942.3471680000002</v>
       </c>
       <c r="S22">
         <v>10.529388000000001</v>
@@ -9714,46 +9714,46 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1974.820557</v>
+        <v>2989.4409179999998</v>
       </c>
       <c r="I23">
-        <v>2766.5927729999999</v>
+        <v>5637.0278319999998</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>791.77221599999984</v>
+        <v>2647.586914</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-2042.9015586388891</v>
+        <v>-5534.4412164166642</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2812.6215161481468</v>
+        <v>-6773.9405969351865</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>4173446.7782892026</v>
+        <v>30630039.577971566</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>7910839.7930995002</v>
+        <v>45886271.210806631</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>5745908.8792003244</v>
+        <v>37489976.037236199</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>626903.24202955037</v>
+        <v>7009716.4671840435</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>4083831.8939092555</v>
+        <v>17026794.716672782</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>791.77221599999984</v>
+        <v>2647.586914</v>
       </c>
       <c r="S23">
         <v>12.893722</v>
@@ -9781,46 +9781,46 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>2941.7133789999998</v>
+        <v>5826.9423829999996</v>
       </c>
       <c r="I24">
-        <v>2568.4582519999999</v>
+        <v>6699.6005859999996</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-373.2551269999999</v>
+        <v>872.65820299999996</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-2241.0360796388891</v>
+        <v>-4471.8684624166644</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1845.728694148147</v>
+        <v>-3936.4391319351871</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>5022242.7102432409</v>
+        <v>19997607.545156784</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>3406714.4124018243</v>
+        <v>15495553.03943065</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>4136344.5968107698</v>
+        <v>17603238.008323796</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>139319.38983178604</v>
+        <v>761532.33926318912</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>4923889.1985172313</v>
+        <v>9386753.5805069581</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
-        <v>373.2551269999999</v>
+        <v>872.65820299999996</v>
       </c>
       <c r="S24">
         <v>13.478433000000001</v>
@@ -9848,46 +9848,46 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>3256.9560550000001</v>
+        <v>7251.9438479999999</v>
       </c>
       <c r="I25">
-        <v>2841.3374020000001</v>
+        <v>7375.2978519999997</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-415.61865299999999</v>
+        <v>123.3540039999998</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-1968.1569296388889</v>
+        <v>-3796.1711964166643</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-1530.4860181481467</v>
+        <v>-2511.4376669351868</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>3873641.6996855782</v>
+        <v>14410915.752503529</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>2342387.4517469695</v>
+        <v>6307319.1549008545</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>3012236.6623337055</v>
+        <v>9533847.3328152243</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>172738.8647215344</v>
+        <v>15216.210302831967</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>3787323.3910646364</v>
+        <v>5702943.5811779397</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
-        <v>415.61865299999999</v>
+        <v>123.3540039999998</v>
       </c>
       <c r="S25">
         <v>12.416278</v>
@@ -9915,46 +9915,46 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>4440.9091799999997</v>
+        <v>9061.3613280000009</v>
       </c>
       <c r="I26">
-        <v>3978.67749</v>
+        <v>9179.4072269999997</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-462.23168999999962</v>
+        <v>118.04589899999883</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-830.81684163888895</v>
+        <v>-1992.0618214166643</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-346.5328931481472</v>
+        <v>-702.02018693518585</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>690256.62435081869</v>
+        <v>3968310.3003458781</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>120085.0460336252</v>
+        <v>492832.34286451328</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>287905.36380933021</v>
+        <v>1398467.6122573735</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>213658.13524025574</v>
+        <v>13934.834270717924</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>654100.15095479565</v>
+        <v>341025.96896940871</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>462.23168999999962</v>
+        <v>118.04589899999883</v>
       </c>
       <c r="S26">
         <v>7.2547030000000001</v>
@@ -9982,46 +9982,46 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3769.0053710000002</v>
+        <v>6307.0097660000001</v>
       </c>
       <c r="I27">
-        <v>4171.935547</v>
+        <v>7222.126953</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>402.93017599999985</v>
+        <v>915.11718699999983</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-637.55878463888894</v>
+        <v>-3949.3420954166641</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-1018.4367021481467</v>
+        <v>-3456.3717489351866</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>406481.20387021714</v>
+        <v>15597302.986630086</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>1037213.3162823928</v>
+        <v>11946505.666837281</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>649313.26605321048</v>
+        <v>13650394.44547865</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>162352.72673139087</v>
+        <v>837439.46594279271</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>378848.28373095935</v>
+        <v>6457974.7485563979</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
-        <v>402.93017599999985</v>
+        <v>915.11718699999983</v>
       </c>
       <c r="S27">
         <v>3.306524</v>
@@ -10049,46 +10049,46 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>8896.6689449999994</v>
+        <v>19933.958984000001</v>
       </c>
       <c r="I28">
-        <v>12011.785156</v>
+        <v>28355.005859000001</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>3115.1162110000005</v>
+        <v>8421.046875</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>7202.2908243611109</v>
+        <v>17183.536810583337</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>4109.2268718518526</v>
+        <v>10170.577469064814</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>51872993.118676253</v>
+        <v>295273937.32067257</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>16885745.484349363</v>
+        <v>103440646.05424884</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>29595846.994356707</v>
+        <v>174766492.32456475</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>9703949.0080350004</v>
+        <v>70914030.470947266</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>52191132.978749417</v>
+        <v>345648495.75082344</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
-        <v>3115.1162110000005</v>
+        <v>8421.046875</v>
       </c>
       <c r="S28">
         <v>4.1439440000000003</v>
@@ -10116,46 +10116,46 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5129.560547</v>
+        <v>11171.180664</v>
       </c>
       <c r="I29">
-        <v>6274.9853519999997</v>
+        <v>8313.0048829999996</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>1145.4248049999997</v>
+        <v>-2858.1757809999999</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>1465.4910203611107</v>
+        <v>-2858.4641654166644</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>342.1184738518532</v>
+        <v>1407.7991490648128</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>2147663.9307590495</v>
+        <v>8170817.3849711874</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>117045.05015072116</v>
+        <v>1981898.444107611</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>501371.55132953834</v>
+        <v>-4024143.4197058403</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>1311997.9839092873</v>
+        <v>8169168.7950949594</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>2212785.0064573213</v>
+        <v>2103592.3744636574</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
-        <v>1145.4248049999997</v>
+        <v>2858.1757809999999</v>
       </c>
       <c r="S29">
         <v>4.8668040000000001</v>
@@ -10183,46 +10183,46 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>8062.9653319999998</v>
+        <v>18249.935547000001</v>
       </c>
       <c r="I30">
-        <v>8751.96875</v>
+        <v>24845.994140999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>689.00341800000024</v>
+        <v>6596.0585939999983</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>3942.474418361111</v>
+        <v>13674.525092583335</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>3275.5232588518529</v>
+        <v>8486.5540320648142</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>15543104.539431781</v>
+        <v>186992636.50769126</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>10729052.619279463</v>
+        <v>72021599.339155555</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>12913666.65477025</v>
+        <v>116049596.06103458</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>474725.71001568303</v>
+        <v>43507988.975481234</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>15717471.771469997</v>
+        <v>227485203.62792969</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
-        <v>689.00341800000024</v>
+        <v>6596.0585939999983</v>
       </c>
       <c r="S30">
         <v>4.7258519999999997</v>
@@ -10250,46 +10250,46 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>8703.2783199999994</v>
+        <v>21256.699218999998</v>
       </c>
       <c r="I31">
-        <v>9398.6601559999999</v>
+        <v>23566.699218999998</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>695.38183600000048</v>
+        <v>2310</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>4589.1658243611109</v>
+        <v>12395.230170583334</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>3915.8362468518526</v>
+        <v>11493.317704064812</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>21060442.963483997</v>
+        <v>153641730.98173934</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>15333773.512158804</v>
+        <v>132096351.84656963</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>17970421.877847001</v>
+        <v>142462318.36552373</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>483555.89783873153</v>
+        <v>5336100</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>21263332.20761992</v>
+        <v>190531579.63934907</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
-        <v>695.38183600000048</v>
+        <v>2310</v>
       </c>
       <c r="S31">
         <v>5.8077240000000003</v>
@@ -10317,46 +10317,46 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>5850.8442379999997</v>
+        <v>11464.631836</v>
       </c>
       <c r="I32">
-        <v>6719.7983400000003</v>
+        <v>13823.322265999999</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>868.9541020000006</v>
+        <v>2358.6904299999987</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>1910.3040083611113</v>
+        <v>2651.8532175833352</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>1063.4021648518528</v>
+        <v>1701.2503210648138</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>3649261.4043605286</v>
+        <v>7032325.4876070879</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>1130824.1642116071</v>
+        <v>2894252.6549231317</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>2031421.4180163778</v>
+        <v>4511466.1378304083</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>755081.23138262751</v>
+        <v>5563420.544573579</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>3734000.7420416316</v>
+        <v>16483118.902156714</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
-        <v>868.9541020000006</v>
+        <v>2358.6904299999987</v>
       </c>
       <c r="S32">
         <v>7.3342520000000002</v>
@@ -10384,46 +10384,46 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>4791.904297</v>
+        <v>9225.1992190000001</v>
       </c>
       <c r="I33">
-        <v>5210.1948240000002</v>
+        <v>10956.134765999999</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>418.29052700000011</v>
+        <v>1730.9355469999991</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>400.70049236111117</v>
+        <v>-215.33428241666479</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>4.4622238518531958</v>
+        <v>-538.18229593518663</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>160560.8845784369</v>
+        <v>46368.853183899955</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>19.911441704047572</v>
+        <v>289640.18365806883</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>1788.0152944630695</v>
+        <v>115889.09850455655</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>174966.96497793781</v>
+        <v>2996137.867868186</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>178719.88835280915</v>
+        <v>1422660.3179256797</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
-        <v>418.29052700000011</v>
+        <v>1730.9355469999991</v>
       </c>
       <c r="S33">
         <v>8.6606909999999999</v>
@@ -10451,46 +10451,46 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>2364.2373050000001</v>
+        <v>3700.945068</v>
       </c>
       <c r="I34">
-        <v>3293.6625979999999</v>
+        <v>5490.0141599999997</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>929.42529299999978</v>
+        <v>1789.0690919999997</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-1515.8317336388891</v>
+        <v>-5681.4548884166643</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-2423.2047681481467</v>
+        <v>-6062.4364469351867</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>2297745.8447066802</v>
+        <v>32278929.64911361</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>5871921.3483759137</v>
+        <v>36753135.673128128</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>3673170.6846640278</v>
+        <v>34443459.187155269</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>863831.37526813545</v>
+        <v>3200768.2159497035</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>2231377.1203738735</v>
+        <v>18261668.550225757</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="8"/>
-        <v>929.42529299999978</v>
+        <v>1789.0690919999997</v>
       </c>
       <c r="S34">
         <v>11.135647000000001</v>
@@ -10518,46 +10518,46 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1974.215698</v>
+        <v>2944.1401369999999</v>
       </c>
       <c r="I35">
-        <v>2860.4638669999999</v>
+        <v>5157.1601559999999</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>886.24816899999996</v>
+        <v>2213.020019</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-1949.030464638889</v>
+        <v>-6014.3088924166641</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2813.2263751481469</v>
+        <v>-6819.2413779351864</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>3798719.7520904839</v>
+        <v>36171911.453402162</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>7914242.6378291817</v>
+        <v>46502052.970543377</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>5483063.9090893706</v>
+        <v>41013024.058851257</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>785435.8170558525</v>
+        <v>4897457.6044947607</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>3713245.0069699301</v>
+        <v>21217275.207510717</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="8"/>
-        <v>886.24816899999996</v>
+        <v>2213.020019</v>
       </c>
       <c r="S35">
         <v>13.613049999999999</v>
@@ -10585,46 +10585,46 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>2933.6137699999999</v>
+        <v>5781.8999020000001</v>
       </c>
       <c r="I36">
-        <v>2684.0275879999999</v>
+        <v>6160.9165039999998</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-249.58618200000001</v>
+        <v>379.01660199999969</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-2125.4667436388891</v>
+        <v>-5010.5525444166642</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1853.8283031481469</v>
+        <v>-3981.4816129351866</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>4517608.878314903</v>
+        <v>25105636.800360307</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>3436679.3775531375</v>
+        <v>15852195.834140975</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>3940250.4067578991</v>
+        <v>19949422.826240562</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>62293.26224533713</v>
+        <v>143653.58459162616</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>4424352.4963310435</v>
+        <v>12977754.155012256</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="8"/>
-        <v>249.58618200000001</v>
+        <v>379.01660199999969</v>
       </c>
       <c r="S36">
         <v>13.893703</v>
@@ -10652,46 +10652,46 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>4480.2446289999998</v>
+        <v>9966.4521480000003</v>
       </c>
       <c r="I37">
-        <v>3626.814453</v>
+        <v>8340.3486329999996</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-853.43017599999985</v>
+        <v>-1626.1035150000007</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-1182.679878638889</v>
+        <v>-2831.1204154166644</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-307.19744414814704</v>
+        <v>203.07063306481359</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>1398731.6953372972</v>
+        <v>8015242.806589026</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>94370.269691153924</v>
+        <v>41237.682013344165</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>363316.23596330744</v>
+        <v>-574917.4150413801</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>728343.06530739076</v>
+        <v>2644212.6414953573</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1347056.4726507512</v>
+        <v>2025022.5830687641</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="8"/>
-        <v>853.43017599999985</v>
+        <v>1626.1035150000007</v>
       </c>
       <c r="S37">
         <v>12.509562000000001</v>
@@ -10719,46 +10719,46 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>8438.8447269999997</v>
+        <v>18360.591797000001</v>
       </c>
       <c r="I38">
-        <v>5968.6997069999998</v>
+        <v>19979.042968999998</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-2470.1450199999999</v>
+        <v>1618.4511719999973</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>1159.2053753611108</v>
+        <v>8807.5739205833343</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3651.4026538518528</v>
+        <v>8597.2102820648142</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>1343757.1022660937</v>
+        <v>77573358.366539687</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>13332741.340556353</v>
+        <v>73912024.634040967</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>4232725.5839528935</v>
+        <v>75720565.070084944</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>6101616.4198308</v>
+        <v>2619384.196148165</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1395369.5975332782</v>
+        <v>104359738.94406559</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="8"/>
-        <v>2470.1450199999999</v>
+        <v>1618.4511719999973</v>
       </c>
       <c r="S38">
         <v>6.3092430000000004</v>
@@ -10786,46 +10786,46 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>9417.7324219999991</v>
+        <v>23683.931640999999</v>
       </c>
       <c r="I39">
-        <v>9865.5234380000002</v>
+        <v>29189.210938</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>447.79101600000104</v>
+        <v>5505.279297000001</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>5056.0291063611112</v>
+        <v>18017.741889583336</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>4630.2903488518523</v>
+        <v>13920.550126064813</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>25563430.324370738</v>
+        <v>324639022.79964608</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>21439588.71467061</v>
+        <v>193781715.81228307</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>23410882.774697907</v>
+        <v>250816879.13244256</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>200516.7940103132</v>
+        <v>30308100.137976825</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>25786910.348055661</v>
+        <v>377362848.7740106</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="8"/>
-        <v>447.79101600000104</v>
+        <v>5505.279297000001</v>
       </c>
       <c r="S39">
         <v>4.0317879999999997</v>
@@ -10853,46 +10853,46 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>5523.9492190000001</v>
+        <v>13777.961914</v>
       </c>
       <c r="I40">
-        <v>5165.4565430000002</v>
+        <v>11927.501953000001</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-358.49267599999985</v>
+        <v>-1850.4599609999987</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>355.96221136111126</v>
+        <v>756.03290458333686</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>736.50714585185324</v>
+        <v>4014.5803990648128</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>126709.09591709245</v>
+        <v>571585.75281271688</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>542442.77589084301</v>
+        <v>16116855.780555392</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>262168.7123206862</v>
+        <v>3035154.8797883019</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>128516.99874564087</v>
+        <v>3424202.0672641164</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>142894.93941737778</v>
+        <v>4683417.2704498433</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="8"/>
-        <v>358.49267599999985</v>
+        <v>1850.4599609999987</v>
       </c>
       <c r="S40">
         <v>3.631583</v>
@@ -10920,46 +10920,46 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>3783.711182</v>
+        <v>7784.2148440000001</v>
       </c>
       <c r="I41">
-        <v>4384.8510740000002</v>
+        <v>9892.9375</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>601.13989200000015</v>
+        <v>2108.7226559999999</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-424.64325763888883</v>
+        <v>-1278.531548416664</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-1003.7308911481468</v>
+        <v>-1979.1666709351866</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>180321.89625816772</v>
+        <v>1634642.9202967125</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>1007475.701845053</v>
+        <v>3917100.7113406695</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>426227.55540993402</v>
+        <v>2530427.0283654183</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>361369.16975377186</v>
+        <v>4446711.2399276942</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>162079.51259510306</v>
+        <v>16784.753266114123</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="8"/>
-        <v>601.13989200000015</v>
+        <v>2108.7226559999999</v>
       </c>
       <c r="S41">
         <v>4.68215</v>
@@ -10987,46 +10987,46 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>3907.5830080000001</v>
+        <v>7680.7924800000001</v>
       </c>
       <c r="I42">
-        <v>4295.7241210000002</v>
+        <v>7538.5639650000003</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>388.14111300000013</v>
+        <v>-142.22851499999979</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-513.77021063888878</v>
+        <v>-3632.9050834166637</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-879.85906514814678</v>
+        <v>-2082.5890349351866</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>263959.82933992817</v>
+        <v>13197999.345114637</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>774151.97452337085</v>
+        <v>4337177.088432272</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>452045.37723369914</v>
+        <v>7565848.2916838434</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>150653.52360087886</v>
+        <v>20228.950479105166</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>241786.54446476704</v>
+        <v>4949813.130499606</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="8"/>
-        <v>388.14111300000013</v>
+        <v>142.22851499999979</v>
       </c>
       <c r="S42">
         <v>5.4156449999999996</v>
@@ -11054,46 +11054,46 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>5193.3540039999998</v>
+        <v>10256.133789</v>
       </c>
       <c r="I43">
-        <v>5470.6733400000003</v>
+        <v>10159.708008</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>277.31933600000048</v>
+        <v>-96.425780999999915</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>661.1790083611113</v>
+        <v>-1011.7610404166644</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>405.91193085185296</v>
+        <v>492.75227406481281</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>437157.6810973825</v>
+        <v>1023660.4029050112</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>164764.49560787945</v>
+        <v>242804.8035960444</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>268380.44792257214</v>
+        <v>-498547.55347549234</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>76906.014119481159</v>
+        <v>9297.9312414599444</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>466804.96400398854</v>
+        <v>157074.68910505317</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="8"/>
-        <v>277.31933600000048</v>
+        <v>96.425780999999915</v>
       </c>
       <c r="S43">
         <v>6.2778150000000004</v>
@@ -11121,46 +11121,46 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>4210.6259769999997</v>
+        <v>7300.2338870000003</v>
       </c>
       <c r="I44">
-        <v>4222.9233400000003</v>
+        <v>8576.7197269999997</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>12.297363000000587</v>
+        <v>1276.4858399999994</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-586.5709916388887</v>
+        <v>-2594.7493214166643</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-576.81609614814715</v>
+        <v>-2463.1476279351864</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>344065.52823222923</v>
+        <v>6732724.0409922395</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>332716.80877558852</v>
+        <v>6067096.237002735</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>338343.58951089124</v>
+        <v>6391250.6361338915</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>151.22513675378343</v>
+        <v>1629416.0997205039</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>318681.40007518831</v>
+        <v>1408166.1989455349</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="8"/>
-        <v>12.297363000000587</v>
+        <v>1276.4858399999994</v>
       </c>
       <c r="S44">
         <v>8.5226980000000001</v>
@@ -11188,46 +11188,46 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>2717.7788089999999</v>
+        <v>4508.8100590000004</v>
       </c>
       <c r="I45">
-        <v>3116.2150879999999</v>
+        <v>5985.6347660000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>398.43627900000001</v>
+        <v>1476.8247069999998</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1693.2792436388891</v>
+        <v>-5185.8342824166639</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-2069.6632641481469</v>
+        <v>-5254.5714559351863</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>2867194.5969382883</v>
+        <v>26892877.204687957</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>4283506.0269643618</v>
+        <v>27610521.185528822</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>3504517.8465039684</v>
+        <v>27249336.795596734</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>158751.46842336585</v>
+        <v>2181011.2152056349</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>2792999.6358873644</v>
+        <v>14271370.499090372</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="8"/>
-        <v>398.43627900000001</v>
+        <v>1476.8247069999998</v>
       </c>
       <c r="S45">
         <v>9.4532790000000002</v>
@@ -11255,46 +11255,46 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>2032.0460210000001</v>
+        <v>3169.179443</v>
       </c>
       <c r="I46">
-        <v>2251.0541990000002</v>
+        <v>3733.2360840000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>219.00817800000004</v>
+        <v>564.05664100000013</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-2558.4401326388888</v>
+        <v>-7438.2329644166639</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2755.3960521481467</v>
+        <v>-6594.2020719351867</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>6545615.9122972954</v>
+        <v>55327309.632934712</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>7592207.4041935923</v>
+        <v>43483500.96551431</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>7049515.8411305752</v>
+        <v>49049211.225492969</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>47964.582030879705</v>
+        <v>318159.89425620303</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>6433263.4481257545</v>
+        <v>36362653.918228507</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="8"/>
-        <v>219.00817800000004</v>
+        <v>564.05664100000013</v>
       </c>
       <c r="S46">
         <v>12.156247</v>
@@ -11322,46 +11322,46 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1930.1788329999999</v>
+        <v>3072.6984859999998</v>
       </c>
       <c r="I47">
-        <v>2185.2485350000002</v>
+        <v>5197.4873049999997</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>255.06970200000023</v>
+        <v>2124.7888189999999</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-2624.2457966388888</v>
+        <v>-5973.9817434166644</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2857.2632401481469</v>
+        <v>-6690.6830289351874</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>6886666.001176876</v>
+        <v>35688457.870675609</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>8163953.2235018872</v>
+        <v>44765239.393681332</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>7498161.0478495862</v>
+        <v>39970018.265846521</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>65060.552878368922</v>
+        <v>4514727.5253474144</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>6771411.20997997</v>
+        <v>20847389.936319668</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="8"/>
-        <v>255.06970200000023</v>
+        <v>2124.7888189999999</v>
       </c>
       <c r="S47">
         <v>14.093671000000001</v>
@@ -11389,46 +11389,46 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>2948.5009770000001</v>
+        <v>4615.3627930000002</v>
       </c>
       <c r="I48">
-        <v>2879.4721679999998</v>
+        <v>6804.9184569999998</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-69.028809000000365</v>
+        <v>2189.5556639999995</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-1930.0221636388892</v>
+        <v>-4366.5505914166642</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-1838.9410961481467</v>
+        <v>-5148.0187219351865</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>3724985.552137339</v>
+        <v>19066764.067401219</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>3381704.3551025474</v>
+        <v>26502096.76139519</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>3549197.0731923166</v>
+        <v>22479084.194890149</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>4764.976471958531</v>
+        <v>4794154.0057544792</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>3640349.1589510292</v>
+        <v>8752503.6651672181</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="8"/>
-        <v>69.028809000000365</v>
+        <v>2189.5556639999995</v>
       </c>
       <c r="S48">
         <v>14.265325000000001</v>
@@ -11456,46 +11456,46 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>4616.6762699999999</v>
+        <v>9205.4873050000006</v>
       </c>
       <c r="I49">
-        <v>3710.0266109999998</v>
+        <v>8746.9746090000008</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-906.64965900000016</v>
+        <v>-458.51269599999978</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-1099.4677206388892</v>
+        <v>-2424.4944394166632</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-170.76580314814692</v>
+        <v>-557.89420993518615</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1208829.2687268746</v>
+        <v>5878173.2867623204</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>29160.959524831662</v>
+        <v>311245.94947920553</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>187751.48835036234</v>
+        <v>1352611.4097706114</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>822013.60416481656</v>
+        <v>210233.8923931882</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1160824.0780759053</v>
+        <v>1033082.9984327379</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="8"/>
-        <v>906.64965900000016</v>
+        <v>458.51269599999978</v>
       </c>
       <c r="S49">
         <v>11.068946</v>
@@ -11523,46 +11523,46 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>5139.3652339999999</v>
+        <v>10098.644531</v>
       </c>
       <c r="I50">
-        <v>4405.0717770000001</v>
+        <v>11857.452148</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-734.29345699999976</v>
+        <v>1758.8076170000004</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-404.42255463888887</v>
+        <v>685.9830995833363</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>351.92316085185303</v>
+        <v>335.2630160648132</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>163557.60270064505</v>
+        <v>470572.81291396148</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>123849.91114395922</v>
+        <v>112401.2899408752</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>-142325.663748299</v>
+        <v>229984.76293579844</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>539186.88099301048</v>
+        <v>3093404.2336172201</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>146207.04337642144</v>
+        <v>4385131.8162644692</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="8"/>
-        <v>734.29345699999976</v>
+        <v>1758.8076170000004</v>
       </c>
       <c r="S50">
         <v>6.5458920000000003</v>
@@ -11590,46 +11590,46 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>3537.2265619999998</v>
+        <v>6232.4047849999997</v>
       </c>
       <c r="I51">
-        <v>2784.196289</v>
+        <v>8356.5292969999991</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-753.03027299999985</v>
+        <v>2124.1245119999994</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-2025.298042638889</v>
+        <v>-2814.9397514166649</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-1250.215511148147</v>
+        <v>-3530.976729935187</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>4101832.1615169151</v>
+        <v>7923885.8041057149</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>1563038.8243154224</v>
+        <v>12467796.667343786</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>2532059.0276051201</v>
+        <v>9939486.7584217843</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>567054.59205445426</v>
+        <v>4511904.9424792361</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>4012993.6717073238</v>
+        <v>1979233.1631091565</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="8"/>
-        <v>753.03027299999985</v>
+        <v>2124.1245119999994</v>
       </c>
       <c r="S51">
         <v>3.4449000000000001</v>
@@ -11657,46 +11657,46 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>4509.8168949999999</v>
+        <v>7563.2465819999998</v>
       </c>
       <c r="I52">
-        <v>3600.7658689999998</v>
+        <v>8623.2783199999994</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-909.05102600000009</v>
+        <v>1060.0317379999997</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-1208.7284626388891</v>
+        <v>-2548.1907284166646</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-277.62517814814692</v>
+        <v>-2200.134932935187</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>1461024.4963933725</v>
+        <v>6493275.988388652</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>77075.739541790317</v>
+        <v>4840593.7231217194</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>335573.45477285737</v>
+        <v>5606363.437371063</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>826373.76787165285</v>
+        <v>1123667.2855672999</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>1408200.4134914547</v>
+        <v>1299835.2951014217</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="8"/>
-        <v>909.05102600000009</v>
+        <v>1060.0317379999997</v>
       </c>
       <c r="S52">
         <v>4.8829219999999998</v>
@@ -11724,46 +11724,46 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>9142.7275389999995</v>
+        <v>18535.134765999999</v>
       </c>
       <c r="I53">
-        <v>11908.654296999999</v>
+        <v>30475.421875</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>2765.9267579999996</v>
+        <v>11940.287109000001</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>7099.1599653611102</v>
+        <v>19303.952826583336</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>4355.2854658518527</v>
+        <v>8771.7532510648125</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>50398072.213785961</v>
+        <v>372642594.73095477</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>18968511.489060391</v>
+        <v>76943655.097566113</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>30918868.216894586</v>
+        <v>169329510.96498415</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>7650350.8306203885</v>
+        <v>142570456.24535158</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>50711663.537137046</v>
+        <v>428988615.87695378</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="8"/>
-        <v>2765.9267579999996</v>
+        <v>11940.287109000001</v>
       </c>
       <c r="S53">
         <v>4.520651</v>
@@ -11791,46 +11791,46 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>10526.754883</v>
+        <v>22273.548827999999</v>
       </c>
       <c r="I54">
-        <v>9075.5693360000005</v>
+        <v>24808.746093999998</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-1451.1855469999991</v>
+        <v>2535.1972659999992</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>4266.0750043611115</v>
+        <v>13637.277045583334</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>5739.3128098518528</v>
+        <v>12510.167313064812</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>18199395.942834657</v>
+        <v>185975325.21799412</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>32939711.529329568</v>
+        <v>156504286.20087525</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>24484338.920318525</v>
+        <v>170604617.53486571</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>2105939.4918216867</v>
+        <v>6427225.1775338706</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>18388035.422413331</v>
+        <v>226362995.31697807</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="8"/>
-        <v>1451.1855469999991</v>
+        <v>2535.1972659999992</v>
       </c>
       <c r="S54">
         <v>5.7843809999999998</v>
@@ -11858,46 +11858,46 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>5839.5068359999996</v>
+        <v>11739.069336</v>
       </c>
       <c r="I55">
-        <v>6030.7529299999997</v>
+        <v>13918.852539</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>191.24609400000008</v>
+        <v>2179.783202999999</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>1221.2585983611107</v>
+        <v>2747.3834905833355</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>1052.0647628518527</v>
+        <v>1975.6878210648138</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>1491472.5640709447</v>
+        <v>7548116.0443298733</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>1106840.2652345251</v>
+        <v>3903342.3663038313</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1284843.1376655679</v>
+        <v>5427972.1021400327</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>36575.068470256869</v>
+        <v>4751454.8120809346</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1545821.8867656884</v>
+        <v>17267939.431842264</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="8"/>
-        <v>191.24609400000008</v>
+        <v>2179.783202999999</v>
       </c>
       <c r="S55">
         <v>6.9225659999999998</v>
@@ -11925,46 +11925,46 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>5263.234375</v>
+        <v>9263.2998050000006</v>
       </c>
       <c r="I56">
-        <v>5272.5742190000001</v>
+        <v>11709.092773</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>9.3398440000000846</v>
+        <v>2445.7929679999997</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>463.0798873611111</v>
+        <v>537.6237245833363</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>475.79230185185315</v>
+        <v>-500.08170993518615</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>214442.98207837934</v>
+        <v>289039.26923485904</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>226378.31450148494</v>
+        <v>250081.71661169967</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>220329.84554883992</v>
+        <v>-268855.79149135837</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>87.232685944337575</v>
+        <v>5981903.2423182474</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>235353.1989388238</v>
+        <v>3785792.2997601596</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="8"/>
-        <v>9.3398440000000846</v>
+        <v>2445.7929679999997</v>
       </c>
       <c r="S56">
         <v>7.9653090000000004</v>
@@ -11992,46 +11992,46 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>2698.1745609999998</v>
+        <v>4279.2416990000002</v>
       </c>
       <c r="I57">
-        <v>3332.3615719999998</v>
+        <v>7300.4370120000003</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>634.18701099999998</v>
+        <v>3021.1953130000002</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-1477.1327596388892</v>
+        <v>-3871.0320364166637</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-2089.267512148147</v>
+        <v>-5484.1398159351866</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>2181921.1895984001</v>
+        <v>14984889.026964143</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>4365038.7373177074</v>
+        <v>30075789.520725623</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>3086125.4858432687</v>
+        <v>21229280.919673294</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>402193.1649211141</v>
+        <v>9127621.1192931682</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>2117259.2648215429</v>
+        <v>6066095.6245386526</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>634.18701099999998</v>
+        <v>3021.1953130000002</v>
       </c>
       <c r="S57">
         <v>9.8502240000000008</v>
@@ -12059,46 +12059,46 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>2087.186279</v>
+        <v>3094.9501949999999</v>
       </c>
       <c r="I58">
-        <v>2467.9572750000002</v>
+        <v>4796.4003910000001</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>380.7709960000002</v>
+        <v>1701.4501960000002</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-2341.5370566388888</v>
+        <v>-6375.0686574166639</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-2700.2557941481468</v>
+        <v>-6668.4313199351873</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>5482795.7876131106</v>
+        <v>40641500.386776306</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>7291381.3538306393</v>
+        <v>44467976.268692546</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>6322749.0044017565</v>
+        <v>42511707.50185445</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>144986.55139483217</v>
+        <v>2894932.7694684393</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>5380009.7288403483</v>
+        <v>24670901.48552845</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="8"/>
-        <v>380.7709960000002</v>
+        <v>1701.4501960000002</v>
       </c>
       <c r="S58">
         <v>12.327113000000001</v>
@@ -12126,46 +12126,46 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1945.6451420000001</v>
+        <v>2840.217529</v>
       </c>
       <c r="I59">
-        <v>2476.669922</v>
+        <v>5362.8188479999999</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>531.02477999999996</v>
+        <v>2522.6013189999999</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-2332.8244096388889</v>
+        <v>-5808.6502004166641</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2841.7969311481465</v>
+        <v>-6923.1639859351872</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>5442069.7262070309</v>
+        <v>33740417.150800556</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>8075809.7978830235</v>
+        <v>47930199.576149985</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>6629413.2482192814</v>
+        <v>40214237.874419853</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>281987.31697404839</v>
+        <v>6363517.4146205392</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>5339667.9345218334</v>
+        <v>19364951.785623726</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="8"/>
-        <v>531.02477999999996</v>
+        <v>2522.6013189999999</v>
       </c>
       <c r="S59">
         <v>14.523591</v>
@@ -12193,46 +12193,46 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>2825.1130370000001</v>
+        <v>5477.3515619999998</v>
       </c>
       <c r="I60">
-        <v>2288.59375</v>
+        <v>5252.294922</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-536.51928700000008</v>
+        <v>-225.05663999999979</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-2520.900581638889</v>
+        <v>-5919.174126416664</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-1962.3290361481468</v>
+        <v>-4286.0299529351869</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>6354939.7425072892</v>
+        <v>35036622.338840477</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>3850735.2461101147</v>
+        <v>18370052.757457599</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>4946836.4085927438</v>
+        <v>25369757.60246079</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>287852.94532298844</v>
+        <v>50650.491208089508</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>6244242.9421003051</v>
+        <v>20349902.24895959</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="8"/>
-        <v>536.51928700000008</v>
+        <v>225.05663999999979</v>
       </c>
       <c r="S60">
         <v>14.714471</v>
@@ -12260,46 +12260,46 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>4115.2524409999996</v>
+        <v>9255.5712889999995</v>
       </c>
       <c r="I61">
-        <v>2809.5463869999999</v>
+        <v>6773.5688479999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-1305.7060539999998</v>
+        <v>-2482.0024409999996</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-1999.9479446388891</v>
+        <v>-4397.9002004166641</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-672.18963214814721</v>
+        <v>-507.81022593518719</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>3999791.781265317</v>
+        <v>19341526.172824934</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>451838.90156746143</v>
+        <v>257871.22556434586</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>1344344.2732222578</v>
+        <v>2233298.6944139912</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>1704868.2994522504</v>
+        <v>6160336.1171299564</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>3912071.3452834492</v>
+        <v>8938979.7833660953</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="8"/>
-        <v>1305.7060539999998</v>
+        <v>2482.0024409999996</v>
       </c>
       <c r="S61">
         <v>13.40859</v>
@@ -12327,46 +12327,46 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>8862.8935550000006</v>
+        <v>18252.566406000002</v>
       </c>
       <c r="I62">
-        <v>6130.9331050000001</v>
+        <v>16040.079102</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-2731.9604500000005</v>
+        <v>-2212.487304000002</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>1321.4387733611111</v>
+        <v>4868.6100535833357</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>4075.4514818518537</v>
+        <v>8489.184891064815</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>1746200.431742118</v>
+        <v>23703363.85385273</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>16609304.78092847</v>
+        <v>72066260.114683136</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>5385459.6070710365</v>
+        <v>41330530.907365911</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>7463607.9003642052</v>
+        <v>4895100.070361197</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1804968.1526663573</v>
+        <v>39396932.599465244</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="8"/>
-        <v>2731.9604500000005</v>
+        <v>2212.487304000002</v>
       </c>
       <c r="S62">
         <v>6.3440430000000001</v>
@@ -12394,46 +12394,46 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>10294.089844</v>
+        <v>24082.056640999999</v>
       </c>
       <c r="I63">
-        <v>10606.087890999999</v>
+        <v>28317.193359000001</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>311.99804699999913</v>
+        <v>4235.1367180000016</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>5796.5935593611102</v>
+        <v>17145.724310583337</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>5506.6477708518532</v>
+        <v>14318.675126064813</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>33600496.892426707</v>
+        <v>293975862.13452846</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>30323169.672227684</v>
+        <v>205024457.36578718</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>31919799.002190068</v>
+        <v>245504056.20431438</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>97342.781331813661</v>
+        <v>17936383.020151824</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>33856639.15360485</v>
+        <v>344243933.94495976</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="8"/>
-        <v>311.99804699999913</v>
+        <v>4235.1367180000016</v>
       </c>
       <c r="S63">
         <v>4.6902460000000001</v>
@@ -12461,46 +12461,46 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6174.8183589999999</v>
+        <v>13069.323242</v>
       </c>
       <c r="I64">
-        <v>5744.9121089999999</v>
+        <v>16603.951172000001</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-429.90625</v>
+        <v>3534.6279300000006</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>935.41777736111089</v>
+        <v>5432.4821235833369</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1387.376285851853</v>
+        <v>3305.9417270648137</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>875006.4182032008</v>
+        <v>29511862.023052521</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1924812.9585440827</v>
+        <v>10929250.702748284</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>1297776.4416750537</v>
+        <v>17959469.333887823</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>184819.3837890625</v>
+        <v>12493594.603536088</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>916748.86955414875</v>
+        <v>46793393.233155832</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="8"/>
-        <v>429.90625</v>
+        <v>3534.6279300000006</v>
       </c>
       <c r="S64">
         <v>5.0197510000000003</v>
@@ -12528,46 +12528,46 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>4511.7373049999997</v>
+        <v>9395.2587889999995</v>
       </c>
       <c r="I65">
-        <v>5008.0356449999999</v>
+        <v>11703.522461</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>496.29834000000028</v>
+        <v>2308.263672000001</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>198.54131336111095</v>
+        <v>532.05341258333647</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-275.7047681481472</v>
+        <v>-368.12272593518719</v>
       </c>
       <c r